--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2533"/>
+  <dimension ref="A1:H2537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>45800.68631944444</v>
+        <v>45803.64980324074</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>45799.61216435185</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>45800.93197721101</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2">
-        <v>45800.6955787037</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1176</v>
+        <v>1072</v>
       </c>
       <c r="D33" s="2">
-        <v>45800.93197721101</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E33">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F33" s="2">
-        <v>45800.6955787037</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1589,22 +1589,22 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D56" s="2">
-        <v>45800.93197721101</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E56">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F56" s="2">
-        <v>45800.6955787037</v>
+        <v>45803.5318287037</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D58" s="2">
-        <v>45800.93197721101</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E58">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F58" s="2">
-        <v>45800.6955787037</v>
+        <v>45803.5318287037</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D59" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E59">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2114,22 +2114,22 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
-        <v>45799.89540330523</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F71" s="2">
-        <v>45799.53100694445</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2376,22 +2376,22 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D81" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E81">
         <v>57</v>
       </c>
       <c r="F81" s="2">
-        <v>45796.76049768519</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2">
-        <v>45798.96533509644</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E82">
         <v>18</v>
@@ -2414,10 +2414,10 @@
         <v>45798.43265046296</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" s="2">
-        <v>45800.93201925102</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E83">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F83" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" s="2">
-        <v>45800.93201925102</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E85">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D86" s="2">
-        <v>45800.93184391336</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E86">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2">
-        <v>45800.50141203704</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2529,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2">
-        <v>45800.93197721101</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E87">
         <v>15</v>
@@ -2541,10 +2541,10 @@
         <v>45800.6955787037</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2630,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D91" s="2">
-        <v>45800.93201925102</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E91">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F91" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D94" s="2">
-        <v>45800.93175383128</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E94">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2">
-        <v>45800.47983796296</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2751,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2">
-        <v>45799.89532166889</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E96">
         <v>51</v>
@@ -2763,10 +2763,10 @@
         <v>45791.69931712963</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2800,16 +2800,16 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="D98" s="2">
-        <v>45799.89534673509</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E98">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="F98" s="2">
-        <v>45793.60246527778</v>
+        <v>45803.48216435185</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2143</v>
+        <v>1856</v>
       </c>
       <c r="D101" s="2">
-        <v>45800.93201925102</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E101">
-        <v>2143</v>
+        <v>2123</v>
       </c>
       <c r="F101" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
-        <v>45799.89542739857</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E103">
         <v>40</v>
@@ -2933,10 +2933,10 @@
         <v>45793.38017361111</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D106" s="2">
-        <v>45799.895427387</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -3005,10 +3005,10 @@
         <v>45799.64056712963</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>770</v>
+        <v>1202</v>
       </c>
       <c r="D117" s="2">
-        <v>45800.93172920593</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E117">
-        <v>770</v>
+        <v>1202</v>
       </c>
       <c r="F117" s="2">
-        <v>45800.40415509259</v>
+        <v>45802.99459490741</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D120" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E120">
         <v>89</v>
@@ -3345,10 +3345,10 @@
         <v>45796.72284722222</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3368,7 +3368,7 @@
         <v>52</v>
       </c>
       <c r="F121" s="2">
-        <v>45800.6955787037</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D123" s="2">
-        <v>45799.895427387</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E123">
         <v>99</v>
       </c>
       <c r="F123" s="2">
-        <v>45799.64056712963</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3846,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D141" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E141">
         <v>622</v>
@@ -3858,10 +3858,10 @@
         <v>45800.50141203704</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4074,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>45799.89534672352</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E150">
         <v>14</v>
@@ -4086,10 +4086,10 @@
         <v>45792.73215277777</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D185" s="2">
-        <v>45799.89540330523</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E185">
         <v>94</v>
@@ -4948,10 +4948,10 @@
         <v>45799.54621527778</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5077,22 +5077,22 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>-133</v>
+        <v>257</v>
       </c>
       <c r="D191" s="2">
-        <v>45799.89540330523</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E191">
-        <v>-133</v>
+        <v>267</v>
       </c>
       <c r="F191" s="2">
-        <v>45799.54621527778</v>
+        <v>45802.99361111111</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5112,7 +5112,7 @@
         <v>34</v>
       </c>
       <c r="F192" s="2">
-        <v>45793.40247685185</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2">
-        <v>45799.89534672352</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E206">
         <v>10</v>
@@ -5461,10 +5461,10 @@
         <v>45792.73215277777</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D209" s="2">
-        <v>45799.89532166889</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E209">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F209" s="2">
-        <v>45791.54950231482</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D217" s="2">
-        <v>45798.96533509644</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E217">
         <v>128</v>
@@ -5723,10 +5723,10 @@
         <v>45798.62037037037</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5737,10 +5737,10 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D218" s="2">
-        <v>45799.89534673509</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E218">
         <v>97</v>
@@ -5749,10 +5749,10 @@
         <v>45793.71568287037</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6175,10 +6175,10 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D236" s="2">
-        <v>45800.93201925102</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E236">
         <v>64</v>
@@ -6187,10 +6187,10 @@
         <v>45800.75763888889</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6627,22 +6627,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D255" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E255">
         <v>133</v>
       </c>
       <c r="F255" s="2">
-        <v>45799.63390046296</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6996,22 +6996,22 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D270" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E270">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F270" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.53376157407</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D272" s="2">
-        <v>45799.895451121</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E272">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F272" s="2">
-        <v>45799.64041666667</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>7</v>
+        <v>-13</v>
       </c>
       <c r="D283" s="2">
-        <v>45800.93175383128</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E283">
         <v>7</v>
@@ -7322,10 +7322,10 @@
         <v>45800.47983796296</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="D287" s="2">
-        <v>45800.93204011993</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E287">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="F287" s="2">
-        <v>45800.76359953704</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D292" s="2">
-        <v>45799.895427387</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E292">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F292" s="2">
-        <v>45799.64056712963</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>62</v>
       </c>
       <c r="F295" s="2">
-        <v>45800.686875</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="2">
-        <v>45799.62475694445</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -7953,22 +7953,22 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D309" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E309">
         <v>1241</v>
       </c>
       <c r="F309" s="2">
-        <v>45796.61327546297</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D314" s="2">
-        <v>45800.93194931293</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E314">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F314" s="2">
-        <v>45800.68569444444</v>
+        <v>45803.64980324074</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D315" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E315">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F315" s="2">
-        <v>45799.63390046296</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>-5</v>
       </c>
       <c r="F318" s="2">
-        <v>45800.76359953704</v>
+        <v>45803.61013888889</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8195,22 +8195,22 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D319" s="2">
-        <v>45799.8954032937</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E319">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F319" s="2">
-        <v>45799.40421296296</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8374,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D326" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E326">
         <v>18</v>
@@ -8386,10 +8386,10 @@
         <v>45796.65443287037</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8870,10 +8870,10 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D346" s="2">
-        <v>45800.93197722271</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E346">
         <v>106</v>
@@ -8882,10 +8882,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9066,10 +9066,10 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D354" s="2">
-        <v>45798.96533509644</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E354">
         <v>29</v>
@@ -9078,10 +9078,10 @@
         <v>45798.62037037037</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9164,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D358" s="2">
-        <v>45800.93194931293</v>
+        <v>45803.90694023441</v>
       </c>
       <c r="E358">
         <v>34</v>
@@ -9176,10 +9176,10 @@
         <v>45800.68569444444</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H358" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D361" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E361">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F361" s="2">
-        <v>45800.68631944444</v>
+        <v>45803.57027777778</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,22 +9291,22 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="D363" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E363">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F363" s="2">
-        <v>45800.6859837963</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9978,7 +9978,7 @@
         <v>29</v>
       </c>
       <c r="F390" s="2">
-        <v>45800.686875</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D394" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E394">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F394" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10278,7 +10278,7 @@
         <v>212</v>
       </c>
       <c r="F402" s="2">
-        <v>45797.76128472222</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D404" s="2">
-        <v>45800.93172920593</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E404">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F404" s="2">
-        <v>45800.40415509259</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D408" s="2">
-        <v>45798.96533509644</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E408">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F408" s="2">
-        <v>45798.44859953703</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="D418" s="2">
-        <v>45799.895427387</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E418">
         <v>350</v>
@@ -10685,10 +10685,10 @@
         <v>45799.64056712963</v>
       </c>
       <c r="G418">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H418" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D461" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E461">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F461" s="2">
-        <v>45800.686875</v>
+        <v>45803.41005787037</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -11780,16 +11780,16 @@
         <v>1</v>
       </c>
       <c r="C463">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D463" s="2">
-        <v>45795.04204563411</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E463">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F463" s="2">
-        <v>45749.77075231481</v>
+        <v>45803.41005787037</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D480" s="2">
-        <v>45800.93188815672</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E480">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F480" s="2">
-        <v>45800.62752314815</v>
+        <v>45803.38509259259</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12951,22 +12951,22 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D510" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E510">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F510" s="2">
-        <v>45800.686875</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G510">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H510" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13669,10 +13669,10 @@
         <v>1</v>
       </c>
       <c r="C539">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D539" s="2">
-        <v>45799.89528859723</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E539">
         <v>107</v>
@@ -13681,10 +13681,10 @@
         <v>45784.73082175926</v>
       </c>
       <c r="G539">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H539" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D570" s="2">
-        <v>45800.93172920593</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E570">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F570" s="2">
-        <v>45800.40415509259</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14536,16 +14536,16 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D575" s="2">
-        <v>45799.8954032937</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E575">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F575" s="2">
-        <v>45799.40591435185</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -15878,22 +15878,22 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D631" s="2">
-        <v>45799.89540330523</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E631">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F631" s="2">
-        <v>45799.54766203704</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G631">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H631" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -15956,10 +15956,10 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D634" s="2">
-        <v>45799.895427387</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E634">
         <v>23</v>
@@ -15968,10 +15968,10 @@
         <v>45799.64056712963</v>
       </c>
       <c r="G634">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H634" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16535,10 +16535,10 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D658" s="2">
-        <v>45799.89542739857</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E658">
         <v>40</v>
@@ -16547,10 +16547,10 @@
         <v>45793.37982638889</v>
       </c>
       <c r="G658">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H658" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D681" s="2">
-        <v>45800.93188815672</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E681">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="F681" s="2">
-        <v>45800.62752314815</v>
+        <v>45803.49592592593</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17195,10 +17195,10 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D685" s="2">
-        <v>45800.93204010786</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E685">
         <v>15</v>
@@ -17207,10 +17207,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G685">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H685" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -17342,10 +17342,10 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D691" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E691">
         <v>377</v>
@@ -17354,10 +17354,10 @@
         <v>45796.65443287037</v>
       </c>
       <c r="G691">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H691" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D701" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E701">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F701" s="2">
-        <v>45799.63390046296</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17968,16 +17968,16 @@
         <v>1</v>
       </c>
       <c r="C716">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D716" s="2">
-        <v>45798.96533509644</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E716">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F716" s="2">
-        <v>45798.44859953703</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -18072,22 +18072,22 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="D720" s="2">
-        <v>45800.93175383128</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E720">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F720" s="2">
-        <v>45800.47983796296</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G720">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H720" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D729" s="2">
-        <v>45799.895427387</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E729">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F729" s="2">
-        <v>45799.67204861111</v>
+        <v>45803.52103009259</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18381,10 +18381,10 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D732" s="2">
-        <v>45800.93188815672</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E732">
         <v>444</v>
@@ -18393,10 +18393,10 @@
         <v>45800.62752314815</v>
       </c>
       <c r="G732">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H732" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D763" s="2">
-        <v>45799.89534673509</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E763">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="F763" s="2">
-        <v>45796.43142361111</v>
+        <v>45803.40251157407</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -19241,7 +19241,7 @@
         <v>7</v>
       </c>
       <c r="F766" s="2">
-        <v>45796.49008101852</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D772" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E772">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F772" s="2">
-        <v>45800.6859837963</v>
+        <v>45803.57027777778</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19483,10 +19483,10 @@
         <v>1</v>
       </c>
       <c r="C776">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D776" s="2">
-        <v>45800.93188815672</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E776">
         <v>78</v>
@@ -19495,10 +19495,10 @@
         <v>45800.62752314815</v>
       </c>
       <c r="G776">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H776" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -19979,10 +19979,10 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D796" s="2">
-        <v>45799.89536723674</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E796">
         <v>16</v>
@@ -19991,10 +19991,10 @@
         <v>45797.63394675926</v>
       </c>
       <c r="G796">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H796" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -20409,16 +20409,16 @@
         <v>1</v>
       </c>
       <c r="C813">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D813" s="2">
-        <v>45799.89542737551</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E813">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F813" s="2">
-        <v>45799.6352662037</v>
+        <v>45803.54020833333</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -20732,22 +20732,22 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D826" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.90694023441</v>
       </c>
       <c r="E826">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F826" s="2">
-        <v>45800.686875</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G826">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H826" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="D844" s="2">
-        <v>45800.93204010786</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E844">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="F844" s="2">
-        <v>45800.75802083333</v>
+        <v>45802.99417824074</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21337,10 +21337,10 @@
         <v>1</v>
       </c>
       <c r="C851">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D851" s="2">
-        <v>45799.89532168047</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E851">
         <v>14</v>
@@ -21349,10 +21349,10 @@
         <v>45791.75405092593</v>
       </c>
       <c r="G851">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H851" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -21389,22 +21389,22 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D853" s="2">
-        <v>45800.93179064643</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E853">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F853" s="2">
-        <v>45800.48438657408</v>
+        <v>45803.38509259259</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H853" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21868,22 +21868,22 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="D872" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.90694023441</v>
       </c>
       <c r="E872">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="F872" s="2">
-        <v>45800.6859837963</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G872">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H872" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -22145,22 +22145,22 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D883" s="2">
-        <v>45800.93188815672</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E883">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F883" s="2">
-        <v>45800.62752314815</v>
+        <v>45803.62967592593</v>
       </c>
       <c r="G883">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H883" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D888" s="2">
-        <v>45800.93197719934</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E888">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F888" s="2">
-        <v>45800.686875</v>
+        <v>45803.57027777778</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -23187,22 +23187,22 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D924" s="2">
-        <v>45800.93179064643</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E924">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F924" s="2">
-        <v>45800.48438657408</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G924">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H924" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23539,10 +23539,10 @@
         <v>1</v>
       </c>
       <c r="C938">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D938" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E938">
         <v>23</v>
@@ -23551,10 +23551,10 @@
         <v>45796.65907407407</v>
       </c>
       <c r="G938">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H938" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24136,22 +24136,22 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D962" s="2">
-        <v>45800.93175383128</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E962">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F962" s="2">
-        <v>45800.47983796296</v>
+        <v>45803.38509259259</v>
       </c>
       <c r="G962">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H962" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -24162,10 +24162,10 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D963" s="2">
-        <v>45798.96533511975</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E963">
         <v>919</v>
@@ -24174,10 +24174,10 @@
         <v>45798.64541666667</v>
       </c>
       <c r="G963">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H963" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1002" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1002">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1002" s="2">
-        <v>45796.63792824074</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D1017" s="2">
-        <v>45800.93197719934</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1017">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F1017" s="2">
-        <v>45800.686875</v>
+        <v>45803.57027777778</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -26676,22 +26676,22 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="D1062" s="2">
-        <v>45800.93197718772</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1062">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F1062" s="2">
-        <v>45800.68569444444</v>
+        <v>45803.41005787037</v>
       </c>
       <c r="G1062">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H1062" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27867,10 +27867,10 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D1110" s="2">
-        <v>45799.89542737551</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E1110">
         <v>193</v>
@@ -27879,10 +27879,10 @@
         <v>45799.64041666667</v>
       </c>
       <c r="G1110">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="D1159" s="2">
-        <v>45795.0420164208</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1159">
         <v>2</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D1177" s="2">
-        <v>45798.9653592312</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1177">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F1177" s="2">
-        <v>45798.71837962963</v>
+        <v>45803.51891203703</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -31372,10 +31372,10 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="D1247" s="2">
-        <v>45799.89534674662</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1247">
         <v>4</v>
@@ -31384,10 +31384,10 @@
         <v>45796.72284722222</v>
       </c>
       <c r="G1247">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H1247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31450,10 +31450,10 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D1250" s="2">
-        <v>45795.04210567895</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E1250">
         <v>200</v>
@@ -31462,10 +31462,10 @@
         <v>45776.51189814815</v>
       </c>
       <c r="G1250">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1250" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -31528,22 +31528,22 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>751</v>
+        <v>695</v>
       </c>
       <c r="D1253" s="2">
-        <v>45800.93184391336</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1253">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F1253" s="2">
-        <v>45800.50141203704</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G1253">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H1253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D1261" s="2">
-        <v>45800.93204011993</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1261">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F1261" s="2">
-        <v>45800.76021990741</v>
+        <v>45803.52199074074</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>1</v>
       </c>
       <c r="C1265">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D1265" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1265">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F1265" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.53497685185</v>
       </c>
       <c r="G1265">
         <v>0</v>
@@ -33791,22 +33791,22 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1781</v>
+        <v>1619</v>
       </c>
       <c r="D1342" s="2">
-        <v>45800.9318881683</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1342">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="F1342" s="2">
-        <v>45800.63335648148</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G1342">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="H1342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -34963,16 +34963,16 @@
         <v>1</v>
       </c>
       <c r="C1388">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D1388" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1388">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F1388" s="2">
-        <v>45800.46056712963</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G1388">
         <v>0</v>
@@ -35041,10 +35041,10 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1391" s="2">
-        <v>45799.89534671205</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1391">
         <v>115</v>
@@ -35053,10 +35053,10 @@
         <v>45792.45592592593</v>
       </c>
       <c r="G1391">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35067,10 +35067,10 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1392" s="2">
-        <v>45799.89528859723</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E1392">
         <v>8</v>
@@ -35079,10 +35079,10 @@
         <v>45784.64537037037</v>
       </c>
       <c r="G1392">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1393" spans="1:8">
@@ -35578,22 +35578,22 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1412" s="2">
-        <v>45800.93197719934</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1412">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1412" s="2">
-        <v>45800.686875</v>
+        <v>45803.4153125</v>
       </c>
       <c r="G1412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -35832,16 +35832,16 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1422" s="2">
-        <v>45799.89532168047</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1422">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F1422" s="2">
-        <v>45791.75405092593</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -35858,10 +35858,10 @@
         <v>1</v>
       </c>
       <c r="C1423">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1423" s="2">
-        <v>45799.89534672352</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E1423">
         <v>20</v>
@@ -35870,10 +35870,10 @@
         <v>45792.65011574074</v>
       </c>
       <c r="G1423">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1423" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1424" spans="1:8">
@@ -40151,7 +40151,7 @@
         <v>69</v>
       </c>
       <c r="F1594" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.64673611111</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40220,22 +40220,22 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7407</v>
+        <v>7361</v>
       </c>
       <c r="D1597" s="2">
-        <v>45800.93197719934</v>
+        <v>45803.90694023441</v>
       </c>
       <c r="E1597">
-        <v>7407</v>
+        <v>7405</v>
       </c>
       <c r="F1597" s="2">
-        <v>45800.686875</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G1597">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H1597" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -41083,16 +41083,16 @@
         <v>1</v>
       </c>
       <c r="C1631">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1631" s="2">
-        <v>45799.89532163485</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1631">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1631" s="2">
-        <v>45785.67143518518</v>
+        <v>45803.50922453704</v>
       </c>
       <c r="G1631">
         <v>0</v>
@@ -41187,22 +41187,22 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D1635" s="2">
-        <v>45800.93197719934</v>
+        <v>45803.90692203668</v>
       </c>
       <c r="E1635">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F1635" s="2">
-        <v>45800.686875</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G1635">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1635" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -41700,16 +41700,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1656" s="2">
-        <v>45799.89542739857</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E1656">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1656" s="2">
-        <v>45792.65766203704</v>
+        <v>45803.49555555556</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -42718,10 +42718,10 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1697" s="2">
-        <v>45799.89534672352</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E1697">
         <v>9</v>
@@ -42730,10 +42730,10 @@
         <v>45792.65133101852</v>
       </c>
       <c r="G1697">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1697" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -43528,16 +43528,16 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D1730" s="2">
-        <v>45799.89528858563</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E1730">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F1730" s="2">
-        <v>45782.63311342592</v>
+        <v>45803.6213425926</v>
       </c>
       <c r="G1730">
         <v>0</v>
@@ -47885,10 +47885,10 @@
         <v>1</v>
       </c>
       <c r="C1903">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1903" s="2">
-        <v>45799.89536723674</v>
+        <v>45803.9069220483</v>
       </c>
       <c r="E1903">
         <v>7</v>
@@ -47897,10 +47897,10 @@
         <v>45797.67800925926</v>
       </c>
       <c r="G1903">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1903" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1904" spans="1:8">
@@ -49475,16 +49475,16 @@
         <v>1</v>
       </c>
       <c r="C1966">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1966" s="2">
-        <v>45795.0420164208</v>
+        <v>45803.62109434994</v>
       </c>
       <c r="E1966">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1966" s="2">
-        <v>45726.47736111111</v>
+        <v>45803.50018518518</v>
       </c>
       <c r="G1966">
         <v>0</v>
@@ -51587,16 +51587,16 @@
         <v>1</v>
       </c>
       <c r="C2050">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2050" s="2">
-        <v>45800.93175380815</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2050">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2050" s="2">
-        <v>45800.44972222222</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G2050">
         <v>0</v>
@@ -54708,19 +54708,19 @@
         <v>1</v>
       </c>
       <c r="C2175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2175" s="2">
-        <v>45795.0418106143</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E2175">
         <v>0</v>
       </c>
       <c r="G2175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2176" spans="1:8">
@@ -54835,22 +54835,22 @@
         <v>1</v>
       </c>
       <c r="C2180">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D2180" s="2">
-        <v>45799.89540330523</v>
+        <v>45803.90694022291</v>
       </c>
       <c r="E2180">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2180" s="2">
-        <v>45799.43446759259</v>
+        <v>45803.38509259259</v>
       </c>
       <c r="G2180">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2181" spans="1:8">
@@ -56362,16 +56362,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D2240" s="2">
-        <v>45799.89536723674</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2240">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F2240" s="2">
-        <v>45797.53163194445</v>
+        <v>45803.38153935185</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -60749,10 +60749,10 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D2416" s="2">
-        <v>45800.93175379655</v>
+        <v>45803.90694023441</v>
       </c>
       <c r="E2416">
         <v>412</v>
@@ -60761,10 +60761,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G2416">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61954,16 +61954,16 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D2465" s="2">
-        <v>45800.93175379655</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2465">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2465" s="2">
-        <v>45800.40415509259</v>
+        <v>45803.4153125</v>
       </c>
       <c r="G2465">
         <v>0</v>
@@ -62369,16 +62369,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D2482" s="2">
-        <v>45800.93179064643</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2482">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F2482" s="2">
-        <v>45800.48438657408</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62395,16 +62395,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1063</v>
+        <v>1013</v>
       </c>
       <c r="D2483" s="2">
-        <v>45799.89540331678</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2483">
-        <v>1063</v>
+        <v>1013</v>
       </c>
       <c r="F2483" s="2">
-        <v>45799.61766203704</v>
+        <v>45803.61216435185</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -63593,21 +63593,113 @@
         <v>1</v>
       </c>
       <c r="C2533">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2533" s="2">
-        <v>45800.93204010786</v>
+        <v>45803.62106753104</v>
       </c>
       <c r="E2533">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F2533" s="2">
-        <v>45800.75802083333</v>
+        <v>45803.53655092593</v>
       </c>
       <c r="G2533">
         <v>0</v>
       </c>
       <c r="H2533" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:8">
+      <c r="A2534">
+        <v>43238724</v>
+      </c>
+      <c r="B2534">
+        <v>1</v>
+      </c>
+      <c r="C2534">
+        <v>0</v>
+      </c>
+      <c r="D2534" s="2">
+        <v>45803.62106753104</v>
+      </c>
+      <c r="E2534">
+        <v>0</v>
+      </c>
+      <c r="G2534">
+        <v>0</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:8">
+      <c r="A2535">
+        <v>43239201</v>
+      </c>
+      <c r="B2535">
+        <v>1</v>
+      </c>
+      <c r="C2535">
+        <v>0</v>
+      </c>
+      <c r="D2535" s="2">
+        <v>45803.62106753104</v>
+      </c>
+      <c r="E2535">
+        <v>0</v>
+      </c>
+      <c r="G2535">
+        <v>0</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:8">
+      <c r="A2536">
+        <v>43241476</v>
+      </c>
+      <c r="B2536">
+        <v>1</v>
+      </c>
+      <c r="C2536">
+        <v>0</v>
+      </c>
+      <c r="D2536" s="2">
+        <v>45803.62109434994</v>
+      </c>
+      <c r="E2536">
+        <v>0</v>
+      </c>
+      <c r="G2536">
+        <v>0</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:8">
+      <c r="A2537">
+        <v>43246609</v>
+      </c>
+      <c r="B2537">
+        <v>1</v>
+      </c>
+      <c r="C2537">
+        <v>0</v>
+      </c>
+      <c r="D2537" s="2">
+        <v>45803.90694022291</v>
+      </c>
+      <c r="E2537">
+        <v>0</v>
+      </c>
+      <c r="G2537">
+        <v>0</v>
+      </c>
+      <c r="H2537" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2537"/>
+  <dimension ref="A1:H2541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>45803.64980324074</v>
+        <v>45804.71377314815</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2">
-        <v>45799.89534673509</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
-        <v>45796.49008101852</v>
+        <v>45804.47773148148</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D33" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E33">
-        <v>1174</v>
+        <v>1062</v>
       </c>
       <c r="F33" s="2">
-        <v>45803.49555555556</v>
+        <v>45804.46582175926</v>
       </c>
       <c r="G33">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="2">
-        <v>45799.8954510958</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E48">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2">
-        <v>45797.99737268518</v>
+        <v>45804.69865740741</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1595,16 +1595,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E49">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2">
-        <v>45803.64673611111</v>
+        <v>45803.77322916667</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E56">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F56" s="2">
-        <v>45803.5318287037</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1823,16 +1823,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E58">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F58" s="2">
-        <v>45803.5318287037</v>
+        <v>45803.75170138889</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2">
-        <v>45800.93194931293</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E63">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F63" s="2">
-        <v>45800.68467592593</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F70" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2382,16 +2382,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E81">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2402,22 +2402,22 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E82">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F82" s="2">
-        <v>45798.43265046296</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2437,7 +2437,7 @@
         <v>139</v>
       </c>
       <c r="F83" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2">
-        <v>45803.62109434994</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E85">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F85" s="2">
-        <v>45803.62967592593</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2509,16 +2509,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E86">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2529,22 +2529,22 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D87" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F87" s="2">
-        <v>45800.6955787037</v>
+        <v>45804.76971064815</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2630,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D91" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E91">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F91" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D94" s="2">
-        <v>45803.90694022291</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E94">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2">
-        <v>45803.62967592593</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2751,22 +2751,22 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E96">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2">
-        <v>45791.69931712963</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1856</v>
+        <v>1791</v>
       </c>
       <c r="D101" s="2">
-        <v>45803.90694022291</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E101">
-        <v>2123</v>
+        <v>1791</v>
       </c>
       <c r="F101" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.46582175926</v>
       </c>
       <c r="G101">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2927,16 +2927,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E103">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F103" s="2">
-        <v>45793.38017361111</v>
+        <v>45803.74128472222</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2993,22 +2993,22 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D106" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2">
-        <v>45799.64056712963</v>
+        <v>45804.77440972222</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3267,7 +3267,7 @@
         <v>1202</v>
       </c>
       <c r="F117" s="2">
-        <v>45802.99459490741</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E120">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2">
-        <v>45796.72284722222</v>
+        <v>45803.73960648148</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3368,7 +3368,7 @@
         <v>52</v>
       </c>
       <c r="F121" s="2">
-        <v>45803.64673611111</v>
+        <v>45803.70542824074</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D123" s="2">
-        <v>45803.90694022291</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E123">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
-        <v>45799.89542737551</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E139">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F139" s="2">
-        <v>45799.64041666667</v>
+        <v>45804.52372685185</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3852,16 +3852,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E141">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F141" s="2">
-        <v>45800.50141203704</v>
+        <v>45803.72625</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4074,22 +4074,22 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E150">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2">
-        <v>45792.73215277777</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4942,16 +4942,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E185">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F185" s="2">
-        <v>45799.54621527778</v>
+        <v>45803.73960648148</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5083,16 +5083,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E191">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F191" s="2">
-        <v>45802.99361111111</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G191">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
-        <v>45799.89534672352</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E192">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F192" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>13</v>
       </c>
       <c r="F195" s="2">
-        <v>45800.6955787037</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D200" s="2">
-        <v>45799.89534672352</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E200">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F200" s="2">
-        <v>45793.53142361111</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D201" s="2">
-        <v>45799.89534673509</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E201">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F201" s="2">
-        <v>45796.43337962963</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5455,16 +5455,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F206" s="2">
-        <v>45792.73215277777</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5711,22 +5711,22 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D217" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E217">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F217" s="2">
-        <v>45798.62037037037</v>
+        <v>45804.49947916667</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5743,16 +5743,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E218">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F218" s="2">
-        <v>45793.71568287037</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G218">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6175,22 +6175,22 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D236" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E236">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F236" s="2">
-        <v>45800.75763888889</v>
+        <v>45804.67836805555</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6627,22 +6627,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D255" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E255">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F255" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.67107638889</v>
       </c>
       <c r="G255">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D258" s="2">
-        <v>45795.04208095842</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E258">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F258" s="2">
-        <v>45772.4734837963</v>
+        <v>45804.67836805555</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -6996,22 +6996,22 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D270" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F270" s="2">
-        <v>45803.53376157407</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7310,22 +7310,22 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="D283" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E283">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F283" s="2">
-        <v>45800.47983796296</v>
+        <v>45804.59197916667</v>
       </c>
       <c r="G283">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="D287" s="2">
-        <v>45803.90694022291</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E287">
-        <v>837</v>
+        <v>776</v>
       </c>
       <c r="F287" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.43545138889</v>
       </c>
       <c r="G287">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D291" s="2">
-        <v>45800.93204011993</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E291">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F291" s="2">
-        <v>45800.77331018518</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D295" s="2">
-        <v>45800.93197718772</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E295">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F295" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.45849537037</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="2">
-        <v>45803.64673611111</v>
+        <v>45803.70542824074</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -7959,16 +7959,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E309">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F309" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G309">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D318" s="2">
-        <v>45800.93204011993</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E318">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F318" s="2">
-        <v>45803.61013888889</v>
+        <v>45804.43686342592</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8201,16 +8201,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E319">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F319" s="2">
-        <v>45803.61216435185</v>
+        <v>45803.72883101852</v>
       </c>
       <c r="G319">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8380,16 +8380,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E326">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F326" s="2">
-        <v>45796.65443287037</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G326">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D328" s="2">
-        <v>45798.96533509644</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E328">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F328" s="2">
-        <v>45798.44711805556</v>
+        <v>45804.49947916667</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8876,16 +8876,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E346">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F346" s="2">
-        <v>45800.40415509259</v>
+        <v>45803.72625</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>102</v>
+        <v>-30</v>
       </c>
       <c r="D350" s="2">
-        <v>45800.93188814504</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E350">
-        <v>102</v>
+        <v>-30</v>
       </c>
       <c r="F350" s="2">
-        <v>45800.62443287037</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -9072,16 +9072,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E354">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F354" s="2">
-        <v>45798.62037037037</v>
+        <v>45803.72625</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9170,16 +9170,16 @@
         <v>45803.90694023441</v>
       </c>
       <c r="E358">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F358" s="2">
-        <v>45800.68569444444</v>
+        <v>45803.77322916667</v>
       </c>
       <c r="G358">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9251,7 +9251,7 @@
         <v>130</v>
       </c>
       <c r="F361" s="2">
-        <v>45803.57027777778</v>
+        <v>45803.73357638889</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9297,16 +9297,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E363">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F363" s="2">
-        <v>45803.62967592593</v>
+        <v>45803.74128472222</v>
       </c>
       <c r="G363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="F386" s="2">
-        <v>45789.39277777778</v>
+        <v>45803.72883101852</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>45799.89532164588</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E387">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F387" s="2">
-        <v>45786.46773148148</v>
+        <v>45804.44082175926</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="C388">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D388" s="2">
-        <v>45799.8954032937</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E388">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F388" s="2">
-        <v>45799.40561342592</v>
+        <v>45804.74640046297</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D389" s="2">
-        <v>45799.8954032937</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E389">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F389" s="2">
-        <v>45799.40561342592</v>
+        <v>45804.74640046297</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>29</v>
       </c>
       <c r="F390" s="2">
-        <v>45803.64673611111</v>
+        <v>45803.77322916667</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D394" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E394">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F394" s="2">
-        <v>45803.50018518518</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G394">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10122,16 +10122,16 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D396" s="2">
-        <v>45799.89532164588</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E396">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F396" s="2">
-        <v>45786.47606481481</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>212</v>
       </c>
       <c r="F402" s="2">
-        <v>45803.64673611111</v>
+        <v>45803.70542824074</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>263</v>
       </c>
       <c r="F404" s="2">
-        <v>45803.61216435185</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>83</v>
       </c>
       <c r="F408" s="2">
-        <v>45803.62967592593</v>
+        <v>45803.77025462963</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="D410" s="2">
-        <v>45800.93188814504</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E410">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="F410" s="2">
-        <v>45800.62752314815</v>
+        <v>45804.46663194444</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D413" s="2">
-        <v>45799.89534673509</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E413">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F413" s="2">
-        <v>45796.43142361111</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D418" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E418">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="F418" s="2">
-        <v>45799.64056712963</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G418">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D422" s="2">
-        <v>45799.89542737551</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E422">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F422" s="2">
-        <v>45799.64041666667</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D425" s="2">
-        <v>45800.93175383128</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E425">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F425" s="2">
-        <v>45800.47983796296</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11013,16 +11013,16 @@
         <v>1</v>
       </c>
       <c r="C432">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D432" s="2">
-        <v>45800.93194931293</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E432">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F432" s="2">
-        <v>45800.68569444444</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D436" s="2">
-        <v>45799.89532165734</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E436">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F436" s="2">
-        <v>45789.51143518519</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D465" s="2">
-        <v>45798.96533511975</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E465">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F465" s="2">
-        <v>45798.64541666667</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="D469" s="2">
-        <v>45799.89540330523</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E469">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="F469" s="2">
-        <v>45799.54680555555</v>
+        <v>45804.43621527778</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>14</v>
+        <v>-47</v>
       </c>
       <c r="D480" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E480">
-        <v>21</v>
+        <v>-47</v>
       </c>
       <c r="F480" s="2">
-        <v>45803.38509259259</v>
+        <v>45804.77440972222</v>
       </c>
       <c r="G480">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D493" s="2">
-        <v>45800.93204010786</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E493">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F493" s="2">
-        <v>45800.75802083333</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12951,22 +12951,22 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D510" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E510">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F510" s="2">
-        <v>45803.50018518518</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G510">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D527" s="2">
-        <v>45799.89534672352</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E527">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F527" s="2">
-        <v>45792.65766203704</v>
+        <v>45804.49947916667</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -13476,7 +13476,7 @@
         <v>85</v>
       </c>
       <c r="F531" s="2">
-        <v>45798.62037037037</v>
+        <v>45804.66668981482</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -13643,16 +13643,16 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D538" s="2">
-        <v>45799.89534674662</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E538">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="F538" s="2">
-        <v>45796.62467592592</v>
+        <v>45804.45869212963</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -13675,16 +13675,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E539">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F539" s="2">
-        <v>45784.73082175926</v>
+        <v>45803.71083333333</v>
       </c>
       <c r="G539">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2760</v>
+        <v>2754</v>
       </c>
       <c r="D570" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E570">
-        <v>2760</v>
+        <v>2754</v>
       </c>
       <c r="F570" s="2">
-        <v>45803.49555555556</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14510,16 +14510,16 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D574" s="2">
-        <v>45799.89540330523</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E574">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F574" s="2">
-        <v>45799.54913194444</v>
+        <v>45804.53324074074</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D581" s="2">
-        <v>45799.89536723674</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E581">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F581" s="2">
-        <v>45797.74582175926</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15884,16 +15884,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E631">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F631" s="2">
-        <v>45803.38153935185</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G631">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H631" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -15962,16 +15962,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E634">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F634" s="2">
-        <v>45799.64056712963</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G634">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H634" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2383</v>
+        <v>2375</v>
       </c>
       <c r="D657" s="2">
-        <v>45800.93197722271</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E657">
-        <v>2383</v>
+        <v>2375</v>
       </c>
       <c r="F657" s="2">
-        <v>45800.6955787037</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16541,16 +16541,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E658">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F658" s="2">
-        <v>45793.37982638889</v>
+        <v>45803.72575231481</v>
       </c>
       <c r="G658">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H658" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17077,7 +17077,7 @@
         <v>6</v>
       </c>
       <c r="F680" s="2">
-        <v>45797.67186342592</v>
+        <v>45803.76681712963</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D681" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E681">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F681" s="2">
-        <v>45803.49592592593</v>
+        <v>45804.77440972222</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17201,16 +17201,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E685">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F685" s="2">
-        <v>45800.40415509259</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G685">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H685" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -17342,22 +17342,22 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D691" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E691">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="F691" s="2">
-        <v>45796.65443287037</v>
+        <v>45804.67836805555</v>
       </c>
       <c r="G691">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H691" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D701" s="2">
-        <v>45803.62109434994</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E701">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F701" s="2">
-        <v>45803.62967592593</v>
+        <v>45804.45869212963</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17755,7 +17755,7 @@
         <v>133</v>
       </c>
       <c r="F707" s="2">
-        <v>45782.6296875</v>
+        <v>45803.77025462963</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -18072,22 +18072,22 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D720" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E720">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="F720" s="2">
-        <v>45803.49555555556</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G720">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H720" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -18381,22 +18381,22 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D732" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E732">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F732" s="2">
-        <v>45800.62752314815</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G732">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H732" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="D741" s="2">
-        <v>45800.93188814504</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E741">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="F741" s="2">
-        <v>45800.62018518519</v>
+        <v>45804.77462962963</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D763" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E763">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F763" s="2">
-        <v>45803.40251157407</v>
+        <v>45804.67107638889</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -19241,7 +19241,7 @@
         <v>7</v>
       </c>
       <c r="F766" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D772" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E772">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F772" s="2">
-        <v>45803.57027777778</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19483,22 +19483,22 @@
         <v>1</v>
       </c>
       <c r="C776">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D776" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E776">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F776" s="2">
-        <v>45800.62752314815</v>
+        <v>45804.76971064815</v>
       </c>
       <c r="G776">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H776" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -19985,16 +19985,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E796">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F796" s="2">
-        <v>45797.63394675926</v>
+        <v>45803.71083333333</v>
       </c>
       <c r="G796">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H796" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -20005,16 +20005,16 @@
         <v>1</v>
       </c>
       <c r="C797">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D797" s="2">
-        <v>45799.895451121</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E797">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F797" s="2">
-        <v>45799.64056712963</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -20732,22 +20732,22 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D826" s="2">
-        <v>45803.90694023441</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E826">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F826" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H826" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -20862,7 +20862,7 @@
         <v>251</v>
       </c>
       <c r="F831" s="2">
-        <v>45793.37892361111</v>
+        <v>45803.76681712963</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -21343,16 +21343,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E851">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F851" s="2">
-        <v>45791.75405092593</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G851">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H851" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -21395,16 +21395,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E853">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F853" s="2">
-        <v>45803.38509259259</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G853">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H853" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21868,22 +21868,22 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D872" s="2">
-        <v>45803.90694023441</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E872">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="F872" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G872">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H872" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -22024,16 +22024,16 @@
         <v>1</v>
       </c>
       <c r="C878">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D878" s="2">
-        <v>45795.04210567895</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E878">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F878" s="2">
-        <v>45777.5341550926</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G878">
         <v>0</v>
@@ -22145,22 +22145,22 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D883" s="2">
-        <v>45803.90692203668</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E883">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F883" s="2">
-        <v>45803.62967592593</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G883">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H883" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D888" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E888">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F888" s="2">
-        <v>45803.57027777778</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22298,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D889" s="2">
-        <v>45795.04208095842</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E889">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F889" s="2">
-        <v>45770.65818287037</v>
+        <v>45804.44082175926</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -23193,16 +23193,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E924">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F924" s="2">
-        <v>45803.50018518518</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G924">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H924" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23545,16 +23545,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E938">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F938" s="2">
-        <v>45796.65907407407</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G938">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H938" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24142,16 +24142,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E962">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F962" s="2">
-        <v>45803.38509259259</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G962">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H962" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -24168,16 +24168,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E963">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F963" s="2">
-        <v>45798.64541666667</v>
+        <v>45803.72625</v>
       </c>
       <c r="G963">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H963" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -24924,16 +24924,16 @@
         <v>1</v>
       </c>
       <c r="C993">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D993" s="2">
-        <v>45799.89532166889</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E993">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F993" s="2">
-        <v>45791.64983796296</v>
+        <v>45804.60759259259</v>
       </c>
       <c r="G993">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D1002" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1002">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1002" s="2">
-        <v>45803.38153935185</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D1017" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1017">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F1017" s="2">
-        <v>45803.57027777778</v>
+        <v>45804.71377314815</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -26682,16 +26682,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E1062">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="F1062" s="2">
-        <v>45803.41005787037</v>
+        <v>45803.73960648148</v>
       </c>
       <c r="G1062">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H1062" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27873,16 +27873,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E1110">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F1110" s="2">
-        <v>45799.64041666667</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G1110">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1122" s="2">
-        <v>45799.895427387</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1122">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F1122" s="2">
-        <v>45799.64056712963</v>
+        <v>45804.77440972222</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1147" s="2">
-        <v>45800.93197718772</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1147" s="2">
-        <v>45800.6859837963</v>
+        <v>45804.76971064815</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1149" s="2">
-        <v>45800.93192368435</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1149">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1149" s="2">
-        <v>45800.40415509259</v>
+        <v>45804.71377314815</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1155" s="2">
-        <v>45799.89534672352</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1155">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1155" s="2">
-        <v>45792.68052083333</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29839,7 +29839,7 @@
         <v>164</v>
       </c>
       <c r="F1187" s="2">
-        <v>45800.6955787037</v>
+        <v>45804.53158564815</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -29934,16 +29934,16 @@
         <v>1</v>
       </c>
       <c r="C1191">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1191" s="2">
-        <v>45799.89528858563</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1191">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F1191" s="2">
-        <v>45783.64329861111</v>
+        <v>45804.69865740741</v>
       </c>
       <c r="G1191">
         <v>0</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D1199" s="2">
-        <v>45799.89540330523</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1199">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F1199" s="2">
-        <v>45799.54651620371</v>
+        <v>45804.46582175926</v>
       </c>
       <c r="G1199">
         <v>0</v>
@@ -31372,22 +31372,22 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>-18</v>
+        <v>115</v>
       </c>
       <c r="D1247" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1247">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="F1247" s="2">
-        <v>45796.72284722222</v>
+        <v>45804.60414351852</v>
       </c>
       <c r="G1247">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H1247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31456,16 +31456,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E1250">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F1250" s="2">
-        <v>45776.51189814815</v>
+        <v>45803.72575231481</v>
       </c>
       <c r="G1250">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -31528,22 +31528,22 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="D1253" s="2">
-        <v>45803.9069220483</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1253">
-        <v>749</v>
+        <v>672</v>
       </c>
       <c r="F1253" s="2">
-        <v>45803.49555555556</v>
+        <v>45804.51150462963</v>
       </c>
       <c r="G1253">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H1253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33462,16 +33462,16 @@
         <v>1</v>
       </c>
       <c r="C1329">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1329" s="2">
-        <v>45800.93194931293</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1329">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1329" s="2">
-        <v>45800.68467592593</v>
+        <v>45804.72743055555</v>
       </c>
       <c r="G1329">
         <v>0</v>
@@ -33797,16 +33797,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E1342">
-        <v>1771</v>
+        <v>1619</v>
       </c>
       <c r="F1342" s="2">
-        <v>45803.50018518518</v>
+        <v>45803.74128472222</v>
       </c>
       <c r="G1342">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="H1342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1390" s="2">
-        <v>45800.93175380815</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1390">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F1390" s="2">
-        <v>45800.46056712963</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35047,16 +35047,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E1391">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1391" s="2">
-        <v>45792.45592592593</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G1391">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1391" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35073,16 +35073,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E1392">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F1392" s="2">
-        <v>45784.64537037037</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G1392">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1393" spans="1:8">
@@ -35093,16 +35093,16 @@
         <v>1</v>
       </c>
       <c r="C1393">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1393" s="2">
-        <v>45799.89536723674</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1393">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1393" s="2">
-        <v>45797.76010416666</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G1393">
         <v>0</v>
@@ -35584,16 +35584,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E1412">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1412" s="2">
-        <v>45803.4153125</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G1412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -35604,16 +35604,16 @@
         <v>1</v>
       </c>
       <c r="C1413">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D1413" s="2">
-        <v>45800.93204011993</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1413">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F1413" s="2">
-        <v>45800.77331018518</v>
+        <v>45804.59533564815</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -35806,16 +35806,16 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D1421" s="2">
-        <v>45800.93201923946</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1421">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F1421" s="2">
-        <v>45800.40415509259</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G1421">
         <v>0</v>
@@ -35864,16 +35864,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E1423">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1423" s="2">
-        <v>45792.65011574074</v>
+        <v>45803.72625</v>
       </c>
       <c r="G1423">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1423" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1424" spans="1:8">
@@ -36447,16 +36447,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D1446" s="2">
-        <v>45799.89536724822</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1446">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F1446" s="2">
-        <v>45797.80143518518</v>
+        <v>45804.71377314815</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -37376,16 +37376,16 @@
         <v>1</v>
       </c>
       <c r="C1483">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1483" s="2">
-        <v>45798.9653592312</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1483">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F1483" s="2">
-        <v>45798.71837962963</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G1483">
         <v>0</v>
@@ -38037,16 +38037,16 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1509" s="2">
-        <v>45799.89534674662</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1509">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1509" s="2">
-        <v>45796.61327546297</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G1509">
         <v>0</v>
@@ -40151,7 +40151,7 @@
         <v>69</v>
       </c>
       <c r="F1594" s="2">
-        <v>45803.64673611111</v>
+        <v>45804.41571759259</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40220,22 +40220,22 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7361</v>
+        <v>7347</v>
       </c>
       <c r="D1597" s="2">
-        <v>45803.90694023441</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1597">
-        <v>7405</v>
+        <v>7347</v>
       </c>
       <c r="F1597" s="2">
-        <v>45803.49555555556</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G1597">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H1597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -41005,16 +41005,16 @@
         <v>1</v>
       </c>
       <c r="C1628">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1628" s="2">
-        <v>45799.89547823331</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E1628">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1628" s="2">
-        <v>45793.66384259259</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G1628">
         <v>0</v>
@@ -41193,16 +41193,16 @@
         <v>45803.90692203668</v>
       </c>
       <c r="E1635">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F1635" s="2">
-        <v>45803.50018518518</v>
+        <v>45803.72625</v>
       </c>
       <c r="G1635">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1635" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -42724,16 +42724,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E1697">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1697" s="2">
-        <v>45792.65133101852</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G1697">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1697" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -43528,16 +43528,16 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1730" s="2">
-        <v>45803.62109434994</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E1730">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1730" s="2">
-        <v>45803.6213425926</v>
+        <v>45804.76993055556</v>
       </c>
       <c r="G1730">
         <v>0</v>
@@ -46696,16 +46696,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1856" s="2">
-        <v>45800.93175383128</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1856">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1856" s="2">
-        <v>45800.47983796296</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -47060,16 +47060,16 @@
         <v>1</v>
       </c>
       <c r="C1870">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1870" s="2">
-        <v>45799.89528857399</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1870">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1870" s="2">
-        <v>45782.39422453703</v>
+        <v>45804.49641203704</v>
       </c>
       <c r="G1870">
         <v>0</v>
@@ -47317,16 +47317,16 @@
         <v>1</v>
       </c>
       <c r="C1880">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1880" s="2">
-        <v>45795.04208095842</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1880">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1880" s="2">
-        <v>45762.76935185185</v>
+        <v>45804.49947916667</v>
       </c>
       <c r="G1880">
         <v>0</v>
@@ -47891,16 +47891,16 @@
         <v>45803.9069220483</v>
       </c>
       <c r="E1903">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1903" s="2">
-        <v>45797.67800925926</v>
+        <v>45803.74012731481</v>
       </c>
       <c r="G1903">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1903" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1904" spans="1:8">
@@ -48015,16 +48015,16 @@
         <v>1</v>
       </c>
       <c r="C1908">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1908" s="2">
-        <v>45795.04199234088</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E1908">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1908" s="2">
-        <v>45701.75829861111</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G1908">
         <v>0</v>
@@ -48119,16 +48119,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1912" s="2">
-        <v>45799.89528858563</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E1912">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F1912" s="2">
-        <v>45783.66646990741</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -48685,16 +48685,16 @@
         <v>1</v>
       </c>
       <c r="C1934">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1934" s="2">
-        <v>45795.04210567895</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E1934">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1934" s="2">
-        <v>45777.61028935185</v>
+        <v>45804.42633101852</v>
       </c>
       <c r="G1934">
         <v>0</v>
@@ -51388,16 +51388,16 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2042" s="2">
-        <v>45799.89534672352</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E2042">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2042" s="2">
-        <v>45792.72081018519</v>
+        <v>45804.76886574074</v>
       </c>
       <c r="G2042">
         <v>0</v>
@@ -54714,13 +54714,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E2175">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F2175" s="2">
+        <v>45803.75266203703</v>
       </c>
       <c r="G2175">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2176" spans="1:8">
@@ -54841,16 +54844,16 @@
         <v>45803.90694022291</v>
       </c>
       <c r="E2180">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F2180" s="2">
-        <v>45803.38509259259</v>
+        <v>45803.7415625</v>
       </c>
       <c r="G2180">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2181" spans="1:8">
@@ -56232,16 +56235,16 @@
         <v>1</v>
       </c>
       <c r="C2235">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2235" s="2">
-        <v>45799.89536724822</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E2235">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2235" s="2">
-        <v>45798.63212962963</v>
+        <v>45804.59697916666</v>
       </c>
       <c r="G2235">
         <v>0</v>
@@ -58462,16 +58465,16 @@
         <v>1</v>
       </c>
       <c r="C2324">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2324" s="2">
-        <v>45795.04190003897</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E2324">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2324" s="2">
-        <v>45646.63540509259</v>
+        <v>45804.59592592593</v>
       </c>
       <c r="G2324">
         <v>0</v>
@@ -60749,22 +60752,22 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D2416" s="2">
-        <v>45803.90694023441</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E2416">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="F2416" s="2">
-        <v>45800.40415509259</v>
+        <v>45804.71377314815</v>
       </c>
       <c r="G2416">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -62395,16 +62398,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D2483" s="2">
-        <v>45803.62106753104</v>
+        <v>45804.91952539605</v>
       </c>
       <c r="E2483">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F2483" s="2">
-        <v>45803.61216435185</v>
+        <v>45804.39973379629</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62421,16 +62424,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>1286</v>
+        <v>1086</v>
       </c>
       <c r="D2484" s="2">
-        <v>45800.93179064643</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E2484">
-        <v>1286</v>
+        <v>1086</v>
       </c>
       <c r="F2484" s="2">
-        <v>45800.48438657408</v>
+        <v>45804.57047453704</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -62689,13 +62692,16 @@
         <v>1</v>
       </c>
       <c r="C2495">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D2495" s="2">
-        <v>45799.89532165734</v>
+        <v>45804.91952554927</v>
       </c>
       <c r="E2495">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F2495" s="2">
+        <v>45804.71247685186</v>
       </c>
       <c r="G2495">
         <v>0</v>
@@ -63665,13 +63671,16 @@
         <v>1</v>
       </c>
       <c r="C2536">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D2536" s="2">
-        <v>45803.62109434994</v>
+        <v>45804.91954472794</v>
       </c>
       <c r="E2536">
-        <v>0</v>
+        <v>-4</v>
+      </c>
+      <c r="F2536" s="2">
+        <v>45804.76993055556</v>
       </c>
       <c r="G2536">
         <v>0</v>
@@ -63700,6 +63709,101 @@
         <v>0</v>
       </c>
       <c r="H2537" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:8">
+      <c r="A2538">
+        <v>43256930</v>
+      </c>
+      <c r="B2538">
+        <v>1</v>
+      </c>
+      <c r="C2538">
+        <v>0</v>
+      </c>
+      <c r="D2538" s="2">
+        <v>45804.91952554927</v>
+      </c>
+      <c r="E2538">
+        <v>0</v>
+      </c>
+      <c r="G2538">
+        <v>0</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:8">
+      <c r="A2539">
+        <v>43256945</v>
+      </c>
+      <c r="B2539">
+        <v>1</v>
+      </c>
+      <c r="C2539">
+        <v>0</v>
+      </c>
+      <c r="D2539" s="2">
+        <v>45804.91952554927</v>
+      </c>
+      <c r="E2539">
+        <v>0</v>
+      </c>
+      <c r="G2539">
+        <v>0</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:8">
+      <c r="A2540">
+        <v>43257727</v>
+      </c>
+      <c r="B2540">
+        <v>1</v>
+      </c>
+      <c r="C2540">
+        <v>0</v>
+      </c>
+      <c r="D2540" s="2">
+        <v>45804.91952554927</v>
+      </c>
+      <c r="E2540">
+        <v>0</v>
+      </c>
+      <c r="G2540">
+        <v>0</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:8">
+      <c r="A2541">
+        <v>43257788</v>
+      </c>
+      <c r="B2541">
+        <v>1</v>
+      </c>
+      <c r="C2541">
+        <v>-3</v>
+      </c>
+      <c r="D2541" s="2">
+        <v>45804.91952554927</v>
+      </c>
+      <c r="E2541">
+        <v>-3</v>
+      </c>
+      <c r="F2541" s="2">
+        <v>45804.53659722222</v>
+      </c>
+      <c r="G2541">
+        <v>0</v>
+      </c>
+      <c r="H2541" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2541"/>
+  <dimension ref="A1:H2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>45800.93194931293</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>45800.68467592593</v>
+        <v>45805.71751157408</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>45804.71377314815</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2">
-        <v>45803.61216435185</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
-        <v>45803.62109434994</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
-        <v>45803.62967592593</v>
+        <v>45805.69929398148</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1062</v>
+        <v>1005</v>
       </c>
       <c r="D33" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E33">
-        <v>1062</v>
+        <v>1005</v>
       </c>
       <c r="F33" s="2">
-        <v>45804.46582175926</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E49">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F49" s="2">
-        <v>45803.77322916667</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D56" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E56">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F56" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E58">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F58" s="2">
-        <v>45803.75170138889</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2">
-        <v>45798.96533509644</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2">
-        <v>45798.43516203704</v>
+        <v>45805.76144675926</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D63" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E63">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2">
-        <v>45799.89534672352</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E69">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F69" s="2">
-        <v>45792.72081018519</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E81">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F81" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D83" s="2">
-        <v>45803.62109434994</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E83">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F83" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E86">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F86" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="D87" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E87">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F87" s="2">
-        <v>45804.76971064815</v>
+        <v>45805.75204861111</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D91" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E91">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F91" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D94" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E94">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2">
-        <v>45804.76993055556</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1791</v>
+        <v>1600</v>
       </c>
       <c r="D101" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E101">
-        <v>1791</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="2">
-        <v>45804.46582175926</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3160,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D113" s="2">
-        <v>45799.89536723674</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E113">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F113" s="2">
-        <v>45797.76186342593</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="D117" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E117">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F117" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
-        <v>45800.93197721101</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E121">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F121" s="2">
-        <v>45803.70542824074</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D123" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E123">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F123" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D124" s="2">
-        <v>45799.89536723674</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E124">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F124" s="2">
-        <v>45797.50270833333</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D125" s="2">
-        <v>45799.89536723674</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E125">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F125" s="2">
-        <v>45797.63975694445</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2">
-        <v>45798.96533511975</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E126">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F126" s="2">
-        <v>45798.69538194445</v>
+        <v>45805.76144675926</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D141" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E141">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F141" s="2">
-        <v>45803.72625</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D185" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E185">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F185" s="2">
-        <v>45803.73960648148</v>
+        <v>45805.70012731481</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5253,16 +5253,16 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D198" s="2">
-        <v>45795.04208095842</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E198">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F198" s="2">
-        <v>45770.695625</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D200" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E200">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="F200" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1104</v>
+        <v>1066</v>
       </c>
       <c r="D201" s="2">
-        <v>45804.91952539605</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E201">
-        <v>1104</v>
+        <v>1066</v>
       </c>
       <c r="F201" s="2">
-        <v>45804.39973379629</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
-        <v>45803.62109434994</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E209">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F209" s="2">
-        <v>45803.62967592593</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5737,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D218" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E218">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F218" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D222" s="2">
-        <v>45800.93188814504</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F222" s="2">
-        <v>45800.61884259259</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E236">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F236" s="2">
-        <v>45804.67836805555</v>
+        <v>45805.70140046296</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D247" s="2">
-        <v>45799.895427387</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E247">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F247" s="2">
-        <v>45799.67892361111</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D255" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E255">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F255" s="2">
-        <v>45804.67107638889</v>
+        <v>45805.69929398148</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D270" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E270">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="F270" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.40565972222</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D273" s="2">
-        <v>45799.895451121</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E273">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F273" s="2">
-        <v>45792.44024305556</v>
+        <v>45805.70140046296</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D274" s="2">
-        <v>45800.93201925102</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E274">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F274" s="2">
-        <v>45800.75802083333</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D295" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E295">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F295" s="2">
-        <v>45804.45849537037</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="D309" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E309">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="F309" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="D314" s="2">
-        <v>45803.62109434994</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E314">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="F314" s="2">
-        <v>45803.64980324074</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D318" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F318" s="2">
-        <v>45804.43686342592</v>
+        <v>45805.76313657407</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>3</v>
+        <v>-27</v>
       </c>
       <c r="D326" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E326">
-        <v>3</v>
+        <v>-27</v>
       </c>
       <c r="F326" s="2">
-        <v>45803.7415625</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D328" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E328">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F328" s="2">
-        <v>45804.49947916667</v>
+        <v>45805.69929398148</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D346" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E346">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F346" s="2">
-        <v>45803.72625</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>-30</v>
+        <v>290</v>
       </c>
       <c r="D350" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E350">
-        <v>-30</v>
+        <v>290</v>
       </c>
       <c r="F350" s="2">
-        <v>45804.51150462963</v>
+        <v>45805.66680555556</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="D351" s="2">
-        <v>45800.93188814504</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E351">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="F351" s="2">
-        <v>45800.62752314815</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>1</v>
       </c>
       <c r="C352">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D352" s="2">
-        <v>45799.89532164588</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E352">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F352" s="2">
-        <v>45786.43359953703</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D354" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E354">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F354" s="2">
-        <v>45803.72625</v>
+        <v>45805.74226851852</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D363" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E363">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F363" s="2">
-        <v>45803.74128472222</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D371" s="2">
-        <v>45799.89536722513</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E371">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F371" s="2">
-        <v>45796.76049768519</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D389" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E389">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F389" s="2">
-        <v>45804.74640046297</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D390" s="2">
-        <v>45800.93197718772</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E390">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F390" s="2">
-        <v>45803.77322916667</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D394" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E394">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F394" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.74280092592</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="D413" s="2">
-        <v>45804.91952539605</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E413">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="F413" s="2">
-        <v>45804.39973379629</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D422" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E422">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F422" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>-47</v>
+        <v>-59</v>
       </c>
       <c r="D480" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E480">
-        <v>-47</v>
+        <v>-59</v>
       </c>
       <c r="F480" s="2">
-        <v>45804.77440972222</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="D510" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E510">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="F510" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13643,16 +13643,16 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="D538" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E538">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="F538" s="2">
-        <v>45804.45869212963</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2754</v>
+        <v>2729</v>
       </c>
       <c r="D570" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E570">
-        <v>2754</v>
+        <v>2729</v>
       </c>
       <c r="F570" s="2">
-        <v>45804.76886574074</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14510,16 +14510,16 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D574" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E574">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F574" s="2">
-        <v>45804.53324074074</v>
+        <v>45805.46181712963</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -15495,16 +15495,16 @@
         <v>1</v>
       </c>
       <c r="C615">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D615" s="2">
-        <v>45799.89532164588</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E615">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F615" s="2">
-        <v>45786.46802083333</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -15930,16 +15930,16 @@
         <v>1</v>
       </c>
       <c r="C633">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D633" s="2">
-        <v>45799.89532163485</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E633">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F633" s="2">
-        <v>45785.42679398148</v>
+        <v>45805.74226851852</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="D657" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E657">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="F657" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.70140046296</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E681">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F681" s="2">
-        <v>45804.77440972222</v>
+        <v>45805.6750925926</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17290,16 +17290,16 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D689" s="2">
-        <v>45799.89532165734</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E689">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F689" s="2">
-        <v>45790.3869212963</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D691" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E691">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F691" s="2">
-        <v>45804.67836805555</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D701" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E701">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F701" s="2">
-        <v>45804.45869212963</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17648,16 +17648,16 @@
         <v>1</v>
       </c>
       <c r="C703">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D703" s="2">
-        <v>45799.89536722513</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E703">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F703" s="2">
-        <v>45796.76049768519</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -17746,16 +17746,16 @@
         <v>1</v>
       </c>
       <c r="C707">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D707" s="2">
-        <v>45799.89528858563</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E707">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F707" s="2">
-        <v>45803.77025462963</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="D720" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E720">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F720" s="2">
-        <v>45804.76993055556</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D726" s="2">
-        <v>45799.89534673509</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E726">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F726" s="2">
-        <v>45796.49008101852</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18560,16 +18560,16 @@
         <v>1</v>
       </c>
       <c r="C739">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D739" s="2">
-        <v>45799.89532165734</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E739">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F739" s="2">
-        <v>45789.63391203704</v>
+        <v>45805.76938657407</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -19206,16 +19206,16 @@
         <v>1</v>
       </c>
       <c r="C765">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D765" s="2">
-        <v>45795.04208095842</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E765">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F765" s="2">
-        <v>45764.54935185185</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D778" s="2">
-        <v>45800.93197722271</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E778">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F778" s="2">
-        <v>45800.6955787037</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -19587,16 +19587,16 @@
         <v>1</v>
       </c>
       <c r="C780">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D780" s="2">
-        <v>45795.04204563411</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E780">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F780" s="2">
-        <v>45754.49483796296</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G780">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D826" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E826">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F826" s="2">
-        <v>45804.42633101852</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D853" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E853">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F853" s="2">
-        <v>45803.74012731481</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D854" s="2">
-        <v>45799.89542739857</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E854">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F854" s="2">
-        <v>45796.61327546297</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21689,16 +21689,16 @@
         <v>1</v>
       </c>
       <c r="C865">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D865" s="2">
-        <v>45799.89528858563</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E865">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F865" s="2">
-        <v>45782.65074074074</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D883" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E883">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="F883" s="2">
-        <v>45804.76886574074</v>
+        <v>45805.70012731481</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D888" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E888">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F888" s="2">
-        <v>45804.72743055555</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22627,16 +22627,16 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D902" s="2">
-        <v>45798.96533509644</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E902">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F902" s="2">
-        <v>45798.64170138889</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -22679,16 +22679,16 @@
         <v>1</v>
       </c>
       <c r="C904">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D904" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E904">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F904" s="2">
-        <v>45777.60503472222</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G904">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D924" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E924">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F924" s="2">
-        <v>45803.74012731481</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -23848,16 +23848,16 @@
         <v>1</v>
       </c>
       <c r="C950">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="D950" s="2">
-        <v>45800.93204010786</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E950">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F950" s="2">
-        <v>45800.75802083333</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G950">
         <v>0</v>
@@ -24110,16 +24110,16 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D961" s="2">
-        <v>45799.89532164588</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E961">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F961" s="2">
-        <v>45786.61480324074</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D962" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E962">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F962" s="2">
-        <v>45803.74012731481</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="D963" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E963">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="F963" s="2">
-        <v>45803.72625</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24999,16 +24999,16 @@
         <v>1</v>
       </c>
       <c r="C996">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D996" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E996">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F996" s="2">
-        <v>45777.66376157408</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G996">
         <v>0</v>
@@ -26116,16 +26116,16 @@
         <v>1</v>
       </c>
       <c r="C1040">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1040" s="2">
-        <v>45795.04204563411</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1040">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1040" s="2">
-        <v>45751.45496527778</v>
+        <v>45805.74280092592</v>
       </c>
       <c r="G1040">
         <v>0</v>
@@ -26598,16 +26598,16 @@
         <v>1</v>
       </c>
       <c r="C1059">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1059" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1059">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1059" s="2">
-        <v>45776.64395833333</v>
+        <v>45805.70012731481</v>
       </c>
       <c r="G1059">
         <v>0</v>
@@ -27492,16 +27492,16 @@
         <v>1</v>
       </c>
       <c r="C1095">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D1095" s="2">
-        <v>45795.04199234088</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1095">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F1095" s="2">
-        <v>45702.38758101852</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G1095">
         <v>0</v>
@@ -27564,16 +27564,16 @@
         <v>1</v>
       </c>
       <c r="C1098">
-        <v>8</v>
+        <v>-32</v>
       </c>
       <c r="D1098" s="2">
-        <v>45799.89534674662</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1098">
-        <v>8</v>
+        <v>-32</v>
       </c>
       <c r="F1098" s="2">
-        <v>45796.49008101852</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G1098">
         <v>0</v>
@@ -27674,7 +27674,7 @@
         <v>59</v>
       </c>
       <c r="F1102" s="2">
-        <v>45770.74755787037</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G1102">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1110" s="2">
-        <v>45803.90694022291</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1110">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F1110" s="2">
-        <v>45803.7415625</v>
+        <v>45805.70140046296</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -27942,16 +27942,16 @@
         <v>1</v>
       </c>
       <c r="C1113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1113" s="2">
-        <v>45799.89528857399</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1113" s="2">
-        <v>45779.72231481481</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1113">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1147" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E1147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1147" s="2">
-        <v>45804.76971064815</v>
+        <v>45805.42017361111</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28909,16 +28909,16 @@
         <v>1</v>
       </c>
       <c r="C1151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1151" s="2">
-        <v>45799.89534673509</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1151" s="2">
-        <v>45793.60556712963</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G1151">
         <v>0</v>
@@ -28987,16 +28987,16 @@
         <v>1</v>
       </c>
       <c r="C1154">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1154" s="2">
-        <v>45799.89528857399</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1154">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1154" s="2">
-        <v>45782.5897800926</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G1154">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1155" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1155">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1155" s="2">
-        <v>45804.76993055556</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29521,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1175" s="2">
-        <v>45799.89532166889</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1175">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1175" s="2">
-        <v>45790.66951388889</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G1175">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D1177" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1177">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F1177" s="2">
-        <v>45803.51891203703</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1183" s="2">
-        <v>45798.96533511975</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1183">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1183" s="2">
-        <v>45798.64541666667</v>
+        <v>45805.70140046296</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D1187" s="2">
-        <v>45800.93197722271</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1187">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F1187" s="2">
-        <v>45804.53158564815</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -29934,16 +29934,16 @@
         <v>1</v>
       </c>
       <c r="C1191">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1191" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1191">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1191" s="2">
-        <v>45804.69865740741</v>
+        <v>45805.67751157407</v>
       </c>
       <c r="G1191">
         <v>0</v>
@@ -30734,16 +30734,16 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1222" s="2">
-        <v>45799.89528858563</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1222" s="2">
-        <v>45782.63818287037</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G1222">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="D1253" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1253">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F1253" s="2">
-        <v>45804.51150462963</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31863,16 +31863,16 @@
         <v>1</v>
       </c>
       <c r="C1266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1266" s="2">
-        <v>45795.04204563411</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E1266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1266" s="2">
-        <v>45747.75686342592</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G1266">
         <v>0</v>
@@ -32097,16 +32097,16 @@
         <v>1</v>
       </c>
       <c r="C1275">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1275" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1275">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1275" s="2">
-        <v>45776.6746875</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1275">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D1330" s="2">
-        <v>45798.96533509644</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1330">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1330" s="2">
-        <v>45798.44859953703</v>
+        <v>45805.69929398148</v>
       </c>
       <c r="G1330">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D1332" s="2">
-        <v>45800.93197719934</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1332">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F1332" s="2">
-        <v>45800.686875</v>
+        <v>45805.67422453704</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1619</v>
+        <v>1563</v>
       </c>
       <c r="D1342" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1342">
-        <v>1619</v>
+        <v>1563</v>
       </c>
       <c r="F1342" s="2">
-        <v>45803.74128472222</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34478,16 +34478,16 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D1369" s="2">
-        <v>45799.89542739857</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1369">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="F1369" s="2">
-        <v>45786.62262731481</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G1369">
         <v>0</v>
@@ -34963,16 +34963,16 @@
         <v>1</v>
       </c>
       <c r="C1388">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D1388" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1388">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F1388" s="2">
-        <v>45803.50018518518</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G1388">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D1391" s="2">
-        <v>45803.9069220483</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1391">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F1391" s="2">
-        <v>45803.74012731481</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35832,16 +35832,16 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1422" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1422" s="2">
-        <v>45803.50018518518</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -35858,16 +35858,16 @@
         <v>1</v>
       </c>
       <c r="C1423">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1423" s="2">
-        <v>45803.90692203668</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1423">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1423" s="2">
-        <v>45803.72625</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1423">
         <v>0</v>
@@ -36219,16 +36219,16 @@
         <v>1</v>
       </c>
       <c r="C1437">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1437" s="2">
-        <v>45795.0420164208</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1437">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1437" s="2">
-        <v>45727.40094907407</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1437">
         <v>0</v>
@@ -38063,16 +38063,16 @@
         <v>1</v>
       </c>
       <c r="C1510">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D1510" s="2">
-        <v>45799.89532163485</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E1510">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F1510" s="2">
-        <v>45785.46993055556</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G1510">
         <v>0</v>
@@ -38328,16 +38328,16 @@
         <v>1</v>
       </c>
       <c r="C1521">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1521" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1521">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1521" s="2">
-        <v>45777.50487268518</v>
+        <v>45805.74226851852</v>
       </c>
       <c r="G1521">
         <v>0</v>
@@ -39467,16 +39467,16 @@
         <v>1</v>
       </c>
       <c r="C1567">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D1567" s="2">
-        <v>45799.89540331678</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E1567">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F1567" s="2">
-        <v>45799.61177083333</v>
+        <v>45805.69929398148</v>
       </c>
       <c r="G1567">
         <v>0</v>
@@ -39698,16 +39698,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D1576" s="2">
-        <v>45799.89532164588</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1576">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F1576" s="2">
-        <v>45786.62262731481</v>
+        <v>45805.67193287037</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40099,7 +40099,7 @@
         <v>0</v>
       </c>
       <c r="D1592" s="2">
-        <v>45795.04169367771</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E1592">
         <v>0</v>
@@ -40142,16 +40142,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1594" s="2">
-        <v>45800.93204010786</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1594">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1594" s="2">
-        <v>45804.41571759259</v>
+        <v>45805.74873842593</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40220,16 +40220,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7347</v>
+        <v>7322</v>
       </c>
       <c r="D1597" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E1597">
-        <v>7347</v>
+        <v>7322</v>
       </c>
       <c r="F1597" s="2">
-        <v>45804.76886574074</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40295,16 +40295,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D1600" s="2">
-        <v>45799.89528859723</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1600">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F1600" s="2">
-        <v>45784.6205787037</v>
+        <v>45805.74226851852</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -41674,16 +41674,16 @@
         <v>1</v>
       </c>
       <c r="C1655">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D1655" s="2">
-        <v>45795.04204563411</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1655">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F1655" s="2">
-        <v>45749.76723379629</v>
+        <v>45805.75204861111</v>
       </c>
       <c r="G1655">
         <v>0</v>
@@ -42986,16 +42986,16 @@
         <v>1</v>
       </c>
       <c r="C1708">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D1708" s="2">
-        <v>45795.04169367771</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1708">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F1708" s="2">
-        <v>45400.71608796297</v>
+        <v>45805.76121527778</v>
       </c>
       <c r="G1708">
         <v>0</v>
@@ -43724,16 +43724,16 @@
         <v>1</v>
       </c>
       <c r="C1738">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1738" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E1738">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1738" s="2">
-        <v>45776.70671296296</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G1738">
         <v>0</v>
@@ -45175,16 +45175,16 @@
         <v>1</v>
       </c>
       <c r="C1796">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1796" s="2">
-        <v>45799.89542739857</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1796">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F1796" s="2">
-        <v>45790.52543981482</v>
+        <v>45805.65278935185</v>
       </c>
       <c r="G1796">
         <v>0</v>
@@ -47060,16 +47060,16 @@
         <v>1</v>
       </c>
       <c r="C1870">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1870" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E1870">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1870" s="2">
-        <v>45804.49641203704</v>
+        <v>45805.66414351852</v>
       </c>
       <c r="G1870">
         <v>0</v>
@@ -47274,7 +47274,7 @@
         <v>10</v>
       </c>
       <c r="F1878" s="2">
-        <v>45797.53369212963</v>
+        <v>45805.67422453704</v>
       </c>
       <c r="G1878">
         <v>0</v>
@@ -49856,7 +49856,7 @@
         <v>0</v>
       </c>
       <c r="D1981" s="2">
-        <v>45795.04186106093</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E1981">
         <v>0</v>
@@ -51206,16 +51206,16 @@
         <v>1</v>
       </c>
       <c r="C2035">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2035" s="2">
-        <v>45795.04210567895</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E2035">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F2035" s="2">
-        <v>45777.66869212963</v>
+        <v>45805.65172453703</v>
       </c>
       <c r="G2035">
         <v>0</v>
@@ -51867,16 +51867,16 @@
         <v>1</v>
       </c>
       <c r="C2061">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2061" s="2">
-        <v>45795.04190003897</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E2061">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2061" s="2">
-        <v>45659.72938657407</v>
+        <v>45805.70869212963</v>
       </c>
       <c r="G2061">
         <v>0</v>
@@ -52822,16 +52822,16 @@
         <v>1</v>
       </c>
       <c r="C2099">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2099" s="2">
-        <v>45798.96533509644</v>
+        <v>45805.91875150988</v>
       </c>
       <c r="E2099">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F2099" s="2">
-        <v>45798.44711805556</v>
+        <v>45805.62515046296</v>
       </c>
       <c r="G2099">
         <v>0</v>
@@ -55479,7 +55479,7 @@
         <v>0</v>
       </c>
       <c r="D2205" s="2">
-        <v>45795.0418106143</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E2205">
         <v>0</v>
@@ -56365,16 +56365,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D2240" s="2">
-        <v>45803.62106753104</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E2240">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F2240" s="2">
-        <v>45803.38153935185</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -56391,16 +56391,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="D2241" s="2">
-        <v>45799.89534671205</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E2241">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="F2241" s="2">
-        <v>45792.52895833334</v>
+        <v>45805.70947916667</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -57294,7 +57294,7 @@
         <v>0</v>
       </c>
       <c r="D2277" s="2">
-        <v>45795.04190003897</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E2277">
         <v>0</v>
@@ -58269,16 +58269,16 @@
         <v>1</v>
       </c>
       <c r="C2316">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D2316" s="2">
-        <v>45799.89536722513</v>
+        <v>45805.91875154599</v>
       </c>
       <c r="E2316">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F2316" s="2">
-        <v>45796.76170138889</v>
+        <v>45805.70905092593</v>
       </c>
       <c r="G2316">
         <v>0</v>
@@ -58728,7 +58728,7 @@
         <v>0</v>
       </c>
       <c r="D2334" s="2">
-        <v>45795.04190003897</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E2334">
         <v>0</v>
@@ -58754,7 +58754,7 @@
         <v>0</v>
       </c>
       <c r="D2335" s="2">
-        <v>45795.04190003897</v>
+        <v>45805.91872982616</v>
       </c>
       <c r="E2335">
         <v>0</v>
@@ -59097,16 +59097,16 @@
         <v>1</v>
       </c>
       <c r="C2349">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D2349" s="2">
-        <v>45795.04199224871</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E2349">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2349" s="2">
-        <v>45688.74428240741</v>
+        <v>45805.75204861111</v>
       </c>
       <c r="G2349">
         <v>0</v>
@@ -59198,16 +59198,16 @@
         <v>1</v>
       </c>
       <c r="C2353">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2353" s="2">
-        <v>45795.04193352044</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E2353">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2353" s="2">
-        <v>45660.45560185185</v>
+        <v>45805.76913194444</v>
       </c>
       <c r="G2353">
         <v>0</v>
@@ -61372,16 +61372,16 @@
         <v>1</v>
       </c>
       <c r="C2441">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2441" s="2">
-        <v>45795.0420164208</v>
+        <v>45805.9187731686</v>
       </c>
       <c r="E2441">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2441" s="2">
-        <v>45733.74019675926</v>
+        <v>45805.75204861111</v>
       </c>
       <c r="G2441">
         <v>0</v>
@@ -62692,16 +62692,16 @@
         <v>1</v>
       </c>
       <c r="C2495">
-        <v>-200</v>
+        <v>4</v>
       </c>
       <c r="D2495" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E2495">
-        <v>-200</v>
+        <v>4</v>
       </c>
       <c r="F2495" s="2">
-        <v>45804.71247685186</v>
+        <v>45805.6706712963</v>
       </c>
       <c r="G2495">
         <v>0</v>
@@ -63300,13 +63300,16 @@
         <v>1</v>
       </c>
       <c r="C2520">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D2520" s="2">
-        <v>45800.93192368435</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E2520">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="F2520" s="2">
+        <v>45805.6905787037</v>
       </c>
       <c r="G2520">
         <v>0</v>
@@ -63323,13 +63326,16 @@
         <v>1</v>
       </c>
       <c r="C2521">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D2521" s="2">
-        <v>45799.895451121</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E2521">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="F2521" s="2">
+        <v>45805.6905787037</v>
       </c>
       <c r="G2521">
         <v>0</v>
@@ -63671,16 +63677,16 @@
         <v>1</v>
       </c>
       <c r="C2536">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D2536" s="2">
-        <v>45804.91954472794</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E2536">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F2536" s="2">
-        <v>45804.76993055556</v>
+        <v>45805.67351851852</v>
       </c>
       <c r="G2536">
         <v>0</v>
@@ -63766,13 +63772,16 @@
         <v>1</v>
       </c>
       <c r="C2540">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2540" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.91875152234</v>
       </c>
       <c r="E2540">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F2540" s="2">
+        <v>45805.65278935185</v>
       </c>
       <c r="G2540">
         <v>0</v>
@@ -63789,21 +63798,205 @@
         <v>1</v>
       </c>
       <c r="C2541">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="D2541" s="2">
-        <v>45804.91952554927</v>
+        <v>45805.918751534</v>
       </c>
       <c r="E2541">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="F2541" s="2">
-        <v>45804.53659722222</v>
+        <v>45805.67633101852</v>
       </c>
       <c r="G2541">
         <v>0</v>
       </c>
       <c r="H2541" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:8">
+      <c r="A2542">
+        <v>43279902</v>
+      </c>
+      <c r="B2542">
+        <v>1</v>
+      </c>
+      <c r="C2542">
+        <v>0</v>
+      </c>
+      <c r="D2542" s="2">
+        <v>45805.91872982616</v>
+      </c>
+      <c r="E2542">
+        <v>0</v>
+      </c>
+      <c r="G2542">
+        <v>0</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:8">
+      <c r="A2543">
+        <v>43279956</v>
+      </c>
+      <c r="B2543">
+        <v>1</v>
+      </c>
+      <c r="C2543">
+        <v>0</v>
+      </c>
+      <c r="D2543" s="2">
+        <v>45805.91872982616</v>
+      </c>
+      <c r="E2543">
+        <v>0</v>
+      </c>
+      <c r="G2543">
+        <v>0</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:8">
+      <c r="A2544">
+        <v>43279959</v>
+      </c>
+      <c r="B2544">
+        <v>1</v>
+      </c>
+      <c r="C2544">
+        <v>0</v>
+      </c>
+      <c r="D2544" s="2">
+        <v>45805.91872982616</v>
+      </c>
+      <c r="E2544">
+        <v>0</v>
+      </c>
+      <c r="G2544">
+        <v>0</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:8">
+      <c r="A2545">
+        <v>43279975</v>
+      </c>
+      <c r="B2545">
+        <v>1</v>
+      </c>
+      <c r="C2545">
+        <v>0</v>
+      </c>
+      <c r="D2545" s="2">
+        <v>45805.91875150988</v>
+      </c>
+      <c r="E2545">
+        <v>0</v>
+      </c>
+      <c r="G2545">
+        <v>0</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:8">
+      <c r="A2546">
+        <v>43279982</v>
+      </c>
+      <c r="B2546">
+        <v>1</v>
+      </c>
+      <c r="C2546">
+        <v>0</v>
+      </c>
+      <c r="D2546" s="2">
+        <v>45805.91875150988</v>
+      </c>
+      <c r="E2546">
+        <v>0</v>
+      </c>
+      <c r="G2546">
+        <v>0</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:8">
+      <c r="A2547">
+        <v>43280159</v>
+      </c>
+      <c r="B2547">
+        <v>1</v>
+      </c>
+      <c r="C2547">
+        <v>0</v>
+      </c>
+      <c r="D2547" s="2">
+        <v>45805.91875150988</v>
+      </c>
+      <c r="E2547">
+        <v>0</v>
+      </c>
+      <c r="G2547">
+        <v>0</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:8">
+      <c r="A2548">
+        <v>43280202</v>
+      </c>
+      <c r="B2548">
+        <v>1</v>
+      </c>
+      <c r="C2548">
+        <v>0</v>
+      </c>
+      <c r="D2548" s="2">
+        <v>45805.91875150988</v>
+      </c>
+      <c r="E2548">
+        <v>0</v>
+      </c>
+      <c r="G2548">
+        <v>0</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:8">
+      <c r="A2549">
+        <v>43283496</v>
+      </c>
+      <c r="B2549">
+        <v>1</v>
+      </c>
+      <c r="C2549">
+        <v>0</v>
+      </c>
+      <c r="D2549" s="2">
+        <v>45805.91875152234</v>
+      </c>
+      <c r="E2549">
+        <v>0</v>
+      </c>
+      <c r="G2549">
+        <v>0</v>
+      </c>
+      <c r="H2549" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2549"/>
+  <dimension ref="A1:H2551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>45805.91872982616</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -532,10 +532,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E12">
         <v>51</v>
@@ -702,10 +702,10 @@
         <v>45804.47773148148</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -964,10 +964,10 @@
         <v>45805.67193287037</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -978,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E24">
         <v>19</v>
@@ -990,10 +990,10 @@
         <v>45805.69929398148</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1005</v>
+        <v>1712</v>
       </c>
       <c r="D33" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E33">
         <v>1005</v>
@@ -1206,10 +1206,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E48">
         <v>119</v>
@@ -1575,10 +1575,10 @@
         <v>45804.69865740741</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E49">
         <v>97</v>
@@ -1601,10 +1601,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D56" s="2">
-        <v>45805.91872982616</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E56">
         <v>237</v>
@@ -1777,10 +1777,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E58">
         <v>134</v>
@@ -1829,10 +1829,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1843,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2">
-        <v>45803.62109434994</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E59">
         <v>84</v>
@@ -1855,10 +1855,10 @@
         <v>45803.62967592593</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E63">
         <v>108</v>
@@ -1953,10 +1953,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E70">
         <v>12</v>
@@ -2126,10 +2126,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2140,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D71" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E71">
         <v>17</v>
@@ -2152,10 +2152,10 @@
         <v>45803.38153935185</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2376,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E81">
         <v>41</v>
@@ -2388,10 +2388,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D82" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E82">
         <v>13</v>
@@ -2414,10 +2414,10 @@
         <v>45804.76886574074</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E83">
         <v>134</v>
@@ -2440,10 +2440,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2477,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E85">
         <v>36</v>
@@ -2489,10 +2489,10 @@
         <v>45804.42633101852</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2529,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>-8</v>
+        <v>142</v>
       </c>
       <c r="D87" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E87">
         <v>-8</v>
@@ -2541,10 +2541,10 @@
         <v>45805.75204861111</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2630,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D91" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E91">
         <v>119</v>
@@ -2642,10 +2642,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D94" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E94">
         <v>120</v>
@@ -2714,10 +2714,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1600</v>
+        <v>1522</v>
       </c>
       <c r="D101" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E101">
         <v>1600</v>
@@ -2884,10 +2884,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3258,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D117" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E117">
         <v>1194</v>
@@ -3270,10 +3270,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D120" s="2">
-        <v>45803.90692203668</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E120">
         <v>80</v>
@@ -3345,10 +3345,10 @@
         <v>45803.73960648148</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D123" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E123">
         <v>91</v>
@@ -3420,10 +3420,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3460,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D125" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E125">
         <v>367</v>
@@ -3472,10 +3472,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3846,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D141" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E141">
         <v>612</v>
@@ -3858,10 +3858,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4100,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D151" s="2">
-        <v>45798.96533509644</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -4112,10 +4112,10 @@
         <v>45798.44711805556</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4371,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D162" s="2">
-        <v>45799.89532165734</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E162">
         <v>61</v>
@@ -4383,10 +4383,10 @@
         <v>45786.67027777778</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4691,10 +4691,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D175" s="2">
-        <v>45799.89532164588</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E175">
         <v>104</v>
@@ -4703,10 +4703,10 @@
         <v>45786.51641203704</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2">
-        <v>45800.93197721101</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E195">
         <v>13</v>
@@ -5193,10 +5193,10 @@
         <v>45804.41571759259</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5302,10 +5302,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D200" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E200">
         <v>569</v>
@@ -5314,10 +5314,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D217" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E217">
         <v>121</v>
@@ -5723,10 +5723,10 @@
         <v>45804.49947916667</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5835,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D222" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E222">
         <v>-2</v>
@@ -5847,10 +5847,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6175,10 +6175,10 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="D236" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E236">
         <v>12</v>
@@ -6187,10 +6187,10 @@
         <v>45805.70140046296</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6627,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D255" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E255">
         <v>68</v>
@@ -6639,10 +6639,10 @@
         <v>45805.69929398148</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6676,10 +6676,10 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D257" s="2">
-        <v>45795.04199224871</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E257">
         <v>46</v>
@@ -6688,10 +6688,10 @@
         <v>45686.70599537037</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6970,10 +6970,10 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D269" s="2">
-        <v>45795.04208095842</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E269">
         <v>4</v>
@@ -6982,10 +6982,10 @@
         <v>45772.61408564815</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7310,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="D283" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E283">
         <v>29</v>
@@ -7322,10 +7322,10 @@
         <v>45804.59197916667</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D287" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E287">
         <v>776</v>
@@ -7420,10 +7420,10 @@
         <v>45804.43545138889</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7535,10 +7535,10 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D292" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E292">
         <v>37</v>
@@ -7547,10 +7547,10 @@
         <v>45803.38153935185</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D295" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E295">
         <v>38</v>
@@ -7622,10 +7622,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7953,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="D309" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E309">
         <v>1218</v>
@@ -7965,10 +7965,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8071,10 +8071,10 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D314" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E314">
         <v>-3</v>
@@ -8083,10 +8083,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8195,10 +8195,10 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D319" s="2">
-        <v>45803.90692203668</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E319">
         <v>11</v>
@@ -8207,10 +8207,10 @@
         <v>45803.72883101852</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8374,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="D326" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E326">
         <v>-27</v>
@@ -8386,10 +8386,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8870,10 +8870,10 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D346" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E346">
         <v>99</v>
@@ -8882,10 +8882,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8991,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D351" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E351">
         <v>283</v>
@@ -9003,10 +9003,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9164,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D358" s="2">
-        <v>45803.90694023441</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E358">
         <v>26</v>
@@ -9176,10 +9176,10 @@
         <v>45803.77322916667</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H358" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9190,10 +9190,10 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D359" s="2">
-        <v>45799.89528859723</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E359">
         <v>20</v>
@@ -9202,10 +9202,10 @@
         <v>45783.69407407408</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9242,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D361" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E361">
         <v>130</v>
@@ -9254,10 +9254,10 @@
         <v>45803.73357638889</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9291,10 +9291,10 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>892</v>
+        <v>828</v>
       </c>
       <c r="D363" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E363">
         <v>892</v>
@@ -9303,10 +9303,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9839,10 +9839,10 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D385" s="2">
-        <v>45800.93194930188</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E385">
         <v>125</v>
@@ -9851,10 +9851,10 @@
         <v>45800.62716435185</v>
       </c>
       <c r="G385">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9891,10 +9891,10 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D387" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E387">
         <v>22</v>
@@ -9903,10 +9903,10 @@
         <v>45804.44082175926</v>
       </c>
       <c r="G387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -9917,10 +9917,10 @@
         <v>1</v>
       </c>
       <c r="C388">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D388" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E388">
         <v>29</v>
@@ -9929,10 +9929,10 @@
         <v>45804.74640046297</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H388" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10070,10 +10070,10 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D394" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E394">
         <v>145</v>
@@ -10082,10 +10082,10 @@
         <v>45805.74280092592</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10096,10 +10096,10 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D395" s="2">
-        <v>45800.93184392958</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E395">
         <v>12</v>
@@ -10108,10 +10108,10 @@
         <v>45800.47983796296</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H395" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10269,10 +10269,10 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="D402" s="2">
-        <v>45799.89536723674</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E402">
         <v>212</v>
@@ -10281,10 +10281,10 @@
         <v>45803.70542824074</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H402" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10321,10 +10321,10 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="D404" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E404">
         <v>263</v>
@@ -10333,10 +10333,10 @@
         <v>45804.41571759259</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H404" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10523,10 +10523,10 @@
         <v>1</v>
       </c>
       <c r="C412">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D412" s="2">
-        <v>45795.04204563411</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E412">
         <v>20</v>
@@ -10535,10 +10535,10 @@
         <v>45755.54015046296</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -10843,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D425" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E425">
         <v>221</v>
@@ -10855,10 +10855,10 @@
         <v>45804.42633101852</v>
       </c>
       <c r="G425">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H425" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11832,10 +11832,10 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D465" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E465">
         <v>6</v>
@@ -11844,10 +11844,10 @@
         <v>45804.42633101852</v>
       </c>
       <c r="G465">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H465" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12005,10 +12005,10 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D472" s="2">
-        <v>45799.89528859723</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E472">
         <v>71</v>
@@ -12017,10 +12017,10 @@
         <v>45784.74362268519</v>
       </c>
       <c r="G472">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H472" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12155,10 +12155,10 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D478" s="2">
-        <v>45795.04210567895</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E478">
         <v>56</v>
@@ -12167,10 +12167,10 @@
         <v>45776.70671296296</v>
       </c>
       <c r="G478">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H478" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12207,10 +12207,10 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>-59</v>
+        <v>184</v>
       </c>
       <c r="D480" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E480">
         <v>-59</v>
@@ -12219,10 +12219,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="H480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="D483" s="2">
-        <v>45799.89534672352</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -12334,10 +12334,10 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D485" s="2">
-        <v>45800.93175380815</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E485">
         <v>8</v>
@@ -12346,10 +12346,10 @@
         <v>45800.46056712963</v>
       </c>
       <c r="G485">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H485" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -12360,10 +12360,10 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D486" s="2">
-        <v>45799.89534672352</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E486">
         <v>7</v>
@@ -12372,10 +12372,10 @@
         <v>45793.53142361111</v>
       </c>
       <c r="G486">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H486" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -12536,10 +12536,10 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D493" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E493">
         <v>64</v>
@@ -12548,10 +12548,10 @@
         <v>45804.76993055556</v>
       </c>
       <c r="G493">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H493" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -12611,10 +12611,10 @@
         <v>1</v>
       </c>
       <c r="C496">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="D496" s="2">
-        <v>45799.89534671205</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E496">
         <v>4</v>
@@ -12623,10 +12623,10 @@
         <v>45792.61738425926</v>
       </c>
       <c r="G496">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H496" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -12830,10 +12830,10 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D505" s="2">
-        <v>45799.89532164588</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E505">
         <v>9</v>
@@ -12842,10 +12842,10 @@
         <v>45786.43359953703</v>
       </c>
       <c r="G505">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H505" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -12879,10 +12879,10 @@
         <v>1</v>
       </c>
       <c r="C507">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D507" s="2">
-        <v>45799.89532163485</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E507">
         <v>19</v>
@@ -12891,10 +12891,10 @@
         <v>45785.40377314815</v>
       </c>
       <c r="G507">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13467,10 +13467,10 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D531" s="2">
-        <v>45798.96533509644</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E531">
         <v>85</v>
@@ -13479,10 +13479,10 @@
         <v>45804.66668981482</v>
       </c>
       <c r="G531">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H531" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -13643,10 +13643,10 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="D538" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E538">
         <v>-6</v>
@@ -13655,10 +13655,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G538">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H538" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -13744,10 +13744,10 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D542" s="2">
-        <v>45799.89534674662</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E542">
         <v>122</v>
@@ -13756,10 +13756,10 @@
         <v>45796.65907407407</v>
       </c>
       <c r="G542">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H542" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14415,10 +14415,10 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2729</v>
+        <v>2696</v>
       </c>
       <c r="D570" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E570">
         <v>2729</v>
@@ -14427,10 +14427,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G570">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H570" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -14677,10 +14677,10 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D581" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E581">
         <v>12</v>
@@ -14689,10 +14689,10 @@
         <v>45804.76993055556</v>
       </c>
       <c r="G581">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H581" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15207,10 +15207,10 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D603" s="2">
-        <v>45800.93175380815</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E603">
         <v>4</v>
@@ -15219,10 +15219,10 @@
         <v>45800.45024305556</v>
       </c>
       <c r="G603">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H603" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -15495,10 +15495,10 @@
         <v>1</v>
       </c>
       <c r="C615">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D615" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E615">
         <v>34</v>
@@ -15507,10 +15507,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G615">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H615" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -15642,10 +15642,10 @@
         <v>1</v>
       </c>
       <c r="C621">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D621" s="2">
-        <v>45799.89528857399</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E621">
         <v>63</v>
@@ -15654,10 +15654,10 @@
         <v>45779.72231481481</v>
       </c>
       <c r="G621">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H621" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -15878,10 +15878,10 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D631" s="2">
-        <v>45803.9069220483</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E631">
         <v>34</v>
@@ -15890,10 +15890,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G631">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H631" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -15930,10 +15930,10 @@
         <v>1</v>
       </c>
       <c r="C633">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D633" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E633">
         <v>13</v>
@@ -15942,10 +15942,10 @@
         <v>45805.74226851852</v>
       </c>
       <c r="G633">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H633" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16077,10 +16077,10 @@
         <v>1</v>
       </c>
       <c r="C639">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D639" s="2">
-        <v>45798.96533511975</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E639">
         <v>32</v>
@@ -16089,10 +16089,10 @@
         <v>45798.64541666667</v>
       </c>
       <c r="G639">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H639" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -16483,10 +16483,10 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>45799.89534673509</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E656">
         <v>20</v>
@@ -16495,10 +16495,10 @@
         <v>45796.49008101852</v>
       </c>
       <c r="G656">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H656" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -16509,10 +16509,10 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2367</v>
+        <v>2303</v>
       </c>
       <c r="D657" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E657">
         <v>2367</v>
@@ -16521,10 +16521,10 @@
         <v>45805.70140046296</v>
       </c>
       <c r="G657">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H657" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -16584,10 +16584,10 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D660" s="2">
-        <v>45799.895427387</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E660">
         <v>487</v>
@@ -16596,10 +16596,10 @@
         <v>45799.64056712963</v>
       </c>
       <c r="G660">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H660" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17143,10 +17143,10 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D683" s="2">
-        <v>45799.89534671205</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E683">
         <v>41</v>
@@ -17155,10 +17155,10 @@
         <v>45792.61738425926</v>
       </c>
       <c r="G683">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H683" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -17195,10 +17195,10 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D685" s="2">
-        <v>45803.9069220483</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E685">
         <v>5</v>
@@ -17207,10 +17207,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G685">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H685" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -17290,10 +17290,10 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="D689" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E689">
         <v>645</v>
@@ -17302,10 +17302,10 @@
         <v>45805.62515046296</v>
       </c>
       <c r="G689">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H689" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -17342,10 +17342,10 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="D691" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E691">
         <v>352</v>
@@ -17354,10 +17354,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G691">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H691" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17648,10 +17648,10 @@
         <v>1</v>
       </c>
       <c r="C703">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D703" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E703">
         <v>-2</v>
@@ -17660,10 +17660,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G703">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H703" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -17994,10 +17994,10 @@
         <v>1</v>
       </c>
       <c r="C717">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D717" s="2">
-        <v>45799.89536723674</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E717">
         <v>143</v>
@@ -18006,10 +18006,10 @@
         <v>45797.63394675926</v>
       </c>
       <c r="G717">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H717" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -18072,10 +18072,10 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>750</v>
+        <v>692</v>
       </c>
       <c r="D720" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E720">
         <v>750</v>
@@ -18084,10 +18084,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G720">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H720" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -18202,10 +18202,10 @@
         <v>1</v>
       </c>
       <c r="C725">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D725" s="2">
-        <v>45800.93175383128</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E725">
         <v>18</v>
@@ -18214,10 +18214,10 @@
         <v>45800.47983796296</v>
       </c>
       <c r="G725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H725" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -18228,10 +18228,10 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="D726" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E726">
         <v>335</v>
@@ -18240,10 +18240,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G726">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H726" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -18381,10 +18381,10 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D732" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E732">
         <v>424</v>
@@ -18393,10 +18393,10 @@
         <v>45804.51150462963</v>
       </c>
       <c r="G732">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H732" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -18612,10 +18612,10 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>-8</v>
+        <v>52</v>
       </c>
       <c r="D741" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E741">
         <v>-8</v>
@@ -18624,10 +18624,10 @@
         <v>45804.77462962963</v>
       </c>
       <c r="G741">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H741" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19561,10 +19561,10 @@
         <v>1</v>
       </c>
       <c r="C779">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D779" s="2">
-        <v>45800.93175380815</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E779">
         <v>0</v>
@@ -19573,10 +19573,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H779" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -19587,10 +19587,10 @@
         <v>1</v>
       </c>
       <c r="C780">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D780" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E780">
         <v>5</v>
@@ -19599,10 +19599,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G780">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H780" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -19979,10 +19979,10 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="D796" s="2">
-        <v>45803.90692203668</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E796">
         <v>6</v>
@@ -19991,10 +19991,10 @@
         <v>45803.71083333333</v>
       </c>
       <c r="G796">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H796" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -20732,10 +20732,10 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D826" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E826">
         <v>146</v>
@@ -20744,10 +20744,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G826">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H826" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21164,10 +21164,10 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D844" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E844">
         <v>31</v>
@@ -21176,10 +21176,10 @@
         <v>45802.99417824074</v>
       </c>
       <c r="G844">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H844" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -21389,10 +21389,10 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D853" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E853">
         <v>103</v>
@@ -21401,10 +21401,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H853" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22024,10 +22024,10 @@
         <v>1</v>
       </c>
       <c r="C878">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D878" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E878">
         <v>-1</v>
@@ -22036,10 +22036,10 @@
         <v>45804.76886574074</v>
       </c>
       <c r="G878">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H878" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -22145,10 +22145,10 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D883" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E883">
         <v>292</v>
@@ -22157,10 +22157,10 @@
         <v>45805.70012731481</v>
       </c>
       <c r="G883">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H883" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22272,10 +22272,10 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D888" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E888">
         <v>223</v>
@@ -22284,10 +22284,10 @@
         <v>45805.62515046296</v>
       </c>
       <c r="G888">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H888" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22298,10 +22298,10 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D889" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E889">
         <v>28</v>
@@ -22310,10 +22310,10 @@
         <v>45804.44082175926</v>
       </c>
       <c r="G889">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H889" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -22679,10 +22679,10 @@
         <v>1</v>
       </c>
       <c r="C904">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D904" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E904">
         <v>-5</v>
@@ -22691,10 +22691,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G904">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H904" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -22780,10 +22780,10 @@
         <v>1</v>
       </c>
       <c r="C908">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D908" s="2">
-        <v>45799.89534671205</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E908">
         <v>-1</v>
@@ -22792,10 +22792,10 @@
         <v>45792.44076388889</v>
       </c>
       <c r="G908">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H908" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -23083,10 +23083,10 @@
         <v>1</v>
       </c>
       <c r="C920">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D920" s="2">
-        <v>45795.04210567895</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E920">
         <v>186</v>
@@ -23095,10 +23095,10 @@
         <v>45776.67577546297</v>
       </c>
       <c r="G920">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H920" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -23187,10 +23187,10 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D924" s="2">
-        <v>45805.91872982616</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E924">
         <v>162</v>
@@ -23199,10 +23199,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G924">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H924" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23389,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="C932">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D932" s="2">
-        <v>45795.04204563411</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E932">
         <v>4</v>
@@ -23401,10 +23401,10 @@
         <v>45748.70383101852</v>
       </c>
       <c r="G932">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H932" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -23539,10 +23539,10 @@
         <v>1</v>
       </c>
       <c r="C938">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D938" s="2">
-        <v>45803.90694022291</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E938">
         <v>20</v>
@@ -23551,10 +23551,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G938">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H938" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -23695,10 +23695,10 @@
         <v>1</v>
       </c>
       <c r="C944">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D944" s="2">
-        <v>45799.89534671205</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E944">
         <v>9</v>
@@ -23707,10 +23707,10 @@
         <v>45792.61738425926</v>
       </c>
       <c r="G944">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H944" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -23848,10 +23848,10 @@
         <v>1</v>
       </c>
       <c r="C950">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D950" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E950">
         <v>-4</v>
@@ -23860,10 +23860,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G950">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H950" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -24110,10 +24110,10 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D961" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E961">
         <v>53</v>
@@ -24122,10 +24122,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G961">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H961" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -24162,10 +24162,10 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="D963" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603765521</v>
       </c>
       <c r="E963">
         <v>875</v>
@@ -24174,10 +24174,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G963">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H963" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25738,10 +25738,10 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1025" s="2">
-        <v>45799.89532165734</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1025">
         <v>60</v>
@@ -25750,10 +25750,10 @@
         <v>45790.51179398148</v>
       </c>
       <c r="G1025">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1025" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -25764,10 +25764,10 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D1026" s="2">
-        <v>45799.8954032937</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1026">
         <v>394</v>
@@ -25776,10 +25776,10 @@
         <v>45799.43446759259</v>
       </c>
       <c r="G1026">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1026" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -26194,10 +26194,10 @@
         <v>1</v>
       </c>
       <c r="C1043">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1043" s="2">
-        <v>45799.89528859723</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1043">
         <v>29</v>
@@ -26206,10 +26206,10 @@
         <v>45784.56111111111</v>
       </c>
       <c r="G1043">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1043" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27492,10 +27492,10 @@
         <v>1</v>
       </c>
       <c r="C1095">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D1095" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E1095">
         <v>-2</v>
@@ -27504,10 +27504,10 @@
         <v>45805.62515046296</v>
       </c>
       <c r="G1095">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H1095" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -27564,10 +27564,10 @@
         <v>1</v>
       </c>
       <c r="C1098">
-        <v>-32</v>
+        <v>49</v>
       </c>
       <c r="D1098" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1098">
         <v>-32</v>
@@ -27576,10 +27576,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G1098">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H1098" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28173,10 +28173,10 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D1122" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1122">
         <v>74</v>
@@ -28185,10 +28185,10 @@
         <v>45804.77440972222</v>
       </c>
       <c r="G1122">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H1122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -28274,10 +28274,10 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1126" s="2">
-        <v>45800.93197718772</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1126">
         <v>180</v>
@@ -28286,10 +28286,10 @@
         <v>45800.68569444444</v>
       </c>
       <c r="G1126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28453,10 +28453,10 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1133" s="2">
-        <v>45800.93172920593</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1133">
         <v>96</v>
@@ -28465,10 +28465,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G1133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H1133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -28479,10 +28479,10 @@
         <v>1</v>
       </c>
       <c r="C1134">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1134" s="2">
-        <v>45799.89534674662</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1134">
         <v>19</v>
@@ -28491,10 +28491,10 @@
         <v>45796.65907407407</v>
       </c>
       <c r="G1134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -28805,10 +28805,10 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D1147" s="2">
-        <v>45805.91872982616</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1147">
         <v>1</v>
@@ -28817,10 +28817,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G1147">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -28987,10 +28987,10 @@
         <v>1</v>
       </c>
       <c r="C1154">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1154" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1154">
         <v>36</v>
@@ -28999,10 +28999,10 @@
         <v>45805.67193287037</v>
       </c>
       <c r="G1154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -29573,10 +29573,10 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D1177" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1177">
         <v>160</v>
@@ -29585,10 +29585,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G1177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1183" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1183">
         <v>48</v>
@@ -29738,10 +29738,10 @@
         <v>45805.70140046296</v>
       </c>
       <c r="G1183">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H1183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -29830,10 +29830,10 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1187" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1187">
         <v>159</v>
@@ -29842,10 +29842,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G1187">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31528,10 +31528,10 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="D1253" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1253">
         <v>619</v>
@@ -31540,10 +31540,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G1253">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H1253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31577,10 +31577,10 @@
         <v>1</v>
       </c>
       <c r="C1255">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1255" s="2">
-        <v>45800.93204011993</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1255">
         <v>8</v>
@@ -31589,10 +31589,10 @@
         <v>45800.46056712963</v>
       </c>
       <c r="G1255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -31733,10 +31733,10 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="D1261" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1261">
         <v>49</v>
@@ -31745,10 +31745,10 @@
         <v>45803.52199074074</v>
       </c>
       <c r="G1261">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H1261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -31863,10 +31863,10 @@
         <v>1</v>
       </c>
       <c r="C1266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1266" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E1266">
         <v>-1</v>
@@ -31875,10 +31875,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G1266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -32348,10 +32348,10 @@
         <v>1</v>
       </c>
       <c r="C1285">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D1285" s="2">
-        <v>45795.04210567895</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1285">
         <v>68</v>
@@ -32360,10 +32360,10 @@
         <v>45776.67577546297</v>
       </c>
       <c r="G1285">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H1285" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -32492,10 +32492,10 @@
         <v>1</v>
       </c>
       <c r="C1291">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D1291" s="2">
-        <v>45795.04208095842</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E1291">
         <v>0</v>
@@ -32504,10 +32504,10 @@
         <v>45761.62752314815</v>
       </c>
       <c r="G1291">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H1291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -32948,10 +32948,10 @@
         <v>1</v>
       </c>
       <c r="C1309">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D1309" s="2">
-        <v>45800.93175379655</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1309">
         <v>14</v>
@@ -32960,10 +32960,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G1309">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H1309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -33332,10 +33332,10 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1324" s="2">
-        <v>45795.04204563411</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1324">
         <v>7</v>
@@ -33344,10 +33344,10 @@
         <v>45749.76866898148</v>
       </c>
       <c r="G1324">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -33488,10 +33488,10 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1330" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E1330">
         <v>17</v>
@@ -33500,10 +33500,10 @@
         <v>45805.69929398148</v>
       </c>
       <c r="G1330">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1330" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -33540,10 +33540,10 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D1332" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1332">
         <v>85</v>
@@ -33552,10 +33552,10 @@
         <v>45805.67422453704</v>
       </c>
       <c r="G1332">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H1332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -34963,10 +34963,10 @@
         <v>1</v>
       </c>
       <c r="C1388">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D1388" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1388">
         <v>69</v>
@@ -34975,10 +34975,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G1388">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H1388" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1389" spans="1:8">
@@ -35041,10 +35041,10 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1391" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1391">
         <v>95</v>
@@ -35053,10 +35053,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G1391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35806,10 +35806,10 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>47</v>
+        <v>-6</v>
       </c>
       <c r="D1421" s="2">
-        <v>45804.91954472794</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1421">
         <v>47</v>
@@ -35818,10 +35818,10 @@
         <v>45804.76993055556</v>
       </c>
       <c r="G1421">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H1421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1422" spans="1:8">
@@ -35832,10 +35832,10 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D1422" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1422">
         <v>1</v>
@@ -35844,10 +35844,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G1422">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H1422" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1423" spans="1:8">
@@ -35858,10 +35858,10 @@
         <v>1</v>
       </c>
       <c r="C1423">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1423" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1423">
         <v>13</v>
@@ -35870,10 +35870,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G1423">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1423" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1424" spans="1:8">
@@ -36499,10 +36499,10 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1448" s="2">
-        <v>45800.93175379655</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1448">
         <v>48</v>
@@ -36511,10 +36511,10 @@
         <v>45800.40415509259</v>
       </c>
       <c r="G1448">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1448" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -37985,10 +37985,10 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>389</v>
+        <v>241</v>
       </c>
       <c r="D1507" s="2">
-        <v>45799.89542737551</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1507">
         <v>389</v>
@@ -37997,10 +37997,10 @@
         <v>45799.64041666667</v>
       </c>
       <c r="G1507">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="H1507" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38063,10 +38063,10 @@
         <v>1</v>
       </c>
       <c r="C1510">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="D1510" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1510">
         <v>-7</v>
@@ -38075,10 +38075,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G1510">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H1510" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1511" spans="1:8">
@@ -38328,10 +38328,10 @@
         <v>1</v>
       </c>
       <c r="C1521">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D1521" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1521">
         <v>-1</v>
@@ -38340,10 +38340,10 @@
         <v>45805.74226851852</v>
       </c>
       <c r="G1521">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H1521" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1522" spans="1:8">
@@ -39239,10 +39239,10 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D1558" s="2">
-        <v>45800.93197719934</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1558">
         <v>237</v>
@@ -39251,10 +39251,10 @@
         <v>45800.686875</v>
       </c>
       <c r="G1558">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H1558" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1559" spans="1:8">
@@ -39467,10 +39467,10 @@
         <v>1</v>
       </c>
       <c r="C1567">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D1567" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1567">
         <v>-20</v>
@@ -39479,10 +39479,10 @@
         <v>45805.69929398148</v>
       </c>
       <c r="G1567">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H1567" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1568" spans="1:8">
@@ -39597,10 +39597,10 @@
         <v>1</v>
       </c>
       <c r="C1572">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D1572" s="2">
-        <v>45799.89540330523</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1572">
         <v>5</v>
@@ -39609,10 +39609,10 @@
         <v>45799.56233796296</v>
       </c>
       <c r="G1572">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H1572" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1573" spans="1:8">
@@ -39646,10 +39646,10 @@
         <v>1</v>
       </c>
       <c r="C1574">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1574" s="2">
-        <v>45795.04204563411</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1574">
         <v>2</v>
@@ -39658,10 +39658,10 @@
         <v>45756.43848379629</v>
       </c>
       <c r="G1574">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1574" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1575" spans="1:8">
@@ -40142,10 +40142,10 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1594" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1594">
         <v>64</v>
@@ -40154,10 +40154,10 @@
         <v>45805.74873842593</v>
       </c>
       <c r="G1594">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1594" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1595" spans="1:8">
@@ -40220,10 +40220,10 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7322</v>
+        <v>7237</v>
       </c>
       <c r="D1597" s="2">
-        <v>45805.91875150988</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1597">
         <v>7322</v>
@@ -40232,10 +40232,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G1597">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H1597" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -41573,10 +41573,10 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>11</v>
+        <v>-72</v>
       </c>
       <c r="D1651" s="2">
-        <v>45799.89532166889</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1651">
         <v>11</v>
@@ -41585,10 +41585,10 @@
         <v>45791.69931712963</v>
       </c>
       <c r="G1651">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H1651" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -41674,10 +41674,10 @@
         <v>1</v>
       </c>
       <c r="C1655">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D1655" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1655">
         <v>-3</v>
@@ -41686,10 +41686,10 @@
         <v>45805.75204861111</v>
       </c>
       <c r="G1655">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1655" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1656" spans="1:8">
@@ -42718,10 +42718,10 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1697" s="2">
-        <v>45803.90694022291</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1697">
         <v>4</v>
@@ -42730,10 +42730,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G1697">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1697" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -42986,10 +42986,10 @@
         <v>1</v>
       </c>
       <c r="C1708">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D1708" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1708">
         <v>-5</v>
@@ -42998,10 +42998,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G1708">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1708" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1709" spans="1:8">
@@ -43136,10 +43136,10 @@
         <v>1</v>
       </c>
       <c r="C1714">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1714" s="2">
-        <v>45795.04186106093</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1714">
         <v>0</v>
@@ -43148,10 +43148,10 @@
         <v>45581.42105324074</v>
       </c>
       <c r="G1714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1714" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1715" spans="1:8">
@@ -43724,10 +43724,10 @@
         <v>1</v>
       </c>
       <c r="C1738">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D1738" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1738">
         <v>4</v>
@@ -43736,10 +43736,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G1738">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1738" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1739" spans="1:8">
@@ -43776,10 +43776,10 @@
         <v>1</v>
       </c>
       <c r="C1740">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1740" s="2">
-        <v>45798.96533509644</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1740">
         <v>13</v>
@@ -43788,10 +43788,10 @@
         <v>45798.62037037037</v>
       </c>
       <c r="G1740">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1740" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1741" spans="1:8">
@@ -44090,10 +44090,10 @@
         <v>1</v>
       </c>
       <c r="C1753">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D1753" s="2">
-        <v>45795.04210567895</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1753">
         <v>35</v>
@@ -44102,10 +44102,10 @@
         <v>45776.70671296296</v>
       </c>
       <c r="G1753">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H1753" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1754" spans="1:8">
@@ -45025,10 +45025,10 @@
         <v>1</v>
       </c>
       <c r="C1790">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D1790" s="2">
-        <v>45795.04190003897</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1790">
         <v>0</v>
@@ -45037,10 +45037,10 @@
         <v>45526.52446759259</v>
       </c>
       <c r="G1790">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H1790" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1791" spans="1:8">
@@ -46396,10 +46396,10 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>284</v>
+        <v>451</v>
       </c>
       <c r="D1844" s="2">
-        <v>45800.93197722271</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E1844">
         <v>284</v>
@@ -46408,10 +46408,10 @@
         <v>45800.6955787037</v>
       </c>
       <c r="G1844">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="H1844" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -46670,10 +46670,10 @@
         <v>1</v>
       </c>
       <c r="C1855">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1855" s="2">
-        <v>45799.89540331678</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E1855">
         <v>8</v>
@@ -46682,10 +46682,10 @@
         <v>45799.59944444444</v>
       </c>
       <c r="G1855">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1855" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1856" spans="1:8">
@@ -46748,10 +46748,10 @@
         <v>1</v>
       </c>
       <c r="C1858">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1858" s="2">
-        <v>45799.89528858563</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1858">
         <v>7</v>
@@ -46760,10 +46760,10 @@
         <v>45783.42605324074</v>
       </c>
       <c r="G1858">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1858" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1859" spans="1:8">
@@ -47265,10 +47265,10 @@
         <v>1</v>
       </c>
       <c r="C1878">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D1878" s="2">
-        <v>45799.89536723674</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E1878">
         <v>10</v>
@@ -47277,10 +47277,10 @@
         <v>45805.67422453704</v>
       </c>
       <c r="G1878">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H1878" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1879" spans="1:8">
@@ -47885,10 +47885,10 @@
         <v>1</v>
       </c>
       <c r="C1903">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1903" s="2">
-        <v>45803.9069220483</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E1903">
         <v>5</v>
@@ -47897,10 +47897,10 @@
         <v>45803.74012731481</v>
       </c>
       <c r="G1903">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1903" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1904" spans="1:8">
@@ -53448,10 +53448,10 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D2124" s="2">
-        <v>45798.96533511975</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2124">
         <v>146</v>
@@ -53460,10 +53460,10 @@
         <v>45798.64541666667</v>
       </c>
       <c r="G2124">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2125" spans="1:8">
@@ -54080,10 +54080,10 @@
         <v>1</v>
       </c>
       <c r="C2149">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2149" s="2">
-        <v>45799.89528858563</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2149">
         <v>24</v>
@@ -54092,10 +54092,10 @@
         <v>45782.69275462963</v>
       </c>
       <c r="G2149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2150" spans="1:8">
@@ -55092,10 +55092,10 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2190" s="2">
-        <v>45799.89536722513</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2190">
         <v>0</v>
@@ -55104,10 +55104,10 @@
         <v>45797.50049768519</v>
       </c>
       <c r="G2190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2191" spans="1:8">
@@ -55118,10 +55118,10 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2191" s="2">
-        <v>45799.89536722513</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E2191">
         <v>5</v>
@@ -55130,10 +55130,10 @@
         <v>45797.50049768519</v>
       </c>
       <c r="G2191">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2192" spans="1:8">
@@ -55144,10 +55144,10 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2192" s="2">
-        <v>45799.89536722513</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2192">
         <v>2</v>
@@ -55156,10 +55156,10 @@
         <v>45797.49900462963</v>
       </c>
       <c r="G2192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2193" spans="1:8">
@@ -55170,10 +55170,10 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2193" s="2">
-        <v>45799.89536722513</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2193">
         <v>0</v>
@@ -55182,10 +55182,10 @@
         <v>45797.50049768519</v>
       </c>
       <c r="G2193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2194" spans="1:8">
@@ -55196,10 +55196,10 @@
         <v>1</v>
       </c>
       <c r="C2194">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2194" s="2">
-        <v>45799.89536723674</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2194">
         <v>0</v>
@@ -55208,10 +55208,10 @@
         <v>45797.50049768519</v>
       </c>
       <c r="G2194">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2195" spans="1:8">
@@ -55606,10 +55606,10 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2210" s="2">
-        <v>45799.89536723674</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2210">
         <v>5</v>
@@ -55618,10 +55618,10 @@
         <v>45797.50049768519</v>
       </c>
       <c r="G2210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2211" spans="1:8">
@@ -56391,10 +56391,10 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D2241" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2241">
         <v>330</v>
@@ -56403,10 +56403,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G2241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2242" spans="1:8">
@@ -58269,10 +58269,10 @@
         <v>1</v>
       </c>
       <c r="C2316">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="D2316" s="2">
-        <v>45805.91875154599</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2316">
         <v>-30</v>
@@ -58281,10 +58281,10 @@
         <v>45805.70905092593</v>
       </c>
       <c r="G2316">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H2316" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2317" spans="1:8">
@@ -58465,10 +58465,10 @@
         <v>1</v>
       </c>
       <c r="C2324">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2324" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77603763194</v>
       </c>
       <c r="E2324">
         <v>20</v>
@@ -58477,10 +58477,10 @@
         <v>45804.59592592593</v>
       </c>
       <c r="G2324">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2325" spans="1:8">
@@ -59097,10 +59097,10 @@
         <v>1</v>
       </c>
       <c r="C2349">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D2349" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2349">
         <v>-3</v>
@@ -59109,10 +59109,10 @@
         <v>45805.75204861111</v>
       </c>
       <c r="G2349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2349" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2350" spans="1:8">
@@ -59610,10 +59610,10 @@
         <v>1</v>
       </c>
       <c r="C2370">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D2370" s="2">
-        <v>45798.9653592312</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2370">
         <v>2</v>
@@ -59622,10 +59622,10 @@
         <v>45798.71837962963</v>
       </c>
       <c r="G2370">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2370" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2371" spans="1:8">
@@ -60377,10 +60377,10 @@
         <v>1</v>
       </c>
       <c r="C2401">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2401" s="2">
-        <v>45799.89528858563</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2401">
         <v>41</v>
@@ -60389,10 +60389,10 @@
         <v>45783.69398148148</v>
       </c>
       <c r="G2401">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2401" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2402" spans="1:8">
@@ -60752,10 +60752,10 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2416" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2416">
         <v>392</v>
@@ -60764,10 +60764,10 @@
         <v>45804.71377314815</v>
       </c>
       <c r="G2416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61372,10 +61372,10 @@
         <v>1</v>
       </c>
       <c r="C2441">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2441" s="2">
-        <v>45805.9187731686</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2441">
         <v>-1</v>
@@ -61384,10 +61384,10 @@
         <v>45805.75204861111</v>
       </c>
       <c r="G2441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2441" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2442" spans="1:8">
@@ -62346,10 +62346,10 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="D2481" s="2">
-        <v>45799.89540331678</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2481">
         <v>367</v>
@@ -62358,10 +62358,10 @@
         <v>45799.61766203704</v>
       </c>
       <c r="G2481">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H2481" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2482" spans="1:8">
@@ -62372,10 +62372,10 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>717</v>
+        <v>581</v>
       </c>
       <c r="D2482" s="2">
-        <v>45803.62106753104</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2482">
         <v>717</v>
@@ -62384,10 +62384,10 @@
         <v>45803.61216435185</v>
       </c>
       <c r="G2482">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H2482" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62398,10 +62398,10 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1007</v>
+        <v>957</v>
       </c>
       <c r="D2483" s="2">
-        <v>45804.91952539605</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2483">
         <v>1007</v>
@@ -62410,10 +62410,10 @@
         <v>45804.39973379629</v>
       </c>
       <c r="G2483">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2483" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62424,10 +62424,10 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>1086</v>
+        <v>1012</v>
       </c>
       <c r="D2484" s="2">
-        <v>45804.91952554927</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2484">
         <v>1086</v>
@@ -62436,10 +62436,10 @@
         <v>45804.57047453704</v>
       </c>
       <c r="G2484">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H2484" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -63300,10 +63300,10 @@
         <v>1</v>
       </c>
       <c r="C2520">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D2520" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2520">
         <v>-300</v>
@@ -63312,10 +63312,10 @@
         <v>45805.6905787037</v>
       </c>
       <c r="G2520">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H2520" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2521" spans="1:8">
@@ -63326,10 +63326,10 @@
         <v>1</v>
       </c>
       <c r="C2521">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D2521" s="2">
-        <v>45805.918751534</v>
+        <v>45806.77600903736</v>
       </c>
       <c r="E2521">
         <v>-300</v>
@@ -63338,10 +63338,10 @@
         <v>45805.6905787037</v>
       </c>
       <c r="G2521">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H2521" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2522" spans="1:8">
@@ -63703,19 +63703,19 @@
         <v>1</v>
       </c>
       <c r="C2537">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2537" s="2">
-        <v>45803.90694022291</v>
+        <v>45806.77605776805</v>
       </c>
       <c r="E2537">
         <v>0</v>
       </c>
       <c r="G2537">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2537" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2538" spans="1:8">
@@ -63985,18 +63985,64 @@
         <v>1</v>
       </c>
       <c r="C2549">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2549" s="2">
-        <v>45805.91875152234</v>
+        <v>45806.77603756409</v>
       </c>
       <c r="E2549">
         <v>0</v>
       </c>
       <c r="G2549">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2549" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:8">
+      <c r="A2550">
+        <v>43304878</v>
+      </c>
+      <c r="B2550">
+        <v>1</v>
+      </c>
+      <c r="C2550">
+        <v>0</v>
+      </c>
+      <c r="D2550" s="2">
+        <v>45806.77603763194</v>
+      </c>
+      <c r="E2550">
+        <v>0</v>
+      </c>
+      <c r="G2550">
+        <v>0</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:8">
+      <c r="A2551">
+        <v>43304953</v>
+      </c>
+      <c r="B2551">
+        <v>1</v>
+      </c>
+      <c r="C2551">
+        <v>0</v>
+      </c>
+      <c r="D2551" s="2">
+        <v>45806.77603763194</v>
+      </c>
+      <c r="E2551">
+        <v>0</v>
+      </c>
+      <c r="G2551">
+        <v>0</v>
+      </c>
+      <c r="H2551" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -520,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2">
-        <v>45805.42017361111</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,22 +690,22 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2">
-        <v>45804.47773148148</v>
+        <v>45807.62427083333</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -958,16 +958,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2">
-        <v>45805.67193287037</v>
+        <v>45806.68203703704</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -978,22 +978,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2">
-        <v>45805.69929398148</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="D33" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E33">
-        <v>1005</v>
+        <v>1704</v>
       </c>
       <c r="F33" s="2">
-        <v>45805.76121527778</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G33">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1569,16 +1569,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E48">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2">
-        <v>45804.69865740741</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1589,22 +1589,22 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E49">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D56" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E56">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="F56" s="2">
-        <v>45805.42017361111</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G56">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D58" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E58">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1849,16 +1849,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E59">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2">
-        <v>45803.62967592593</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1941,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D63" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E63">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.6128125</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2114,22 +2114,22 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G70">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2140,22 +2140,22 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E71">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2">
-        <v>45803.38153935185</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G71">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2376,22 +2376,22 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E81">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F81" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2408,16 +2408,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2">
-        <v>45804.76886574074</v>
+        <v>45806.69827546296</v>
       </c>
       <c r="G82">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2428,22 +2428,22 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D83" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E83">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2">
-        <v>45805.65172453703</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2477,22 +2477,22 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E85">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F85" s="2">
-        <v>45804.42633101852</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
-        <v>45805.9187731686</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F86" s="2">
-        <v>45805.76913194444</v>
+        <v>45807.6128125</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D87" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E87">
-        <v>-8</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2">
-        <v>45805.75204861111</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G87">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2604,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
-        <v>45799.89528858563</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F90" s="2">
-        <v>45783.46972222222</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2630,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E91">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G91">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D94" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E94">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1522</v>
+        <v>1481</v>
       </c>
       <c r="D101" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E101">
-        <v>1600</v>
+        <v>1481</v>
       </c>
       <c r="F101" s="2">
-        <v>45805.76913194444</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G101">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D106" s="2">
-        <v>45804.91954472794</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E106">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F106" s="2">
-        <v>45804.77440972222</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3160,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D113" s="2">
-        <v>45805.91875152234</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E113">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D115" s="2">
-        <v>45800.93197721101</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E115">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F115" s="2">
-        <v>45800.6955787037</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3264,16 +3264,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E117">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F117" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3333,22 +3333,22 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D120" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E120">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2">
-        <v>45803.73960648148</v>
+        <v>45807.70125</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3414,16 +3414,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E123">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2">
-        <v>45805.65278935185</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D124" s="2">
-        <v>45805.91875152234</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E124">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F124" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,22 +3460,22 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D125" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E125">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="F125" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.6128125</v>
       </c>
       <c r="G125">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3846,22 +3846,22 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="D141" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E141">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="F141" s="2">
-        <v>45805.70947916667</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G141">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D150" s="2">
-        <v>45804.91954472794</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E150">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150" s="2">
-        <v>45804.72743055555</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4100,22 +4100,22 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="2">
-        <v>45798.44711805556</v>
+        <v>45807.70732638889</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2">
-        <v>45799.89532166889</v>
+        <v>45807.78640665015</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153" s="2">
-        <v>45791.47842592592</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4377,16 +4377,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E162">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2">
-        <v>45786.67027777778</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4697,16 +4697,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E175">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F175" s="2">
-        <v>45786.51641203704</v>
+        <v>45806.41142361111</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>257</v>
+        <v>-243</v>
       </c>
       <c r="D191" s="2">
-        <v>45803.9069220483</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E191">
-        <v>257</v>
+        <v>-243</v>
       </c>
       <c r="F191" s="2">
-        <v>45803.7415625</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78640665015</v>
       </c>
       <c r="E192">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F192" s="2">
-        <v>45804.42633101852</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5181,22 +5181,22 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D195" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E195">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2">
-        <v>45804.41571759259</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5308,16 +5308,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E200">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F200" s="2">
-        <v>45805.70947916667</v>
+        <v>45806.74347222222</v>
       </c>
       <c r="G200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D206" s="2">
-        <v>45803.9069220483</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F206" s="2">
-        <v>45803.74012731481</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5717,16 +5717,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E217">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F217" s="2">
-        <v>45804.49947916667</v>
+        <v>45806.67587962963</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5841,16 +5841,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E222">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F222" s="2">
-        <v>45805.65278935185</v>
+        <v>45806.66787037037</v>
       </c>
       <c r="G222">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6149,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D235" s="2">
-        <v>45799.89540330523</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E235">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F235" s="2">
-        <v>45799.54766203704</v>
+        <v>45807.72325231481</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6175,22 +6175,22 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E236">
         <v>12</v>
       </c>
       <c r="F236" s="2">
-        <v>45805.70140046296</v>
+        <v>45807.49376157407</v>
       </c>
       <c r="G236">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6627,22 +6627,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D255" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E255">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F255" s="2">
-        <v>45805.69929398148</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G255">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6682,16 +6682,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E257">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F257" s="2">
-        <v>45686.70599537037</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6976,16 +6976,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F269" s="2">
-        <v>45772.61408564815</v>
+        <v>45806.72784722222</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2">
-        <v>45805.91872982616</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E270">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F270" s="2">
-        <v>45805.40565972222</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="D274" s="2">
-        <v>45805.918751534</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E274">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="F274" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,22 +7310,22 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D283" s="2">
-        <v>45806.77603756409</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E283">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="F283" s="2">
-        <v>45804.59197916667</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G283">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="D287" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E287">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="F287" s="2">
-        <v>45804.43545138889</v>
+        <v>45807.55438657408</v>
       </c>
       <c r="G287">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D291" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E291">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F291" s="2">
-        <v>45804.51150462963</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7541,16 +7541,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E292">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F292" s="2">
-        <v>45803.38153935185</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G292">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,22 +7610,22 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>35</v>
+        <v>608</v>
       </c>
       <c r="D295" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E295">
-        <v>38</v>
+        <v>608</v>
       </c>
       <c r="F295" s="2">
-        <v>45805.70947916667</v>
+        <v>45807.72819444445</v>
       </c>
       <c r="G295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7953,22 +7953,22 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D309" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E309">
-        <v>1218</v>
+        <v>1196</v>
       </c>
       <c r="F309" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G309">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8071,22 +8071,22 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D314" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E314">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="F314" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.53634259259</v>
       </c>
       <c r="G314">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>45805.9187731686</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E318">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F318" s="2">
-        <v>45805.76313657407</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8201,16 +8201,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E319">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F319" s="2">
-        <v>45803.72883101852</v>
+        <v>45806.67587962963</v>
       </c>
       <c r="G319">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8299,16 +8299,16 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D323" s="2">
-        <v>45799.89528857399</v>
+        <v>45807.78638608912</v>
       </c>
       <c r="E323">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F323" s="2">
-        <v>45779.51487268518</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -8374,22 +8374,22 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D326" s="2">
-        <v>45806.77603756409</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E326">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="F326" s="2">
-        <v>45805.65172453703</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G326">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8870,22 +8870,22 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D346" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E346">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="F346" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G346">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8991,22 +8991,22 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D351" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E351">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F351" s="2">
-        <v>45805.70947916667</v>
+        <v>45807.72325231481</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9164,22 +9164,22 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D358" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E358">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F358" s="2">
-        <v>45803.77322916667</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G358">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9196,16 +9196,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E359">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F359" s="2">
-        <v>45783.69407407408</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G359">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9242,22 +9242,22 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D361" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E361">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F361" s="2">
-        <v>45803.73357638889</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9291,22 +9291,22 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D363" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E363">
-        <v>892</v>
+        <v>826</v>
       </c>
       <c r="F363" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G363">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9588,16 +9588,16 @@
         <v>1</v>
       </c>
       <c r="C375">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D375" s="2">
-        <v>45799.89528857399</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E375">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F375" s="2">
-        <v>45782.54099537037</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -9614,16 +9614,16 @@
         <v>1</v>
       </c>
       <c r="C376">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D376" s="2">
-        <v>45799.89528857399</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E376">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F376" s="2">
-        <v>45779.51487268518</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D379" s="2">
-        <v>45799.89532166889</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E379">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F379" s="2">
-        <v>45790.62694444445</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>1</v>
       </c>
       <c r="C382">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D382" s="2">
-        <v>45799.89536723674</v>
+        <v>45807.78640665015</v>
       </c>
       <c r="E382">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F382" s="2">
-        <v>45797.63975694445</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>1</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D384" s="2">
-        <v>45795.04199234088</v>
+        <v>45810.31086535665</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F384" s="2">
-        <v>45705.78336805556</v>
+        <v>45807.49376157407</v>
       </c>
       <c r="G384">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H384" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -9839,19 +9839,19 @@
         <v>1</v>
       </c>
       <c r="C385">
+        <v>221</v>
+      </c>
+      <c r="D385" s="2">
+        <v>45810.31086535665</v>
+      </c>
+      <c r="E385">
         <v>121</v>
       </c>
-      <c r="D385" s="2">
-        <v>45806.77600903736</v>
-      </c>
-      <c r="E385">
-        <v>125</v>
-      </c>
       <c r="F385" s="2">
-        <v>45800.62716435185</v>
+        <v>45806.38988425926</v>
       </c>
       <c r="G385">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -9897,16 +9897,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E387">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F387" s="2">
-        <v>45804.44082175926</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -9923,16 +9923,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E388">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F388" s="2">
-        <v>45804.74640046297</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G388">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D389" s="2">
-        <v>45805.918751534</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E389">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F389" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D390" s="2">
-        <v>45805.9187731686</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E390">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F390" s="2">
-        <v>45805.70947916667</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D394" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E394">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F394" s="2">
-        <v>45805.74280092592</v>
+        <v>45807.74167824074</v>
       </c>
       <c r="G394">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10102,16 +10102,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E395">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F395" s="2">
-        <v>45800.47983796296</v>
+        <v>45806.41958333334</v>
       </c>
       <c r="G395">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10269,22 +10269,22 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D402" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E402">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="F402" s="2">
-        <v>45803.70542824074</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G402">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H402" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10295,16 +10295,16 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D403" s="2">
-        <v>45799.89532165734</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E403">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F403" s="2">
-        <v>45790.52543981482</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -10327,16 +10327,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E404">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F404" s="2">
-        <v>45804.41571759259</v>
+        <v>45806.38988425926</v>
       </c>
       <c r="G404">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D408" s="2">
-        <v>45803.62109434994</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E408">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F408" s="2">
-        <v>45803.77025462963</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>608</v>
+        <v>458</v>
       </c>
       <c r="D410" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E410">
-        <v>608</v>
+        <v>458</v>
       </c>
       <c r="F410" s="2">
-        <v>45804.46663194444</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E412">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F412" s="2">
-        <v>45755.54015046296</v>
+        <v>45806.68008101852</v>
       </c>
       <c r="G412">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D418" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E418">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="F418" s="2">
-        <v>45804.51150462963</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10849,16 +10849,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E425">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F425" s="2">
-        <v>45804.42633101852</v>
+        <v>45806.47244212963</v>
       </c>
       <c r="G425">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D441" s="2">
-        <v>45799.89532166889</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E441">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F441" s="2">
-        <v>45791.52667824074</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11838,16 +11838,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E465">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F465" s="2">
-        <v>45804.42633101852</v>
+        <v>45806.65934027778</v>
       </c>
       <c r="G465">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H465" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D469" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F469" s="2">
-        <v>45804.43621527778</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12011,16 +12011,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E472">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F472" s="2">
-        <v>45784.74362268519</v>
+        <v>45806.74347222222</v>
       </c>
       <c r="G472">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12161,16 +12161,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E478">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F478" s="2">
-        <v>45776.70671296296</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G478">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D480" s="2">
-        <v>45806.77603756409</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E480">
-        <v>-59</v>
+        <v>183</v>
       </c>
       <c r="F480" s="2">
-        <v>45805.76121527778</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G480">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12340,16 +12340,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E485">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F485" s="2">
-        <v>45800.46056712963</v>
+        <v>45806.75375</v>
       </c>
       <c r="G485">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H485" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -12366,16 +12366,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E486">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F486" s="2">
-        <v>45793.53142361111</v>
+        <v>45806.75375</v>
       </c>
       <c r="G486">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -12536,22 +12536,22 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D493" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E493">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F493" s="2">
-        <v>45804.76993055556</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G493">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -12611,22 +12611,22 @@
         <v>1</v>
       </c>
       <c r="C496">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="D496" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E496">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F496" s="2">
-        <v>45792.61738425926</v>
+        <v>45807.70524305556</v>
       </c>
       <c r="G496">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H496" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -12830,22 +12830,22 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="D505" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E505">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F505" s="2">
-        <v>45786.43359953703</v>
+        <v>45807.7065625</v>
       </c>
       <c r="G505">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -12885,16 +12885,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E507">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F507" s="2">
-        <v>45785.40377314815</v>
+        <v>45806.75375</v>
       </c>
       <c r="G507">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D510" s="2">
-        <v>45805.918751534</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E510">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F510" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D527" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E527">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F527" s="2">
-        <v>45804.49947916667</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -13473,16 +13473,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E531">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F531" s="2">
-        <v>45804.66668981482</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G531">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -13643,22 +13643,22 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>15</v>
+        <v>-85</v>
       </c>
       <c r="D538" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E538">
-        <v>-6</v>
+        <v>-85</v>
       </c>
       <c r="F538" s="2">
-        <v>45805.70869212963</v>
+        <v>45807.71612268518</v>
       </c>
       <c r="G538">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -13669,16 +13669,16 @@
         <v>1</v>
       </c>
       <c r="C539">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D539" s="2">
-        <v>45803.90692203668</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E539">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F539" s="2">
-        <v>45803.71083333333</v>
+        <v>45807.74167824074</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -13718,16 +13718,16 @@
         <v>1</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D541" s="2">
-        <v>45795.04204563411</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E541">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F541" s="2">
-        <v>45756.53471064815</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -13744,22 +13744,22 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D542" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E542">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F542" s="2">
-        <v>45796.65907407407</v>
+        <v>45807.69747685185</v>
       </c>
       <c r="G542">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14415,22 +14415,22 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2696</v>
+        <v>2691</v>
       </c>
       <c r="D570" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78640665015</v>
       </c>
       <c r="E570">
-        <v>2729</v>
+        <v>2691</v>
       </c>
       <c r="F570" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G570">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H570" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -14536,16 +14536,16 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D575" s="2">
-        <v>45803.62106753104</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E575">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F575" s="2">
-        <v>45803.49555555556</v>
+        <v>45807.55438657408</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -14677,22 +14677,22 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D581" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E581">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F581" s="2">
-        <v>45804.76993055556</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G581">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H581" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15158,16 +15158,16 @@
         <v>1</v>
       </c>
       <c r="C601">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D601" s="2">
-        <v>45799.89536723674</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E601">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F601" s="2">
-        <v>45797.63394675926</v>
+        <v>45807.71612268518</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -15213,16 +15213,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E603">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F603" s="2">
-        <v>45800.45024305556</v>
+        <v>45806.75375</v>
       </c>
       <c r="G603">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -15501,16 +15501,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E615">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F615" s="2">
-        <v>45805.76121527778</v>
+        <v>45806.41142361111</v>
       </c>
       <c r="G615">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -15642,22 +15642,22 @@
         <v>1</v>
       </c>
       <c r="C621">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D621" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E621">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F621" s="2">
-        <v>45779.72231481481</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G621">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H621" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -15878,22 +15878,22 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D631" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E631">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F631" s="2">
-        <v>45803.7415625</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G631">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H631" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -15936,16 +15936,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E633">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F633" s="2">
-        <v>45805.74226851852</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G633">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H633" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16083,16 +16083,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E639">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F639" s="2">
-        <v>45798.64541666667</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G639">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H639" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -16483,22 +16483,22 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D656" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E656">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F656" s="2">
-        <v>45796.49008101852</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G656">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H656" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -16509,22 +16509,22 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2303</v>
+        <v>2271</v>
       </c>
       <c r="D657" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E657">
-        <v>2367</v>
+        <v>2271</v>
       </c>
       <c r="F657" s="2">
-        <v>45805.70140046296</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G657">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H657" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -16584,22 +16584,22 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D660" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E660">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="F660" s="2">
-        <v>45799.64056712963</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G660">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H660" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17143,22 +17143,22 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D683" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E683">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F683" s="2">
-        <v>45792.61738425926</v>
+        <v>45807.69747685185</v>
       </c>
       <c r="G683">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H683" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -17201,16 +17201,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E685">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F685" s="2">
-        <v>45803.7415625</v>
+        <v>45806.75375</v>
       </c>
       <c r="G685">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H685" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -17296,16 +17296,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E689">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="F689" s="2">
-        <v>45805.62515046296</v>
+        <v>45806.61890046296</v>
       </c>
       <c r="G689">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="H689" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -17348,16 +17348,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E691">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="F691" s="2">
-        <v>45805.76913194444</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G691">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H691" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17654,16 +17654,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E703">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="F703" s="2">
-        <v>45805.74873842593</v>
+        <v>45806.66012731481</v>
       </c>
       <c r="G703">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H703" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18000,16 +18000,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E717">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F717" s="2">
-        <v>45797.63394675926</v>
+        <v>45806.40048611111</v>
       </c>
       <c r="G717">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H717" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -18072,22 +18072,22 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>692</v>
+        <v>634</v>
       </c>
       <c r="D720" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E720">
-        <v>750</v>
+        <v>634</v>
       </c>
       <c r="F720" s="2">
-        <v>45805.76121527778</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G720">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H720" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -18208,16 +18208,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E725">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F725" s="2">
-        <v>45800.47983796296</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H725" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -18228,22 +18228,22 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D726" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E726">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="F726" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G726">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="H726" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -18381,22 +18381,22 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D732" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E732">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F732" s="2">
-        <v>45804.51150462963</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G732">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H732" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -18618,16 +18618,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E741">
-        <v>-8</v>
+        <v>52</v>
       </c>
       <c r="F741" s="2">
-        <v>45804.77462962963</v>
+        <v>45806.67736111111</v>
       </c>
       <c r="G741">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H741" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19007,16 +19007,16 @@
         <v>1</v>
       </c>
       <c r="C757">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D757" s="2">
-        <v>45799.89536723674</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E757">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F757" s="2">
-        <v>45797.67152777778</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -19232,16 +19232,16 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D766" s="2">
-        <v>45799.89534673509</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E766">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F766" s="2">
-        <v>45804.41571759259</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D772" s="2">
-        <v>45804.91954472794</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E772">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F772" s="2">
-        <v>45804.72743055555</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19405,16 +19405,16 @@
         <v>1</v>
       </c>
       <c r="C773">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D773" s="2">
-        <v>45795.04208095842</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E773">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F773" s="2">
-        <v>45763.77590277778</v>
+        <v>45807.70332175926</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -19431,16 +19431,16 @@
         <v>1</v>
       </c>
       <c r="C774">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D774" s="2">
-        <v>45799.89534673509</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E774">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F774" s="2">
-        <v>45793.61712962963</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G774">
         <v>0</v>
@@ -19561,22 +19561,22 @@
         <v>1</v>
       </c>
       <c r="C779">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D779" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E779">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F779" s="2">
-        <v>45800.40415509259</v>
+        <v>45807.76337962963</v>
       </c>
       <c r="G779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H779" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -19593,16 +19593,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E780">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F780" s="2">
-        <v>45805.65172453703</v>
+        <v>45806.71055555555</v>
       </c>
       <c r="G780">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H780" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -19979,22 +19979,22 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D796" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E796">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F796" s="2">
-        <v>45803.71083333333</v>
+        <v>45807.70579861111</v>
       </c>
       <c r="G796">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H796" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D819" s="2">
-        <v>45799.89532165734</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E819">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F819" s="2">
-        <v>45789.69313657407</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20608,16 +20608,16 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D821" s="2">
-        <v>45799.89532166889</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E821">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F821" s="2">
-        <v>45791.66861111111</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -20732,22 +20732,22 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D826" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E826">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F826" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G826">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H826" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="F832" s="2">
-        <v>45664.75659722222</v>
+        <v>45806.66165509259</v>
       </c>
       <c r="G832">
         <v>0</v>
@@ -21170,16 +21170,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E844">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F844" s="2">
-        <v>45802.99417824074</v>
+        <v>45806.41142361111</v>
       </c>
       <c r="G844">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H844" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -21395,16 +21395,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E853">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F853" s="2">
-        <v>45805.70947916667</v>
+        <v>45806.72784722222</v>
       </c>
       <c r="G853">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H853" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21490,16 +21490,16 @@
         <v>1</v>
       </c>
       <c r="C857">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D857" s="2">
-        <v>45799.89532164588</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E857">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F857" s="2">
-        <v>45785.73475694445</v>
+        <v>45807.63104166667</v>
       </c>
       <c r="G857">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D872" s="2">
-        <v>45804.91952554927</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E872">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F872" s="2">
-        <v>45804.41571759259</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21946,16 +21946,16 @@
         <v>1</v>
       </c>
       <c r="C875">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D875" s="2">
-        <v>45795.04193352044</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E875">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F875" s="2">
-        <v>45664.61296296296</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D876" s="2">
-        <v>45799.895427387</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E876">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F876" s="2">
-        <v>45799.64056712963</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22030,16 +22030,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E878">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F878" s="2">
-        <v>45804.76886574074</v>
+        <v>45806.69797453703</v>
       </c>
       <c r="G878">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H878" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -22145,22 +22145,22 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="D883" s="2">
-        <v>45806.77603765521</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E883">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="F883" s="2">
-        <v>45805.70012731481</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G883">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H883" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22272,22 +22272,22 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D888" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E888">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F888" s="2">
-        <v>45805.62515046296</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G888">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H888" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22304,16 +22304,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E889">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F889" s="2">
-        <v>45804.44082175926</v>
+        <v>45806.67587962963</v>
       </c>
       <c r="G889">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H889" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -22402,16 +22402,16 @@
         <v>1</v>
       </c>
       <c r="C893">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D893" s="2">
-        <v>45795.04186106093</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E893">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F893" s="2">
-        <v>45601.47052083333</v>
+        <v>45807.74167824074</v>
       </c>
       <c r="G893">
         <v>0</v>
@@ -22685,16 +22685,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E904">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F904" s="2">
-        <v>45805.65278935185</v>
+        <v>45806.67065972222</v>
       </c>
       <c r="G904">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H904" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -22786,16 +22786,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E908">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F908" s="2">
-        <v>45792.44076388889</v>
+        <v>45806.70516203704</v>
       </c>
       <c r="G908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H908" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -23089,16 +23089,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E920">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F920" s="2">
-        <v>45776.67577546297</v>
+        <v>45806.75375</v>
       </c>
       <c r="G920">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H920" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -23193,16 +23193,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E924">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F924" s="2">
-        <v>45805.42017361111</v>
+        <v>45806.65318287037</v>
       </c>
       <c r="G924">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H924" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23395,16 +23395,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E932">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F932" s="2">
-        <v>45748.70383101852</v>
+        <v>45806.75375</v>
       </c>
       <c r="G932">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H932" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -23539,22 +23539,22 @@
         <v>1</v>
       </c>
       <c r="C938">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D938" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E938">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F938" s="2">
-        <v>45803.7415625</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G938">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H938" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -23701,16 +23701,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E944">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F944" s="2">
-        <v>45792.61738425926</v>
+        <v>45806.75375</v>
       </c>
       <c r="G944">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H944" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -23854,16 +23854,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E950">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F950" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.44422453704</v>
       </c>
       <c r="G950">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H950" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -24116,16 +24116,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E961">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F961" s="2">
-        <v>45805.65278935185</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G961">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H961" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D962" s="2">
-        <v>45805.91875152234</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E962">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F962" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.55458333333</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24168,16 +24168,16 @@
         <v>45806.77603765521</v>
       </c>
       <c r="E963">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F963" s="2">
-        <v>45805.65278935185</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G963">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H963" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1002" s="2">
-        <v>45804.91954472794</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E1002">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F1002" s="2">
-        <v>45804.76886574074</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1018" s="2">
-        <v>45799.89534674662</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1018">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1018" s="2">
-        <v>45796.49008101852</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25744,16 +25744,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1025">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F1025" s="2">
-        <v>45790.51179398148</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1025">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1025" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -25770,16 +25770,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1026">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F1026" s="2">
-        <v>45799.43446759259</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1026">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1026" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -25937,16 +25937,16 @@
         <v>1</v>
       </c>
       <c r="C1033">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1033" s="2">
-        <v>45795.04208095842</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1033">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1033" s="2">
-        <v>45202.77428240741</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G1033">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D1039" s="2">
-        <v>45798.96533509644</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1039">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F1039" s="2">
-        <v>45798.44859953703</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26200,16 +26200,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1043">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1043" s="2">
-        <v>45784.56111111111</v>
+        <v>45806.40929398148</v>
       </c>
       <c r="G1043">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1043" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -26471,16 +26471,16 @@
         <v>1</v>
       </c>
       <c r="C1054">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D1054" s="2">
-        <v>45800.93175383128</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E1054">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F1054" s="2">
-        <v>45800.47983796296</v>
+        <v>45807.71884259259</v>
       </c>
       <c r="G1054">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D1062" s="2">
-        <v>45803.9069220483</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1062">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F1062" s="2">
-        <v>45803.73960648148</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27498,16 +27498,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E1095">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="F1095" s="2">
-        <v>45805.62515046296</v>
+        <v>45806.66946759259</v>
       </c>
       <c r="G1095">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1095" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -27564,22 +27564,22 @@
         <v>1</v>
       </c>
       <c r="C1098">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1098" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1098">
-        <v>-32</v>
+        <v>40</v>
       </c>
       <c r="F1098" s="2">
-        <v>45805.76121527778</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1098">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H1098" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28046,7 +28046,7 @@
         <v>0</v>
       </c>
       <c r="D1117" s="2">
-        <v>45795.04199234088</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1117">
         <v>0</v>
@@ -28179,16 +28179,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1122">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F1122" s="2">
-        <v>45804.77440972222</v>
+        <v>45806.75423611111</v>
       </c>
       <c r="G1122">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -28274,22 +28274,22 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D1126" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1126">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F1126" s="2">
-        <v>45800.68569444444</v>
+        <v>45807.78510416667</v>
       </c>
       <c r="G1126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28459,16 +28459,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1133">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F1133" s="2">
-        <v>45800.40415509259</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1133">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -28485,16 +28485,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1134">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1134" s="2">
-        <v>45796.65907407407</v>
+        <v>45806.41142361111</v>
       </c>
       <c r="G1134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -28811,16 +28811,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1147">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F1147" s="2">
-        <v>45805.42017361111</v>
+        <v>45806.74347222222</v>
       </c>
       <c r="G1147">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -28993,16 +28993,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1154">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1154" s="2">
-        <v>45805.67193287037</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G1154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1174" s="2">
-        <v>45800.9318881683</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1174">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1174" s="2">
-        <v>45800.63335648148</v>
+        <v>45807.69747685185</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29579,16 +29579,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1177">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F1177" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.44422453704</v>
       </c>
       <c r="G1177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -29732,16 +29732,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1183">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F1183" s="2">
-        <v>45805.70140046296</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1183">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -29804,16 +29804,16 @@
         <v>1</v>
       </c>
       <c r="C1186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1186" s="2">
-        <v>45799.8954032937</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E1186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1186" s="2">
-        <v>45799.43446759259</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -29830,22 +29830,22 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1187" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1187">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F1187" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1187">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -30012,16 +30012,16 @@
         <v>1</v>
       </c>
       <c r="C1194">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1194" s="2">
-        <v>45795.04210567895</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1194">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1194" s="2">
-        <v>45777.65777777778</v>
+        <v>45807.6128125</v>
       </c>
       <c r="G1194">
         <v>0</v>
@@ -30038,16 +30038,16 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1195" s="2">
-        <v>45799.8954032937</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1195">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1195" s="2">
-        <v>45799.40591435185</v>
+        <v>45807.62085648148</v>
       </c>
       <c r="G1195">
         <v>0</v>
@@ -31528,22 +31528,22 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="D1253" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1253">
-        <v>619</v>
+        <v>507</v>
       </c>
       <c r="F1253" s="2">
-        <v>45805.76121527778</v>
+        <v>45807.70125</v>
       </c>
       <c r="G1253">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H1253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31577,22 +31577,22 @@
         <v>1</v>
       </c>
       <c r="C1255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1255" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1255">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F1255" s="2">
-        <v>45800.46056712963</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G1255">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -31739,16 +31739,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1261">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="F1261" s="2">
-        <v>45803.52199074074</v>
+        <v>45806.66086805556</v>
       </c>
       <c r="G1261">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H1261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -31869,16 +31869,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E1266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1266" s="2">
-        <v>45805.65172453703</v>
+        <v>45806.67012731481</v>
       </c>
       <c r="G1266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -32354,16 +32354,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1285">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F1285" s="2">
-        <v>45776.67577546297</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1285">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H1285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -32498,16 +32498,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E1291">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1291" s="2">
-        <v>45761.62752314815</v>
+        <v>45806.67306712963</v>
       </c>
       <c r="G1291">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H1291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -32954,16 +32954,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1309">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F1309" s="2">
-        <v>45800.40415509259</v>
+        <v>45806.73914351852</v>
       </c>
       <c r="G1309">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H1309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -33338,16 +33338,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1324">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F1324" s="2">
-        <v>45749.76866898148</v>
+        <v>45806.72444444444</v>
       </c>
       <c r="G1324">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -33494,16 +33494,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E1330">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1330" s="2">
-        <v>45805.69929398148</v>
+        <v>45806.67587962963</v>
       </c>
       <c r="G1330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1330" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -33540,22 +33540,22 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1332" s="2">
-        <v>45806.77603763194</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1332">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F1332" s="2">
-        <v>45805.67422453704</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G1332">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H1332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="D1342" s="2">
-        <v>45805.91875152234</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1342">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="F1342" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.70125</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34227,16 +34227,16 @@
         <v>1</v>
       </c>
       <c r="C1359">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1359" s="2">
-        <v>45795.04204563411</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1359">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1359" s="2">
-        <v>45716.71304398148</v>
+        <v>45807.74167824074</v>
       </c>
       <c r="G1359">
         <v>0</v>
@@ -34969,16 +34969,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1388">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F1388" s="2">
-        <v>45805.76121527778</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1388">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H1388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1389" spans="1:8">
@@ -35047,16 +35047,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1391">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1391" s="2">
-        <v>45805.76913194444</v>
+        <v>45806.74347222222</v>
       </c>
       <c r="G1391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1391" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35578,16 +35578,16 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D1412" s="2">
-        <v>45803.9069220483</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1412">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F1412" s="2">
-        <v>45803.74012731481</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -35806,22 +35806,22 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D1421" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1421">
-        <v>47</v>
+        <v>-8</v>
       </c>
       <c r="F1421" s="2">
-        <v>45804.76993055556</v>
+        <v>45807.69747685185</v>
       </c>
       <c r="G1421">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H1421" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1422" spans="1:8">
@@ -35838,16 +35838,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1422">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="F1422" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1422">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1423" spans="1:8">
@@ -35864,16 +35864,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1423">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1423" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1423">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1423" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1424" spans="1:8">
@@ -36499,22 +36499,22 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D1448" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1448">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F1448" s="2">
-        <v>45800.40415509259</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G1448">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -37985,22 +37985,22 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D1507" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1507">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="F1507" s="2">
-        <v>45799.64041666667</v>
+        <v>45807.74045138889</v>
       </c>
       <c r="G1507">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="H1507" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38046,7 +38046,7 @@
         <v>51</v>
       </c>
       <c r="F1509" s="2">
-        <v>45804.76886574074</v>
+        <v>45806.66423611111</v>
       </c>
       <c r="G1509">
         <v>0</v>
@@ -38069,16 +38069,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1510">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="F1510" s="2">
-        <v>45805.70869212963</v>
+        <v>45806.72811342592</v>
       </c>
       <c r="G1510">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H1510" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1511" spans="1:8">
@@ -38334,16 +38334,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1521">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F1521" s="2">
-        <v>45805.74226851852</v>
+        <v>45806.74599537037</v>
       </c>
       <c r="G1521">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H1521" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1522" spans="1:8">
@@ -39245,16 +39245,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1558">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F1558" s="2">
-        <v>45800.686875</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1558">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H1558" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1559" spans="1:8">
@@ -39473,16 +39473,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1567">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F1567" s="2">
-        <v>45805.69929398148</v>
+        <v>45806.68252314815</v>
       </c>
       <c r="G1567">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1567" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1568" spans="1:8">
@@ -39597,22 +39597,22 @@
         <v>1</v>
       </c>
       <c r="C1572">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D1572" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E1572">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1572" s="2">
-        <v>45799.56233796296</v>
+        <v>45807.71956018519</v>
       </c>
       <c r="G1572">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1572" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1573" spans="1:8">
@@ -39652,16 +39652,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1574">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1574" s="2">
-        <v>45756.43848379629</v>
+        <v>45806.71119212963</v>
       </c>
       <c r="G1574">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1574" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1575" spans="1:8">
@@ -39672,16 +39672,16 @@
         <v>1</v>
       </c>
       <c r="C1575">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D1575" s="2">
-        <v>45795.04186106093</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1575">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F1575" s="2">
-        <v>45594.4424537037</v>
+        <v>45807.46862268518</v>
       </c>
       <c r="G1575">
         <v>0</v>
@@ -40142,22 +40142,22 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1594" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1594">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1594" s="2">
-        <v>45805.74873842593</v>
+        <v>45807.78447916666</v>
       </c>
       <c r="G1594">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1594" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1595" spans="1:8">
@@ -40220,22 +40220,22 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7237</v>
+        <v>7192</v>
       </c>
       <c r="D1597" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E1597">
-        <v>7322</v>
+        <v>7192</v>
       </c>
       <c r="F1597" s="2">
-        <v>45805.65172453703</v>
+        <v>45807.78542824074</v>
       </c>
       <c r="G1597">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H1597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -41083,16 +41083,16 @@
         <v>1</v>
       </c>
       <c r="C1631">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1631" s="2">
-        <v>45803.62106753104</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1631">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1631" s="2">
-        <v>45803.50922453704</v>
+        <v>45807.69747685185</v>
       </c>
       <c r="G1631">
         <v>0</v>
@@ -41573,22 +41573,22 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>-72</v>
+        <v>36</v>
       </c>
       <c r="D1651" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E1651">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F1651" s="2">
-        <v>45791.69931712963</v>
+        <v>45807.7375925926</v>
       </c>
       <c r="G1651">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H1651" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -41680,16 +41680,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1655">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F1655" s="2">
-        <v>45805.75204861111</v>
+        <v>45806.51422453704</v>
       </c>
       <c r="G1655">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1655" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1656" spans="1:8">
@@ -42724,16 +42724,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1697">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1697" s="2">
-        <v>45803.7415625</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G1697">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1697" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -42992,16 +42992,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1708">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F1708" s="2">
-        <v>45805.76121527778</v>
+        <v>45806.66041666667</v>
       </c>
       <c r="G1708">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1708" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1709" spans="1:8">
@@ -43136,22 +43136,22 @@
         <v>1</v>
       </c>
       <c r="C1714">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1714" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1714">
         <v>0</v>
       </c>
       <c r="F1714" s="2">
-        <v>45581.42105324074</v>
+        <v>45807.71524305556</v>
       </c>
       <c r="G1714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1714" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1715" spans="1:8">
@@ -43554,16 +43554,16 @@
         <v>1</v>
       </c>
       <c r="C1731">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1731" s="2">
-        <v>45795.0420164208</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1731">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1731" s="2">
-        <v>45740.73671296296</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1731">
         <v>0</v>
@@ -43730,16 +43730,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1738">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F1738" s="2">
-        <v>45805.76913194444</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1738">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1738" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1739" spans="1:8">
@@ -43782,16 +43782,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1740">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1740" s="2">
-        <v>45798.62037037037</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1740">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1740" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1741" spans="1:8">
@@ -43851,16 +43851,16 @@
         <v>1</v>
       </c>
       <c r="C1743">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1743" s="2">
-        <v>45795.04190003897</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E1743">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1743" s="2">
-        <v>45656.75501157407</v>
+        <v>45807.71884259259</v>
       </c>
       <c r="G1743">
         <v>0</v>
@@ -44096,16 +44096,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1753">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F1753" s="2">
-        <v>45776.70671296296</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G1753">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H1753" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1754" spans="1:8">
@@ -45025,22 +45025,22 @@
         <v>1</v>
       </c>
       <c r="C1790">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D1790" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E1790">
         <v>0</v>
       </c>
       <c r="F1790" s="2">
-        <v>45526.52446759259</v>
+        <v>45807.72267361111</v>
       </c>
       <c r="G1790">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H1790" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1791" spans="1:8">
@@ -45862,16 +45862,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1823" s="2">
-        <v>45799.89534674662</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1823">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F1823" s="2">
-        <v>45796.49008101852</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -46396,22 +46396,22 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D1844" s="2">
-        <v>45806.77603756409</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1844">
-        <v>284</v>
+        <v>448</v>
       </c>
       <c r="F1844" s="2">
-        <v>45800.6955787037</v>
+        <v>45807.69886574074</v>
       </c>
       <c r="G1844">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H1844" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -46676,16 +46676,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E1855">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1855" s="2">
-        <v>45799.59944444444</v>
+        <v>45806.75375</v>
       </c>
       <c r="G1855">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1855" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1856" spans="1:8">
@@ -46754,16 +46754,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1858">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1858" s="2">
-        <v>45783.42605324074</v>
+        <v>45806.45805555556</v>
       </c>
       <c r="G1858">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1858" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1859" spans="1:8">
@@ -47271,16 +47271,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E1878">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F1878" s="2">
-        <v>45805.67422453704</v>
+        <v>45806.74783564815</v>
       </c>
       <c r="G1878">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H1878" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1879" spans="1:8">
@@ -47891,16 +47891,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E1903">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1903" s="2">
-        <v>45803.74012731481</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G1903">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1903" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1904" spans="1:8">
@@ -49351,16 +49351,16 @@
         <v>1</v>
       </c>
       <c r="C1961">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1961" s="2">
-        <v>45799.89528859723</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E1961">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1961" s="2">
-        <v>45784.38047453704</v>
+        <v>45807.69802083333</v>
       </c>
       <c r="G1961">
         <v>0</v>
@@ -50903,16 +50903,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2023" s="2">
-        <v>45799.89542739857</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2023">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2023" s="2">
-        <v>45796.49008101852</v>
+        <v>45807.43805555555</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -51053,16 +51053,16 @@
         <v>1</v>
       </c>
       <c r="C2029">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2029" s="2">
-        <v>45795.04210567895</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2029">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2029" s="2">
-        <v>45776.66952546296</v>
+        <v>45807.53634259259</v>
       </c>
       <c r="G2029">
         <v>0</v>
@@ -52020,16 +52020,16 @@
         <v>1</v>
       </c>
       <c r="C2067">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D2067" s="2">
-        <v>45799.89532166889</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2067">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F2067" s="2">
-        <v>45791.69805555556</v>
+        <v>45807.44157407407</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -53001,16 +53001,16 @@
         <v>1</v>
       </c>
       <c r="C2106">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D2106" s="2">
-        <v>45799.89534672352</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E2106">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F2106" s="2">
-        <v>45793.37754629629</v>
+        <v>45807.43640046296</v>
       </c>
       <c r="G2106">
         <v>0</v>
@@ -53448,22 +53448,22 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>131</v>
+        <v>-69</v>
       </c>
       <c r="D2124" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2124">
-        <v>146</v>
+        <v>-69</v>
       </c>
       <c r="F2124" s="2">
-        <v>45798.64541666667</v>
+        <v>45807.55458333333</v>
       </c>
       <c r="G2124">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H2124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2125" spans="1:8">
@@ -54086,16 +54086,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2149">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2149" s="2">
-        <v>45782.69275462963</v>
+        <v>45806.44605324074</v>
       </c>
       <c r="G2149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2150" spans="1:8">
@@ -54965,16 +54965,16 @@
         <v>1</v>
       </c>
       <c r="C2185">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2185" s="2">
-        <v>45799.89542739857</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E2185">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2185" s="2">
-        <v>45782.63760416667</v>
+        <v>45807.71784722222</v>
       </c>
       <c r="G2185">
         <v>0</v>
@@ -55098,16 +55098,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2190" s="2">
-        <v>45797.50049768519</v>
+        <v>45806.68059027778</v>
       </c>
       <c r="G2190">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2191" spans="1:8">
@@ -55124,16 +55124,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E2191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2191" s="2">
-        <v>45797.50049768519</v>
+        <v>45806.67986111111</v>
       </c>
       <c r="G2191">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2192" spans="1:8">
@@ -55150,16 +55150,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2192" s="2">
-        <v>45797.49900462963</v>
+        <v>45806.68019675926</v>
       </c>
       <c r="G2192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2193" spans="1:8">
@@ -55176,16 +55176,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2193" s="2">
-        <v>45797.50049768519</v>
+        <v>45806.68038194445</v>
       </c>
       <c r="G2193">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2194" spans="1:8">
@@ -55202,16 +55202,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2194">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2194" s="2">
-        <v>45797.50049768519</v>
+        <v>45806.68077546296</v>
       </c>
       <c r="G2194">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2195" spans="1:8">
@@ -55612,16 +55612,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2210">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2210" s="2">
-        <v>45797.50049768519</v>
+        <v>45806.68005787037</v>
       </c>
       <c r="G2210">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2211" spans="1:8">
@@ -56391,22 +56391,22 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D2241" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2241">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="F2241" s="2">
-        <v>45805.70947916667</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G2241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2242" spans="1:8">
@@ -58275,16 +58275,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2316">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="F2316" s="2">
-        <v>45805.70905092593</v>
+        <v>45806.65982638889</v>
       </c>
       <c r="G2316">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H2316" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2317" spans="1:8">
@@ -58471,16 +58471,16 @@
         <v>45806.77603763194</v>
       </c>
       <c r="E2324">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2324" s="2">
-        <v>45804.59592592593</v>
+        <v>45806.72784722222</v>
       </c>
       <c r="G2324">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2325" spans="1:8">
@@ -59103,16 +59103,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2349">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F2349" s="2">
-        <v>45805.75204861111</v>
+        <v>45806.51457175926</v>
       </c>
       <c r="G2349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2349" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2350" spans="1:8">
@@ -59273,13 +59273,16 @@
         <v>1</v>
       </c>
       <c r="C2356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2356" s="2">
-        <v>45797.78384760843</v>
+        <v>45807.78640657826</v>
       </c>
       <c r="E2356">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F2356" s="2">
+        <v>45807.43640046296</v>
       </c>
       <c r="G2356">
         <v>0</v>
@@ -59610,22 +59613,22 @@
         <v>1</v>
       </c>
       <c r="C2370">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D2370" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643077149</v>
       </c>
       <c r="E2370">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F2370" s="2">
-        <v>45798.71837962963</v>
+        <v>45807.76417824074</v>
       </c>
       <c r="G2370">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2370" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2371" spans="1:8">
@@ -60383,16 +60386,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E2401">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2401" s="2">
-        <v>45783.69398148148</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G2401">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2401" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2402" spans="1:8">
@@ -60752,22 +60755,22 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D2416" s="2">
-        <v>45806.77600903736</v>
+        <v>45807.78640665444</v>
       </c>
       <c r="E2416">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F2416" s="2">
-        <v>45804.71377314815</v>
+        <v>45807.69164351852</v>
       </c>
       <c r="G2416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61378,16 +61381,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2441">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2441" s="2">
-        <v>45805.75204861111</v>
+        <v>45806.51494212963</v>
       </c>
       <c r="G2441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2442" spans="1:8">
@@ -62352,16 +62355,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E2481">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="F2481" s="2">
-        <v>45799.61766203704</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G2481">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H2481" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2482" spans="1:8">
@@ -62378,16 +62381,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E2482">
-        <v>717</v>
+        <v>581</v>
       </c>
       <c r="F2482" s="2">
-        <v>45803.61216435185</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G2482">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H2482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62404,16 +62407,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E2483">
-        <v>1007</v>
+        <v>957</v>
       </c>
       <c r="F2483" s="2">
-        <v>45804.39973379629</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G2483">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62430,16 +62433,16 @@
         <v>45806.77605776805</v>
       </c>
       <c r="E2484">
-        <v>1086</v>
+        <v>1012</v>
       </c>
       <c r="F2484" s="2">
-        <v>45804.57047453704</v>
+        <v>45806.74983796296</v>
       </c>
       <c r="G2484">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H2484" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -63306,16 +63309,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2520">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F2520" s="2">
-        <v>45805.6905787037</v>
+        <v>45806.65428240741</v>
       </c>
       <c r="G2520">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H2520" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2521" spans="1:8">
@@ -63332,16 +63335,16 @@
         <v>45806.77600903736</v>
       </c>
       <c r="E2521">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F2521" s="2">
-        <v>45805.6905787037</v>
+        <v>45806.65121527778</v>
       </c>
       <c r="G2521">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H2521" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2522" spans="1:8">
@@ -63703,19 +63706,22 @@
         <v>1</v>
       </c>
       <c r="C2537">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2537" s="2">
-        <v>45806.77605776805</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E2537">
         <v>0</v>
       </c>
+      <c r="F2537" s="2">
+        <v>45807.71740740741</v>
+      </c>
       <c r="G2537">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2537" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2538" spans="1:8">
@@ -63772,16 +63778,16 @@
         <v>1</v>
       </c>
       <c r="C2540">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D2540" s="2">
-        <v>45805.91875152234</v>
+        <v>45807.78643074667</v>
       </c>
       <c r="E2540">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F2540" s="2">
-        <v>45805.65278935185</v>
+        <v>45807.72137731482</v>
       </c>
       <c r="G2540">
         <v>0</v>
@@ -63991,13 +63997,16 @@
         <v>45806.77603756409</v>
       </c>
       <c r="E2549">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F2549" s="2">
+        <v>45806.6715625</v>
       </c>
       <c r="G2549">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H2549" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2550" spans="1:8">

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2551"/>
+  <dimension ref="A1:H2554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,10 +494,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -506,10 +506,10 @@
         <v>45805.71751157408</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E5">
         <v>37</v>
@@ -532,10 +532,10 @@
         <v>45807.78447916666</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E12">
         <v>49</v>
@@ -702,10 +702,10 @@
         <v>45807.62427083333</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E23">
         <v>56</v>
@@ -964,10 +964,10 @@
         <v>45806.68203703704</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1704</v>
+        <v>1660</v>
       </c>
       <c r="D33" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E33">
         <v>1704</v>
@@ -1206,10 +1206,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2">
-        <v>45799.89528858563</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E38">
         <v>79</v>
@@ -1324,10 +1324,10 @@
         <v>45782.69275462963</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E49">
         <v>88</v>
@@ -1601,10 +1601,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E56">
         <v>181</v>
@@ -1777,10 +1777,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D58" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E58">
         <v>116</v>
@@ -1829,10 +1829,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E63">
         <v>101</v>
@@ -1953,10 +1953,10 @@
         <v>45807.6128125</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2088,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2">
-        <v>45805.91875152234</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E69">
         <v>42</v>
@@ -2100,10 +2100,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D70" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E70">
         <v>61</v>
@@ -2126,10 +2126,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2140,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D71" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E71">
         <v>52</v>
@@ -2152,10 +2152,10 @@
         <v>45807.69802083333</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2376,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
-        <v>45807.78638608912</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E81">
         <v>36</v>
@@ -2388,10 +2388,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E82">
         <v>48</v>
@@ -2414,10 +2414,10 @@
         <v>45806.69827546296</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E83">
         <v>101</v>
@@ -2440,10 +2440,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2477,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E85">
         <v>17</v>
@@ -2489,10 +2489,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E86">
         <v>33</v>
@@ -2515,10 +2515,10 @@
         <v>45807.6128125</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2529,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D87" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E87">
         <v>120</v>
@@ -2541,10 +2541,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2630,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D91" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E91">
         <v>136</v>
@@ -2642,10 +2642,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E94">
         <v>108</v>
@@ -2714,10 +2714,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1481</v>
+        <v>1379</v>
       </c>
       <c r="D101" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E101">
         <v>1481</v>
@@ -2884,10 +2884,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
-        <v>45803.9069220483</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E103">
         <v>33</v>
@@ -2933,10 +2933,10 @@
         <v>45803.74128472222</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D106" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E106">
         <v>58</v>
@@ -3005,10 +3005,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3258,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D117" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E117">
         <v>1192</v>
@@ -3270,10 +3270,10 @@
         <v>45806.44605324074</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>45795.04163815061</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E120">
         <v>53</v>
@@ -3345,10 +3345,10 @@
         <v>45807.70125</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3359,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E121">
         <v>32</v>
@@ -3371,10 +3371,10 @@
         <v>45805.76121527778</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D123" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E123">
         <v>83</v>
@@ -3420,10 +3420,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3460,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D125" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E125">
         <v>322</v>
@@ -3472,10 +3472,10 @@
         <v>45807.6128125</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3486,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E126">
         <v>20</v>
@@ -3498,10 +3498,10 @@
         <v>45805.76144675926</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2">
-        <v>45799.89532165734</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E128">
         <v>77</v>
@@ -3547,10 +3547,10 @@
         <v>45789.51143518519</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3846,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D141" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E141">
         <v>590</v>
@@ -3858,10 +3858,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4149,10 +4149,10 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2">
-        <v>45807.78640665015</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E153">
         <v>9</v>
@@ -4161,10 +4161,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4691,10 +4691,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D175" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E175">
         <v>103</v>
@@ -4703,10 +4703,10 @@
         <v>45806.41142361111</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D185" s="2">
-        <v>45805.918751534</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E185">
         <v>85</v>
@@ -4948,10 +4948,10 @@
         <v>45805.70012731481</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5103,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2">
-        <v>45807.78640665015</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E192">
         <v>29</v>
@@ -5115,10 +5115,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D195" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -5193,10 +5193,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5302,10 +5302,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D200" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E200">
         <v>564</v>
@@ -5314,10 +5314,10 @@
         <v>45806.74347222222</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5521,10 +5521,10 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E209">
         <v>31</v>
@@ -5533,10 +5533,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D217" s="2">
-        <v>45806.77603756409</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E217">
         <v>119</v>
@@ -5723,10 +5723,10 @@
         <v>45806.67587962963</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5933,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D226" s="2">
-        <v>45800.93201925102</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E226">
         <v>123</v>
@@ -5945,10 +5945,10 @@
         <v>45800.75763888889</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6149,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D235" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E235">
         <v>48</v>
@@ -6161,10 +6161,10 @@
         <v>45807.72325231481</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6437,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D247" s="2">
-        <v>45805.91875150988</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E247">
         <v>529</v>
@@ -6449,10 +6449,10 @@
         <v>45805.65172453703</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6627,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D255" s="2">
-        <v>45807.78638608912</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E255">
         <v>54</v>
@@ -6639,10 +6639,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6996,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D270" s="2">
-        <v>45807.78638608912</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E270">
         <v>2</v>
@@ -7008,10 +7008,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7097,10 +7097,10 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D274" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E274">
         <v>245</v>
@@ -7109,10 +7109,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7310,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D283" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E283">
         <v>252</v>
@@ -7322,10 +7322,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="D287" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E287">
         <v>746</v>
@@ -7420,10 +7420,10 @@
         <v>45807.55438657408</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7509,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D291" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E291">
         <v>31</v>
@@ -7521,10 +7521,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7535,10 +7535,10 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D292" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E292">
         <v>26</v>
@@ -7547,10 +7547,10 @@
         <v>45806.44605324074</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="D295" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E295">
         <v>608</v>
@@ -7622,10 +7622,10 @@
         <v>45807.72819444445</v>
       </c>
       <c r="G295">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7904,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D307" s="2">
-        <v>45799.89532165734</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -7916,10 +7916,10 @@
         <v>45789.61173611111</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -7953,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="D309" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E309">
         <v>1196</v>
@@ -7965,10 +7965,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8374,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D326" s="2">
-        <v>45807.78640657826</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E326">
         <v>10</v>
@@ -8386,10 +8386,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8870,10 +8870,10 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D346" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E346">
         <v>38</v>
@@ -8882,10 +8882,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8991,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="D351" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E351">
         <v>278</v>
@@ -9003,10 +9003,10 @@
         <v>45807.72325231481</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9017,10 +9017,10 @@
         <v>1</v>
       </c>
       <c r="C352">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="D352" s="2">
-        <v>45805.91875152234</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E352">
         <v>635</v>
@@ -9029,10 +9029,10 @@
         <v>45805.67193287037</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H352" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9115,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D356" s="2">
-        <v>45800.93197718772</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E356">
         <v>26</v>
@@ -9127,10 +9127,10 @@
         <v>45800.68631944444</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9164,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D358" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E358">
         <v>64</v>
@@ -9176,10 +9176,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H358" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9291,10 +9291,10 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="D363" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E363">
         <v>826</v>
@@ -9303,10 +9303,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9943,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D389" s="2">
-        <v>45807.78640657826</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E389">
         <v>17</v>
@@ -9955,10 +9955,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -9969,10 +9969,10 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D390" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E390">
         <v>16</v>
@@ -9981,10 +9981,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10021,10 +10021,10 @@
         <v>1</v>
       </c>
       <c r="C392">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D392" s="2">
-        <v>45799.89532164588</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E392">
         <v>28</v>
@@ -10033,10 +10033,10 @@
         <v>45786.60901620371</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10070,10 +10070,10 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D394" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E394">
         <v>125</v>
@@ -10082,10 +10082,10 @@
         <v>45807.74167824074</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10295,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D403" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -10307,10 +10307,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G403">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H403" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10321,10 +10321,10 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D404" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E404">
         <v>163</v>
@@ -10333,10 +10333,10 @@
         <v>45806.38988425926</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H404" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10471,10 +10471,10 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D410" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E410">
         <v>458</v>
@@ -10483,10 +10483,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H410" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -10673,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D418" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E418">
         <v>253</v>
@@ -10685,10 +10685,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G418">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H418" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -10771,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D422" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E422">
         <v>160</v>
@@ -10783,10 +10783,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G422">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H422" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -10843,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D425" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E425">
         <v>205</v>
@@ -10855,10 +10855,10 @@
         <v>45806.47244212963</v>
       </c>
       <c r="G425">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H425" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11088,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D435" s="2">
-        <v>45799.89540330523</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E435">
         <v>122</v>
@@ -11100,10 +11100,10 @@
         <v>45799.54719907408</v>
       </c>
       <c r="G435">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H435" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11192,10 +11192,10 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D439" s="2">
-        <v>45800.93197721101</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E439">
         <v>17</v>
@@ -11204,10 +11204,10 @@
         <v>45800.6955787037</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H439" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12005,10 +12005,10 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D472" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E472">
         <v>66</v>
@@ -12017,10 +12017,10 @@
         <v>45806.74347222222</v>
       </c>
       <c r="G472">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H472" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12207,10 +12207,10 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D480" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E480">
         <v>183</v>
@@ -12219,10 +12219,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13467,10 +13467,10 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D531" s="2">
-        <v>45806.77603765521</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E531">
         <v>74</v>
@@ -13479,10 +13479,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G531">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H531" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -13643,10 +13643,10 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>-85</v>
+        <v>635</v>
       </c>
       <c r="D538" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E538">
         <v>-85</v>
@@ -13655,10 +13655,10 @@
         <v>45807.71612268518</v>
       </c>
       <c r="G538">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="H538" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -13718,10 +13718,10 @@
         <v>1</v>
       </c>
       <c r="C541">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D541" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E541">
         <v>-1</v>
@@ -13730,10 +13730,10 @@
         <v>45807.69802083333</v>
       </c>
       <c r="G541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14389,10 +14389,10 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D569" s="2">
-        <v>45798.96533509644</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E569">
         <v>8</v>
@@ -14401,10 +14401,10 @@
         <v>45798.63483796296</v>
       </c>
       <c r="G569">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -14415,10 +14415,10 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="D570" s="2">
-        <v>45807.78640665015</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E570">
         <v>2691</v>
@@ -14427,10 +14427,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G570">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H570" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -14510,10 +14510,10 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D574" s="2">
-        <v>45805.91872982616</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E574">
         <v>26</v>
@@ -14522,10 +14522,10 @@
         <v>45805.46181712963</v>
       </c>
       <c r="G574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H574" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -14536,10 +14536,10 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D575" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E575">
         <v>7</v>
@@ -14548,10 +14548,10 @@
         <v>45807.55438657408</v>
       </c>
       <c r="G575">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H575" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15158,10 +15158,10 @@
         <v>1</v>
       </c>
       <c r="C601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D601" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E601">
         <v>1</v>
@@ -15170,10 +15170,10 @@
         <v>45807.71612268518</v>
       </c>
       <c r="G601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H601" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -15495,10 +15495,10 @@
         <v>1</v>
       </c>
       <c r="C615">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D615" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E615">
         <v>29</v>
@@ -15507,10 +15507,10 @@
         <v>45806.41142361111</v>
       </c>
       <c r="G615">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H615" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -15930,10 +15930,10 @@
         <v>1</v>
       </c>
       <c r="C633">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D633" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E633">
         <v>8</v>
@@ -15942,10 +15942,10 @@
         <v>45806.44605324074</v>
       </c>
       <c r="G633">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H633" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16385,10 +16385,10 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D652" s="2">
-        <v>45799.89542737551</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E652">
         <v>22</v>
@@ -16397,10 +16397,10 @@
         <v>45799.64041666667</v>
       </c>
       <c r="G652">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H652" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -16509,10 +16509,10 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2271</v>
+        <v>2258</v>
       </c>
       <c r="D657" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E657">
         <v>2271</v>
@@ -16521,10 +16521,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G657">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H657" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -16584,10 +16584,10 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D660" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E660">
         <v>458</v>
@@ -16596,10 +16596,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G660">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H660" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17342,10 +17342,10 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D691" s="2">
-        <v>45806.77603765521</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E691">
         <v>295</v>
@@ -17354,10 +17354,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G691">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H691" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17417,10 +17417,10 @@
         <v>1</v>
       </c>
       <c r="C694">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D694" s="2">
-        <v>45799.89542739857</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E694">
         <v>96</v>
@@ -17429,10 +17429,10 @@
         <v>45791.52667824074</v>
       </c>
       <c r="G694">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H694" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -17599,10 +17599,10 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D701" s="2">
-        <v>45805.91872982616</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E701">
         <v>169</v>
@@ -17611,10 +17611,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G701">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H701" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -17648,10 +17648,10 @@
         <v>1</v>
       </c>
       <c r="C703">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D703" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E703">
         <v>11</v>
@@ -17660,10 +17660,10 @@
         <v>45806.66012731481</v>
       </c>
       <c r="G703">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H703" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18228,10 +18228,10 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D726" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E726">
         <v>151</v>
@@ -18240,10 +18240,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G726">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H726" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19154,10 +19154,10 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D763" s="2">
-        <v>45804.91952554927</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E763">
         <v>120</v>
@@ -19166,10 +19166,10 @@
         <v>45804.67107638889</v>
       </c>
       <c r="G763">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H763" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -19232,10 +19232,10 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D766" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E766">
         <v>4</v>
@@ -19244,10 +19244,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G766">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H766" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -19327,10 +19327,10 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D770" s="2">
-        <v>45799.89528857399</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E770">
         <v>3</v>
@@ -19339,10 +19339,10 @@
         <v>45779.60292824074</v>
       </c>
       <c r="G770">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H770" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -19379,10 +19379,10 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="D772" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E772">
         <v>451</v>
@@ -19391,10 +19391,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G772">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H772" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -19431,10 +19431,10 @@
         <v>1</v>
       </c>
       <c r="C774">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D774" s="2">
-        <v>45807.78640657826</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E774">
         <v>-2</v>
@@ -19443,10 +19443,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G774">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H774" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -19535,10 +19535,10 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D778" s="2">
-        <v>45805.91872982616</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E778">
         <v>20</v>
@@ -19547,10 +19547,10 @@
         <v>45805.42017361111</v>
       </c>
       <c r="G778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H778" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20608,10 +20608,10 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D821" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E821">
         <v>28</v>
@@ -20620,10 +20620,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G821">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H821" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -20732,10 +20732,10 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D826" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E826">
         <v>122</v>
@@ -20744,10 +20744,10 @@
         <v>45807.78447916666</v>
       </c>
       <c r="G826">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H826" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21337,10 +21337,10 @@
         <v>1</v>
       </c>
       <c r="C851">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D851" s="2">
-        <v>45803.9069220483</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E851">
         <v>7</v>
@@ -21349,10 +21349,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G851">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H851" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -21363,10 +21363,10 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D852" s="2">
-        <v>45799.89528858563</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E852">
         <v>0</v>
@@ -21375,10 +21375,10 @@
         <v>45783.65251157407</v>
       </c>
       <c r="G852">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H852" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -21389,10 +21389,10 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D853" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E853">
         <v>101</v>
@@ -21401,10 +21401,10 @@
         <v>45806.72784722222</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H853" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21415,10 +21415,10 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D854" s="2">
-        <v>45805.91875152234</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E854">
         <v>28</v>
@@ -21427,10 +21427,10 @@
         <v>45805.67193287037</v>
       </c>
       <c r="G854">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H854" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -21689,10 +21689,10 @@
         <v>1</v>
       </c>
       <c r="C865">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D865" s="2">
-        <v>45805.91875152234</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E865">
         <v>24</v>
@@ -21701,10 +21701,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G865">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H865" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -21972,10 +21972,10 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D876" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E876">
         <v>810</v>
@@ -21984,10 +21984,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G876">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H876" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -22145,10 +22145,10 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D883" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E883">
         <v>178</v>
@@ -22157,10 +22157,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G883">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H883" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22171,10 +22171,10 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D884" s="2">
-        <v>45799.89540330523</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E884">
         <v>123</v>
@@ -22183,10 +22183,10 @@
         <v>45799.45596064815</v>
       </c>
       <c r="G884">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H884" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -22272,10 +22272,10 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D888" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E888">
         <v>213</v>
@@ -22284,10 +22284,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G888">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H888" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22500,10 +22500,10 @@
         <v>1</v>
       </c>
       <c r="C897">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D897" s="2">
-        <v>45799.89528859723</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E897">
         <v>32</v>
@@ -22512,10 +22512,10 @@
         <v>45784.76087962963</v>
       </c>
       <c r="G897">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H897" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -22627,10 +22627,10 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D902" s="2">
-        <v>45805.918751534</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E902">
         <v>7</v>
@@ -22639,10 +22639,10 @@
         <v>45805.70869212963</v>
       </c>
       <c r="G902">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H902" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23161,10 +23161,10 @@
         <v>1</v>
       </c>
       <c r="C923">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D923" s="2">
-        <v>45795.04204563411</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E923">
         <v>430</v>
@@ -23173,10 +23173,10 @@
         <v>45750.43479166667</v>
       </c>
       <c r="G923">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H923" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -23187,10 +23187,10 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D924" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E924">
         <v>137</v>
@@ -23199,10 +23199,10 @@
         <v>45806.65318287037</v>
       </c>
       <c r="G924">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H924" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23539,10 +23539,10 @@
         <v>1</v>
       </c>
       <c r="C938">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D938" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E938">
         <v>13</v>
@@ -23551,10 +23551,10 @@
         <v>45807.69802083333</v>
       </c>
       <c r="G938">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H938" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24110,10 +24110,10 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D961" s="2">
-        <v>45806.77600903736</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E961">
         <v>51</v>
@@ -24122,10 +24122,10 @@
         <v>45806.44605324074</v>
       </c>
       <c r="G961">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H961" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -24136,10 +24136,10 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D962" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E962">
         <v>83</v>
@@ -24148,10 +24148,10 @@
         <v>45807.55458333333</v>
       </c>
       <c r="G962">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H962" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25937,10 +25937,10 @@
         <v>1</v>
       </c>
       <c r="C1033">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1033" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1033">
         <v>-1</v>
@@ -25949,10 +25949,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G1033">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1033" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -26116,10 +26116,10 @@
         <v>1</v>
       </c>
       <c r="C1040">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1040" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E1040">
         <v>24</v>
@@ -26128,10 +26128,10 @@
         <v>45805.74280092592</v>
       </c>
       <c r="G1040">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1040" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -26676,10 +26676,10 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="D1062" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E1062">
         <v>800</v>
@@ -26688,10 +26688,10 @@
         <v>45807.78447916666</v>
       </c>
       <c r="G1062">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H1062" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27867,10 +27867,10 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1110" s="2">
-        <v>45805.918751534</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1110">
         <v>179</v>
@@ -27879,10 +27879,10 @@
         <v>45805.70140046296</v>
       </c>
       <c r="G1110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -28274,10 +28274,10 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D1126" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E1126">
         <v>171</v>
@@ -28286,10 +28286,10 @@
         <v>45807.78510416667</v>
       </c>
       <c r="G1126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28805,10 +28805,10 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1147" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1147">
         <v>19</v>
@@ -28817,10 +28817,10 @@
         <v>45806.74347222222</v>
       </c>
       <c r="G1147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -29143,10 +29143,10 @@
         <v>1</v>
       </c>
       <c r="C1160">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1160" s="2">
-        <v>45799.89532166889</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1160">
         <v>26</v>
@@ -29155,10 +29155,10 @@
         <v>45791.54950231482</v>
       </c>
       <c r="G1160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -29495,10 +29495,10 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1174" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1174">
         <v>39</v>
@@ -29507,10 +29507,10 @@
         <v>45807.69747685185</v>
       </c>
       <c r="G1174">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -29521,10 +29521,10 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1175" s="2">
-        <v>45805.91875152234</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1175">
         <v>10</v>
@@ -29533,10 +29533,10 @@
         <v>45805.65278935185</v>
       </c>
       <c r="G1175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -29986,10 +29986,10 @@
         <v>1</v>
       </c>
       <c r="C1193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1193" s="2">
-        <v>45799.89532166889</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1193">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>45791.64023148148</v>
       </c>
       <c r="G1193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -30038,10 +30038,10 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1195" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E1195">
         <v>20</v>
@@ -30050,10 +30050,10 @@
         <v>45807.62085648148</v>
       </c>
       <c r="G1195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -30142,10 +30142,10 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1199" s="2">
-        <v>45804.91952554927</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1199">
         <v>84</v>
@@ -30154,10 +30154,10 @@
         <v>45804.46582175926</v>
       </c>
       <c r="G1199">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -30734,10 +30734,10 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="D1222" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1222">
         <v>2</v>
@@ -30746,10 +30746,10 @@
         <v>45805.76913194444</v>
       </c>
       <c r="G1222">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -31372,10 +31372,10 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D1247" s="2">
-        <v>45804.91952554927</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E1247">
         <v>115</v>
@@ -31384,10 +31384,10 @@
         <v>45804.60414351852</v>
       </c>
       <c r="G1247">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H1247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31528,10 +31528,10 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="D1253" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1253">
         <v>507</v>
@@ -31540,10 +31540,10 @@
         <v>45807.70125</v>
       </c>
       <c r="G1253">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H1253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33540,10 +33540,10 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1332" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1332">
         <v>41</v>
@@ -33552,10 +33552,10 @@
         <v>45807.78447916666</v>
       </c>
       <c r="G1332">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -33791,10 +33791,10 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1547</v>
+        <v>1286</v>
       </c>
       <c r="D1342" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E1342">
         <v>1547</v>
@@ -33803,10 +33803,10 @@
         <v>45807.70125</v>
       </c>
       <c r="G1342">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="H1342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35041,10 +35041,10 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1391" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E1391">
         <v>92</v>
@@ -35053,10 +35053,10 @@
         <v>45806.74347222222</v>
       </c>
       <c r="G1391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35067,10 +35067,10 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1392" s="2">
-        <v>45803.90694022291</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1392">
         <v>3</v>
@@ -35079,10 +35079,10 @@
         <v>45803.7415625</v>
       </c>
       <c r="G1392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1393" spans="1:8">
@@ -35093,10 +35093,10 @@
         <v>1</v>
       </c>
       <c r="C1393">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1393" s="2">
-        <v>45804.91952554927</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1393">
         <v>18</v>
@@ -35105,10 +35105,10 @@
         <v>45804.42633101852</v>
       </c>
       <c r="G1393">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1393" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1394" spans="1:8">
@@ -35578,10 +35578,10 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D1412" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1412">
         <v>101</v>
@@ -35590,10 +35590,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G1412">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -35806,10 +35806,10 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>-8</v>
+        <v>192</v>
       </c>
       <c r="D1421" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1421">
         <v>-8</v>
@@ -35818,10 +35818,10 @@
         <v>45807.69747685185</v>
       </c>
       <c r="G1421">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H1421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1422" spans="1:8">
@@ -35832,10 +35832,10 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="D1422" s="2">
-        <v>45806.77605776805</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1422">
         <v>-6</v>
@@ -35844,10 +35844,10 @@
         <v>45806.75375</v>
       </c>
       <c r="G1422">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H1422" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1423" spans="1:8">
@@ -37220,10 +37220,10 @@
         <v>1</v>
       </c>
       <c r="C1477">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1477" s="2">
-        <v>45799.89528858563</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1477">
         <v>6</v>
@@ -37232,10 +37232,10 @@
         <v>45783.63425925926</v>
       </c>
       <c r="G1477">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1477" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1478" spans="1:8">
@@ -37985,10 +37985,10 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D1507" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1507">
         <v>217</v>
@@ -37997,10 +37997,10 @@
         <v>45807.74045138889</v>
       </c>
       <c r="G1507">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1507" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38037,10 +38037,10 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D1509" s="2">
-        <v>45804.91954472794</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1509">
         <v>51</v>
@@ -38049,10 +38049,10 @@
         <v>45806.66423611111</v>
       </c>
       <c r="G1509">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H1509" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1510" spans="1:8">
@@ -39597,10 +39597,10 @@
         <v>1</v>
       </c>
       <c r="C1572">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1572" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1572">
         <v>8</v>
@@ -39609,10 +39609,10 @@
         <v>45807.71956018519</v>
       </c>
       <c r="G1572">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1572" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1573" spans="1:8">
@@ -39672,10 +39672,10 @@
         <v>1</v>
       </c>
       <c r="C1575">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D1575" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72556744247</v>
       </c>
       <c r="E1575">
         <v>-4</v>
@@ -39684,10 +39684,10 @@
         <v>45807.46862268518</v>
       </c>
       <c r="G1575">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H1575" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1576" spans="1:8">
@@ -40220,10 +40220,10 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7192</v>
+        <v>7114</v>
       </c>
       <c r="D1597" s="2">
-        <v>45807.78643077149</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1597">
         <v>7192</v>
@@ -40232,10 +40232,10 @@
         <v>45807.78542824074</v>
       </c>
       <c r="G1597">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H1597" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -40295,10 +40295,10 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1600" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1600">
         <v>49</v>
@@ -40307,10 +40307,10 @@
         <v>45805.74226851852</v>
       </c>
       <c r="G1600">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1600" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1601" spans="1:8">
@@ -41187,10 +41187,10 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D1635" s="2">
-        <v>45803.90692203668</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1635">
         <v>279</v>
@@ -41199,10 +41199,10 @@
         <v>45803.72625</v>
       </c>
       <c r="G1635">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1635" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -41573,10 +41573,10 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D1651" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E1651">
         <v>36</v>
@@ -41585,10 +41585,10 @@
         <v>45807.7375925926</v>
       </c>
       <c r="G1651">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1651" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -41700,10 +41700,10 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1656" s="2">
-        <v>45803.62106753104</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E1656">
         <v>12</v>
@@ -41712,10 +41712,10 @@
         <v>45803.49555555556</v>
       </c>
       <c r="G1656">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1656" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1657" spans="1:8">
@@ -43851,10 +43851,10 @@
         <v>1</v>
       </c>
       <c r="C1743">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1743" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1743">
         <v>-1</v>
@@ -43863,10 +43863,10 @@
         <v>45807.71884259259</v>
       </c>
       <c r="G1743">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1743" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1744" spans="1:8">
@@ -44116,10 +44116,10 @@
         <v>1</v>
       </c>
       <c r="C1754">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1754" s="2">
-        <v>45799.89545110933</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E1754">
         <v>28</v>
@@ -44128,10 +44128,10 @@
         <v>45790.63041666667</v>
       </c>
       <c r="G1754">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1754" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1755" spans="1:8">
@@ -45888,10 +45888,10 @@
         <v>1</v>
       </c>
       <c r="C1824">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1824" s="2">
-        <v>45799.89534673509</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E1824">
         <v>15</v>
@@ -45900,10 +45900,10 @@
         <v>45796.43543981481</v>
       </c>
       <c r="G1824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1824" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -46396,10 +46396,10 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1844" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1844">
         <v>448</v>
@@ -46408,10 +46408,10 @@
         <v>45807.69886574074</v>
       </c>
       <c r="G1844">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1844" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -46448,10 +46448,10 @@
         <v>1</v>
       </c>
       <c r="C1846">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1846" s="2">
-        <v>45799.89528858563</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1846">
         <v>2</v>
@@ -46460,10 +46460,10 @@
         <v>45782.63818287037</v>
       </c>
       <c r="G1846">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1846" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1847" spans="1:8">
@@ -46670,10 +46670,10 @@
         <v>1</v>
       </c>
       <c r="C1855">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1855" s="2">
-        <v>45806.77605776805</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1855">
         <v>4</v>
@@ -46682,10 +46682,10 @@
         <v>45806.75375</v>
       </c>
       <c r="G1855">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1855" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1856" spans="1:8">
@@ -47317,10 +47317,10 @@
         <v>1</v>
       </c>
       <c r="C1880">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1880" s="2">
-        <v>45804.91952554927</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E1880">
         <v>15</v>
@@ -47329,10 +47329,10 @@
         <v>45804.49947916667</v>
       </c>
       <c r="G1880">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1880" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1881" spans="1:8">
@@ -47441,10 +47441,10 @@
         <v>1</v>
       </c>
       <c r="C1885">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D1885" s="2">
-        <v>45799.89536723674</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E1885">
         <v>53</v>
@@ -47453,10 +47453,10 @@
         <v>45797.75920138889</v>
       </c>
       <c r="G1885">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H1885" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1886" spans="1:8">
@@ -48119,10 +48119,10 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D1912" s="2">
-        <v>45804.91952539605</v>
+        <v>45810.72559947376</v>
       </c>
       <c r="E1912">
         <v>135</v>
@@ -48131,10 +48131,10 @@
         <v>45804.39973379629</v>
       </c>
       <c r="G1912">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1912" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1913" spans="1:8">
@@ -48852,10 +48852,10 @@
         <v>1</v>
       </c>
       <c r="C1941">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1941" s="2">
-        <v>45799.89532166889</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E1941">
         <v>2</v>
@@ -48864,10 +48864,10 @@
         <v>45790.67538194444</v>
       </c>
       <c r="G1941">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1941" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1942" spans="1:8">
@@ -49830,7 +49830,7 @@
         <v>0</v>
       </c>
       <c r="D1980" s="2">
-        <v>45795.04171905605</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E1980">
         <v>0</v>
@@ -50903,10 +50903,10 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="D2023" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E2023">
         <v>10</v>
@@ -50915,10 +50915,10 @@
         <v>45807.43805555555</v>
       </c>
       <c r="G2023">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H2023" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2024" spans="1:8">
@@ -51388,10 +51388,10 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2042" s="2">
-        <v>45804.91954472794</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E2042">
         <v>2</v>
@@ -51400,10 +51400,10 @@
         <v>45804.76886574074</v>
       </c>
       <c r="G2042">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2042" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2043" spans="1:8">
@@ -53448,10 +53448,10 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>-69</v>
+        <v>291</v>
       </c>
       <c r="D2124" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E2124">
         <v>-69</v>
@@ -53460,10 +53460,10 @@
         <v>45807.55458333333</v>
       </c>
       <c r="G2124">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H2124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2125" spans="1:8">
@@ -54965,10 +54965,10 @@
         <v>1</v>
       </c>
       <c r="C2185">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2185" s="2">
-        <v>45807.78643074667</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E2185">
         <v>-2</v>
@@ -54977,10 +54977,10 @@
         <v>45807.71784722222</v>
       </c>
       <c r="G2185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2186" spans="1:8">
@@ -56365,10 +56365,10 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D2240" s="2">
-        <v>45805.9187731686</v>
+        <v>45810.72559944464</v>
       </c>
       <c r="E2240">
         <v>281</v>
@@ -56377,10 +56377,10 @@
         <v>45805.70947916667</v>
       </c>
       <c r="G2240">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2241" spans="1:8">
@@ -56391,10 +56391,10 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D2241" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E2241">
         <v>308</v>
@@ -56403,10 +56403,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G2241">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2242" spans="1:8">
@@ -58569,10 +58569,10 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2328" s="2">
-        <v>45799.89528859723</v>
+        <v>45810.72556745499</v>
       </c>
       <c r="E2328">
         <v>1</v>
@@ -58581,10 +58581,10 @@
         <v>45784.75885416667</v>
       </c>
       <c r="G2328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2329" spans="1:8">
@@ -59273,10 +59273,10 @@
         <v>1</v>
       </c>
       <c r="C2356">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2356" s="2">
-        <v>45807.78640657826</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E2356">
         <v>-1</v>
@@ -59285,10 +59285,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G2356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2357" spans="1:8">
@@ -60677,10 +60677,10 @@
         <v>1</v>
       </c>
       <c r="C2413">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2413" s="2">
-        <v>45799.89528858563</v>
+        <v>45810.72559943295</v>
       </c>
       <c r="E2413">
         <v>0</v>
@@ -60689,10 +60689,10 @@
         <v>45782.69798611111</v>
       </c>
       <c r="G2413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2413" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2414" spans="1:8">
@@ -60755,10 +60755,10 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="D2416" s="2">
-        <v>45807.78640665444</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E2416">
         <v>385</v>
@@ -60767,10 +60767,10 @@
         <v>45807.69164351852</v>
       </c>
       <c r="G2416">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61960,10 +61960,10 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2465" s="2">
-        <v>45803.62106753104</v>
+        <v>45810.72563720519</v>
       </c>
       <c r="E2465">
         <v>59</v>
@@ -61972,10 +61972,10 @@
         <v>45803.4153125</v>
       </c>
       <c r="G2465">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2465" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2466" spans="1:8">
@@ -62375,10 +62375,10 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="D2482" s="2">
-        <v>45806.77605776805</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E2482">
         <v>581</v>
@@ -62387,10 +62387,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G2482">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2482" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62401,10 +62401,10 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="D2483" s="2">
-        <v>45806.77605776805</v>
+        <v>45810.72559946219</v>
       </c>
       <c r="E2483">
         <v>957</v>
@@ -62413,10 +62413,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G2483">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H2483" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62427,10 +62427,10 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="D2484" s="2">
-        <v>45806.77605776805</v>
+        <v>45810.72559945051</v>
       </c>
       <c r="E2484">
         <v>1012</v>
@@ -62439,10 +62439,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G2484">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2484" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -64040,18 +64040,87 @@
         <v>1</v>
       </c>
       <c r="C2551">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2551" s="2">
-        <v>45806.77603763194</v>
+        <v>45810.72563721648</v>
       </c>
       <c r="E2551">
         <v>0</v>
       </c>
       <c r="G2551">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2551" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:8">
+      <c r="A2552">
+        <v>43372191</v>
+      </c>
+      <c r="B2552">
+        <v>1</v>
+      </c>
+      <c r="C2552">
+        <v>-1</v>
+      </c>
+      <c r="D2552" s="2">
+        <v>45810.72559945051</v>
+      </c>
+      <c r="E2552">
+        <v>0</v>
+      </c>
+      <c r="G2552">
+        <v>1</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:8">
+      <c r="A2553">
+        <v>43372259</v>
+      </c>
+      <c r="B2553">
+        <v>1</v>
+      </c>
+      <c r="C2553">
+        <v>0</v>
+      </c>
+      <c r="D2553" s="2">
+        <v>45810.72556745499</v>
+      </c>
+      <c r="E2553">
+        <v>0</v>
+      </c>
+      <c r="G2553">
+        <v>0</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:8">
+      <c r="A2554">
+        <v>43372946</v>
+      </c>
+      <c r="B2554">
+        <v>1</v>
+      </c>
+      <c r="C2554">
+        <v>0</v>
+      </c>
+      <c r="D2554" s="2">
+        <v>45810.72556745499</v>
+      </c>
+      <c r="E2554">
+        <v>0</v>
+      </c>
+      <c r="G2554">
+        <v>0</v>
+      </c>
+      <c r="H2554" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2554"/>
+  <dimension ref="A1:H2555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D4" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F4" s="2">
-        <v>45805.71751157408</v>
+        <v>45811.68890046296</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.69234953704</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,22 +690,22 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
-        <v>45807.62427083333</v>
+        <v>45811.68651620371</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -952,22 +952,22 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2">
-        <v>45806.68203703704</v>
+        <v>45811.49901620371</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>45807.78638608912</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.54368055556</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1660</v>
+        <v>1570</v>
       </c>
       <c r="D33" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E33">
-        <v>1704</v>
+        <v>1570</v>
       </c>
       <c r="F33" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G33">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1318,16 +1318,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E38">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2">
-        <v>45782.69275462963</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E48">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.70625</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1589,22 +1589,22 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E49">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D56" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E56">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F56" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E58">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F58" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.68890046296</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D59" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E59">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1941,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D63" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E63">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2">
-        <v>45807.6128125</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G63">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2088,22 +2088,22 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2">
-        <v>45810.72556745499</v>
+        <v>45811.92552605522</v>
       </c>
       <c r="E69">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F69" s="2">
-        <v>45805.65278935185</v>
+        <v>45811.74833333334</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2114,22 +2114,22 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2">
-        <v>45810.72556745499</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E70">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2140,22 +2140,22 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E71">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2">
-        <v>45807.69802083333</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2376,22 +2376,22 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E81">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2408,16 +2408,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E82">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2">
-        <v>45806.69827546296</v>
+        <v>45810.68862268519</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2428,22 +2428,22 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E83">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2483,16 +2483,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E85">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2">
-        <v>45807.69164351852</v>
+        <v>45810.60861111111</v>
       </c>
       <c r="G85">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2503,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="D86" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E86">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="F86" s="2">
-        <v>45807.6128125</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2529,22 +2529,22 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D87" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E87">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2630,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2">
-        <v>45810.72556745499</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E91">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G91">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E94">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.75518518518</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1379</v>
+        <v>1087</v>
       </c>
       <c r="D101" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E101">
-        <v>1481</v>
+        <v>1087</v>
       </c>
       <c r="F101" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G101">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2927,16 +2927,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E103">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2">
-        <v>45803.74128472222</v>
+        <v>45810.68862268519</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2993,22 +2993,22 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D106" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E106">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.7677662037</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3258,22 +3258,22 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1187</v>
+        <v>1131</v>
       </c>
       <c r="D117" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92552605522</v>
       </c>
       <c r="E117">
-        <v>1192</v>
+        <v>1131</v>
       </c>
       <c r="F117" s="2">
-        <v>45806.44605324074</v>
+        <v>45811.75119212963</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="2">
-        <v>45050.7691087963</v>
+        <v>45811.77377314815</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3333,22 +3333,22 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E120">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F120" s="2">
-        <v>45807.70125</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G120">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3365,16 +3365,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E121">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F121" s="2">
-        <v>45805.76121527778</v>
+        <v>45810.64912037037</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D123" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E123">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="F123" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G123">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D124" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E124">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F124" s="2">
-        <v>45807.74045138889</v>
+        <v>45810.78246527778</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,22 +3460,22 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D125" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E125">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="F125" s="2">
-        <v>45807.6128125</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3492,16 +3492,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E126">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F126" s="2">
-        <v>45805.76144675926</v>
+        <v>45810.64912037037</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3541,16 +3541,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E128">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F128" s="2">
-        <v>45789.51143518519</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="D139" s="2">
-        <v>45804.91952554927</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E139">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="F139" s="2">
-        <v>45804.52372685185</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3846,22 +3846,22 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D141" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E141">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F141" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.75518518518</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
-        <v>45795.04210567895</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E145">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F145" s="2">
-        <v>45777.51438657408</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4155,16 +4155,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F153" s="2">
-        <v>45807.43805555555</v>
+        <v>45810.60861111111</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F156" s="2">
-        <v>45799.61024305555</v>
+        <v>45811.52616898148</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4691,22 +4691,22 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D175" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E175">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F175" s="2">
-        <v>45806.41142361111</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4740,16 +4740,16 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" s="2">
-        <v>45799.89540331678</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" s="2">
-        <v>45799.63390046296</v>
+        <v>45811.48847222222</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -4936,22 +4936,22 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D185" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E185">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F185" s="2">
-        <v>45805.70012731481</v>
+        <v>45811.48847222222</v>
       </c>
       <c r="G185">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>-243</v>
+        <v>-244</v>
       </c>
       <c r="D191" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E191">
-        <v>-243</v>
+        <v>-244</v>
       </c>
       <c r="F191" s="2">
-        <v>45807.74045138889</v>
+        <v>45810.76819444444</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5103,22 +5103,22 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D192" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E192">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F192" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5181,22 +5181,22 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D195" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F195" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.75335648148</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5308,16 +5308,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E200">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F200" s="2">
-        <v>45806.74347222222</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G200">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D206" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F206" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.75563657407</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E209">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F209" s="2">
-        <v>45805.76913194444</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G209">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5711,22 +5711,22 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D217" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E217">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F217" s="2">
-        <v>45806.67587962963</v>
+        <v>45811.70625</v>
       </c>
       <c r="G217">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5737,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D218" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E218">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F218" s="2">
-        <v>45805.65278935185</v>
+        <v>45811.75627314814</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D222" s="2">
-        <v>45806.77603756409</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F222" s="2">
-        <v>45806.66787037037</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -5939,16 +5939,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E226">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F226" s="2">
-        <v>45800.75763888889</v>
+        <v>45810.64998842592</v>
       </c>
       <c r="G226">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6155,16 +6155,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E235">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F235" s="2">
-        <v>45807.72325231481</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6175,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E236">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F236" s="2">
-        <v>45807.49376157407</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="D247" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E247">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="F247" s="2">
-        <v>45805.65172453703</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G247">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6627,22 +6627,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D255" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E255">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F255" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G255">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6823,16 +6823,16 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D263" s="2">
-        <v>45799.89532165734</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F263" s="2">
-        <v>45789.40028935186</v>
+        <v>45811.75563657407</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -6996,22 +6996,22 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D270" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92552605522</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F270" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.74833333334</v>
       </c>
       <c r="G270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D272" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E272">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F272" s="2">
-        <v>45803.50018518518</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7097,22 +7097,22 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D274" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E274">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F274" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7310,22 +7310,22 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D283" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E283">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F283" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.42122685185</v>
       </c>
       <c r="G283">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>701</v>
+        <v>590</v>
       </c>
       <c r="D287" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E287">
-        <v>746</v>
+        <v>590</v>
       </c>
       <c r="F287" s="2">
-        <v>45807.55438657408</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G287">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7509,22 +7509,22 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D291" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E291">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F291" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G291">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7535,22 +7535,22 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D292" s="2">
-        <v>45810.72556745499</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E292">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F292" s="2">
-        <v>45806.44605324074</v>
+        <v>45811.47861111111</v>
       </c>
       <c r="G292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,22 +7610,22 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>582</v>
+        <v>439</v>
       </c>
       <c r="D295" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E295">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="F295" s="2">
-        <v>45807.72819444445</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G295">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7910,16 +7910,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F307" s="2">
-        <v>45789.61173611111</v>
+        <v>45811.64716435185</v>
       </c>
       <c r="G307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -7953,22 +7953,22 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1179</v>
+        <v>1126</v>
       </c>
       <c r="D309" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E309">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="F309" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G309">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="D314" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E314">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="F314" s="2">
-        <v>45807.53634259259</v>
+        <v>45811.68634259259</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D315" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E315">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F315" s="2">
-        <v>45803.50018518518</v>
+        <v>45811.49375</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>13</v>
+        <v>-28</v>
       </c>
       <c r="D318" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E318">
-        <v>13</v>
+        <v>-28</v>
       </c>
       <c r="F318" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.75159722222</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D319" s="2">
-        <v>45806.77603756409</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E319">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F319" s="2">
-        <v>45806.67587962963</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8374,22 +8374,22 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D326" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E326">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F326" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G326">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D328" s="2">
-        <v>45805.918751534</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E328">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F328" s="2">
-        <v>45805.69929398148</v>
+        <v>45811.50076388889</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8570,16 +8570,16 @@
         <v>1</v>
       </c>
       <c r="C334">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D334" s="2">
-        <v>45799.89528858563</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E334">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F334" s="2">
-        <v>45783.63425925926</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="D342" s="2">
-        <v>45799.895451121</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E342">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="F342" s="2">
-        <v>45797.50270833333</v>
+        <v>45811.47556712963</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8870,22 +8870,22 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D346" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E346">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F346" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.68890046296</v>
       </c>
       <c r="G346">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="D350" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E350">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="F350" s="2">
-        <v>45805.66680555556</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,22 +8991,22 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="D351" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E351">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="F351" s="2">
-        <v>45807.72325231481</v>
+        <v>45811.41633101852</v>
       </c>
       <c r="G351">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9023,16 +9023,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E352">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="F352" s="2">
-        <v>45805.67193287037</v>
+        <v>45810.64998842592</v>
       </c>
       <c r="G352">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D354" s="2">
-        <v>45805.9187731686</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E354">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F354" s="2">
-        <v>45805.74226851852</v>
+        <v>45811.40138888889</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9121,16 +9121,16 @@
         <v>45810.72556744247</v>
       </c>
       <c r="E356">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F356" s="2">
-        <v>45800.68631944444</v>
+        <v>45810.44434027778</v>
       </c>
       <c r="G356">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9164,22 +9164,22 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D358" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E358">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F358" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.75627314814</v>
       </c>
       <c r="G358">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9291,22 +9291,22 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>803</v>
+        <v>740</v>
       </c>
       <c r="D363" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E363">
-        <v>826</v>
+        <v>740</v>
       </c>
       <c r="F363" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.67811342593</v>
       </c>
       <c r="G363">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9438,16 +9438,16 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D369" s="2">
-        <v>45800.93179064643</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E369">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F369" s="2">
-        <v>45800.48438657408</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D371" s="2">
-        <v>45805.9187731686</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E371">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F371" s="2">
-        <v>45805.76121527778</v>
+        <v>45811.50125</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>1</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D377" s="2">
-        <v>45795.04190003897</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F377" s="2">
-        <v>45630.66938657407</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D379" s="2">
-        <v>45807.78640657826</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E379">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F379" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.52653935185</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9819,16 +9819,16 @@
         <v>45810.31086535665</v>
       </c>
       <c r="E384">
-        <v>-30</v>
+        <v>70</v>
       </c>
       <c r="F384" s="2">
-        <v>45807.49376157407</v>
+        <v>45809.69768518519</v>
       </c>
       <c r="G384">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H384" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -9839,22 +9839,22 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D385" s="2">
-        <v>45810.31086535665</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E385">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="F385" s="2">
-        <v>45806.38988425926</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G385">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9943,22 +9943,22 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D389" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E389">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F389" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G389">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -9969,22 +9969,22 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="D390" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E390">
-        <v>16</v>
+        <v>-52</v>
       </c>
       <c r="F390" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G390">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10027,16 +10027,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E392">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F392" s="2">
-        <v>45786.60901620371</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G392">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D394" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E394">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F394" s="2">
-        <v>45807.74167824074</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G394">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10096,16 +10096,16 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D395" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F395" s="2">
-        <v>45806.41958333334</v>
+        <v>45811.665625</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -10122,16 +10122,16 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D396" s="2">
-        <v>45804.91954472794</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F396" s="2">
-        <v>45804.72743055555</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D402" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E402">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F402" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10301,16 +10301,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F403" s="2">
-        <v>45807.69164351852</v>
+        <v>45810.61395833334</v>
       </c>
       <c r="G403">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10321,22 +10321,22 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D404" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E404">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="F404" s="2">
-        <v>45806.38988425926</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G404">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D408" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E408">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F408" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.75159722222</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,22 +10471,22 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>446</v>
+        <v>-216</v>
       </c>
       <c r="D410" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E410">
-        <v>458</v>
+        <v>-216</v>
       </c>
       <c r="F410" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.49375</v>
       </c>
       <c r="G410">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H410" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -10575,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D414" s="2">
-        <v>45799.89534671205</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E414">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F414" s="2">
-        <v>45792.4477662037</v>
+        <v>45811.68890046296</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -10624,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="C416">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="D416" s="2">
-        <v>45799.89542737551</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E416">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="F416" s="2">
-        <v>45799.64041666667</v>
+        <v>45811.47861111111</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D418" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E418">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="F418" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G418">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -10777,16 +10777,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E422">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F422" s="2">
-        <v>45805.76913194444</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G422">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -10849,16 +10849,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E425">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F425" s="2">
-        <v>45806.47244212963</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G425">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11088,22 +11088,22 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D435" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E435">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F435" s="2">
-        <v>45799.54719907408</v>
+        <v>45811.68634259259</v>
       </c>
       <c r="G435">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D436" s="2">
-        <v>45804.91954472794</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E436">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F436" s="2">
-        <v>45804.72743055555</v>
+        <v>45811.73181712963</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -11198,16 +11198,16 @@
         <v>45810.72556744247</v>
       </c>
       <c r="E439">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F439" s="2">
-        <v>45800.6955787037</v>
+        <v>45810.44434027778</v>
       </c>
       <c r="G439">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D441" s="2">
-        <v>45807.78640657826</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E441">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F441" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.70625</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D443" s="2">
-        <v>45799.89534672352</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E443">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F443" s="2">
-        <v>45792.65766203704</v>
+        <v>45811.4736574074</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D461" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E461">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="F461" s="2">
-        <v>45803.41005787037</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D465" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E465">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F465" s="2">
-        <v>45806.65934027778</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-20</v>
+        <v>-57</v>
       </c>
       <c r="D469" s="2">
-        <v>45807.78640657826</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E469">
-        <v>-20</v>
+        <v>-57</v>
       </c>
       <c r="F469" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.47556712963</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12011,16 +12011,16 @@
         <v>45810.72556744247</v>
       </c>
       <c r="E472">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F472" s="2">
-        <v>45806.74347222222</v>
+        <v>45810.44699074074</v>
       </c>
       <c r="G472">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12155,16 +12155,16 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D478" s="2">
-        <v>45806.77603765521</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E478">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F478" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.70625</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D480" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E480">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F480" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G480">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12285,16 +12285,16 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D483" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F483" s="2">
-        <v>45792.72081018519</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D485" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E485">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F485" s="2">
-        <v>45806.75375</v>
+        <v>45811.7665625</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D493" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E493">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F493" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12562,16 +12562,16 @@
         <v>1</v>
       </c>
       <c r="C494">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D494" s="2">
-        <v>45800.93204010786</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E494">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F494" s="2">
-        <v>45800.40415509259</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -12839,7 +12839,7 @@
         <v>29</v>
       </c>
       <c r="F505" s="2">
-        <v>45807.7065625</v>
+        <v>45811.68271990741</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D510" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E510">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F510" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13242,16 +13242,16 @@
         <v>1</v>
       </c>
       <c r="C522">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D522" s="2">
-        <v>45799.89534673509</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E522">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F522" s="2">
-        <v>45793.729375</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -13467,22 +13467,22 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D531" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E531">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F531" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.73097222222</v>
       </c>
       <c r="G531">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D535" s="2">
-        <v>45799.89540330523</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E535">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F535" s="2">
-        <v>45799.54913194444</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -13643,22 +13643,22 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D538" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E538">
-        <v>-85</v>
+        <v>630</v>
       </c>
       <c r="F538" s="2">
-        <v>45807.71612268518</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G538">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -13718,22 +13718,22 @@
         <v>1</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D541" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E541">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F541" s="2">
-        <v>45807.69802083333</v>
+        <v>45811.39422453703</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -13744,16 +13744,16 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D542" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E542">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F542" s="2">
-        <v>45807.69747685185</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G542">
         <v>0</v>
@@ -13842,16 +13842,16 @@
         <v>1</v>
       </c>
       <c r="C546">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D546" s="2">
-        <v>45795.04208095842</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E546">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F546" s="2">
-        <v>45771.46116898148</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -14395,16 +14395,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E569">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F569" s="2">
-        <v>45798.63483796296</v>
+        <v>45810.64912037037</v>
       </c>
       <c r="G569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H569" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -14415,22 +14415,22 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2689</v>
+        <v>2671</v>
       </c>
       <c r="D570" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E570">
-        <v>2691</v>
+        <v>2671</v>
       </c>
       <c r="F570" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G570">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H570" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -14510,22 +14510,22 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D574" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E574">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F574" s="2">
-        <v>45805.46181712963</v>
+        <v>45811.49375</v>
       </c>
       <c r="G574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -14536,22 +14536,22 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D575" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E575">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F575" s="2">
-        <v>45807.55438657408</v>
+        <v>45811.42122685185</v>
       </c>
       <c r="G575">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H575" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -14703,16 +14703,16 @@
         <v>1</v>
       </c>
       <c r="C582">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D582" s="2">
-        <v>45799.89534673509</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E582">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F582" s="2">
-        <v>45793.61006944445</v>
+        <v>45811.66579861111</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -14890,16 +14890,16 @@
         <v>1</v>
       </c>
       <c r="C590">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D590" s="2">
-        <v>45799.89528859723</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E590">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F590" s="2">
-        <v>45784.50826388889</v>
+        <v>45811.69771990741</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -15164,16 +15164,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F601" s="2">
-        <v>45807.71612268518</v>
+        <v>45810.66146990741</v>
       </c>
       <c r="G601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H601" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F603" s="2">
-        <v>45806.75375</v>
+        <v>45811.47861111111</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15501,16 +15501,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E615">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F615" s="2">
-        <v>45806.41142361111</v>
+        <v>45810.64912037037</v>
       </c>
       <c r="G615">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D631" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E631">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F631" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -15936,16 +15936,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E633">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F633" s="2">
-        <v>45806.44605324074</v>
+        <v>45810.50998842593</v>
       </c>
       <c r="G633">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H633" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>13</v>
+        <v>-12</v>
       </c>
       <c r="D634" s="2">
-        <v>45803.9069220483</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E634">
-        <v>13</v>
+        <v>-12</v>
       </c>
       <c r="F634" s="2">
-        <v>45803.7415625</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16385,22 +16385,22 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D652" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E652">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F652" s="2">
-        <v>45799.64041666667</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G652">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H652" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -16483,16 +16483,16 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D656" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E656">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F656" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -16509,22 +16509,22 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2258</v>
+        <v>2172</v>
       </c>
       <c r="D657" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E657">
-        <v>2271</v>
+        <v>2172</v>
       </c>
       <c r="F657" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.73181712963</v>
       </c>
       <c r="G657">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H657" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -16584,22 +16584,22 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D660" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E660">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F660" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.70625</v>
       </c>
       <c r="G660">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H660" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D681" s="2">
-        <v>45805.918751534</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E681">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F681" s="2">
-        <v>45805.6750925926</v>
+        <v>45811.68216435185</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17143,16 +17143,16 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D683" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E683">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F683" s="2">
-        <v>45807.69747685185</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -17195,16 +17195,16 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D685" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E685">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F685" s="2">
-        <v>45806.75375</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -17342,22 +17342,22 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="D691" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E691">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="F691" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.68634259259</v>
       </c>
       <c r="G691">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H691" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17423,16 +17423,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E694">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F694" s="2">
-        <v>45791.52667824074</v>
+        <v>45810.6524074074</v>
       </c>
       <c r="G694">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H694" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -17599,22 +17599,22 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D701" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E701">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F701" s="2">
-        <v>45805.42017361111</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G701">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H701" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -17654,16 +17654,16 @@
         <v>45810.72556744247</v>
       </c>
       <c r="E703">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F703" s="2">
-        <v>45806.66012731481</v>
+        <v>45810.44699074074</v>
       </c>
       <c r="G703">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H703" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -17746,16 +17746,16 @@
         <v>1</v>
       </c>
       <c r="C707">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D707" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E707">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F707" s="2">
-        <v>45805.65278935185</v>
+        <v>45811.75159722222</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -17821,16 +17821,16 @@
         <v>1</v>
       </c>
       <c r="C710">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D710" s="2">
-        <v>45799.89528858563</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E710">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F710" s="2">
-        <v>45783.64783564815</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -17968,16 +17968,16 @@
         <v>1</v>
       </c>
       <c r="C716">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D716" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E716">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F716" s="2">
-        <v>45803.61216435185</v>
+        <v>45811.73097222222</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -17994,16 +17994,16 @@
         <v>1</v>
       </c>
       <c r="C717">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D717" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E717">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F717" s="2">
-        <v>45806.40048611111</v>
+        <v>45811.48225694444</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="D720" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E720">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="F720" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18150,16 +18150,16 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D723" s="2">
-        <v>45799.89528858563</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E723">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F723" s="2">
-        <v>45783.67943287037</v>
+        <v>45811.76435185185</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -18202,16 +18202,16 @@
         <v>1</v>
       </c>
       <c r="C725">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D725" s="2">
-        <v>45806.77603765521</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E725">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F725" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.42122685185</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -18228,22 +18228,22 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D726" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E726">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F726" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G726">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H726" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="D729" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E729">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="F729" s="2">
-        <v>45803.52103009259</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18329,16 +18329,16 @@
         <v>1</v>
       </c>
       <c r="C730">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D730" s="2">
-        <v>45800.93188815672</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E730">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F730" s="2">
-        <v>45800.62752314815</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D731" s="2">
-        <v>45800.93188815672</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E731">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F731" s="2">
-        <v>45800.62752314815</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>420</v>
+        <v>349</v>
       </c>
       <c r="D732" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E732">
-        <v>420</v>
+        <v>349</v>
       </c>
       <c r="F732" s="2">
-        <v>45807.69802083333</v>
+        <v>45811.64200231482</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18456,16 +18456,16 @@
         <v>1</v>
       </c>
       <c r="C735">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D735" s="2">
-        <v>45799.895427387</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E735">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F735" s="2">
-        <v>45799.64056712963</v>
+        <v>45811.49375</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D741" s="2">
-        <v>45806.77603756409</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E741">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F741" s="2">
-        <v>45806.67736111111</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -18687,16 +18687,16 @@
         <v>1</v>
       </c>
       <c r="C744">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D744" s="2">
-        <v>45799.89532166889</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E744">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="F744" s="2">
-        <v>45791.47530092593</v>
+        <v>45811.67885416667</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -19154,22 +19154,22 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D763" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E763">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F763" s="2">
-        <v>45804.67107638889</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G763">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H763" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -19232,22 +19232,22 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="D766" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E766">
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="F766" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G766">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H766" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -19333,16 +19333,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E770">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F770" s="2">
-        <v>45779.60292824074</v>
+        <v>45810.52887731481</v>
       </c>
       <c r="G770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H770" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -19379,22 +19379,22 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D772" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E772">
-        <v>451</v>
+        <v>282</v>
       </c>
       <c r="F772" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.66579861111</v>
       </c>
       <c r="G772">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H772" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -19431,22 +19431,22 @@
         <v>1</v>
       </c>
       <c r="C774">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D774" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E774">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F774" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.4409375</v>
       </c>
       <c r="G774">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H774" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -19483,16 +19483,16 @@
         <v>1</v>
       </c>
       <c r="C776">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D776" s="2">
-        <v>45804.91954472794</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E776">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F776" s="2">
-        <v>45804.76971064815</v>
+        <v>45811.4736574074</v>
       </c>
       <c r="G776">
         <v>0</v>
@@ -19541,16 +19541,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E778">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F778" s="2">
-        <v>45805.42017361111</v>
+        <v>45810.64912037037</v>
       </c>
       <c r="G778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H778" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20005,16 +20005,16 @@
         <v>1</v>
       </c>
       <c r="C797">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D797" s="2">
-        <v>45804.91952554927</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E797">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F797" s="2">
-        <v>45804.51150462963</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="F810" s="2">
-        <v>45800.62650462963</v>
+        <v>45811.68333333333</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D812" s="2">
-        <v>45800.93192368435</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E812">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F812" s="2">
-        <v>45800.6565162037</v>
+        <v>45811.49375</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -20409,16 +20409,16 @@
         <v>1</v>
       </c>
       <c r="C813">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D813" s="2">
-        <v>45803.62106753104</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E813">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F813" s="2">
-        <v>45803.54020833333</v>
+        <v>45811.47861111111</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -20467,7 +20467,7 @@
         <v>8</v>
       </c>
       <c r="F815" s="2">
-        <v>45800.6295949074</v>
+        <v>45811.67939814815</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -20484,16 +20484,16 @@
         <v>1</v>
       </c>
       <c r="C816">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D816" s="2">
-        <v>45799.89542737551</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E816">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F816" s="2">
-        <v>45799.6352662037</v>
+        <v>45811.68032407408</v>
       </c>
       <c r="G816">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D819" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E819">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F819" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20614,16 +20614,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E821">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F821" s="2">
-        <v>45807.78510416667</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G821">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H821" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -20732,22 +20732,22 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D826" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E826">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F826" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G826">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H826" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -20853,16 +20853,16 @@
         <v>1</v>
       </c>
       <c r="C831">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D831" s="2">
-        <v>45799.89534672352</v>
+        <v>45811.92552605522</v>
       </c>
       <c r="E831">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F831" s="2">
-        <v>45803.76681712963</v>
+        <v>45811.75072916667</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D844" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E844">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F844" s="2">
-        <v>45806.41142361111</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21343,16 +21343,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E851">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F851" s="2">
-        <v>45803.7415625</v>
+        <v>45810.54670138889</v>
       </c>
       <c r="G851">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H851" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -21369,16 +21369,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E852">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F852" s="2">
-        <v>45783.65251157407</v>
+        <v>45810.68862268519</v>
       </c>
       <c r="G852">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H852" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -21389,22 +21389,22 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D853" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E853">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F853" s="2">
-        <v>45806.72784722222</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G853">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H853" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21415,22 +21415,22 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D854" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E854">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F854" s="2">
-        <v>45805.67193287037</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G854">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H854" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -21689,22 +21689,22 @@
         <v>1</v>
       </c>
       <c r="C865">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D865" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E865">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F865" s="2">
-        <v>45805.65278935185</v>
+        <v>45811.73181712963</v>
       </c>
       <c r="G865">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H865" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>710</v>
+        <v>588</v>
       </c>
       <c r="D872" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E872">
-        <v>710</v>
+        <v>588</v>
       </c>
       <c r="F872" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,22 +21972,22 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="D876" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E876">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="F876" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.49375</v>
       </c>
       <c r="G876">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H876" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -22145,22 +22145,22 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D883" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E883">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="F883" s="2">
-        <v>45807.69886574074</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G883">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H883" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22171,22 +22171,22 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D884" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E884">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F884" s="2">
-        <v>45799.45596064815</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G884">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H884" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -22272,22 +22272,22 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D888" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E888">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F888" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G888">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H888" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22506,16 +22506,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E897">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F897" s="2">
-        <v>45784.76087962963</v>
+        <v>45810.54670138889</v>
       </c>
       <c r="G897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H897" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -22627,22 +22627,22 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D902" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E902">
         <v>7</v>
       </c>
       <c r="F902" s="2">
-        <v>45805.70869212963</v>
+        <v>45811.76508101852</v>
       </c>
       <c r="G902">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H902" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -22806,16 +22806,16 @@
         <v>1</v>
       </c>
       <c r="C909">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D909" s="2">
-        <v>45799.8954032937</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E909">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F909" s="2">
-        <v>45799.4258449074</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -23167,16 +23167,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E923">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F923" s="2">
-        <v>45750.43479166667</v>
+        <v>45810.6524074074</v>
       </c>
       <c r="G923">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H923" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -23187,22 +23187,22 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D924" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E924">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="F924" s="2">
-        <v>45806.65318287037</v>
+        <v>45811.75681712963</v>
       </c>
       <c r="G924">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H924" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23545,16 +23545,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E938">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F938" s="2">
-        <v>45807.69802083333</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G938">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H938" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -23652,7 +23652,7 @@
         <v>0</v>
       </c>
       <c r="F942" s="2">
-        <v>45684.76425925926</v>
+        <v>45811.68548611111</v>
       </c>
       <c r="G942">
         <v>0</v>
@@ -24116,16 +24116,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E961">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F961" s="2">
-        <v>45806.44605324074</v>
+        <v>45810.52887731481</v>
       </c>
       <c r="G961">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H961" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -24136,22 +24136,22 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D962" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E962">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F962" s="2">
-        <v>45807.55458333333</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G962">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H962" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="D963" s="2">
-        <v>45806.77603765521</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E963">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="F963" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24390,16 +24390,16 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D972" s="2">
-        <v>45799.89540330523</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E972">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F972" s="2">
-        <v>45799.54766203704</v>
+        <v>45811.4736574074</v>
       </c>
       <c r="G972">
         <v>0</v>
@@ -24517,16 +24517,16 @@
         <v>1</v>
       </c>
       <c r="C977">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D977" s="2">
-        <v>45799.89540330523</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E977">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F977" s="2">
-        <v>45799.54913194444</v>
+        <v>45811.50664351852</v>
       </c>
       <c r="G977">
         <v>0</v>
@@ -25181,16 +25181,16 @@
         <v>1</v>
       </c>
       <c r="C1003">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="D1003" s="2">
-        <v>45799.89528857399</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1003">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="F1003" s="2">
-        <v>45782.49021990741</v>
+        <v>45811.40424768518</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>1</v>
       </c>
       <c r="C1010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1010" s="2">
-        <v>45799.89536723674</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1010" s="2">
-        <v>45797.63394675926</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1010">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D1017" s="2">
-        <v>45804.91952554927</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1017">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F1017" s="2">
-        <v>45804.71377314815</v>
+        <v>45811.66579861111</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1018" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1018">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1018" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.42122685185</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25943,16 +25943,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E1033">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1033" s="2">
-        <v>45807.69886574074</v>
+        <v>45810.61577546296</v>
       </c>
       <c r="G1033">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1033" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="F1037" s="2">
-        <v>45726.65197916667</v>
+        <v>45811.688125</v>
       </c>
       <c r="G1037">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D1039" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1039">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F1039" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26122,16 +26122,16 @@
         <v>45810.72559943295</v>
       </c>
       <c r="E1040">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1040" s="2">
-        <v>45805.74280092592</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G1040">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1040" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -26471,16 +26471,16 @@
         <v>1</v>
       </c>
       <c r="C1054">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="D1054" s="2">
-        <v>45807.78643074667</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1054">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="F1054" s="2">
-        <v>45807.71884259259</v>
+        <v>45811.39115740741</v>
       </c>
       <c r="G1054">
         <v>0</v>
@@ -26676,22 +26676,22 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D1062" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1062">
-        <v>800</v>
+        <v>691</v>
       </c>
       <c r="F1062" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.50931712963</v>
       </c>
       <c r="G1062">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H1062" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27414,16 +27414,16 @@
         <v>1</v>
       </c>
       <c r="C1092">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1092" s="2">
-        <v>45799.89532164588</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1092">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1092" s="2">
-        <v>45786.60335648148</v>
+        <v>45811.50076388889</v>
       </c>
       <c r="G1092">
         <v>0</v>
@@ -27867,22 +27867,22 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D1110" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1110">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F1110" s="2">
-        <v>45805.70140046296</v>
+        <v>45811.66579861111</v>
       </c>
       <c r="G1110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D1122" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1122">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F1122" s="2">
-        <v>45806.75423611111</v>
+        <v>45811.65459490741</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28274,22 +28274,22 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D1126" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1126">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F1126" s="2">
-        <v>45807.78510416667</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G1126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1133" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1133">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F1133" s="2">
-        <v>45806.75375</v>
+        <v>45811.50125</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28479,16 +28479,16 @@
         <v>1</v>
       </c>
       <c r="C1134">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1134" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1134">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1134" s="2">
-        <v>45806.41142361111</v>
+        <v>45811.69771990741</v>
       </c>
       <c r="G1134">
         <v>0</v>
@@ -28805,22 +28805,22 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D1147" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1147">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F1147" s="2">
-        <v>45806.74347222222</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1155" s="2">
-        <v>45805.91875154599</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1155">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1155" s="2">
-        <v>45805.70869212963</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29149,16 +29149,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E1160">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1160" s="2">
-        <v>45791.54950231482</v>
+        <v>45810.61395833334</v>
       </c>
       <c r="G1160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -29501,16 +29501,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1174">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F1174" s="2">
-        <v>45807.69747685185</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G1174">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -29527,16 +29527,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E1175">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1175" s="2">
-        <v>45805.65278935185</v>
+        <v>45810.60861111111</v>
       </c>
       <c r="G1175">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1183" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1183">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1183" s="2">
-        <v>45806.75375</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -29804,16 +29804,16 @@
         <v>1</v>
       </c>
       <c r="C1186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1186" s="2">
-        <v>45807.78640657826</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E1186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1186" s="2">
-        <v>45807.43640046296</v>
+        <v>45811.75252314815</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1187" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1187">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1187" s="2">
-        <v>45807.43805555555</v>
+        <v>45810.78246527778</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -29969,7 +29969,7 @@
         <v>3</v>
       </c>
       <c r="F1192" s="2">
-        <v>45537.76788194444</v>
+        <v>45811.64674768518</v>
       </c>
       <c r="G1192">
         <v>0</v>
@@ -29986,22 +29986,22 @@
         <v>1</v>
       </c>
       <c r="C1193">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D1193" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1193" s="2">
-        <v>45791.64023148148</v>
+        <v>45811.67758101852</v>
       </c>
       <c r="G1193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -30044,16 +30044,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E1195">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1195" s="2">
-        <v>45807.62085648148</v>
+        <v>45810.64998842592</v>
       </c>
       <c r="G1195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -30142,22 +30142,22 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D1199" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1199">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F1199" s="2">
-        <v>45804.46582175926</v>
+        <v>45810.76871527778</v>
       </c>
       <c r="G1199">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -30734,22 +30734,22 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>-16</v>
+        <v>44</v>
       </c>
       <c r="D1222" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1222">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F1222" s="2">
-        <v>45805.76913194444</v>
+        <v>45811.66614583333</v>
       </c>
       <c r="G1222">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D1223" s="2">
-        <v>45799.895427387</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1223">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F1223" s="2">
-        <v>45799.69793981482</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31104,7 +31104,7 @@
         <v>0</v>
       </c>
       <c r="F1236" s="2">
-        <v>45716.68592592593</v>
+        <v>45811.68785879629</v>
       </c>
       <c r="G1236">
         <v>0</v>
@@ -31378,16 +31378,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E1247">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F1247" s="2">
-        <v>45804.60414351852</v>
+        <v>45810.68862268519</v>
       </c>
       <c r="G1247">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31528,22 +31528,22 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>450</v>
+        <v>269</v>
       </c>
       <c r="D1253" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E1253">
-        <v>507</v>
+        <v>269</v>
       </c>
       <c r="F1253" s="2">
-        <v>45807.70125</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G1253">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H1253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31603,16 +31603,16 @@
         <v>1</v>
       </c>
       <c r="C1256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1256" s="2">
-        <v>45795.04210567895</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1256" s="2">
-        <v>45777.50487268518</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1256">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>1</v>
       </c>
       <c r="C1262">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D1262" s="2">
-        <v>45795.04208095842</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1262">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F1262" s="2">
-        <v>45770.52422453704</v>
+        <v>45811.40424768518</v>
       </c>
       <c r="G1262">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1330" s="2">
-        <v>45806.77603756409</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1330">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1330" s="2">
-        <v>45806.67587962963</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G1330">
         <v>0</v>
@@ -33540,22 +33540,22 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1332" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1332">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F1332" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.73181712963</v>
       </c>
       <c r="G1332">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -33791,22 +33791,22 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1286</v>
+        <v>1246</v>
       </c>
       <c r="D1342" s="2">
-        <v>45810.72563720519</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1342">
-        <v>1547</v>
+        <v>1246</v>
       </c>
       <c r="F1342" s="2">
-        <v>45807.70125</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G1342">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="H1342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -34478,16 +34478,16 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D1369" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1369">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="F1369" s="2">
-        <v>45805.67193287037</v>
+        <v>45811.68634259259</v>
       </c>
       <c r="G1369">
         <v>0</v>
@@ -34885,16 +34885,16 @@
         <v>1</v>
       </c>
       <c r="C1385">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1385" s="2">
-        <v>45799.895427387</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1385">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1385" s="2">
-        <v>45782.43954861111</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1385">
         <v>0</v>
@@ -35047,16 +35047,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E1391">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F1391" s="2">
-        <v>45806.74347222222</v>
+        <v>45810.6524074074</v>
       </c>
       <c r="G1391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1391" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1392" spans="1:8">
@@ -35073,16 +35073,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E1392">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1392" s="2">
-        <v>45803.7415625</v>
+        <v>45810.54670138889</v>
       </c>
       <c r="G1392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1393" spans="1:8">
@@ -35093,22 +35093,22 @@
         <v>1</v>
       </c>
       <c r="C1393">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D1393" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1393">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F1393" s="2">
-        <v>45804.42633101852</v>
+        <v>45811.40424768518</v>
       </c>
       <c r="G1393">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1394" spans="1:8">
@@ -35344,16 +35344,16 @@
         <v>1</v>
       </c>
       <c r="C1403">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D1403" s="2">
-        <v>45799.89536723674</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1403">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F1403" s="2">
-        <v>45797.67152777778</v>
+        <v>45811.69771990741</v>
       </c>
       <c r="G1403">
         <v>0</v>
@@ -35552,16 +35552,16 @@
         <v>1</v>
       </c>
       <c r="C1411">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="D1411" s="2">
-        <v>45800.93197722271</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1411">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="F1411" s="2">
-        <v>45800.6955787037</v>
+        <v>45811.50125</v>
       </c>
       <c r="G1411">
         <v>0</v>
@@ -35578,22 +35578,22 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D1412" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1412">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F1412" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.71334490741</v>
       </c>
       <c r="G1412">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -35604,16 +35604,16 @@
         <v>1</v>
       </c>
       <c r="C1413">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D1413" s="2">
-        <v>45804.91952554927</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1413">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F1413" s="2">
-        <v>45804.59533564815</v>
+        <v>45811.41633101852</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -35806,22 +35806,22 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D1421" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1421">
-        <v>-8</v>
+        <v>128</v>
       </c>
       <c r="F1421" s="2">
-        <v>45807.69747685185</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1421">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H1421" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1422" spans="1:8">
@@ -35832,22 +35832,22 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1422" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1422">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="F1422" s="2">
-        <v>45806.75375</v>
+        <v>45811.50125</v>
       </c>
       <c r="G1422">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H1422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1423" spans="1:8">
@@ -35962,16 +35962,16 @@
         <v>1</v>
       </c>
       <c r="C1427">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1427" s="2">
-        <v>45799.89540331678</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1427">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1427" s="2">
-        <v>45799.60385416666</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1427">
         <v>0</v>
@@ -36126,6 +36126,9 @@
       <c r="E1433">
         <v>0</v>
       </c>
+      <c r="F1433" s="2">
+        <v>45811.51842592593</v>
+      </c>
       <c r="G1433">
         <v>0</v>
       </c>
@@ -36447,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D1446" s="2">
-        <v>45804.91952554927</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1446">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F1446" s="2">
-        <v>45804.71377314815</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36499,16 +36502,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1448" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1448">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1448" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -37226,16 +37229,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1477">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1477" s="2">
-        <v>45783.63425925926</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G1477">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1477" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1478" spans="1:8">
@@ -37324,16 +37327,16 @@
         <v>1</v>
       </c>
       <c r="C1481">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1481" s="2">
-        <v>45795.04204563411</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E1481">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1481" s="2">
-        <v>45749.76931712963</v>
+        <v>45811.77277777778</v>
       </c>
       <c r="G1481">
         <v>0</v>
@@ -37376,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="C1483">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1483" s="2">
-        <v>45804.91954472794</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1483">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F1483" s="2">
-        <v>45804.76993055556</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1483">
         <v>0</v>
@@ -37428,16 +37431,16 @@
         <v>1</v>
       </c>
       <c r="C1485">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1485" s="2">
-        <v>45799.89540330523</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1485">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1485" s="2">
-        <v>45799.5628125</v>
+        <v>45811.68579861111</v>
       </c>
       <c r="G1485">
         <v>0</v>
@@ -37959,16 +37962,16 @@
         <v>1</v>
       </c>
       <c r="C1506">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D1506" s="2">
-        <v>45800.93188815672</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1506">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F1506" s="2">
-        <v>45800.62877314815</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G1506">
         <v>0</v>
@@ -37985,22 +37988,22 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D1507" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1507">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F1507" s="2">
-        <v>45807.74045138889</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G1507">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1507" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38037,22 +38040,22 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1509" s="2">
-        <v>45810.72556744247</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E1509">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F1509" s="2">
-        <v>45806.66423611111</v>
+        <v>45811.75563657407</v>
       </c>
       <c r="G1509">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H1509" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1510" spans="1:8">
@@ -39239,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D1558" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1558">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F1558" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.70625</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -39476,7 +39479,7 @@
         <v>0</v>
       </c>
       <c r="F1567" s="2">
-        <v>45806.68252314815</v>
+        <v>45811.49850694444</v>
       </c>
       <c r="G1567">
         <v>0</v>
@@ -39519,16 +39522,16 @@
         <v>1</v>
       </c>
       <c r="C1569">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1569" s="2">
-        <v>45795.04208095842</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1569">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F1569" s="2">
-        <v>45761.70211805555</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1569">
         <v>0</v>
@@ -39597,22 +39600,22 @@
         <v>1</v>
       </c>
       <c r="C1572">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1572" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1572">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1572" s="2">
-        <v>45807.71956018519</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G1572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1572" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1573" spans="1:8">
@@ -39678,16 +39681,16 @@
         <v>45810.72556744247</v>
       </c>
       <c r="E1575">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F1575" s="2">
-        <v>45807.46862268518</v>
+        <v>45810.40422453704</v>
       </c>
       <c r="G1575">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1575" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1576" spans="1:8">
@@ -39698,16 +39701,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1576" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1576">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1576" s="2">
-        <v>45805.67193287037</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40142,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D1594" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E1594">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F1594" s="2">
-        <v>45807.78447916666</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40220,22 +40223,22 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>7114</v>
+        <v>6649</v>
       </c>
       <c r="D1597" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E1597">
-        <v>7192</v>
+        <v>6649</v>
       </c>
       <c r="F1597" s="2">
-        <v>45807.78542824074</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G1597">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H1597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -40295,22 +40298,22 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1600" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1600">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F1600" s="2">
-        <v>45805.74226851852</v>
+        <v>45811.44629629629</v>
       </c>
       <c r="G1600">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1600" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1601" spans="1:8">
@@ -40477,7 +40480,7 @@
         <v>0</v>
       </c>
       <c r="F1607" s="2">
-        <v>45784.6459375</v>
+        <v>45811.68668981481</v>
       </c>
       <c r="G1607">
         <v>0</v>
@@ -40927,16 +40930,16 @@
         <v>1</v>
       </c>
       <c r="C1625">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1625" s="2">
-        <v>45795.04210567895</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1625">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1625" s="2">
-        <v>45776.66952546296</v>
+        <v>45811.42236111111</v>
       </c>
       <c r="G1625">
         <v>0</v>
@@ -41083,16 +41086,16 @@
         <v>1</v>
       </c>
       <c r="C1631">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1631" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1631">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1631" s="2">
-        <v>45807.69747685185</v>
+        <v>45811.49467592593</v>
       </c>
       <c r="G1631">
         <v>0</v>
@@ -41187,22 +41190,22 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="D1635" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E1635">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="F1635" s="2">
-        <v>45803.72625</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G1635">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1635" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -41579,16 +41582,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E1651">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F1651" s="2">
-        <v>45807.7375925926</v>
+        <v>45810.68862268519</v>
       </c>
       <c r="G1651">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1651" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -41706,16 +41709,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E1656">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1656" s="2">
-        <v>45803.49555555556</v>
+        <v>45810.61395833334</v>
       </c>
       <c r="G1656">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1656" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1657" spans="1:8">
@@ -42718,16 +42721,16 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1697" s="2">
-        <v>45806.77600903736</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1697">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F1697" s="2">
-        <v>45806.44605324074</v>
+        <v>45811.68491898148</v>
       </c>
       <c r="G1697">
         <v>0</v>
@@ -43698,16 +43701,16 @@
         <v>1</v>
       </c>
       <c r="C1737">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D1737" s="2">
-        <v>45799.89536722513</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1737">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F1737" s="2">
-        <v>45797.49900462963</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G1737">
         <v>0</v>
@@ -43750,16 +43753,16 @@
         <v>1</v>
       </c>
       <c r="C1739">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D1739" s="2">
-        <v>45800.93175384284</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1739">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F1739" s="2">
-        <v>45800.48134259259</v>
+        <v>45811.64603009259</v>
       </c>
       <c r="G1739">
         <v>0</v>
@@ -43857,16 +43860,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1743">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1743" s="2">
-        <v>45807.71884259259</v>
+        <v>45810.73336805555</v>
       </c>
       <c r="G1743">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1743" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1744" spans="1:8">
@@ -44122,16 +44125,16 @@
         <v>45810.72559943295</v>
       </c>
       <c r="E1754">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1754" s="2">
-        <v>45790.63041666667</v>
+        <v>45810.51450231481</v>
       </c>
       <c r="G1754">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1754" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1755" spans="1:8">
@@ -45894,16 +45897,16 @@
         <v>45810.72559944464</v>
       </c>
       <c r="E1824">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1824" s="2">
-        <v>45796.43543981481</v>
+        <v>45810.52887731481</v>
       </c>
       <c r="G1824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1824" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -46168,16 +46171,16 @@
         <v>1</v>
       </c>
       <c r="C1835">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1835" s="2">
-        <v>45799.89528859723</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1835">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1835" s="2">
-        <v>45784.7141550926</v>
+        <v>45811.50125</v>
       </c>
       <c r="G1835">
         <v>0</v>
@@ -46396,22 +46399,22 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="D1844" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E1844">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="F1844" s="2">
-        <v>45807.69886574074</v>
+        <v>45810.76806712963</v>
       </c>
       <c r="G1844">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1844" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -46454,16 +46457,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1846">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1846" s="2">
-        <v>45782.63818287037</v>
+        <v>45810.73277777778</v>
       </c>
       <c r="G1846">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1846" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1847" spans="1:8">
@@ -46676,16 +46679,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1855">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1855" s="2">
-        <v>45806.75375</v>
+        <v>45810.73041666667</v>
       </c>
       <c r="G1855">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1855" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1856" spans="1:8">
@@ -46852,16 +46855,16 @@
         <v>1</v>
       </c>
       <c r="C1862">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1862" s="2">
-        <v>45795.0418106143</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1862">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1862" s="2">
-        <v>45567.72918981482</v>
+        <v>45811.72346064815</v>
       </c>
       <c r="G1862">
         <v>0</v>
@@ -47060,16 +47063,16 @@
         <v>1</v>
       </c>
       <c r="C1870">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1870" s="2">
-        <v>45805.91875152234</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1870">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1870" s="2">
-        <v>45805.66414351852</v>
+        <v>45811.54368055556</v>
       </c>
       <c r="G1870">
         <v>0</v>
@@ -47323,16 +47326,16 @@
         <v>45810.72559946219</v>
       </c>
       <c r="E1880">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1880" s="2">
-        <v>45804.49947916667</v>
+        <v>45810.66146990741</v>
       </c>
       <c r="G1880">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1880" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1881" spans="1:8">
@@ -47447,16 +47450,16 @@
         <v>45810.72556745499</v>
       </c>
       <c r="E1885">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F1885" s="2">
-        <v>45797.75920138889</v>
+        <v>45810.44699074074</v>
       </c>
       <c r="G1885">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1885" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1886" spans="1:8">
@@ -47770,7 +47773,7 @@
         <v>0</v>
       </c>
       <c r="F1898" s="2">
-        <v>45763.63447916666</v>
+        <v>45810.37826388889</v>
       </c>
       <c r="G1898">
         <v>0</v>
@@ -48119,22 +48122,22 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D1912" s="2">
-        <v>45810.72559947376</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1912">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F1912" s="2">
-        <v>45804.39973379629</v>
+        <v>45811.42484953703</v>
       </c>
       <c r="G1912">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1912" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1913" spans="1:8">
@@ -48480,13 +48483,16 @@
         <v>1</v>
       </c>
       <c r="C1926">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1926" s="2">
-        <v>45795.04193352044</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E1926">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F1926" s="2">
+        <v>45811.76100694444</v>
       </c>
       <c r="G1926">
         <v>0</v>
@@ -48826,22 +48832,22 @@
         <v>1</v>
       </c>
       <c r="C1940">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="D1940" s="2">
-        <v>45795.04204563411</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E1940">
-        <v>62</v>
+        <v>-9</v>
       </c>
       <c r="F1940" s="2">
-        <v>45776.7266087963</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G1940">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H1940" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1941" spans="1:8">
@@ -48858,16 +48864,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E1941">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1941" s="2">
-        <v>45790.67538194444</v>
+        <v>45810.75585648148</v>
       </c>
       <c r="G1941">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1941" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1942" spans="1:8">
@@ -49827,16 +49833,16 @@
         <v>1</v>
       </c>
       <c r="C1980">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1980" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E1980">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F1980" s="2">
-        <v>45471.71244212963</v>
+        <v>45811.64200231482</v>
       </c>
       <c r="G1980">
         <v>0</v>
@@ -50903,22 +50909,22 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="D2023" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2023">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2023" s="2">
-        <v>45807.43805555555</v>
+        <v>45811.67199074074</v>
       </c>
       <c r="G2023">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H2023" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2024" spans="1:8">
@@ -50929,16 +50935,16 @@
         <v>1</v>
       </c>
       <c r="C2024">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2024" s="2">
-        <v>45799.89542739857</v>
+        <v>45811.92552608132</v>
       </c>
       <c r="E2024">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2024" s="2">
-        <v>45791.47530092593</v>
+        <v>45811.78815972222</v>
       </c>
       <c r="G2024">
         <v>0</v>
@@ -51053,16 +51059,16 @@
         <v>1</v>
       </c>
       <c r="C2029">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2029" s="2">
-        <v>45807.78640665444</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2029">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2029" s="2">
-        <v>45807.53634259259</v>
+        <v>45811.54019675926</v>
       </c>
       <c r="G2029">
         <v>0</v>
@@ -51154,16 +51160,16 @@
         <v>1</v>
       </c>
       <c r="C2033">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2033" s="2">
-        <v>45799.89536723674</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2033">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F2033" s="2">
-        <v>45797.51836805556</v>
+        <v>45810.76806712963</v>
       </c>
       <c r="G2033">
         <v>0</v>
@@ -51388,22 +51394,22 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D2042" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2042">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F2042" s="2">
-        <v>45804.76886574074</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G2042">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2042" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2043" spans="1:8">
@@ -51613,16 +51619,16 @@
         <v>1</v>
       </c>
       <c r="C2051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2051" s="2">
-        <v>45800.93192368435</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2051" s="2">
-        <v>45800.62695601852</v>
+        <v>45811.68618055555</v>
       </c>
       <c r="G2051">
         <v>0</v>
@@ -51740,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2056" s="2">
-        <v>45799.89528858563</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E2056">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2056" s="2">
-        <v>45782.60805555555</v>
+        <v>45811.75439814815</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52952,16 +52958,16 @@
         <v>1</v>
       </c>
       <c r="C2104">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2104" s="2">
-        <v>45800.93204010786</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2104">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2104" s="2">
-        <v>45800.46056712963</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G2104">
         <v>0</v>
@@ -53454,16 +53460,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E2124">
-        <v>-69</v>
+        <v>291</v>
       </c>
       <c r="F2124" s="2">
-        <v>45807.55458333333</v>
+        <v>45810.63849537037</v>
       </c>
       <c r="G2124">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H2124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2125" spans="1:8">
@@ -53676,13 +53682,16 @@
         <v>1</v>
       </c>
       <c r="C2133">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D2133" s="2">
-        <v>45795.04177855738</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2133">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="F2133" s="2">
+        <v>45811.69520833333</v>
       </c>
       <c r="G2133">
         <v>0</v>
@@ -54786,16 +54795,16 @@
         <v>1</v>
       </c>
       <c r="C2178">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D2178" s="2">
-        <v>45795.0420164208</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2178">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F2178" s="2">
-        <v>45734.63388888889</v>
+        <v>45811.67811342593</v>
       </c>
       <c r="G2178">
         <v>0</v>
@@ -54971,16 +54980,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E2185">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F2185" s="2">
-        <v>45807.71784722222</v>
+        <v>45810.72987268519</v>
       </c>
       <c r="G2185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2186" spans="1:8">
@@ -55092,16 +55101,16 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2190" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92552606984</v>
       </c>
       <c r="E2190">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2190" s="2">
-        <v>45806.68059027778</v>
+        <v>45811.75335648148</v>
       </c>
       <c r="G2190">
         <v>0</v>
@@ -55118,16 +55127,16 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2191" s="2">
-        <v>45806.77603756409</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2191">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2191" s="2">
-        <v>45806.67986111111</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G2191">
         <v>0</v>
@@ -55144,16 +55153,16 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2192" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2192">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2192" s="2">
-        <v>45806.68019675926</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G2192">
         <v>0</v>
@@ -55170,16 +55179,16 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2193" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2193" s="2">
-        <v>45806.68038194445</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G2193">
         <v>0</v>
@@ -55606,16 +55615,16 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2210" s="2">
-        <v>45806.77603763194</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2210">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2210" s="2">
-        <v>45806.68005787037</v>
+        <v>45810.78280092592</v>
       </c>
       <c r="G2210">
         <v>0</v>
@@ -56001,16 +56010,16 @@
         <v>1</v>
       </c>
       <c r="C2226">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2226" s="2">
-        <v>45795.04210567895</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2226">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2226" s="2">
-        <v>45775.76097222222</v>
+        <v>45811.45587962963</v>
       </c>
       <c r="G2226">
         <v>0</v>
@@ -56365,22 +56374,22 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D2240" s="2">
-        <v>45810.72559944464</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2240">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F2240" s="2">
-        <v>45805.70947916667</v>
+        <v>45810.78153935185</v>
       </c>
       <c r="G2240">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2241" spans="1:8">
@@ -56397,16 +56406,16 @@
         <v>45810.72559945051</v>
       </c>
       <c r="E2241">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F2241" s="2">
-        <v>45807.69164351852</v>
+        <v>45810.61395833334</v>
       </c>
       <c r="G2241">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2242" spans="1:8">
@@ -56651,16 +56660,16 @@
         <v>1</v>
       </c>
       <c r="C2251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2251" s="2">
-        <v>45795.04190003897</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2251" s="2">
-        <v>45630.73944444444</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G2251">
         <v>0</v>
@@ -56968,16 +56977,16 @@
         <v>1</v>
       </c>
       <c r="C2264">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D2264" s="2">
-        <v>45798.96533511975</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2264">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F2264" s="2">
-        <v>45798.66105324074</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G2264">
         <v>0</v>
@@ -58243,16 +58252,16 @@
         <v>1</v>
       </c>
       <c r="C2315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2315" s="2">
-        <v>45795.04190003897</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2315" s="2">
-        <v>45630.65318287037</v>
+        <v>45811.69520833333</v>
       </c>
       <c r="G2315">
         <v>0</v>
@@ -59279,16 +59288,16 @@
         <v>45810.72563721648</v>
       </c>
       <c r="E2356">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2356" s="2">
-        <v>45807.43640046296</v>
+        <v>45810.70131944444</v>
       </c>
       <c r="G2356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2357" spans="1:8">
@@ -59613,16 +59622,16 @@
         <v>1</v>
       </c>
       <c r="C2370">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2370" s="2">
-        <v>45807.78643077149</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2370">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2370" s="2">
-        <v>45807.76417824074</v>
+        <v>45811.50252314815</v>
       </c>
       <c r="G2370">
         <v>0</v>
@@ -60498,16 +60507,16 @@
         <v>1</v>
       </c>
       <c r="C2406">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2406" s="2">
-        <v>45799.89547824481</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2406">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F2406" s="2">
-        <v>45799.54719907408</v>
+        <v>45811.47164351852</v>
       </c>
       <c r="G2406">
         <v>0</v>
@@ -60677,22 +60686,22 @@
         <v>1</v>
       </c>
       <c r="C2413">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D2413" s="2">
-        <v>45810.72559943295</v>
+        <v>45811.92544186871</v>
       </c>
       <c r="E2413">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2413" s="2">
-        <v>45782.69798611111</v>
+        <v>45811.39625</v>
       </c>
       <c r="G2413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2413" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2414" spans="1:8">
@@ -60755,22 +60764,22 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="D2416" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92552607598</v>
       </c>
       <c r="E2416">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="F2416" s="2">
-        <v>45807.69164351852</v>
+        <v>45811.76255787037</v>
       </c>
       <c r="G2416">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -60983,16 +60992,16 @@
         <v>1</v>
       </c>
       <c r="C2425">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2425" s="2">
-        <v>45795.04204563411</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2425">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2425" s="2">
-        <v>45750.36094907407</v>
+        <v>45811.6834837963</v>
       </c>
       <c r="G2425">
         <v>0</v>
@@ -61150,16 +61159,16 @@
         <v>1</v>
       </c>
       <c r="C2432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2432" s="2">
-        <v>45795.04208095842</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2432" s="2">
-        <v>45757.40055555556</v>
+        <v>45811.64716435185</v>
       </c>
       <c r="G2432">
         <v>0</v>
@@ -61816,16 +61825,16 @@
         <v>1</v>
       </c>
       <c r="C2459">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2459" s="2">
-        <v>45800.93201923946</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2459">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2459" s="2">
-        <v>45800.72907407407</v>
+        <v>45811.54368055556</v>
       </c>
       <c r="G2459">
         <v>0</v>
@@ -61966,16 +61975,16 @@
         <v>45810.72563720519</v>
       </c>
       <c r="E2465">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F2465" s="2">
-        <v>45803.4153125</v>
+        <v>45810.66278935185</v>
       </c>
       <c r="G2465">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2465" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2466" spans="1:8">
@@ -62349,16 +62358,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="D2481" s="2">
-        <v>45806.77605776805</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2481">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F2481" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.73097222222</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62375,22 +62384,22 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="D2482" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2482">
-        <v>581</v>
+        <v>468</v>
       </c>
       <c r="F2482" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.72704861111</v>
       </c>
       <c r="G2482">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H2482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62401,22 +62410,22 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>939</v>
+        <v>826</v>
       </c>
       <c r="D2483" s="2">
-        <v>45810.72559946219</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2483">
-        <v>957</v>
+        <v>826</v>
       </c>
       <c r="F2483" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.73097222222</v>
       </c>
       <c r="G2483">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H2483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62427,22 +62436,22 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>997</v>
+        <v>891</v>
       </c>
       <c r="D2484" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2484">
-        <v>1012</v>
+        <v>891</v>
       </c>
       <c r="F2484" s="2">
-        <v>45806.74983796296</v>
+        <v>45811.73097222222</v>
       </c>
       <c r="G2484">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H2484" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -63219,6 +63228,9 @@
       <c r="E2516">
         <v>0</v>
       </c>
+      <c r="F2516" s="2">
+        <v>45810.72703703704</v>
+      </c>
       <c r="G2516">
         <v>0</v>
       </c>
@@ -64040,19 +64052,22 @@
         <v>1</v>
       </c>
       <c r="C2551">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2551" s="2">
-        <v>45810.72563721648</v>
+        <v>45811.92549991595</v>
       </c>
       <c r="E2551">
         <v>0</v>
       </c>
+      <c r="F2551" s="2">
+        <v>45811.68980324074</v>
+      </c>
       <c r="G2551">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2551" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2552" spans="1:8">
@@ -64063,19 +64078,22 @@
         <v>1</v>
       </c>
       <c r="C2552">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2552" s="2">
-        <v>45810.72559945051</v>
+        <v>45811.92546678011</v>
       </c>
       <c r="E2552">
         <v>0</v>
       </c>
+      <c r="F2552" s="2">
+        <v>45811.6759837963</v>
+      </c>
       <c r="G2552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2552" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2553" spans="1:8">
@@ -64094,6 +64112,9 @@
       <c r="E2553">
         <v>0</v>
       </c>
+      <c r="F2553" s="2">
+        <v>45811.77451388889</v>
+      </c>
       <c r="G2553">
         <v>0</v>
       </c>
@@ -64117,10 +64138,36 @@
       <c r="E2554">
         <v>0</v>
       </c>
+      <c r="F2554" s="2">
+        <v>45811.77423611111</v>
+      </c>
       <c r="G2554">
         <v>0</v>
       </c>
       <c r="H2554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:8">
+      <c r="A2555">
+        <v>43422655</v>
+      </c>
+      <c r="B2555">
+        <v>1</v>
+      </c>
+      <c r="C2555">
+        <v>0</v>
+      </c>
+      <c r="D2555" s="2">
+        <v>45811.92552608132</v>
+      </c>
+      <c r="E2555">
+        <v>0</v>
+      </c>
+      <c r="G2555">
+        <v>0</v>
+      </c>
+      <c r="H2555" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2555"/>
+  <dimension ref="A1:H2557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D4" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F4" s="2">
-        <v>45811.68890046296</v>
+        <v>45812.78209490741</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2">
-        <v>45811.54368055556</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="D33" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E33">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="F33" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.63878472222</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E48">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F48" s="2">
-        <v>45811.70625</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E49">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D56" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E56">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F56" s="2">
-        <v>45811.6834837963</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E58">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2">
-        <v>45811.68890046296</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E63">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2">
-        <v>45811.92552605522</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E69">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F69" s="2">
-        <v>45811.74833333334</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E70">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.5275925926</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D82" s="2">
-        <v>45810.72563720519</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E82">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F82" s="2">
-        <v>45810.68862268519</v>
+        <v>45812.48946759259</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D83" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E83">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.53496527778</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" s="2">
-        <v>45810.72559944464</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F85" s="2">
-        <v>45810.60861111111</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D87" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E87">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2">
-        <v>45811.50931712963</v>
+        <v>45812.6909837963</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>28</v>
       </c>
       <c r="F90" s="2">
-        <v>45807.43640046296</v>
+        <v>45812.5275925926</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.69229166667</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D94" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E94">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2">
-        <v>45811.75518518518</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1087</v>
+        <v>1045</v>
       </c>
       <c r="D101" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E101">
-        <v>1087</v>
+        <v>1045</v>
       </c>
       <c r="F101" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F123" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D125" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E125">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F125" s="2">
-        <v>45811.72704861111</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D141" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E141">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F141" s="2">
-        <v>45811.75518518518</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4319,16 +4319,16 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D160" s="2">
-        <v>45795.04204563411</v>
+        <v>45812.78306321269</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F160" s="2">
-        <v>45756.53471064815</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="D175" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E175">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="F175" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.6706712963</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>-244</v>
+        <v>356</v>
       </c>
       <c r="D191" s="2">
-        <v>45811.92544186871</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E191">
-        <v>-244</v>
+        <v>356</v>
       </c>
       <c r="F191" s="2">
-        <v>45810.76819444444</v>
+        <v>45812.31930555555</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E192">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F192" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.53496527778</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D209" s="2">
-        <v>45810.72556745499</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E209">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F209" s="2">
-        <v>45810.51450231481</v>
+        <v>45812.53496527778</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>469</v>
+        <v>1269</v>
       </c>
       <c r="D247" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78299904546</v>
       </c>
       <c r="E247">
-        <v>469</v>
+        <v>1269</v>
       </c>
       <c r="F247" s="2">
-        <v>45811.50664351852</v>
+        <v>45812.31732638889</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>32</v>
+        <v>-33</v>
       </c>
       <c r="D255" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E255">
-        <v>32</v>
+        <v>-33</v>
       </c>
       <c r="F255" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.63135416667</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6898,16 +6898,16 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D266" s="2">
-        <v>45795.04186106093</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F266" s="2">
-        <v>45607.63087962963</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D270" s="2">
-        <v>45811.92552605522</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E270">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F270" s="2">
-        <v>45811.74833333334</v>
+        <v>45812.47226851852</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="D287" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E287">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F287" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.48946759259</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D291" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E291">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F291" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D295" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E295">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="F295" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.69229166667</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="D314" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E314">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="F314" s="2">
-        <v>45811.68634259259</v>
+        <v>45812.54806712963</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D319" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E319">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F319" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.66025462963</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8247,16 +8247,16 @@
         <v>1</v>
       </c>
       <c r="C321">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D321" s="2">
-        <v>45799.895427387</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E321">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F321" s="2">
-        <v>45799.69793981482</v>
+        <v>45812.5547337963</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D326" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E326">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="F326" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.65549768518</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D328" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E328">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F328" s="2">
-        <v>45811.50076388889</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D358" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E358">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F358" s="2">
-        <v>45811.75627314814</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D359" s="2">
-        <v>45806.77603763194</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E359">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F359" s="2">
-        <v>45806.74983796296</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D363" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E363">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F363" s="2">
-        <v>45811.67811342593</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9438,16 +9438,16 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D369" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E369">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F369" s="2">
-        <v>45811.72704861111</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>1</v>
       </c>
       <c r="C377">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D377" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E377">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F377" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.47423611111</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>1</v>
       </c>
       <c r="C382">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D382" s="2">
-        <v>45807.78640665015</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E382">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F382" s="2">
-        <v>45807.43805555555</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D385" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E385">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F385" s="2">
-        <v>45811.49467592593</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D386" s="2">
-        <v>45799.89532165734</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F386" s="2">
-        <v>45803.72883101852</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D387" s="2">
-        <v>45806.77603763194</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E387">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F387" s="2">
-        <v>45806.74983796296</v>
+        <v>45812.63135416667</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-52</v>
+        <v>-44</v>
       </c>
       <c r="D390" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E390">
-        <v>-52</v>
+        <v>-44</v>
       </c>
       <c r="F390" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.4777662037</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D394" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E394">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F394" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10122,16 +10122,16 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D396" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E396">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F396" s="2">
-        <v>45811.42236111111</v>
+        <v>45812.32835648148</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -10295,16 +10295,16 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>-6</v>
+        <v>66</v>
       </c>
       <c r="D403" s="2">
-        <v>45810.72559945051</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E403">
-        <v>-6</v>
+        <v>66</v>
       </c>
       <c r="F403" s="2">
-        <v>45810.61395833334</v>
+        <v>45812.32231481482</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="D404" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E404">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="F404" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>-3</v>
+        <v>97</v>
       </c>
       <c r="D414" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E414">
-        <v>-3</v>
+        <v>97</v>
       </c>
       <c r="F414" s="2">
-        <v>45811.68890046296</v>
+        <v>45812.66328703704</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D425" s="2">
-        <v>45810.72563721648</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E425">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F425" s="2">
-        <v>45810.75585648148</v>
+        <v>45812.63878472222</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D443" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E443">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F443" s="2">
-        <v>45811.4736574074</v>
+        <v>45812.48946759259</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-57</v>
+        <v>-87</v>
       </c>
       <c r="D469" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E469">
-        <v>-57</v>
+        <v>-87</v>
       </c>
       <c r="F469" s="2">
-        <v>45811.47556712963</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="D480" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E480">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="F480" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12285,16 +12285,16 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D483" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E483">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F483" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.6531712963</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="D510" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E510">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="F510" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.43105324074</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="D527" s="2">
-        <v>45807.78640657826</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E527">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="F527" s="2">
-        <v>45807.43640046296</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D569" s="2">
-        <v>45810.72559945051</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E569">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F569" s="2">
-        <v>45810.64912037037</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2671</v>
+        <v>2645</v>
       </c>
       <c r="D570" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E570">
-        <v>2671</v>
+        <v>2645</v>
       </c>
       <c r="F570" s="2">
-        <v>45811.72704861111</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15158,16 +15158,16 @@
         <v>1</v>
       </c>
       <c r="C601">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D601" s="2">
-        <v>45810.72559946219</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E601">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F601" s="2">
-        <v>45810.66146990741</v>
+        <v>45812.43105324074</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D631" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E631">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F631" s="2">
-        <v>45811.50252314815</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -15930,16 +15930,16 @@
         <v>1</v>
       </c>
       <c r="C633">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D633" s="2">
-        <v>45810.72556745499</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E633">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F633" s="2">
-        <v>45810.50998842593</v>
+        <v>45812.47270833333</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -16483,16 +16483,16 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D656" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E656">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F656" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2172</v>
+        <v>2160</v>
       </c>
       <c r="D657" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E657">
-        <v>2172</v>
+        <v>2160</v>
       </c>
       <c r="F657" s="2">
-        <v>45811.73181712963</v>
+        <v>45812.63135416667</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16535,16 +16535,16 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D658" s="2">
-        <v>45803.90692203668</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E658">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F658" s="2">
-        <v>45803.72575231481</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D660" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E660">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F660" s="2">
-        <v>45811.70625</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17068,16 +17068,16 @@
         <v>1</v>
       </c>
       <c r="C680">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D680" s="2">
-        <v>45799.89536723674</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E680">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F680" s="2">
-        <v>45803.76681712963</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D681" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E681">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F681" s="2">
-        <v>45811.68216435185</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D691" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E691">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F691" s="2">
-        <v>45811.68634259259</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D701" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E701">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F701" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17648,16 +17648,16 @@
         <v>1</v>
       </c>
       <c r="C703">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D703" s="2">
-        <v>45810.72556744247</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E703">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F703" s="2">
-        <v>45810.44699074074</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -17994,16 +17994,16 @@
         <v>1</v>
       </c>
       <c r="C717">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D717" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E717">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F717" s="2">
-        <v>45811.48225694444</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D720" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78306321269</v>
       </c>
       <c r="E720">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F720" s="2">
-        <v>45811.50931712963</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18098,16 +18098,16 @@
         <v>1</v>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D721" s="2">
-        <v>45800.93192368435</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E721">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F721" s="2">
-        <v>45800.64704861111</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D726" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E726">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F726" s="2">
-        <v>45811.72704861111</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D772" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E772">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F772" s="2">
-        <v>45811.66579861111</v>
+        <v>45812.6909837963</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D778" s="2">
-        <v>45810.72559945051</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E778">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F778" s="2">
-        <v>45810.64912037037</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="D819" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E819">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="F819" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.63878472222</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D826" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E826">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F826" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21337,16 +21337,16 @@
         <v>1</v>
       </c>
       <c r="C851">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D851" s="2">
-        <v>45810.72559944464</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E851">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F851" s="2">
-        <v>45810.54670138889</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -21363,16 +21363,16 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D852" s="2">
-        <v>45810.72563720519</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E852">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F852" s="2">
-        <v>45810.68862268519</v>
+        <v>45812.471875</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -21689,16 +21689,16 @@
         <v>1</v>
       </c>
       <c r="C865">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D865" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E865">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F865" s="2">
-        <v>45811.73181712963</v>
+        <v>45812.6909837963</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D872" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E872">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F872" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D876" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E876">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F876" s="2">
-        <v>45811.49375</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22500,16 +22500,16 @@
         <v>1</v>
       </c>
       <c r="C897">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D897" s="2">
-        <v>45810.72559944464</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E897">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F897" s="2">
-        <v>45810.54670138889</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G897">
         <v>0</v>
@@ -22627,16 +22627,16 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>7</v>
+        <v>-43</v>
       </c>
       <c r="D902" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E902">
-        <v>7</v>
+        <v>-43</v>
       </c>
       <c r="F902" s="2">
-        <v>45811.76508101852</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D924" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E924">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F924" s="2">
-        <v>45811.75681712963</v>
+        <v>45812.63878472222</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>1</v>
       </c>
       <c r="C944">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D944" s="2">
-        <v>45806.77605776805</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E944">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F944" s="2">
-        <v>45806.75375</v>
+        <v>45812.65958333333</v>
       </c>
       <c r="G944">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D962" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E962">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F962" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1025" s="2">
-        <v>45806.77605776805</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1025">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1025" s="2">
-        <v>45806.74983796296</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1061" s="2">
-        <v>45798.9653592312</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E1061">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1061" s="2">
-        <v>45798.71837962963</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D1062" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1062">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F1062" s="2">
-        <v>45811.50931712963</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>1</v>
       </c>
       <c r="C1116">
-        <v>33</v>
+        <v>-87</v>
       </c>
       <c r="D1116" s="2">
-        <v>45795.04204563411</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E1116">
-        <v>33</v>
+        <v>-87</v>
       </c>
       <c r="F1116" s="2">
-        <v>45749.69678240741</v>
+        <v>45812.69229166667</v>
       </c>
       <c r="G1116">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1122" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1122">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1122" s="2">
-        <v>45811.65459490741</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28479,16 +28479,16 @@
         <v>1</v>
       </c>
       <c r="C1134">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D1134" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E1134">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F1134" s="2">
-        <v>45811.69771990741</v>
+        <v>45812.68138888889</v>
       </c>
       <c r="G1134">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1147" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1147" s="2">
-        <v>45811.50252314815</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -29521,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1175" s="2">
-        <v>45810.72559945051</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1175" s="2">
-        <v>45810.60861111111</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G1175">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D1177" s="2">
-        <v>45806.77600903736</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1177">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F1177" s="2">
-        <v>45806.44422453704</v>
+        <v>45812.43105324074</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="F1191" s="2">
-        <v>45805.67751157407</v>
+        <v>45812.78693287037</v>
       </c>
       <c r="G1191">
         <v>0</v>
@@ -30064,16 +30064,16 @@
         <v>1</v>
       </c>
       <c r="C1196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1196" s="2">
-        <v>45795.04199224871</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E1196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1196" s="2">
-        <v>45694.52438657408</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G1196">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1223" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1223">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F1223" s="2">
-        <v>45811.6834837963</v>
+        <v>45812.5547337963</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="D1253" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1253">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F1253" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D1261" s="2">
-        <v>45806.77600903736</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1261">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F1261" s="2">
-        <v>45806.66086805556</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>1</v>
       </c>
       <c r="C1262">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="D1262" s="2">
-        <v>45811.92544186871</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1262">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F1262" s="2">
-        <v>45811.40424768518</v>
+        <v>45812.32332175926</v>
       </c>
       <c r="G1262">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D1342" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306321269</v>
       </c>
       <c r="E1342">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F1342" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34478,16 +34478,16 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D1369" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1369">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F1369" s="2">
-        <v>45811.68634259259</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G1369">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D1392" s="2">
-        <v>45810.72559944464</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1392">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F1392" s="2">
-        <v>45810.54670138889</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1392">
         <v>0</v>
@@ -36450,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1446" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1446">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1446" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -37962,16 +37962,16 @@
         <v>1</v>
       </c>
       <c r="C1506">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D1506" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1506">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F1506" s="2">
-        <v>45811.45587962963</v>
+        <v>45812.32796296296</v>
       </c>
       <c r="G1506">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D1507" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1507">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F1507" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1594" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1594">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1594" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.65041666666</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>6649</v>
+        <v>6092</v>
       </c>
       <c r="D1597" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E1597">
-        <v>6649</v>
+        <v>6092</v>
       </c>
       <c r="F1597" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>186</v>
+        <v>2773</v>
       </c>
       <c r="D1635" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1635">
-        <v>186</v>
+        <v>2773</v>
       </c>
       <c r="F1635" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41576,16 +41576,16 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D1651" s="2">
-        <v>45810.72563720519</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1651">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F1651" s="2">
-        <v>45810.68862268519</v>
+        <v>45812.47731481482</v>
       </c>
       <c r="G1651">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1656" s="2">
-        <v>45810.72559945051</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1656">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F1656" s="2">
-        <v>45810.61395833334</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -43805,16 +43805,16 @@
         <v>1</v>
       </c>
       <c r="C1741">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1741" s="2">
-        <v>45798.96533509644</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1741">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1741" s="2">
-        <v>45798.64270833333</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1741">
         <v>0</v>
@@ -45533,16 +45533,16 @@
         <v>1</v>
       </c>
       <c r="C1810">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1810" s="2">
-        <v>45800.9317538197</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E1810">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1810" s="2">
-        <v>45800.46056712963</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G1810">
         <v>0</v>
@@ -45943,16 +45943,16 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1826" s="2">
-        <v>45795.04204563411</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1826">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1826" s="2">
-        <v>45747.70436342592</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1826">
         <v>0</v>
@@ -46855,16 +46855,16 @@
         <v>1</v>
       </c>
       <c r="C1862">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1862" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1862">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1862" s="2">
-        <v>45811.72346064815</v>
+        <v>45812.32642361111</v>
       </c>
       <c r="G1862">
         <v>0</v>
@@ -47037,16 +47037,16 @@
         <v>1</v>
       </c>
       <c r="C1869">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D1869" s="2">
-        <v>45799.89536722513</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E1869">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F1869" s="2">
-        <v>45796.76049768519</v>
+        <v>45812.63878472222</v>
       </c>
       <c r="G1869">
         <v>0</v>
@@ -47444,16 +47444,16 @@
         <v>1</v>
       </c>
       <c r="C1885">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1885" s="2">
-        <v>45810.72556745499</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1885">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1885" s="2">
-        <v>45810.44699074074</v>
+        <v>45812.43199074074</v>
       </c>
       <c r="G1885">
         <v>0</v>
@@ -47888,16 +47888,16 @@
         <v>1</v>
       </c>
       <c r="C1903">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D1903" s="2">
-        <v>45806.77600903736</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E1903">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F1903" s="2">
-        <v>45806.44605324074</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1903">
         <v>0</v>
@@ -48122,16 +48122,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D1912" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E1912">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F1912" s="2">
-        <v>45811.42484953703</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -48832,16 +48832,16 @@
         <v>1</v>
       </c>
       <c r="C1940">
-        <v>-9</v>
+        <v>91</v>
       </c>
       <c r="D1940" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E1940">
-        <v>-9</v>
+        <v>91</v>
       </c>
       <c r="F1940" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.66930555556</v>
       </c>
       <c r="G1940">
         <v>0</v>
@@ -49833,16 +49833,16 @@
         <v>1</v>
       </c>
       <c r="C1980">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1980" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1980">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1980" s="2">
-        <v>45811.64200231482</v>
+        <v>45812.32672453704</v>
       </c>
       <c r="G1980">
         <v>0</v>
@@ -50032,16 +50032,16 @@
         <v>1</v>
       </c>
       <c r="C1988">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D1988" s="2">
-        <v>45795.04186106093</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E1988">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F1988" s="2">
-        <v>45587.3391087963</v>
+        <v>45812.44633101852</v>
       </c>
       <c r="G1988">
         <v>0</v>
@@ -50918,7 +50918,7 @@
         <v>24</v>
       </c>
       <c r="F2023" s="2">
-        <v>45811.67199074074</v>
+        <v>45812.67899305555</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -50935,16 +50935,16 @@
         <v>1</v>
       </c>
       <c r="C2024">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2024" s="2">
-        <v>45811.92552608132</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E2024">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2024" s="2">
-        <v>45811.78815972222</v>
+        <v>45812.67899305555</v>
       </c>
       <c r="G2024">
         <v>0</v>
@@ -51059,16 +51059,16 @@
         <v>1</v>
       </c>
       <c r="C2029">
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="D2029" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2029">
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="F2029" s="2">
-        <v>45811.54019675926</v>
+        <v>45812.54806712963</v>
       </c>
       <c r="G2029">
         <v>0</v>
@@ -51394,16 +51394,16 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="D2042" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2042">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F2042" s="2">
-        <v>45811.6834837963</v>
+        <v>45812.64480324074</v>
       </c>
       <c r="G2042">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2056" s="2">
-        <v>45811.92552606984</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2056">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2056" s="2">
-        <v>45811.75439814815</v>
+        <v>45812.53496527778</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -53682,16 +53682,16 @@
         <v>1</v>
       </c>
       <c r="C2133">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D2133" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2133">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F2133" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.66236111111</v>
       </c>
       <c r="G2133">
         <v>0</v>
@@ -56660,16 +56660,16 @@
         <v>1</v>
       </c>
       <c r="C2251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2251" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78303939045</v>
       </c>
       <c r="E2251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2251" s="2">
-        <v>45811.50252314815</v>
+        <v>45812.32579861111</v>
       </c>
       <c r="G2251">
         <v>0</v>
@@ -57944,10 +57944,13 @@
         <v>0</v>
       </c>
       <c r="D2302" s="2">
-        <v>45795.04186106093</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2302">
         <v>0</v>
+      </c>
+      <c r="F2302" s="2">
+        <v>45812.65283564815</v>
       </c>
       <c r="G2302">
         <v>0</v>
@@ -58252,16 +58255,16 @@
         <v>1</v>
       </c>
       <c r="C2315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2315" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2315" s="2">
-        <v>45811.69520833333</v>
+        <v>45812.66177083334</v>
       </c>
       <c r="G2315">
         <v>0</v>
@@ -60764,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D2416" s="2">
-        <v>45811.92552607598</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E2416">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F2416" s="2">
-        <v>45811.76255787037</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -60992,16 +60995,16 @@
         <v>1</v>
       </c>
       <c r="C2425">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D2425" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301983239</v>
       </c>
       <c r="E2425">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F2425" s="2">
-        <v>45811.6834837963</v>
+        <v>45812.32371527778</v>
       </c>
       <c r="G2425">
         <v>0</v>
@@ -61159,16 +61162,16 @@
         <v>1</v>
       </c>
       <c r="C2432">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2432" s="2">
-        <v>45811.92546678011</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2432">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2432" s="2">
-        <v>45811.64716435185</v>
+        <v>45812.65634259259</v>
       </c>
       <c r="G2432">
         <v>0</v>
@@ -62358,16 +62361,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="D2481" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2481">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="F2481" s="2">
-        <v>45811.73097222222</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62384,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="D2482" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2482">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="F2482" s="2">
-        <v>45811.72704861111</v>
+        <v>45812.53040509259</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62410,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D2483" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306321269</v>
       </c>
       <c r="E2483">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F2483" s="2">
-        <v>45811.73097222222</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62436,16 +62439,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="D2484" s="2">
-        <v>45811.92549991595</v>
+        <v>45812.78306321269</v>
       </c>
       <c r="E2484">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="F2484" s="2">
-        <v>45811.73097222222</v>
+        <v>45812.70203703704</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -62514,16 +62517,16 @@
         <v>1</v>
       </c>
       <c r="C2487">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2487" s="2">
-        <v>45799.89536722513</v>
+        <v>45812.78301989438</v>
       </c>
       <c r="E2487">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2487" s="2">
-        <v>45796.65907407407</v>
+        <v>45812.65958333333</v>
       </c>
       <c r="G2487">
         <v>0</v>
@@ -63790,16 +63793,16 @@
         <v>1</v>
       </c>
       <c r="C2540">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2540" s="2">
-        <v>45807.78643074667</v>
+        <v>45812.78306322403</v>
       </c>
       <c r="E2540">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2540" s="2">
-        <v>45807.72137731482</v>
+        <v>45812.70449074074</v>
       </c>
       <c r="G2540">
         <v>0</v>
@@ -64168,6 +64171,52 @@
         <v>0</v>
       </c>
       <c r="H2555" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:8">
+      <c r="A2556">
+        <v>43435093</v>
+      </c>
+      <c r="B2556">
+        <v>1</v>
+      </c>
+      <c r="C2556">
+        <v>0</v>
+      </c>
+      <c r="D2556" s="2">
+        <v>45812.78301983239</v>
+      </c>
+      <c r="E2556">
+        <v>0</v>
+      </c>
+      <c r="G2556">
+        <v>0</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:8">
+      <c r="A2557">
+        <v>43445008</v>
+      </c>
+      <c r="B2557">
+        <v>1</v>
+      </c>
+      <c r="C2557">
+        <v>0</v>
+      </c>
+      <c r="D2557" s="2">
+        <v>45812.78306321269</v>
+      </c>
+      <c r="E2557">
+        <v>0</v>
+      </c>
+      <c r="G2557">
+        <v>0</v>
+      </c>
+      <c r="H2557" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2557"/>
+  <dimension ref="A1:H2558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>45812.78209490741</v>
+        <v>45813.426875</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45811.69234953704</v>
+        <v>45813.68033564815</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2">
-        <v>45811.68651620371</v>
+        <v>45813.46407407407</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1558</v>
+        <v>3172</v>
       </c>
       <c r="D33" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E33">
-        <v>1558</v>
+        <v>3172</v>
       </c>
       <c r="F33" s="2">
-        <v>45812.63878472222</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E48">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E49">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D56" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E56">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F56" s="2">
-        <v>45812.65041666666</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95795446759</v>
       </c>
       <c r="E58">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.57855324074</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95795446759</v>
       </c>
       <c r="E59">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2">
-        <v>45811.6834837963</v>
+        <v>45813.57359953703</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95795446759</v>
       </c>
       <c r="E63">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2">
-        <v>45812.5275925926</v>
+        <v>45813.65289351852</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="D86" s="2">
-        <v>45811.92552607598</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E86">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F86" s="2">
-        <v>45811.76255787037</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D87" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E87">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2">
-        <v>45812.6909837963</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F91" s="2">
-        <v>45812.69229166667</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E94">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F94" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.65432870371</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1045</v>
+        <v>875</v>
       </c>
       <c r="D101" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95793318399</v>
       </c>
       <c r="E101">
-        <v>1045</v>
+        <v>875</v>
       </c>
       <c r="F101" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2">
-        <v>45811.92552608132</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E106">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F106" s="2">
-        <v>45811.7677662037</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D115" s="2">
-        <v>45807.78643077149</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E115">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F115" s="2">
-        <v>45807.78542824074</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>1131</v>
       </c>
       <c r="F117" s="2">
-        <v>45811.75119212963</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="D123" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F123" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="D125" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E125">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="F125" s="2">
-        <v>45812.65041666666</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>-4</v>
+        <v>57</v>
       </c>
       <c r="D139" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E139">
-        <v>-4</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2">
-        <v>45811.50664351852</v>
+        <v>45813.67089120371</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D141" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E141">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="F141" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.51621527778</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="2">
-        <v>45807.70732638889</v>
+        <v>45813.63825231481</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F156" s="2">
-        <v>45811.52616898148</v>
+        <v>45813.65226851852</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4319,16 +4319,16 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2">
-        <v>45812.78306321269</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E160">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.6289699074</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="D185" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E185">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F185" s="2">
-        <v>45811.48847222222</v>
+        <v>45813.66761574074</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D191" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E191">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F191" s="2">
-        <v>45812.31930555555</v>
+        <v>45813.57680555555</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2">
-        <v>45811.92552606984</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F195" s="2">
-        <v>45811.75335648148</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D200" s="2">
-        <v>45810.72563721648</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E200">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F200" s="2">
-        <v>45810.75585648148</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="D201" s="2">
-        <v>45805.91875154599</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E201">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="F201" s="2">
-        <v>45805.70947916667</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D236" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F236" s="2">
-        <v>45811.50931712963</v>
+        <v>45813.5819212963</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="D247" s="2">
-        <v>45812.78299904546</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E247">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="F247" s="2">
-        <v>45812.31732638889</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="D255" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E255">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="F255" s="2">
-        <v>45812.63135416667</v>
+        <v>45813.63554398148</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D270" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F270" s="2">
-        <v>45812.47226851852</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D272" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E272">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F272" s="2">
-        <v>45811.50931712963</v>
+        <v>45813.5819212963</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D273" s="2">
-        <v>45805.918751534</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E273">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F273" s="2">
-        <v>45805.70140046296</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="D274" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E274">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="F274" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.68067129629</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D283" s="2">
-        <v>45811.92544186871</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E283">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F283" s="2">
-        <v>45811.42122685185</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D287" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E287">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F287" s="2">
-        <v>45812.48946759259</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D291" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E291">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F291" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.58258101852</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="D295" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E295">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="F295" s="2">
-        <v>45812.69229166667</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>1126</v>
       </c>
       <c r="F309" s="2">
-        <v>45811.76255787037</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D314" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F314" s="2">
-        <v>45812.54806712963</v>
+        <v>45813.57359953703</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D315" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E315">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F315" s="2">
-        <v>45811.49375</v>
+        <v>45813.57829861111</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>-28</v>
+        <v>30</v>
       </c>
       <c r="D318" s="2">
-        <v>45811.92552606984</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E318">
-        <v>-28</v>
+        <v>30</v>
       </c>
       <c r="F318" s="2">
-        <v>45811.75159722222</v>
+        <v>45813.63916666667</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D326" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E326">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F326" s="2">
-        <v>45812.65549768518</v>
+        <v>45813.57303240741</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D342" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E342">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F342" s="2">
-        <v>45811.47556712963</v>
+        <v>45813.57616898148</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D346" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E346">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F346" s="2">
-        <v>45811.68890046296</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D350" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E350">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F350" s="2">
-        <v>45811.50664351852</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>32</v>
+        <v>-112</v>
       </c>
       <c r="D351" s="2">
-        <v>45811.92544186871</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E351">
-        <v>32</v>
+        <v>-112</v>
       </c>
       <c r="F351" s="2">
-        <v>45811.41633101852</v>
+        <v>45813.63770833334</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9115,16 +9115,16 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>45810.72556744247</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E356">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F356" s="2">
-        <v>45810.44434027778</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D358" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E358">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F358" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.51621527778</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="D363" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95788194679</v>
       </c>
       <c r="E363">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="F363" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9438,16 +9438,16 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D369" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E369">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F369" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D371" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E371">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F371" s="2">
-        <v>45811.50125</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>1</v>
       </c>
       <c r="C382">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D382" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E382">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F382" s="2">
-        <v>45812.43199074074</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D385" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E385">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F385" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.58085648148</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D386" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E386">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F386" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.63309027778</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-44</v>
+        <v>32</v>
       </c>
       <c r="D390" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E390">
-        <v>-44</v>
+        <v>32</v>
       </c>
       <c r="F390" s="2">
-        <v>45812.4777662037</v>
+        <v>45813.67373842592</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D394" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95790534767</v>
       </c>
       <c r="E394">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F394" s="2">
-        <v>45812.65041666666</v>
+        <v>45813.57359953703</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>112</v>
       </c>
       <c r="F402" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="D404" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E404">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F404" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10445,16 +10445,16 @@
         <v>1</v>
       </c>
       <c r="C409">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D409" s="2">
-        <v>45799.89532165734</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E409">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F409" s="2">
-        <v>45789.75767361111</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>-216</v>
+        <v>2236</v>
       </c>
       <c r="D410" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E410">
-        <v>-216</v>
+        <v>2236</v>
       </c>
       <c r="F410" s="2">
-        <v>45811.49375</v>
+        <v>45813.67957175926</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D413" s="2">
-        <v>45805.918751534</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E413">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="F413" s="2">
-        <v>45805.70869212963</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10624,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="C416">
-        <v>-24</v>
+        <v>71</v>
       </c>
       <c r="D416" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E416">
-        <v>-24</v>
+        <v>71</v>
       </c>
       <c r="F416" s="2">
-        <v>45811.47861111111</v>
+        <v>45813.67928240741</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D418" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E418">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F418" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D422" s="2">
-        <v>45810.72563721648</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E422">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F422" s="2">
-        <v>45810.75585648148</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D435" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E435">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F435" s="2">
-        <v>45811.68634259259</v>
+        <v>45813.58258101852</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         <v>1</v>
       </c>
       <c r="C437">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D437" s="2">
-        <v>45795.04210567895</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E437">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F437" s="2">
-        <v>45776.72944444444</v>
+        <v>45813.51621527778</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -11192,16 +11192,16 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D439" s="2">
-        <v>45810.72556744247</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E439">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F439" s="2">
-        <v>45810.44434027778</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D443" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E443">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F443" s="2">
-        <v>45812.48946759259</v>
+        <v>45813.57359953703</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D461" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E461">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F461" s="2">
-        <v>45811.42236111111</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D465" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E465">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F465" s="2">
-        <v>45811.49467592593</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-87</v>
+        <v>-104</v>
       </c>
       <c r="D469" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E469">
-        <v>-87</v>
+        <v>-104</v>
       </c>
       <c r="F469" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D472" s="2">
-        <v>45810.72556744247</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E472">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F472" s="2">
-        <v>45810.44699074074</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D480" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E480">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F480" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -13314,16 +13314,16 @@
         <v>1</v>
       </c>
       <c r="C525">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D525" s="2">
-        <v>45799.89534672352</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E525">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F525" s="2">
-        <v>45793.53142361111</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D531" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E531">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F531" s="2">
-        <v>45811.73097222222</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D570" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E570">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="F570" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.58085648148</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D603" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95790539397</v>
       </c>
       <c r="E603">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F603" s="2">
-        <v>45811.47861111111</v>
+        <v>45813.57704861111</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E634">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="F634" s="2">
-        <v>45811.50664351852</v>
+        <v>45813.66930555556</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16385,16 +16385,16 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="D652" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E652">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F652" s="2">
-        <v>45811.50931712963</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2160</v>
+        <v>2146</v>
       </c>
       <c r="D657" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E657">
-        <v>2160</v>
+        <v>2146</v>
       </c>
       <c r="F657" s="2">
-        <v>45812.63135416667</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D660" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E660">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F660" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.5819212963</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D681" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E681">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F681" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.78240740741</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D691" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E691">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F691" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.82861111111</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17573,16 +17573,16 @@
         <v>1</v>
       </c>
       <c r="C700">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D700" s="2">
-        <v>45795.04208095842</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E700">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F700" s="2">
-        <v>45758.39363425926</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D701" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E701">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F701" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.57766203704</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>165</v>
       </c>
       <c r="F710" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D720" s="2">
-        <v>45812.78306321269</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E720">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="F720" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.58108796296</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18098,16 +18098,16 @@
         <v>1</v>
       </c>
       <c r="C721">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D721" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E721">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F721" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.63019675926</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -18150,16 +18150,16 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>14</v>
+        <v>-16</v>
       </c>
       <c r="D723" s="2">
-        <v>45811.92552607598</v>
+        <v>45813.95790535926</v>
       </c>
       <c r="E723">
-        <v>14</v>
+        <v>-16</v>
       </c>
       <c r="F723" s="2">
-        <v>45811.76435185185</v>
+        <v>45813.68569444444</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -18237,7 +18237,7 @@
         <v>93</v>
       </c>
       <c r="F726" s="2">
-        <v>45812.47731481482</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="D729" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E729">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="F729" s="2">
-        <v>45811.50931712963</v>
+        <v>45813.67116898148</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18329,16 +18329,16 @@
         <v>1</v>
       </c>
       <c r="C730">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D730" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E730">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F730" s="2">
-        <v>45811.50931712963</v>
+        <v>45813.68012731482</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D731" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E731">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F731" s="2">
-        <v>45811.50664351852</v>
+        <v>45813.66902777777</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D732" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E732">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F732" s="2">
-        <v>45811.64200231482</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18508,16 +18508,16 @@
         <v>1</v>
       </c>
       <c r="C737">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D737" s="2">
-        <v>45800.93204011993</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E737">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F737" s="2">
-        <v>45800.77331018518</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D741" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E741">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F741" s="2">
-        <v>45811.49467592593</v>
+        <v>45813.57855324074</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="D772" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E772">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="F772" s="2">
-        <v>45812.6909837963</v>
+        <v>45813.46407407407</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D778" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E778">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F778" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D812" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E812">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F812" s="2">
-        <v>45811.49375</v>
+        <v>45813.57680555555</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -20458,16 +20458,16 @@
         <v>1</v>
       </c>
       <c r="C815">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D815" s="2">
-        <v>45800.93188815672</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E815">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F815" s="2">
-        <v>45811.67939814815</v>
+        <v>45813.57766203704</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -20484,16 +20484,16 @@
         <v>1</v>
       </c>
       <c r="C816">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D816" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E816">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F816" s="2">
-        <v>45811.68032407408</v>
+        <v>45813.57766203704</v>
       </c>
       <c r="G816">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D819" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E819">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="F819" s="2">
-        <v>45812.63878472222</v>
+        <v>45813.64146990741</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D826" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E826">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F826" s="2">
-        <v>45812.47731481482</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D844" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E844">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F844" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D853" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95782007044</v>
       </c>
       <c r="E853">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F853" s="2">
-        <v>45811.69520833333</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>0</v>
       </c>
       <c r="F866" s="2">
-        <v>45790.42966435185</v>
+        <v>45813.65351851852</v>
       </c>
       <c r="G866">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D872" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E872">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F872" s="2">
-        <v>45812.43199074074</v>
+        <v>45813.58108796296</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D876" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E876">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F876" s="2">
-        <v>45812.43199074074</v>
+        <v>45813.58258101852</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D883" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95795446759</v>
       </c>
       <c r="E883">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F883" s="2">
-        <v>45811.69520833333</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>195</v>
+        <v>-5</v>
       </c>
       <c r="D888" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E888">
-        <v>195</v>
+        <v>-5</v>
       </c>
       <c r="F888" s="2">
-        <v>45811.50252314815</v>
+        <v>45813.46407407407</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22627,16 +22627,16 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>-43</v>
+        <v>57</v>
       </c>
       <c r="D902" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95790539397</v>
       </c>
       <c r="E902">
-        <v>-43</v>
+        <v>57</v>
       </c>
       <c r="F902" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.62805555556</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -22806,16 +22806,16 @@
         <v>1</v>
       </c>
       <c r="C909">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D909" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E909">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F909" s="2">
-        <v>45811.49467592593</v>
+        <v>45813.58085648148</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -24110,16 +24110,16 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D961" s="2">
-        <v>45810.72559944464</v>
+        <v>45813.95785151322</v>
       </c>
       <c r="E961">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F961" s="2">
-        <v>45810.52887731481</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D963" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E963">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F963" s="2">
-        <v>45811.69520833333</v>
+        <v>45813.58258101852</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D1025" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E1025">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F1025" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D1026" s="2">
-        <v>45806.77605776805</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E1026">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F1026" s="2">
-        <v>45806.74983796296</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -26099,7 +26099,7 @@
         <v>137</v>
       </c>
       <c r="F1039" s="2">
-        <v>45811.72704861111</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="D1062" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1062">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="F1062" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.58277777778</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D1110" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785151322</v>
       </c>
       <c r="E1110">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F1110" s="2">
-        <v>45811.66579861111</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>1</v>
       </c>
       <c r="C1116">
-        <v>-87</v>
+        <v>5</v>
       </c>
       <c r="D1116" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1116">
-        <v>-87</v>
+        <v>5</v>
       </c>
       <c r="F1116" s="2">
-        <v>45812.69229166667</v>
+        <v>45813.63752314815</v>
       </c>
       <c r="G1116">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1122" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1122">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1122" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D1147" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785151322</v>
       </c>
       <c r="E1147">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F1147" s="2">
-        <v>45812.43199074074</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1149" s="2">
-        <v>45804.91952554927</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E1149">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1149" s="2">
-        <v>45804.71377314815</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -29752,16 +29752,16 @@
         <v>1</v>
       </c>
       <c r="C1184">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1184" s="2">
-        <v>45799.89532164588</v>
+        <v>45813.9578514438</v>
       </c>
       <c r="E1184">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1184" s="2">
-        <v>45786.47115740741</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G1184">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D1187" s="2">
-        <v>45811.92544186871</v>
+        <v>45813.9578819583</v>
       </c>
       <c r="E1187">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F1187" s="2">
-        <v>45810.78246527778</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -29986,16 +29986,16 @@
         <v>1</v>
       </c>
       <c r="C1193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1193" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.9578819583</v>
       </c>
       <c r="E1193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1193" s="2">
-        <v>45811.67758101852</v>
+        <v>45813.67818287037</v>
       </c>
       <c r="G1193">
         <v>0</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1199" s="2">
-        <v>45811.92544186871</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E1199">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1199" s="2">
-        <v>45810.76871527778</v>
+        <v>45813.57788194445</v>
       </c>
       <c r="G1199">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1223" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1223" s="2">
-        <v>45812.5547337963</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="D1253" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E1253">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="F1253" s="2">
-        <v>45812.65041666666</v>
+        <v>45813.67865740741</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>199</v>
+        <v>-121</v>
       </c>
       <c r="D1261" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E1261">
-        <v>199</v>
+        <v>-121</v>
       </c>
       <c r="F1261" s="2">
-        <v>45812.47731481482</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -32299,16 +32299,16 @@
         <v>1</v>
       </c>
       <c r="C1283">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1283" s="2">
-        <v>45795.04193352044</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E1283">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1283" s="2">
-        <v>45674.62599537037</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G1283">
         <v>0</v>
@@ -32492,16 +32492,16 @@
         <v>1</v>
       </c>
       <c r="C1291">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1291" s="2">
-        <v>45806.77603756409</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E1291">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1291" s="2">
-        <v>45806.67306712963</v>
+        <v>45813.51621527778</v>
       </c>
       <c r="G1291">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1332" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E1332">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1332" s="2">
-        <v>45811.73181712963</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D1392" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95790540554</v>
       </c>
       <c r="E1392">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F1392" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.63127314814</v>
       </c>
       <c r="G1392">
         <v>0</v>
@@ -35552,16 +35552,16 @@
         <v>1</v>
       </c>
       <c r="C1411">
-        <v>-20</v>
+        <v>95</v>
       </c>
       <c r="D1411" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95795446759</v>
       </c>
       <c r="E1411">
-        <v>-20</v>
+        <v>95</v>
       </c>
       <c r="F1411" s="2">
-        <v>45811.50125</v>
+        <v>45813.68358796297</v>
       </c>
       <c r="G1411">
         <v>0</v>
@@ -35630,16 +35630,16 @@
         <v>1</v>
       </c>
       <c r="C1414">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D1414" s="2">
-        <v>45799.89528859723</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E1414">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F1414" s="2">
-        <v>45784.64305555556</v>
+        <v>45813.7544212963</v>
       </c>
       <c r="G1414">
         <v>0</v>
@@ -36450,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D1446" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E1446">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F1446" s="2">
-        <v>45812.65041666666</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36502,16 +36502,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1448" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E1448">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1448" s="2">
-        <v>45811.49467592593</v>
+        <v>45813.58085648148</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1507" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E1507">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1507" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.57829861111</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -39242,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D1558" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1558">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1558" s="2">
-        <v>45811.70625</v>
+        <v>45813.60496527778</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>6092</v>
+        <v>5951</v>
       </c>
       <c r="D1597" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E1597">
-        <v>6092</v>
+        <v>5951</v>
       </c>
       <c r="F1597" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="D1635" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E1635">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="F1635" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.58108796296</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -43727,16 +43727,16 @@
         <v>1</v>
       </c>
       <c r="C1738">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1738" s="2">
-        <v>45806.77605776805</v>
+        <v>45813.95790535926</v>
       </c>
       <c r="E1738">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1738" s="2">
-        <v>45806.74983796296</v>
+        <v>45813.68512731481</v>
       </c>
       <c r="G1738">
         <v>0</v>
@@ -45865,16 +45865,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1823" s="2">
-        <v>45807.78640665444</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E1823">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1823" s="2">
-        <v>45807.43805555555</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D1844" s="2">
-        <v>45811.92544186871</v>
+        <v>45813.95785151322</v>
       </c>
       <c r="E1844">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F1844" s="2">
-        <v>45810.76806712963</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -47444,16 +47444,16 @@
         <v>1</v>
       </c>
       <c r="C1885">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1885" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95788193521</v>
       </c>
       <c r="E1885">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F1885" s="2">
-        <v>45812.43199074074</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G1885">
         <v>0</v>
@@ -47888,16 +47888,16 @@
         <v>1</v>
       </c>
       <c r="C1903">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D1903" s="2">
-        <v>45812.78303939045</v>
+        <v>45813.95785149008</v>
       </c>
       <c r="E1903">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F1903" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.63085648148</v>
       </c>
       <c r="G1903">
         <v>0</v>
@@ -50032,16 +50032,16 @@
         <v>1</v>
       </c>
       <c r="C1988">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D1988" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E1988">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F1988" s="2">
-        <v>45812.44633101852</v>
+        <v>45813.42049768518</v>
       </c>
       <c r="G1988">
         <v>0</v>
@@ -51059,16 +51059,16 @@
         <v>1</v>
       </c>
       <c r="C2029">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="D2029" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E2029">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="F2029" s="2">
-        <v>45812.54806712963</v>
+        <v>45813.58085648148</v>
       </c>
       <c r="G2029">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="D2056" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E2056">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F2056" s="2">
-        <v>45812.53496527778</v>
+        <v>45813.68033564815</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52026,16 +52026,16 @@
         <v>1</v>
       </c>
       <c r="C2067">
-        <v>47</v>
+        <v>-53</v>
       </c>
       <c r="D2067" s="2">
-        <v>45807.78640665444</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E2067">
-        <v>47</v>
+        <v>-53</v>
       </c>
       <c r="F2067" s="2">
-        <v>45807.44157407407</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -54795,16 +54795,16 @@
         <v>1</v>
       </c>
       <c r="C2178">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2178" s="2">
-        <v>45811.92549991595</v>
+        <v>45813.95785150164</v>
       </c>
       <c r="E2178">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F2178" s="2">
-        <v>45811.67811342593</v>
+        <v>45813.64386574074</v>
       </c>
       <c r="G2178">
         <v>0</v>
@@ -54847,16 +54847,16 @@
         <v>1</v>
       </c>
       <c r="C2180">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2180" s="2">
-        <v>45803.90694022291</v>
+        <v>45813.95793319555</v>
       </c>
       <c r="E2180">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F2180" s="2">
-        <v>45803.7415625</v>
+        <v>45813.71038194445</v>
       </c>
       <c r="G2180">
         <v>0</v>
@@ -56244,16 +56244,16 @@
         <v>1</v>
       </c>
       <c r="C2235">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2235" s="2">
-        <v>45804.91952554927</v>
+        <v>45813.95795447831</v>
       </c>
       <c r="E2235">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2235" s="2">
-        <v>45804.59697916666</v>
+        <v>45813.65701388889</v>
       </c>
       <c r="G2235">
         <v>0</v>
@@ -56400,16 +56400,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D2241" s="2">
-        <v>45810.72559945051</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E2241">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F2241" s="2">
-        <v>45810.61395833334</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -60020,7 +60020,7 @@
         <v>0</v>
       </c>
       <c r="F2386" s="2">
-        <v>45758.39503472222</v>
+        <v>45813.64251157407</v>
       </c>
       <c r="G2386">
         <v>0</v>
@@ -60340,16 +60340,16 @@
         <v>1</v>
       </c>
       <c r="C2399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2399" s="2">
-        <v>45795.04199224871</v>
+        <v>45813.95795449081</v>
       </c>
       <c r="E2399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2399" s="2">
-        <v>45686.76962962963</v>
+        <v>45813.82819444445</v>
       </c>
       <c r="G2399">
         <v>0</v>
@@ -60510,16 +60510,16 @@
         <v>1</v>
       </c>
       <c r="C2406">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2406" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E2406">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F2406" s="2">
-        <v>45811.47164351852</v>
+        <v>45813.57788194445</v>
       </c>
       <c r="G2406">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D2416" s="2">
-        <v>45812.78306322403</v>
+        <v>45813.95785147848</v>
       </c>
       <c r="E2416">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F2416" s="2">
-        <v>45812.70449074074</v>
+        <v>45813.5819212963</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -61188,16 +61188,16 @@
         <v>1</v>
       </c>
       <c r="C2433">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D2433" s="2">
-        <v>45799.89545110933</v>
+        <v>45813.95782005877</v>
       </c>
       <c r="E2433">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F2433" s="2">
-        <v>45783.46972222222</v>
+        <v>45813.42155092592</v>
       </c>
       <c r="G2433">
         <v>0</v>
@@ -61828,16 +61828,16 @@
         <v>1</v>
       </c>
       <c r="C2459">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2459" s="2">
-        <v>45811.92546678011</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E2459">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2459" s="2">
-        <v>45811.54368055556</v>
+        <v>45813.57788194445</v>
       </c>
       <c r="G2459">
         <v>0</v>
@@ -62361,16 +62361,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D2481" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E2481">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F2481" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.46293981482</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="D2482" s="2">
-        <v>45812.78301989438</v>
+        <v>45813.95785146693</v>
       </c>
       <c r="E2482">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="F2482" s="2">
-        <v>45812.53040509259</v>
+        <v>45813.54864583333</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62422,7 +62422,7 @@
         <v>821</v>
       </c>
       <c r="F2483" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62439,16 +62439,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="D2484" s="2">
-        <v>45812.78306321269</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E2484">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="F2484" s="2">
-        <v>45812.70203703704</v>
+        <v>45813.51170138889</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -64159,13 +64159,16 @@
         <v>1</v>
       </c>
       <c r="C2555">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D2555" s="2">
-        <v>45811.92552608132</v>
+        <v>45813.95788197009</v>
       </c>
       <c r="E2555">
-        <v>0</v>
+        <v>-50</v>
+      </c>
+      <c r="F2555" s="2">
+        <v>45813.67865740741</v>
       </c>
       <c r="G2555">
         <v>0</v>
@@ -64182,13 +64185,16 @@
         <v>1</v>
       </c>
       <c r="C2556">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D2556" s="2">
-        <v>45812.78301983239</v>
+        <v>45813.95785145537</v>
       </c>
       <c r="E2556">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="F2556" s="2">
+        <v>45813.46293981482</v>
       </c>
       <c r="G2556">
         <v>0</v>
@@ -64217,6 +64223,29 @@
         <v>0</v>
       </c>
       <c r="H2557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:8">
+      <c r="A2558">
+        <v>43452065</v>
+      </c>
+      <c r="B2558">
+        <v>1</v>
+      </c>
+      <c r="C2558">
+        <v>0</v>
+      </c>
+      <c r="D2558" s="2">
+        <v>45813.95782005877</v>
+      </c>
+      <c r="E2558">
+        <v>0</v>
+      </c>
+      <c r="G2558">
+        <v>0</v>
+      </c>
+      <c r="H2558" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>45813.95782005877</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>45813.426875</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
-        <v>45813.95785145537</v>
+        <v>45814.82970463676</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
-        <v>45813.46407407407</v>
+        <v>45814.61284722222</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>45795.04210567895</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>45775.71903935185</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2">
-        <v>45811.92546678011</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2">
-        <v>45811.49901620371</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3172</v>
+        <v>3161</v>
       </c>
       <c r="D33" s="2">
-        <v>45813.95788194679</v>
+        <v>45814.82970462521</v>
       </c>
       <c r="E33">
-        <v>3172</v>
+        <v>3161</v>
       </c>
       <c r="F33" s="2">
-        <v>45813.67818287037</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E49">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2">
-        <v>45813.95795447831</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E56">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.39652777778</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2">
-        <v>45813.95795446759</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E58">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2">
-        <v>45813.57855324074</v>
+        <v>45814.39652777778</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
-        <v>45813.95795446759</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E63">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F63" s="2">
-        <v>45813.46293981482</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
-        <v>45812.78306322403</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2">
-        <v>45812.70449074074</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2">
-        <v>45813.95785150164</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E70">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2">
-        <v>45813.65289351852</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E82">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F82" s="2">
-        <v>45812.48946759259</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E83">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F83" s="2">
-        <v>45812.53496527778</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" s="2">
-        <v>45812.44633101852</v>
+        <v>45814.65319444444</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>-8</v>
+        <v>162</v>
       </c>
       <c r="D86" s="2">
-        <v>45813.95788194679</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E86">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="F86" s="2">
-        <v>45813.67818287037</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E87">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2">
-        <v>45813.58277777778</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2">
-        <v>45813.95785150164</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E94">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F94" s="2">
-        <v>45813.65432870371</v>
+        <v>45814.4477662037</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>875</v>
+        <v>821</v>
       </c>
       <c r="D101" s="2">
-        <v>45813.95793318399</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E101">
-        <v>875</v>
+        <v>821</v>
       </c>
       <c r="F101" s="2">
-        <v>45813.71038194445</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D103" s="2">
-        <v>45810.72563720519</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E103">
         <v>31</v>
@@ -2933,10 +2933,10 @@
         <v>45810.68862268519</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="D117" s="2">
-        <v>45811.92552605522</v>
+        <v>45814.82970462521</v>
       </c>
       <c r="E117">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F117" s="2">
-        <v>45813.51170138889</v>
+        <v>45814.46266203704</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>22</v>
+        <v>682</v>
       </c>
       <c r="D121" s="2">
-        <v>45810.72559945051</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E121">
         <v>22</v>
@@ -3371,10 +3371,10 @@
         <v>45810.64912037037</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="H121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>-13</v>
+        <v>483</v>
       </c>
       <c r="D123" s="2">
-        <v>45813.95785150164</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E123">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="F123" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3460,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>202</v>
+        <v>607</v>
       </c>
       <c r="D125" s="2">
-        <v>45813.95788194679</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E125">
         <v>202</v>
@@ -3472,10 +3472,10 @@
         <v>45813.67818287037</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D141" s="2">
-        <v>45813.95785145537</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E141">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F141" s="2">
-        <v>45813.51621527778</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" s="2">
-        <v>45811.92544186871</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E145">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F145" s="2">
-        <v>45811.42236111111</v>
+        <v>45814.64479166667</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D151" s="2">
-        <v>45807.78640665444</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F151" s="2">
-        <v>45813.63825231481</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6149,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D235" s="2">
-        <v>45810.72556745499</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E235">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F235" s="2">
-        <v>45810.51450231481</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="D247" s="2">
-        <v>45813.95795447831</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E247">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="F247" s="2">
-        <v>45813.58277777778</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D270" s="2">
-        <v>45813.95782007044</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E270">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F270" s="2">
-        <v>45813.46293981482</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D272" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E272">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F272" s="2">
-        <v>45813.5819212963</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D287" s="2">
-        <v>45813.95782005877</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E287">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F287" s="2">
-        <v>45813.42155092592</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,22 +7509,22 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>61</v>
+        <v>659</v>
       </c>
       <c r="D291" s="2">
-        <v>45813.95785147848</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E291">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F291" s="2">
-        <v>45813.58258101852</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D318" s="2">
-        <v>45813.95785150164</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E318">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F318" s="2">
-        <v>45813.63916666667</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8247,16 +8247,16 @@
         <v>1</v>
       </c>
       <c r="C321">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D321" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E321">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F321" s="2">
-        <v>45812.5547337963</v>
+        <v>45814.52313657408</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D326" s="2">
-        <v>45813.95785146693</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E326">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F326" s="2">
-        <v>45813.57303240741</v>
+        <v>45814.75739583333</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>-112</v>
+        <v>-152</v>
       </c>
       <c r="D351" s="2">
-        <v>45813.95795449081</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E351">
-        <v>-112</v>
+        <v>-152</v>
       </c>
       <c r="F351" s="2">
-        <v>45813.63770833334</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D354" s="2">
-        <v>45811.92544186871</v>
+        <v>45814.82980222279</v>
       </c>
       <c r="E354">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F354" s="2">
-        <v>45811.40138888889</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9115,16 +9115,16 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D356" s="2">
-        <v>45813.95782007044</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E356">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F356" s="2">
-        <v>45813.46293981482</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D363" s="2">
-        <v>45813.95788194679</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E363">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F363" s="2">
-        <v>45813.67818287037</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D385" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E385">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F385" s="2">
-        <v>45813.58085648148</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D390" s="2">
-        <v>45813.95788193521</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E390">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F390" s="2">
-        <v>45813.67373842592</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D394" s="2">
-        <v>45813.95790534767</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E394">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F394" s="2">
-        <v>45813.57359953703</v>
+        <v>45814.65862268519</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10122,10 +10122,10 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D396" s="2">
-        <v>45812.78301983239</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E396">
         <v>3</v>
@@ -10134,10 +10134,10 @@
         <v>45812.32835648148</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D402" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E402">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F402" s="2">
-        <v>45813.51170138889</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D404" s="2">
-        <v>45813.95785146693</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E404">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F404" s="2">
-        <v>45813.54864583333</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10445,16 +10445,16 @@
         <v>1</v>
       </c>
       <c r="C409">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D409" s="2">
-        <v>45813.95782007044</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E409">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F409" s="2">
-        <v>45813.46293981482</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>2236</v>
+        <v>1936</v>
       </c>
       <c r="D410" s="2">
-        <v>45813.95788197009</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E410">
-        <v>2236</v>
+        <v>1936</v>
       </c>
       <c r="F410" s="2">
-        <v>45813.67957175926</v>
+        <v>45814.46266203704</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D414" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.8297848079</v>
       </c>
       <c r="E414">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F414" s="2">
-        <v>45812.66328703704</v>
+        <v>45814.39652777778</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D435" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E435">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F435" s="2">
-        <v>45813.58258101852</v>
+        <v>45814.53738425926</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D436" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E436">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F436" s="2">
-        <v>45811.73181712963</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -12155,16 +12155,16 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D478" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E478">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F478" s="2">
-        <v>45811.70625</v>
+        <v>45814.464375</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D480" s="2">
-        <v>45813.95785150164</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E480">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F480" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.46266203704</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>47</v>
+        <v>547</v>
       </c>
       <c r="D493" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E493">
-        <v>47</v>
+        <v>547</v>
       </c>
       <c r="F493" s="2">
-        <v>45811.72346064815</v>
+        <v>45814.68706018518</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D510" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E510">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F510" s="2">
-        <v>45812.43105324074</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13851,7 +13851,7 @@
         <v>24</v>
       </c>
       <c r="F546" s="2">
-        <v>45811.6834837963</v>
+        <v>45814.68097222222</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D569" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E569">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F569" s="2">
-        <v>45812.53040509259</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2644</v>
+        <v>2624</v>
       </c>
       <c r="D570" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E570">
-        <v>2644</v>
+        <v>2624</v>
       </c>
       <c r="F570" s="2">
-        <v>45813.58085648148</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D603" s="2">
-        <v>45813.95790539397</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E603">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F603" s="2">
-        <v>45813.57704861111</v>
+        <v>45814.73384259259</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D631" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E631">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F631" s="2">
-        <v>45812.44633101852</v>
+        <v>45814.6853587963</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="D657" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82966410174</v>
       </c>
       <c r="E657">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="F657" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.39652777778</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16535,16 +16535,16 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D658" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E658">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F658" s="2">
-        <v>45812.53040509259</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D660" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E660">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F660" s="2">
-        <v>45813.5819212963</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D691" s="2">
-        <v>45813.95795449081</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E691">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F691" s="2">
-        <v>45813.82861111111</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17968,16 +17968,16 @@
         <v>1</v>
       </c>
       <c r="C716">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82972453323</v>
       </c>
       <c r="E716">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F716" s="2">
-        <v>45811.73097222222</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -18150,16 +18150,16 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="D723" s="2">
-        <v>45813.95790535926</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E723">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="F723" s="2">
-        <v>45813.68569444444</v>
+        <v>45814.67725694444</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -18202,16 +18202,16 @@
         <v>1</v>
       </c>
       <c r="C725">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D725" s="2">
-        <v>45811.92544186871</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E725">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F725" s="2">
-        <v>45811.42122685185</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="D726" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82970462521</v>
       </c>
       <c r="E726">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F726" s="2">
-        <v>45813.51170138889</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D732" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E732">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F732" s="2">
-        <v>45813.58277777778</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18482,16 +18482,16 @@
         <v>1</v>
       </c>
       <c r="C736">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D736" s="2">
-        <v>45795.04190003897</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E736">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F736" s="2">
-        <v>45624.48908564815</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G736">
         <v>0</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="D812" s="2">
-        <v>45813.95785146693</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E812">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="F812" s="2">
-        <v>45813.57680555555</v>
+        <v>45814.75879629629</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D819" s="2">
-        <v>45813.95785150164</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E819">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F819" s="2">
-        <v>45813.64146990741</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20683,10 +20683,10 @@
         <v>1</v>
       </c>
       <c r="C824">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D824" s="2">
-        <v>45799.89542739857</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E824">
         <v>35</v>
@@ -20695,10 +20695,10 @@
         <v>45793.38046296296</v>
       </c>
       <c r="G824">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H824" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -20781,16 +20781,16 @@
         <v>1</v>
       </c>
       <c r="C828">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="D828" s="2">
-        <v>45799.89534672352</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E828">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="F828" s="2">
-        <v>45793.37662037037</v>
+        <v>45814.53738425926</v>
       </c>
       <c r="G828">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D854" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E854">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F854" s="2">
-        <v>45811.69520833333</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="D872" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E872">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="F872" s="2">
-        <v>45813.58108796296</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D883" s="2">
-        <v>45813.95795446759</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E883">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F883" s="2">
-        <v>45813.58277777778</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22806,16 +22806,16 @@
         <v>1</v>
       </c>
       <c r="C909">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D909" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82980240628</v>
       </c>
       <c r="E909">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F909" s="2">
-        <v>45813.58085648148</v>
+        <v>45814.75269675926</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -23161,16 +23161,16 @@
         <v>1</v>
       </c>
       <c r="C923">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="D923" s="2">
-        <v>45810.72559946219</v>
+        <v>45814.82970463676</v>
       </c>
       <c r="E923">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="F923" s="2">
-        <v>45810.6524074074</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D924" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E924">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F924" s="2">
-        <v>45812.63878472222</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -24110,16 +24110,16 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D961" s="2">
-        <v>45813.95785151322</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E961">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F961" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -24999,16 +24999,16 @@
         <v>1</v>
       </c>
       <c r="C996">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D996" s="2">
-        <v>45805.91875152234</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E996">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="F996" s="2">
-        <v>45805.65278935185</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G996">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D1002" s="2">
-        <v>45807.78640657826</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E1002">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F1002" s="2">
-        <v>45807.43640046296</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25181,16 +25181,16 @@
         <v>1</v>
       </c>
       <c r="C1003">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D1003" s="2">
-        <v>45811.92544186871</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1003">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F1003" s="2">
-        <v>45811.40424768518</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>1</v>
       </c>
       <c r="C1029">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1029" s="2">
-        <v>45795.04208095842</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E1029">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1029" s="2">
-        <v>45770.49887731481</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G1029">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1062" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1062">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F1062" s="2">
-        <v>45813.58277777778</v>
+        <v>45814.65319444444</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27028,16 +27028,16 @@
         <v>1</v>
       </c>
       <c r="C1076">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D1076" s="2">
-        <v>45795.04208095842</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1076">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F1076" s="2">
-        <v>45769.46112268518</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G1076">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D1110" s="2">
-        <v>45813.95785151322</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1110">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F1110" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>1</v>
       </c>
       <c r="C1116">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D1116" s="2">
-        <v>45813.95785149008</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E1116">
         <v>5</v>
@@ -28029,10 +28029,10 @@
         <v>45813.63752314815</v>
       </c>
       <c r="G1116">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H1116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1122" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E1122">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1122" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28378,16 +28378,16 @@
         <v>1</v>
       </c>
       <c r="C1130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1130" s="2">
-        <v>45799.89532166889</v>
+        <v>45814.82972452114</v>
       </c>
       <c r="E1130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1130" s="2">
-        <v>45791.69849537037</v>
+        <v>45814.61704861111</v>
       </c>
       <c r="G1130">
         <v>0</v>
@@ -28805,22 +28805,22 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>-5</v>
+        <v>56</v>
       </c>
       <c r="D1147" s="2">
-        <v>45813.95785151322</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E1147">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F1147" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.74931712963</v>
       </c>
       <c r="G1147">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H1147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -29039,16 +29039,16 @@
         <v>1</v>
       </c>
       <c r="C1156">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1156" s="2">
-        <v>45799.89528857399</v>
+        <v>45814.82966409007</v>
       </c>
       <c r="E1156">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F1156" s="2">
-        <v>45779.53798611111</v>
+        <v>45814.39601851852</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1174" s="2">
-        <v>45810.72563721648</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1174">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1174" s="2">
-        <v>45810.75585648148</v>
+        <v>45814.65319444444</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1223" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E1223">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1223" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.52313657408</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1253" s="2">
-        <v>45813.95788197009</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1253">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1253" s="2">
-        <v>45813.67865740741</v>
+        <v>45814.65319444444</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>-121</v>
+        <v>23</v>
       </c>
       <c r="D1261" s="2">
-        <v>45813.95795447831</v>
+        <v>45814.82980240628</v>
       </c>
       <c r="E1261">
-        <v>-121</v>
+        <v>23</v>
       </c>
       <c r="F1261" s="2">
-        <v>45813.54864583333</v>
+        <v>45814.75055555555</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1390" s="2">
-        <v>45804.91954472794</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E1390">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1390" s="2">
-        <v>45804.76886574074</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D1391" s="2">
-        <v>45810.72559946219</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1391">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F1391" s="2">
-        <v>45810.6524074074</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35578,16 +35578,16 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D1412" s="2">
-        <v>45811.92549991595</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E1412">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F1412" s="2">
-        <v>45811.71334490741</v>
+        <v>45814.74193287037</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -36502,10 +36502,10 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="D1448" s="2">
-        <v>45813.95785147848</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E1448">
         <v>10</v>
@@ -36514,10 +36514,10 @@
         <v>45813.58085648148</v>
       </c>
       <c r="G1448">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="H1448" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -37379,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="C1483">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D1483" s="2">
-        <v>45811.92546678011</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1483">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F1483" s="2">
-        <v>45811.50252314815</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G1483">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D1507" s="2">
-        <v>45813.95785147848</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E1507">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F1507" s="2">
-        <v>45813.57829861111</v>
+        <v>45814.46266203704</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -38040,16 +38040,16 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1509" s="2">
-        <v>45811.92552606984</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E1509">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1509" s="2">
-        <v>45811.75563657407</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G1509">
         <v>0</v>
@@ -39242,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D1558" s="2">
-        <v>45813.95785149008</v>
+        <v>45814.82966410174</v>
       </c>
       <c r="E1558">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F1558" s="2">
-        <v>45813.60496527778</v>
+        <v>45814.39652777778</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -39470,16 +39470,16 @@
         <v>1</v>
       </c>
       <c r="C1567">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="D1567" s="2">
-        <v>45806.77603763194</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1567">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="F1567" s="2">
-        <v>45811.49850694444</v>
+        <v>45814.5771875</v>
       </c>
       <c r="G1567">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5951</v>
+        <v>5726</v>
       </c>
       <c r="D1597" s="2">
-        <v>45813.95793319555</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1597">
-        <v>5951</v>
+        <v>5726</v>
       </c>
       <c r="F1597" s="2">
-        <v>45813.71038194445</v>
+        <v>45814.65319444444</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1656" s="2">
-        <v>45812.78301983239</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1656">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1656" s="2">
-        <v>45812.44633101852</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -41729,16 +41729,16 @@
         <v>1</v>
       </c>
       <c r="C1657">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1657" s="2">
-        <v>45799.89542739857</v>
+        <v>45814.82976436854</v>
       </c>
       <c r="E1657">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1657" s="2">
-        <v>45783.42384259259</v>
+        <v>45814.70711805556</v>
       </c>
       <c r="G1657">
         <v>0</v>
@@ -46171,16 +46171,16 @@
         <v>1</v>
       </c>
       <c r="C1835">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1835" s="2">
-        <v>45811.92546678011</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1835">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1835" s="2">
-        <v>45811.50125</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G1835">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="D1844" s="2">
-        <v>45813.95785151322</v>
+        <v>45814.82970463676</v>
       </c>
       <c r="E1844">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="F1844" s="2">
-        <v>45813.65701388889</v>
+        <v>45814.38376157408</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -46699,16 +46699,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D1856" s="2">
-        <v>45804.91952554927</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E1856">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F1856" s="2">
-        <v>45804.42633101852</v>
+        <v>45814.67278935185</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -46959,16 +46959,16 @@
         <v>1</v>
       </c>
       <c r="C1866">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1866" s="2">
-        <v>45795.04169367771</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E1866">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F1866" s="2">
-        <v>45427.65541666667</v>
+        <v>45814.45145833334</v>
       </c>
       <c r="G1866">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="D2056" s="2">
-        <v>45813.95788197009</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E2056">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="F2056" s="2">
-        <v>45813.68033564815</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52026,16 +52026,16 @@
         <v>1</v>
       </c>
       <c r="C2067">
-        <v>-53</v>
+        <v>271</v>
       </c>
       <c r="D2067" s="2">
-        <v>45813.95785146693</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E2067">
-        <v>-53</v>
+        <v>271</v>
       </c>
       <c r="F2067" s="2">
-        <v>45813.54864583333</v>
+        <v>45814.67518518519</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -53007,10 +53007,10 @@
         <v>1</v>
       </c>
       <c r="C2106">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D2106" s="2">
-        <v>45807.78640657826</v>
+        <v>45816.01481442774</v>
       </c>
       <c r="E2106">
         <v>-1</v>
@@ -53019,10 +53019,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G2106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2107" spans="1:8">
@@ -55101,16 +55101,16 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2190" s="2">
-        <v>45811.92552606984</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E2190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2190" s="2">
-        <v>45811.75335648148</v>
+        <v>45814.53738425926</v>
       </c>
       <c r="G2190">
         <v>0</v>
@@ -55615,16 +55615,16 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2210" s="2">
-        <v>45811.92544186871</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E2210">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2210" s="2">
-        <v>45810.78280092592</v>
+        <v>45814.53738425926</v>
       </c>
       <c r="G2210">
         <v>0</v>
@@ -58581,22 +58581,22 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D2328" s="2">
-        <v>45810.72556745499</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E2328">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="F2328" s="2">
-        <v>45784.75885416667</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G2328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2329" spans="1:8">
@@ -61162,16 +61162,16 @@
         <v>1</v>
       </c>
       <c r="C2432">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2432" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82978481724</v>
       </c>
       <c r="E2432">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F2432" s="2">
-        <v>45812.65634259259</v>
+        <v>45814.64774305555</v>
       </c>
       <c r="G2432">
         <v>0</v>
@@ -61188,16 +61188,16 @@
         <v>1</v>
       </c>
       <c r="C2433">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2433" s="2">
-        <v>45813.95782005877</v>
+        <v>45814.82980241515</v>
       </c>
       <c r="E2433">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2433" s="2">
-        <v>45813.42155092592</v>
+        <v>45814.75646990741</v>
       </c>
       <c r="G2433">
         <v>0</v>
@@ -62517,16 +62517,16 @@
         <v>1</v>
       </c>
       <c r="C2487">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2487" s="2">
-        <v>45812.78301989438</v>
+        <v>45814.82968397064</v>
       </c>
       <c r="E2487">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2487" s="2">
-        <v>45812.65958333333</v>
+        <v>45814.49446759259</v>
       </c>
       <c r="G2487">
         <v>0</v>
@@ -64159,16 +64159,16 @@
         <v>1</v>
       </c>
       <c r="C2555">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D2555" s="2">
-        <v>45813.95788197009</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E2555">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F2555" s="2">
-        <v>45813.67865740741</v>
+        <v>45814.67984953704</v>
       </c>
       <c r="G2555">
         <v>0</v>
@@ -64185,16 +64185,16 @@
         <v>1</v>
       </c>
       <c r="C2556">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D2556" s="2">
-        <v>45813.95785145537</v>
+        <v>45814.82974449309</v>
       </c>
       <c r="E2556">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F2556" s="2">
-        <v>45813.46293981482</v>
+        <v>45814.67895833333</v>
       </c>
       <c r="G2556">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -2509,16 +2509,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E86">
-        <v>-38</v>
+        <v>162</v>
       </c>
       <c r="F86" s="2">
-        <v>45814.38376157408</v>
+        <v>45815.96152777778</v>
       </c>
       <c r="G86">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2927,16 +2927,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E103">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2">
-        <v>45810.68862268519</v>
+        <v>45815.95796296297</v>
       </c>
       <c r="G103">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3365,16 +3365,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E121">
-        <v>22</v>
+        <v>682</v>
       </c>
       <c r="F121" s="2">
-        <v>45810.64912037037</v>
+        <v>45815.95905092593</v>
       </c>
       <c r="G121">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3414,16 +3414,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E123">
-        <v>-17</v>
+        <v>483</v>
       </c>
       <c r="F123" s="2">
-        <v>45814.49446759259</v>
+        <v>45815.96212962963</v>
       </c>
       <c r="G123">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3466,16 +3466,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E125">
-        <v>202</v>
+        <v>607</v>
       </c>
       <c r="F125" s="2">
-        <v>45813.67818287037</v>
+        <v>45815.95851851852</v>
       </c>
       <c r="G125">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7515,16 +7515,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E291">
-        <v>59</v>
+        <v>659</v>
       </c>
       <c r="F291" s="2">
-        <v>45814.74193287037</v>
+        <v>45815.96244212963</v>
       </c>
       <c r="G291">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10076,16 +10076,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E394">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="F394" s="2">
-        <v>45814.65862268519</v>
+        <v>45815.95642361111</v>
       </c>
       <c r="G394">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10128,16 +10128,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F396" s="2">
-        <v>45812.32835648148</v>
+        <v>45815.95983796296</v>
       </c>
       <c r="G396">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -20689,16 +20689,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E824">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F824" s="2">
-        <v>45793.38046296296</v>
+        <v>45815.95763888889</v>
       </c>
       <c r="G824">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H824" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -28023,16 +28023,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E1116">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F1116" s="2">
-        <v>45813.63752314815</v>
+        <v>45815.959375</v>
       </c>
       <c r="G1116">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H1116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -28811,16 +28811,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E1147">
-        <v>-4</v>
+        <v>56</v>
       </c>
       <c r="F1147" s="2">
-        <v>45814.74931712963</v>
+        <v>45815.95717592593</v>
       </c>
       <c r="G1147">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H1147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -36508,16 +36508,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E1448">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="F1448" s="2">
-        <v>45813.58085648148</v>
+        <v>45815.96028935185</v>
       </c>
       <c r="G1448">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="H1448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -53013,16 +53013,16 @@
         <v>45816.01481442774</v>
       </c>
       <c r="E2106">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F2106" s="2">
-        <v>45807.43640046296</v>
+        <v>45815.96175925926</v>
       </c>
       <c r="G2106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2107" spans="1:8">

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2558"/>
+  <dimension ref="A1:H2567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30486084756</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3161</v>
+        <v>3155</v>
       </c>
       <c r="D33" s="2">
-        <v>45814.82970462521</v>
+        <v>45818.30489302581</v>
       </c>
       <c r="E33">
-        <v>3161</v>
+        <v>3155</v>
       </c>
       <c r="F33" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>45795.04208095842</v>
+        <v>45818.30489301677</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>45763.60134259259</v>
+        <v>45817.75368055556</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2">
-        <v>45814.82966409007</v>
+        <v>45818.30489301893</v>
       </c>
       <c r="E56">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2">
-        <v>45814.39652777778</v>
+        <v>45817.75439814815</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2">
-        <v>45814.82966409007</v>
+        <v>45818.30489300755</v>
       </c>
       <c r="E58">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2">
-        <v>45814.39652777778</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D59" s="2">
-        <v>45813.95795446759</v>
+        <v>45818.30489300116</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2">
-        <v>45813.57359953703</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2">
-        <v>45814.82976436854</v>
+        <v>45818.30486083002</v>
       </c>
       <c r="E63">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F63" s="2">
-        <v>45814.70711805556</v>
+        <v>45817.5053587963</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D70" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30486085102</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2">
-        <v>45814.74193287037</v>
+        <v>45817.68067129629</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2">
-        <v>45814.82966409007</v>
+        <v>45818.30486081236</v>
       </c>
       <c r="E87">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F87" s="2">
-        <v>45814.38376157408</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D94" s="2">
-        <v>45814.82980241515</v>
+        <v>45818.30489301284</v>
       </c>
       <c r="E94">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2">
-        <v>45814.4477662037</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>821</v>
+        <v>723</v>
       </c>
       <c r="D101" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30489302641</v>
       </c>
       <c r="E101">
-        <v>821</v>
+        <v>723</v>
       </c>
       <c r="F101" s="2">
-        <v>45814.70711805556</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D115" s="2">
-        <v>45813.95785150164</v>
+        <v>45818.30489302706</v>
       </c>
       <c r="E115">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F115" s="2">
-        <v>45813.65701388889</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="D117" s="2">
-        <v>45814.82970462521</v>
+        <v>45818.30489301346</v>
       </c>
       <c r="E117">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="F117" s="2">
-        <v>45814.46266203704</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30486081295</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F120" s="2">
-        <v>45811.50252314815</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="D123" s="2">
-        <v>45816.01481442774</v>
+        <v>45818.30489301414</v>
       </c>
       <c r="E123">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="F123" s="2">
-        <v>45815.96212962963</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D141" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30489301466</v>
       </c>
       <c r="E141">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F141" s="2">
-        <v>45814.74193287037</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30486085203</v>
       </c>
       <c r="E151">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F151" s="2">
-        <v>45814.64774305555</v>
+        <v>45817.68385416667</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D185" s="2">
-        <v>45813.95788193521</v>
+        <v>45818.30486081362</v>
       </c>
       <c r="E185">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F185" s="2">
-        <v>45813.66761574074</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D192" s="2">
-        <v>45812.78301989438</v>
+        <v>45818.3048608515</v>
       </c>
       <c r="E192">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F192" s="2">
-        <v>45812.53496527778</v>
+        <v>45817.68160879629</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D195" s="2">
-        <v>45813.95785150164</v>
+        <v>45818.30486082699</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F195" s="2">
-        <v>45813.65701388889</v>
+        <v>45817.49925925926</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D217" s="2">
-        <v>45811.92549991595</v>
+        <v>45818.30486083706</v>
       </c>
       <c r="E217">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F217" s="2">
-        <v>45811.70625</v>
+        <v>45817.555</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5933,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D226" s="2">
-        <v>45810.72559946219</v>
+        <v>45818.30486083779</v>
       </c>
       <c r="E226">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F226" s="2">
-        <v>45810.64998842592</v>
+        <v>45817.555</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D247" s="2">
-        <v>45814.82976436854</v>
+        <v>45818.30486082299</v>
       </c>
       <c r="E247">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F247" s="2">
-        <v>45814.70711805556</v>
+        <v>45817.49490740741</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D258" s="2">
-        <v>45804.91952554927</v>
+        <v>45818.30486083855</v>
       </c>
       <c r="E258">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F258" s="2">
-        <v>45804.67836805555</v>
+        <v>45817.555</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2">
-        <v>45811.92552606984</v>
+        <v>45818.30489300823</v>
       </c>
       <c r="E263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F263" s="2">
-        <v>45811.75563657407</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -6898,16 +6898,16 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2">
-        <v>45812.78301983239</v>
+        <v>45818.30489299829</v>
       </c>
       <c r="E266">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F266" s="2">
-        <v>45812.47731481482</v>
+        <v>45817.69295138889</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30486084807</v>
       </c>
       <c r="E270">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F270" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D272" s="2">
-        <v>45814.82966409007</v>
+        <v>45818.30486083927</v>
       </c>
       <c r="E272">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F272" s="2">
-        <v>45814.39601851852</v>
+        <v>45817.555</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D273" s="2">
-        <v>45813.95788194679</v>
+        <v>45818.30489301942</v>
       </c>
       <c r="E273">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F273" s="2">
-        <v>45813.67818287037</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D274" s="2">
-        <v>45813.95788197009</v>
+        <v>45818.30489300891</v>
       </c>
       <c r="E274">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="F274" s="2">
-        <v>45813.68067129629</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         <v>540</v>
       </c>
       <c r="F287" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D295" s="2">
-        <v>45813.95793319555</v>
+        <v>45818.30489302766</v>
       </c>
       <c r="E295">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F295" s="2">
-        <v>45813.71038194445</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D309" s="2">
-        <v>45811.92552607598</v>
+        <v>45818.30486081876</v>
       </c>
       <c r="E309">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F309" s="2">
-        <v>45813.51170138889</v>
+        <v>45817.43152777778</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D326" s="2">
-        <v>45814.82980241515</v>
+        <v>45818.30486081776</v>
       </c>
       <c r="E326">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F326" s="2">
-        <v>45814.75739583333</v>
+        <v>45817.42730324074</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8674,16 +8674,16 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D338" s="2">
-        <v>45800.93175380815</v>
+        <v>45818.30489301519</v>
       </c>
       <c r="E338">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F338" s="2">
-        <v>45800.46056712963</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>-152</v>
+        <v>32</v>
       </c>
       <c r="D351" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30489300047</v>
       </c>
       <c r="E351">
-        <v>-152</v>
+        <v>32</v>
       </c>
       <c r="F351" s="2">
-        <v>45814.74193287037</v>
+        <v>45817.69565972222</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D354" s="2">
-        <v>45814.82980222279</v>
+        <v>45818.30486082787</v>
       </c>
       <c r="E354">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F354" s="2">
-        <v>45814.70711805556</v>
+        <v>45817.49925925926</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D359" s="2">
-        <v>45812.78306322403</v>
+        <v>45818.30486081928</v>
       </c>
       <c r="E359">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F359" s="2">
-        <v>45812.70449074074</v>
+        <v>45817.43152777778</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D361" s="2">
-        <v>45807.78643077149</v>
+        <v>45818.30489301989</v>
       </c>
       <c r="E361">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F361" s="2">
-        <v>45807.78542824074</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D363" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30489302042</v>
       </c>
       <c r="E363">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F363" s="2">
-        <v>45814.74193287037</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D371" s="2">
-        <v>45813.95782005877</v>
+        <v>45818.30486084376</v>
       </c>
       <c r="E371">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="F371" s="2">
-        <v>45813.42155092592</v>
+        <v>45817.63928240741</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D379" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30486082043</v>
       </c>
       <c r="E379">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F379" s="2">
-        <v>45811.52653935185</v>
+        <v>45817.43934027778</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D387" s="2">
-        <v>45812.78301989438</v>
+        <v>45818.30486084699</v>
       </c>
       <c r="E387">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F387" s="2">
-        <v>45812.63135416667</v>
+        <v>45817.664375</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="D390" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30489302825</v>
       </c>
       <c r="E390">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="F390" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D394" s="2">
-        <v>45816.01481442774</v>
+        <v>45818.30489299895</v>
       </c>
       <c r="E394">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F394" s="2">
-        <v>45815.95642361111</v>
+        <v>45817.69565972222</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D402" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489301573</v>
       </c>
       <c r="E402">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F402" s="2">
-        <v>45814.49446759259</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D408" s="2">
-        <v>45811.92552606984</v>
+        <v>45818.30486081827</v>
       </c>
       <c r="E408">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F408" s="2">
-        <v>45811.75159722222</v>
+        <v>45817.42730324074</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D418" s="2">
-        <v>45813.95785149008</v>
+        <v>45818.30489300957</v>
       </c>
       <c r="E418">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F418" s="2">
-        <v>45813.58277777778</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D425" s="2">
-        <v>45812.78301989438</v>
+        <v>45818.3048608235</v>
       </c>
       <c r="E425">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F425" s="2">
-        <v>45812.63878472222</v>
+        <v>45817.49490740741</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         <v>1</v>
       </c>
       <c r="C437">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D437" s="2">
-        <v>45813.95785145537</v>
+        <v>45818.30486083998</v>
       </c>
       <c r="E437">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F437" s="2">
-        <v>45813.51621527778</v>
+        <v>45817.555</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -11192,16 +11192,16 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D439" s="2">
-        <v>45813.95793319555</v>
+        <v>45818.30486082193</v>
       </c>
       <c r="E439">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F439" s="2">
-        <v>45813.71038194445</v>
+        <v>45817.46255787037</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D461" s="2">
-        <v>45813.95785149008</v>
+        <v>45818.30489302886</v>
       </c>
       <c r="E461">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F461" s="2">
-        <v>45813.58277777778</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D480" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30489300188</v>
       </c>
       <c r="E480">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F480" s="2">
-        <v>45814.46266203704</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D510" s="2">
-        <v>45814.82976436854</v>
+        <v>45818.30489302096</v>
       </c>
       <c r="E510">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F510" s="2">
-        <v>45814.70711805556</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D531" s="2">
-        <v>45813.95782007044</v>
+        <v>45818.30486082874</v>
       </c>
       <c r="E531">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F531" s="2">
-        <v>45813.46293981482</v>
+        <v>45817.49925925926</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -13816,16 +13816,16 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D545" s="2">
-        <v>45799.895427387</v>
+        <v>45818.30489300693</v>
       </c>
       <c r="E545">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F545" s="2">
-        <v>45799.64056712963</v>
+        <v>45817.73076388889</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D569" s="2">
-        <v>45814.82972452114</v>
+        <v>45818.30489301023</v>
       </c>
       <c r="E569">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F569" s="2">
-        <v>45814.61704861111</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>2624</v>
       </c>
       <c r="F570" s="2">
-        <v>45814.49446759259</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15939,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="F633" s="2">
-        <v>45812.47270833333</v>
+        <v>45817.54049768519</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="D657" s="2">
-        <v>45814.82966410174</v>
+        <v>45818.30489302156</v>
       </c>
       <c r="E657">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="F657" s="2">
-        <v>45814.39652777778</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16535,16 +16535,16 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D658" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30486082475</v>
       </c>
       <c r="E658">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F658" s="2">
-        <v>45814.74193287037</v>
+        <v>45817.49490740741</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -17290,16 +17290,16 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D689" s="2">
-        <v>45806.77600903736</v>
+        <v>45818.30486084076</v>
       </c>
       <c r="E689">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F689" s="2">
-        <v>45806.61890046296</v>
+        <v>45817.555</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D701" s="2">
-        <v>45813.95785146693</v>
+        <v>45818.30489300293</v>
       </c>
       <c r="E701">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F701" s="2">
-        <v>45813.57766203704</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D732" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30486083475</v>
       </c>
       <c r="E732">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F732" s="2">
-        <v>45814.49446759259</v>
+        <v>45817.51208333333</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18560,16 +18560,16 @@
         <v>1</v>
       </c>
       <c r="C739">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D739" s="2">
-        <v>45805.9187731686</v>
+        <v>45818.30486084728</v>
       </c>
       <c r="E739">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F739" s="2">
-        <v>45805.76938657407</v>
+        <v>45817.664375</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D763" s="2">
-        <v>45811.92549991595</v>
+        <v>45818.30486082933</v>
       </c>
       <c r="E763">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F763" s="2">
-        <v>45811.69520833333</v>
+        <v>45817.49925925926</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -19232,16 +19232,16 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D766" s="2">
-        <v>45811.92552607598</v>
+        <v>45818.30489301217</v>
       </c>
       <c r="E766">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="F766" s="2">
-        <v>45811.76255787037</v>
+        <v>45817.74609953703</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D770" s="2">
-        <v>45810.72559944464</v>
+        <v>45818.30489302945</v>
       </c>
       <c r="E770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F770" s="2">
-        <v>45810.52887731481</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="D772" s="2">
-        <v>45813.95785145537</v>
+        <v>45818.30489302205</v>
       </c>
       <c r="E772">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="F772" s="2">
-        <v>45813.46407407407</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -20683,16 +20683,16 @@
         <v>1</v>
       </c>
       <c r="C824">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D824" s="2">
-        <v>45816.01481442774</v>
+        <v>45818.30486081409</v>
       </c>
       <c r="E824">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F824" s="2">
-        <v>45815.95763888889</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G824">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D826" s="2">
-        <v>45813.95785149008</v>
+        <v>45818.30489303007</v>
       </c>
       <c r="E826">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F826" s="2">
-        <v>45813.60496527778</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -20853,16 +20853,16 @@
         <v>1</v>
       </c>
       <c r="C831">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D831" s="2">
-        <v>45811.92552605522</v>
+        <v>45818.30486083288</v>
       </c>
       <c r="E831">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="F831" s="2">
-        <v>45811.75072916667</v>
+        <v>45817.51131944444</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D853" s="2">
-        <v>45813.95782007044</v>
+        <v>45818.30489301757</v>
       </c>
       <c r="E853">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F853" s="2">
-        <v>45813.46293981482</v>
+        <v>45817.75368055556</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D854" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.3048608254</v>
       </c>
       <c r="E854">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F854" s="2">
-        <v>45814.64774305555</v>
+        <v>45817.49490740741</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D872" s="2">
-        <v>45814.82972452114</v>
+        <v>45818.30489302258</v>
       </c>
       <c r="E872">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F872" s="2">
-        <v>45814.61704861111</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -22154,7 +22154,7 @@
         <v>76</v>
       </c>
       <c r="F883" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>26</v>
       </c>
       <c r="F924" s="2">
-        <v>45814.61704861111</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -24119,7 +24119,7 @@
         <v>40</v>
       </c>
       <c r="F961" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -24390,16 +24390,16 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D972" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30486082585</v>
       </c>
       <c r="E972">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F972" s="2">
-        <v>45811.4736574074</v>
+        <v>45817.49490740741</v>
       </c>
       <c r="G972">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D1017" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30489300357</v>
       </c>
       <c r="E1017">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="F1017" s="2">
-        <v>45811.66579861111</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D1062" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489302317</v>
       </c>
       <c r="E1062">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F1062" s="2">
-        <v>45814.65319444444</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>4</v>
       </c>
       <c r="F1092" s="2">
-        <v>45811.50076388889</v>
+        <v>45817.77144675926</v>
       </c>
       <c r="G1092">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D1110" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30489303031</v>
       </c>
       <c r="E1110">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F1110" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1122" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.30489300424</v>
       </c>
       <c r="E1122">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1122" s="2">
-        <v>45814.64774305555</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28309,7 +28309,7 @@
         <v>27</v>
       </c>
       <c r="F1127" s="2">
-        <v>45786.60893518518</v>
+        <v>45817.54049768519</v>
       </c>
       <c r="G1127">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1147" s="2">
-        <v>45816.01481442774</v>
+        <v>45818.30486084976</v>
       </c>
       <c r="E1147">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1147" s="2">
-        <v>45815.95717592593</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1155" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30489300488</v>
       </c>
       <c r="E1155">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1155" s="2">
-        <v>45811.45587962963</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -31372,16 +31372,16 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D1247" s="2">
-        <v>45810.72563720519</v>
+        <v>45818.30486081455</v>
       </c>
       <c r="E1247">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F1247" s="2">
-        <v>45810.68862268519</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G1247">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1253" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489301086</v>
       </c>
       <c r="E1253">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F1253" s="2">
-        <v>45814.65319444444</v>
+        <v>45817.73993055556</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -33384,16 +33384,16 @@
         <v>1</v>
       </c>
       <c r="C1326">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1326" s="2">
-        <v>45795.04171905605</v>
+        <v>45818.30486082246</v>
       </c>
       <c r="E1326">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1326" s="2">
-        <v>45469.53236111111</v>
+        <v>45817.46609953704</v>
       </c>
       <c r="G1326">
         <v>0</v>
@@ -33462,16 +33462,16 @@
         <v>1</v>
       </c>
       <c r="C1329">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1329" s="2">
-        <v>45804.91954472794</v>
+        <v>45818.30489301625</v>
       </c>
       <c r="E1329">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1329" s="2">
-        <v>45804.72743055555</v>
+        <v>45817.75225694444</v>
       </c>
       <c r="G1329">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1332" s="2">
-        <v>45813.95795447831</v>
+        <v>45818.30489302384</v>
       </c>
       <c r="E1332">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1332" s="2">
-        <v>45813.46293981482</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1244</v>
+        <v>1184</v>
       </c>
       <c r="D1342" s="2">
-        <v>45812.78306321269</v>
+        <v>45818.30486081507</v>
       </c>
       <c r="E1342">
-        <v>1244</v>
+        <v>1184</v>
       </c>
       <c r="F1342" s="2">
-        <v>45812.70203703704</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -35630,16 +35630,16 @@
         <v>1</v>
       </c>
       <c r="C1414">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D1414" s="2">
-        <v>45813.95795449081</v>
+        <v>45818.30486082094</v>
       </c>
       <c r="E1414">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F1414" s="2">
-        <v>45813.7544212963</v>
+        <v>45817.45899305555</v>
       </c>
       <c r="G1414">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="F1467" s="2">
-        <v>45705.77503472222</v>
+        <v>45817.77212962963</v>
       </c>
       <c r="G1467">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="C1483">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1483" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30486081611</v>
       </c>
       <c r="E1483">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1483" s="2">
-        <v>45814.49446759259</v>
+        <v>45817.41581018519</v>
       </c>
       <c r="G1483">
         <v>0</v>
@@ -39470,16 +39470,16 @@
         <v>1</v>
       </c>
       <c r="C1567">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="D1567" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30486084452</v>
       </c>
       <c r="E1567">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="F1567" s="2">
-        <v>45814.5771875</v>
+        <v>45817.64519675926</v>
       </c>
       <c r="G1567">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1594" s="2">
-        <v>45812.78301989438</v>
+        <v>45818.30489302451</v>
       </c>
       <c r="E1594">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1594" s="2">
-        <v>45812.65041666666</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5726</v>
+        <v>5675</v>
       </c>
       <c r="D1597" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489303058</v>
       </c>
       <c r="E1597">
-        <v>5726</v>
+        <v>5675</v>
       </c>
       <c r="F1597" s="2">
-        <v>45814.65319444444</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41086,16 +41086,16 @@
         <v>1</v>
       </c>
       <c r="C1631">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1631" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.30486084249</v>
       </c>
       <c r="E1631">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F1631" s="2">
-        <v>45811.49467592593</v>
+        <v>45817.6315625</v>
       </c>
       <c r="G1631">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2760</v>
+        <v>2679</v>
       </c>
       <c r="D1635" s="2">
-        <v>45813.95785147848</v>
+        <v>45818.30489301831</v>
       </c>
       <c r="E1635">
-        <v>2760</v>
+        <v>2679</v>
       </c>
       <c r="F1635" s="2">
-        <v>45813.58108796296</v>
+        <v>45817.75368055556</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41712,7 +41712,7 @@
         <v>0</v>
       </c>
       <c r="F1656" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -43762,7 +43762,7 @@
         <v>44</v>
       </c>
       <c r="F1739" s="2">
-        <v>45811.64603009259</v>
+        <v>45817.424375</v>
       </c>
       <c r="G1739">
         <v>0</v>
@@ -46180,7 +46180,7 @@
         <v>4</v>
       </c>
       <c r="F1835" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.66995370371</v>
       </c>
       <c r="G1835">
         <v>0</v>
@@ -46699,16 +46699,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1856" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489300554</v>
       </c>
       <c r="E1856">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1856" s="2">
-        <v>45814.67278935185</v>
+        <v>45817.71056712963</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -46959,16 +46959,16 @@
         <v>1</v>
       </c>
       <c r="C1866">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1866" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.30489299761</v>
       </c>
       <c r="E1866">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1866" s="2">
-        <v>45814.45145833334</v>
+        <v>45817.68912037037</v>
       </c>
       <c r="G1866">
         <v>0</v>
@@ -48691,16 +48691,16 @@
         <v>1</v>
       </c>
       <c r="C1934">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="D1934" s="2">
-        <v>45804.91952554927</v>
+        <v>45818.30489299967</v>
       </c>
       <c r="E1934">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="F1934" s="2">
-        <v>45804.42633101852</v>
+        <v>45817.69565972222</v>
       </c>
       <c r="G1934">
         <v>0</v>
@@ -49937,7 +49937,7 @@
         <v>0</v>
       </c>
       <c r="D1984" s="2">
-        <v>45795.04169367771</v>
+        <v>45818.30489300624</v>
       </c>
       <c r="E1984">
         <v>0</v>
@@ -51472,16 +51472,16 @@
         <v>1</v>
       </c>
       <c r="C2045">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D2045" s="2">
-        <v>45799.89542737551</v>
+        <v>45818.30486084311</v>
       </c>
       <c r="E2045">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F2045" s="2">
-        <v>45799.6352662037</v>
+        <v>45817.6315625</v>
       </c>
       <c r="G2045">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="D2056" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489302518</v>
       </c>
       <c r="E2056">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="F2056" s="2">
-        <v>45814.64774305555</v>
+        <v>45817.7553587963</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52580,7 +52580,7 @@
         <v>0</v>
       </c>
       <c r="F2089" s="2">
-        <v>45631.66751157407</v>
+        <v>45817.68456018518</v>
       </c>
       <c r="G2089">
         <v>0</v>
@@ -53454,16 +53454,16 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D2124" s="2">
-        <v>45810.72559945051</v>
+        <v>45818.30486081979</v>
       </c>
       <c r="E2124">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="F2124" s="2">
-        <v>45810.63849537037</v>
+        <v>45817.43152777778</v>
       </c>
       <c r="G2124">
         <v>0</v>
@@ -56244,16 +56244,16 @@
         <v>1</v>
       </c>
       <c r="C2235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2235" s="2">
-        <v>45813.95795447831</v>
+        <v>45818.30486081664</v>
       </c>
       <c r="E2235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2235" s="2">
-        <v>45813.65701388889</v>
+        <v>45817.41581018519</v>
       </c>
       <c r="G2235">
         <v>0</v>
@@ -58581,16 +58581,16 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D2328" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.30489299681</v>
       </c>
       <c r="E2328">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F2328" s="2">
-        <v>45814.64774305555</v>
+        <v>45817.68517361111</v>
       </c>
       <c r="G2328">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D2416" s="2">
-        <v>45813.95785147848</v>
+        <v>45818.30486081559</v>
       </c>
       <c r="E2416">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F2416" s="2">
-        <v>45813.5819212963</v>
+        <v>45817.39020833333</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -61972,16 +61972,16 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D2465" s="2">
-        <v>45810.72563720519</v>
+        <v>45818.30489303097</v>
       </c>
       <c r="E2465">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F2465" s="2">
-        <v>45810.66278935185</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G2465">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D2482" s="2">
-        <v>45813.95785146693</v>
+        <v>45818.30486084184</v>
       </c>
       <c r="E2482">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F2482" s="2">
-        <v>45813.54864583333</v>
+        <v>45817.555</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="D2483" s="2">
-        <v>45812.78306321269</v>
+        <v>45818.30489303119</v>
       </c>
       <c r="E2483">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="F2483" s="2">
-        <v>45813.51170138889</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62439,16 +62439,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D2484" s="2">
-        <v>45813.95785145537</v>
+        <v>45818.30489303141</v>
       </c>
       <c r="E2484">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F2484" s="2">
-        <v>45813.51170138889</v>
+        <v>45817.7559837963</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -64246,6 +64246,216 @@
         <v>0</v>
       </c>
       <c r="H2558" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:8">
+      <c r="A2559">
+        <v>43514052</v>
+      </c>
+      <c r="B2559">
+        <v>1</v>
+      </c>
+      <c r="C2559">
+        <v>0</v>
+      </c>
+      <c r="D2559" s="2">
+        <v>45818.30489303147</v>
+      </c>
+      <c r="E2559">
+        <v>0</v>
+      </c>
+      <c r="F2559" s="2">
+        <v>45817.76997685185</v>
+      </c>
+      <c r="G2559">
+        <v>0</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:8">
+      <c r="A2560">
+        <v>43514806</v>
+      </c>
+      <c r="B2560">
+        <v>1</v>
+      </c>
+      <c r="C2560">
+        <v>0</v>
+      </c>
+      <c r="D2560" s="2">
+        <v>45818.3048608199</v>
+      </c>
+      <c r="E2560">
+        <v>0</v>
+      </c>
+      <c r="G2560">
+        <v>0</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:8">
+      <c r="A2561">
+        <v>43520877</v>
+      </c>
+      <c r="B2561">
+        <v>1</v>
+      </c>
+      <c r="C2561">
+        <v>0</v>
+      </c>
+      <c r="D2561" s="2">
+        <v>45818.30486084626</v>
+      </c>
+      <c r="E2561">
+        <v>0</v>
+      </c>
+      <c r="G2561">
+        <v>0</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:8">
+      <c r="A2562">
+        <v>43521261</v>
+      </c>
+      <c r="B2562">
+        <v>1</v>
+      </c>
+      <c r="C2562">
+        <v>0</v>
+      </c>
+      <c r="D2562" s="2">
+        <v>45818.3048608464</v>
+      </c>
+      <c r="E2562">
+        <v>0</v>
+      </c>
+      <c r="G2562">
+        <v>0</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:8">
+      <c r="A2563">
+        <v>43537158</v>
+      </c>
+      <c r="B2563">
+        <v>1</v>
+      </c>
+      <c r="C2563">
+        <v>0</v>
+      </c>
+      <c r="D2563" s="2">
+        <v>45818.30489301126</v>
+      </c>
+      <c r="E2563">
+        <v>0</v>
+      </c>
+      <c r="G2563">
+        <v>0</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:8">
+      <c r="A2564">
+        <v>43537163</v>
+      </c>
+      <c r="B2564">
+        <v>1</v>
+      </c>
+      <c r="C2564">
+        <v>0</v>
+      </c>
+      <c r="D2564" s="2">
+        <v>45818.30489301113</v>
+      </c>
+      <c r="E2564">
+        <v>0</v>
+      </c>
+      <c r="G2564">
+        <v>0</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:8">
+      <c r="A2565">
+        <v>43537165</v>
+      </c>
+      <c r="B2565">
+        <v>1</v>
+      </c>
+      <c r="C2565">
+        <v>0</v>
+      </c>
+      <c r="D2565" s="2">
+        <v>45818.30489301101</v>
+      </c>
+      <c r="E2565">
+        <v>0</v>
+      </c>
+      <c r="G2565">
+        <v>0</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:8">
+      <c r="A2566">
+        <v>43537169</v>
+      </c>
+      <c r="B2566">
+        <v>1</v>
+      </c>
+      <c r="C2566">
+        <v>0</v>
+      </c>
+      <c r="D2566" s="2">
+        <v>45818.30489301139</v>
+      </c>
+      <c r="E2566">
+        <v>0</v>
+      </c>
+      <c r="G2566">
+        <v>0</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:8">
+      <c r="A2567">
+        <v>43537173</v>
+      </c>
+      <c r="B2567">
+        <v>1</v>
+      </c>
+      <c r="C2567">
+        <v>0</v>
+      </c>
+      <c r="D2567" s="2">
+        <v>45818.30489301152</v>
+      </c>
+      <c r="E2567">
+        <v>0</v>
+      </c>
+      <c r="G2567">
+        <v>0</v>
+      </c>
+      <c r="H2567" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="D33" s="2">
-        <v>45818.30489302581</v>
+        <v>45818.80148693069</v>
       </c>
       <c r="E33">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="F33" s="2">
-        <v>45817.7559837963</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2">
-        <v>45810.72556745499</v>
+        <v>45818.80148693405</v>
       </c>
       <c r="E38">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2">
-        <v>45810.51450231481</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D56" s="2">
-        <v>45818.30489301893</v>
+        <v>45818.8014869416</v>
       </c>
       <c r="E56">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2">
-        <v>45817.75439814815</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2">
-        <v>45814.82966409007</v>
+        <v>45818.80148693439</v>
       </c>
       <c r="E82">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="2">
-        <v>45814.38376157408</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.80148693339</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" s="2">
-        <v>45814.65319444444</v>
+        <v>45818.42027777778</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
-        <v>45818.30486081236</v>
+        <v>45818.80148695138</v>
       </c>
       <c r="E87">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F87" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.7134375</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="D91" s="2">
-        <v>45813.95782007044</v>
+        <v>45818.80148695299</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2">
-        <v>45813.46293981482</v>
+        <v>45818.71952546296</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>723</v>
+        <v>580</v>
       </c>
       <c r="D101" s="2">
-        <v>45818.30489302641</v>
+        <v>45818.80148694194</v>
       </c>
       <c r="E101">
-        <v>723</v>
+        <v>580</v>
       </c>
       <c r="F101" s="2">
-        <v>45817.7559837963</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D106" s="2">
-        <v>45813.95793319555</v>
+        <v>45818.80148695203</v>
       </c>
       <c r="E106">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2">
-        <v>45813.71038194445</v>
+        <v>45818.71346064815</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>45818.30486081295</v>
+        <v>45818.80148693471</v>
       </c>
       <c r="E120">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F120" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D124" s="2">
-        <v>45811.92544186871</v>
+        <v>45818.80148694228</v>
       </c>
       <c r="E124">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F124" s="2">
-        <v>45810.78246527778</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D185" s="2">
-        <v>45818.30486081362</v>
+        <v>45818.80148693504</v>
       </c>
       <c r="E185">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F185" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D195" s="2">
-        <v>45818.30486082699</v>
+        <v>45818.80148694695</v>
       </c>
       <c r="E195">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F195" s="2">
-        <v>45817.49925925926</v>
+        <v>45818.66138888889</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D255" s="2">
-        <v>45813.95785149008</v>
+        <v>45818.8014869426</v>
       </c>
       <c r="E255">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F255" s="2">
-        <v>45813.63554398148</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D274" s="2">
-        <v>45818.30489300891</v>
+        <v>45818.80148694293</v>
       </c>
       <c r="E274">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F274" s="2">
-        <v>45817.73993055556</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D283" s="2">
-        <v>45813.95785150164</v>
+        <v>45818.80148693536</v>
       </c>
       <c r="E283">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F283" s="2">
-        <v>45813.65701388889</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D291" s="2">
-        <v>45816.01481442774</v>
+        <v>45818.80148694325</v>
       </c>
       <c r="E291">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F291" s="2">
-        <v>45815.96244212963</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D295" s="2">
-        <v>45818.30489302766</v>
+        <v>45818.80148693572</v>
       </c>
       <c r="E295">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="F295" s="2">
-        <v>45817.7559837963</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D309" s="2">
-        <v>45818.30486081876</v>
+        <v>45818.80148693619</v>
       </c>
       <c r="E309">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F309" s="2">
-        <v>45817.43152777778</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D326" s="2">
-        <v>45818.30486081776</v>
+        <v>45818.80148693661</v>
       </c>
       <c r="E326">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F326" s="2">
-        <v>45817.42730324074</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D342" s="2">
-        <v>45813.95785146693</v>
+        <v>45818.80148694019</v>
       </c>
       <c r="E342">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F342" s="2">
-        <v>45813.57616898148</v>
+        <v>45818.53353009259</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D385" s="2">
-        <v>45814.82978481724</v>
+        <v>45818.80148694391</v>
       </c>
       <c r="E385">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F385" s="2">
-        <v>45814.74193287037</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D418" s="2">
-        <v>45818.30489300957</v>
+        <v>45818.80148693696</v>
       </c>
       <c r="E418">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F418" s="2">
-        <v>45817.73993055556</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D510" s="2">
-        <v>45818.30489302096</v>
+        <v>45818.80148693114</v>
       </c>
       <c r="E510">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F510" s="2">
-        <v>45817.7553587963</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13643,16 +13643,16 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D538" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.8014869473</v>
       </c>
       <c r="E538">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F538" s="2">
-        <v>45811.45587962963</v>
+        <v>45818.704375</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -13744,16 +13744,16 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D542" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.80148694778</v>
       </c>
       <c r="E542">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F542" s="2">
-        <v>45811.50252314815</v>
+        <v>45818.704375</v>
       </c>
       <c r="G542">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D569" s="2">
-        <v>45818.30489301023</v>
+        <v>45818.80148694661</v>
       </c>
       <c r="E569">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="F569" s="2">
-        <v>45817.73993055556</v>
+        <v>45818.66094907407</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D570" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.80148693728</v>
       </c>
       <c r="E570">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="F570" s="2">
-        <v>45817.66995370371</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D631" s="2">
-        <v>45814.82974449309</v>
+        <v>45818.80148694831</v>
       </c>
       <c r="E631">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F631" s="2">
-        <v>45814.6853587963</v>
+        <v>45818.704375</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -17143,16 +17143,16 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D683" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.80148694866</v>
       </c>
       <c r="E683">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F683" s="2">
-        <v>45811.45587962963</v>
+        <v>45818.704375</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D691" s="2">
-        <v>45814.82972452114</v>
+        <v>45818.80148693761</v>
       </c>
       <c r="E691">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F691" s="2">
-        <v>45814.61704861111</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D763" s="2">
-        <v>45818.30486082933</v>
+        <v>45818.80148694425</v>
       </c>
       <c r="E763">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F763" s="2">
-        <v>45817.49925925926</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -21363,16 +21363,16 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D852" s="2">
-        <v>45812.78301983239</v>
+        <v>45818.80148693794</v>
       </c>
       <c r="E852">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F852" s="2">
-        <v>45812.471875</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D883" s="2">
-        <v>45814.82968397064</v>
+        <v>45818.80148694458</v>
       </c>
       <c r="E883">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F883" s="2">
-        <v>45817.66995370371</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22350,16 +22350,16 @@
         <v>1</v>
       </c>
       <c r="C891">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="D891" s="2">
-        <v>45799.895451121</v>
+        <v>45818.80148694057</v>
       </c>
       <c r="E891">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F891" s="2">
-        <v>45799.4196875</v>
+        <v>45818.53353009259</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>1</v>
       </c>
       <c r="C899">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D899" s="2">
-        <v>45795.04208095842</v>
+        <v>45818.80148694901</v>
       </c>
       <c r="E899">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F899" s="2">
-        <v>45763.62788194444</v>
+        <v>45818.704375</v>
       </c>
       <c r="G899">
         <v>0</v>
@@ -23161,16 +23161,16 @@
         <v>1</v>
       </c>
       <c r="C923">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="D923" s="2">
-        <v>45814.82970463676</v>
+        <v>45818.80148693373</v>
       </c>
       <c r="E923">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="F923" s="2">
-        <v>45814.38376157408</v>
+        <v>45818.42027777778</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -24263,16 +24263,16 @@
         <v>1</v>
       </c>
       <c r="C967">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D967" s="2">
-        <v>45795.04199234088</v>
+        <v>45818.80148695403</v>
       </c>
       <c r="E967">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F967" s="2">
-        <v>45708.74841435185</v>
+        <v>45818.704375</v>
       </c>
       <c r="G967">
         <v>0</v>
@@ -24390,16 +24390,16 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D972" s="2">
-        <v>45818.30486082585</v>
+        <v>45818.80148694938</v>
       </c>
       <c r="E972">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F972" s="2">
-        <v>45817.49490740741</v>
+        <v>45818.704375</v>
       </c>
       <c r="G972">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D1002" s="2">
-        <v>45814.82980241515</v>
+        <v>45818.80148695243</v>
       </c>
       <c r="E1002">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F1002" s="2">
-        <v>45814.49446759259</v>
+        <v>45818.71809027778</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="D1062" s="2">
-        <v>45818.30489302317</v>
+        <v>45818.80148693828</v>
       </c>
       <c r="E1062">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="F1062" s="2">
-        <v>45817.7553587963</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1122" s="2">
-        <v>45818.30489300424</v>
+        <v>45818.80148695171</v>
       </c>
       <c r="E1122">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1122" s="2">
-        <v>45817.71056712963</v>
+        <v>45818.7134375</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1133" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.80148694971</v>
       </c>
       <c r="E1133">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F1133" s="2">
-        <v>45811.50125</v>
+        <v>45818.704375</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1155" s="2">
-        <v>45818.30489300488</v>
+        <v>45818.80148695005</v>
       </c>
       <c r="E1155">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1155" s="2">
-        <v>45817.71056712963</v>
+        <v>45818.704375</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29521,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D1175" s="2">
-        <v>45812.78301983239</v>
+        <v>45818.80148695334</v>
       </c>
       <c r="E1175">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F1175" s="2">
-        <v>45812.43199074074</v>
+        <v>45818.7203125</v>
       </c>
       <c r="G1175">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D1187" s="2">
-        <v>45813.9578819583</v>
+        <v>45818.80148694491</v>
       </c>
       <c r="E1187">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F1187" s="2">
-        <v>45813.67818287037</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -30734,16 +30734,16 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1222" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.8014869315</v>
       </c>
       <c r="E1222">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1222" s="2">
-        <v>45811.66614583333</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G1222">
         <v>0</v>
@@ -30887,16 +30887,16 @@
         <v>1</v>
       </c>
       <c r="C1228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1228" s="2">
-        <v>45799.8954032937</v>
+        <v>45818.80148693191</v>
       </c>
       <c r="E1228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1228" s="2">
-        <v>45799.43015046296</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G1228">
         <v>0</v>
@@ -31372,16 +31372,16 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D1247" s="2">
-        <v>45818.30486081455</v>
+        <v>45818.80148693859</v>
       </c>
       <c r="E1247">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F1247" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G1247">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>22</v>
+        <v>-28</v>
       </c>
       <c r="D1253" s="2">
-        <v>45818.30489301086</v>
+        <v>45818.80148693892</v>
       </c>
       <c r="E1253">
-        <v>22</v>
+        <v>-28</v>
       </c>
       <c r="F1253" s="2">
-        <v>45817.73993055556</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -32299,16 +32299,16 @@
         <v>1</v>
       </c>
       <c r="C1283">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D1283" s="2">
-        <v>45813.95793319555</v>
+        <v>45818.8014869504</v>
       </c>
       <c r="E1283">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F1283" s="2">
-        <v>45813.71038194445</v>
+        <v>45818.704375</v>
       </c>
       <c r="G1283">
         <v>0</v>
@@ -33358,16 +33358,16 @@
         <v>1</v>
       </c>
       <c r="C1325">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1325" s="2">
-        <v>45799.8954032937</v>
+        <v>45818.80148695073</v>
       </c>
       <c r="E1325">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F1325" s="2">
-        <v>45106.65594907408</v>
+        <v>45818.704375</v>
       </c>
       <c r="G1325">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1184</v>
+        <v>1040</v>
       </c>
       <c r="D1342" s="2">
-        <v>45818.30486081507</v>
+        <v>45818.80148693925</v>
       </c>
       <c r="E1342">
-        <v>1184</v>
+        <v>1040</v>
       </c>
       <c r="F1342" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -38040,16 +38040,16 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D1509" s="2">
-        <v>45814.82980241515</v>
+        <v>45818.80148695368</v>
       </c>
       <c r="E1509">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="F1509" s="2">
-        <v>45814.49446759259</v>
+        <v>45818.72087962963</v>
       </c>
       <c r="G1509">
         <v>0</v>
@@ -39701,16 +39701,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1576" s="2">
-        <v>45811.92549991595</v>
+        <v>45818.80148693236</v>
       </c>
       <c r="E1576">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1576" s="2">
-        <v>45811.72346064815</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5675</v>
+        <v>5653</v>
       </c>
       <c r="D1597" s="2">
-        <v>45818.30489303058</v>
+        <v>45818.80148694525</v>
       </c>
       <c r="E1597">
-        <v>5675</v>
+        <v>5653</v>
       </c>
       <c r="F1597" s="2">
-        <v>45817.7559837963</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40298,16 +40298,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1600" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.80148693273</v>
       </c>
       <c r="E1600">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1600" s="2">
-        <v>45811.44629629629</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -48639,16 +48639,16 @@
         <v>1</v>
       </c>
       <c r="C1932">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1932" s="2">
-        <v>45795.04210567895</v>
+        <v>45818.80148694559</v>
       </c>
       <c r="E1932">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1932" s="2">
-        <v>45776.66952546296</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G1932">
         <v>0</v>
@@ -48691,16 +48691,16 @@
         <v>1</v>
       </c>
       <c r="C1934">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="D1934" s="2">
-        <v>45818.30489299967</v>
+        <v>45818.80148694627</v>
       </c>
       <c r="E1934">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="F1934" s="2">
-        <v>45817.69565972222</v>
+        <v>45818.65571759259</v>
       </c>
       <c r="G1934">
         <v>0</v>
@@ -50883,16 +50883,16 @@
         <v>1</v>
       </c>
       <c r="C2022">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2022" s="2">
-        <v>45799.89545110933</v>
+        <v>45818.80148693304</v>
       </c>
       <c r="E2022">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2022" s="2">
-        <v>45785.70503472222</v>
+        <v>45818.40175925926</v>
       </c>
       <c r="G2022">
         <v>0</v>
@@ -50909,16 +50909,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2023" s="2">
-        <v>45811.92546678011</v>
+        <v>45818.80148694593</v>
       </c>
       <c r="E2023">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2023" s="2">
-        <v>45812.67899305555</v>
+        <v>45818.65388888889</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -52372,16 +52372,16 @@
         <v>1</v>
       </c>
       <c r="C2081">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D2081" s="2">
-        <v>45795.04177855738</v>
+        <v>45818.80148695105</v>
       </c>
       <c r="E2081">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F2081" s="2">
-        <v>45518.74190972222</v>
+        <v>45818.704375</v>
       </c>
       <c r="G2081">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D2416" s="2">
-        <v>45818.30486081559</v>
+        <v>45818.80148693962</v>
       </c>
       <c r="E2416">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F2416" s="2">
-        <v>45817.39020833333</v>
+        <v>45818.46909722222</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -64314,6 +64314,9 @@
       <c r="E2561">
         <v>0</v>
       </c>
+      <c r="F2561" s="2">
+        <v>45818.63560185185</v>
+      </c>
       <c r="G2561">
         <v>0</v>
       </c>
@@ -64336,6 +64339,9 @@
       </c>
       <c r="E2562">
         <v>0</v>
+      </c>
+      <c r="F2562" s="2">
+        <v>45818.63516203704</v>
       </c>
       <c r="G2562">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2567"/>
+  <dimension ref="A1:H2568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>45814.82974449309</v>
+        <v>45820.30820705976</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>45814.64774305555</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45813.68033564815</v>
+        <v>45819.66951388889</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2">
-        <v>45818.30486084756</v>
+        <v>45820.30820705985</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2">
-        <v>45817.66995370371</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
-        <v>45813.95782007044</v>
+        <v>45820.30824422845</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2">
-        <v>45813.46293981482</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3153</v>
+        <v>3108</v>
       </c>
       <c r="D33" s="2">
-        <v>45818.80148693069</v>
+        <v>45820.30824423626</v>
       </c>
       <c r="E33">
-        <v>3153</v>
+        <v>3108</v>
       </c>
       <c r="F33" s="2">
-        <v>45818.40175925926</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2">
-        <v>45814.82976436854</v>
+        <v>45820.30820705996</v>
       </c>
       <c r="E49">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2">
-        <v>45814.49446759259</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2">
-        <v>45818.8014869416</v>
+        <v>45820.30820706004</v>
       </c>
       <c r="E56">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" s="2">
-        <v>45818.30489300755</v>
+        <v>45820.30820706132</v>
       </c>
       <c r="E58">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2">
-        <v>45817.73993055556</v>
+        <v>45819.54417824074</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2">
-        <v>45818.30489300116</v>
+        <v>45820.30824423324</v>
       </c>
       <c r="E59">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2">
-        <v>45817.71056712963</v>
+        <v>45819.65788194445</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D61" s="2">
-        <v>45805.9187731686</v>
+        <v>45820.30820705868</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F61" s="2">
-        <v>45805.76144675926</v>
+        <v>45819.43864583333</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45818.30486083002</v>
+        <v>45820.30824422865</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2">
-        <v>45817.5053587963</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D70" s="2">
-        <v>45818.30486085102</v>
+        <v>45820.30824423155</v>
       </c>
       <c r="E70">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2">
-        <v>45817.68067129629</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.30824423172</v>
       </c>
       <c r="E83">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F83" s="2">
-        <v>45817.66995370371</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D85" s="2">
-        <v>45818.80148693339</v>
+        <v>45820.30820706141</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F85" s="2">
-        <v>45818.42027777778</v>
+        <v>45819.54417824074</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2">
-        <v>45816.01481442774</v>
+        <v>45820.30824423009</v>
       </c>
       <c r="E86">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F86" s="2">
-        <v>45815.96152777778</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45818.80148695138</v>
+        <v>45820.30824422622</v>
       </c>
       <c r="E87">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F87" s="2">
-        <v>45818.7134375</v>
+        <v>45819.61424768518</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D91" s="2">
-        <v>45818.80148695299</v>
+        <v>45820.30824423643</v>
       </c>
       <c r="E91">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2">
-        <v>45818.71952546296</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D94" s="2">
-        <v>45818.30489301284</v>
+        <v>45820.3082442319</v>
       </c>
       <c r="E94">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2">
-        <v>45817.75225694444</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>580</v>
+        <v>366</v>
       </c>
       <c r="D101" s="2">
-        <v>45818.80148694194</v>
+        <v>45820.30824423658</v>
       </c>
       <c r="E101">
-        <v>580</v>
+        <v>366</v>
       </c>
       <c r="F101" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="D121" s="2">
-        <v>45816.01481442774</v>
+        <v>45820.30824422887</v>
       </c>
       <c r="E121">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="F121" s="2">
-        <v>45815.95905092593</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D123" s="2">
-        <v>45818.30489301414</v>
+        <v>45820.30824422908</v>
       </c>
       <c r="E123">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="F123" s="2">
-        <v>45817.75225694444</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="D125" s="2">
-        <v>45816.01481442774</v>
+        <v>45820.30824423341</v>
       </c>
       <c r="E125">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F125" s="2">
-        <v>45815.95851851852</v>
+        <v>45819.65788194445</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45810.72559945051</v>
+        <v>45820.30820705877</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F126" s="2">
-        <v>45810.64912037037</v>
+        <v>45819.43864583333</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D141" s="2">
-        <v>45818.30489301466</v>
+        <v>45820.30820705689</v>
       </c>
       <c r="E141">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F141" s="2">
-        <v>45817.75225694444</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D192" s="2">
-        <v>45818.3048608515</v>
+        <v>45820.30820705555</v>
       </c>
       <c r="E192">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F192" s="2">
-        <v>45817.68160879629</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D195" s="2">
-        <v>45818.80148694695</v>
+        <v>45820.30820705704</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F195" s="2">
-        <v>45818.66138888889</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D217" s="2">
-        <v>45818.30486083706</v>
+        <v>45820.30820706016</v>
       </c>
       <c r="E217">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F217" s="2">
-        <v>45817.555</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>1243</v>
+        <v>939</v>
       </c>
       <c r="D247" s="2">
-        <v>45818.30486082299</v>
+        <v>45820.30824423594</v>
       </c>
       <c r="E247">
-        <v>1243</v>
+        <v>939</v>
       </c>
       <c r="F247" s="2">
-        <v>45817.49490740741</v>
+        <v>45819.74916666667</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D255" s="2">
-        <v>45818.8014869426</v>
+        <v>45820.30824423515</v>
       </c>
       <c r="E255">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F255" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.71829861111</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D258" s="2">
-        <v>45818.30486083855</v>
+        <v>45820.30820705923</v>
       </c>
       <c r="E258">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F258" s="2">
-        <v>45817.555</v>
+        <v>45819.46075231482</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D270" s="2">
-        <v>45818.30486084807</v>
+        <v>45820.30824423031</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F270" s="2">
-        <v>45817.66995370371</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="D274" s="2">
-        <v>45818.80148694293</v>
+        <v>45820.30824423578</v>
       </c>
       <c r="E274">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="F274" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.7450462963</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D281" s="2">
-        <v>45799.89532164588</v>
+        <v>45820.30820705569</v>
       </c>
       <c r="E281">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F281" s="2">
-        <v>45785.7343287037</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D291" s="2">
-        <v>45818.80148694325</v>
+        <v>45820.30824423674</v>
       </c>
       <c r="E291">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F291" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D292" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.3082070572</v>
       </c>
       <c r="E292">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F292" s="2">
-        <v>45811.47861111111</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D295" s="2">
-        <v>45818.80148693572</v>
+        <v>45820.30820706112</v>
       </c>
       <c r="E295">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F295" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.53631944444</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1115</v>
+        <v>1029</v>
       </c>
       <c r="D309" s="2">
-        <v>45818.80148693619</v>
+        <v>45820.30820706025</v>
       </c>
       <c r="E309">
-        <v>1115</v>
+        <v>1029</v>
       </c>
       <c r="F309" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D318" s="2">
-        <v>45814.82976436854</v>
+        <v>45820.30820705736</v>
       </c>
       <c r="E318">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F318" s="2">
-        <v>45814.70711805556</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D346" s="2">
-        <v>45813.95785150164</v>
+        <v>45820.30824423207</v>
       </c>
       <c r="E346">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F346" s="2">
-        <v>45813.65701388889</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D354" s="2">
-        <v>45818.30486082787</v>
+        <v>45820.30820705581</v>
       </c>
       <c r="E354">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F354" s="2">
-        <v>45817.49925925926</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D363" s="2">
-        <v>45818.30489302042</v>
+        <v>45820.30820706151</v>
       </c>
       <c r="E363">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F363" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.59678240741</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D371" s="2">
-        <v>45818.30486084376</v>
+        <v>45820.30824422927</v>
       </c>
       <c r="E371">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F371" s="2">
-        <v>45817.63928240741</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D379" s="2">
-        <v>45818.30486082043</v>
+        <v>45820.30820705908</v>
       </c>
       <c r="E379">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F379" s="2">
-        <v>45817.43934027778</v>
+        <v>45819.44168981481</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="D390" s="2">
-        <v>45818.30489302825</v>
+        <v>45820.3082442369</v>
       </c>
       <c r="E390">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F390" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>1</v>
       </c>
       <c r="C392">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D392" s="2">
-        <v>45810.72556745499</v>
+        <v>45820.30820706037</v>
       </c>
       <c r="E392">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F392" s="2">
-        <v>45810.51450231481</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G392">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D394" s="2">
-        <v>45818.30489299895</v>
+        <v>45820.30820706047</v>
       </c>
       <c r="E394">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F394" s="2">
-        <v>45817.69565972222</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10122,16 +10122,16 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D396" s="2">
-        <v>45816.01481442774</v>
+        <v>45820.30820706057</v>
       </c>
       <c r="E396">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F396" s="2">
-        <v>45815.95983796296</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D404" s="2">
-        <v>45814.82978481724</v>
+        <v>45820.30824423223</v>
       </c>
       <c r="E404">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F404" s="2">
-        <v>45814.74193287037</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D410" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.30824423052</v>
       </c>
       <c r="E410">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F410" s="2">
-        <v>45814.46266203704</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D418" s="2">
-        <v>45818.80148693696</v>
+        <v>45820.30824423073</v>
       </c>
       <c r="E418">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F418" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="D425" s="2">
-        <v>45818.3048608235</v>
+        <v>45820.3082070616</v>
       </c>
       <c r="E425">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="F425" s="2">
-        <v>45817.49490740741</v>
+        <v>45819.59678240741</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D436" s="2">
-        <v>45814.82978481724</v>
+        <v>45820.3082442309</v>
       </c>
       <c r="E436">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F436" s="2">
-        <v>45814.38376157408</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -11192,16 +11192,16 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="D439" s="2">
-        <v>45818.30486082193</v>
+        <v>45820.30820705753</v>
       </c>
       <c r="E439">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="F439" s="2">
-        <v>45817.46255787037</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D441" s="2">
-        <v>45811.92549991595</v>
+        <v>45820.30820705594</v>
       </c>
       <c r="E441">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F441" s="2">
-        <v>45811.70625</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11270,16 +11270,16 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D442" s="2">
-        <v>45799.89534673509</v>
+        <v>45820.30820705612</v>
       </c>
       <c r="E442">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F442" s="2">
-        <v>45793.61443287037</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D443" s="2">
-        <v>45813.95785146693</v>
+        <v>45820.30824422647</v>
       </c>
       <c r="E443">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F443" s="2">
-        <v>45813.57359953703</v>
+        <v>45819.61424768518</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D472" s="2">
-        <v>45813.95795447831</v>
+        <v>45820.30824422948</v>
       </c>
       <c r="E472">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F472" s="2">
-        <v>45813.71038194445</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D480" s="2">
-        <v>45818.30489300188</v>
+        <v>45820.30824423706</v>
       </c>
       <c r="E480">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F480" s="2">
-        <v>45817.71056712963</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>279</v>
       </c>
       <c r="F510" s="2">
-        <v>45818.40175925926</v>
+        <v>45819.61575231481</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13314,16 +13314,16 @@
         <v>1</v>
       </c>
       <c r="C525">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D525" s="2">
-        <v>45813.95782007044</v>
+        <v>45820.30824423723</v>
       </c>
       <c r="E525">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F525" s="2">
-        <v>45813.46293981482</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D569" s="2">
-        <v>45818.80148694661</v>
+        <v>45820.30824423403</v>
       </c>
       <c r="E569">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F569" s="2">
-        <v>45818.66094907407</v>
+        <v>45819.6587037037</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14510,16 +14510,16 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D574" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.30824422824</v>
       </c>
       <c r="E574">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F574" s="2">
-        <v>45811.49375</v>
+        <v>45819.62230324074</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D634" s="2">
-        <v>45813.95788193521</v>
+        <v>45820.30824423106</v>
       </c>
       <c r="E634">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F634" s="2">
-        <v>45813.66930555556</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2132</v>
+        <v>2078</v>
       </c>
       <c r="D657" s="2">
-        <v>45818.30489302156</v>
+        <v>45820.30824423241</v>
       </c>
       <c r="E657">
-        <v>2132</v>
+        <v>2078</v>
       </c>
       <c r="F657" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16535,16 +16535,16 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D658" s="2">
-        <v>45818.30486082475</v>
+        <v>45820.30824423531</v>
       </c>
       <c r="E658">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F658" s="2">
-        <v>45817.49490740741</v>
+        <v>45819.73076388889</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D660" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.3082442361</v>
       </c>
       <c r="E660">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F660" s="2">
-        <v>45814.49446759259</v>
+        <v>45819.74916666667</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17821,16 +17821,16 @@
         <v>1</v>
       </c>
       <c r="C710">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="D710" s="2">
-        <v>45811.92549991595</v>
+        <v>45820.30820705828</v>
       </c>
       <c r="E710">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="F710" s="2">
-        <v>45813.51170138889</v>
+        <v>45819.43508101852</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D731" s="2">
-        <v>45813.95788193521</v>
+        <v>45820.30824423123</v>
       </c>
       <c r="E731">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F731" s="2">
-        <v>45813.66902777777</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D770" s="2">
-        <v>45818.30489302945</v>
+        <v>45820.3082070563</v>
       </c>
       <c r="E770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F770" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D772" s="2">
-        <v>45818.30489302205</v>
+        <v>45820.30820705838</v>
       </c>
       <c r="E772">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F772" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.43508101852</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D778" s="2">
-        <v>45813.95785149008</v>
+        <v>45820.3082070607</v>
       </c>
       <c r="E778">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F778" s="2">
-        <v>45813.60496527778</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D826" s="2">
-        <v>45818.30489303007</v>
+        <v>45820.30824423739</v>
       </c>
       <c r="E826">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F826" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D844" s="2">
-        <v>45813.95785150164</v>
+        <v>45820.3082070564</v>
       </c>
       <c r="E844">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F844" s="2">
-        <v>45813.65701388889</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21363,16 +21363,16 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D852" s="2">
-        <v>45818.80148693794</v>
+        <v>45820.30824422765</v>
       </c>
       <c r="E852">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F852" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.61973379629</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D854" s="2">
-        <v>45818.3048608254</v>
+        <v>45820.3082070577</v>
       </c>
       <c r="E854">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F854" s="2">
-        <v>45817.49490740741</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="D872" s="2">
-        <v>45818.30489302258</v>
+        <v>45820.30824423257</v>
       </c>
       <c r="E872">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F872" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D883" s="2">
-        <v>45818.80148694458</v>
+        <v>45820.30824423274</v>
       </c>
       <c r="E883">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F883" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>-5</v>
+        <v>-120</v>
       </c>
       <c r="D888" s="2">
-        <v>45813.95785145537</v>
+        <v>45820.30820705847</v>
       </c>
       <c r="E888">
-        <v>-5</v>
+        <v>-120</v>
       </c>
       <c r="F888" s="2">
-        <v>45813.46407407407</v>
+        <v>45819.43508101852</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22350,16 +22350,16 @@
         <v>1</v>
       </c>
       <c r="C891">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="D891" s="2">
-        <v>45818.80148694057</v>
+        <v>45820.30824422744</v>
       </c>
       <c r="E891">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F891" s="2">
-        <v>45818.53353009259</v>
+        <v>45819.61774305555</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D924" s="2">
-        <v>45814.82972452114</v>
+        <v>45820.30824423355</v>
       </c>
       <c r="E924">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F924" s="2">
-        <v>45817.66995370371</v>
+        <v>45819.65788194445</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>1</v>
       </c>
       <c r="C935">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D935" s="2">
-        <v>45799.89547823331</v>
+        <v>45820.30820705786</v>
       </c>
       <c r="E935">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F935" s="2">
-        <v>45784.50826388889</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G935">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D963" s="2">
-        <v>45813.95785147848</v>
+        <v>45820.30824423419</v>
       </c>
       <c r="E963">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F963" s="2">
-        <v>45813.58258101852</v>
+        <v>45819.6587037037</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D1002" s="2">
-        <v>45818.80148695243</v>
+        <v>45820.30820705651</v>
       </c>
       <c r="E1002">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F1002" s="2">
-        <v>45818.71809027778</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D1017" s="2">
-        <v>45818.30489300357</v>
+        <v>45820.30820705892</v>
       </c>
       <c r="E1017">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="F1017" s="2">
-        <v>45817.71056712963</v>
+        <v>45819.43864583333</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D1026" s="2">
-        <v>45813.95793319555</v>
+        <v>45820.30820705943</v>
       </c>
       <c r="E1026">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F1026" s="2">
-        <v>45813.71038194445</v>
+        <v>45819.46075231482</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D1110" s="2">
-        <v>45818.30489303031</v>
+        <v>45820.30820705857</v>
       </c>
       <c r="E1110">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F1110" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.43508101852</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28274,16 +28274,16 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D1126" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.3082442337</v>
       </c>
       <c r="E1126">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F1126" s="2">
-        <v>45811.42236111111</v>
+        <v>45819.65788194445</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -28909,16 +28909,16 @@
         <v>1</v>
       </c>
       <c r="C1151">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1151" s="2">
-        <v>45805.91875152234</v>
+        <v>45820.30824423545</v>
       </c>
       <c r="E1151">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F1151" s="2">
-        <v>45805.65278935185</v>
+        <v>45819.73233796296</v>
       </c>
       <c r="G1151">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1174" s="2">
-        <v>45814.82974449309</v>
+        <v>45820.30820706086</v>
       </c>
       <c r="E1174">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1174" s="2">
-        <v>45814.65319444444</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="F1191" s="2">
-        <v>45812.78693287037</v>
+        <v>45819.76328703704</v>
       </c>
       <c r="G1191">
         <v>0</v>
@@ -30038,16 +30038,16 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1195" s="2">
-        <v>45810.72559946219</v>
+        <v>45820.30820706123</v>
       </c>
       <c r="E1195">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1195" s="2">
-        <v>45810.64998842592</v>
+        <v>45819.53631944444</v>
       </c>
       <c r="G1195">
         <v>0</v>
@@ -31450,16 +31450,16 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D1250" s="2">
-        <v>45803.90692203668</v>
+        <v>45820.30824422724</v>
       </c>
       <c r="E1250">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F1250" s="2">
-        <v>45803.72575231481</v>
+        <v>45819.61609953704</v>
       </c>
       <c r="G1250">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>-28</v>
+        <v>1122</v>
       </c>
       <c r="D1253" s="2">
-        <v>45818.80148693892</v>
+        <v>45820.30824423388</v>
       </c>
       <c r="E1253">
-        <v>-28</v>
+        <v>1122</v>
       </c>
       <c r="F1253" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.65788194445</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -32299,16 +32299,16 @@
         <v>1</v>
       </c>
       <c r="C1283">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1283" s="2">
-        <v>45818.8014869504</v>
+        <v>45820.30824422785</v>
       </c>
       <c r="E1283">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1283" s="2">
-        <v>45818.704375</v>
+        <v>45819.62096064815</v>
       </c>
       <c r="G1283">
         <v>0</v>
@@ -33153,16 +33153,16 @@
         <v>1</v>
       </c>
       <c r="C1317">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1317" s="2">
-        <v>45795.04201639877</v>
+        <v>45820.30820705965</v>
       </c>
       <c r="E1317">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F1317" s="2">
-        <v>45713.68336805556</v>
+        <v>45819.49069444444</v>
       </c>
       <c r="G1317">
         <v>0</v>
@@ -33358,16 +33358,16 @@
         <v>1</v>
       </c>
       <c r="C1325">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1325" s="2">
-        <v>45818.80148695073</v>
+        <v>45820.30824422804</v>
       </c>
       <c r="E1325">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1325" s="2">
-        <v>45818.704375</v>
+        <v>45819.6215625</v>
       </c>
       <c r="G1325">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D1332" s="2">
-        <v>45818.30489302384</v>
+        <v>45820.30824423757</v>
       </c>
       <c r="E1332">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F1332" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="D1342" s="2">
-        <v>45818.80148693925</v>
+        <v>45820.30824423776</v>
       </c>
       <c r="E1342">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="F1342" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.76177083333</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -36502,16 +36502,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="D1448" s="2">
-        <v>45816.01481442774</v>
+        <v>45820.30824423294</v>
       </c>
       <c r="E1448">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="F1448" s="2">
-        <v>45815.96028935185</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -38786,16 +38786,16 @@
         <v>1</v>
       </c>
       <c r="C1540">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1540" s="2">
-        <v>45795.04204563411</v>
+        <v>45820.30820705659</v>
       </c>
       <c r="E1540">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F1540" s="2">
-        <v>45747.49787037037</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G1540">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1594" s="2">
-        <v>45818.30489302451</v>
+        <v>45820.30820705671</v>
       </c>
       <c r="E1594">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1594" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.39163194445</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5653</v>
+        <v>5606</v>
       </c>
       <c r="D1597" s="2">
-        <v>45818.80148694525</v>
+        <v>45820.30824423309</v>
       </c>
       <c r="E1597">
-        <v>5653</v>
+        <v>5606</v>
       </c>
       <c r="F1597" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.63336805555</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41856,16 +41856,16 @@
         <v>1</v>
       </c>
       <c r="C1662">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1662" s="2">
-        <v>45795.04201639877</v>
+        <v>45820.30824423561</v>
       </c>
       <c r="E1662">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1662" s="2">
-        <v>45719.74402777778</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G1662">
         <v>0</v>
@@ -46751,16 +46751,16 @@
         <v>1</v>
       </c>
       <c r="C1858">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1858" s="2">
-        <v>45806.77600903736</v>
+        <v>45820.30824423499</v>
       </c>
       <c r="E1858">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1858" s="2">
-        <v>45806.45805555556</v>
+        <v>45819.71657407407</v>
       </c>
       <c r="G1858">
         <v>0</v>
@@ -50909,16 +50909,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2023" s="2">
-        <v>45818.80148694593</v>
+        <v>45820.30820705802</v>
       </c>
       <c r="E2023">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2023" s="2">
-        <v>45818.65388888889</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -51342,16 +51342,16 @@
         <v>1</v>
       </c>
       <c r="C2040">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2040" s="2">
-        <v>45798.9653592312</v>
+        <v>45820.30820706102</v>
       </c>
       <c r="E2040">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2040" s="2">
-        <v>45798.71837962963</v>
+        <v>45819.51405092593</v>
       </c>
       <c r="G2040">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2056" s="2">
-        <v>45818.30489302518</v>
+        <v>45820.30824423482</v>
       </c>
       <c r="E2056">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2056" s="2">
-        <v>45817.7553587963</v>
+        <v>45819.66951388889</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52372,16 +52372,16 @@
         <v>1</v>
       </c>
       <c r="C2081">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D2081" s="2">
-        <v>45818.80148695105</v>
+        <v>45820.30820705955</v>
       </c>
       <c r="E2081">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="F2081" s="2">
-        <v>45818.704375</v>
+        <v>45819.48991898148</v>
       </c>
       <c r="G2081">
         <v>0</v>
@@ -54948,16 +54948,16 @@
         <v>1</v>
       </c>
       <c r="C2184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2184" s="2">
-        <v>45799.89528859723</v>
+        <v>45820.30824423447</v>
       </c>
       <c r="E2184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2184" s="2">
-        <v>45784.76697916666</v>
+        <v>45819.6587037037</v>
       </c>
       <c r="G2184">
         <v>0</v>
@@ -58555,16 +58555,16 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2327" s="2">
-        <v>45795.04204563411</v>
+        <v>45820.30824422588</v>
       </c>
       <c r="E2327">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2327" s="2">
-        <v>45751.405625</v>
+        <v>45819.59678240741</v>
       </c>
       <c r="G2327">
         <v>0</v>
@@ -58694,7 +58694,7 @@
         <v>0</v>
       </c>
       <c r="F2332" s="2">
-        <v>45688.51909722222</v>
+        <v>45819.7628125</v>
       </c>
       <c r="G2332">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D2416" s="2">
-        <v>45818.80148693962</v>
+        <v>45820.30824422969</v>
       </c>
       <c r="E2416">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F2416" s="2">
-        <v>45818.46909722222</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -61972,16 +61972,16 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2465" s="2">
-        <v>45818.30489303097</v>
+        <v>45820.30824423139</v>
       </c>
       <c r="E2465">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2465" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.62554398148</v>
       </c>
       <c r="G2465">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="D2482" s="2">
-        <v>45818.30486084184</v>
+        <v>45820.30820705818</v>
       </c>
       <c r="E2482">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="F2482" s="2">
-        <v>45817.555</v>
+        <v>45819.42618055556</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>793</v>
+        <v>493</v>
       </c>
       <c r="D2483" s="2">
-        <v>45818.30489303119</v>
+        <v>45820.30824422987</v>
       </c>
       <c r="E2483">
-        <v>793</v>
+        <v>493</v>
       </c>
       <c r="F2483" s="2">
-        <v>45817.7559837963</v>
+        <v>45819.62377314815</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -64462,6 +64462,29 @@
         <v>0</v>
       </c>
       <c r="H2567" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:8">
+      <c r="A2568">
+        <v>43571162</v>
+      </c>
+      <c r="B2568">
+        <v>1</v>
+      </c>
+      <c r="C2568">
+        <v>0</v>
+      </c>
+      <c r="D2568" s="2">
+        <v>45820.3082442345</v>
+      </c>
+      <c r="E2568">
+        <v>0</v>
+      </c>
+      <c r="G2568">
+        <v>0</v>
+      </c>
+      <c r="H2568" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2568"/>
+  <dimension ref="A1:H2569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>45820.30820705976</v>
+        <v>45820.91695281549</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>45819.51405092593</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>45814.82970463676</v>
+        <v>45820.91697501762</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>45814.61284722222</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3108</v>
+        <v>3084</v>
       </c>
       <c r="D33" s="2">
-        <v>45820.30824423626</v>
+        <v>45820.91695280816</v>
       </c>
       <c r="E33">
-        <v>3108</v>
+        <v>3084</v>
       </c>
       <c r="F33" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>45770.42303240741</v>
+        <v>45820.76310185185</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2">
-        <v>45820.30820706004</v>
+        <v>45820.91697502447</v>
       </c>
       <c r="E56">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2">
-        <v>45819.51405092593</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2">
-        <v>45820.30820705868</v>
+        <v>45820.91695281125</v>
       </c>
       <c r="E61">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2">
-        <v>45819.43864583333</v>
+        <v>45820.43006944445</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2">
-        <v>45814.82978481724</v>
+        <v>45820.91695280852</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2">
-        <v>45814.74193287037</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D86" s="2">
-        <v>45820.30824423009</v>
+        <v>45820.91695280691</v>
       </c>
       <c r="E86">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F86" s="2">
-        <v>45819.62554398148</v>
+        <v>45820.41594907407</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2">
-        <v>45820.30824422622</v>
+        <v>45820.91697502459</v>
       </c>
       <c r="E87">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F87" s="2">
-        <v>45819.61424768518</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D91" s="2">
-        <v>45820.30824423643</v>
+        <v>45820.91695280871</v>
       </c>
       <c r="E91">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="D101" s="2">
-        <v>45820.30824423658</v>
+        <v>45820.91697502669</v>
       </c>
       <c r="E101">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="F101" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.71178240741</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D106" s="2">
-        <v>45818.80148695203</v>
+        <v>45820.91697502234</v>
       </c>
       <c r="E106">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2">
-        <v>45818.71346064815</v>
+        <v>45820.70375</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="D117" s="2">
-        <v>45818.30489301346</v>
+        <v>45820.91697501785</v>
       </c>
       <c r="E117">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="F117" s="2">
-        <v>45817.75225694444</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D123" s="2">
-        <v>45820.30824422908</v>
+        <v>45820.91695280889</v>
       </c>
       <c r="E123">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F123" s="2">
-        <v>45819.62377314815</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D124" s="2">
-        <v>45818.80148694228</v>
+        <v>45820.9169750247</v>
       </c>
       <c r="E124">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F124" s="2">
-        <v>45818.65388888889</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D141" s="2">
-        <v>45820.30820705689</v>
+        <v>45820.91695280906</v>
       </c>
       <c r="E141">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F141" s="2">
-        <v>45819.42618055556</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4397,16 +4397,16 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2">
-        <v>45799.89534671205</v>
+        <v>45820.91697501809</v>
       </c>
       <c r="E163">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F163" s="2">
-        <v>45792.48434027778</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D200" s="2">
-        <v>45813.95785150164</v>
+        <v>45820.91695281295</v>
       </c>
       <c r="E200">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="F200" s="2">
-        <v>45813.65701388889</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D274" s="2">
-        <v>45820.30824423578</v>
+        <v>45820.91697502248</v>
       </c>
       <c r="E274">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F274" s="2">
-        <v>45819.7450462963</v>
+        <v>45820.70375</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D283" s="2">
-        <v>45818.80148693536</v>
+        <v>45820.91697501832</v>
       </c>
       <c r="E283">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F283" s="2">
-        <v>45818.46909722222</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D287" s="2">
-        <v>45814.82974449309</v>
+        <v>45820.91697501857</v>
       </c>
       <c r="E287">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F287" s="2">
-        <v>45817.66995370371</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="D291" s="2">
-        <v>45820.30824423674</v>
+        <v>45820.91697502483</v>
       </c>
       <c r="E291">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="F291" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D295" s="2">
-        <v>45820.30820706112</v>
+        <v>45820.91697502493</v>
       </c>
       <c r="E295">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="F295" s="2">
-        <v>45819.53631944444</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="D309" s="2">
-        <v>45820.30820706025</v>
+        <v>45820.91695281315</v>
       </c>
       <c r="E309">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="F309" s="2">
-        <v>45819.51405092593</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>5</v>
+        <v>-64</v>
       </c>
       <c r="D318" s="2">
-        <v>45820.30820705736</v>
+        <v>45820.91697502512</v>
       </c>
       <c r="E318">
-        <v>5</v>
+        <v>-64</v>
       </c>
       <c r="F318" s="2">
-        <v>45819.42618055556</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8674,16 +8674,16 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D338" s="2">
-        <v>45818.30489301519</v>
+        <v>45820.91697502721</v>
       </c>
       <c r="E338">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F338" s="2">
-        <v>45817.75225694444</v>
+        <v>45820.75637731481</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="D342" s="2">
-        <v>45818.80148694019</v>
+        <v>45820.91697502525</v>
       </c>
       <c r="E342">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="F342" s="2">
-        <v>45818.53353009259</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="D346" s="2">
-        <v>45820.30824423207</v>
+        <v>45820.91695281524</v>
       </c>
       <c r="E346">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="F346" s="2">
-        <v>45819.63336805555</v>
+        <v>45820.63418981482</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D350" s="2">
-        <v>45813.95795449081</v>
+        <v>45820.91697502259</v>
       </c>
       <c r="E350">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="F350" s="2">
-        <v>45813.58277777778</v>
+        <v>45820.70375</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>32</v>
+        <v>1400</v>
       </c>
       <c r="D351" s="2">
-        <v>45818.30489300047</v>
+        <v>45820.91697502537</v>
       </c>
       <c r="E351">
-        <v>32</v>
+        <v>1400</v>
       </c>
       <c r="F351" s="2">
-        <v>45817.69565972222</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D361" s="2">
-        <v>45818.30489301989</v>
+        <v>45820.9169750255</v>
       </c>
       <c r="E361">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F361" s="2">
-        <v>45817.7553587963</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="D363" s="2">
-        <v>45820.30820706151</v>
+        <v>45820.91695280926</v>
       </c>
       <c r="E363">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="F363" s="2">
-        <v>45819.59678240741</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D385" s="2">
-        <v>45818.80148694391</v>
+        <v>45820.91697502561</v>
       </c>
       <c r="E385">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F385" s="2">
-        <v>45818.65388888889</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D387" s="2">
-        <v>45818.30486084699</v>
+        <v>45820.91695281229</v>
       </c>
       <c r="E387">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F387" s="2">
-        <v>45817.664375</v>
+        <v>45820.4844212963</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D394" s="2">
-        <v>45820.30820706047</v>
+        <v>45820.91697502271</v>
       </c>
       <c r="E394">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F394" s="2">
-        <v>45819.51405092593</v>
+        <v>45820.70375</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D410" s="2">
-        <v>45820.30824423052</v>
+        <v>45820.91697502574</v>
       </c>
       <c r="E410">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="F410" s="2">
-        <v>45819.62554398148</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10624,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="C416">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D416" s="2">
-        <v>45813.95788197009</v>
+        <v>45820.91697502282</v>
       </c>
       <c r="E416">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F416" s="2">
-        <v>45813.67928240741</v>
+        <v>45820.70375</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D418" s="2">
-        <v>45820.30824423073</v>
+        <v>45820.91697502294</v>
       </c>
       <c r="E418">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F418" s="2">
-        <v>45819.62554398148</v>
+        <v>45820.70375</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D422" s="2">
-        <v>45813.95785150164</v>
+        <v>45820.91695281334</v>
       </c>
       <c r="E422">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="F422" s="2">
-        <v>45813.65701388889</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D435" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.91697501879</v>
       </c>
       <c r="E435">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F435" s="2">
-        <v>45814.53738425926</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11192,16 +11192,16 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D439" s="2">
-        <v>45820.30820705753</v>
+        <v>45820.91695281195</v>
       </c>
       <c r="E439">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="F439" s="2">
-        <v>45819.42618055556</v>
+        <v>45820.47611111111</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -11270,16 +11270,16 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D442" s="2">
-        <v>45820.30820705612</v>
+        <v>45820.91695281176</v>
       </c>
       <c r="E442">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F442" s="2">
-        <v>45819.39163194445</v>
+        <v>45820.46855324074</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D465" s="2">
-        <v>45813.95795447831</v>
+        <v>45820.91695280946</v>
       </c>
       <c r="E465">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F465" s="2">
-        <v>45813.67818287037</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="D486" s="2">
-        <v>45806.77605776805</v>
+        <v>45820.9169750193</v>
       </c>
       <c r="E486">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="F486" s="2">
-        <v>45806.75375</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D510" s="2">
-        <v>45818.80148693114</v>
+        <v>45820.91695281569</v>
       </c>
       <c r="E510">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F510" s="2">
-        <v>45819.61575231481</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13242,16 +13242,16 @@
         <v>1</v>
       </c>
       <c r="C522">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D522" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.91695280966</v>
       </c>
       <c r="E522">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F522" s="2">
-        <v>45811.45587962963</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -13816,16 +13816,16 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D545" s="2">
-        <v>45818.30489300693</v>
+        <v>45820.91695280985</v>
       </c>
       <c r="E545">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F545" s="2">
-        <v>45817.73076388889</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="D570" s="2">
-        <v>45818.80148693728</v>
+        <v>45820.91695281351</v>
       </c>
       <c r="E570">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="F570" s="2">
-        <v>45818.46909722222</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14510,16 +14510,16 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D574" s="2">
-        <v>45820.30824422824</v>
+        <v>45820.91697502306</v>
       </c>
       <c r="E574">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F574" s="2">
-        <v>45819.62230324074</v>
+        <v>45820.70375</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D631" s="2">
-        <v>45818.80148694831</v>
+        <v>45820.91697501951</v>
       </c>
       <c r="E631">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F631" s="2">
-        <v>45818.704375</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="D657" s="2">
-        <v>45820.30824423241</v>
+        <v>45820.91695280715</v>
       </c>
       <c r="E657">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="F657" s="2">
-        <v>45819.63336805555</v>
+        <v>45820.41594907407</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D660" s="2">
-        <v>45820.3082442361</v>
+        <v>45820.91695280736</v>
       </c>
       <c r="E660">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F660" s="2">
-        <v>45819.74916666667</v>
+        <v>45820.41594907407</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D681" s="2">
-        <v>45813.95795449081</v>
+        <v>45820.91697502587</v>
       </c>
       <c r="E681">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F681" s="2">
-        <v>45813.78240740741</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17290,16 +17290,16 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D689" s="2">
-        <v>45818.30486084076</v>
+        <v>45820.91695281003</v>
       </c>
       <c r="E689">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F689" s="2">
-        <v>45817.555</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -17919,16 +17919,16 @@
         <v>1</v>
       </c>
       <c r="C714">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D714" s="2">
-        <v>45799.89545110933</v>
+        <v>45820.91695281032</v>
       </c>
       <c r="E714">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F714" s="2">
-        <v>45783.66847222222</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D729" s="2">
-        <v>45813.95788193521</v>
+        <v>45820.91697502317</v>
       </c>
       <c r="E729">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F729" s="2">
-        <v>45813.67116898148</v>
+        <v>45820.70375</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D731" s="2">
-        <v>45820.30824423123</v>
+        <v>45820.91697502598</v>
       </c>
       <c r="E731">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F731" s="2">
-        <v>45819.62554398148</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D732" s="2">
-        <v>45818.30486083475</v>
+        <v>45820.9169750261</v>
       </c>
       <c r="E732">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F732" s="2">
-        <v>45817.51208333333</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18508,16 +18508,16 @@
         <v>1</v>
       </c>
       <c r="C737">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D737" s="2">
-        <v>45813.95793319555</v>
+        <v>45820.91695281462</v>
       </c>
       <c r="E737">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F737" s="2">
-        <v>45813.71038194445</v>
+        <v>45820.62943287037</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="D741" s="2">
-        <v>45813.95785147848</v>
+        <v>45820.91697502622</v>
       </c>
       <c r="E741">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="F741" s="2">
-        <v>45813.57855324074</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -18687,16 +18687,16 @@
         <v>1</v>
       </c>
       <c r="C744">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D744" s="2">
-        <v>45811.92549991595</v>
+        <v>45820.91697502634</v>
       </c>
       <c r="E744">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F744" s="2">
-        <v>45811.67885416667</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -18739,16 +18739,16 @@
         <v>1</v>
       </c>
       <c r="C746">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D746" s="2">
-        <v>45799.89534672352</v>
+        <v>45820.9169528116</v>
       </c>
       <c r="E746">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F746" s="2">
-        <v>45792.67251157408</v>
+        <v>45820.4658449074</v>
       </c>
       <c r="G746">
         <v>0</v>
@@ -19979,16 +19979,16 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D796" s="2">
-        <v>45807.78640665444</v>
+        <v>45820.91697501973</v>
       </c>
       <c r="E796">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F796" s="2">
-        <v>45807.70579861111</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G796">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D810" s="2">
-        <v>45800.93188814504</v>
+        <v>45820.91697502199</v>
       </c>
       <c r="E810">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F810" s="2">
-        <v>45811.68333333333</v>
+        <v>45820.70353009259</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20458,16 +20458,16 @@
         <v>1</v>
       </c>
       <c r="C815">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D815" s="2">
-        <v>45813.95785146693</v>
+        <v>45820.91697502329</v>
       </c>
       <c r="E815">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F815" s="2">
-        <v>45813.57766203704</v>
+        <v>45820.70375</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D826" s="2">
-        <v>45820.30824423739</v>
+        <v>45820.91695281051</v>
       </c>
       <c r="E826">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F826" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21337,16 +21337,16 @@
         <v>1</v>
       </c>
       <c r="C851">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D851" s="2">
-        <v>45812.78301983239</v>
+        <v>45820.91697501994</v>
       </c>
       <c r="E851">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F851" s="2">
-        <v>45812.44633101852</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D853" s="2">
-        <v>45818.30489301757</v>
+        <v>45820.91695281069</v>
       </c>
       <c r="E853">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F853" s="2">
-        <v>45817.75368055556</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="D876" s="2">
-        <v>45813.95785147848</v>
+        <v>45820.91697502341</v>
       </c>
       <c r="E876">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F876" s="2">
-        <v>45813.58258101852</v>
+        <v>45820.70375</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D883" s="2">
-        <v>45820.30824423274</v>
+        <v>45820.91697502646</v>
       </c>
       <c r="E883">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F883" s="2">
-        <v>45819.63336805555</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22627,16 +22627,16 @@
         <v>1</v>
       </c>
       <c r="C902">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D902" s="2">
-        <v>45813.95790539397</v>
+        <v>45820.91697502037</v>
       </c>
       <c r="E902">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F902" s="2">
-        <v>45813.62805555556</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>1</v>
       </c>
       <c r="C929">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D929" s="2">
-        <v>45795.04208095842</v>
+        <v>45820.91695281275</v>
       </c>
       <c r="E929">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F929" s="2">
-        <v>45770.70373842592</v>
+        <v>45820.5114699074</v>
       </c>
       <c r="G929">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D962" s="2">
-        <v>45812.78306322403</v>
+        <v>45820.91695281588</v>
       </c>
       <c r="E962">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F962" s="2">
-        <v>45812.70449074074</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D963" s="2">
-        <v>45820.30824423419</v>
+        <v>45820.91697502657</v>
       </c>
       <c r="E963">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F963" s="2">
-        <v>45819.6587037037</v>
+        <v>45820.70586805556</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -25539,16 +25539,16 @@
         <v>45820.30820705892</v>
       </c>
       <c r="E1017">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F1017" s="2">
         <v>45819.43864583333</v>
       </c>
       <c r="G1017">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H1017" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -25764,16 +25764,16 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D1026" s="2">
-        <v>45820.30820705943</v>
+        <v>45820.91695281258</v>
       </c>
       <c r="E1026">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F1026" s="2">
-        <v>45819.46075231482</v>
+        <v>45820.4844212963</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D1039" s="2">
-        <v>45811.92549991595</v>
+        <v>45820.9169528148</v>
       </c>
       <c r="E1039">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F1039" s="2">
-        <v>45813.51170138889</v>
+        <v>45820.62943287037</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1061" s="2">
-        <v>45812.78306322403</v>
+        <v>45820.91695281369</v>
       </c>
       <c r="E1061">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1061" s="2">
-        <v>45812.44633101852</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -27492,16 +27492,16 @@
         <v>1</v>
       </c>
       <c r="C1095">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1095" s="2">
-        <v>45806.77603756409</v>
+        <v>45820.91695281089</v>
       </c>
       <c r="E1095">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1095" s="2">
-        <v>45806.66946759259</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G1095">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1122" s="2">
-        <v>45818.80148695171</v>
+        <v>45820.91697502353</v>
       </c>
       <c r="E1122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1122" s="2">
-        <v>45818.7134375</v>
+        <v>45820.70375</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1155" s="2">
-        <v>45818.80148695005</v>
+        <v>45820.91695281388</v>
       </c>
       <c r="E1155">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1155" s="2">
-        <v>45818.704375</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29322,16 +29322,16 @@
         <v>1</v>
       </c>
       <c r="C1167">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D1167" s="2">
-        <v>45799.89534673509</v>
+        <v>45820.9169750206</v>
       </c>
       <c r="E1167">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F1167" s="2">
-        <v>45800.64626157407</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1167">
         <v>0</v>
@@ -29521,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D1175" s="2">
-        <v>45818.80148695334</v>
+        <v>45820.91695281501</v>
       </c>
       <c r="E1175">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1175" s="2">
-        <v>45818.7203125</v>
+        <v>45820.62943287037</v>
       </c>
       <c r="G1175">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D1177" s="2">
-        <v>45812.78301983239</v>
+        <v>45820.9169750208</v>
       </c>
       <c r="E1177">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F1177" s="2">
-        <v>45812.43105324074</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1183" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.91697502101</v>
       </c>
       <c r="E1183">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1183" s="2">
-        <v>45811.49467592593</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>1122</v>
+        <v>1010</v>
       </c>
       <c r="D1253" s="2">
-        <v>45820.30824423388</v>
+        <v>45820.91697502365</v>
       </c>
       <c r="E1253">
-        <v>1122</v>
+        <v>1010</v>
       </c>
       <c r="F1253" s="2">
-        <v>45819.65788194445</v>
+        <v>45820.70375</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1324" s="2">
-        <v>45806.77603763194</v>
+        <v>45820.9169750212</v>
       </c>
       <c r="E1324">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1324" s="2">
-        <v>45806.72444444444</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1324">
         <v>0</v>
@@ -33462,16 +33462,16 @@
         <v>1</v>
       </c>
       <c r="C1329">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D1329" s="2">
-        <v>45818.30489301625</v>
+        <v>45820.91697502734</v>
       </c>
       <c r="E1329">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1329" s="2">
-        <v>45817.75225694444</v>
+        <v>45820.75637731481</v>
       </c>
       <c r="G1329">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1332" s="2">
-        <v>45820.30824423757</v>
+        <v>45820.91695280757</v>
       </c>
       <c r="E1332">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F1332" s="2">
-        <v>45819.76177083333</v>
+        <v>45820.41594907407</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1391" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.91695281108</v>
       </c>
       <c r="E1391">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1391" s="2">
-        <v>45814.49446759259</v>
+        <v>45820.42355324074</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35578,16 +35578,16 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>-3</v>
+        <v>147</v>
       </c>
       <c r="D1412" s="2">
-        <v>45814.82978481724</v>
+        <v>45820.91695281144</v>
       </c>
       <c r="E1412">
-        <v>-3</v>
+        <v>147</v>
       </c>
       <c r="F1412" s="2">
-        <v>45814.74193287037</v>
+        <v>45820.43140046296</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -35806,16 +35806,16 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D1421" s="2">
-        <v>45811.92546678011</v>
+        <v>45820.91697502142</v>
       </c>
       <c r="E1421">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F1421" s="2">
-        <v>45811.50252314815</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1421">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>1</v>
       </c>
       <c r="C1499">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1499" s="2">
-        <v>45799.89528857399</v>
+        <v>45820.91695281606</v>
       </c>
       <c r="E1499">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1499" s="2">
-        <v>45782.5897800926</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G1499">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>1</v>
       </c>
       <c r="C1511">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D1511" s="2">
-        <v>45798.96533509644</v>
+        <v>45820.91695281406</v>
       </c>
       <c r="E1511">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F1511" s="2">
-        <v>45798.64011574074</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G1511">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1594" s="2">
-        <v>45820.30820705671</v>
+        <v>45820.91697502688</v>
       </c>
       <c r="E1594">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1594" s="2">
-        <v>45819.39163194445</v>
+        <v>45820.71178240741</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5606</v>
+        <v>5551</v>
       </c>
       <c r="D1597" s="2">
-        <v>45820.30824423309</v>
+        <v>45820.91697501904</v>
       </c>
       <c r="E1597">
-        <v>5606</v>
+        <v>5551</v>
       </c>
       <c r="F1597" s="2">
-        <v>45819.63336805555</v>
+        <v>45820.68109953704</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41602,16 +41602,16 @@
         <v>1</v>
       </c>
       <c r="C1652">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D1652" s="2">
-        <v>45795.04204563411</v>
+        <v>45820.91697502161</v>
       </c>
       <c r="E1652">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F1652" s="2">
-        <v>45748.78736111111</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1652">
         <v>0</v>
@@ -42326,16 +42326,16 @@
         <v>1</v>
       </c>
       <c r="C1681">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1681" s="2">
-        <v>45795.0420164208</v>
+        <v>45820.91695280797</v>
       </c>
       <c r="E1681">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1681" s="2">
-        <v>45737.65956018519</v>
+        <v>45820.42121527778</v>
       </c>
       <c r="G1681">
         <v>0</v>
@@ -42721,16 +42721,16 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1697" s="2">
-        <v>45811.92549991595</v>
+        <v>45820.91697502176</v>
       </c>
       <c r="E1697">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1697" s="2">
-        <v>45811.68491898148</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G1697">
         <v>0</v>
@@ -43701,16 +43701,16 @@
         <v>1</v>
       </c>
       <c r="C1737">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D1737" s="2">
-        <v>45811.92544186871</v>
+        <v>45820.9169750221</v>
       </c>
       <c r="E1737">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F1737" s="2">
-        <v>45810.78280092592</v>
+        <v>45820.70353009259</v>
       </c>
       <c r="G1737">
         <v>0</v>
@@ -45865,16 +45865,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D1823" s="2">
-        <v>45813.95782005877</v>
+        <v>45820.91697502699</v>
       </c>
       <c r="E1823">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1823" s="2">
-        <v>45813.42155092592</v>
+        <v>45820.71178240741</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1844" s="2">
-        <v>45814.82970463676</v>
+        <v>45820.91695281626</v>
       </c>
       <c r="E1844">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F1844" s="2">
-        <v>45814.38376157408</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -46803,16 +46803,16 @@
         <v>1</v>
       </c>
       <c r="C1860">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1860" s="2">
-        <v>45795.04210567895</v>
+        <v>45820.9169750271</v>
       </c>
       <c r="E1860">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1860" s="2">
-        <v>45777.66869212963</v>
+        <v>45820.75173611111</v>
       </c>
       <c r="G1860">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2056" s="2">
-        <v>45820.30824423482</v>
+        <v>45820.91695280778</v>
       </c>
       <c r="E2056">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2056" s="2">
-        <v>45819.66951388889</v>
+        <v>45820.41594907407</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52026,16 +52026,16 @@
         <v>1</v>
       </c>
       <c r="C2067">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D2067" s="2">
-        <v>45814.82974449309</v>
+        <v>45820.91695281426</v>
       </c>
       <c r="E2067">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F2067" s="2">
-        <v>45814.67518518519</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -53353,16 +53353,16 @@
         <v>1</v>
       </c>
       <c r="C2120">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D2120" s="2">
-        <v>45799.89534671205</v>
+        <v>45820.91697502745</v>
       </c>
       <c r="E2120">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2120" s="2">
-        <v>45792.50751157408</v>
+        <v>45820.75637731481</v>
       </c>
       <c r="G2120">
         <v>0</v>
@@ -53454,16 +53454,16 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2124" s="2">
-        <v>45818.30486081979</v>
+        <v>45820.91695281444</v>
       </c>
       <c r="E2124">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2124" s="2">
-        <v>45817.43152777778</v>
+        <v>45820.60888888889</v>
       </c>
       <c r="G2124">
         <v>0</v>
@@ -55101,16 +55101,16 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2190" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.91697502377</v>
       </c>
       <c r="E2190">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2190" s="2">
-        <v>45814.53738425926</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2190">
         <v>0</v>
@@ -55127,16 +55127,16 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2191" s="2">
-        <v>45811.92544186871</v>
+        <v>45820.91697502389</v>
       </c>
       <c r="E2191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2191" s="2">
-        <v>45810.78280092592</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2191">
         <v>0</v>
@@ -55153,16 +55153,16 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D2192" s="2">
-        <v>45811.92544186871</v>
+        <v>45820.916975024</v>
       </c>
       <c r="E2192">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F2192" s="2">
-        <v>45810.78280092592</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2192">
         <v>0</v>
@@ -55179,16 +55179,16 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2193" s="2">
-        <v>45811.92544186871</v>
+        <v>45820.91697502412</v>
       </c>
       <c r="E2193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2193" s="2">
-        <v>45810.78280092592</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2193">
         <v>0</v>
@@ -55205,16 +55205,16 @@
         <v>1</v>
       </c>
       <c r="C2194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2194" s="2">
-        <v>45806.77603763194</v>
+        <v>45820.91697502424</v>
       </c>
       <c r="E2194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2194" s="2">
-        <v>45806.68077546296</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2194">
         <v>0</v>
@@ -55615,16 +55615,16 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2210" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.91697502435</v>
       </c>
       <c r="E2210">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2210" s="2">
-        <v>45814.53738425926</v>
+        <v>45820.70375</v>
       </c>
       <c r="G2210">
         <v>0</v>
@@ -56426,16 +56426,16 @@
         <v>1</v>
       </c>
       <c r="C2242">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2242" s="2">
-        <v>45795.04208095842</v>
+        <v>45820.91697501732</v>
       </c>
       <c r="E2242">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2242" s="2">
-        <v>45770.53048611111</v>
+        <v>45820.67057870371</v>
       </c>
       <c r="G2242">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D2416" s="2">
-        <v>45820.30824422969</v>
+        <v>45820.91697502222</v>
       </c>
       <c r="E2416">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F2416" s="2">
-        <v>45819.62377314815</v>
+        <v>45820.70353009259</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -60995,16 +60995,16 @@
         <v>1</v>
       </c>
       <c r="C2425">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2425" s="2">
-        <v>45812.78301983239</v>
+        <v>45820.91695281212</v>
       </c>
       <c r="E2425">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2425" s="2">
-        <v>45812.32371527778</v>
+        <v>45820.47954861111</v>
       </c>
       <c r="G2425">
         <v>0</v>
@@ -62517,16 +62517,16 @@
         <v>1</v>
       </c>
       <c r="C2487">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2487" s="2">
-        <v>45814.82968397064</v>
+        <v>45820.91697502186</v>
       </c>
       <c r="E2487">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2487" s="2">
-        <v>45814.49446759259</v>
+        <v>45820.7009375</v>
       </c>
       <c r="G2487">
         <v>0</v>
@@ -64485,6 +64485,29 @@
         <v>0</v>
       </c>
       <c r="H2568" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:8">
+      <c r="A2569">
+        <v>43586848</v>
+      </c>
+      <c r="B2569">
+        <v>1</v>
+      </c>
+      <c r="C2569">
+        <v>0</v>
+      </c>
+      <c r="D2569" s="2">
+        <v>45820.91695281528</v>
+      </c>
+      <c r="E2569">
+        <v>0</v>
+      </c>
+      <c r="G2569">
+        <v>0</v>
+      </c>
+      <c r="H2569" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2569"/>
+  <dimension ref="A1:H2572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D4" s="2">
-        <v>45820.91695281549</v>
+        <v>45821.87952450086</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F4" s="2">
-        <v>45820.67057870371</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="2">
-        <v>45811.92549991595</v>
+        <v>45821.87950559617</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="2">
-        <v>45819.66951388889</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>45820.30824422845</v>
+        <v>45821.8795244998</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2">
-        <v>45819.62377314815</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3084</v>
+        <v>3054</v>
       </c>
       <c r="D33" s="2">
-        <v>45820.91695280816</v>
+        <v>45821.87952449826</v>
       </c>
       <c r="E33">
-        <v>3084</v>
+        <v>3054</v>
       </c>
       <c r="F33" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.53424768519</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2">
-        <v>45820.91697502447</v>
+        <v>45821.87952450282</v>
       </c>
       <c r="E56">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45820.91695281125</v>
+        <v>45821.87952449945</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="2">
-        <v>45820.43006944445</v>
+        <v>45821.6746875</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2">
-        <v>45820.30824422865</v>
+        <v>45821.87952449994</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F63" s="2">
-        <v>45819.62377314815</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D70" s="2">
-        <v>45820.30824423155</v>
+        <v>45821.87952450007</v>
       </c>
       <c r="E70">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2">
-        <v>45819.63336805555</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>45818.80148693439</v>
+        <v>45821.87952450096</v>
       </c>
       <c r="E82">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F82" s="2">
-        <v>45818.46909722222</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2">
-        <v>45820.30824423172</v>
+        <v>45821.87950559548</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2">
-        <v>45819.63336805555</v>
+        <v>45821.44518518518</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D85" s="2">
-        <v>45820.30820706141</v>
+        <v>45821.87952450106</v>
       </c>
       <c r="E85">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F85" s="2">
-        <v>45819.54417824074</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D86" s="2">
-        <v>45820.91695280691</v>
+        <v>45821.87952450018</v>
       </c>
       <c r="E86">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F86" s="2">
-        <v>45820.41594907407</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2">
-        <v>45820.91697502459</v>
+        <v>45821.87952450114</v>
       </c>
       <c r="E87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F87" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D91" s="2">
-        <v>45820.91695280871</v>
+        <v>45821.87952450031</v>
       </c>
       <c r="E91">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D94" s="2">
-        <v>45820.3082442319</v>
+        <v>45821.8795245029</v>
       </c>
       <c r="E94">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F94" s="2">
-        <v>45819.63336805555</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="D101" s="2">
-        <v>45820.91697502669</v>
+        <v>45821.879524503</v>
       </c>
       <c r="E101">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="F101" s="2">
-        <v>45820.71178240741</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="D117" s="2">
-        <v>45820.91697501785</v>
+        <v>45821.87952449839</v>
       </c>
       <c r="E117">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="F117" s="2">
-        <v>45820.68109953704</v>
+        <v>45821.53424768519</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2">
-        <v>45818.80148693471</v>
+        <v>45821.87950559406</v>
       </c>
       <c r="E120">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2">
-        <v>45818.46909722222</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D123" s="2">
-        <v>45820.91695280889</v>
+        <v>45821.87950559628</v>
       </c>
       <c r="E123">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F123" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D141" s="2">
-        <v>45820.91695280906</v>
+        <v>45821.87952450124</v>
       </c>
       <c r="E141">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F141" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D150" s="2">
-        <v>45807.78638608912</v>
+        <v>45821.87952450133</v>
       </c>
       <c r="E150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F150" s="2">
-        <v>45807.43640046296</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D162" s="2">
-        <v>45806.77603763194</v>
+        <v>45821.87952450043</v>
       </c>
       <c r="E162">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2">
-        <v>45806.74983796296</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D175" s="2">
-        <v>45812.78303939045</v>
+        <v>45821.87952450055</v>
       </c>
       <c r="E175">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F175" s="2">
-        <v>45812.6706712963</v>
+        <v>45821.67626157407</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" s="2">
-        <v>45820.30820705555</v>
+        <v>45821.87952450496</v>
       </c>
       <c r="E192">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F192" s="2">
-        <v>45819.39163194445</v>
+        <v>45821.74190972222</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5253,16 +5253,16 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D198" s="2">
-        <v>45805.91875150988</v>
+        <v>45821.87952450309</v>
       </c>
       <c r="E198">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F198" s="2">
-        <v>45805.62515046296</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D200" s="2">
-        <v>45820.91695281295</v>
+        <v>45821.87950559639</v>
       </c>
       <c r="E200">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="F200" s="2">
-        <v>45820.60888888889</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="D201" s="2">
-        <v>45813.95785150164</v>
+        <v>45821.8795055965</v>
       </c>
       <c r="E201">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="F201" s="2">
-        <v>45813.65701388889</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D209" s="2">
-        <v>45812.78301989438</v>
+        <v>45821.8795055956</v>
       </c>
       <c r="E209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F209" s="2">
-        <v>45812.53496527778</v>
+        <v>45821.44518518518</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D217" s="2">
-        <v>45820.30820706016</v>
+        <v>45821.87950559353</v>
       </c>
       <c r="E217">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F217" s="2">
-        <v>45819.51405092593</v>
+        <v>45821.42207175926</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D247" s="2">
-        <v>45820.30824423594</v>
+        <v>45821.87950559662</v>
       </c>
       <c r="E247">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F247" s="2">
-        <v>45819.74916666667</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D255" s="2">
-        <v>45820.30824423515</v>
+        <v>45821.87950559418</v>
       </c>
       <c r="E255">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F255" s="2">
-        <v>45819.71829861111</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D258" s="2">
-        <v>45820.30820705923</v>
+        <v>45821.87950559369</v>
       </c>
       <c r="E258">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F258" s="2">
-        <v>45819.46075231482</v>
+        <v>45821.42207175926</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D270" s="2">
-        <v>45820.30824423031</v>
+        <v>45821.87952450143</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F270" s="2">
-        <v>45819.62554398148</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D274" s="2">
-        <v>45820.91697502248</v>
+        <v>45821.8795055943</v>
       </c>
       <c r="E274">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F274" s="2">
-        <v>45820.70375</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D283" s="2">
-        <v>45820.91697501832</v>
+        <v>45821.87950559673</v>
       </c>
       <c r="E283">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F283" s="2">
-        <v>45820.68109953704</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D287" s="2">
-        <v>45820.91697501857</v>
+        <v>45821.87950559571</v>
       </c>
       <c r="E287">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F287" s="2">
-        <v>45820.68109953704</v>
+        <v>45821.44518518518</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D309" s="2">
-        <v>45820.91695281315</v>
+        <v>45821.87950559442</v>
       </c>
       <c r="E309">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F309" s="2">
-        <v>45820.60888888889</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>-64</v>
+        <v>-79</v>
       </c>
       <c r="D318" s="2">
-        <v>45820.91697502512</v>
+        <v>45821.87952450151</v>
       </c>
       <c r="E318">
-        <v>-64</v>
+        <v>-79</v>
       </c>
       <c r="F318" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D361" s="2">
-        <v>45820.9169750255</v>
+        <v>45821.87950559788</v>
       </c>
       <c r="E361">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F361" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.53137731482</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D363" s="2">
-        <v>45820.91695280926</v>
+        <v>45821.87952450318</v>
       </c>
       <c r="E363">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F363" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D371" s="2">
-        <v>45820.30824422927</v>
+        <v>45821.87952450327</v>
       </c>
       <c r="E371">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F371" s="2">
-        <v>45819.62377314815</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>1</v>
       </c>
       <c r="C382">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D382" s="2">
-        <v>45813.95782005877</v>
+        <v>45821.87950559454</v>
       </c>
       <c r="E382">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F382" s="2">
-        <v>45813.42155092592</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D385" s="2">
-        <v>45820.91697502561</v>
+        <v>45821.87952450161</v>
       </c>
       <c r="E385">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F385" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D386" s="2">
-        <v>45813.95785149008</v>
+        <v>45821.87950559465</v>
       </c>
       <c r="E386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F386" s="2">
-        <v>45813.63309027778</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D387" s="2">
-        <v>45820.91695281229</v>
+        <v>45821.87950559382</v>
       </c>
       <c r="E387">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F387" s="2">
-        <v>45820.4844212963</v>
+        <v>45821.42207175926</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="D390" s="2">
-        <v>45820.3082442369</v>
+        <v>45821.87952450337</v>
       </c>
       <c r="E390">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="F390" s="2">
-        <v>45819.76177083333</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D394" s="2">
-        <v>45820.91697502271</v>
+        <v>45821.87952449957</v>
       </c>
       <c r="E394">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F394" s="2">
-        <v>45820.70375</v>
+        <v>45821.6746875</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="D402" s="2">
-        <v>45818.30489301573</v>
+        <v>45821.87952450271</v>
       </c>
       <c r="E402">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="F402" s="2">
-        <v>45817.75225694444</v>
+        <v>45821.72910879629</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="D404" s="2">
-        <v>45820.30824423223</v>
+        <v>45821.87952450263</v>
       </c>
       <c r="E404">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F404" s="2">
-        <v>45819.63336805555</v>
+        <v>45821.72737268519</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D408" s="2">
-        <v>45818.30486081827</v>
+        <v>45821.87952450506</v>
       </c>
       <c r="E408">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F408" s="2">
-        <v>45817.42730324074</v>
+        <v>45821.74190972222</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D413" s="2">
-        <v>45813.95785150164</v>
+        <v>45821.87950559684</v>
       </c>
       <c r="E413">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F413" s="2">
-        <v>45813.65701388889</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D422" s="2">
-        <v>45820.91695281334</v>
+        <v>45821.87950559695</v>
       </c>
       <c r="E422">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F422" s="2">
-        <v>45820.60888888889</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D425" s="2">
-        <v>45820.3082070616</v>
+        <v>45821.87950559477</v>
       </c>
       <c r="E425">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F425" s="2">
-        <v>45819.59678240741</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         <v>1</v>
       </c>
       <c r="C437">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D437" s="2">
-        <v>45818.30486083998</v>
+        <v>45821.87950559393</v>
       </c>
       <c r="E437">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F437" s="2">
-        <v>45817.555</v>
+        <v>45821.42207175926</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -11270,16 +11270,16 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D442" s="2">
-        <v>45820.91695281176</v>
+        <v>45821.8795245017</v>
       </c>
       <c r="E442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F442" s="2">
-        <v>45820.46855324074</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D443" s="2">
-        <v>45820.30824422647</v>
+        <v>45821.8795244992</v>
       </c>
       <c r="E443">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F443" s="2">
-        <v>45819.61424768518</v>
+        <v>45821.66212962963</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -12083,16 +12083,16 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D475" s="2">
-        <v>45799.89534672352</v>
+        <v>45821.87950559799</v>
       </c>
       <c r="E475">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F475" s="2">
-        <v>45792.65863425926</v>
+        <v>45821.53137731482</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D480" s="2">
-        <v>45820.30824423706</v>
+        <v>45821.87950559583</v>
       </c>
       <c r="E480">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F480" s="2">
-        <v>45819.76177083333</v>
+        <v>45821.44518518518</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="D486" s="2">
-        <v>45820.9169750193</v>
+        <v>45821.87952450533</v>
       </c>
       <c r="E486">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F486" s="2">
-        <v>45820.7009375</v>
+        <v>45821.74371527778</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D581" s="2">
-        <v>45807.78640665444</v>
+        <v>45821.87950559595</v>
       </c>
       <c r="E581">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F581" s="2">
-        <v>45807.69802083333</v>
+        <v>45821.44518518518</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="D657" s="2">
-        <v>45820.91695280715</v>
+        <v>45821.87950559706</v>
       </c>
       <c r="E657">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="F657" s="2">
-        <v>45820.41594907407</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D772" s="2">
-        <v>45820.30820705838</v>
+        <v>45821.87950559809</v>
       </c>
       <c r="E772">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F772" s="2">
-        <v>45819.43508101852</v>
+        <v>45821.53137731482</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19431,16 +19431,16 @@
         <v>1</v>
       </c>
       <c r="C774">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D774" s="2">
-        <v>45811.92546678011</v>
+        <v>45821.8795245018</v>
       </c>
       <c r="E774">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F774" s="2">
-        <v>45811.4409375</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G774">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D810" s="2">
-        <v>45820.91697502199</v>
+        <v>45821.87952450488</v>
       </c>
       <c r="E810">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F810" s="2">
-        <v>45820.70353009259</v>
+        <v>45821.73837962963</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D819" s="2">
-        <v>45814.82968397064</v>
+        <v>45821.87952449932</v>
       </c>
       <c r="E819">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F819" s="2">
-        <v>45814.49446759259</v>
+        <v>45821.66212962963</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20853,16 +20853,16 @@
         <v>1</v>
       </c>
       <c r="C831">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D831" s="2">
-        <v>45818.30486083288</v>
+        <v>45821.87952449865</v>
       </c>
       <c r="E831">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F831" s="2">
-        <v>45817.51131944444</v>
+        <v>45821.60837962963</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D854" s="2">
-        <v>45820.3082070577</v>
+        <v>45821.87952450346</v>
       </c>
       <c r="E854">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F854" s="2">
-        <v>45819.42618055556</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21842,16 +21842,16 @@
         <v>1</v>
       </c>
       <c r="C871">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D871" s="2">
-        <v>45798.96533509644</v>
+        <v>45821.87952450188</v>
       </c>
       <c r="E871">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F871" s="2">
-        <v>45798.63555555556</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G871">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D883" s="2">
-        <v>45820.91697502646</v>
+        <v>45821.87952450355</v>
       </c>
       <c r="E883">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F883" s="2">
-        <v>45820.70586805556</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22171,16 +22171,16 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D884" s="2">
-        <v>45811.92549991595</v>
+        <v>45821.87952449969</v>
       </c>
       <c r="E884">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F884" s="2">
-        <v>45811.6834837963</v>
+        <v>45821.6746875</v>
       </c>
       <c r="G884">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>-120</v>
+        <v>-150</v>
       </c>
       <c r="D888" s="2">
-        <v>45820.30820705847</v>
+        <v>45821.87952450365</v>
       </c>
       <c r="E888">
-        <v>-120</v>
+        <v>-150</v>
       </c>
       <c r="F888" s="2">
-        <v>45819.43508101852</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="D924" s="2">
-        <v>45820.30824423355</v>
+        <v>45821.87950559718</v>
       </c>
       <c r="E924">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="F924" s="2">
-        <v>45819.65788194445</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -25533,22 +25533,22 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D1017" s="2">
-        <v>45820.30820705892</v>
+        <v>45821.87952449809</v>
       </c>
       <c r="E1017">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F1017" s="2">
-        <v>45819.43864583333</v>
+        <v>45821.53137731482</v>
       </c>
       <c r="G1017">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H1017" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1018" s="2">
-        <v>45811.92544186871</v>
+        <v>45821.87952450374</v>
       </c>
       <c r="E1018">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1018" s="2">
-        <v>45811.42122685185</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>1</v>
       </c>
       <c r="C1094">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1094" s="2">
-        <v>45800.93188814504</v>
+        <v>45821.87952450383</v>
       </c>
       <c r="E1094">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1094" s="2">
-        <v>45800.62185185185</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1094">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1110" s="2">
-        <v>45820.30820705857</v>
+        <v>45821.8795055973</v>
       </c>
       <c r="E1110">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1110" s="2">
-        <v>45819.43508101852</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1122" s="2">
-        <v>45820.91697502353</v>
+        <v>45821.87952449879</v>
       </c>
       <c r="E1122">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1122" s="2">
-        <v>45820.70375</v>
+        <v>45821.60837962963</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -29039,16 +29039,16 @@
         <v>1</v>
       </c>
       <c r="C1156">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D1156" s="2">
-        <v>45814.82966409007</v>
+        <v>45821.87952450392</v>
       </c>
       <c r="E1156">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F1156" s="2">
-        <v>45814.39601851852</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -29322,16 +29322,16 @@
         <v>1</v>
       </c>
       <c r="C1167">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D1167" s="2">
-        <v>45820.9169750206</v>
+        <v>45821.87952449908</v>
       </c>
       <c r="E1167">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F1167" s="2">
-        <v>45820.7009375</v>
+        <v>45821.64940972222</v>
       </c>
       <c r="G1167">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1174" s="2">
-        <v>45820.30820706086</v>
+        <v>45821.87950559489</v>
       </c>
       <c r="E1174">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1174" s="2">
-        <v>45819.51405092593</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D1177" s="2">
-        <v>45820.9169750208</v>
+        <v>45821.879505595</v>
       </c>
       <c r="E1177">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F1177" s="2">
-        <v>45820.7009375</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29986,16 +29986,16 @@
         <v>1</v>
       </c>
       <c r="C1193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1193" s="2">
-        <v>45813.9578819583</v>
+        <v>45821.87952450198</v>
       </c>
       <c r="E1193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1193" s="2">
-        <v>45813.67818287037</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G1193">
         <v>0</v>
@@ -31450,16 +31450,16 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D1250" s="2">
-        <v>45820.30824422724</v>
+        <v>45821.87952450402</v>
       </c>
       <c r="E1250">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F1250" s="2">
-        <v>45819.61609953704</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1250">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D1253" s="2">
-        <v>45820.91697502365</v>
+        <v>45821.87950559511</v>
       </c>
       <c r="E1253">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F1253" s="2">
-        <v>45820.70375</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D1332" s="2">
-        <v>45820.91695280757</v>
+        <v>45821.87950559742</v>
       </c>
       <c r="E1332">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F1332" s="2">
-        <v>45820.41594907407</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="D1342" s="2">
-        <v>45820.30824423776</v>
+        <v>45821.87952450208</v>
       </c>
       <c r="E1342">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="F1342" s="2">
-        <v>45819.76177083333</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34025,16 +34025,16 @@
         <v>1</v>
       </c>
       <c r="C1351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1351" s="2">
-        <v>45799.89534672352</v>
+        <v>45821.87950559752</v>
       </c>
       <c r="E1351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1351" s="2">
-        <v>45792.66989583334</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G1351">
         <v>0</v>
@@ -34963,16 +34963,16 @@
         <v>1</v>
       </c>
       <c r="C1388">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D1388" s="2">
-        <v>45806.77605776805</v>
+        <v>45821.87950559524</v>
       </c>
       <c r="E1388">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F1388" s="2">
-        <v>45806.75375</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G1388">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D1390" s="2">
-        <v>45814.82976436854</v>
+        <v>45821.87952450216</v>
       </c>
       <c r="E1390">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1390" s="2">
-        <v>45814.70711805556</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="D1391" s="2">
-        <v>45820.91695281108</v>
+        <v>45821.87952450411</v>
       </c>
       <c r="E1391">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="F1391" s="2">
-        <v>45820.42355324074</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35630,16 +35630,16 @@
         <v>1</v>
       </c>
       <c r="C1414">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1414" s="2">
-        <v>45818.30486082094</v>
+        <v>45821.87952450515</v>
       </c>
       <c r="E1414">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F1414" s="2">
-        <v>45817.45899305555</v>
+        <v>45821.74190972222</v>
       </c>
       <c r="G1414">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1507" s="2">
-        <v>45814.82976436854</v>
+        <v>45821.87952450419</v>
       </c>
       <c r="E1507">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1507" s="2">
-        <v>45814.46266203704</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1594" s="2">
-        <v>45820.91697502688</v>
+        <v>45821.87950559765</v>
       </c>
       <c r="E1594">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1594" s="2">
-        <v>45820.71178240741</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5551</v>
+        <v>5503</v>
       </c>
       <c r="D1597" s="2">
-        <v>45820.91697501904</v>
+        <v>45821.87952450429</v>
       </c>
       <c r="E1597">
-        <v>5551</v>
+        <v>5503</v>
       </c>
       <c r="F1597" s="2">
-        <v>45820.68109953704</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40930,16 +40930,16 @@
         <v>1</v>
       </c>
       <c r="C1625">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1625" s="2">
-        <v>45811.92546678011</v>
+        <v>45821.87952450439</v>
       </c>
       <c r="E1625">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1625" s="2">
-        <v>45811.42236111111</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1625">
         <v>0</v>
@@ -41602,16 +41602,16 @@
         <v>1</v>
       </c>
       <c r="C1652">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D1652" s="2">
-        <v>45820.91697502161</v>
+        <v>45821.87952450076</v>
       </c>
       <c r="E1652">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F1652" s="2">
-        <v>45820.7009375</v>
+        <v>45821.68541666667</v>
       </c>
       <c r="G1652">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1656" s="2">
-        <v>45814.82968397064</v>
+        <v>45821.87950559777</v>
       </c>
       <c r="E1656">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1656" s="2">
-        <v>45817.66995370371</v>
+        <v>45821.51931712963</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -43165,16 +43165,16 @@
         <v>1</v>
       </c>
       <c r="C1715">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1715" s="2">
-        <v>45795.04171906877</v>
+        <v>45821.87952450525</v>
       </c>
       <c r="E1715">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1715" s="2">
-        <v>45492.58887731482</v>
+        <v>45821.74317129629</v>
       </c>
       <c r="G1715">
         <v>0</v>
@@ -45178,16 +45178,16 @@
         <v>1</v>
       </c>
       <c r="C1796">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1796" s="2">
-        <v>45805.91875152234</v>
+        <v>45821.87952450448</v>
       </c>
       <c r="E1796">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1796" s="2">
-        <v>45805.65278935185</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G1796">
         <v>0</v>
@@ -45865,16 +45865,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D1823" s="2">
-        <v>45820.91697502699</v>
+        <v>45821.87952450234</v>
       </c>
       <c r="E1823">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F1823" s="2">
-        <v>45820.71178240741</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -46673,16 +46673,16 @@
         <v>1</v>
       </c>
       <c r="C1855">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1855" s="2">
-        <v>45810.72563721648</v>
+        <v>45821.87950559535</v>
       </c>
       <c r="E1855">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1855" s="2">
-        <v>45810.73041666667</v>
+        <v>45821.43476851852</v>
       </c>
       <c r="G1855">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2056" s="2">
-        <v>45820.91695280778</v>
+        <v>45821.87952450244</v>
       </c>
       <c r="E2056">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2056" s="2">
-        <v>45820.41594907407</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -56461,7 +56461,7 @@
         <v>0</v>
       </c>
       <c r="F2243" s="2">
-        <v>45796.42912037037</v>
+        <v>45821.48373842592</v>
       </c>
       <c r="G2243">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D2416" s="2">
-        <v>45820.91697502222</v>
+        <v>45821.87952450253</v>
       </c>
       <c r="E2416">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F2416" s="2">
-        <v>45820.70353009259</v>
+        <v>45821.69668981482</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D2482" s="2">
-        <v>45820.30820705818</v>
+        <v>45821.87952450457</v>
       </c>
       <c r="E2482">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F2482" s="2">
-        <v>45819.42618055556</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="D2483" s="2">
-        <v>45820.30824422987</v>
+        <v>45821.87952450465</v>
       </c>
       <c r="E2483">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="F2483" s="2">
-        <v>45819.62377314815</v>
+        <v>45821.73368055555</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62517,16 +62517,16 @@
         <v>1</v>
       </c>
       <c r="C2487">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2487" s="2">
-        <v>45820.91697502186</v>
+        <v>45821.87952449852</v>
       </c>
       <c r="E2487">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2487" s="2">
-        <v>45820.7009375</v>
+        <v>45821.56324074074</v>
       </c>
       <c r="G2487">
         <v>0</v>
@@ -64481,6 +64481,9 @@
       <c r="E2568">
         <v>0</v>
       </c>
+      <c r="F2568" s="2">
+        <v>45821.73707175926</v>
+      </c>
       <c r="G2568">
         <v>0</v>
       </c>
@@ -64504,10 +64507,85 @@
       <c r="E2569">
         <v>0</v>
       </c>
+      <c r="F2569" s="2">
+        <v>45821.64237268519</v>
+      </c>
       <c r="G2569">
         <v>0</v>
       </c>
       <c r="H2569" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:8">
+      <c r="A2570">
+        <v>43596208</v>
+      </c>
+      <c r="B2570">
+        <v>1</v>
+      </c>
+      <c r="C2570">
+        <v>0</v>
+      </c>
+      <c r="D2570" s="2">
+        <v>45821.87950559537</v>
+      </c>
+      <c r="E2570">
+        <v>0</v>
+      </c>
+      <c r="G2570">
+        <v>0</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:8">
+      <c r="A2571">
+        <v>43598145</v>
+      </c>
+      <c r="B2571">
+        <v>1</v>
+      </c>
+      <c r="C2571">
+        <v>0</v>
+      </c>
+      <c r="D2571" s="2">
+        <v>45821.87952450468</v>
+      </c>
+      <c r="E2571">
+        <v>0</v>
+      </c>
+      <c r="F2571" s="2">
+        <v>45821.73553240741</v>
+      </c>
+      <c r="G2571">
+        <v>0</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:8">
+      <c r="A2572">
+        <v>43603697</v>
+      </c>
+      <c r="B2572">
+        <v>1</v>
+      </c>
+      <c r="C2572">
+        <v>0</v>
+      </c>
+      <c r="D2572" s="2">
+        <v>45821.87952449882</v>
+      </c>
+      <c r="E2572">
+        <v>0</v>
+      </c>
+      <c r="G2572">
+        <v>0</v>
+      </c>
+      <c r="H2572" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -3492,16 +3492,16 @@
         <v>45820.30820705877</v>
       </c>
       <c r="E126">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F126" s="2">
         <v>45819.43864583333</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2572"/>
+  <dimension ref="A1:H2575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>45821.87952450086</v>
+        <v>45825.28852326881</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.75037037037</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>45821.87950559617</v>
+        <v>45825.28852326892</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.75209490741</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D7" s="2">
-        <v>45799.89545110933</v>
+        <v>45825.28852326469</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F7" s="2">
-        <v>45792.49260416667</v>
+        <v>45824.68784722222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>45821.8795244998</v>
+        <v>45825.28849841389</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.44024305556</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3054</v>
+        <v>3025</v>
       </c>
       <c r="D33" s="2">
-        <v>45821.87952449826</v>
+        <v>45825.2885232613</v>
       </c>
       <c r="E33">
-        <v>3054</v>
+        <v>3025</v>
       </c>
       <c r="F33" s="2">
-        <v>45821.53424768519</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D49" s="2">
-        <v>45820.30820705996</v>
+        <v>45825.2884984123</v>
       </c>
       <c r="E49">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2">
-        <v>45819.51405092593</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="D56" s="2">
-        <v>45821.87952450282</v>
+        <v>45825.28849841777</v>
       </c>
       <c r="E56">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="F56" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D58" s="2">
-        <v>45820.30820706132</v>
+        <v>45825.28852326544</v>
       </c>
       <c r="E58">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="F58" s="2">
-        <v>45819.54417824074</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2">
-        <v>45820.30824423324</v>
+        <v>45825.28852326087</v>
       </c>
       <c r="E59">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="F59" s="2">
-        <v>45819.65788194445</v>
+        <v>45824.64711805555</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D63" s="2">
-        <v>45821.87952449994</v>
+        <v>45825.28849841583</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="F63" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.60457175926</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2">
-        <v>45821.87952450007</v>
+        <v>45825.28852326251</v>
       </c>
       <c r="E70">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>45812.78301989438</v>
+        <v>45825.28849841786</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2">
-        <v>45812.65041666666</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2">
-        <v>45821.87952450096</v>
+        <v>45825.28852326557</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F82" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>45821.87950559548</v>
+        <v>45825.28849841796</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2">
-        <v>45821.44518518518</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>-7</v>
+        <v>73</v>
       </c>
       <c r="D85" s="2">
-        <v>45821.87952450106</v>
+        <v>45825.28849841443</v>
       </c>
       <c r="E85">
-        <v>-7</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.45010416667</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>153</v>
       </c>
       <c r="F86" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.60457175926</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="D87" s="2">
-        <v>45821.87952450114</v>
+        <v>45825.28852326569</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="F87" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D91" s="2">
-        <v>45821.87952450031</v>
+        <v>45825.28849841641</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.62041666666</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D94" s="2">
-        <v>45821.8795245029</v>
+        <v>45825.28849841835</v>
       </c>
       <c r="E94">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.64261574074</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>45804.91952554927</v>
+        <v>45825.28849841553</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F96" s="2">
-        <v>45804.42633101852</v>
+        <v>45824.50672453704</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>111</v>
+        <v>-9</v>
       </c>
       <c r="D101" s="2">
-        <v>45821.879524503</v>
+        <v>45825.28852326581</v>
       </c>
       <c r="E101">
-        <v>111</v>
+        <v>-9</v>
       </c>
       <c r="F101" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
-        <v>45820.91697502234</v>
+        <v>45825.28852326265</v>
       </c>
       <c r="E106">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F106" s="2">
-        <v>45820.70375</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D115" s="2">
-        <v>45818.30489302706</v>
+        <v>45825.28849841651</v>
       </c>
       <c r="E115">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="F115" s="2">
-        <v>45817.7559837963</v>
+        <v>45824.62041666666</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="D117" s="2">
-        <v>45821.87952449839</v>
+        <v>45825.2884984171</v>
       </c>
       <c r="E117">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="F117" s="2">
-        <v>45821.53424768519</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D120" s="2">
-        <v>45821.87950559406</v>
+        <v>45825.28852326947</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F120" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.76686342592</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D123" s="2">
-        <v>45821.87950559628</v>
+        <v>45825.28852326279</v>
       </c>
       <c r="E123">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="F123" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
-        <v>45813.95788193521</v>
+        <v>45825.28849841905</v>
       </c>
       <c r="E139">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F139" s="2">
-        <v>45813.67089120371</v>
+        <v>45824.64331018519</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2">
-        <v>45821.87952450133</v>
+        <v>45825.28849841242</v>
       </c>
       <c r="E150">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F150" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>59</v>
       </c>
       <c r="F162" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.60457175926</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>194</v>
       </c>
       <c r="F175" s="2">
-        <v>45821.67626157407</v>
+        <v>45824.60457175926</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D185" s="2">
-        <v>45818.80148693504</v>
+        <v>45825.28849841207</v>
       </c>
       <c r="E185">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F185" s="2">
-        <v>45818.46909722222</v>
+        <v>45824.38501157407</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2">
-        <v>45820.30820705704</v>
+        <v>45825.28849841134</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="2">
-        <v>45819.42618055556</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D217" s="2">
-        <v>45821.87950559353</v>
+        <v>45825.28849841253</v>
       </c>
       <c r="E217">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F217" s="2">
-        <v>45821.42207175926</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D222" s="2">
-        <v>45811.92544186871</v>
+        <v>45825.28849841264</v>
       </c>
       <c r="E222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F222" s="2">
-        <v>45811.42236111111</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D236" s="2">
-        <v>45813.95785147848</v>
+        <v>45825.28849841845</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F236" s="2">
-        <v>45813.5819212963</v>
+        <v>45824.64261574074</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D247" s="2">
-        <v>45821.87950559662</v>
+        <v>45825.28852326146</v>
       </c>
       <c r="E247">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F247" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D255" s="2">
-        <v>45821.87950559418</v>
+        <v>45825.2884984141</v>
       </c>
       <c r="E255">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F255" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.44436342592</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D270" s="2">
-        <v>45821.87952450143</v>
+        <v>45825.28849841147</v>
       </c>
       <c r="E270">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F270" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D272" s="2">
-        <v>45818.30486083927</v>
+        <v>45825.28852326293</v>
       </c>
       <c r="E272">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F272" s="2">
-        <v>45817.555</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D274" s="2">
-        <v>45821.8795055943</v>
+        <v>45825.28849841854</v>
       </c>
       <c r="E274">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F274" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.64261574074</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D283" s="2">
-        <v>45821.87950559673</v>
+        <v>45825.28852326739</v>
       </c>
       <c r="E283">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F283" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.74089120371</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D287" s="2">
-        <v>45821.87950559571</v>
+        <v>45825.28849841275</v>
       </c>
       <c r="E287">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F287" s="2">
-        <v>45821.44518518518</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="D291" s="2">
-        <v>45820.91697502483</v>
+        <v>45825.28852326162</v>
       </c>
       <c r="E291">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="F291" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D292" s="2">
-        <v>45820.3082070572</v>
+        <v>45825.28849841865</v>
       </c>
       <c r="E292">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F292" s="2">
-        <v>45819.42618055556</v>
+        <v>45824.64261574074</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="D295" s="2">
-        <v>45820.91697502493</v>
+        <v>45825.28852326792</v>
       </c>
       <c r="E295">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="F295" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="D309" s="2">
-        <v>45821.87950559442</v>
+        <v>45825.28849841504</v>
       </c>
       <c r="E309">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="F309" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.4725</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D314" s="2">
-        <v>45813.95785146693</v>
+        <v>45825.28852326102</v>
       </c>
       <c r="E314">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F314" s="2">
-        <v>45813.57359953703</v>
+        <v>45824.64711805555</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D315" s="2">
-        <v>45813.95785147848</v>
+        <v>45825.28849841914</v>
       </c>
       <c r="E315">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F315" s="2">
-        <v>45813.57829861111</v>
+        <v>45824.64331018519</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>-79</v>
+        <v>-134</v>
       </c>
       <c r="D318" s="2">
-        <v>45821.87952450151</v>
+        <v>45825.28852326493</v>
       </c>
       <c r="E318">
-        <v>-79</v>
+        <v>-134</v>
       </c>
       <c r="F318" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.69230324074</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D319" s="2">
-        <v>45812.78301989438</v>
+        <v>45825.28849841288</v>
       </c>
       <c r="E319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F319" s="2">
-        <v>45812.66025462963</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D326" s="2">
-        <v>45818.80148693661</v>
+        <v>45825.28849841631</v>
       </c>
       <c r="E326">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F326" s="2">
-        <v>45818.46909722222</v>
+        <v>45824.61862268519</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D328" s="2">
-        <v>45812.78306322403</v>
+        <v>45825.28849841077</v>
       </c>
       <c r="E328">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F328" s="2">
-        <v>45812.70449074074</v>
+        <v>45824.37760416666</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D342" s="2">
-        <v>45820.91697502525</v>
+        <v>45825.28849841953</v>
       </c>
       <c r="E342">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F342" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64376157407</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8798,16 +8798,16 @@
         <v>1</v>
       </c>
       <c r="C343">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D343" s="2">
-        <v>45795.04208095842</v>
+        <v>45825.28849841874</v>
       </c>
       <c r="E343">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F343" s="2">
-        <v>45769.46071759259</v>
+        <v>45824.64261574074</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D346" s="2">
-        <v>45820.91695281524</v>
+        <v>45825.28849841515</v>
       </c>
       <c r="E346">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F346" s="2">
-        <v>45820.63418981482</v>
+        <v>45824.4725</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>66</v>
+        <v>-270</v>
       </c>
       <c r="D350" s="2">
-        <v>45820.91697502259</v>
+        <v>45825.28852326308</v>
       </c>
       <c r="E350">
-        <v>66</v>
+        <v>-270</v>
       </c>
       <c r="F350" s="2">
-        <v>45820.70375</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="D351" s="2">
-        <v>45820.91697502537</v>
+        <v>45825.28849841563</v>
       </c>
       <c r="E351">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F351" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.50672453704</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D361" s="2">
-        <v>45821.87950559788</v>
+        <v>45825.28852326638</v>
       </c>
       <c r="E361">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F361" s="2">
-        <v>45821.53137731482</v>
+        <v>45824.74033564814</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="D363" s="2">
-        <v>45821.87952450318</v>
+        <v>45825.28852326674</v>
       </c>
       <c r="E363">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="F363" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D379" s="2">
-        <v>45820.30820705908</v>
+        <v>45825.28849841159</v>
       </c>
       <c r="E379">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F379" s="2">
-        <v>45819.44168981481</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D386" s="2">
-        <v>45821.87950559465</v>
+        <v>45825.28849841095</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F386" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.37760416666</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="C388">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D388" s="2">
-        <v>45806.77603763194</v>
+        <v>45825.28852326594</v>
       </c>
       <c r="E388">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F388" s="2">
-        <v>45806.74983796296</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D389" s="2">
-        <v>45811.92549991595</v>
+        <v>45825.28852326606</v>
       </c>
       <c r="E389">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F389" s="2">
-        <v>45811.69520833333</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-19</v>
+        <v>178</v>
       </c>
       <c r="D390" s="2">
-        <v>45821.87952450337</v>
+        <v>45825.28852326684</v>
       </c>
       <c r="E390">
-        <v>-19</v>
+        <v>178</v>
       </c>
       <c r="F390" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D394" s="2">
-        <v>45821.87952449957</v>
+        <v>45825.28849841923</v>
       </c>
       <c r="E394">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F394" s="2">
-        <v>45821.6746875</v>
+        <v>45824.64331018519</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1931</v>
+        <v>1835</v>
       </c>
       <c r="D410" s="2">
-        <v>45820.91697502574</v>
+        <v>45825.28852326178</v>
       </c>
       <c r="E410">
-        <v>1931</v>
+        <v>1835</v>
       </c>
       <c r="F410" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D414" s="2">
-        <v>45814.8297848079</v>
+        <v>45825.288498413</v>
       </c>
       <c r="E414">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F414" s="2">
-        <v>45814.39652777778</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D418" s="2">
-        <v>45820.91697502294</v>
+        <v>45825.28852326803</v>
       </c>
       <c r="E418">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F418" s="2">
-        <v>45820.70375</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D422" s="2">
-        <v>45821.87950559695</v>
+        <v>45825.2884984131</v>
       </c>
       <c r="E422">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F422" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D435" s="2">
-        <v>45820.91697501879</v>
+        <v>45825.28849841982</v>
       </c>
       <c r="E435">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F435" s="2">
-        <v>45820.68109953704</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D443" s="2">
-        <v>45821.8795244992</v>
+        <v>45825.28852326116</v>
       </c>
       <c r="E443">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F443" s="2">
-        <v>45821.66212962963</v>
+        <v>45824.64711805555</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-104</v>
+        <v>-114</v>
       </c>
       <c r="D469" s="2">
-        <v>45813.95785149008</v>
+        <v>45825.28852326193</v>
       </c>
       <c r="E469">
-        <v>-104</v>
+        <v>-114</v>
       </c>
       <c r="F469" s="2">
-        <v>45813.58277777778</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D472" s="2">
-        <v>45820.30824422948</v>
+        <v>45825.28849841379</v>
       </c>
       <c r="E472">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F472" s="2">
-        <v>45819.62377314815</v>
+        <v>45824.43664351852</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -12083,16 +12083,16 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D475" s="2">
-        <v>45821.87950559799</v>
+        <v>45825.28849841719</v>
       </c>
       <c r="E475">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F475" s="2">
-        <v>45821.53137731482</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D480" s="2">
-        <v>45821.87950559583</v>
+        <v>45825.28849841963</v>
       </c>
       <c r="E480">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F480" s="2">
-        <v>45821.44518518518</v>
+        <v>45824.64376157407</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D486" s="2">
-        <v>45821.87952450533</v>
+        <v>45825.28852326445</v>
       </c>
       <c r="E486">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F486" s="2">
-        <v>45821.74371527778</v>
+        <v>45824.67936342592</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -12830,16 +12830,16 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D505" s="2">
-        <v>45807.78640665444</v>
+        <v>45825.28852326814</v>
       </c>
       <c r="E505">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F505" s="2">
-        <v>45811.68271990741</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>1</v>
       </c>
       <c r="C507">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D507" s="2">
-        <v>45806.77605776805</v>
+        <v>45825.28849841455</v>
       </c>
       <c r="E507">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F507" s="2">
-        <v>45806.75375</v>
+        <v>45824.45626157407</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D510" s="2">
-        <v>45820.91695281569</v>
+        <v>45825.28852326749</v>
       </c>
       <c r="E510">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F510" s="2">
-        <v>45820.67057870371</v>
+        <v>45824.74089120371</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D535" s="2">
-        <v>45811.92546678011</v>
+        <v>45825.28849841469</v>
       </c>
       <c r="E535">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F535" s="2">
-        <v>45811.50664351852</v>
+        <v>45824.45626157407</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="D570" s="2">
-        <v>45820.91695281351</v>
+        <v>45825.28849841806</v>
       </c>
       <c r="E570">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="F570" s="2">
-        <v>45820.60888888889</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D581" s="2">
-        <v>45821.87950559595</v>
+        <v>45825.28849841622</v>
       </c>
       <c r="E581">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F581" s="2">
-        <v>45821.44518518518</v>
+        <v>45824.60457175926</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15279,16 +15279,16 @@
         <v>1</v>
       </c>
       <c r="C606">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D606" s="2">
-        <v>45795.04193352044</v>
+        <v>45825.28852326824</v>
       </c>
       <c r="E606">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F606" s="2">
-        <v>45681.46425925926</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D631" s="2">
-        <v>45820.91697501951</v>
+        <v>45825.2884984168</v>
       </c>
       <c r="E631">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F631" s="2">
-        <v>45820.7009375</v>
+        <v>45824.62626157407</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D634" s="2">
-        <v>45820.30824423106</v>
+        <v>45825.28852326208</v>
       </c>
       <c r="E634">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F634" s="2">
-        <v>45819.62554398148</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16385,16 +16385,16 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="D652" s="2">
-        <v>45813.95793319555</v>
+        <v>45825.28849841534</v>
       </c>
       <c r="E652">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="F652" s="2">
-        <v>45813.71038194445</v>
+        <v>45824.47506944444</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -16483,16 +16483,16 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D656" s="2">
-        <v>45812.78303939045</v>
+        <v>45825.28849841322</v>
       </c>
       <c r="E656">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F656" s="2">
-        <v>45812.70203703704</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2060</v>
+        <v>2031</v>
       </c>
       <c r="D657" s="2">
-        <v>45821.87950559706</v>
+        <v>45825.28852326759</v>
       </c>
       <c r="E657">
-        <v>2060</v>
+        <v>2031</v>
       </c>
       <c r="F657" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.74089120371</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D660" s="2">
-        <v>45820.91695280736</v>
+        <v>45825.28849841816</v>
       </c>
       <c r="E660">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F660" s="2">
-        <v>45820.41594907407</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="D681" s="2">
-        <v>45820.91697502587</v>
+        <v>45825.28852326323</v>
       </c>
       <c r="E681">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F681" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D691" s="2">
-        <v>45818.80148693761</v>
+        <v>45825.2884984122</v>
       </c>
       <c r="E691">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F691" s="2">
-        <v>45818.46909722222</v>
+        <v>45824.38501157407</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17368,16 +17368,16 @@
         <v>1</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D692" s="2">
-        <v>45799.89534671205</v>
+        <v>45825.28852326506</v>
       </c>
       <c r="E692">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F692" s="2">
-        <v>45792.41440972222</v>
+        <v>45824.69230324074</v>
       </c>
       <c r="G692">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D720" s="2">
-        <v>45813.95785147848</v>
+        <v>45825.28849841883</v>
       </c>
       <c r="E720">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F720" s="2">
-        <v>45813.58108796296</v>
+        <v>45824.6428125</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D726" s="2">
-        <v>45814.82970462521</v>
+        <v>45825.28852326433</v>
       </c>
       <c r="E726">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F726" s="2">
-        <v>45814.49446759259</v>
+        <v>45824.67894675926</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D729" s="2">
-        <v>45820.91697502317</v>
+        <v>45825.28852326518</v>
       </c>
       <c r="E729">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F729" s="2">
-        <v>45820.70375</v>
+        <v>45824.69230324074</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D731" s="2">
-        <v>45820.91697502598</v>
+        <v>45825.28852326224</v>
       </c>
       <c r="E731">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F731" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D732" s="2">
-        <v>45820.9169750261</v>
+        <v>45825.28852326337</v>
       </c>
       <c r="E732">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="F732" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18456,16 +18456,16 @@
         <v>1</v>
       </c>
       <c r="C735">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D735" s="2">
-        <v>45811.92546678011</v>
+        <v>45825.28849841993</v>
       </c>
       <c r="E735">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F735" s="2">
-        <v>45811.49375</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="D741" s="2">
-        <v>45820.91697502622</v>
+        <v>45825.28852326352</v>
       </c>
       <c r="E741">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="F741" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D770" s="2">
-        <v>45820.3082070563</v>
+        <v>45825.288498414</v>
       </c>
       <c r="E770">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F770" s="2">
-        <v>45819.39163194445</v>
+        <v>45824.44172453704</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D772" s="2">
-        <v>45821.87950559809</v>
+        <v>45825.28852326696</v>
       </c>
       <c r="E772">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="F772" s="2">
-        <v>45821.53137731482</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>1</v>
       </c>
       <c r="C798">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D798" s="2">
-        <v>45799.895451121</v>
+        <v>45825.28849842004</v>
       </c>
       <c r="E798">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F798" s="2">
-        <v>45799.63390046296</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D810" s="2">
-        <v>45821.87952450488</v>
+        <v>45825.28852326925</v>
       </c>
       <c r="E810">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F810" s="2">
-        <v>45821.73837962963</v>
+        <v>45824.76438657408</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D812" s="2">
-        <v>45814.82980241515</v>
+        <v>45825.28852326237</v>
       </c>
       <c r="E812">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F812" s="2">
-        <v>45814.75879629629</v>
+        <v>45824.64774305555</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D826" s="2">
-        <v>45820.91695281051</v>
+        <v>45825.28852326835</v>
       </c>
       <c r="E826">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F826" s="2">
-        <v>45820.42355324074</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D853" s="2">
-        <v>45820.91695281069</v>
+        <v>45825.28849841728</v>
       </c>
       <c r="E853">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F853" s="2">
-        <v>45820.42355324074</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D854" s="2">
-        <v>45821.87952450346</v>
+        <v>45825.28852326937</v>
       </c>
       <c r="E854">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F854" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.76539351852</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D872" s="2">
-        <v>45820.30824423257</v>
+        <v>45825.28852326706</v>
       </c>
       <c r="E872">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F872" s="2">
-        <v>45819.63336805555</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="D876" s="2">
-        <v>45820.91697502341</v>
+        <v>45825.28849842013</v>
       </c>
       <c r="E876">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F876" s="2">
-        <v>45820.70375</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="D883" s="2">
-        <v>45821.87952450355</v>
+        <v>45825.28852326845</v>
       </c>
       <c r="E883">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="F883" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>-150</v>
+        <v>424</v>
       </c>
       <c r="D888" s="2">
-        <v>45821.87952450365</v>
+        <v>45825.28849841659</v>
       </c>
       <c r="E888">
-        <v>-150</v>
+        <v>424</v>
       </c>
       <c r="F888" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.62041666666</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22298,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D889" s="2">
-        <v>45806.77603756409</v>
+        <v>45825.28849841544</v>
       </c>
       <c r="E889">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F889" s="2">
-        <v>45806.67587962963</v>
+        <v>45824.50439814815</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="D924" s="2">
-        <v>45821.87950559718</v>
+        <v>45825.28852326902</v>
       </c>
       <c r="E924">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="F924" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.7532175926</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D962" s="2">
-        <v>45820.91695281588</v>
+        <v>45825.28849841737</v>
       </c>
       <c r="E962">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F962" s="2">
-        <v>45820.67057870371</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D963" s="2">
-        <v>45820.91697502657</v>
+        <v>45825.28849842023</v>
       </c>
       <c r="E963">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F963" s="2">
-        <v>45820.70586805556</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D1017" s="2">
-        <v>45821.87952449809</v>
+        <v>45825.28852326716</v>
       </c>
       <c r="E1017">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F1017" s="2">
-        <v>45821.53137731482</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -25712,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="C1024">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="D1024" s="2">
-        <v>45795.04210567895</v>
+        <v>45825.28852326619</v>
       </c>
       <c r="E1024">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="F1024" s="2">
-        <v>45777.50179398148</v>
+        <v>45824.69262731481</v>
       </c>
       <c r="G1024">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D1025" s="2">
-        <v>45813.95793319555</v>
+        <v>45825.28849841332</v>
       </c>
       <c r="E1025">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F1025" s="2">
-        <v>45813.71038194445</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D1039" s="2">
-        <v>45820.9169528148</v>
+        <v>45825.28849841346</v>
       </c>
       <c r="E1039">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F1039" s="2">
-        <v>45820.62943287037</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="D1062" s="2">
-        <v>45818.80148693828</v>
+        <v>45825.28849841934</v>
       </c>
       <c r="E1062">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="F1062" s="2">
-        <v>45818.46909722222</v>
+        <v>45824.64331018519</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D1110" s="2">
-        <v>45821.8795055973</v>
+        <v>45825.28852326408</v>
       </c>
       <c r="E1110">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F1110" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.65804398148</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1133" s="2">
-        <v>45818.80148694971</v>
+        <v>45825.2884984169</v>
       </c>
       <c r="E1133">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F1133" s="2">
-        <v>45818.704375</v>
+        <v>45824.62626157407</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1147" s="2">
-        <v>45818.30486084976</v>
+        <v>45825.28852326653</v>
       </c>
       <c r="E1147">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1147" s="2">
-        <v>45817.66995370371</v>
+        <v>45824.74033564814</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1149" s="2">
-        <v>45813.95785146693</v>
+        <v>45825.2884984148</v>
       </c>
       <c r="E1149">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1149" s="2">
-        <v>45813.54864583333</v>
+        <v>45824.45626157407</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -28883,16 +28883,16 @@
         <v>1</v>
       </c>
       <c r="C1150">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1150" s="2">
-        <v>45799.89545110933</v>
+        <v>45825.28849841747</v>
       </c>
       <c r="E1150">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1150" s="2">
-        <v>45792.65863425926</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -29039,16 +29039,16 @@
         <v>1</v>
       </c>
       <c r="C1156">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D1156" s="2">
-        <v>45821.87952450392</v>
+        <v>45825.2885232642</v>
       </c>
       <c r="E1156">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="F1156" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.67607638889</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -30038,16 +30038,16 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1195" s="2">
-        <v>45820.30820706123</v>
+        <v>45825.28852326531</v>
       </c>
       <c r="E1195">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1195" s="2">
-        <v>45819.53631944444</v>
+        <v>45824.69230324074</v>
       </c>
       <c r="G1195">
         <v>0</v>
@@ -30064,16 +30064,16 @@
         <v>1</v>
       </c>
       <c r="C1196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1196" s="2">
-        <v>45812.78306322403</v>
+        <v>45825.2884984167</v>
       </c>
       <c r="E1196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1196" s="2">
-        <v>45812.70203703704</v>
+        <v>45824.62041666666</v>
       </c>
       <c r="G1196">
         <v>0</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1199" s="2">
-        <v>45813.95785146693</v>
+        <v>45825.28849841943</v>
       </c>
       <c r="E1199">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1199" s="2">
-        <v>45813.57788194445</v>
+        <v>45824.64331018519</v>
       </c>
       <c r="G1199">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1223" s="2">
-        <v>45814.82978481724</v>
+        <v>45825.28849841109</v>
       </c>
       <c r="E1223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1223" s="2">
-        <v>45814.52313657408</v>
+        <v>45824.37760416666</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31450,16 +31450,16 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="D1250" s="2">
-        <v>45821.87952450402</v>
+        <v>45825.28852326456</v>
       </c>
       <c r="E1250">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="F1250" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.68135416666</v>
       </c>
       <c r="G1250">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>1002</v>
+        <v>829</v>
       </c>
       <c r="D1253" s="2">
-        <v>45821.87950559511</v>
+        <v>45825.28852326369</v>
       </c>
       <c r="E1253">
-        <v>1002</v>
+        <v>829</v>
       </c>
       <c r="F1253" s="2">
-        <v>45821.43476851852</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1330" s="2">
-        <v>45811.92549991595</v>
+        <v>45825.28849841357</v>
       </c>
       <c r="E1330">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1330" s="2">
-        <v>45811.69520833333</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G1330">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D1332" s="2">
-        <v>45821.87950559742</v>
+        <v>45825.2885232677</v>
       </c>
       <c r="E1332">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F1332" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.74089120371</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>992</v>
+        <v>783</v>
       </c>
       <c r="D1342" s="2">
-        <v>45821.87952450208</v>
+        <v>45825.28849841825</v>
       </c>
       <c r="E1342">
-        <v>992</v>
+        <v>783</v>
       </c>
       <c r="F1342" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.64238425926</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1390" s="2">
-        <v>45821.87952450216</v>
+        <v>45825.2884984117</v>
       </c>
       <c r="E1390">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1390" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1392" s="2">
-        <v>45813.95790540554</v>
+        <v>45825.28852326855</v>
       </c>
       <c r="E1392">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1392" s="2">
-        <v>45813.63127314814</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G1392">
         <v>0</v>
@@ -35578,16 +35578,16 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D1412" s="2">
-        <v>45820.91695281144</v>
+        <v>45825.28852326781</v>
       </c>
       <c r="E1412">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F1412" s="2">
-        <v>45820.43140046296</v>
+        <v>45824.74089120371</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -36450,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1446" s="2">
-        <v>45813.95785146693</v>
+        <v>45825.28849841491</v>
       </c>
       <c r="E1446">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F1446" s="2">
-        <v>45813.54864583333</v>
+        <v>45824.45626157407</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36502,16 +36502,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="D1448" s="2">
-        <v>45820.30824423294</v>
+        <v>45825.28849841757</v>
       </c>
       <c r="E1448">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F1448" s="2">
-        <v>45819.63336805555</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -37832,16 +37832,16 @@
         <v>1</v>
       </c>
       <c r="C1501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1501" s="2">
-        <v>45799.89532165734</v>
+        <v>45825.2884984112</v>
       </c>
       <c r="E1501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1501" s="2">
-        <v>45790.42310185185</v>
+        <v>45824.37760416666</v>
       </c>
       <c r="G1501">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D1507" s="2">
-        <v>45821.87952450419</v>
+        <v>45825.28852326384</v>
       </c>
       <c r="E1507">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F1507" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -40171,16 +40171,16 @@
         <v>1</v>
       </c>
       <c r="C1595">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1595" s="2">
-        <v>45799.89528859723</v>
+        <v>45825.28849841367</v>
       </c>
       <c r="E1595">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1595" s="2">
-        <v>45783.46972222222</v>
+        <v>45824.43540509259</v>
       </c>
       <c r="G1595">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5503</v>
+        <v>5396</v>
       </c>
       <c r="D1597" s="2">
-        <v>45821.87952450429</v>
+        <v>45825.28852326867</v>
       </c>
       <c r="E1597">
-        <v>5503</v>
+        <v>5396</v>
       </c>
       <c r="F1597" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.74362268519</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="D1635" s="2">
-        <v>45818.30489301831</v>
+        <v>45825.28849841896</v>
       </c>
       <c r="E1635">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="F1635" s="2">
-        <v>45817.75368055556</v>
+        <v>45824.6428125</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41576,16 +41576,16 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1651" s="2">
-        <v>45812.78301983239</v>
+        <v>45825.28852326957</v>
       </c>
       <c r="E1651">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1651" s="2">
-        <v>45812.47731481482</v>
+        <v>45824.76962962963</v>
       </c>
       <c r="G1651">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D1656" s="2">
-        <v>45821.87950559777</v>
+        <v>45825.28852326066</v>
       </c>
       <c r="E1656">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F1656" s="2">
-        <v>45821.51931712963</v>
+        <v>45824.64541666667</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D1844" s="2">
-        <v>45820.91695281626</v>
+        <v>45825.28849841183</v>
       </c>
       <c r="E1844">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F1844" s="2">
-        <v>45820.67057870371</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -50909,16 +50909,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2023" s="2">
-        <v>45820.30820705802</v>
+        <v>45825.28852326728</v>
       </c>
       <c r="E2023">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2023" s="2">
-        <v>45819.42618055556</v>
+        <v>45824.74057870371</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -51160,16 +51160,16 @@
         <v>1</v>
       </c>
       <c r="C2033">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2033" s="2">
-        <v>45811.92544186871</v>
+        <v>45825.28849841766</v>
       </c>
       <c r="E2033">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2033" s="2">
-        <v>45810.76806712963</v>
+        <v>45824.63096064814</v>
       </c>
       <c r="G2033">
         <v>0</v>
@@ -51472,16 +51472,16 @@
         <v>1</v>
       </c>
       <c r="C2045">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2045" s="2">
-        <v>45818.30486084311</v>
+        <v>45825.28849841699</v>
       </c>
       <c r="E2045">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F2045" s="2">
-        <v>45817.6315625</v>
+        <v>45824.62626157407</v>
       </c>
       <c r="G2045">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2056" s="2">
-        <v>45821.87952450244</v>
+        <v>45825.28852326663</v>
       </c>
       <c r="E2056">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2056" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.74033564814</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -54847,16 +54847,16 @@
         <v>1</v>
       </c>
       <c r="C2180">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2180" s="2">
-        <v>45813.95793319555</v>
+        <v>45825.28849841524</v>
       </c>
       <c r="E2180">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2180" s="2">
-        <v>45813.71038194445</v>
+        <v>45824.4725</v>
       </c>
       <c r="G2180">
         <v>0</v>
@@ -55153,16 +55153,16 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D2192" s="2">
-        <v>45820.916975024</v>
+        <v>45825.28849841432</v>
       </c>
       <c r="E2192">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F2192" s="2">
-        <v>45820.70375</v>
+        <v>45824.44917824074</v>
       </c>
       <c r="G2192">
         <v>0</v>
@@ -56374,16 +56374,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D2240" s="2">
-        <v>45811.92544186871</v>
+        <v>45825.28852326396</v>
       </c>
       <c r="E2240">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F2240" s="2">
-        <v>45810.78153935185</v>
+        <v>45824.64796296296</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -56400,16 +56400,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D2241" s="2">
-        <v>45813.95782005877</v>
+        <v>45825.28849841196</v>
       </c>
       <c r="E2241">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F2241" s="2">
-        <v>45813.42155092592</v>
+        <v>45824.3782175926</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -58555,16 +58555,16 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2327" s="2">
-        <v>45820.30824422588</v>
+        <v>45825.2885232648</v>
       </c>
       <c r="E2327">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2327" s="2">
-        <v>45819.59678240741</v>
+        <v>45824.68784722222</v>
       </c>
       <c r="G2327">
         <v>0</v>
@@ -58581,16 +58581,16 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2328" s="2">
-        <v>45818.30489299681</v>
+        <v>45825.28852326913</v>
       </c>
       <c r="E2328">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2328" s="2">
-        <v>45817.68517361111</v>
+        <v>45824.75456018518</v>
       </c>
       <c r="G2328">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D2416" s="2">
-        <v>45821.87952450253</v>
+        <v>45825.28849842033</v>
       </c>
       <c r="E2416">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="F2416" s="2">
-        <v>45821.69668981482</v>
+        <v>45824.64493055556</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -62361,16 +62361,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="D2481" s="2">
-        <v>45813.95785145537</v>
+        <v>45825.28849841421</v>
       </c>
       <c r="E2481">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="F2481" s="2">
-        <v>45813.46293981482</v>
+        <v>45824.44886574074</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D2483" s="2">
-        <v>45821.87952450465</v>
+        <v>45825.28849841573</v>
       </c>
       <c r="E2483">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F2483" s="2">
-        <v>45821.73368055555</v>
+        <v>45824.50672453704</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -64533,6 +64533,9 @@
       <c r="E2570">
         <v>0</v>
       </c>
+      <c r="F2570" s="2">
+        <v>45824.64381944444</v>
+      </c>
       <c r="G2570">
         <v>0</v>
       </c>
@@ -64586,6 +64589,75 @@
         <v>0</v>
       </c>
       <c r="H2572" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:8">
+      <c r="A2573">
+        <v>43660986</v>
+      </c>
+      <c r="B2573">
+        <v>1</v>
+      </c>
+      <c r="C2573">
+        <v>0</v>
+      </c>
+      <c r="D2573" s="2">
+        <v>45825.28852326623</v>
+      </c>
+      <c r="E2573">
+        <v>0</v>
+      </c>
+      <c r="G2573">
+        <v>0</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:8">
+      <c r="A2574">
+        <v>43660992</v>
+      </c>
+      <c r="B2574">
+        <v>1</v>
+      </c>
+      <c r="C2574">
+        <v>0</v>
+      </c>
+      <c r="D2574" s="2">
+        <v>45825.28852326625</v>
+      </c>
+      <c r="E2574">
+        <v>0</v>
+      </c>
+      <c r="G2574">
+        <v>0</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:8">
+      <c r="A2575">
+        <v>43664584</v>
+      </c>
+      <c r="B2575">
+        <v>1</v>
+      </c>
+      <c r="C2575">
+        <v>0</v>
+      </c>
+      <c r="D2575" s="2">
+        <v>45825.2885232687</v>
+      </c>
+      <c r="E2575">
+        <v>0</v>
+      </c>
+      <c r="G2575">
+        <v>0</v>
+      </c>
+      <c r="H2575" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2575"/>
+  <dimension ref="A1:H2578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>45825.28852326881</v>
+        <v>45825.82707706118</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>45824.75037037037</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>45824.75209490741</v>
+        <v>45825.64662037037</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>45825.28852326469</v>
+        <v>45825.8270770586</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>45824.68784722222</v>
+        <v>45825.44457175926</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2">
-        <v>45825.28849841389</v>
+        <v>45825.82710088163</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2">
-        <v>45824.44024305556</v>
+        <v>45825.71594907407</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>45795.04208095842</v>
+        <v>45825.82707706562</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>45772.4734837963</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="D33" s="2">
-        <v>45825.2885232613</v>
+        <v>45825.8271008762</v>
       </c>
       <c r="E33">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="F33" s="2">
-        <v>45824.64774305555</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
-        <v>45813.95788194679</v>
+        <v>45825.82707705743</v>
       </c>
       <c r="E48">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F48" s="2">
-        <v>45813.67818287037</v>
+        <v>45825.44177083333</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2">
-        <v>45825.2884984123</v>
+        <v>45825.82710087634</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D56" s="2">
-        <v>45825.28849841777</v>
+        <v>45825.8271008745</v>
       </c>
       <c r="E56">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F56" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D59" s="2">
-        <v>45825.28852326087</v>
+        <v>45825.8270770669</v>
       </c>
       <c r="E59">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2">
-        <v>45824.64711805555</v>
+        <v>45825.61604166667</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>45821.87952449945</v>
+        <v>45825.827077059</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2">
-        <v>45821.6746875</v>
+        <v>45825.45659722222</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>45820.91695280852</v>
+        <v>45825.82707706454</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" s="2">
-        <v>45820.42355324074</v>
+        <v>45825.50549768518</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D71" s="2">
-        <v>45811.92549991595</v>
+        <v>45825.8271008811</v>
       </c>
       <c r="E71">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2">
-        <v>45811.6834837963</v>
+        <v>45825.71496527778</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2">
-        <v>45825.28849841786</v>
+        <v>45825.82710087395</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F81" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.64662037037</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>45825.28852326557</v>
+        <v>45825.8270770506</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2">
-        <v>45824.69262731481</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45825.28849841796</v>
+        <v>45825.82710087465</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F83" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D85" s="2">
-        <v>45825.28849841443</v>
+        <v>45825.82707705093</v>
       </c>
       <c r="E85">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2">
-        <v>45824.45010416667</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D86" s="2">
-        <v>45821.87952450018</v>
+        <v>45825.82710087481</v>
       </c>
       <c r="E86">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2">
-        <v>45824.60457175926</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="D87" s="2">
-        <v>45825.28852326569</v>
+        <v>45825.82707705132</v>
       </c>
       <c r="E87">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F87" s="2">
-        <v>45824.69262731481</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2">
-        <v>45807.78638608912</v>
+        <v>45825.82707705175</v>
       </c>
       <c r="E90">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F90" s="2">
-        <v>45812.5275925926</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D91" s="2">
-        <v>45825.28849841641</v>
+        <v>45825.82710087817</v>
       </c>
       <c r="E91">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2">
-        <v>45824.62041666666</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
-        <v>45825.28849841835</v>
+        <v>45825.82710087493</v>
       </c>
       <c r="E94">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2">
-        <v>45824.64261574074</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="D101" s="2">
-        <v>45825.28852326581</v>
+        <v>45825.82710087959</v>
       </c>
       <c r="E101">
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="F101" s="2">
-        <v>45824.69262731481</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D117" s="2">
-        <v>45825.2884984171</v>
+        <v>45825.82710087972</v>
       </c>
       <c r="E117">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="F117" s="2">
-        <v>45824.63096064814</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>379</v>
       </c>
       <c r="F123" s="2">
-        <v>45824.64796296296</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D125" s="2">
-        <v>45820.30824423341</v>
+        <v>45825.82710087986</v>
       </c>
       <c r="E125">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F125" s="2">
-        <v>45819.65788194445</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="D141" s="2">
-        <v>45821.87952450124</v>
+        <v>45825.82707705782</v>
       </c>
       <c r="E141">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="F141" s="2">
-        <v>45821.69668981482</v>
+        <v>45825.44177083333</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4397,16 +4397,16 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D163" s="2">
-        <v>45820.91697501809</v>
+        <v>45825.82710088</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F163" s="2">
-        <v>45820.68109953704</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D175" s="2">
-        <v>45821.87952450055</v>
+        <v>45825.82707705538</v>
       </c>
       <c r="E175">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F175" s="2">
-        <v>45824.60457175926</v>
+        <v>45825.43016203704</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" s="2">
-        <v>45825.28849841134</v>
+        <v>45825.82710087832</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2">
-        <v>45824.3782175926</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D200" s="2">
-        <v>45821.87950559639</v>
+        <v>45825.82707706163</v>
       </c>
       <c r="E200">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F200" s="2">
-        <v>45821.51931712963</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="D201" s="2">
-        <v>45821.8795055965</v>
+        <v>45825.82707706191</v>
       </c>
       <c r="E201">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="F201" s="2">
-        <v>45821.51931712963</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D217" s="2">
-        <v>45825.28849841253</v>
+        <v>45825.82707706737</v>
       </c>
       <c r="E217">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F217" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.61665509259</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D236" s="2">
-        <v>45825.28849841845</v>
+        <v>45825.82707706038</v>
       </c>
       <c r="E236">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F236" s="2">
-        <v>45824.64261574074</v>
+        <v>45825.4916087963</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="D247" s="2">
-        <v>45825.28852326146</v>
+        <v>45825.8271008741</v>
       </c>
       <c r="E247">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="F247" s="2">
-        <v>45824.64774305555</v>
+        <v>45825.64662037037</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D255" s="2">
-        <v>45825.2884984141</v>
+        <v>45825.82707706578</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F255" s="2">
-        <v>45824.44436342592</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D270" s="2">
-        <v>45825.28849841147</v>
+        <v>45825.8271008827</v>
       </c>
       <c r="E270">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F270" s="2">
-        <v>45824.3782175926</v>
+        <v>45825.75283564815</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D273" s="2">
-        <v>45818.30489301942</v>
+        <v>45825.82710087424</v>
       </c>
       <c r="E273">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F273" s="2">
-        <v>45817.7553587963</v>
+        <v>45825.64662037037</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D274" s="2">
-        <v>45825.28849841854</v>
+        <v>45825.82707705199</v>
       </c>
       <c r="E274">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F274" s="2">
-        <v>45824.64261574074</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D283" s="2">
-        <v>45825.28852326739</v>
+        <v>45825.82707706217</v>
       </c>
       <c r="E283">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F283" s="2">
-        <v>45824.74089120371</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D287" s="2">
-        <v>45825.28849841275</v>
+        <v>45825.82707705947</v>
       </c>
       <c r="E287">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F287" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.48520833333</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7737,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D300" s="2">
-        <v>45799.89532163485</v>
+        <v>45825.82710087508</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F300" s="2">
-        <v>45785.51890046296</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D309" s="2">
-        <v>45825.28849841504</v>
+        <v>45825.82710088014</v>
       </c>
       <c r="E309">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F309" s="2">
-        <v>45824.4725</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D315" s="2">
-        <v>45825.28849841914</v>
+        <v>45825.82710088234</v>
       </c>
       <c r="E315">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F315" s="2">
-        <v>45824.64331018519</v>
+        <v>45825.74657407407</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D346" s="2">
-        <v>45825.28849841515</v>
+        <v>45825.82710087521</v>
       </c>
       <c r="E346">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F346" s="2">
-        <v>45824.4725</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>-270</v>
+        <v>210</v>
       </c>
       <c r="D350" s="2">
-        <v>45825.28852326308</v>
+        <v>45825.82710087579</v>
       </c>
       <c r="E350">
-        <v>-270</v>
+        <v>210</v>
       </c>
       <c r="F350" s="2">
-        <v>45824.64796296296</v>
+        <v>45825.65248842593</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D354" s="2">
-        <v>45820.30820705581</v>
+        <v>45825.82707705993</v>
       </c>
       <c r="E354">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F354" s="2">
-        <v>45819.39163194445</v>
+        <v>45825.48520833333</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D358" s="2">
-        <v>45813.95785145537</v>
+        <v>45825.82707706754</v>
       </c>
       <c r="E358">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F358" s="2">
-        <v>45813.51621527778</v>
+        <v>45825.61665509259</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D359" s="2">
-        <v>45818.30486081928</v>
+        <v>45825.82710087594</v>
       </c>
       <c r="E359">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F359" s="2">
-        <v>45817.43152777778</v>
+        <v>45825.65579861111</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D363" s="2">
-        <v>45825.28852326674</v>
+        <v>45825.82707705583</v>
       </c>
       <c r="E363">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F363" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.43016203704</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D379" s="2">
-        <v>45825.28849841159</v>
+        <v>45825.82710087663</v>
       </c>
       <c r="E379">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F379" s="2">
-        <v>45824.3782175926</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="C388">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="D388" s="2">
-        <v>45825.28852326594</v>
+        <v>45825.82710087251</v>
       </c>
       <c r="E388">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="F388" s="2">
-        <v>45824.69262731481</v>
+        <v>45825.63128472222</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D389" s="2">
-        <v>45825.28852326606</v>
+        <v>45825.82710087271</v>
       </c>
       <c r="E389">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F389" s="2">
-        <v>45824.69262731481</v>
+        <v>45825.63166666667</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D390" s="2">
-        <v>45825.28852326684</v>
+        <v>45825.82707706242</v>
       </c>
       <c r="E390">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F390" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D394" s="2">
-        <v>45825.28849841923</v>
+        <v>45825.82710087846</v>
       </c>
       <c r="E394">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F394" s="2">
-        <v>45824.64331018519</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10148,16 +10148,16 @@
         <v>1</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D397" s="2">
-        <v>45795.04190003897</v>
+        <v>45825.82710088252</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F397" s="2">
-        <v>45624.60755787037</v>
+        <v>45825.74796296296</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="D402" s="2">
-        <v>45821.87952450271</v>
+        <v>45825.82710088027</v>
       </c>
       <c r="E402">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="F402" s="2">
-        <v>45821.72910879629</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D404" s="2">
-        <v>45821.87952450263</v>
+        <v>45825.82710087534</v>
       </c>
       <c r="E404">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F404" s="2">
-        <v>45821.72737268519</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D413" s="2">
-        <v>45821.87950559684</v>
+        <v>45825.82707706266</v>
       </c>
       <c r="E413">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F413" s="2">
-        <v>45821.51931712963</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D418" s="2">
-        <v>45825.28852326803</v>
+        <v>45825.82707705368</v>
       </c>
       <c r="E418">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F418" s="2">
-        <v>45824.74362268519</v>
+        <v>45825.41541666666</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D422" s="2">
-        <v>45825.2884984131</v>
+        <v>45825.82707706292</v>
       </c>
       <c r="E422">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F422" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D436" s="2">
-        <v>45820.3082442309</v>
+        <v>45825.82707706593</v>
       </c>
       <c r="E436">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F436" s="2">
-        <v>45819.62554398148</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D441" s="2">
-        <v>45820.30820705594</v>
+        <v>45825.82707705224</v>
       </c>
       <c r="E441">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F441" s="2">
-        <v>45819.39163194445</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D480" s="2">
-        <v>45825.28849841963</v>
+        <v>45825.82710088129</v>
       </c>
       <c r="E480">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F480" s="2">
-        <v>45824.64376157407</v>
+        <v>45825.71523148148</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12830,16 +12830,16 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D505" s="2">
-        <v>45825.28852326814</v>
+        <v>45825.82710087367</v>
       </c>
       <c r="E505">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F505" s="2">
-        <v>45824.74362268519</v>
+        <v>45825.6443287037</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D531" s="2">
-        <v>45818.30486082874</v>
+        <v>45825.82707706773</v>
       </c>
       <c r="E531">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F531" s="2">
-        <v>45817.49925925926</v>
+        <v>45825.61665509259</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -13842,16 +13842,16 @@
         <v>1</v>
       </c>
       <c r="C546">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D546" s="2">
-        <v>45811.92549991595</v>
+        <v>45825.82707705627</v>
       </c>
       <c r="E546">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F546" s="2">
-        <v>45814.68097222222</v>
+        <v>45825.43016203704</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2610</v>
+        <v>2552</v>
       </c>
       <c r="D570" s="2">
-        <v>45825.28849841806</v>
+        <v>45825.82710088041</v>
       </c>
       <c r="E570">
-        <v>2610</v>
+        <v>2552</v>
       </c>
       <c r="F570" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D631" s="2">
-        <v>45825.2884984168</v>
+        <v>45825.82710088363</v>
       </c>
       <c r="E631">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F631" s="2">
-        <v>45824.62626157407</v>
+        <v>45825.76783564815</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2031</v>
+        <v>1966</v>
       </c>
       <c r="D657" s="2">
-        <v>45825.28852326759</v>
+        <v>45825.8271008786</v>
       </c>
       <c r="E657">
-        <v>2031</v>
+        <v>1966</v>
       </c>
       <c r="F657" s="2">
-        <v>45824.74089120371</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D660" s="2">
-        <v>45825.28849841816</v>
+        <v>45825.82707705249</v>
       </c>
       <c r="E660">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F660" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="D681" s="2">
-        <v>45825.28852326323</v>
+        <v>45825.827100882</v>
       </c>
       <c r="E681">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F681" s="2">
-        <v>45824.64796296296</v>
+        <v>45825.72755787037</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17994,16 +17994,16 @@
         <v>1</v>
       </c>
       <c r="C717">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D717" s="2">
-        <v>45812.78303939045</v>
+        <v>45825.82707706609</v>
       </c>
       <c r="E717">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F717" s="2">
-        <v>45812.44633101852</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -18020,16 +18020,16 @@
         <v>1</v>
       </c>
       <c r="C718">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D718" s="2">
-        <v>45795.04199224871</v>
+        <v>45825.82707706624</v>
       </c>
       <c r="E718">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F718" s="2">
-        <v>45688.50858796296</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D726" s="2">
-        <v>45825.28852326433</v>
+        <v>45825.82710087352</v>
       </c>
       <c r="E726">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F726" s="2">
-        <v>45824.67894675926</v>
+        <v>45825.64304398148</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="D741" s="2">
-        <v>45825.28852326352</v>
+        <v>45825.82710088182</v>
       </c>
       <c r="E741">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="F741" s="2">
-        <v>45824.64796296296</v>
+        <v>45825.72704861111</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D770" s="2">
-        <v>45825.288498414</v>
+        <v>45825.82710087606</v>
       </c>
       <c r="E770">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F770" s="2">
-        <v>45824.44172453704</v>
+        <v>45825.66225694444</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="D772" s="2">
-        <v>45825.28852326696</v>
+        <v>45825.82710087676</v>
       </c>
       <c r="E772">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="F772" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D778" s="2">
-        <v>45820.3082070607</v>
+        <v>45825.82707706706</v>
       </c>
       <c r="E778">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F778" s="2">
-        <v>45819.51405092593</v>
+        <v>45825.61604166667</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D810" s="2">
-        <v>45825.28852326925</v>
+        <v>45825.82710087338</v>
       </c>
       <c r="E810">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F810" s="2">
-        <v>45824.76438657408</v>
+        <v>45825.64239583333</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20781,16 +20781,16 @@
         <v>1</v>
       </c>
       <c r="C828">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D828" s="2">
-        <v>45814.82968397064</v>
+        <v>45825.8271008769</v>
       </c>
       <c r="E828">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F828" s="2">
-        <v>45814.53738425926</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G828">
         <v>0</v>
@@ -20862,7 +20862,7 @@
         <v>216</v>
       </c>
       <c r="F831" s="2">
-        <v>45821.60837962963</v>
+        <v>45825.63525462963</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D844" s="2">
-        <v>45820.3082070564</v>
+        <v>45825.82710088055</v>
       </c>
       <c r="E844">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F844" s="2">
-        <v>45819.39163194445</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21464,16 +21464,16 @@
         <v>1</v>
       </c>
       <c r="C856">
-        <v>88</v>
+        <v>-12</v>
       </c>
       <c r="D856" s="2">
-        <v>45795.04208095842</v>
+        <v>45825.82707706641</v>
       </c>
       <c r="E856">
-        <v>88</v>
+        <v>-12</v>
       </c>
       <c r="F856" s="2">
-        <v>45761.62471064815</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G856">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="D872" s="2">
-        <v>45825.28852326706</v>
+        <v>45825.82707705665</v>
       </c>
       <c r="E872">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="F872" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.43016203704</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="D876" s="2">
-        <v>45825.28849842013</v>
+        <v>45825.82707705272</v>
       </c>
       <c r="E876">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="F876" s="2">
-        <v>45824.64493055556</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="D883" s="2">
-        <v>45825.28852326845</v>
+        <v>45825.82710087704</v>
       </c>
       <c r="E883">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="F883" s="2">
-        <v>45824.74362268519</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D888" s="2">
-        <v>45825.28849841659</v>
+        <v>45825.82707705704</v>
       </c>
       <c r="E888">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F888" s="2">
-        <v>45824.62041666666</v>
+        <v>45825.43016203704</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D898" s="2">
-        <v>45799.89534671205</v>
+        <v>45825.82710088146</v>
       </c>
       <c r="E898">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F898" s="2">
-        <v>45792.44423611111</v>
+        <v>45825.71523148148</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -22578,16 +22578,16 @@
         <v>1</v>
       </c>
       <c r="C900">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D900" s="2">
-        <v>45795.0420164208</v>
+        <v>45825.82707706545</v>
       </c>
       <c r="E900">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F900" s="2">
-        <v>45729.71079861111</v>
+        <v>45825.50549768518</v>
       </c>
       <c r="G900">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>11</v>
       </c>
       <c r="F924" s="2">
-        <v>45824.7532175926</v>
+        <v>45825.64662037037</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D963" s="2">
-        <v>45825.28849842023</v>
+        <v>45825.82710087718</v>
       </c>
       <c r="E963">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F963" s="2">
-        <v>45824.64493055556</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -25383,16 +25383,16 @@
         <v>1</v>
       </c>
       <c r="C1011">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1011" s="2">
-        <v>45795.04204563411</v>
+        <v>45825.82707706658</v>
       </c>
       <c r="E1011">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1011" s="2">
-        <v>45749.77204861111</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G1011">
         <v>0</v>
@@ -25533,16 +25533,16 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D1017" s="2">
-        <v>45825.28852326716</v>
+        <v>45825.82710087875</v>
       </c>
       <c r="E1017">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F1017" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D1039" s="2">
-        <v>45825.28849841346</v>
+        <v>45825.82707705295</v>
       </c>
       <c r="E1039">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F1039" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1061" s="2">
-        <v>45820.91695281369</v>
+        <v>45825.8271008838</v>
       </c>
       <c r="E1061">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F1061" s="2">
-        <v>45820.60888888889</v>
+        <v>45825.76783564815</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1110" s="2">
-        <v>45825.28852326408</v>
+        <v>45825.82707706319</v>
       </c>
       <c r="E1110">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1110" s="2">
-        <v>45824.65804398148</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28274,16 +28274,16 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1126" s="2">
-        <v>45820.3082442337</v>
+        <v>45825.8270770532</v>
       </c>
       <c r="E1126">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F1126" s="2">
-        <v>45819.65788194445</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -28300,16 +28300,16 @@
         <v>1</v>
       </c>
       <c r="C1127">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D1127" s="2">
-        <v>45799.89532164588</v>
+        <v>45825.8271008831</v>
       </c>
       <c r="E1127">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1127" s="2">
-        <v>45817.54049768519</v>
+        <v>45825.76025462963</v>
       </c>
       <c r="G1127">
         <v>0</v>
@@ -28326,16 +28326,16 @@
         <v>1</v>
       </c>
       <c r="C1128">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D1128" s="2">
-        <v>45795.04208095842</v>
+        <v>45825.82710088327</v>
       </c>
       <c r="E1128">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F1128" s="2">
-        <v>45769.9046875</v>
+        <v>45825.76025462963</v>
       </c>
       <c r="G1128">
         <v>0</v>
@@ -28352,16 +28352,16 @@
         <v>1</v>
       </c>
       <c r="C1129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1129" s="2">
-        <v>45795.04201639877</v>
+        <v>45825.82710088345</v>
       </c>
       <c r="E1129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F1129" s="2">
-        <v>45716.45983796296</v>
+        <v>45825.76025462963</v>
       </c>
       <c r="G1129">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1133" s="2">
-        <v>45825.2884984169</v>
+        <v>45825.82707705498</v>
       </c>
       <c r="E1133">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1133" s="2">
-        <v>45824.62626157407</v>
+        <v>45825.41831018519</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28505,16 +28505,16 @@
         <v>1</v>
       </c>
       <c r="C1135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1135" s="2">
-        <v>45799.89528857399</v>
+        <v>45825.8270770648</v>
       </c>
       <c r="E1135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1135" s="2">
-        <v>45779.72388888889</v>
+        <v>45825.50549768518</v>
       </c>
       <c r="G1135">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1147" s="2">
-        <v>45825.28852326653</v>
+        <v>45825.82710088071</v>
       </c>
       <c r="E1147">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1147" s="2">
-        <v>45824.74033564814</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1174" s="2">
-        <v>45821.87950559489</v>
+        <v>45825.8270770542</v>
       </c>
       <c r="E1174">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1174" s="2">
-        <v>45821.43476851852</v>
+        <v>45825.41541666666</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1183" s="2">
-        <v>45820.91697502101</v>
+        <v>45825.82710087889</v>
       </c>
       <c r="E1183">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1183" s="2">
-        <v>45820.7009375</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1223" s="2">
-        <v>45825.28849841109</v>
+        <v>45825.82710087733</v>
       </c>
       <c r="E1223">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1223" s="2">
-        <v>45824.37760416666</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="D1253" s="2">
-        <v>45825.28852326369</v>
+        <v>45825.82710088092</v>
       </c>
       <c r="E1253">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F1253" s="2">
-        <v>45824.64796296296</v>
+        <v>45825.69407407408</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31863,16 +31863,16 @@
         <v>1</v>
       </c>
       <c r="C1266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1266" s="2">
-        <v>45806.77603756409</v>
+        <v>45825.82710087322</v>
       </c>
       <c r="E1266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1266" s="2">
-        <v>45806.67012731481</v>
+        <v>45825.63525462963</v>
       </c>
       <c r="G1266">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1324" s="2">
-        <v>45820.9169750212</v>
+        <v>45825.82710088397</v>
       </c>
       <c r="E1324">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1324" s="2">
-        <v>45820.7009375</v>
+        <v>45825.76783564815</v>
       </c>
       <c r="G1324">
         <v>0</v>
@@ -33436,16 +33436,16 @@
         <v>1</v>
       </c>
       <c r="C1328">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D1328" s="2">
-        <v>45795.0416147377</v>
+        <v>45825.82710087286</v>
       </c>
       <c r="E1328">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F1328" s="2">
-        <v>45260.64807870371</v>
+        <v>45825.63305555555</v>
       </c>
       <c r="G1328">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1330" s="2">
-        <v>45825.28849841357</v>
+        <v>45825.82707705344</v>
       </c>
       <c r="E1330">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1330" s="2">
-        <v>45824.43540509259</v>
+        <v>45825.38717592593</v>
       </c>
       <c r="G1330">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D1332" s="2">
-        <v>45825.2885232677</v>
+        <v>45825.82707706345</v>
       </c>
       <c r="E1332">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F1332" s="2">
-        <v>45824.74089120371</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D1342" s="2">
-        <v>45825.28849841825</v>
+        <v>45825.82710087747</v>
       </c>
       <c r="E1342">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F1342" s="2">
-        <v>45824.64238425926</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34025,16 +34025,16 @@
         <v>1</v>
       </c>
       <c r="C1351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1351" s="2">
-        <v>45821.87950559752</v>
+        <v>45825.82707706372</v>
       </c>
       <c r="E1351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1351" s="2">
-        <v>45821.51931712963</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G1351">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D1391" s="2">
-        <v>45821.87952450411</v>
+        <v>45825.82710088288</v>
       </c>
       <c r="E1391">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F1391" s="2">
-        <v>45821.73368055555</v>
+        <v>45825.75395833333</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -39242,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="D1558" s="2">
-        <v>45814.82966410174</v>
+        <v>45825.82707705819</v>
       </c>
       <c r="E1558">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="F1558" s="2">
-        <v>45814.39652777778</v>
+        <v>45825.44177083333</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -39268,16 +39268,16 @@
         <v>1</v>
       </c>
       <c r="C1559">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1559" s="2">
-        <v>45795.04210567895</v>
+        <v>45825.82710087903</v>
       </c>
       <c r="E1559">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1559" s="2">
-        <v>45775.71215277778</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G1559">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1594" s="2">
-        <v>45821.87950559765</v>
+        <v>45825.82707706721</v>
       </c>
       <c r="E1594">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1594" s="2">
-        <v>45821.51931712963</v>
+        <v>45825.61604166667</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5396</v>
+        <v>5373</v>
       </c>
       <c r="D1597" s="2">
-        <v>45825.28852326867</v>
+        <v>45825.82710087916</v>
       </c>
       <c r="E1597">
-        <v>5396</v>
+        <v>5373</v>
       </c>
       <c r="F1597" s="2">
-        <v>45824.74362268519</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1656" s="2">
-        <v>45825.28852326066</v>
+        <v>45825.82707706397</v>
       </c>
       <c r="E1656">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1656" s="2">
-        <v>45824.64541666667</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -43557,16 +43557,16 @@
         <v>1</v>
       </c>
       <c r="C1731">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1731" s="2">
-        <v>45807.78640665444</v>
+        <v>45825.82707706505</v>
       </c>
       <c r="E1731">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1731" s="2">
-        <v>45807.43805555555</v>
+        <v>45825.50549768518</v>
       </c>
       <c r="G1731">
         <v>0</v>
@@ -45455,16 +45455,16 @@
         <v>1</v>
       </c>
       <c r="C1807">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1807" s="2">
-        <v>45799.89545110933</v>
+        <v>45825.82710087761</v>
       </c>
       <c r="E1807">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F1807" s="2">
-        <v>45797.46143518519</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G1807">
         <v>0</v>
@@ -45865,16 +45865,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D1823" s="2">
-        <v>45821.87952450234</v>
+        <v>45825.82707706427</v>
       </c>
       <c r="E1823">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F1823" s="2">
-        <v>45821.69668981482</v>
+        <v>45825.49319444445</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D1844" s="2">
-        <v>45825.28849841183</v>
+        <v>45825.82710087775</v>
       </c>
       <c r="E1844">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F1844" s="2">
-        <v>45824.3782175926</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -48122,16 +48122,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D1912" s="2">
-        <v>45812.78306322403</v>
+        <v>45825.82707705459</v>
       </c>
       <c r="E1912">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F1912" s="2">
-        <v>45812.70449074074</v>
+        <v>45825.41541666666</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -49037,16 +49037,16 @@
         <v>1</v>
       </c>
       <c r="C1948">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1948" s="2">
-        <v>45795.04199224871</v>
+        <v>45825.82707706674</v>
       </c>
       <c r="E1948">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1948" s="2">
-        <v>45694.73601851852</v>
+        <v>45825.55291666667</v>
       </c>
       <c r="G1948">
         <v>0</v>
@@ -50909,16 +50909,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2023" s="2">
-        <v>45825.28852326728</v>
+        <v>45825.82710087931</v>
       </c>
       <c r="E2023">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2023" s="2">
-        <v>45824.74057870371</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -51394,16 +51394,16 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2042" s="2">
-        <v>45812.78301989438</v>
+        <v>45825.82707706529</v>
       </c>
       <c r="E2042">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2042" s="2">
-        <v>45812.64480324074</v>
+        <v>45825.50549768518</v>
       </c>
       <c r="G2042">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2056" s="2">
-        <v>45825.28852326663</v>
+        <v>45825.8271008755</v>
       </c>
       <c r="E2056">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2056" s="2">
-        <v>45824.74033564814</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -54948,16 +54948,16 @@
         <v>1</v>
       </c>
       <c r="C2184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2184" s="2">
-        <v>45820.30824423447</v>
+        <v>45825.82710087945</v>
       </c>
       <c r="E2184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2184" s="2">
-        <v>45819.6587037037</v>
+        <v>45825.6681712963</v>
       </c>
       <c r="G2184">
         <v>0</v>
@@ -58555,16 +58555,16 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2327" s="2">
-        <v>45825.2885232648</v>
+        <v>45825.82707706079</v>
       </c>
       <c r="E2327">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2327" s="2">
-        <v>45824.68784722222</v>
+        <v>45825.4916087963</v>
       </c>
       <c r="G2327">
         <v>0</v>
@@ -60767,16 +60767,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2416" s="2">
-        <v>45825.28849842033</v>
+        <v>45825.82710087563</v>
       </c>
       <c r="E2416">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F2416" s="2">
-        <v>45824.64493055556</v>
+        <v>45825.64746527778</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="D2483" s="2">
-        <v>45825.28849841573</v>
+        <v>45825.82710087789</v>
       </c>
       <c r="E2483">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="F2483" s="2">
-        <v>45824.50672453704</v>
+        <v>45825.66334490741</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -64658,6 +64658,84 @@
         <v>0</v>
       </c>
       <c r="H2575" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:8">
+      <c r="A2576">
+        <v>43699118</v>
+      </c>
+      <c r="B2576">
+        <v>1</v>
+      </c>
+      <c r="C2576">
+        <v>0</v>
+      </c>
+      <c r="D2576" s="2">
+        <v>45825.82710087289</v>
+      </c>
+      <c r="E2576">
+        <v>0</v>
+      </c>
+      <c r="F2576" s="2">
+        <v>45825.63515046296</v>
+      </c>
+      <c r="G2576">
+        <v>0</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:8">
+      <c r="A2577">
+        <v>43706606</v>
+      </c>
+      <c r="B2577">
+        <v>1</v>
+      </c>
+      <c r="C2577">
+        <v>-6</v>
+      </c>
+      <c r="D2577" s="2">
+        <v>45825.82710088205</v>
+      </c>
+      <c r="E2577">
+        <v>-6</v>
+      </c>
+      <c r="F2577" s="2">
+        <v>45825.6681712963</v>
+      </c>
+      <c r="G2577">
+        <v>0</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:8">
+      <c r="A2578">
+        <v>43711618</v>
+      </c>
+      <c r="B2578">
+        <v>1</v>
+      </c>
+      <c r="C2578">
+        <v>-60</v>
+      </c>
+      <c r="D2578" s="2">
+        <v>45825.82710088292</v>
+      </c>
+      <c r="E2578">
+        <v>-60</v>
+      </c>
+      <c r="F2578" s="2">
+        <v>45825.75430555556</v>
+      </c>
+      <c r="G2578">
+        <v>0</v>
+      </c>
+      <c r="H2578" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>45825.82707706118</v>
+        <v>45827.49771214263</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>45825.49319444445</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>45825.28852326892</v>
+        <v>45828.40527173713</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>45825.64662037037</v>
+        <v>45828.38409722222</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2">
-        <v>45820.91697501762</v>
+        <v>45827.49773230323</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2">
-        <v>45820.68109953704</v>
+        <v>45827.44655092592</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>45799.89532164588</v>
+        <v>45827.49773229972</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>45785.73359953704</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2">
-        <v>45825.82710088163</v>
+        <v>45827.49771214159</v>
       </c>
       <c r="E24">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2">
-        <v>45825.71594907407</v>
+        <v>45826.4149537037</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="D33" s="2">
-        <v>45825.8271008762</v>
+        <v>45827.49771214448</v>
       </c>
       <c r="E33">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="F33" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2">
-        <v>45825.82707705743</v>
+        <v>45827.49771214274</v>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2">
-        <v>45825.44177083333</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2">
-        <v>45825.82710087634</v>
+        <v>45827.49771214459</v>
       </c>
       <c r="E49">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D61" s="2">
-        <v>45825.827077059</v>
+        <v>45827.49771214471</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F61" s="2">
-        <v>45825.45659722222</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D63" s="2">
-        <v>45825.28849841583</v>
+        <v>45827.49773229621</v>
       </c>
       <c r="E63">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="F63" s="2">
-        <v>45824.60457175926</v>
+        <v>45826.5802662037</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2">
-        <v>45795.04169367771</v>
+        <v>45828.4052717361</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="2">
-        <v>45450.45765046297</v>
+        <v>45827.90957175926</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
-        <v>45825.82707706454</v>
+        <v>45827.49771214854</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F69" s="2">
-        <v>45825.50549768518</v>
+        <v>45826.55956018518</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2">
-        <v>45825.28852326251</v>
+        <v>45827.4977121439</v>
       </c>
       <c r="E70">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2">
-        <v>45824.64796296296</v>
+        <v>45826.50527777777</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="D81" s="2">
-        <v>45825.82710087395</v>
+        <v>45827.49771214802</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="F81" s="2">
-        <v>45825.64662037037</v>
+        <v>45826.55267361111</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D82" s="2">
-        <v>45825.8270770506</v>
+        <v>45827.49771214759</v>
       </c>
       <c r="E82">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2">
-        <v>45825.38717592593</v>
+        <v>45826.54545138889</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="D83" s="2">
-        <v>45825.82710087465</v>
+        <v>45827.49771214792</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="F83" s="2">
-        <v>45825.64746527778</v>
+        <v>45826.55204861111</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>-17</v>
+        <v>132</v>
       </c>
       <c r="D87" s="2">
-        <v>45825.82707705132</v>
+        <v>45827.49771214749</v>
       </c>
       <c r="E87">
-        <v>-17</v>
+        <v>132</v>
       </c>
       <c r="F87" s="2">
-        <v>45825.38717592593</v>
+        <v>45826.54513888889</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2">
-        <v>45825.82710087493</v>
+        <v>45827.49771214402</v>
       </c>
       <c r="E94">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F94" s="2">
-        <v>45825.64746527778</v>
+        <v>45826.50527777777</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="D96" s="2">
-        <v>45825.28849841553</v>
+        <v>45827.49773229603</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="F96" s="2">
-        <v>45824.50672453704</v>
+        <v>45826.57822916667</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>-41</v>
+        <v>3109</v>
       </c>
       <c r="D101" s="2">
-        <v>45825.82710087959</v>
+        <v>45827.49773229984</v>
       </c>
       <c r="E101">
-        <v>-41</v>
+        <v>3109</v>
       </c>
       <c r="F101" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2">
-        <v>45825.28852326265</v>
+        <v>45827.49771214482</v>
       </c>
       <c r="E106">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2">
-        <v>45824.64796296296</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="D117" s="2">
-        <v>45825.82710087972</v>
+        <v>45827.49771214286</v>
       </c>
       <c r="E117">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="F117" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2">
-        <v>45825.28852326947</v>
+        <v>45827.49771214215</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F120" s="2">
-        <v>45824.76686342592</v>
+        <v>45826.45851851852</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D121" s="2">
-        <v>45820.30824422887</v>
+        <v>45827.49771214227</v>
       </c>
       <c r="E121">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F121" s="2">
-        <v>45819.62377314815</v>
+        <v>45826.45851851852</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>379</v>
+        <v>479</v>
       </c>
       <c r="D123" s="2">
-        <v>45825.28852326279</v>
+        <v>45827.49773230499</v>
       </c>
       <c r="E123">
-        <v>379</v>
+        <v>479</v>
       </c>
       <c r="F123" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.7627199074</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="D125" s="2">
-        <v>45825.82710087986</v>
+        <v>45827.49773229995</v>
       </c>
       <c r="E125">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="F125" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
-        <v>45825.28849841905</v>
+        <v>45827.49771214413</v>
       </c>
       <c r="E139">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" s="2">
-        <v>45824.64331018519</v>
+        <v>45826.50527777777</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D145" s="2">
-        <v>45814.82974449309</v>
+        <v>45827.49773230286</v>
       </c>
       <c r="E145">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2">
-        <v>45814.64479166667</v>
+        <v>45827.44425925926</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D150" s="2">
-        <v>45825.28849841242</v>
+        <v>45827.49773230305</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F150" s="2">
-        <v>45824.43540509259</v>
+        <v>45827.44497685185</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D151" s="2">
-        <v>45818.30486085203</v>
+        <v>45827.49773229818</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F151" s="2">
-        <v>45817.68385416667</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4345,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D161" s="2">
-        <v>45799.89536722513</v>
+        <v>45827.49773230247</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2">
-        <v>45797.39155092592</v>
+        <v>45827.44142361111</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -5129,16 +5129,16 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
-        <v>45795.0418106143</v>
+        <v>45827.49773230519</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F193" s="2">
-        <v>45569.62829861111</v>
+        <v>45827.53342592593</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>502</v>
+        <v>1002</v>
       </c>
       <c r="D200" s="2">
-        <v>45825.82707706163</v>
+        <v>45827.49773229584</v>
       </c>
       <c r="E200">
-        <v>502</v>
+        <v>1002</v>
       </c>
       <c r="F200" s="2">
-        <v>45825.49319444445</v>
+        <v>45826.57192129629</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D209" s="2">
-        <v>45821.8795055956</v>
+        <v>45827.4977121478</v>
       </c>
       <c r="E209">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F209" s="2">
-        <v>45821.44518518518</v>
+        <v>45826.5516087963</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5933,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D226" s="2">
-        <v>45818.30486083779</v>
+        <v>45827.49771214493</v>
       </c>
       <c r="E226">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F226" s="2">
-        <v>45817.555</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6149,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D235" s="2">
-        <v>45814.82978481724</v>
+        <v>45827.49773230008</v>
       </c>
       <c r="E235">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F235" s="2">
-        <v>45814.74193287037</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>-5</v>
+        <v>1195</v>
       </c>
       <c r="D255" s="2">
-        <v>45825.82707706578</v>
+        <v>45828.40527172982</v>
       </c>
       <c r="E255">
-        <v>-5</v>
+        <v>1195</v>
       </c>
       <c r="F255" s="2">
-        <v>45825.55291666667</v>
+        <v>45827.54399305556</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D270" s="2">
-        <v>45825.8271008827</v>
+        <v>45827.4977322983</v>
       </c>
       <c r="E270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F270" s="2">
-        <v>45825.75283564815</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="D272" s="2">
-        <v>45825.28852326293</v>
+        <v>45827.49771214504</v>
       </c>
       <c r="E272">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="F272" s="2">
-        <v>45824.64796296296</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D274" s="2">
-        <v>45825.82707705199</v>
+        <v>45827.49773230022</v>
       </c>
       <c r="E274">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F274" s="2">
-        <v>45825.38717592593</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D283" s="2">
-        <v>45825.82707706217</v>
+        <v>45827.49771214516</v>
       </c>
       <c r="E283">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F283" s="2">
-        <v>45825.49319444445</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D291" s="2">
-        <v>45825.28852326162</v>
+        <v>45827.49773230509</v>
       </c>
       <c r="E291">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F291" s="2">
-        <v>45824.64774305555</v>
+        <v>45826.45851851852</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D292" s="2">
-        <v>45825.28849841865</v>
+        <v>45827.49773229529</v>
       </c>
       <c r="E292">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="F292" s="2">
-        <v>45824.64261574074</v>
+        <v>45826.56369212963</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D295" s="2">
-        <v>45825.28852326792</v>
+        <v>45827.49771214528</v>
       </c>
       <c r="E295">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F295" s="2">
-        <v>45824.74362268519</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7737,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D300" s="2">
-        <v>45825.82710087508</v>
+        <v>45827.49773229688</v>
       </c>
       <c r="E300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F300" s="2">
-        <v>45825.64746527778</v>
+        <v>45826.6058912037</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>-134</v>
+        <v>1066</v>
       </c>
       <c r="D318" s="2">
-        <v>45825.28852326493</v>
+        <v>45828.40527173437</v>
       </c>
       <c r="E318">
-        <v>-134</v>
+        <v>1066</v>
       </c>
       <c r="F318" s="2">
-        <v>45824.69230324074</v>
+        <v>45827.87112268519</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="D319" s="2">
-        <v>45825.28849841288</v>
+        <v>45828.40527173242</v>
       </c>
       <c r="E319">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="F319" s="2">
-        <v>45824.43540509259</v>
+        <v>45827.60043981481</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>1</v>
       </c>
       <c r="C320">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D320" s="2">
-        <v>45799.8954032937</v>
+        <v>45828.4052717326</v>
       </c>
       <c r="E320">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="F320" s="2">
-        <v>45799.40421296296</v>
+        <v>45827.85460648148</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -8250,7 +8250,7 @@
         <v>73</v>
       </c>
       <c r="D321" s="2">
-        <v>45814.82978481724</v>
+        <v>45828.40527173312</v>
       </c>
       <c r="E321">
         <v>73</v>
@@ -8273,16 +8273,16 @@
         <v>1</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D322" s="2">
-        <v>45795.04193352044</v>
+        <v>45828.40527173627</v>
       </c>
       <c r="E322">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F322" s="2">
-        <v>45664.61296296296</v>
+        <v>45827.91163194444</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -8299,16 +8299,16 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D323" s="2">
-        <v>45807.78638608912</v>
+        <v>45828.40527173643</v>
       </c>
       <c r="E323">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F323" s="2">
-        <v>45807.43640046296</v>
+        <v>45827.91362268518</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>18</v>
+        <v>1098</v>
       </c>
       <c r="D326" s="2">
-        <v>45825.28849841631</v>
+        <v>45828.40527173419</v>
       </c>
       <c r="E326">
-        <v>18</v>
+        <v>1098</v>
       </c>
       <c r="F326" s="2">
-        <v>45824.61862268519</v>
+        <v>45827.86969907407</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="D328" s="2">
-        <v>45825.28849841077</v>
+        <v>45828.40527173349</v>
       </c>
       <c r="E328">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="F328" s="2">
-        <v>45824.37760416666</v>
+        <v>45827.86532407408</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>1</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D336" s="2">
-        <v>45795.04204563411</v>
+        <v>45827.49773230531</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F336" s="2">
-        <v>45749.55922453704</v>
+        <v>45827.53625</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -8674,16 +8674,16 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D338" s="2">
-        <v>45820.91697502721</v>
+        <v>45828.4052717369</v>
       </c>
       <c r="E338">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F338" s="2">
-        <v>45820.75637731481</v>
+        <v>45827.91435185185</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1395</v>
+        <v>1313</v>
       </c>
       <c r="D351" s="2">
-        <v>45825.28849841563</v>
+        <v>45828.40527173815</v>
       </c>
       <c r="E351">
-        <v>1395</v>
+        <v>1313</v>
       </c>
       <c r="F351" s="2">
-        <v>45824.50672453704</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>1</v>
       </c>
       <c r="C352">
-        <v>563</v>
+        <v>491</v>
       </c>
       <c r="D352" s="2">
-        <v>45810.72559946219</v>
+        <v>45827.49771214539</v>
       </c>
       <c r="E352">
-        <v>563</v>
+        <v>491</v>
       </c>
       <c r="F352" s="2">
-        <v>45810.64998842592</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D358" s="2">
-        <v>45825.82707706754</v>
+        <v>45828.40527173832</v>
       </c>
       <c r="E358">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F358" s="2">
-        <v>45825.61665509259</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="D361" s="2">
-        <v>45825.28852326638</v>
+        <v>45827.49771214813</v>
       </c>
       <c r="E361">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="F361" s="2">
-        <v>45824.74033564814</v>
+        <v>45826.55393518518</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D385" s="2">
-        <v>45821.87952450161</v>
+        <v>45827.4977121417</v>
       </c>
       <c r="E385">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F385" s="2">
-        <v>45821.69668981482</v>
+        <v>45826.4149537037</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>-1</v>
+        <v>95</v>
       </c>
       <c r="D386" s="2">
-        <v>45825.28849841095</v>
+        <v>45828.40527173226</v>
       </c>
       <c r="E386">
-        <v>-1</v>
+        <v>95</v>
       </c>
       <c r="F386" s="2">
-        <v>45824.37760416666</v>
+        <v>45827.60001157408</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D390" s="2">
-        <v>45825.82707706242</v>
+        <v>45828.40527173796</v>
       </c>
       <c r="E390">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F390" s="2">
-        <v>45825.49319444445</v>
+        <v>45828.40751157407</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="D394" s="2">
-        <v>45825.82710087846</v>
+        <v>45827.49773229649</v>
       </c>
       <c r="E394">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="F394" s="2">
-        <v>45825.6681712963</v>
+        <v>45826.58738425926</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10096,16 +10096,16 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D395" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49771214562</v>
       </c>
       <c r="E395">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F395" s="2">
-        <v>45811.665625</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D404" s="2">
-        <v>45825.82710087534</v>
+        <v>45827.49771214298</v>
       </c>
       <c r="E404">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F404" s="2">
-        <v>45825.64746527778</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="D408" s="2">
-        <v>45821.87952450506</v>
+        <v>45827.49773230478</v>
       </c>
       <c r="E408">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="F408" s="2">
-        <v>45821.74190972222</v>
+        <v>45827.52039351852</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>198</v>
+        <v>978</v>
       </c>
       <c r="D413" s="2">
-        <v>45825.82707706266</v>
+        <v>45827.49773229565</v>
       </c>
       <c r="E413">
-        <v>198</v>
+        <v>978</v>
       </c>
       <c r="F413" s="2">
-        <v>45825.49319444445</v>
+        <v>45826.56640046297</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>76</v>
+        <v>823</v>
       </c>
       <c r="D418" s="2">
-        <v>45825.82707705368</v>
+        <v>45827.49773230466</v>
       </c>
       <c r="E418">
-        <v>76</v>
+        <v>823</v>
       </c>
       <c r="F418" s="2">
-        <v>45825.41541666666</v>
+        <v>45827.51927083333</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>27</v>
+        <v>-13</v>
       </c>
       <c r="D425" s="2">
-        <v>45821.87950559477</v>
+        <v>45827.49771214574</v>
       </c>
       <c r="E425">
-        <v>27</v>
+        <v>-13</v>
       </c>
       <c r="F425" s="2">
-        <v>45821.43476851852</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11270,16 +11270,16 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D442" s="2">
-        <v>45821.8795245017</v>
+        <v>45828.4052717349</v>
       </c>
       <c r="E442">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F442" s="2">
-        <v>45821.69668981482</v>
+        <v>45827.89302083333</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D461" s="2">
-        <v>45818.30489302886</v>
+        <v>45827.49773229843</v>
       </c>
       <c r="E461">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F461" s="2">
-        <v>45817.7559837963</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>-114</v>
+        <v>3086</v>
       </c>
       <c r="D469" s="2">
-        <v>45825.28852326193</v>
+        <v>45828.40527173454</v>
       </c>
       <c r="E469">
-        <v>-114</v>
+        <v>3086</v>
       </c>
       <c r="F469" s="2">
-        <v>45824.64774305555</v>
+        <v>45827.87236111111</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D472" s="2">
-        <v>45825.28849841379</v>
+        <v>45827.49771214587</v>
       </c>
       <c r="E472">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F472" s="2">
-        <v>45824.43664351852</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D480" s="2">
-        <v>45825.82710088129</v>
+        <v>45828.40527173754</v>
       </c>
       <c r="E480">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F480" s="2">
-        <v>45825.71523148148</v>
+        <v>45828.38409722222</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D485" s="2">
-        <v>45811.92552608132</v>
+        <v>45827.49771214182</v>
       </c>
       <c r="E485">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F485" s="2">
-        <v>45811.7665625</v>
+        <v>45826.4149537037</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D486" s="2">
-        <v>45825.28852326445</v>
+        <v>45827.49771214194</v>
       </c>
       <c r="E486">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F486" s="2">
-        <v>45824.67936342592</v>
+        <v>45826.4149537037</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="D527" s="2">
-        <v>45812.78306322403</v>
+        <v>45828.40527173276</v>
       </c>
       <c r="E527">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="F527" s="2">
-        <v>45812.70449074074</v>
+        <v>45827.86192129629</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -13392,16 +13392,16 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D528" s="2">
-        <v>45799.89532165734</v>
+        <v>45828.40527173384</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F528" s="2">
-        <v>45789.75767361111</v>
+        <v>45827.86752314815</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -13816,16 +13816,16 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D545" s="2">
-        <v>45820.91695280985</v>
+        <v>45827.49773229484</v>
       </c>
       <c r="E545">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F545" s="2">
-        <v>45820.42355324074</v>
+        <v>45826.56113425926</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -14147,16 +14147,16 @@
         <v>1</v>
       </c>
       <c r="C559">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D559" s="2">
-        <v>45799.89532165734</v>
+        <v>45827.49771214239</v>
       </c>
       <c r="E559">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F559" s="2">
-        <v>45790.47004629629</v>
+        <v>45826.45851851852</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2552</v>
+        <v>2540</v>
       </c>
       <c r="D570" s="2">
-        <v>45825.82710088041</v>
+        <v>45827.49773230049</v>
       </c>
       <c r="E570">
-        <v>2552</v>
+        <v>2540</v>
       </c>
       <c r="F570" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D581" s="2">
-        <v>45825.28849841622</v>
+        <v>45828.40527173851</v>
       </c>
       <c r="E581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F581" s="2">
-        <v>45824.60457175926</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D603" s="2">
-        <v>45814.82978481724</v>
+        <v>45827.49773229854</v>
       </c>
       <c r="E603">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F603" s="2">
-        <v>45814.73384259259</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D631" s="2">
-        <v>45825.82710088363</v>
+        <v>45827.49773229961</v>
       </c>
       <c r="E631">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F631" s="2">
-        <v>45825.76783564815</v>
+        <v>45826.68226851852</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16483,16 +16483,16 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D656" s="2">
-        <v>45825.28849841322</v>
+        <v>45827.49773229941</v>
       </c>
       <c r="E656">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F656" s="2">
-        <v>45824.43540509259</v>
+        <v>45826.66965277777</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="D657" s="2">
-        <v>45825.8271008786</v>
+        <v>45827.49771214598</v>
       </c>
       <c r="E657">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F657" s="2">
-        <v>45825.6681712963</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -17195,16 +17195,16 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D685" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49773229866</v>
       </c>
       <c r="E685">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F685" s="2">
-        <v>45811.50252314815</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D691" s="2">
-        <v>45825.2884984122</v>
+        <v>45827.49773229878</v>
       </c>
       <c r="E691">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F691" s="2">
-        <v>45824.38501157407</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17368,16 +17368,16 @@
         <v>1</v>
       </c>
       <c r="C692">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D692" s="2">
-        <v>45825.28852326506</v>
+        <v>45828.40527173043</v>
       </c>
       <c r="E692">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F692" s="2">
-        <v>45824.69230324074</v>
+        <v>45827.55716435185</v>
       </c>
       <c r="G692">
         <v>0</v>
@@ -17417,16 +17417,16 @@
         <v>1</v>
       </c>
       <c r="C694">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D694" s="2">
-        <v>45810.72559946219</v>
+        <v>45827.49773230397</v>
       </c>
       <c r="E694">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F694" s="2">
-        <v>45810.6524074074</v>
+        <v>45827.46559027778</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D701" s="2">
-        <v>45818.30489300293</v>
+        <v>45827.49771214437</v>
       </c>
       <c r="E701">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F701" s="2">
-        <v>45817.71056712963</v>
+        <v>45826.50527777777</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D720" s="2">
-        <v>45825.28849841883</v>
+        <v>45827.4977323006</v>
       </c>
       <c r="E720">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F720" s="2">
-        <v>45824.6428125</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18491,7 +18491,7 @@
         <v>12</v>
       </c>
       <c r="F736" s="2">
-        <v>45814.39601851852</v>
+        <v>45826.62302083334</v>
       </c>
       <c r="G736">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D741" s="2">
-        <v>45825.82710088182</v>
+        <v>45827.49771214611</v>
       </c>
       <c r="E741">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F741" s="2">
-        <v>45825.72704861111</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>-2</v>
+        <v>-32</v>
       </c>
       <c r="D772" s="2">
-        <v>45825.82710087676</v>
+        <v>45827.49771214623</v>
       </c>
       <c r="E772">
-        <v>-2</v>
+        <v>-32</v>
       </c>
       <c r="F772" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -20608,16 +20608,16 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D821" s="2">
-        <v>45810.72556745499</v>
+        <v>45828.40527173006</v>
       </c>
       <c r="E821">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F821" s="2">
-        <v>45810.51450231481</v>
+        <v>45827.55225694444</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D826" s="2">
-        <v>45825.28852326835</v>
+        <v>45827.49773229507</v>
       </c>
       <c r="E826">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F826" s="2">
-        <v>45824.74362268519</v>
+        <v>45826.56285879629</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D844" s="2">
-        <v>45825.82710088055</v>
+        <v>45827.49773229496</v>
       </c>
       <c r="E844">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F844" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.56253472222</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D853" s="2">
-        <v>45825.28849841728</v>
+        <v>45827.49773230073</v>
       </c>
       <c r="E853">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F853" s="2">
-        <v>45824.63096064814</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21464,16 +21464,16 @@
         <v>1</v>
       </c>
       <c r="C856">
-        <v>-12</v>
+        <v>88</v>
       </c>
       <c r="D856" s="2">
-        <v>45825.82707706641</v>
+        <v>45827.49773229735</v>
       </c>
       <c r="E856">
-        <v>-12</v>
+        <v>88</v>
       </c>
       <c r="F856" s="2">
-        <v>45825.55291666667</v>
+        <v>45826.61806712963</v>
       </c>
       <c r="G856">
         <v>0</v>
@@ -21946,16 +21946,16 @@
         <v>1</v>
       </c>
       <c r="C875">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D875" s="2">
-        <v>45807.78640657826</v>
+        <v>45828.40527173509</v>
       </c>
       <c r="E875">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F875" s="2">
-        <v>45807.43640046296</v>
+        <v>45827.89453703703</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>725</v>
+        <v>911</v>
       </c>
       <c r="D876" s="2">
-        <v>45825.82707705272</v>
+        <v>45828.40527173153</v>
       </c>
       <c r="E876">
-        <v>725</v>
+        <v>911</v>
       </c>
       <c r="F876" s="2">
-        <v>45825.38717592593</v>
+        <v>45827.59297453704</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D883" s="2">
-        <v>45825.82710087704</v>
+        <v>45827.49773229889</v>
       </c>
       <c r="E883">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F883" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="D888" s="2">
-        <v>45825.82707705704</v>
+        <v>45827.49771214646</v>
       </c>
       <c r="E888">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="F888" s="2">
-        <v>45825.43016203704</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22298,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D889" s="2">
-        <v>45825.28849841544</v>
+        <v>45828.40527173171</v>
       </c>
       <c r="E889">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F889" s="2">
-        <v>45824.50439814815</v>
+        <v>45827.5966087963</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D898" s="2">
-        <v>45825.82710088146</v>
+        <v>45827.49773229784</v>
       </c>
       <c r="E898">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F898" s="2">
-        <v>45825.71523148148</v>
+        <v>45826.62236111111</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -23161,16 +23161,16 @@
         <v>1</v>
       </c>
       <c r="C923">
-        <v>328</v>
+        <v>808</v>
       </c>
       <c r="D923" s="2">
-        <v>45818.80148693373</v>
+        <v>45827.49773230336</v>
       </c>
       <c r="E923">
-        <v>328</v>
+        <v>808</v>
       </c>
       <c r="F923" s="2">
-        <v>45818.42027777778</v>
+        <v>45827.44825231482</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -23213,16 +23213,16 @@
         <v>1</v>
       </c>
       <c r="C925">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D925" s="2">
-        <v>45795.04190003897</v>
+        <v>45828.40527173061</v>
       </c>
       <c r="E925">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F925" s="2">
-        <v>45624.71111111111</v>
+        <v>45827.55762731482</v>
       </c>
       <c r="G925">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>1</v>
       </c>
       <c r="C929">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D929" s="2">
-        <v>45820.91695281275</v>
+        <v>45828.40527173956</v>
       </c>
       <c r="E929">
         <v>15</v>
@@ -23329,10 +23329,10 @@
         <v>45820.5114699074</v>
       </c>
       <c r="G929">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H929" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="D962" s="2">
-        <v>45825.28849841737</v>
+        <v>45828.40527173403</v>
       </c>
       <c r="E962">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="F962" s="2">
-        <v>45824.63096064814</v>
+        <v>45827.86880787037</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>808</v>
+        <v>1808</v>
       </c>
       <c r="D963" s="2">
-        <v>45825.82710087718</v>
+        <v>45828.40527173474</v>
       </c>
       <c r="E963">
-        <v>808</v>
+        <v>1808</v>
       </c>
       <c r="F963" s="2">
-        <v>45825.66334490741</v>
+        <v>45827.88251157408</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24800,13 +24800,13 @@
         <v>0</v>
       </c>
       <c r="D988" s="2">
-        <v>45795.04186106093</v>
+        <v>45827.49773229676</v>
       </c>
       <c r="E988">
         <v>0</v>
       </c>
       <c r="F988" s="2">
-        <v>45595.78190972222</v>
+        <v>45826.6050925926</v>
       </c>
       <c r="G988">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D1002" s="2">
-        <v>45820.30820705651</v>
+        <v>45827.49773229451</v>
       </c>
       <c r="E1002">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F1002" s="2">
-        <v>45819.39163194445</v>
+        <v>45826.55956018518</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25181,16 +25181,16 @@
         <v>1</v>
       </c>
       <c r="C1003">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D1003" s="2">
-        <v>45814.82968397064</v>
+        <v>45828.40527173869</v>
       </c>
       <c r="E1003">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F1003" s="2">
-        <v>45814.39601851852</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -25383,16 +25383,16 @@
         <v>1</v>
       </c>
       <c r="C1011">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D1011" s="2">
-        <v>45825.82707706658</v>
+        <v>45827.49773229771</v>
       </c>
       <c r="E1011">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F1011" s="2">
-        <v>45825.55291666667</v>
+        <v>45826.62177083334</v>
       </c>
       <c r="G1011">
         <v>0</v>
@@ -25712,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="C1024">
-        <v>-11</v>
+        <v>169</v>
       </c>
       <c r="D1024" s="2">
-        <v>45825.28852326619</v>
+        <v>45828.40527173024</v>
       </c>
       <c r="E1024">
-        <v>-11</v>
+        <v>169</v>
       </c>
       <c r="F1024" s="2">
-        <v>45824.69262731481</v>
+        <v>45827.55313657408</v>
       </c>
       <c r="G1024">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="D1025" s="2">
-        <v>45825.28849841332</v>
+        <v>45828.40527173135</v>
       </c>
       <c r="E1025">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="F1025" s="2">
-        <v>45824.43540509259</v>
+        <v>45827.59125</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D1026" s="2">
-        <v>45820.91695281258</v>
+        <v>45827.49771214321</v>
       </c>
       <c r="E1026">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F1026" s="2">
-        <v>45820.4844212963</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -25790,16 +25790,16 @@
         <v>1</v>
       </c>
       <c r="C1027">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D1027" s="2">
-        <v>45799.89532166889</v>
+        <v>45828.40527173368</v>
       </c>
       <c r="E1027">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F1027" s="2">
-        <v>45791.65064814815</v>
+        <v>45827.86592592593</v>
       </c>
       <c r="G1027">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1061" s="2">
-        <v>45825.8271008838</v>
+        <v>45827.49771214332</v>
       </c>
       <c r="E1061">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1061" s="2">
-        <v>45825.76783564815</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D1062" s="2">
-        <v>45825.28849841934</v>
+        <v>45828.40527173888</v>
       </c>
       <c r="E1062">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F1062" s="2">
-        <v>45824.64331018519</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27028,16 +27028,16 @@
         <v>1</v>
       </c>
       <c r="C1076">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D1076" s="2">
-        <v>45814.82968397064</v>
+        <v>45827.49771214131</v>
       </c>
       <c r="E1076">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F1076" s="2">
-        <v>45814.39601851852</v>
+        <v>45826.3874074074</v>
       </c>
       <c r="G1076">
         <v>0</v>
@@ -27414,16 +27414,16 @@
         <v>1</v>
       </c>
       <c r="C1092">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D1092" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49773230096</v>
       </c>
       <c r="E1092">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F1092" s="2">
-        <v>45817.77144675926</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G1092">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>1</v>
       </c>
       <c r="C1121">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D1121" s="2">
-        <v>45799.89532164588</v>
+        <v>45828.40527173528</v>
       </c>
       <c r="E1121">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F1121" s="2">
-        <v>45785.73475694445</v>
+        <v>45827.90260416667</v>
       </c>
       <c r="G1121">
         <v>0</v>
@@ -28274,16 +28274,16 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D1126" s="2">
-        <v>45825.8270770532</v>
+        <v>45827.49771214343</v>
       </c>
       <c r="E1126">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F1126" s="2">
-        <v>45825.38717592593</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -28326,16 +28326,16 @@
         <v>1</v>
       </c>
       <c r="C1128">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D1128" s="2">
-        <v>45825.82710088327</v>
+        <v>45827.49773230443</v>
       </c>
       <c r="E1128">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F1128" s="2">
-        <v>45825.76025462963</v>
+        <v>45827.51805555556</v>
       </c>
       <c r="G1128">
         <v>0</v>
@@ -28352,16 +28352,16 @@
         <v>1</v>
       </c>
       <c r="C1129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D1129" s="2">
-        <v>45825.82710088345</v>
+        <v>45827.49773230454</v>
       </c>
       <c r="E1129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F1129" s="2">
-        <v>45825.76025462963</v>
+        <v>45827.51836805556</v>
       </c>
       <c r="G1129">
         <v>0</v>
@@ -29195,16 +29195,16 @@
         <v>1</v>
       </c>
       <c r="C1162">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D1162" s="2">
-        <v>45795.04201639877</v>
+        <v>45827.49773230215</v>
       </c>
       <c r="E1162">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F1162" s="2">
-        <v>45714.52585648148</v>
+        <v>45826.76314814815</v>
       </c>
       <c r="G1162">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1174" s="2">
-        <v>45825.8270770542</v>
+        <v>45827.49771214683</v>
       </c>
       <c r="E1174">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F1174" s="2">
-        <v>45825.41541666666</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1187" s="2">
-        <v>45818.80148694491</v>
+        <v>45827.49771214251</v>
       </c>
       <c r="E1187">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F1187" s="2">
-        <v>45818.65388888889</v>
+        <v>45826.45851851852</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1199" s="2">
-        <v>45825.28849841943</v>
+        <v>45827.49771214693</v>
       </c>
       <c r="E1199">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F1199" s="2">
-        <v>45824.64331018519</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G1199">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D1223" s="2">
-        <v>45825.82710087733</v>
+        <v>45828.4052717333</v>
       </c>
       <c r="E1223">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="F1223" s="2">
-        <v>45825.66334490741</v>
+        <v>45827.86087962963</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
       <c r="F1232" s="2">
-        <v>45667.66143518518</v>
+        <v>45826.604375</v>
       </c>
       <c r="G1232">
         <v>0</v>
@@ -31147,16 +31147,16 @@
         <v>1</v>
       </c>
       <c r="C1238">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D1238" s="2">
-        <v>45795.04208095842</v>
+        <v>45828.40527173578</v>
       </c>
       <c r="E1238">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F1238" s="2">
-        <v>45770.41390046296</v>
+        <v>45827.90693287037</v>
       </c>
       <c r="G1238">
         <v>0</v>
@@ -31450,16 +31450,16 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D1250" s="2">
-        <v>45825.28852326456</v>
+        <v>45828.40527173905</v>
       </c>
       <c r="E1250">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F1250" s="2">
-        <v>45824.68135416666</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G1250">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="D1253" s="2">
-        <v>45825.82710088092</v>
+        <v>45827.49773230107</v>
       </c>
       <c r="E1253">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="F1253" s="2">
-        <v>45825.69407407408</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>1</v>
       </c>
       <c r="C1265">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D1265" s="2">
-        <v>45803.62106753104</v>
+        <v>45827.49773230265</v>
       </c>
       <c r="E1265">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F1265" s="2">
-        <v>45803.53497685185</v>
+        <v>45827.44340277778</v>
       </c>
       <c r="G1265">
         <v>0</v>
@@ -31863,16 +31863,16 @@
         <v>1</v>
       </c>
       <c r="C1266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1266" s="2">
-        <v>45825.82710087322</v>
+        <v>45827.49773229699</v>
       </c>
       <c r="E1266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1266" s="2">
-        <v>45825.63525462963</v>
+        <v>45826.60659722222</v>
       </c>
       <c r="G1266">
         <v>0</v>
@@ -32071,16 +32071,16 @@
         <v>1</v>
       </c>
       <c r="C1274">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1274" s="2">
-        <v>45795.04208095842</v>
+        <v>45827.49771214705</v>
       </c>
       <c r="E1274">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1274" s="2">
-        <v>45764.44383101852</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G1274">
         <v>0</v>
@@ -33514,16 +33514,16 @@
         <v>1</v>
       </c>
       <c r="C1331">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1331" s="2">
-        <v>45799.89534672352</v>
+        <v>45828.40527173294</v>
       </c>
       <c r="E1331">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1331" s="2">
-        <v>45792.65766203704</v>
+        <v>45827.86229166666</v>
       </c>
       <c r="G1331">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>-4</v>
+        <v>96</v>
       </c>
       <c r="D1332" s="2">
-        <v>45825.82707706345</v>
+        <v>45827.49771214844</v>
       </c>
       <c r="E1332">
-        <v>-4</v>
+        <v>96</v>
       </c>
       <c r="F1332" s="2">
-        <v>45825.49319444445</v>
+        <v>45826.55608796296</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -34478,16 +34478,16 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D1369" s="2">
-        <v>45812.78301983239</v>
+        <v>45827.49771214205</v>
       </c>
       <c r="E1369">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F1369" s="2">
-        <v>45812.47731481482</v>
+        <v>45826.44748842593</v>
       </c>
       <c r="G1369">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1390" s="2">
-        <v>45825.2884984117</v>
+        <v>45828.40527173923</v>
       </c>
       <c r="E1390">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F1390" s="2">
-        <v>45824.3782175926</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D1391" s="2">
-        <v>45825.82710088288</v>
+        <v>45827.4977121477</v>
       </c>
       <c r="E1391">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F1391" s="2">
-        <v>45825.75395833333</v>
+        <v>45826.55138888889</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>1</v>
       </c>
       <c r="C1406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1406" s="2">
-        <v>45800.93175379655</v>
+        <v>45828.40527173779</v>
       </c>
       <c r="E1406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1406" s="2">
-        <v>45800.40415509259</v>
+        <v>45828.38409722222</v>
       </c>
       <c r="G1406">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>1</v>
       </c>
       <c r="C1427">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1427" s="2">
-        <v>45811.92549991595</v>
+        <v>45827.49773229902</v>
       </c>
       <c r="E1427">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1427" s="2">
-        <v>45811.72346064815</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G1427">
         <v>0</v>
@@ -39242,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D1558" s="2">
-        <v>45825.82707705819</v>
+        <v>45827.49773230119</v>
       </c>
       <c r="E1558">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F1558" s="2">
-        <v>45825.44177083333</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -39372,16 +39372,16 @@
         <v>1</v>
       </c>
       <c r="C1563">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D1563" s="2">
-        <v>45795.04186106093</v>
+        <v>45827.49773230412</v>
       </c>
       <c r="E1563">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F1563" s="2">
-        <v>45551.34871527777</v>
+        <v>45827.47045138889</v>
       </c>
       <c r="G1563">
         <v>0</v>
@@ -39701,16 +39701,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D1576" s="2">
-        <v>45818.80148693236</v>
+        <v>45827.49773229807</v>
       </c>
       <c r="E1576">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F1576" s="2">
-        <v>45818.40175925926</v>
+        <v>45826.62344907408</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D1594" s="2">
-        <v>45825.82707706721</v>
+        <v>45827.49773229545</v>
       </c>
       <c r="E1594">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F1594" s="2">
-        <v>45825.61604166667</v>
+        <v>45826.56457175926</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5373</v>
+        <v>5328</v>
       </c>
       <c r="D1597" s="2">
-        <v>45825.82710087916</v>
+        <v>45827.49773230153</v>
       </c>
       <c r="E1597">
-        <v>5373</v>
+        <v>5328</v>
       </c>
       <c r="F1597" s="2">
-        <v>45825.6681712963</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -42326,16 +42326,16 @@
         <v>1</v>
       </c>
       <c r="C1681">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1681" s="2">
-        <v>45820.91695280797</v>
+        <v>45827.49773229914</v>
       </c>
       <c r="E1681">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1681" s="2">
-        <v>45820.42121527778</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G1681">
         <v>0</v>
@@ -43753,16 +43753,16 @@
         <v>1</v>
       </c>
       <c r="C1739">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D1739" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49773230183</v>
       </c>
       <c r="E1739">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F1739" s="2">
-        <v>45817.424375</v>
+        <v>45826.72665509259</v>
       </c>
       <c r="G1739">
         <v>0</v>
@@ -43779,16 +43779,16 @@
         <v>1</v>
       </c>
       <c r="C1740">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D1740" s="2">
-        <v>45806.77605776805</v>
+        <v>45828.40527173207</v>
       </c>
       <c r="E1740">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F1740" s="2">
-        <v>45806.74983796296</v>
+        <v>45827.5978587963</v>
       </c>
       <c r="G1740">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D1844" s="2">
-        <v>45825.82710087775</v>
+        <v>45827.49771214355</v>
       </c>
       <c r="E1844">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F1844" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -47037,16 +47037,16 @@
         <v>1</v>
       </c>
       <c r="C1869">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1869" s="2">
-        <v>45812.78301989438</v>
+        <v>45827.49773230168</v>
       </c>
       <c r="E1869">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1869" s="2">
-        <v>45812.63878472222</v>
+        <v>45826.72618055555</v>
       </c>
       <c r="G1869">
         <v>0</v>
@@ -47063,16 +47063,16 @@
         <v>1</v>
       </c>
       <c r="C1870">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1870" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49771214725</v>
       </c>
       <c r="E1870">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1870" s="2">
-        <v>45811.54368055556</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G1870">
         <v>0</v>
@@ -47764,16 +47764,16 @@
         <v>1</v>
       </c>
       <c r="C1898">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1898" s="2">
-        <v>45795.04208095842</v>
+        <v>45827.49773229926</v>
       </c>
       <c r="E1898">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1898" s="2">
-        <v>45810.37826388889</v>
+        <v>45826.65341435185</v>
       </c>
       <c r="G1898">
         <v>0</v>
@@ -48122,16 +48122,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D1912" s="2">
-        <v>45825.82707705459</v>
+        <v>45828.4052717394</v>
       </c>
       <c r="E1912">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F1912" s="2">
-        <v>45825.41541666666</v>
+        <v>45828.41831018519</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -50113,7 +50113,7 @@
         <v>36</v>
       </c>
       <c r="D1991" s="2">
-        <v>45799.89532166889</v>
+        <v>45827.49773230375</v>
       </c>
       <c r="E1991">
         <v>36</v>
@@ -51160,16 +51160,16 @@
         <v>1</v>
       </c>
       <c r="C2033">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D2033" s="2">
-        <v>45825.28849841766</v>
+        <v>45827.49773229471</v>
       </c>
       <c r="E2033">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F2033" s="2">
-        <v>45824.63096064814</v>
+        <v>45826.55956018518</v>
       </c>
       <c r="G2033">
         <v>0</v>
@@ -51212,16 +51212,16 @@
         <v>1</v>
       </c>
       <c r="C2035">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2035" s="2">
-        <v>45805.91875150988</v>
+        <v>45827.49773230385</v>
       </c>
       <c r="E2035">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2035" s="2">
-        <v>45805.65172453703</v>
+        <v>45827.46512731481</v>
       </c>
       <c r="G2035">
         <v>0</v>
@@ -51628,7 +51628,7 @@
         <v>4</v>
       </c>
       <c r="F2051" s="2">
-        <v>45811.68618055555</v>
+        <v>45826.62092592593</v>
       </c>
       <c r="G2051">
         <v>0</v>
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2056" s="2">
-        <v>45825.8271008755</v>
+        <v>45827.49771214147</v>
       </c>
       <c r="E2056">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2056" s="2">
-        <v>45825.64746527778</v>
+        <v>45826.41428240741</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -53353,16 +53353,16 @@
         <v>1</v>
       </c>
       <c r="C2120">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2120" s="2">
-        <v>45820.91697502745</v>
+        <v>45828.40527173666</v>
       </c>
       <c r="E2120">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2120" s="2">
-        <v>45820.75637731481</v>
+        <v>45827.91403935185</v>
       </c>
       <c r="G2120">
         <v>0</v>
@@ -54948,16 +54948,16 @@
         <v>1</v>
       </c>
       <c r="C2184">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D2184" s="2">
-        <v>45825.82710087945</v>
+        <v>45827.49773229723</v>
       </c>
       <c r="E2184">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F2184" s="2">
-        <v>45825.6681712963</v>
+        <v>45826.61373842593</v>
       </c>
       <c r="G2184">
         <v>0</v>
@@ -56013,7 +56013,7 @@
         <v>20</v>
       </c>
       <c r="D2226" s="2">
-        <v>45811.92546678011</v>
+        <v>45827.49773230364</v>
       </c>
       <c r="E2226">
         <v>20</v>
@@ -58581,16 +58581,16 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2328" s="2">
-        <v>45825.28852326913</v>
+        <v>45827.49771214737</v>
       </c>
       <c r="E2328">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2328" s="2">
-        <v>45824.75456018518</v>
+        <v>45826.54380787037</v>
       </c>
       <c r="G2328">
         <v>0</v>
@@ -58659,16 +58659,16 @@
         <v>1</v>
       </c>
       <c r="C2331">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2331" s="2">
-        <v>45795.04190003897</v>
+        <v>45828.40527173544</v>
       </c>
       <c r="E2331">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2331" s="2">
-        <v>45642.75173611111</v>
+        <v>45827.90495370371</v>
       </c>
       <c r="G2331">
         <v>0</v>
@@ -58685,16 +58685,16 @@
         <v>1</v>
       </c>
       <c r="C2332">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2332" s="2">
-        <v>45795.04199224871</v>
+        <v>45828.40527173594</v>
       </c>
       <c r="E2332">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2332" s="2">
-        <v>45819.7628125</v>
+        <v>45827.9083912037</v>
       </c>
       <c r="G2332">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="D2482" s="2">
-        <v>45821.87952450457</v>
+        <v>45827.49771214833</v>
       </c>
       <c r="E2482">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="F2482" s="2">
-        <v>45821.73368055555</v>
+        <v>45826.55488425926</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="D2483" s="2">
-        <v>45825.82710087789</v>
+        <v>45827.49771214367</v>
       </c>
       <c r="E2483">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="F2483" s="2">
-        <v>45825.66334490741</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62439,16 +62439,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="D2484" s="2">
-        <v>45818.30489303141</v>
+        <v>45827.49771214378</v>
       </c>
       <c r="E2484">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="F2484" s="2">
-        <v>45817.7559837963</v>
+        <v>45826.46430555556</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -62465,16 +62465,16 @@
         <v>1</v>
       </c>
       <c r="C2485">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2485" s="2">
-        <v>45799.89536724822</v>
+        <v>45827.49771214823</v>
       </c>
       <c r="E2485">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2485" s="2">
-        <v>45798.44121527778</v>
+        <v>45826.55429398148</v>
       </c>
       <c r="G2485">
         <v>0</v>
@@ -64695,16 +64695,16 @@
         <v>1</v>
       </c>
       <c r="C2577">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="D2577" s="2">
-        <v>45825.82710088205</v>
+        <v>45827.49773229712</v>
       </c>
       <c r="E2577">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F2577" s="2">
-        <v>45825.6681712963</v>
+        <v>45826.61251157407</v>
       </c>
       <c r="G2577">
         <v>0</v>
@@ -64721,16 +64721,16 @@
         <v>1</v>
       </c>
       <c r="C2578">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D2578" s="2">
-        <v>45825.82710088292</v>
+        <v>45827.49773229747</v>
       </c>
       <c r="E2578">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F2578" s="2">
-        <v>45825.75430555556</v>
+        <v>45826.62025462963</v>
       </c>
       <c r="G2578">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2578"/>
+  <dimension ref="A1:H2580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D4" s="2">
-        <v>45827.49771214263</v>
+        <v>45829.29943059995</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F4" s="2">
-        <v>45826.46430555556</v>
+        <v>45828.62064814815</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2">
-        <v>45827.49773230323</v>
+        <v>45829.29943059795</v>
       </c>
       <c r="E12">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2">
-        <v>45827.44655092592</v>
+        <v>45828.52197916667</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2">
-        <v>45827.49771214159</v>
+        <v>45829.29943059705</v>
       </c>
       <c r="E24">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2">
-        <v>45826.4149537037</v>
+        <v>45828.52178240741</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="D33" s="2">
-        <v>45827.49771214448</v>
+        <v>45829.29943060142</v>
       </c>
       <c r="E33">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="F33" s="2">
-        <v>45826.54380787037</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>45827.49771214471</v>
+        <v>45831.31672868288</v>
       </c>
       <c r="E61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>45826.54380787037</v>
+        <v>45829.58444444444</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" s="2">
-        <v>45827.49771214759</v>
+        <v>45829.29943059525</v>
       </c>
       <c r="E82">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2">
-        <v>45826.54545138889</v>
+        <v>45828.4925</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3486,22 +3486,22 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2">
-        <v>45820.30820705877</v>
+        <v>45831.31672868304</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F126" s="2">
-        <v>45819.43864583333</v>
+        <v>45829.58472222222</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D151" s="2">
-        <v>45827.49773229818</v>
+        <v>45829.29943059936</v>
       </c>
       <c r="E151">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F151" s="2">
-        <v>45826.65341435185</v>
+        <v>45828.54791666667</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4345,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D161" s="2">
-        <v>45827.49773230247</v>
+        <v>45829.29943060024</v>
       </c>
       <c r="E161">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F161" s="2">
-        <v>45827.44142361111</v>
+        <v>45828.62064814815</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D195" s="2">
-        <v>45825.82710087832</v>
+        <v>45829.29943060406</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F195" s="2">
-        <v>45825.6681712963</v>
+        <v>45828.6547337963</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D206" s="2">
-        <v>45811.92552606984</v>
+        <v>45829.29943059968</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F206" s="2">
-        <v>45811.75563657407</v>
+        <v>45828.54859953704</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D263" s="2">
-        <v>45818.30489300823</v>
+        <v>45831.31672867625</v>
       </c>
       <c r="E263">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F263" s="2">
-        <v>45817.73993055556</v>
+        <v>45829.47876157407</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D287" s="2">
-        <v>45825.82707705947</v>
+        <v>45829.29943060171</v>
       </c>
       <c r="E287">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F287" s="2">
-        <v>45825.48520833333</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7737,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D300" s="2">
-        <v>45827.49773229688</v>
+        <v>45829.29943059734</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F300" s="2">
-        <v>45826.6058912037</v>
+        <v>45828.52178240741</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D379" s="2">
-        <v>45825.82710087663</v>
+        <v>45829.29943060053</v>
       </c>
       <c r="E379">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F379" s="2">
-        <v>45825.66334490741</v>
+        <v>45828.62064814815</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D404" s="2">
-        <v>45827.49771214298</v>
+        <v>45829.299430602</v>
       </c>
       <c r="E404">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F404" s="2">
-        <v>45826.46430555556</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D441" s="2">
-        <v>45825.82707705224</v>
+        <v>45829.29943059586</v>
       </c>
       <c r="E441">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F441" s="2">
-        <v>45825.38717592593</v>
+        <v>45828.52141203704</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D461" s="2">
-        <v>45827.49773229843</v>
+        <v>45829.29943060082</v>
       </c>
       <c r="E461">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F461" s="2">
-        <v>45826.65341435185</v>
+        <v>45828.62064814815</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D480" s="2">
-        <v>45828.40527173754</v>
+        <v>45829.2994306023</v>
       </c>
       <c r="E480">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F480" s="2">
-        <v>45828.38409722222</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>1</v>
       </c>
       <c r="C507">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D507" s="2">
-        <v>45825.28849841455</v>
+        <v>45831.3167286812</v>
       </c>
       <c r="E507">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F507" s="2">
-        <v>45824.45626157407</v>
+        <v>45829.55359953704</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D527" s="2">
-        <v>45828.40527173276</v>
+        <v>45829.29943059615</v>
       </c>
       <c r="E527">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F527" s="2">
-        <v>45827.86192129629</v>
+        <v>45828.52141203704</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -13522,7 +13522,7 @@
         <v>111</v>
       </c>
       <c r="D533" s="2">
-        <v>45795.04208095842</v>
+        <v>45831.31672868165</v>
       </c>
       <c r="E533">
         <v>111</v>
@@ -13545,16 +13545,16 @@
         <v>1</v>
       </c>
       <c r="C534">
-        <v>33</v>
+        <v>1233</v>
       </c>
       <c r="D534" s="2">
-        <v>45799.89534671205</v>
+        <v>45831.31672868149</v>
       </c>
       <c r="E534">
-        <v>33</v>
+        <v>1233</v>
       </c>
       <c r="F534" s="2">
-        <v>45792.61738425926</v>
+        <v>45829.56215277778</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>98</v>
       </c>
       <c r="D535" s="2">
-        <v>45825.28849841469</v>
+        <v>45831.31672868136</v>
       </c>
       <c r="E535">
         <v>98</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D603" s="2">
-        <v>45827.49773229854</v>
+        <v>45829.29943060602</v>
       </c>
       <c r="E603">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F603" s="2">
-        <v>45826.65341435185</v>
+        <v>45828.71103009259</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -17195,16 +17195,16 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D685" s="2">
-        <v>45827.49773229866</v>
+        <v>45829.29943060628</v>
       </c>
       <c r="E685">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F685" s="2">
-        <v>45826.65341435185</v>
+        <v>45828.71103009259</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -18430,16 +18430,16 @@
         <v>1</v>
       </c>
       <c r="C734">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D734" s="2">
-        <v>45795.04193352044</v>
+        <v>45831.31672867793</v>
       </c>
       <c r="E734">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F734" s="2">
-        <v>45671.49116898148</v>
+        <v>45829.5324537037</v>
       </c>
       <c r="G734">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>-32</v>
+        <v>468</v>
       </c>
       <c r="D772" s="2">
-        <v>45827.49771214623</v>
+        <v>45829.29943060575</v>
       </c>
       <c r="E772">
-        <v>-32</v>
+        <v>468</v>
       </c>
       <c r="F772" s="2">
-        <v>45826.54380787037</v>
+        <v>45828.68149305556</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -21046,16 +21046,16 @@
         <v>1</v>
       </c>
       <c r="C839">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D839" s="2">
-        <v>45795.0420164208</v>
+        <v>45831.31672868106</v>
       </c>
       <c r="E839">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F839" s="2">
-        <v>45735.44452546296</v>
+        <v>45829.55277777778</v>
       </c>
       <c r="G839">
         <v>0</v>
@@ -22298,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D889" s="2">
-        <v>45828.40527173171</v>
+        <v>45829.29943059556</v>
       </c>
       <c r="E889">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F889" s="2">
-        <v>45827.5966087963</v>
+        <v>45828.50344907407</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -23317,22 +23317,22 @@
         <v>1</v>
       </c>
       <c r="C929">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D929" s="2">
-        <v>45828.40527173956</v>
+        <v>45829.29943060546</v>
       </c>
       <c r="E929">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F929" s="2">
-        <v>45820.5114699074</v>
+        <v>45828.67482638889</v>
       </c>
       <c r="G929">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H929" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="D963" s="2">
-        <v>45828.40527173474</v>
+        <v>45829.29943059765</v>
       </c>
       <c r="E963">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="F963" s="2">
-        <v>45827.88251157408</v>
+        <v>45828.52178240741</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -26321,16 +26321,16 @@
         <v>1</v>
       </c>
       <c r="C1048">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D1048" s="2">
-        <v>45795.04204563411</v>
+        <v>45831.31672868093</v>
       </c>
       <c r="E1048">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F1048" s="2">
-        <v>45747.76114583333</v>
+        <v>45829.55180555556</v>
       </c>
       <c r="G1048">
         <v>0</v>
@@ -27414,16 +27414,16 @@
         <v>1</v>
       </c>
       <c r="C1092">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D1092" s="2">
-        <v>45827.49773230096</v>
+        <v>45829.29943059825</v>
       </c>
       <c r="E1092">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F1092" s="2">
-        <v>45826.72618055555</v>
+        <v>45828.53510416667</v>
       </c>
       <c r="G1092">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>1</v>
       </c>
       <c r="C1121">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1121" s="2">
-        <v>45828.40527173528</v>
+        <v>45829.29943059646</v>
       </c>
       <c r="E1121">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1121" s="2">
-        <v>45827.90260416667</v>
+        <v>45828.52141203704</v>
       </c>
       <c r="G1121">
         <v>0</v>
@@ -28505,16 +28505,16 @@
         <v>1</v>
       </c>
       <c r="C1135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1135" s="2">
-        <v>45825.8270770648</v>
+        <v>45829.29943060112</v>
       </c>
       <c r="E1135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1135" s="2">
-        <v>45825.50549768518</v>
+        <v>45828.62064814815</v>
       </c>
       <c r="G1135">
         <v>0</v>
@@ -28883,16 +28883,16 @@
         <v>1</v>
       </c>
       <c r="C1150">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1150" s="2">
-        <v>45825.28849841747</v>
+        <v>45829.29943060463</v>
       </c>
       <c r="E1150">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1150" s="2">
-        <v>45824.63096064814</v>
+        <v>45828.66594907407</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="D1157" s="2">
-        <v>45795.04171905605</v>
+        <v>45831.31672868001</v>
       </c>
       <c r="E1157">
         <v>0</v>
@@ -29547,16 +29547,16 @@
         <v>1</v>
       </c>
       <c r="C1176">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D1176" s="2">
-        <v>45799.89534673509</v>
+        <v>45831.31672867721</v>
       </c>
       <c r="E1176">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F1176" s="2">
-        <v>45796.48475694445</v>
+        <v>45829.4890625</v>
       </c>
       <c r="G1176">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D1177" s="2">
-        <v>45821.879505595</v>
+        <v>45831.31672867704</v>
       </c>
       <c r="E1177">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="F1177" s="2">
-        <v>45821.43476851852</v>
+        <v>45829.48858796297</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29674,16 +29674,16 @@
         <v>1</v>
       </c>
       <c r="C1181">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D1181" s="2">
-        <v>45795.0416147377</v>
+        <v>45831.31672868273</v>
       </c>
       <c r="E1181">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F1181" s="2">
-        <v>45266.63008101852</v>
+        <v>45829.58006944445</v>
       </c>
       <c r="G1181">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1183" s="2">
-        <v>45825.82710087889</v>
+        <v>45829.29943060681</v>
       </c>
       <c r="E1183">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1183" s="2">
-        <v>45825.6681712963</v>
+        <v>45828.71103009259</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -30812,16 +30812,16 @@
         <v>1</v>
       </c>
       <c r="C1225">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1225" s="2">
-        <v>45799.89540330523</v>
+        <v>45831.31672868337</v>
       </c>
       <c r="E1225">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1225" s="2">
-        <v>45799.43446759259</v>
+        <v>45829.58974537037</v>
       </c>
       <c r="G1225">
         <v>0</v>
@@ -30838,16 +30838,16 @@
         <v>1</v>
       </c>
       <c r="C1226">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1226" s="2">
-        <v>45799.89540330523</v>
+        <v>45831.31672868355</v>
       </c>
       <c r="E1226">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1226" s="2">
-        <v>45799.43446759259</v>
+        <v>45829.58974537037</v>
       </c>
       <c r="G1226">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>1</v>
       </c>
       <c r="C1415">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D1415" s="2">
-        <v>45799.89534673509</v>
+        <v>45831.31672867735</v>
       </c>
       <c r="E1415">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F1415" s="2">
-        <v>45796.48792824074</v>
+        <v>45829.48931712963</v>
       </c>
       <c r="G1415">
         <v>0</v>
@@ -39167,16 +39167,16 @@
         <v>1</v>
       </c>
       <c r="C1555">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D1555" s="2">
-        <v>45795.04169367771</v>
+        <v>45831.3167286775</v>
       </c>
       <c r="E1555">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F1555" s="2">
-        <v>45447.6319212963</v>
+        <v>45829.49069444444</v>
       </c>
       <c r="G1555">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5328</v>
+        <v>5311</v>
       </c>
       <c r="D1597" s="2">
-        <v>45827.49773230153</v>
+        <v>45829.29943060262</v>
       </c>
       <c r="E1597">
-        <v>5328</v>
+        <v>5311</v>
       </c>
       <c r="F1597" s="2">
-        <v>45826.72618055555</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -41550,16 +41550,16 @@
         <v>1</v>
       </c>
       <c r="C1650">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1650" s="2">
-        <v>45795.04208095842</v>
+        <v>45829.29943060434</v>
       </c>
       <c r="E1650">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F1650" s="2">
-        <v>45775.4059375</v>
+        <v>45828.6547337963</v>
       </c>
       <c r="G1650">
         <v>0</v>
@@ -46699,16 +46699,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1856" s="2">
-        <v>45818.30489300554</v>
+        <v>45829.29943059676</v>
       </c>
       <c r="E1856">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F1856" s="2">
-        <v>45817.71056712963</v>
+        <v>45828.52141203704</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -47216,16 +47216,16 @@
         <v>1</v>
       </c>
       <c r="C1876">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D1876" s="2">
-        <v>45795.04208095842</v>
+        <v>45831.31672867807</v>
       </c>
       <c r="E1876">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F1876" s="2">
-        <v>45607.47947916666</v>
+        <v>45829.53827546296</v>
       </c>
       <c r="G1876">
         <v>0</v>
@@ -47764,16 +47764,16 @@
         <v>1</v>
       </c>
       <c r="C1898">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1898" s="2">
-        <v>45827.49773229926</v>
+        <v>45829.29943059856</v>
       </c>
       <c r="E1898">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1898" s="2">
-        <v>45826.65341435185</v>
+        <v>45828.54282407407</v>
       </c>
       <c r="G1898">
         <v>0</v>
@@ -48858,16 +48858,16 @@
         <v>1</v>
       </c>
       <c r="C1941">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1941" s="2">
-        <v>45810.72563721648</v>
+        <v>45829.29943059885</v>
       </c>
       <c r="E1941">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1941" s="2">
-        <v>45810.75585648148</v>
+        <v>45828.54484953704</v>
       </c>
       <c r="G1941">
         <v>0</v>
@@ -50442,16 +50442,16 @@
         <v>1</v>
       </c>
       <c r="C2004">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2004" s="2">
-        <v>45799.8954510958</v>
+        <v>45829.29943060492</v>
       </c>
       <c r="E2004">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2004" s="2">
-        <v>45797.73166666667</v>
+        <v>45828.66594907407</v>
       </c>
       <c r="G2004">
         <v>0</v>
@@ -52828,16 +52828,16 @@
         <v>1</v>
       </c>
       <c r="C2099">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2099" s="2">
-        <v>45805.91875150988</v>
+        <v>45829.29943060518</v>
       </c>
       <c r="E2099">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2099" s="2">
-        <v>45805.62515046296</v>
+        <v>45828.66594907407</v>
       </c>
       <c r="G2099">
         <v>0</v>
@@ -55101,16 +55101,16 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2190" s="2">
-        <v>45820.91697502377</v>
+        <v>45831.31672867568</v>
       </c>
       <c r="E2190">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2190" s="2">
-        <v>45820.70375</v>
+        <v>45829.47851851852</v>
       </c>
       <c r="G2190">
         <v>0</v>
@@ -55127,16 +55127,16 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2191" s="2">
-        <v>45820.91697502389</v>
+        <v>45831.31672867687</v>
       </c>
       <c r="E2191">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2191" s="2">
-        <v>45820.70375</v>
+        <v>45829.47966435185</v>
       </c>
       <c r="G2191">
         <v>0</v>
@@ -55179,16 +55179,16 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2193" s="2">
-        <v>45820.91697502412</v>
+        <v>45831.31672867657</v>
       </c>
       <c r="E2193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2193" s="2">
-        <v>45820.70375</v>
+        <v>45829.47924768519</v>
       </c>
       <c r="G2193">
         <v>0</v>
@@ -55205,16 +55205,16 @@
         <v>1</v>
       </c>
       <c r="C2194">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2194" s="2">
-        <v>45820.91697502424</v>
+        <v>45831.31672867673</v>
       </c>
       <c r="E2194">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2194" s="2">
-        <v>45820.70375</v>
+        <v>45829.47944444444</v>
       </c>
       <c r="G2194">
         <v>0</v>
@@ -55615,16 +55615,16 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2210" s="2">
-        <v>45820.91697502435</v>
+        <v>45831.31672867642</v>
       </c>
       <c r="E2210">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2210" s="2">
-        <v>45820.70375</v>
+        <v>45829.47900462963</v>
       </c>
       <c r="G2210">
         <v>0</v>
@@ -56977,16 +56977,16 @@
         <v>1</v>
       </c>
       <c r="C2264">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D2264" s="2">
-        <v>45811.92549991595</v>
+        <v>45829.29943059482</v>
       </c>
       <c r="E2264">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="F2264" s="2">
-        <v>45811.6834837963</v>
+        <v>45828.49071759259</v>
       </c>
       <c r="G2264">
         <v>0</v>
@@ -62361,16 +62361,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D2481" s="2">
-        <v>45825.28849841421</v>
+        <v>45829.29943060291</v>
       </c>
       <c r="E2481">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F2481" s="2">
-        <v>45824.44886574074</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62387,16 +62387,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D2482" s="2">
-        <v>45827.49771214833</v>
+        <v>45829.2994306032</v>
       </c>
       <c r="E2482">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F2482" s="2">
-        <v>45826.55488425926</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62413,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D2483" s="2">
-        <v>45827.49771214367</v>
+        <v>45829.29943060348</v>
       </c>
       <c r="E2483">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F2483" s="2">
-        <v>45826.46430555556</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62439,16 +62439,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D2484" s="2">
-        <v>45827.49771214378</v>
+        <v>45829.29943060376</v>
       </c>
       <c r="E2484">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F2484" s="2">
-        <v>45826.46430555556</v>
+        <v>45828.63898148148</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -62762,7 +62762,7 @@
         <v>0</v>
       </c>
       <c r="D2497" s="2">
-        <v>45799.89532165734</v>
+        <v>45831.31672868244</v>
       </c>
       <c r="E2497">
         <v>0</v>
@@ -64736,6 +64736,58 @@
         <v>0</v>
       </c>
       <c r="H2578" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:8">
+      <c r="A2579">
+        <v>43804644</v>
+      </c>
+      <c r="B2579">
+        <v>1</v>
+      </c>
+      <c r="C2579">
+        <v>20</v>
+      </c>
+      <c r="D2579" s="2">
+        <v>45831.31672868061</v>
+      </c>
+      <c r="E2579">
+        <v>20</v>
+      </c>
+      <c r="F2579" s="2">
+        <v>45829.54894675926</v>
+      </c>
+      <c r="G2579">
+        <v>0</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:8">
+      <c r="A2580">
+        <v>43804650</v>
+      </c>
+      <c r="B2580">
+        <v>1</v>
+      </c>
+      <c r="C2580">
+        <v>48</v>
+      </c>
+      <c r="D2580" s="2">
+        <v>45831.31672868065</v>
+      </c>
+      <c r="E2580">
+        <v>48</v>
+      </c>
+      <c r="F2580" s="2">
+        <v>45829.55087962963</v>
+      </c>
+      <c r="G2580">
+        <v>0</v>
+      </c>
+      <c r="H2580" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2580"/>
+  <dimension ref="A1:H2581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,10 +494,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4" s="2">
-        <v>45829.29943059995</v>
+        <v>45831.83461825034</v>
       </c>
       <c r="E4">
         <v>-2</v>
@@ -506,10 +506,10 @@
         <v>45828.62064814815</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45828.40527173713</v>
+        <v>45831.83463792984</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -532,10 +532,10 @@
         <v>45828.38409722222</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
-        <v>45795.04186106093</v>
+        <v>45831.83461824025</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -1062,10 +1062,10 @@
         <v>45582.38358796296</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3001</v>
+        <v>2871</v>
       </c>
       <c r="D33" s="2">
-        <v>45829.29943060142</v>
+        <v>45831.83463793023</v>
       </c>
       <c r="E33">
         <v>3001</v>
@@ -1206,10 +1206,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
-        <v>45827.49771214459</v>
+        <v>45831.83461824713</v>
       </c>
       <c r="E49">
         <v>62</v>
@@ -1601,10 +1601,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D56" s="2">
-        <v>45825.8271008745</v>
+        <v>45831.8346379189</v>
       </c>
       <c r="E56">
         <v>343</v>
@@ -1777,10 +1777,10 @@
         <v>45825.64746527778</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2">
-        <v>45825.28852326544</v>
+        <v>45831.83463791903</v>
       </c>
       <c r="E58">
         <v>161</v>
@@ -1829,10 +1829,10 @@
         <v>45824.69262731481</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D63" s="2">
-        <v>45827.49773229621</v>
+        <v>45831.83461824944</v>
       </c>
       <c r="E63">
         <v>146</v>
@@ -1953,10 +1953,10 @@
         <v>45826.5802662037</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2">
-        <v>45827.4977121439</v>
+        <v>45831.83463792157</v>
       </c>
       <c r="E70">
         <v>70</v>
@@ -2126,10 +2126,10 @@
         <v>45826.50527777777</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2376,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="2">
-        <v>45827.49771214802</v>
+        <v>45831.83463791914</v>
       </c>
       <c r="E81">
         <v>203</v>
@@ -2388,10 +2388,10 @@
         <v>45826.55267361111</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2529,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D87" s="2">
-        <v>45827.49771214749</v>
+        <v>45831.8346182535</v>
       </c>
       <c r="E87">
         <v>132</v>
@@ -2541,10 +2541,10 @@
         <v>45826.54513888889</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2702,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2">
-        <v>45827.49771214402</v>
+        <v>45831.83463792191</v>
       </c>
       <c r="E94">
         <v>26</v>
@@ -2714,10 +2714,10 @@
         <v>45826.50527777777</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2751,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="D96" s="2">
-        <v>45827.49773229603</v>
+        <v>45831.83461824726</v>
       </c>
       <c r="E96">
         <v>173</v>
@@ -2763,10 +2763,10 @@
         <v>45826.57822916667</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>3109</v>
+        <v>2904</v>
       </c>
       <c r="D101" s="2">
-        <v>45827.49773229984</v>
+        <v>45831.83463793042</v>
       </c>
       <c r="E101">
         <v>3109</v>
@@ -2884,10 +2884,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>24</v>
+        <v>-13</v>
       </c>
       <c r="D106" s="2">
-        <v>45827.49771214482</v>
+        <v>45831.83463791526</v>
       </c>
       <c r="E106">
         <v>24</v>
@@ -3005,10 +3005,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="D115" s="2">
-        <v>45825.28849841651</v>
+        <v>45831.83463792848</v>
       </c>
       <c r="E115">
         <v>204</v>
@@ -3221,10 +3221,10 @@
         <v>45824.62041666666</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3258,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1040</v>
+        <v>1014</v>
       </c>
       <c r="D117" s="2">
-        <v>45827.49771214286</v>
+        <v>45831.83461824039</v>
       </c>
       <c r="E117">
         <v>1040</v>
@@ -3270,10 +3270,10 @@
         <v>45826.46430555556</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D120" s="2">
-        <v>45827.49771214215</v>
+        <v>45831.8346379154</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3345,10 +3345,10 @@
         <v>45826.45851851852</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="D123" s="2">
-        <v>45827.49773230499</v>
+        <v>45831.83463791703</v>
       </c>
       <c r="E123">
         <v>479</v>
@@ -3420,10 +3420,10 @@
         <v>45826.7627199074</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3434,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D124" s="2">
-        <v>45820.9169750247</v>
+        <v>45831.83461825257</v>
       </c>
       <c r="E124">
         <v>257</v>
@@ -3446,10 +3446,10 @@
         <v>45820.70586805556</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3460,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D125" s="2">
-        <v>45827.49773229995</v>
+        <v>45831.83461824957</v>
       </c>
       <c r="E125">
         <v>524</v>
@@ -3472,10 +3472,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3486,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45831.31672868304</v>
+        <v>45831.83461825048</v>
       </c>
       <c r="E126">
         <v>13</v>
@@ -3498,10 +3498,10 @@
         <v>45829.58472222222</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3846,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D141" s="2">
-        <v>45825.82707705782</v>
+        <v>45831.83463791714</v>
       </c>
       <c r="E141">
         <v>400</v>
@@ -3858,10 +3858,10 @@
         <v>45825.44177083333</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4397,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2">
-        <v>45825.82710088</v>
+        <v>45831.8346182506</v>
       </c>
       <c r="E163">
         <v>22</v>
@@ -4409,10 +4409,10 @@
         <v>45825.69407407408</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D185" s="2">
-        <v>45825.28849841207</v>
+        <v>45831.83463791553</v>
       </c>
       <c r="E185">
         <v>133</v>
@@ -4948,10 +4948,10 @@
         <v>45824.38501157407</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5103,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D192" s="2">
-        <v>45821.87952450496</v>
+        <v>45831.83461824249</v>
       </c>
       <c r="E192">
         <v>61</v>
@@ -5115,10 +5115,10 @@
         <v>45821.74190972222</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D195" s="2">
-        <v>45829.29943060406</v>
+        <v>45831.83461825072</v>
       </c>
       <c r="E195">
         <v>-3</v>
@@ -5193,10 +5193,10 @@
         <v>45828.6547337963</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5328,10 +5328,10 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="D201" s="2">
-        <v>45825.82707706191</v>
+        <v>45831.83461824997</v>
       </c>
       <c r="E201">
         <v>1056</v>
@@ -5340,10 +5340,10 @@
         <v>45825.49319444445</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5449,10 +5449,10 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D206" s="2">
-        <v>45829.29943059968</v>
+        <v>45831.83463792224</v>
       </c>
       <c r="E206">
         <v>8</v>
@@ -5461,10 +5461,10 @@
         <v>45828.54859953704</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5521,10 +5521,10 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D209" s="2">
-        <v>45827.4977121478</v>
+        <v>45831.83461823943</v>
       </c>
       <c r="E209">
         <v>32</v>
@@ -5533,10 +5533,10 @@
         <v>45826.5516087963</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6149,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
-        <v>45827.49773230008</v>
+        <v>45831.83463791679</v>
       </c>
       <c r="E235">
         <v>45</v>
@@ -6161,10 +6161,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6437,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D247" s="2">
-        <v>45825.8271008741</v>
+        <v>45831.83461823963</v>
       </c>
       <c r="E247">
         <v>902</v>
@@ -6449,10 +6449,10 @@
         <v>45825.64662037037</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7071,10 +7071,10 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D273" s="2">
-        <v>45825.82710087424</v>
+        <v>45831.83463792867</v>
       </c>
       <c r="E273">
         <v>45</v>
@@ -7083,10 +7083,10 @@
         <v>45825.64662037037</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H273" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7097,10 +7097,10 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D274" s="2">
-        <v>45827.49773230022</v>
+        <v>45831.83463791726</v>
       </c>
       <c r="E274">
         <v>373</v>
@@ -7109,10 +7109,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7261,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="D281" s="2">
-        <v>45820.30820705569</v>
+        <v>45831.83461824738</v>
       </c>
       <c r="E281">
         <v>11</v>
@@ -7273,10 +7273,10 @@
         <v>45819.39163194445</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7310,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D283" s="2">
-        <v>45827.49771214516</v>
+        <v>45831.83463791737</v>
       </c>
       <c r="E283">
         <v>200</v>
@@ -7322,10 +7322,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7509,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D291" s="2">
-        <v>45827.49773230509</v>
+        <v>45831.83461825269</v>
       </c>
       <c r="E291">
         <v>570</v>
@@ -7521,10 +7521,10 @@
         <v>45826.45851851852</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7535,10 +7535,10 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D292" s="2">
-        <v>45827.49773229529</v>
+        <v>45831.83461825179</v>
       </c>
       <c r="E292">
         <v>184</v>
@@ -7547,10 +7547,10 @@
         <v>45826.56369212963</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>106</v>
+        <v>-24</v>
       </c>
       <c r="D295" s="2">
-        <v>45827.49771214528</v>
+        <v>45831.83463792627</v>
       </c>
       <c r="E295">
         <v>106</v>
@@ -7622,10 +7622,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G295">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7737,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D300" s="2">
-        <v>45829.29943059734</v>
+        <v>45831.83461824904</v>
       </c>
       <c r="E300">
         <v>-2</v>
@@ -7749,10 +7749,10 @@
         <v>45828.52178240741</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H300" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8374,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="D326" s="2">
-        <v>45828.40527173419</v>
+        <v>45831.83463791567</v>
       </c>
       <c r="E326">
         <v>1098</v>
@@ -8386,10 +8386,10 @@
         <v>45827.86969907407</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8772,10 +8772,10 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="D342" s="2">
-        <v>45825.28849841953</v>
+        <v>45831.83461825283</v>
       </c>
       <c r="E342">
         <v>158</v>
@@ -8784,10 +8784,10 @@
         <v>45824.64376157407</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -8870,10 +8870,10 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D346" s="2">
-        <v>45825.82710087521</v>
+        <v>45831.83461824752</v>
       </c>
       <c r="E346">
         <v>131</v>
@@ -8882,10 +8882,10 @@
         <v>45825.64746527778</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8965,10 +8965,10 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D350" s="2">
-        <v>45825.82710087579</v>
+        <v>45831.83461825363</v>
       </c>
       <c r="E350">
         <v>210</v>
@@ -8977,10 +8977,10 @@
         <v>45825.65248842593</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H350" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -8991,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1313</v>
+        <v>1241</v>
       </c>
       <c r="D351" s="2">
-        <v>45828.40527173815</v>
+        <v>45831.83461825296</v>
       </c>
       <c r="E351">
         <v>1313</v>
@@ -9003,10 +9003,10 @@
         <v>45828.41831018519</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9115,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D356" s="2">
-        <v>45814.82976436854</v>
+        <v>45831.83461824054</v>
       </c>
       <c r="E356">
         <v>20</v>
@@ -9127,10 +9127,10 @@
         <v>45814.70711805556</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9242,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D361" s="2">
-        <v>45827.49771214813</v>
+        <v>45831.8346379306</v>
       </c>
       <c r="E361">
         <v>305</v>
@@ -9254,10 +9254,10 @@
         <v>45826.55393518518</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9291,10 +9291,10 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="D363" s="2">
-        <v>45825.82707705583</v>
+        <v>45831.83463792886</v>
       </c>
       <c r="E363">
         <v>575</v>
@@ -9303,10 +9303,10 @@
         <v>45825.43016203704</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9692,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D379" s="2">
-        <v>45829.29943060053</v>
+        <v>45831.83459785258</v>
       </c>
       <c r="E379">
         <v>17</v>
@@ -9704,10 +9704,10 @@
         <v>45828.62064814815</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -9839,10 +9839,10 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D385" s="2">
-        <v>45827.4977121417</v>
+        <v>45831.83461825379</v>
       </c>
       <c r="E385">
         <v>162</v>
@@ -9851,10 +9851,10 @@
         <v>45826.4149537037</v>
       </c>
       <c r="G385">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9969,10 +9969,10 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>45</v>
+        <v>-4</v>
       </c>
       <c r="D390" s="2">
-        <v>45828.40527173796</v>
+        <v>45831.83463793078</v>
       </c>
       <c r="E390">
         <v>45</v>
@@ -9981,10 +9981,10 @@
         <v>45828.40751157407</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10070,10 +10070,10 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D394" s="2">
-        <v>45827.49773229649</v>
+        <v>45831.83463791927</v>
       </c>
       <c r="E394">
         <v>367</v>
@@ -10082,10 +10082,10 @@
         <v>45826.58738425926</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10122,10 +10122,10 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D396" s="2">
-        <v>45820.30820706057</v>
+        <v>45831.83461825085</v>
       </c>
       <c r="E396">
         <v>8</v>
@@ -10134,10 +10134,10 @@
         <v>45819.51405092593</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10269,10 +10269,10 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D402" s="2">
-        <v>45825.82710088027</v>
+        <v>45831.83461824068</v>
       </c>
       <c r="E402">
         <v>133</v>
@@ -10281,10 +10281,10 @@
         <v>45825.69407407408</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H402" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10321,10 +10321,10 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="D404" s="2">
-        <v>45829.299430602</v>
+        <v>45831.83461824765</v>
       </c>
       <c r="E404">
         <v>195</v>
@@ -10333,10 +10333,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H404" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10471,10 +10471,10 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="D410" s="2">
-        <v>45825.28852326178</v>
+        <v>45831.8346182531</v>
       </c>
       <c r="E410">
         <v>1835</v>
@@ -10483,10 +10483,10 @@
         <v>45824.64774305555</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H410" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -10549,10 +10549,10 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>978</v>
+        <v>678</v>
       </c>
       <c r="D413" s="2">
-        <v>45827.49773229565</v>
+        <v>45831.83459785218</v>
       </c>
       <c r="E413">
         <v>978</v>
@@ -10561,10 +10561,10 @@
         <v>45826.56640046297</v>
       </c>
       <c r="G413">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H413" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -10673,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="D418" s="2">
-        <v>45827.49773230466</v>
+        <v>45831.8346379158</v>
       </c>
       <c r="E418">
         <v>823</v>
@@ -10685,10 +10685,10 @@
         <v>45827.51927083333</v>
       </c>
       <c r="G418">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H418" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11244,10 +11244,10 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>42</v>
+        <v>-38</v>
       </c>
       <c r="D441" s="2">
-        <v>45829.29943059586</v>
+        <v>45831.83459785235</v>
       </c>
       <c r="E441">
         <v>42</v>
@@ -11256,10 +11256,10 @@
         <v>45828.52141203704</v>
       </c>
       <c r="G441">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H441" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11728,10 +11728,10 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D461" s="2">
-        <v>45829.29943060082</v>
+        <v>45831.83463792661</v>
       </c>
       <c r="E461">
         <v>150</v>
@@ -11740,10 +11740,10 @@
         <v>45828.62064814815</v>
       </c>
       <c r="G461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H461" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -11930,10 +11930,10 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>3086</v>
+        <v>3056</v>
       </c>
       <c r="D469" s="2">
-        <v>45828.40527173454</v>
+        <v>45831.83463792255</v>
       </c>
       <c r="E469">
         <v>3086</v>
@@ -11942,10 +11942,10 @@
         <v>45827.87236111111</v>
       </c>
       <c r="G469">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H469" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12005,10 +12005,10 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D472" s="2">
-        <v>45827.49771214587</v>
+        <v>45831.8346379186</v>
       </c>
       <c r="E472">
         <v>32</v>
@@ -12017,10 +12017,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G472">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H472" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12207,10 +12207,10 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D480" s="2">
-        <v>45829.2994306023</v>
+        <v>45831.83463791749</v>
       </c>
       <c r="E480">
         <v>212</v>
@@ -12219,10 +12219,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12951,10 +12951,10 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D510" s="2">
-        <v>45825.28852326749</v>
+        <v>45831.83463793097</v>
       </c>
       <c r="E510">
         <v>265</v>
@@ -12963,10 +12963,10 @@
         <v>45824.74089120371</v>
       </c>
       <c r="G510">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H510" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13392,10 +13392,10 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D528" s="2">
-        <v>45828.40527173384</v>
+        <v>45831.83461825097</v>
       </c>
       <c r="E528">
         <v>200</v>
@@ -13404,10 +13404,10 @@
         <v>45827.86752314815</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H528" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -13816,10 +13816,10 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="D545" s="2">
-        <v>45827.49773229484</v>
+        <v>45831.83461825219</v>
       </c>
       <c r="E545">
         <v>27</v>
@@ -13828,10 +13828,10 @@
         <v>45826.56113425926</v>
       </c>
       <c r="G545">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H545" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14389,10 +14389,10 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D569" s="2">
-        <v>45820.30824423403</v>
+        <v>45831.8346379229</v>
       </c>
       <c r="E569">
         <v>6</v>
@@ -14401,10 +14401,10 @@
         <v>45819.6587037037</v>
       </c>
       <c r="G569">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H569" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15037,10 +15037,10 @@
         <v>1</v>
       </c>
       <c r="C596">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D596" s="2">
-        <v>45799.89532165734</v>
+        <v>45831.83461824154</v>
       </c>
       <c r="E596">
         <v>8</v>
@@ -15049,10 +15049,10 @@
         <v>45784.74362268519</v>
       </c>
       <c r="G596">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H596" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15956,10 +15956,10 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="D634" s="2">
-        <v>45825.28852326208</v>
+        <v>45831.83463791761</v>
       </c>
       <c r="E634">
         <v>19</v>
@@ -15968,10 +15968,10 @@
         <v>45824.64774305555</v>
       </c>
       <c r="G634">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H634" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16385,10 +16385,10 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D652" s="2">
-        <v>45825.28849841534</v>
+        <v>45831.83463791775</v>
       </c>
       <c r="E652">
         <v>35</v>
@@ -16397,10 +16397,10 @@
         <v>45824.47506944444</v>
       </c>
       <c r="G652">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H652" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -16509,10 +16509,10 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1962</v>
+        <v>1887</v>
       </c>
       <c r="D657" s="2">
-        <v>45827.49771214598</v>
+        <v>45831.83461824778</v>
       </c>
       <c r="E657">
         <v>1962</v>
@@ -16521,10 +16521,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G657">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H657" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17094,10 +17094,10 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D681" s="2">
-        <v>45825.827100882</v>
+        <v>45831.83461825192</v>
       </c>
       <c r="E681">
         <v>-4</v>
@@ -17106,10 +17106,10 @@
         <v>45825.72755787037</v>
       </c>
       <c r="G681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H681" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -17342,10 +17342,10 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D691" s="2">
-        <v>45827.49773229878</v>
+        <v>45831.83463791593</v>
       </c>
       <c r="E691">
         <v>141</v>
@@ -17354,10 +17354,10 @@
         <v>45826.65341435185</v>
       </c>
       <c r="G691">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H691" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18303,10 +18303,10 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D729" s="2">
-        <v>45825.28852326518</v>
+        <v>45831.83461825392</v>
       </c>
       <c r="E729">
         <v>18</v>
@@ -18315,10 +18315,10 @@
         <v>45824.69230324074</v>
       </c>
       <c r="G729">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H729" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -18381,10 +18381,10 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="D732" s="2">
-        <v>45825.28852326337</v>
+        <v>45831.83463791787</v>
       </c>
       <c r="E732">
         <v>269</v>
@@ -18393,10 +18393,10 @@
         <v>45824.64796296296</v>
       </c>
       <c r="G732">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H732" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -18508,10 +18508,10 @@
         <v>1</v>
       </c>
       <c r="C737">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D737" s="2">
-        <v>45820.91695281462</v>
+        <v>45831.834637918</v>
       </c>
       <c r="E737">
         <v>91</v>
@@ -18520,10 +18520,10 @@
         <v>45820.62943287037</v>
       </c>
       <c r="G737">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H737" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -18612,10 +18612,10 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D741" s="2">
-        <v>45827.49771214611</v>
+        <v>45831.83461825324</v>
       </c>
       <c r="E741">
         <v>12</v>
@@ -18624,10 +18624,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G741">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H741" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19007,10 +19007,10 @@
         <v>1</v>
       </c>
       <c r="C757">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D757" s="2">
-        <v>45807.78640657826</v>
+        <v>45831.83463792325</v>
       </c>
       <c r="E757">
         <v>106</v>
@@ -19019,10 +19019,10 @@
         <v>45807.43640046296</v>
       </c>
       <c r="G757">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H757" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -19154,10 +19154,10 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>112</v>
+        <v>-19</v>
       </c>
       <c r="D763" s="2">
-        <v>45818.80148694425</v>
+        <v>45831.8346182511</v>
       </c>
       <c r="E763">
         <v>112</v>
@@ -19166,10 +19166,10 @@
         <v>45818.65388888889</v>
       </c>
       <c r="G763">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H763" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -19232,10 +19232,10 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D766" s="2">
-        <v>45818.30489301217</v>
+        <v>45831.83461824918</v>
       </c>
       <c r="E766">
         <v>10</v>
@@ -19244,10 +19244,10 @@
         <v>45817.74609953703</v>
       </c>
       <c r="G766">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H766" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -19379,10 +19379,10 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="D772" s="2">
-        <v>45829.29943060575</v>
+        <v>45831.83463792903</v>
       </c>
       <c r="E772">
         <v>468</v>
@@ -19391,10 +19391,10 @@
         <v>45828.68149305556</v>
       </c>
       <c r="G772">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H772" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -19535,10 +19535,10 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D778" s="2">
-        <v>45825.82707706706</v>
+        <v>45831.83461825123</v>
       </c>
       <c r="E778">
         <v>6</v>
@@ -19547,10 +19547,10 @@
         <v>45825.61604166667</v>
       </c>
       <c r="G778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H778" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20683,10 +20683,10 @@
         <v>1</v>
       </c>
       <c r="C824">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D824" s="2">
-        <v>45818.30486081409</v>
+        <v>45831.83463791941</v>
       </c>
       <c r="E824">
         <v>80</v>
@@ -20695,10 +20695,10 @@
         <v>45817.39020833333</v>
       </c>
       <c r="G824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H824" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -20732,10 +20732,10 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>33</v>
+        <v>-179</v>
       </c>
       <c r="D826" s="2">
-        <v>45827.49773229507</v>
+        <v>45831.83463793115</v>
       </c>
       <c r="E826">
         <v>33</v>
@@ -20744,10 +20744,10 @@
         <v>45826.56285879629</v>
       </c>
       <c r="G826">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H826" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21164,10 +21164,10 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>33</v>
+        <v>-31</v>
       </c>
       <c r="D844" s="2">
-        <v>45827.49773229496</v>
+        <v>45831.83461824687</v>
       </c>
       <c r="E844">
         <v>33</v>
@@ -21176,10 +21176,10 @@
         <v>45826.56253472222</v>
       </c>
       <c r="G844">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H844" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -21363,10 +21363,10 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D852" s="2">
-        <v>45820.30824422765</v>
+        <v>45831.83463791606</v>
       </c>
       <c r="E852">
         <v>0</v>
@@ -21375,10 +21375,10 @@
         <v>45819.61973379629</v>
       </c>
       <c r="G852">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H852" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -21389,10 +21389,10 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D853" s="2">
-        <v>45827.49773230073</v>
+        <v>45831.83463792758</v>
       </c>
       <c r="E853">
         <v>62</v>
@@ -21401,10 +21401,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H853" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21415,10 +21415,10 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D854" s="2">
-        <v>45825.28852326937</v>
+        <v>45831.83463791619</v>
       </c>
       <c r="E854">
         <v>11</v>
@@ -21427,10 +21427,10 @@
         <v>45824.76539351852</v>
       </c>
       <c r="G854">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H854" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -21842,10 +21842,10 @@
         <v>1</v>
       </c>
       <c r="C871">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D871" s="2">
-        <v>45821.87952450188</v>
+        <v>45831.83463792357</v>
       </c>
       <c r="E871">
         <v>2</v>
@@ -21854,10 +21854,10 @@
         <v>45821.69668981482</v>
       </c>
       <c r="G871">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H871" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -21868,10 +21868,10 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D872" s="2">
-        <v>45825.82707705665</v>
+        <v>45831.83463792923</v>
       </c>
       <c r="E872">
         <v>498</v>
@@ -21880,10 +21880,10 @@
         <v>45825.43016203704</v>
       </c>
       <c r="G872">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H872" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -21972,10 +21972,10 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="D876" s="2">
-        <v>45828.40527173153</v>
+        <v>45831.83461825422</v>
       </c>
       <c r="E876">
         <v>911</v>
@@ -21984,10 +21984,10 @@
         <v>45827.59297453704</v>
       </c>
       <c r="G876">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H876" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -22024,10 +22024,10 @@
         <v>1</v>
       </c>
       <c r="C878">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D878" s="2">
-        <v>45806.77603763194</v>
+        <v>45831.83461824891</v>
       </c>
       <c r="E878">
         <v>9</v>
@@ -22036,10 +22036,10 @@
         <v>45806.69797453703</v>
       </c>
       <c r="G878">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H878" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -22145,10 +22145,10 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D883" s="2">
-        <v>45827.49773229889</v>
+        <v>45831.83461825337</v>
       </c>
       <c r="E883">
         <v>418</v>
@@ -22157,10 +22157,10 @@
         <v>45826.65341435185</v>
       </c>
       <c r="G883">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H883" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22171,10 +22171,10 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D884" s="2">
-        <v>45821.87952449969</v>
+        <v>45831.83461825136</v>
       </c>
       <c r="E884">
         <v>71</v>
@@ -22183,10 +22183,10 @@
         <v>45821.6746875</v>
       </c>
       <c r="G884">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H884" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -22272,10 +22272,10 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="D888" s="2">
-        <v>45827.49771214646</v>
+        <v>45831.83463793134</v>
       </c>
       <c r="E888">
         <v>389</v>
@@ -22284,10 +22284,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G888">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H888" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22578,10 +22578,10 @@
         <v>1</v>
       </c>
       <c r="C900">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D900" s="2">
-        <v>45825.82707706545</v>
+        <v>45831.83463791812</v>
       </c>
       <c r="E900">
         <v>13</v>
@@ -22590,10 +22590,10 @@
         <v>45825.50549768518</v>
       </c>
       <c r="G900">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H900" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23187,10 +23187,10 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>11</v>
+        <v>-24</v>
       </c>
       <c r="D924" s="2">
-        <v>45825.28852326902</v>
+        <v>45831.83461824083</v>
       </c>
       <c r="E924">
         <v>11</v>
@@ -23199,10 +23199,10 @@
         <v>45825.64662037037</v>
       </c>
       <c r="G924">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H924" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23213,10 +23213,10 @@
         <v>1</v>
       </c>
       <c r="C925">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D925" s="2">
-        <v>45828.40527173061</v>
+        <v>45831.83461825435</v>
       </c>
       <c r="E925">
         <v>98</v>
@@ -23225,10 +23225,10 @@
         <v>45827.55762731482</v>
       </c>
       <c r="G925">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H925" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24136,10 +24136,10 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D962" s="2">
-        <v>45828.40527173403</v>
+        <v>45831.83463792392</v>
       </c>
       <c r="E962">
         <v>415</v>
@@ -24148,10 +24148,10 @@
         <v>45827.86880787037</v>
       </c>
       <c r="G962">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H962" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -24162,10 +24162,10 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1793</v>
+        <v>1623</v>
       </c>
       <c r="D963" s="2">
-        <v>45829.29943059765</v>
+        <v>45831.83463792426</v>
       </c>
       <c r="E963">
         <v>1793</v>
@@ -24174,10 +24174,10 @@
         <v>45828.52178240741</v>
       </c>
       <c r="G963">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H963" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -24390,10 +24390,10 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D972" s="2">
-        <v>45818.80148694938</v>
+        <v>45831.83461824097</v>
       </c>
       <c r="E972">
         <v>33</v>
@@ -24402,10 +24402,10 @@
         <v>45818.704375</v>
       </c>
       <c r="G972">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H972" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25481,10 +25481,10 @@
         <v>1</v>
       </c>
       <c r="C1015">
-        <v>4311</v>
+        <v>-5633</v>
       </c>
       <c r="D1015" s="2">
-        <v>45799.89532166889</v>
+        <v>45831.83459785247</v>
       </c>
       <c r="E1015">
         <v>4311</v>
@@ -25493,10 +25493,10 @@
         <v>45791.42091435185</v>
       </c>
       <c r="G1015">
-        <v>0</v>
+        <v>9944</v>
       </c>
       <c r="H1015" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -25533,10 +25533,10 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D1017" s="2">
-        <v>45825.82710087875</v>
+        <v>45831.83463792945</v>
       </c>
       <c r="E1017">
         <v>359</v>
@@ -25545,10 +25545,10 @@
         <v>45825.6681712963</v>
       </c>
       <c r="G1017">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H1017" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -25738,10 +25738,10 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D1025" s="2">
-        <v>45828.40527173135</v>
+        <v>45831.83463792459</v>
       </c>
       <c r="E1025">
         <v>273</v>
@@ -25750,10 +25750,10 @@
         <v>45827.59125</v>
       </c>
       <c r="G1025">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H1025" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -26090,10 +26090,10 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>41</v>
+        <v>-977</v>
       </c>
       <c r="D1039" s="2">
-        <v>45825.82707705295</v>
+        <v>45831.834618247</v>
       </c>
       <c r="E1039">
         <v>41</v>
@@ -26102,10 +26102,10 @@
         <v>45825.38717592593</v>
       </c>
       <c r="G1039">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="H1039" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -26471,10 +26471,10 @@
         <v>1</v>
       </c>
       <c r="C1054">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1054" s="2">
-        <v>45811.92544186871</v>
+        <v>45831.83463791824</v>
       </c>
       <c r="E1054">
         <v>12</v>
@@ -26483,10 +26483,10 @@
         <v>45811.39115740741</v>
       </c>
       <c r="G1054">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1054" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -26676,10 +26676,10 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D1062" s="2">
-        <v>45828.40527173888</v>
+        <v>45831.83463791632</v>
       </c>
       <c r="E1062">
         <v>562</v>
@@ -26688,10 +26688,10 @@
         <v>45828.41831018519</v>
       </c>
       <c r="G1062">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H1062" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27867,10 +27867,10 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D1110" s="2">
-        <v>45825.82707706319</v>
+        <v>45831.8346379279</v>
       </c>
       <c r="E1110">
         <v>140</v>
@@ -27879,10 +27879,10 @@
         <v>45825.49319444445</v>
       </c>
       <c r="G1110">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H1110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -28274,10 +28274,10 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D1126" s="2">
-        <v>45827.49771214343</v>
+        <v>45831.83461824111</v>
       </c>
       <c r="E1126">
         <v>127</v>
@@ -28286,10 +28286,10 @@
         <v>45826.46430555556</v>
       </c>
       <c r="G1126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28378,10 +28378,10 @@
         <v>1</v>
       </c>
       <c r="C1130">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D1130" s="2">
-        <v>45814.82972452114</v>
+        <v>45831.83461823979</v>
       </c>
       <c r="E1130">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         <v>45814.61704861111</v>
       </c>
       <c r="G1130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -28805,10 +28805,10 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1147" s="2">
-        <v>45825.82710088071</v>
+        <v>45831.83463792493</v>
       </c>
       <c r="E1147">
         <v>52</v>
@@ -28817,10 +28817,10 @@
         <v>45825.69407407408</v>
       </c>
       <c r="G1147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H1147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -28857,10 +28857,10 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1149" s="2">
-        <v>45825.2884984148</v>
+        <v>45831.83463791953</v>
       </c>
       <c r="E1149">
         <v>15</v>
@@ -28869,10 +28869,10 @@
         <v>45824.45626157407</v>
       </c>
       <c r="G1149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -29195,10 +29195,10 @@
         <v>1</v>
       </c>
       <c r="C1162">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1162" s="2">
-        <v>45827.49773230215</v>
+        <v>45831.83461825152</v>
       </c>
       <c r="E1162">
         <v>20</v>
@@ -29207,10 +29207,10 @@
         <v>45826.76314814815</v>
       </c>
       <c r="G1162">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -29495,10 +29495,10 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D1174" s="2">
-        <v>45827.49771214683</v>
+        <v>45831.8346182497</v>
       </c>
       <c r="E1174">
         <v>2</v>
@@ -29507,10 +29507,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G1174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1183" s="2">
-        <v>45829.29943060681</v>
+        <v>45831.83461824126</v>
       </c>
       <c r="E1183">
         <v>34</v>
@@ -29738,10 +29738,10 @@
         <v>45828.71103009259</v>
       </c>
       <c r="G1183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -30012,10 +30012,10 @@
         <v>1</v>
       </c>
       <c r="C1194">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D1194" s="2">
-        <v>45807.78640665444</v>
+        <v>45831.83461824791</v>
       </c>
       <c r="E1194">
         <v>26</v>
@@ -30024,10 +30024,10 @@
         <v>45807.6128125</v>
       </c>
       <c r="G1194">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H1194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -30038,10 +30038,10 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1195" s="2">
-        <v>45825.28852326531</v>
+        <v>45831.83461824984</v>
       </c>
       <c r="E1195">
         <v>12</v>
@@ -30050,10 +30050,10 @@
         <v>45824.69230324074</v>
       </c>
       <c r="G1195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31372,10 +31372,10 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D1247" s="2">
-        <v>45818.80148693859</v>
+        <v>45831.83463791644</v>
       </c>
       <c r="E1247">
         <v>81</v>
@@ -31384,10 +31384,10 @@
         <v>45818.46909722222</v>
       </c>
       <c r="G1247">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H1247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31528,10 +31528,10 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>762</v>
+        <v>640</v>
       </c>
       <c r="D1253" s="2">
-        <v>45827.49773230107</v>
+        <v>45831.83463791837</v>
       </c>
       <c r="E1253">
         <v>762</v>
@@ -31540,10 +31540,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G1253">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H1253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31733,10 +31733,10 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D1261" s="2">
-        <v>45814.82980240628</v>
+        <v>45831.83461825009</v>
       </c>
       <c r="E1261">
         <v>23</v>
@@ -31745,10 +31745,10 @@
         <v>45814.75055555555</v>
       </c>
       <c r="G1261">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H1261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33436,10 +33436,10 @@
         <v>1</v>
       </c>
       <c r="C1328">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1328" s="2">
-        <v>45825.82710087286</v>
+        <v>45831.83463792525</v>
       </c>
       <c r="E1328">
         <v>20</v>
@@ -33448,10 +33448,10 @@
         <v>45825.63305555555</v>
       </c>
       <c r="G1328">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -33540,10 +33540,10 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D1332" s="2">
-        <v>45827.49771214844</v>
+        <v>45831.83463793153</v>
       </c>
       <c r="E1332">
         <v>96</v>
@@ -33552,10 +33552,10 @@
         <v>45826.55608796296</v>
       </c>
       <c r="G1332">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -33791,10 +33791,10 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>774</v>
+        <v>577</v>
       </c>
       <c r="D1342" s="2">
-        <v>45825.82710087747</v>
+        <v>45831.83463791993</v>
       </c>
       <c r="E1342">
         <v>774</v>
@@ -33803,10 +33803,10 @@
         <v>45825.66334490741</v>
       </c>
       <c r="G1342">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="H1342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -34478,10 +34478,10 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D1369" s="2">
-        <v>45827.49771214205</v>
+        <v>45831.83463792026</v>
       </c>
       <c r="E1369">
         <v>26</v>
@@ -34490,10 +34490,10 @@
         <v>45826.44748842593</v>
       </c>
       <c r="G1369">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H1369" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1370" spans="1:8">
@@ -35578,10 +35578,10 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D1412" s="2">
-        <v>45825.28852326781</v>
+        <v>45831.83463792966</v>
       </c>
       <c r="E1412">
         <v>134</v>
@@ -35590,10 +35590,10 @@
         <v>45824.74089120371</v>
       </c>
       <c r="G1412">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H1412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -36502,10 +36502,10 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="D1448" s="2">
-        <v>45825.28849841757</v>
+        <v>45831.83463792563</v>
       </c>
       <c r="E1448">
         <v>275</v>
@@ -36514,10 +36514,10 @@
         <v>45824.63096064814</v>
       </c>
       <c r="G1448">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H1448" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -37988,10 +37988,10 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D1507" s="2">
-        <v>45825.28852326384</v>
+        <v>45831.83461825232</v>
       </c>
       <c r="E1507">
         <v>85</v>
@@ -38000,10 +38000,10 @@
         <v>45824.64796296296</v>
       </c>
       <c r="G1507">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1507" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38040,10 +38040,10 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D1509" s="2">
-        <v>45818.80148695368</v>
+        <v>45831.83463791848</v>
       </c>
       <c r="E1509">
         <v>139</v>
@@ -38052,10 +38052,10 @@
         <v>45818.72087962963</v>
       </c>
       <c r="G1509">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1509" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1510" spans="1:8">
@@ -39242,10 +39242,10 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1558" s="2">
-        <v>45827.49773230119</v>
+        <v>45831.83463792694</v>
       </c>
       <c r="E1558">
         <v>126</v>
@@ -39254,10 +39254,10 @@
         <v>45826.72618055555</v>
       </c>
       <c r="G1558">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1558" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1559" spans="1:8">
@@ -39701,10 +39701,10 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="D1576" s="2">
-        <v>45827.49773229807</v>
+        <v>45831.83461825022</v>
       </c>
       <c r="E1576">
         <v>1</v>
@@ -39713,10 +39713,10 @@
         <v>45826.62344907408</v>
       </c>
       <c r="G1576">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H1576" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1577" spans="1:8">
@@ -40145,10 +40145,10 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D1594" s="2">
-        <v>45827.49773229545</v>
+        <v>45831.83463793174</v>
       </c>
       <c r="E1594">
         <v>111</v>
@@ -40157,10 +40157,10 @@
         <v>45826.56457175926</v>
       </c>
       <c r="G1594">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H1594" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1595" spans="1:8">
@@ -40223,10 +40223,10 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5311</v>
+        <v>5145</v>
       </c>
       <c r="D1597" s="2">
-        <v>45829.29943060262</v>
+        <v>45831.83463792823</v>
       </c>
       <c r="E1597">
         <v>5311</v>
@@ -40235,10 +40235,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G1597">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="H1597" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -40930,10 +40930,10 @@
         <v>1</v>
       </c>
       <c r="C1625">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1625" s="2">
-        <v>45821.87952450439</v>
+        <v>45831.83463792059</v>
       </c>
       <c r="E1625">
         <v>6</v>
@@ -40942,10 +40942,10 @@
         <v>45821.73368055555</v>
       </c>
       <c r="G1625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1625" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1626" spans="1:8">
@@ -41190,10 +41190,10 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2671</v>
+        <v>2659</v>
       </c>
       <c r="D1635" s="2">
-        <v>45825.28849841896</v>
+        <v>45831.83463792725</v>
       </c>
       <c r="E1635">
         <v>2671</v>
@@ -41202,10 +41202,10 @@
         <v>45824.6428125</v>
       </c>
       <c r="G1635">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1635" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -41550,10 +41550,10 @@
         <v>1</v>
       </c>
       <c r="C1650">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D1650" s="2">
-        <v>45829.29943060434</v>
+        <v>45831.83461824932</v>
       </c>
       <c r="E1650">
         <v>-1</v>
@@ -41562,10 +41562,10 @@
         <v>45828.6547337963</v>
       </c>
       <c r="G1650">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1650" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1651" spans="1:8">
@@ -41576,10 +41576,10 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D1651" s="2">
-        <v>45825.28852326957</v>
+        <v>45831.83463791655</v>
       </c>
       <c r="E1651">
         <v>12</v>
@@ -41588,10 +41588,10 @@
         <v>45824.76962962963</v>
       </c>
       <c r="G1651">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1651" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -43701,10 +43701,10 @@
         <v>1</v>
       </c>
       <c r="C1737">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D1737" s="2">
-        <v>45820.9169750221</v>
+        <v>45831.83461825448</v>
       </c>
       <c r="E1737">
         <v>24</v>
@@ -43713,10 +43713,10 @@
         <v>45820.70353009259</v>
       </c>
       <c r="G1737">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1737" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1738" spans="1:8">
@@ -43753,10 +43753,10 @@
         <v>1</v>
       </c>
       <c r="C1739">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1739" s="2">
-        <v>45827.49773230183</v>
+        <v>45831.83461823994</v>
       </c>
       <c r="E1739">
         <v>28</v>
@@ -43765,10 +43765,10 @@
         <v>45826.72665509259</v>
       </c>
       <c r="G1739">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1739" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1740" spans="1:8">
@@ -45533,10 +45533,10 @@
         <v>1</v>
       </c>
       <c r="C1810">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D1810" s="2">
-        <v>45812.78306322403</v>
+        <v>45831.83463792595</v>
       </c>
       <c r="E1810">
         <v>7</v>
@@ -45545,10 +45545,10 @@
         <v>45812.70449074074</v>
       </c>
       <c r="G1810">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H1810" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1811" spans="1:8">
@@ -45891,10 +45891,10 @@
         <v>1</v>
       </c>
       <c r="C1824">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1824" s="2">
-        <v>45810.72559944464</v>
+        <v>45831.83463791691</v>
       </c>
       <c r="E1824">
         <v>14</v>
@@ -45903,10 +45903,10 @@
         <v>45810.52887731481</v>
       </c>
       <c r="G1824">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1824" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -46399,10 +46399,10 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="D1844" s="2">
-        <v>45827.49771214355</v>
+        <v>45831.83461824803</v>
       </c>
       <c r="E1844">
         <v>231</v>
@@ -46411,10 +46411,10 @@
         <v>45826.46430555556</v>
       </c>
       <c r="G1844">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H1844" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -50909,10 +50909,10 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2023" s="2">
-        <v>45825.82710087931</v>
+        <v>45831.83461825165</v>
       </c>
       <c r="E2023">
         <v>9</v>
@@ -50921,10 +50921,10 @@
         <v>45825.6681712963</v>
       </c>
       <c r="G2023">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2023" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2024" spans="1:8">
@@ -55101,10 +55101,10 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2190" s="2">
-        <v>45831.31672867568</v>
+        <v>45831.83461825461</v>
       </c>
       <c r="E2190">
         <v>9</v>
@@ -55113,10 +55113,10 @@
         <v>45829.47851851852</v>
       </c>
       <c r="G2190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2191" spans="1:8">
@@ -55127,10 +55127,10 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2191" s="2">
-        <v>45831.31672867687</v>
+        <v>45831.83461825475</v>
       </c>
       <c r="E2191">
         <v>12</v>
@@ -55139,10 +55139,10 @@
         <v>45829.47966435185</v>
       </c>
       <c r="G2191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2192" spans="1:8">
@@ -55153,10 +55153,10 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2192" s="2">
-        <v>45825.28849841432</v>
+        <v>45831.83461825487</v>
       </c>
       <c r="E2192">
         <v>9</v>
@@ -55165,10 +55165,10 @@
         <v>45824.44917824074</v>
       </c>
       <c r="G2192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2193" spans="1:8">
@@ -55179,10 +55179,10 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2193" s="2">
-        <v>45831.31672867657</v>
+        <v>45831.83461825501</v>
       </c>
       <c r="E2193">
         <v>11</v>
@@ -55191,10 +55191,10 @@
         <v>45829.47924768519</v>
       </c>
       <c r="G2193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2194" spans="1:8">
@@ -55205,10 +55205,10 @@
         <v>1</v>
       </c>
       <c r="C2194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2194" s="2">
-        <v>45831.31672867673</v>
+        <v>45831.83461825515</v>
       </c>
       <c r="E2194">
         <v>8</v>
@@ -55217,10 +55217,10 @@
         <v>45829.47944444444</v>
       </c>
       <c r="G2194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2195" spans="1:8">
@@ -55615,10 +55615,10 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2210" s="2">
-        <v>45831.31672867642</v>
+        <v>45831.83463791508</v>
       </c>
       <c r="E2210">
         <v>11</v>
@@ -55627,10 +55627,10 @@
         <v>45829.47900462963</v>
       </c>
       <c r="G2210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2211" spans="1:8">
@@ -56374,10 +56374,10 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2240" s="2">
-        <v>45825.28852326396</v>
+        <v>45831.83461825244</v>
       </c>
       <c r="E2240">
         <v>268</v>
@@ -56386,10 +56386,10 @@
         <v>45824.64796296296</v>
       </c>
       <c r="G2240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2241" spans="1:8">
@@ -58555,10 +58555,10 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2327" s="2">
-        <v>45825.82707706079</v>
+        <v>45831.83461825205</v>
       </c>
       <c r="E2327">
         <v>21</v>
@@ -58567,10 +58567,10 @@
         <v>45825.4916087963</v>
       </c>
       <c r="G2327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2327" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2328" spans="1:8">
@@ -58581,10 +58581,10 @@
         <v>1</v>
       </c>
       <c r="C2328">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2328" s="2">
-        <v>45827.49771214737</v>
+        <v>45831.83461824009</v>
       </c>
       <c r="E2328">
         <v>3</v>
@@ -58593,10 +58593,10 @@
         <v>45826.54380787037</v>
       </c>
       <c r="G2328">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2329" spans="1:8">
@@ -60011,10 +60011,10 @@
         <v>1</v>
       </c>
       <c r="C2386">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="D2386" s="2">
-        <v>45795.04208095842</v>
+        <v>45831.83463792125</v>
       </c>
       <c r="E2386">
         <v>0</v>
@@ -60023,10 +60023,10 @@
         <v>45813.64251157407</v>
       </c>
       <c r="G2386">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H2386" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2387" spans="1:8">
@@ -60392,10 +60392,10 @@
         <v>1</v>
       </c>
       <c r="C2401">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2401" s="2">
-        <v>45806.77605776805</v>
+        <v>45831.83463792092</v>
       </c>
       <c r="E2401">
         <v>37</v>
@@ -60404,10 +60404,10 @@
         <v>45806.74983796296</v>
       </c>
       <c r="G2401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2401" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2402" spans="1:8">
@@ -60767,10 +60767,10 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D2416" s="2">
-        <v>45825.82710087563</v>
+        <v>45831.83463791669</v>
       </c>
       <c r="E2416">
         <v>129</v>
@@ -60779,10 +60779,10 @@
         <v>45825.64746527778</v>
       </c>
       <c r="G2416">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61972,10 +61972,10 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2465" s="2">
-        <v>45820.30824423139</v>
+        <v>45831.83463793192</v>
       </c>
       <c r="E2465">
         <v>29</v>
@@ -61984,10 +61984,10 @@
         <v>45819.62554398148</v>
       </c>
       <c r="G2465">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2465" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2466" spans="1:8">
@@ -62361,10 +62361,10 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="D2481" s="2">
-        <v>45829.29943060291</v>
+        <v>45831.83461824816</v>
       </c>
       <c r="E2481">
         <v>398</v>
@@ -62373,10 +62373,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G2481">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2481" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2482" spans="1:8">
@@ -62387,10 +62387,10 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="D2482" s="2">
-        <v>45829.2994306032</v>
+        <v>45831.83461824829</v>
       </c>
       <c r="E2482">
         <v>568</v>
@@ -62399,10 +62399,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G2482">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H2482" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62413,10 +62413,10 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>373</v>
+        <v>173</v>
       </c>
       <c r="D2483" s="2">
-        <v>45829.29943060348</v>
+        <v>45831.83461824842</v>
       </c>
       <c r="E2483">
         <v>373</v>
@@ -62425,10 +62425,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G2483">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H2483" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62439,10 +62439,10 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>747</v>
+        <v>577</v>
       </c>
       <c r="D2484" s="2">
-        <v>45829.29943060376</v>
+        <v>45831.83461824854</v>
       </c>
       <c r="E2484">
         <v>747</v>
@@ -62451,10 +62451,10 @@
         <v>45828.63898148148</v>
       </c>
       <c r="G2484">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H2484" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -62517,10 +62517,10 @@
         <v>1</v>
       </c>
       <c r="C2487">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2487" s="2">
-        <v>45821.87952449852</v>
+        <v>45831.83461824139</v>
       </c>
       <c r="E2487">
         <v>4</v>
@@ -62529,10 +62529,10 @@
         <v>45821.56324074074</v>
       </c>
       <c r="G2487">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2487" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2488" spans="1:8">
@@ -63721,10 +63721,10 @@
         <v>1</v>
       </c>
       <c r="C2537">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D2537" s="2">
-        <v>45807.78643074667</v>
+        <v>45831.83461824867</v>
       </c>
       <c r="E2537">
         <v>0</v>
@@ -63733,10 +63733,10 @@
         <v>45807.71740740741</v>
       </c>
       <c r="G2537">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2537" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2538" spans="1:8">
@@ -64788,6 +64788,29 @@
         <v>0</v>
       </c>
       <c r="H2580" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:8">
+      <c r="A2581">
+        <v>43832183</v>
+      </c>
+      <c r="B2581">
+        <v>1</v>
+      </c>
+      <c r="C2581">
+        <v>0</v>
+      </c>
+      <c r="D2581" s="2">
+        <v>45831.8346182492</v>
+      </c>
+      <c r="E2581">
+        <v>0</v>
+      </c>
+      <c r="G2581">
+        <v>0</v>
+      </c>
+      <c r="H2581" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2581"/>
+  <dimension ref="A1:H2586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>45831.83461825034</v>
+        <v>45832.99937861314</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>45828.62064814815</v>
+        <v>45832.4265162037</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -526,16 +526,16 @@
         <v>45831.83463792984</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>45828.38409722222</v>
+        <v>45831.81263888889</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
-        <v>45829.29943059795</v>
+        <v>45832.99937863887</v>
       </c>
       <c r="E12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
-        <v>45828.52197916667</v>
+        <v>45832.75739583333</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2">
-        <v>45820.30820705985</v>
+        <v>45832.99937863756</v>
       </c>
       <c r="E23">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
-        <v>45819.51405092593</v>
+        <v>45832.73863425926</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>45831.83461824025</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2">
-        <v>45582.38358796296</v>
+        <v>45831.47583333333</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2871</v>
+        <v>2851</v>
       </c>
       <c r="D33" s="2">
-        <v>45831.83463793023</v>
+        <v>45832.99937862625</v>
       </c>
       <c r="E33">
-        <v>3001</v>
+        <v>2851</v>
       </c>
       <c r="F33" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.55858796297</v>
       </c>
       <c r="G33">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1595,16 +1595,16 @@
         <v>45831.83461824713</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F49" s="2">
-        <v>45826.54380787037</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G49">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D56" s="2">
-        <v>45831.8346379189</v>
+        <v>45832.99937862444</v>
       </c>
       <c r="E56">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F56" s="2">
-        <v>45825.64746527778</v>
+        <v>45832.50936342592</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1817,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="2">
-        <v>45831.83463791903</v>
+        <v>45832.99935919302</v>
       </c>
       <c r="E58">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F58" s="2">
-        <v>45824.69262731481</v>
+        <v>45832.40921296296</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1947,16 +1947,16 @@
         <v>45831.83461824944</v>
       </c>
       <c r="E63">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2">
-        <v>45826.5802662037</v>
+        <v>45831.63957175926</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D69" s="2">
-        <v>45827.49771214854</v>
+        <v>45832.99937862792</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F69" s="2">
-        <v>45826.55956018518</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>45831.83463792157</v>
       </c>
       <c r="E70">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F70" s="2">
-        <v>45826.50527777777</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G70">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2382,16 +2382,16 @@
         <v>45831.83463791914</v>
       </c>
       <c r="E81">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" s="2">
-        <v>45826.55267361111</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="D83" s="2">
-        <v>45827.49771214792</v>
+        <v>45832.99935919479</v>
       </c>
       <c r="E83">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="F83" s="2">
-        <v>45826.55204861111</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>70</v>
       </c>
       <c r="F85" s="2">
-        <v>45825.38717592593</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D86" s="2">
-        <v>45825.82710087481</v>
+        <v>45832.99937862264</v>
       </c>
       <c r="E86">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F86" s="2">
-        <v>45825.64746527778</v>
+        <v>45832.44876157407</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D87" s="2">
-        <v>45831.8346182535</v>
+        <v>45832.99937862293</v>
       </c>
       <c r="E87">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2">
-        <v>45826.54513888889</v>
+        <v>45832.44876157407</v>
       </c>
       <c r="G87">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2604,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2">
-        <v>45825.82707705175</v>
+        <v>45832.99937862809</v>
       </c>
       <c r="E90">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F90" s="2">
-        <v>45825.38717592593</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>45831.83463792191</v>
+        <v>45832.99937862756</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F94" s="2">
-        <v>45826.50527777777</v>
+        <v>45832.60596064815</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2751,22 +2751,22 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2">
-        <v>45831.83461824726</v>
+        <v>45832.99935919507</v>
       </c>
       <c r="E96">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2">
-        <v>45826.57822916667</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G96">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2904</v>
+        <v>2850</v>
       </c>
       <c r="D101" s="2">
-        <v>45831.83463793042</v>
+        <v>45832.99937863777</v>
       </c>
       <c r="E101">
-        <v>3109</v>
+        <v>2850</v>
       </c>
       <c r="F101" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.73863425926</v>
       </c>
       <c r="G101">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2993,22 +2993,22 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>-13</v>
+        <v>187</v>
       </c>
       <c r="D106" s="2">
-        <v>45831.83463791526</v>
+        <v>45832.99937861376</v>
       </c>
       <c r="E106">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="F106" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.43195601852</v>
       </c>
       <c r="G106">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3169,7 +3169,7 @@
         <v>57</v>
       </c>
       <c r="F113" s="2">
-        <v>45807.43805555555</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3215,16 +3215,16 @@
         <v>45831.83463792848</v>
       </c>
       <c r="E115">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F115" s="2">
-        <v>45824.62041666666</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G115">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3264,16 +3264,16 @@
         <v>45831.83461824039</v>
       </c>
       <c r="E117">
-        <v>1040</v>
+        <v>1014</v>
       </c>
       <c r="F117" s="2">
-        <v>45826.46430555556</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G117">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3333,22 +3333,22 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D120" s="2">
-        <v>45831.8346379154</v>
+        <v>45832.99935919869</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" s="2">
-        <v>45826.45851851852</v>
+        <v>45832.4246875</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D121" s="2">
-        <v>45827.49771214227</v>
+        <v>45832.99935919538</v>
       </c>
       <c r="E121">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F121" s="2">
-        <v>45826.45851851852</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D123" s="2">
-        <v>45831.83463791703</v>
+        <v>45832.99935918899</v>
       </c>
       <c r="E123">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="F123" s="2">
-        <v>45826.7627199074</v>
+        <v>45832.385</v>
       </c>
       <c r="G123">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3440,16 +3440,16 @@
         <v>45831.83461825257</v>
       </c>
       <c r="E124">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F124" s="2">
-        <v>45820.70586805556</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3460,22 +3460,22 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D125" s="2">
-        <v>45831.83461824957</v>
+        <v>45832.99935919566</v>
       </c>
       <c r="E125">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F125" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3492,16 +3492,16 @@
         <v>45831.83461825048</v>
       </c>
       <c r="E126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F126" s="2">
-        <v>45829.58472222222</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3852,16 +3852,16 @@
         <v>45831.83463791714</v>
       </c>
       <c r="E141">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F141" s="2">
-        <v>45825.44177083333</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G141">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4158,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="F153" s="2">
-        <v>45810.60861111111</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4403,16 +4403,16 @@
         <v>45831.8346182506</v>
       </c>
       <c r="E163">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F163" s="2">
-        <v>45825.69407407408</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4936,22 +4936,22 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D185" s="2">
-        <v>45831.83463791553</v>
+        <v>45832.999378624</v>
       </c>
       <c r="E185">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F185" s="2">
-        <v>45824.38501157407</v>
+        <v>45832.45439814815</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>355</v>
+        <v>-145</v>
       </c>
       <c r="D191" s="2">
-        <v>45813.95785146693</v>
+        <v>45832.99937862826</v>
       </c>
       <c r="E191">
-        <v>355</v>
+        <v>-145</v>
       </c>
       <c r="F191" s="2">
-        <v>45813.57680555555</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5109,16 +5109,16 @@
         <v>45831.83461824249</v>
       </c>
       <c r="E192">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F192" s="2">
-        <v>45821.74190972222</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5181,22 +5181,22 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D195" s="2">
-        <v>45831.83461825072</v>
+        <v>45832.99937862701</v>
       </c>
       <c r="E195">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2">
-        <v>45828.6547337963</v>
+        <v>45832.60381944444</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5253,16 +5253,16 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D198" s="2">
-        <v>45821.87952450309</v>
+        <v>45832.99935919594</v>
       </c>
       <c r="E198">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F198" s="2">
-        <v>45821.73368055555</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5334,16 +5334,16 @@
         <v>45831.83461824997</v>
       </c>
       <c r="E201">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="F201" s="2">
-        <v>45825.49319444445</v>
+        <v>45831.65412037037</v>
       </c>
       <c r="G201">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5455,16 +5455,16 @@
         <v>45831.83463792224</v>
       </c>
       <c r="E206">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F206" s="2">
-        <v>45828.54859953704</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5521,22 +5521,22 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>45831.83461823943</v>
+        <v>45832.99937862316</v>
       </c>
       <c r="E209">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F209" s="2">
-        <v>45826.5516087963</v>
+        <v>45832.44876157407</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D217" s="2">
-        <v>45825.82707706737</v>
+        <v>45832.99937863368</v>
       </c>
       <c r="E217">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F217" s="2">
-        <v>45825.61665509259</v>
+        <v>45832.66791666667</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5933,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D226" s="2">
-        <v>45827.49771214493</v>
+        <v>45832.99935918948</v>
       </c>
       <c r="E226">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F226" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.385</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6155,16 +6155,16 @@
         <v>45831.83463791679</v>
       </c>
       <c r="E235">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F235" s="2">
-        <v>45826.72618055555</v>
+        <v>45831.68363425926</v>
       </c>
       <c r="G235">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6437,22 +6437,22 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>897</v>
+        <v>865</v>
       </c>
       <c r="D247" s="2">
-        <v>45831.83461823963</v>
+        <v>45832.99937862844</v>
       </c>
       <c r="E247">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="F247" s="2">
-        <v>45825.64662037037</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G247">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7077,16 +7077,16 @@
         <v>45831.83463792867</v>
       </c>
       <c r="E273">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F273" s="2">
-        <v>45825.64662037037</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G273">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7097,22 +7097,22 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="D274" s="2">
-        <v>45831.83463791726</v>
+        <v>45832.99937863346</v>
       </c>
       <c r="E274">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="F274" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.66299768518</v>
       </c>
       <c r="G274">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7261,22 +7261,22 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D281" s="2">
-        <v>45831.83461824738</v>
+        <v>45832.99937861747</v>
       </c>
       <c r="E281">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F281" s="2">
-        <v>45819.39163194445</v>
+        <v>45832.435625</v>
       </c>
       <c r="G281">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7310,22 +7310,22 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D283" s="2">
-        <v>45831.83463791737</v>
+        <v>45832.99935918979</v>
       </c>
       <c r="E283">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F283" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.385</v>
       </c>
       <c r="G283">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D287" s="2">
-        <v>45829.29943060171</v>
+        <v>45832.9993786352</v>
       </c>
       <c r="E287">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="F287" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7515,16 +7515,16 @@
         <v>45831.83461825269</v>
       </c>
       <c r="E291">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F291" s="2">
-        <v>45826.45851851852</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G291">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7541,16 +7541,16 @@
         <v>45831.83461825179</v>
       </c>
       <c r="E292">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F292" s="2">
-        <v>45826.56369212963</v>
+        <v>45831.67487268519</v>
       </c>
       <c r="G292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7610,22 +7610,22 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>-24</v>
+        <v>48</v>
       </c>
       <c r="D295" s="2">
-        <v>45831.83463792627</v>
+        <v>45832.99935919787</v>
       </c>
       <c r="E295">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F295" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.42388888889</v>
       </c>
       <c r="G295">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7743,16 +7743,16 @@
         <v>45831.83461824904</v>
       </c>
       <c r="E300">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="F300" s="2">
-        <v>45828.52178240741</v>
+        <v>45831.63372685185</v>
       </c>
       <c r="G300">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -7904,16 +7904,16 @@
         <v>1</v>
       </c>
       <c r="C307">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D307" s="2">
-        <v>45810.72559945051</v>
+        <v>45832.99937863387</v>
       </c>
       <c r="E307">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F307" s="2">
-        <v>45811.64716435185</v>
+        <v>45832.66791666667</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D315" s="2">
-        <v>45825.82710088234</v>
+        <v>45832.99937862463</v>
       </c>
       <c r="E315">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F315" s="2">
-        <v>45825.74657407407</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D319" s="2">
-        <v>45828.40527173242</v>
+        <v>45832.99937863422</v>
       </c>
       <c r="E319">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F319" s="2">
-        <v>45827.60043981481</v>
+        <v>45832.66791666667</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8380,16 +8380,16 @@
         <v>45831.83463791567</v>
       </c>
       <c r="E326">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="F326" s="2">
-        <v>45827.86969907407</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G326">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8778,16 +8778,16 @@
         <v>45831.83461825283</v>
       </c>
       <c r="E342">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="F342" s="2">
-        <v>45824.64376157407</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G342">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -8870,22 +8870,22 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D346" s="2">
-        <v>45831.83461824752</v>
+        <v>45832.99937862861</v>
       </c>
       <c r="E346">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F346" s="2">
-        <v>45825.64746527778</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G346">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8971,16 +8971,16 @@
         <v>45831.83461825363</v>
       </c>
       <c r="E350">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="F350" s="2">
-        <v>45825.65248842593</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G350">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -8997,16 +8997,16 @@
         <v>45831.83461825296</v>
       </c>
       <c r="E351">
-        <v>1313</v>
+        <v>1241</v>
       </c>
       <c r="F351" s="2">
-        <v>45828.41831018519</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G351">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9121,16 +9121,16 @@
         <v>45831.83461824054</v>
       </c>
       <c r="E356">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F356" s="2">
-        <v>45814.70711805556</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D358" s="2">
-        <v>45828.40527173832</v>
+        <v>45832.9993786354</v>
       </c>
       <c r="E358">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F358" s="2">
-        <v>45828.41831018519</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="D361" s="2">
-        <v>45831.8346379306</v>
+        <v>45832.99935918798</v>
       </c>
       <c r="E361">
-        <v>305</v>
+        <v>499</v>
       </c>
       <c r="F361" s="2">
-        <v>45826.55393518518</v>
+        <v>45831.91774305556</v>
       </c>
       <c r="G361">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9297,16 +9297,16 @@
         <v>45831.83463792886</v>
       </c>
       <c r="E363">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="F363" s="2">
-        <v>45825.43016203704</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G363">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D371" s="2">
-        <v>45821.87952450327</v>
+        <v>45832.9993591962</v>
       </c>
       <c r="E371">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F371" s="2">
-        <v>45821.73368055555</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9698,16 +9698,16 @@
         <v>45831.83459785258</v>
       </c>
       <c r="E379">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F379" s="2">
-        <v>45828.62064814815</v>
+        <v>45831.4337962963</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -9773,7 +9773,7 @@
         <v>79</v>
       </c>
       <c r="F382" s="2">
-        <v>45821.43476851852</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9845,16 +9845,16 @@
         <v>45831.83461825379</v>
       </c>
       <c r="E385">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F385" s="2">
-        <v>45826.4149537037</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G385">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="C389">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D389" s="2">
-        <v>45825.82710087271</v>
+        <v>45832.99935919647</v>
       </c>
       <c r="E389">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F389" s="2">
-        <v>45825.63166666667</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -9975,16 +9975,16 @@
         <v>45831.83463793078</v>
       </c>
       <c r="E390">
-        <v>45</v>
+        <v>-4</v>
       </c>
       <c r="F390" s="2">
-        <v>45828.40751157407</v>
+        <v>45831.81263888889</v>
       </c>
       <c r="G390">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D394" s="2">
-        <v>45831.83463791927</v>
+        <v>45832.99937863841</v>
       </c>
       <c r="E394">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="F394" s="2">
-        <v>45826.58738425926</v>
+        <v>45832.75680555555</v>
       </c>
       <c r="G394">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10128,16 +10128,16 @@
         <v>45831.83461825085</v>
       </c>
       <c r="E396">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F396" s="2">
-        <v>45819.51405092593</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G396">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10275,16 +10275,16 @@
         <v>45831.83461824068</v>
       </c>
       <c r="E402">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F402" s="2">
-        <v>45825.69407407408</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G402">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H402" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10327,16 +10327,16 @@
         <v>45831.83461824765</v>
       </c>
       <c r="E404">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="F404" s="2">
-        <v>45828.63898148148</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G404">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>204</v>
       </c>
       <c r="F408" s="2">
-        <v>45827.52039351852</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,22 +10471,22 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1820</v>
+        <v>1720</v>
       </c>
       <c r="D410" s="2">
-        <v>45831.8346182531</v>
+        <v>45832.9993786288</v>
       </c>
       <c r="E410">
-        <v>1835</v>
+        <v>1720</v>
       </c>
       <c r="F410" s="2">
-        <v>45824.64774305555</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G410">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H410" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -10555,16 +10555,16 @@
         <v>45831.83459785218</v>
       </c>
       <c r="E413">
-        <v>978</v>
+        <v>678</v>
       </c>
       <c r="F413" s="2">
-        <v>45826.56640046297</v>
+        <v>45831.43289351852</v>
       </c>
       <c r="G413">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -10673,22 +10673,22 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="D418" s="2">
-        <v>45831.8346379158</v>
+        <v>45832.99937862897</v>
       </c>
       <c r="E418">
-        <v>823</v>
+        <v>775</v>
       </c>
       <c r="F418" s="2">
-        <v>45827.51927083333</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G418">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="D425" s="2">
-        <v>45827.49771214574</v>
+        <v>45832.99935919274</v>
       </c>
       <c r="E425">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="F425" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.39847222222</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11250,16 +11250,16 @@
         <v>45831.83459785235</v>
       </c>
       <c r="E441">
-        <v>42</v>
+        <v>-38</v>
       </c>
       <c r="F441" s="2">
-        <v>45828.52141203704</v>
+        <v>45831.43289351852</v>
       </c>
       <c r="G441">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11734,16 +11734,16 @@
         <v>45831.83463792661</v>
       </c>
       <c r="E461">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F461" s="2">
-        <v>45828.62064814815</v>
+        <v>45831.81170138889</v>
       </c>
       <c r="G461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H461" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -11936,16 +11936,16 @@
         <v>45831.83463792255</v>
       </c>
       <c r="E469">
-        <v>3086</v>
+        <v>3056</v>
       </c>
       <c r="F469" s="2">
-        <v>45827.87236111111</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G469">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12011,16 +12011,16 @@
         <v>45831.8346379186</v>
       </c>
       <c r="E472">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F472" s="2">
-        <v>45826.54380787037</v>
+        <v>45831.70024305556</v>
       </c>
       <c r="G472">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D480" s="2">
-        <v>45831.83463791749</v>
+        <v>45832.99937863564</v>
       </c>
       <c r="E480">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="F480" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G480">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12951,22 +12951,22 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D510" s="2">
-        <v>45831.83463793097</v>
+        <v>45832.99937862482</v>
       </c>
       <c r="E510">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F510" s="2">
-        <v>45824.74089120371</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G510">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -12977,16 +12977,16 @@
         <v>1</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D511" s="2">
-        <v>45795.04208095842</v>
+        <v>45832.99937862915</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F511" s="2">
-        <v>45764.44471064815</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -13392,22 +13392,22 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D528" s="2">
-        <v>45831.83461825097</v>
+        <v>45832.99937863585</v>
       </c>
       <c r="E528">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F528" s="2">
-        <v>45827.86752314815</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G528">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -13822,16 +13822,16 @@
         <v>45831.83461825219</v>
       </c>
       <c r="E545">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="F545" s="2">
-        <v>45826.56113425926</v>
+        <v>45831.6752662037</v>
       </c>
       <c r="G545">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14147,16 +14147,16 @@
         <v>1</v>
       </c>
       <c r="C559">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D559" s="2">
-        <v>45827.49771214239</v>
+        <v>45832.99937862644</v>
       </c>
       <c r="E559">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F559" s="2">
-        <v>45826.45851851852</v>
+        <v>45832.55858796297</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -14395,16 +14395,16 @@
         <v>45831.8346379229</v>
       </c>
       <c r="E569">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F569" s="2">
-        <v>45819.6587037037</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G569">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H569" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -14424,7 +14424,7 @@
         <v>2540</v>
       </c>
       <c r="F570" s="2">
-        <v>45826.72618055555</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15043,16 +15043,16 @@
         <v>45831.83461824154</v>
       </c>
       <c r="E596">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F596" s="2">
-        <v>45784.74362268519</v>
+        <v>45831.50803240741</v>
       </c>
       <c r="G596">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H596" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15279,16 +15279,16 @@
         <v>1</v>
       </c>
       <c r="C606">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D606" s="2">
-        <v>45825.28852326824</v>
+        <v>45832.99937863608</v>
       </c>
       <c r="E606">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F606" s="2">
-        <v>45824.74362268519</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -15962,16 +15962,16 @@
         <v>45831.83463791761</v>
       </c>
       <c r="E634">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="F634" s="2">
-        <v>45824.64774305555</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G634">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H634" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16077,16 +16077,16 @@
         <v>1</v>
       </c>
       <c r="C639">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D639" s="2">
-        <v>45806.77603765521</v>
+        <v>45832.99935919009</v>
       </c>
       <c r="E639">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F639" s="2">
-        <v>45806.74983796296</v>
+        <v>45832.385</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -16391,16 +16391,16 @@
         <v>45831.83463791775</v>
       </c>
       <c r="E652">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F652" s="2">
-        <v>45824.47506944444</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G652">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H652" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -16492,7 +16492,7 @@
         <v>6</v>
       </c>
       <c r="F656" s="2">
-        <v>45826.66965277777</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -16515,16 +16515,16 @@
         <v>45831.83461824778</v>
       </c>
       <c r="E657">
-        <v>1962</v>
+        <v>1887</v>
       </c>
       <c r="F657" s="2">
-        <v>45826.54380787037</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G657">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H657" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D660" s="2">
-        <v>45825.82707705249</v>
+        <v>45832.99937862932</v>
       </c>
       <c r="E660">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F660" s="2">
-        <v>45825.38717592593</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17100,16 +17100,16 @@
         <v>45831.83461825192</v>
       </c>
       <c r="E681">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F681" s="2">
-        <v>45825.72755787037</v>
+        <v>45831.67487268519</v>
       </c>
       <c r="G681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H681" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -17348,16 +17348,16 @@
         <v>45831.83463791593</v>
       </c>
       <c r="E691">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F691" s="2">
-        <v>45826.65341435185</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G691">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H691" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -17573,16 +17573,16 @@
         <v>1</v>
       </c>
       <c r="C700">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D700" s="2">
-        <v>45813.95785146693</v>
+        <v>45832.99937863628</v>
       </c>
       <c r="E700">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F700" s="2">
-        <v>45813.54864583333</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D720" s="2">
-        <v>45827.4977323006</v>
+        <v>45832.99937863649</v>
       </c>
       <c r="E720">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="F720" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D726" s="2">
-        <v>45825.82710087352</v>
+        <v>45832.99935919039</v>
       </c>
       <c r="E726">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F726" s="2">
-        <v>45825.64304398148</v>
+        <v>45832.385</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18309,16 +18309,16 @@
         <v>45831.83461825392</v>
       </c>
       <c r="E729">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F729" s="2">
-        <v>45824.69230324074</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G729">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H729" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -18387,16 +18387,16 @@
         <v>45831.83463791787</v>
       </c>
       <c r="E732">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="F732" s="2">
-        <v>45824.64796296296</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G732">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H732" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -18514,16 +18514,16 @@
         <v>45831.834637918</v>
       </c>
       <c r="E737">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F737" s="2">
-        <v>45820.62943287037</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G737">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H737" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -18618,16 +18618,16 @@
         <v>45831.83461825324</v>
       </c>
       <c r="E741">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F741" s="2">
-        <v>45826.54380787037</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G741">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H741" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19013,16 +19013,16 @@
         <v>45831.83463792325</v>
       </c>
       <c r="E757">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F757" s="2">
-        <v>45807.43640046296</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G757">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H757" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -19059,16 +19059,16 @@
         <v>1</v>
       </c>
       <c r="C759">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D759" s="2">
-        <v>45800.93204011993</v>
+        <v>45832.99937862662</v>
       </c>
       <c r="E759">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F759" s="2">
-        <v>45800.77331018518</v>
+        <v>45832.55858796297</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -19160,16 +19160,16 @@
         <v>45831.8346182511</v>
       </c>
       <c r="E763">
-        <v>112</v>
+        <v>-19</v>
       </c>
       <c r="F763" s="2">
-        <v>45818.65388888889</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G763">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="H763" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -19238,16 +19238,16 @@
         <v>45831.83461824918</v>
       </c>
       <c r="E766">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F766" s="2">
-        <v>45817.74609953703</v>
+        <v>45831.63623842593</v>
       </c>
       <c r="G766">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H766" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D770" s="2">
-        <v>45825.82710087606</v>
+        <v>45832.9993786367</v>
       </c>
       <c r="E770">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F770" s="2">
-        <v>45825.66225694444</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19385,16 +19385,16 @@
         <v>45831.83463792903</v>
       </c>
       <c r="E772">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="F772" s="2">
-        <v>45828.68149305556</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G772">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H772" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -19535,22 +19535,22 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D778" s="2">
-        <v>45831.83461825123</v>
+        <v>45832.99935919678</v>
       </c>
       <c r="E778">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F778" s="2">
-        <v>45825.61604166667</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H778" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -19570,7 +19570,7 @@
         <v>7</v>
       </c>
       <c r="F779" s="2">
-        <v>45807.76337962963</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G779">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>1</v>
       </c>
       <c r="C798">
-        <v>2</v>
+        <v>-148</v>
       </c>
       <c r="D798" s="2">
-        <v>45825.28849842004</v>
+        <v>45832.99937862425</v>
       </c>
       <c r="E798">
-        <v>2</v>
+        <v>-148</v>
       </c>
       <c r="F798" s="2">
-        <v>45824.64493055556</v>
+        <v>45832.46924768519</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D810" s="2">
-        <v>45825.82710087338</v>
+        <v>45832.99937862956</v>
       </c>
       <c r="E810">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F810" s="2">
-        <v>45825.64239583333</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20565,7 +20565,7 @@
         <v>95</v>
       </c>
       <c r="F819" s="2">
-        <v>45821.66212962963</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20689,16 +20689,16 @@
         <v>45831.83463791941</v>
       </c>
       <c r="E824">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F824" s="2">
-        <v>45817.39020833333</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H824" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -20732,22 +20732,22 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>-179</v>
+        <v>-13</v>
       </c>
       <c r="D826" s="2">
-        <v>45831.83463793115</v>
+        <v>45832.99937863479</v>
       </c>
       <c r="E826">
-        <v>33</v>
+        <v>-13</v>
       </c>
       <c r="F826" s="2">
-        <v>45826.56285879629</v>
+        <v>45832.69049768519</v>
       </c>
       <c r="G826">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="H826" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21164,22 +21164,22 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="D844" s="2">
-        <v>45831.83461824687</v>
+        <v>45832.99935918635</v>
       </c>
       <c r="E844">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F844" s="2">
-        <v>45826.56253472222</v>
+        <v>45831.91517361111</v>
       </c>
       <c r="G844">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H844" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -21363,22 +21363,22 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D852" s="2">
-        <v>45831.83463791606</v>
+        <v>45832.99937863118</v>
       </c>
       <c r="E852">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F852" s="2">
-        <v>45819.61973379629</v>
+        <v>45832.62690972222</v>
       </c>
       <c r="G852">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H852" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -21389,22 +21389,22 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D853" s="2">
-        <v>45831.83463792758</v>
+        <v>45832.99937863926</v>
       </c>
       <c r="E853">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F853" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.7659375</v>
       </c>
       <c r="G853">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H853" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -21421,16 +21421,16 @@
         <v>45831.83463791619</v>
       </c>
       <c r="E854">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F854" s="2">
-        <v>45824.76539351852</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G854">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H854" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -21724,7 +21724,7 @@
         <v>0</v>
       </c>
       <c r="F866" s="2">
-        <v>45813.65351851852</v>
+        <v>45832.60554398148</v>
       </c>
       <c r="G866">
         <v>0</v>
@@ -21842,22 +21842,22 @@
         <v>1</v>
       </c>
       <c r="C871">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D871" s="2">
-        <v>45831.83463792357</v>
+        <v>45832.9993786272</v>
       </c>
       <c r="E871">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F871" s="2">
-        <v>45821.69668981482</v>
+        <v>45832.60462962963</v>
       </c>
       <c r="G871">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H871" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -21874,16 +21874,16 @@
         <v>45831.83463792923</v>
       </c>
       <c r="E872">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F872" s="2">
-        <v>45825.43016203704</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G872">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H872" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -21978,16 +21978,16 @@
         <v>45831.83461825422</v>
       </c>
       <c r="E876">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F876" s="2">
-        <v>45827.59297453704</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G876">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H876" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -22030,16 +22030,16 @@
         <v>45831.83461824891</v>
       </c>
       <c r="E878">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F878" s="2">
-        <v>45806.69797453703</v>
+        <v>45831.62354166667</v>
       </c>
       <c r="G878">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H878" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -22151,16 +22151,16 @@
         <v>45831.83461825337</v>
       </c>
       <c r="E883">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="F883" s="2">
-        <v>45826.65341435185</v>
+        <v>45831.67700231481</v>
       </c>
       <c r="G883">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H883" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -22171,22 +22171,22 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D884" s="2">
-        <v>45831.83461825136</v>
+        <v>45832.99935919706</v>
       </c>
       <c r="E884">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F884" s="2">
-        <v>45821.6746875</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G884">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H884" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -22272,22 +22272,22 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="D888" s="2">
-        <v>45831.83463793134</v>
+        <v>45832.99937862339</v>
       </c>
       <c r="E888">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="F888" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.44876157407</v>
       </c>
       <c r="G888">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H888" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D898" s="2">
-        <v>45827.49773229784</v>
+        <v>45832.9993786308</v>
       </c>
       <c r="E898">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F898" s="2">
-        <v>45826.62236111111</v>
+        <v>45832.62315972222</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -22584,16 +22584,16 @@
         <v>45831.83463791812</v>
       </c>
       <c r="E900">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F900" s="2">
-        <v>45825.50549768518</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G900">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H900" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23187,22 +23187,22 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>-24</v>
+        <v>312</v>
       </c>
       <c r="D924" s="2">
-        <v>45831.83461824083</v>
+        <v>45832.99937861844</v>
       </c>
       <c r="E924">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="F924" s="2">
-        <v>45825.64662037037</v>
+        <v>45832.4434837963</v>
       </c>
       <c r="G924">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H924" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -23213,22 +23213,22 @@
         <v>1</v>
       </c>
       <c r="C925">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D925" s="2">
-        <v>45831.83461825435</v>
+        <v>45832.99935919362</v>
       </c>
       <c r="E925">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F925" s="2">
-        <v>45827.55762731482</v>
+        <v>45832.40950231482</v>
       </c>
       <c r="G925">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H925" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24142,16 +24142,16 @@
         <v>45831.83463792392</v>
       </c>
       <c r="E962">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="F962" s="2">
-        <v>45827.86880787037</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G962">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H962" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -24168,16 +24168,16 @@
         <v>45831.83463792426</v>
       </c>
       <c r="E963">
-        <v>1793</v>
+        <v>1623</v>
       </c>
       <c r="F963" s="2">
-        <v>45828.52178240741</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G963">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H963" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -24396,16 +24396,16 @@
         <v>45831.83461824097</v>
       </c>
       <c r="E972">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F972" s="2">
-        <v>45818.704375</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G972">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H972" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25487,16 +25487,16 @@
         <v>45831.83459785247</v>
       </c>
       <c r="E1015">
-        <v>4311</v>
+        <v>-5633</v>
       </c>
       <c r="F1015" s="2">
-        <v>45791.42091435185</v>
+        <v>45831.43289351852</v>
       </c>
       <c r="G1015">
-        <v>9944</v>
+        <v>0</v>
       </c>
       <c r="H1015" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -25533,22 +25533,22 @@
         <v>1</v>
       </c>
       <c r="C1017">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="D1017" s="2">
-        <v>45831.83463792945</v>
+        <v>45832.99935918848</v>
       </c>
       <c r="E1017">
-        <v>359</v>
+        <v>544</v>
       </c>
       <c r="F1017" s="2">
-        <v>45825.6681712963</v>
+        <v>45831.91797453703</v>
       </c>
       <c r="G1017">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1017" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="F1018" s="2">
-        <v>45821.73368055555</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25744,16 +25744,16 @@
         <v>45831.83463792459</v>
       </c>
       <c r="E1025">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F1025" s="2">
-        <v>45827.59125</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G1025">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1025" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -26090,22 +26090,22 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>-977</v>
+        <v>42</v>
       </c>
       <c r="D1039" s="2">
-        <v>45831.834618247</v>
+        <v>45832.99937863906</v>
       </c>
       <c r="E1039">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1039" s="2">
-        <v>45825.38717592593</v>
+        <v>45832.75739583333</v>
       </c>
       <c r="G1039">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="H1039" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -26471,22 +26471,22 @@
         <v>1</v>
       </c>
       <c r="C1054">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="D1054" s="2">
-        <v>45831.83463791824</v>
+        <v>45832.99937863693</v>
       </c>
       <c r="E1054">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="F1054" s="2">
-        <v>45811.39115740741</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G1054">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1054" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -26598,16 +26598,16 @@
         <v>1</v>
       </c>
       <c r="C1059">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1059" s="2">
-        <v>45805.918751534</v>
+        <v>45832.9993591907</v>
       </c>
       <c r="E1059">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1059" s="2">
-        <v>45805.70012731481</v>
+        <v>45832.385</v>
       </c>
       <c r="G1059">
         <v>0</v>
@@ -26676,22 +26676,22 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>547</v>
+        <v>283</v>
       </c>
       <c r="D1062" s="2">
-        <v>45831.83463791632</v>
+        <v>45832.99937862973</v>
       </c>
       <c r="E1062">
-        <v>562</v>
+        <v>283</v>
       </c>
       <c r="F1062" s="2">
-        <v>45828.41831018519</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G1062">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1062" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -27573,7 +27573,7 @@
         <v>40</v>
       </c>
       <c r="F1098" s="2">
-        <v>45807.43805555555</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G1098">
         <v>0</v>
@@ -27867,22 +27867,22 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1110" s="2">
-        <v>45831.8346379279</v>
+        <v>45832.999359191</v>
       </c>
       <c r="E1110">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F1110" s="2">
-        <v>45825.49319444445</v>
+        <v>45832.385</v>
       </c>
       <c r="G1110">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H1110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -28274,22 +28274,22 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>117</v>
+        <v>683</v>
       </c>
       <c r="D1126" s="2">
-        <v>45831.83461824111</v>
+        <v>45832.99937861889</v>
       </c>
       <c r="E1126">
-        <v>127</v>
+        <v>683</v>
       </c>
       <c r="F1126" s="2">
-        <v>45826.46430555556</v>
+        <v>45832.44447916667</v>
       </c>
       <c r="G1126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -28378,22 +28378,22 @@
         <v>1</v>
       </c>
       <c r="C1130">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D1130" s="2">
-        <v>45831.83461823979</v>
+        <v>45832.99937861649</v>
       </c>
       <c r="E1130">
         <v>0</v>
       </c>
       <c r="F1130" s="2">
-        <v>45814.61704861111</v>
+        <v>45832.43453703704</v>
       </c>
       <c r="G1130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -28811,16 +28811,16 @@
         <v>45831.83463792493</v>
       </c>
       <c r="E1147">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F1147" s="2">
-        <v>45825.69407407408</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G1147">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -28863,16 +28863,16 @@
         <v>45831.83463791953</v>
       </c>
       <c r="E1149">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1149" s="2">
-        <v>45824.45626157407</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G1149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1155" s="2">
-        <v>45820.91695281388</v>
+        <v>45832.99937863713</v>
       </c>
       <c r="E1155">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1155" s="2">
-        <v>45820.60888888889</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29039,16 +29039,16 @@
         <v>1</v>
       </c>
       <c r="C1156">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1156" s="2">
-        <v>45825.2885232642</v>
+        <v>45832.999378625</v>
       </c>
       <c r="E1156">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F1156" s="2">
-        <v>45824.67607638889</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -29201,16 +29201,16 @@
         <v>45831.83461825152</v>
       </c>
       <c r="E1162">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1162" s="2">
-        <v>45826.76314814815</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G1162">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -29495,22 +29495,22 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D1174" s="2">
-        <v>45831.8346182497</v>
+        <v>45832.99935919896</v>
       </c>
       <c r="E1174">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1174" s="2">
-        <v>45826.54380787037</v>
+        <v>45832.4250925926</v>
       </c>
       <c r="G1174">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -29732,16 +29732,16 @@
         <v>45831.83461824126</v>
       </c>
       <c r="E1183">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1183" s="2">
-        <v>45828.71103009259</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G1183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -29839,7 +29839,7 @@
         <v>130</v>
       </c>
       <c r="F1187" s="2">
-        <v>45826.45851851852</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -30018,16 +30018,16 @@
         <v>45831.83461824791</v>
       </c>
       <c r="E1194">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F1194" s="2">
-        <v>45807.6128125</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G1194">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H1194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -30038,22 +30038,22 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1195" s="2">
-        <v>45831.83461824984</v>
+        <v>45832.99935919391</v>
       </c>
       <c r="E1195">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1195" s="2">
-        <v>45824.69230324074</v>
+        <v>45832.40950231482</v>
       </c>
       <c r="G1195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -30734,16 +30734,16 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1222" s="2">
-        <v>45818.8014869315</v>
+        <v>45832.99935919129</v>
       </c>
       <c r="E1222">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F1222" s="2">
-        <v>45818.40175925926</v>
+        <v>45832.385</v>
       </c>
       <c r="G1222">
         <v>0</v>
@@ -31378,16 +31378,16 @@
         <v>45831.83463791644</v>
       </c>
       <c r="E1247">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F1247" s="2">
-        <v>45818.46909722222</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G1247">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H1247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -31528,22 +31528,22 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>640</v>
+        <v>324</v>
       </c>
       <c r="D1253" s="2">
-        <v>45831.83463791837</v>
+        <v>45832.99937862989</v>
       </c>
       <c r="E1253">
-        <v>762</v>
+        <v>324</v>
       </c>
       <c r="F1253" s="2">
-        <v>45826.72618055555</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G1253">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H1253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -31733,22 +31733,22 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D1261" s="2">
-        <v>45831.83461825009</v>
+        <v>45832.99937862519</v>
       </c>
       <c r="E1261">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="F1261" s="2">
-        <v>45814.75055555555</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G1261">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H1261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -32492,16 +32492,16 @@
         <v>1</v>
       </c>
       <c r="C1291">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1291" s="2">
-        <v>45813.95785145537</v>
+        <v>45832.99937861792</v>
       </c>
       <c r="E1291">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1291" s="2">
-        <v>45813.51621527778</v>
+        <v>45832.44</v>
       </c>
       <c r="G1291">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D1324" s="2">
-        <v>45825.82710088397</v>
+        <v>45832.99937863865</v>
       </c>
       <c r="E1324">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F1324" s="2">
-        <v>45825.76783564815</v>
+        <v>45832.75680555555</v>
       </c>
       <c r="G1324">
         <v>0</v>
@@ -33442,16 +33442,16 @@
         <v>45831.83463792525</v>
       </c>
       <c r="E1328">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F1328" s="2">
-        <v>45825.63305555555</v>
+        <v>45831.81081018518</v>
       </c>
       <c r="G1328">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -33488,16 +33488,16 @@
         <v>1</v>
       </c>
       <c r="C1330">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1330" s="2">
-        <v>45825.82707705344</v>
+        <v>45832.9993786344</v>
       </c>
       <c r="E1330">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1330" s="2">
-        <v>45825.38717592593</v>
+        <v>45832.66791666667</v>
       </c>
       <c r="G1330">
         <v>0</v>
@@ -33540,22 +33540,22 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D1332" s="2">
-        <v>45831.83463793153</v>
+        <v>45832.99937863045</v>
       </c>
       <c r="E1332">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F1332" s="2">
-        <v>45826.55608796296</v>
+        <v>45832.62121527778</v>
       </c>
       <c r="G1332">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -33791,22 +33791,22 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D1342" s="2">
-        <v>45831.83463791993</v>
+        <v>45832.99937862538</v>
       </c>
       <c r="E1342">
-        <v>774</v>
+        <v>562</v>
       </c>
       <c r="F1342" s="2">
-        <v>45825.66334490741</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G1342">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H1342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -34484,16 +34484,16 @@
         <v>45831.83463792026</v>
       </c>
       <c r="E1369">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1369" s="2">
-        <v>45826.44748842593</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G1369">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H1369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1370" spans="1:8">
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D1391" s="2">
-        <v>45827.4977121477</v>
+        <v>45832.99935918702</v>
       </c>
       <c r="E1391">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F1391" s="2">
-        <v>45826.55138888889</v>
+        <v>45831.91627314815</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35552,16 +35552,16 @@
         <v>1</v>
       </c>
       <c r="C1411">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1411" s="2">
-        <v>45813.95795446759</v>
+        <v>45832.99935919814</v>
       </c>
       <c r="E1411">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1411" s="2">
-        <v>45813.68358796297</v>
+        <v>45832.42436342593</v>
       </c>
       <c r="G1411">
         <v>0</v>
@@ -35584,16 +35584,16 @@
         <v>45831.83463792966</v>
       </c>
       <c r="E1412">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="F1412" s="2">
-        <v>45824.74089120371</v>
+        <v>45831.81233796296</v>
       </c>
       <c r="G1412">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H1412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
@@ -35737,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="D1418" s="2">
-        <v>45795.04186106093</v>
+        <v>45832.9993786238</v>
       </c>
       <c r="E1418">
         <v>0</v>
@@ -36502,22 +36502,22 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D1448" s="2">
-        <v>45831.83463792563</v>
+        <v>45832.99937863062</v>
       </c>
       <c r="E1448">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="F1448" s="2">
-        <v>45824.63096064814</v>
+        <v>45832.62121527778</v>
       </c>
       <c r="G1448">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H1448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1449" spans="1:8">
@@ -37988,22 +37988,22 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>73</v>
+        <v>-51</v>
       </c>
       <c r="D1507" s="2">
-        <v>45831.83461825232</v>
+        <v>45832.99937863008</v>
       </c>
       <c r="E1507">
-        <v>85</v>
+        <v>-51</v>
       </c>
       <c r="F1507" s="2">
-        <v>45824.64796296296</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G1507">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1507" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1508" spans="1:8">
@@ -38046,16 +38046,16 @@
         <v>45831.83463791848</v>
       </c>
       <c r="E1509">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1509" s="2">
-        <v>45818.72087962963</v>
+        <v>45831.69412037037</v>
       </c>
       <c r="G1509">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1509" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1510" spans="1:8">
@@ -38331,16 +38331,16 @@
         <v>1</v>
       </c>
       <c r="C1521">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1521" s="2">
-        <v>45806.77603763194</v>
+        <v>45832.99935919158</v>
       </c>
       <c r="E1521">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1521" s="2">
-        <v>45806.74599537037</v>
+        <v>45832.385</v>
       </c>
       <c r="G1521">
         <v>0</v>
@@ -39248,16 +39248,16 @@
         <v>45831.83463792694</v>
       </c>
       <c r="E1558">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F1558" s="2">
-        <v>45826.72618055555</v>
+        <v>45831.81170138889</v>
       </c>
       <c r="G1558">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1558" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1559" spans="1:8">
@@ -39701,22 +39701,22 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>-14</v>
+        <v>46</v>
       </c>
       <c r="D1576" s="2">
-        <v>45831.83461825022</v>
+        <v>45832.99937861426</v>
       </c>
       <c r="E1576">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1576" s="2">
-        <v>45826.62344907408</v>
+        <v>45832.43322916667</v>
       </c>
       <c r="G1576">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1576" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1577" spans="1:8">
@@ -40151,16 +40151,16 @@
         <v>45831.83463793174</v>
       </c>
       <c r="E1594">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F1594" s="2">
-        <v>45826.56457175926</v>
+        <v>45831.81263888889</v>
       </c>
       <c r="G1594">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H1594" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1595" spans="1:8">
@@ -40223,22 +40223,22 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>5145</v>
+        <v>4845</v>
       </c>
       <c r="D1597" s="2">
-        <v>45831.83463792823</v>
+        <v>45832.99937863797</v>
       </c>
       <c r="E1597">
-        <v>5311</v>
+        <v>4845</v>
       </c>
       <c r="F1597" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.73863425926</v>
       </c>
       <c r="G1597">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="H1597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1598" spans="1:8">
@@ -40298,16 +40298,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1600" s="2">
-        <v>45818.80148693273</v>
+        <v>45832.99937863024</v>
       </c>
       <c r="E1600">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1600" s="2">
-        <v>45818.40175925926</v>
+        <v>45832.61931712963</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -40936,16 +40936,16 @@
         <v>45831.83463792059</v>
       </c>
       <c r="E1625">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1625" s="2">
-        <v>45821.73368055555</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G1625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1625" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1626" spans="1:8">
@@ -41190,22 +41190,22 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="D1635" s="2">
-        <v>45831.83463792725</v>
+        <v>45832.9993786256</v>
       </c>
       <c r="E1635">
-        <v>2671</v>
+        <v>2657</v>
       </c>
       <c r="F1635" s="2">
-        <v>45824.6428125</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G1635">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1635" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1636" spans="1:8">
@@ -41556,16 +41556,16 @@
         <v>45831.83461824932</v>
       </c>
       <c r="E1650">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F1650" s="2">
-        <v>45828.6547337963</v>
+        <v>45831.63835648148</v>
       </c>
       <c r="G1650">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1650" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1651" spans="1:8">
@@ -41582,16 +41582,16 @@
         <v>45831.83463791655</v>
       </c>
       <c r="E1651">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F1651" s="2">
-        <v>45824.76962962963</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G1651">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1651" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1652" spans="1:8">
@@ -43194,7 +43194,7 @@
         <v>0</v>
       </c>
       <c r="D1716" s="2">
-        <v>45795.04199234088</v>
+        <v>45832.99935919446</v>
       </c>
       <c r="E1716">
         <v>0</v>
@@ -43566,7 +43566,7 @@
         <v>3</v>
       </c>
       <c r="F1731" s="2">
-        <v>45825.50549768518</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G1731">
         <v>0</v>
@@ -43707,16 +43707,16 @@
         <v>45831.83461825448</v>
       </c>
       <c r="E1737">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F1737" s="2">
-        <v>45820.70353009259</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G1737">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1737" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1738" spans="1:8">
@@ -43759,16 +43759,16 @@
         <v>45831.83461823994</v>
       </c>
       <c r="E1739">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1739" s="2">
-        <v>45826.72665509259</v>
+        <v>45831.44920138889</v>
       </c>
       <c r="G1739">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1739" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1740" spans="1:8">
@@ -44301,7 +44301,7 @@
         <v>0</v>
       </c>
       <c r="D1761" s="2">
-        <v>45795.0416147377</v>
+        <v>45832.99935919245</v>
       </c>
       <c r="E1761">
         <v>0</v>
@@ -45533,22 +45533,22 @@
         <v>1</v>
       </c>
       <c r="C1810">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D1810" s="2">
-        <v>45831.83463792595</v>
+        <v>45832.99937863459</v>
       </c>
       <c r="E1810">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F1810" s="2">
-        <v>45812.70449074074</v>
+        <v>45832.66791666667</v>
       </c>
       <c r="G1810">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1810" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1811" spans="1:8">
@@ -45874,7 +45874,7 @@
         <v>49</v>
       </c>
       <c r="F1823" s="2">
-        <v>45825.49319444445</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -45897,16 +45897,16 @@
         <v>45831.83463791691</v>
       </c>
       <c r="E1824">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1824" s="2">
-        <v>45810.52887731481</v>
+        <v>45831.69243055556</v>
       </c>
       <c r="G1824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1824" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -46405,16 +46405,16 @@
         <v>45831.83461824803</v>
       </c>
       <c r="E1844">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="F1844" s="2">
-        <v>45826.46430555556</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G1844">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H1844" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -46699,16 +46699,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1856" s="2">
-        <v>45829.29943059676</v>
+        <v>45832.99937863735</v>
       </c>
       <c r="E1856">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1856" s="2">
-        <v>45828.52141203704</v>
+        <v>45832.71763888889</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -50915,16 +50915,16 @@
         <v>45831.83461825165</v>
       </c>
       <c r="E2023">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2023" s="2">
-        <v>45825.6681712963</v>
+        <v>45831.67092592592</v>
       </c>
       <c r="G2023">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2023" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2024" spans="1:8">
@@ -51746,16 +51746,16 @@
         <v>1</v>
       </c>
       <c r="C2056">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2056" s="2">
-        <v>45827.49771214147</v>
+        <v>45832.99935919842</v>
       </c>
       <c r="E2056">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2056" s="2">
-        <v>45826.41428240741</v>
+        <v>45832.42436342593</v>
       </c>
       <c r="G2056">
         <v>0</v>
@@ -52035,7 +52035,7 @@
         <v>259</v>
       </c>
       <c r="F2067" s="2">
-        <v>45820.60888888889</v>
+        <v>45831.52096064815</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -52828,16 +52828,16 @@
         <v>1</v>
       </c>
       <c r="C2099">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2099" s="2">
-        <v>45829.29943060518</v>
+        <v>45832.99935919733</v>
       </c>
       <c r="E2099">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2099" s="2">
-        <v>45828.66594907407</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G2099">
         <v>0</v>
@@ -53633,7 +53633,7 @@
         <v>0</v>
       </c>
       <c r="D2131" s="2">
-        <v>45795.04210567895</v>
+        <v>45832.99935919419</v>
       </c>
       <c r="E2131">
         <v>0</v>
@@ -54847,16 +54847,16 @@
         <v>1</v>
       </c>
       <c r="C2180">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2180" s="2">
-        <v>45825.28849841524</v>
+        <v>45832.99935919188</v>
       </c>
       <c r="E2180">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2180" s="2">
-        <v>45824.4725</v>
+        <v>45832.385</v>
       </c>
       <c r="G2180">
         <v>0</v>
@@ -55107,16 +55107,16 @@
         <v>45831.83461825461</v>
       </c>
       <c r="E2190">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2190" s="2">
-        <v>45829.47851851852</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2191" spans="1:8">
@@ -55133,16 +55133,16 @@
         <v>45831.83461825475</v>
       </c>
       <c r="E2191">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2191" s="2">
-        <v>45829.47966435185</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2192" spans="1:8">
@@ -55159,16 +55159,16 @@
         <v>45831.83461825487</v>
       </c>
       <c r="E2192">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2192" s="2">
-        <v>45824.44917824074</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2193" spans="1:8">
@@ -55185,16 +55185,16 @@
         <v>45831.83461825501</v>
       </c>
       <c r="E2193">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2193" s="2">
-        <v>45829.47924768519</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2194" spans="1:8">
@@ -55211,16 +55211,16 @@
         <v>45831.83461825515</v>
       </c>
       <c r="E2194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2194" s="2">
-        <v>45829.47944444444</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2195" spans="1:8">
@@ -55621,16 +55621,16 @@
         <v>45831.83463791508</v>
       </c>
       <c r="E2210">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2210" s="2">
-        <v>45829.47900462963</v>
+        <v>45831.67747685185</v>
       </c>
       <c r="G2210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2211" spans="1:8">
@@ -56296,16 +56296,16 @@
         <v>1</v>
       </c>
       <c r="C2237">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2237" s="2">
-        <v>45795.04208095842</v>
+        <v>45832.9993591976</v>
       </c>
       <c r="E2237">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2237" s="2">
-        <v>45775.44692129629</v>
+        <v>45832.42351851852</v>
       </c>
       <c r="G2237">
         <v>0</v>
@@ -56380,16 +56380,16 @@
         <v>45831.83461825244</v>
       </c>
       <c r="E2240">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F2240" s="2">
-        <v>45824.64796296296</v>
+        <v>45831.6752662037</v>
       </c>
       <c r="G2240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2241" spans="1:8">
@@ -56400,16 +56400,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="D2241" s="2">
-        <v>45825.28849841196</v>
+        <v>45832.9993786382</v>
       </c>
       <c r="E2241">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="F2241" s="2">
-        <v>45824.3782175926</v>
+        <v>45832.73863425926</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -58561,16 +58561,16 @@
         <v>45831.83461825205</v>
       </c>
       <c r="E2327">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2327" s="2">
-        <v>45825.4916087963</v>
+        <v>45831.67487268519</v>
       </c>
       <c r="G2327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2328" spans="1:8">
@@ -58587,16 +58587,16 @@
         <v>45831.83461824009</v>
       </c>
       <c r="E2328">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2328" s="2">
-        <v>45826.54380787037</v>
+        <v>45831.46164351852</v>
       </c>
       <c r="G2328">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2329" spans="1:8">
@@ -60011,22 +60011,22 @@
         <v>1</v>
       </c>
       <c r="C2386">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D2386" s="2">
-        <v>45831.83463792125</v>
+        <v>45832.99937862774</v>
       </c>
       <c r="E2386">
         <v>0</v>
       </c>
       <c r="F2386" s="2">
-        <v>45813.64251157407</v>
+        <v>45832.61487268518</v>
       </c>
       <c r="G2386">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H2386" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2387" spans="1:8">
@@ -60398,16 +60398,16 @@
         <v>45831.83463792092</v>
       </c>
       <c r="E2401">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2401" s="2">
-        <v>45806.74983796296</v>
+        <v>45831.73116898148</v>
       </c>
       <c r="G2401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2401" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2402" spans="1:8">
@@ -60773,16 +60773,16 @@
         <v>45831.83463791669</v>
       </c>
       <c r="E2416">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F2416" s="2">
-        <v>45825.64746527778</v>
+        <v>45831.68162037037</v>
       </c>
       <c r="G2416">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H2416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61978,16 +61978,16 @@
         <v>45831.83463793192</v>
       </c>
       <c r="E2465">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F2465" s="2">
-        <v>45819.62554398148</v>
+        <v>45831.81263888889</v>
       </c>
       <c r="G2465">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2465" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2466" spans="1:8">
@@ -62361,22 +62361,22 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D2481" s="2">
-        <v>45831.83461824816</v>
+        <v>45832.99937862582</v>
       </c>
       <c r="E2481">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="F2481" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G2481">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2481" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2482" spans="1:8">
@@ -62387,22 +62387,22 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>418</v>
+        <v>913</v>
       </c>
       <c r="D2482" s="2">
-        <v>45831.83461824829</v>
+        <v>45832.99937862607</v>
       </c>
       <c r="E2482">
-        <v>568</v>
+        <v>913</v>
       </c>
       <c r="F2482" s="2">
-        <v>45828.63898148148</v>
+        <v>45832.54928240741</v>
       </c>
       <c r="G2482">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H2482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2483" spans="1:8">
@@ -62413,22 +62413,22 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>173</v>
+        <v>1173</v>
       </c>
       <c r="D2483" s="2">
-        <v>45831.83461824842</v>
+        <v>45832.99935918752</v>
       </c>
       <c r="E2483">
-        <v>373</v>
+        <v>1173</v>
       </c>
       <c r="F2483" s="2">
-        <v>45828.63898148148</v>
+        <v>45831.91746527778</v>
       </c>
       <c r="G2483">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H2483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2484" spans="1:8">
@@ -62445,16 +62445,16 @@
         <v>45831.83461824854</v>
       </c>
       <c r="E2484">
-        <v>747</v>
+        <v>577</v>
       </c>
       <c r="F2484" s="2">
-        <v>45828.63898148148</v>
+        <v>45831.53259259259</v>
       </c>
       <c r="G2484">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H2484" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2485" spans="1:8">
@@ -62523,16 +62523,16 @@
         <v>45831.83461824139</v>
       </c>
       <c r="E2487">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2487" s="2">
-        <v>45821.56324074074</v>
+        <v>45831.47940972223</v>
       </c>
       <c r="G2487">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2487" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2488" spans="1:8">
@@ -63721,22 +63721,22 @@
         <v>1</v>
       </c>
       <c r="C2537">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D2537" s="2">
-        <v>45831.83461824867</v>
+        <v>45832.99937863499</v>
       </c>
       <c r="E2537">
         <v>0</v>
       </c>
       <c r="F2537" s="2">
-        <v>45807.71740740741</v>
+        <v>45832.70378472222</v>
       </c>
       <c r="G2537">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2537" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2538" spans="1:8">
@@ -64811,6 +64811,124 @@
         <v>0</v>
       </c>
       <c r="H2581" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:8">
+      <c r="A2582">
+        <v>43842761</v>
+      </c>
+      <c r="B2582">
+        <v>1</v>
+      </c>
+      <c r="C2582">
+        <v>0</v>
+      </c>
+      <c r="D2582" s="2">
+        <v>45832.99935919452</v>
+      </c>
+      <c r="E2582">
+        <v>0</v>
+      </c>
+      <c r="G2582">
+        <v>0</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:8">
+      <c r="A2583">
+        <v>43844484</v>
+      </c>
+      <c r="B2583">
+        <v>1</v>
+      </c>
+      <c r="C2583">
+        <v>0</v>
+      </c>
+      <c r="D2583" s="2">
+        <v>45832.99937862344</v>
+      </c>
+      <c r="E2583">
+        <v>0</v>
+      </c>
+      <c r="G2583">
+        <v>0</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:8">
+      <c r="A2584">
+        <v>43844489</v>
+      </c>
+      <c r="B2584">
+        <v>1</v>
+      </c>
+      <c r="C2584">
+        <v>0</v>
+      </c>
+      <c r="D2584" s="2">
+        <v>45832.99937862349</v>
+      </c>
+      <c r="E2584">
+        <v>0</v>
+      </c>
+      <c r="G2584">
+        <v>0</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:8">
+      <c r="A2585">
+        <v>43845245</v>
+      </c>
+      <c r="B2585">
+        <v>1</v>
+      </c>
+      <c r="C2585">
+        <v>0</v>
+      </c>
+      <c r="D2585" s="2">
+        <v>45832.99937862404</v>
+      </c>
+      <c r="E2585">
+        <v>0</v>
+      </c>
+      <c r="G2585">
+        <v>0</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:8">
+      <c r="A2586">
+        <v>43852917</v>
+      </c>
+      <c r="B2586">
+        <v>1</v>
+      </c>
+      <c r="C2586">
+        <v>-16</v>
+      </c>
+      <c r="D2586" s="2">
+        <v>45832.99937863028</v>
+      </c>
+      <c r="E2586">
+        <v>-16</v>
+      </c>
+      <c r="F2586" s="2">
+        <v>45832.61931712963</v>
+      </c>
+      <c r="G2586">
+        <v>0</v>
+      </c>
+      <c r="H2586" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2586"/>
+  <dimension ref="A1:H2589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="2">
-        <v>45832.99937861314</v>
+        <v>45833.77620284099</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="2">
-        <v>45832.4265162037</v>
+        <v>45833.69550925926</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>45831.83463792984</v>
+        <v>45833.77620283774</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>45831.81263888889</v>
+        <v>45833.59693287037</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>45832.99937863887</v>
+        <v>45833.77620284134</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2">
-        <v>45832.75739583333</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2">
-        <v>45829.29943059705</v>
+        <v>45833.77618177847</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2">
-        <v>45828.52178240741</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2851</v>
+        <v>2831</v>
       </c>
       <c r="D33" s="2">
-        <v>45832.99937862625</v>
+        <v>45833.77620283895</v>
       </c>
       <c r="E33">
-        <v>2851</v>
+        <v>2831</v>
       </c>
       <c r="F33" s="2">
-        <v>45832.55858796297</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="D56" s="2">
-        <v>45832.99937862444</v>
+        <v>45833.77620284142</v>
       </c>
       <c r="E56">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="F56" s="2">
-        <v>45832.50936342592</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2">
-        <v>45832.99935919302</v>
+        <v>45833.77620284149</v>
       </c>
       <c r="E58">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F58" s="2">
-        <v>45832.40921296296</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2">
-        <v>45825.8270770669</v>
+        <v>45833.77618177872</v>
       </c>
       <c r="E59">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2">
-        <v>45825.61604166667</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
-        <v>45831.31672868288</v>
+        <v>45834.28681886554</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F61" s="2">
-        <v>45829.58444444444</v>
+        <v>45833.87444444445</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" s="2">
-        <v>45831.83461824944</v>
+        <v>45833.77620283903</v>
       </c>
       <c r="E63">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2">
-        <v>45831.63957175926</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
-        <v>45832.99937862792</v>
+        <v>45833.77618177396</v>
       </c>
       <c r="E69">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="F69" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.47572916667</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2">
-        <v>45831.83463792157</v>
+        <v>45833.77618177376</v>
       </c>
       <c r="E70">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.47356481481</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="2">
-        <v>45831.83463791914</v>
+        <v>45833.77620283993</v>
       </c>
       <c r="E81">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F81" s="2">
-        <v>45831.73116898148</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D83" s="2">
-        <v>45832.99935919479</v>
+        <v>45833.77618176836</v>
       </c>
       <c r="E83">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F83" s="2">
-        <v>45832.42351851852</v>
+        <v>45833.39194444445</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D87" s="2">
-        <v>45832.99937862293</v>
+        <v>45833.77618176855</v>
       </c>
       <c r="E87">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2">
-        <v>45832.44876157407</v>
+        <v>45833.39194444445</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D91" s="2">
-        <v>45825.82710087817</v>
+        <v>45833.77618176876</v>
       </c>
       <c r="E91">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2">
-        <v>45825.6681712963</v>
+        <v>45833.39194444445</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D94" s="2">
-        <v>45832.99937862756</v>
+        <v>45833.77620284</v>
       </c>
       <c r="E94">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2">
-        <v>45832.60596064815</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2850</v>
+        <v>2796</v>
       </c>
       <c r="D101" s="2">
-        <v>45832.99937863777</v>
+        <v>45833.77620284156</v>
       </c>
       <c r="E101">
-        <v>2850</v>
+        <v>2796</v>
       </c>
       <c r="F101" s="2">
-        <v>45832.73863425926</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D117" s="2">
-        <v>45831.83461824039</v>
+        <v>45833.7761817699</v>
       </c>
       <c r="E117">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F117" s="2">
-        <v>45831.47940972223</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D121" s="2">
-        <v>45832.99935919538</v>
+        <v>45833.7761817701</v>
       </c>
       <c r="E121">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F121" s="2">
-        <v>45832.42351851852</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D123" s="2">
-        <v>45832.99935918899</v>
+        <v>45833.77618177892</v>
       </c>
       <c r="E123">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F123" s="2">
-        <v>45832.385</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D124" s="2">
-        <v>45831.83461825257</v>
+        <v>45833.77618177133</v>
       </c>
       <c r="E124">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F124" s="2">
-        <v>45831.67700231481</v>
+        <v>45833.42833333334</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D125" s="2">
-        <v>45832.99935919566</v>
+        <v>45833.77620283911</v>
       </c>
       <c r="E125">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F125" s="2">
-        <v>45832.42351851852</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
-        <v>45831.83461825048</v>
+        <v>45834.28681886589</v>
       </c>
       <c r="E126">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F126" s="2">
-        <v>45831.67092592592</v>
+        <v>45833.8759375</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D141" s="2">
-        <v>45831.83463791714</v>
+        <v>45833.77620284037</v>
       </c>
       <c r="E141">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="F141" s="2">
-        <v>45831.69412037037</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D145" s="2">
-        <v>45827.49773230286</v>
+        <v>45833.77620284045</v>
       </c>
       <c r="E145">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F145" s="2">
-        <v>45827.44425925926</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4345,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D161" s="2">
-        <v>45829.29943060024</v>
+        <v>45833.77620284128</v>
       </c>
       <c r="E161">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F161" s="2">
-        <v>45828.62064814815</v>
+        <v>45833.73408564815</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4397,16 +4397,16 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D163" s="2">
-        <v>45831.8346182506</v>
+        <v>45833.77618177913</v>
       </c>
       <c r="E163">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F163" s="2">
-        <v>45831.67092592592</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2">
-        <v>45831.83463792224</v>
+        <v>45833.77620284163</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F206" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D209" s="2">
-        <v>45832.99937862316</v>
+        <v>45833.77618177226</v>
       </c>
       <c r="E209">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F209" s="2">
-        <v>45832.44876157407</v>
+        <v>45833.44604166667</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D217" s="2">
-        <v>45832.99937863368</v>
+        <v>45833.77620283873</v>
       </c>
       <c r="E217">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F217" s="2">
-        <v>45832.66791666667</v>
+        <v>45833.66048611111</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D272" s="2">
-        <v>45827.49771214504</v>
+        <v>45833.77618177247</v>
       </c>
       <c r="E272">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F272" s="2">
-        <v>45826.54380787037</v>
+        <v>45833.44604166667</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D273" s="2">
-        <v>45831.83463792867</v>
+        <v>45833.77620283919</v>
       </c>
       <c r="E273">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F273" s="2">
-        <v>45831.81233796296</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D274" s="2">
-        <v>45832.99937863346</v>
+        <v>45833.77618177416</v>
       </c>
       <c r="E274">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F274" s="2">
-        <v>45832.66299768518</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D281" s="2">
-        <v>45832.99937861747</v>
+        <v>45833.77618177698</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F281" s="2">
-        <v>45832.435625</v>
+        <v>45833.52773148148</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D283" s="2">
-        <v>45832.99935918979</v>
+        <v>45833.77618177031</v>
       </c>
       <c r="E283">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F283" s="2">
-        <v>45832.385</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D291" s="2">
-        <v>45831.83461825269</v>
+        <v>45833.77620284171</v>
       </c>
       <c r="E291">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F291" s="2">
-        <v>45831.67700231481</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D292" s="2">
-        <v>45831.83461825179</v>
+        <v>45833.77620284052</v>
       </c>
       <c r="E292">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F292" s="2">
-        <v>45831.67487268519</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D295" s="2">
-        <v>45832.99935919787</v>
+        <v>45833.77618177933</v>
       </c>
       <c r="E295">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F295" s="2">
-        <v>45832.42388888889</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7904,16 +7904,16 @@
         <v>1</v>
       </c>
       <c r="C307">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="D307" s="2">
-        <v>45832.99937863387</v>
+        <v>45833.77618177206</v>
       </c>
       <c r="E307">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="F307" s="2">
-        <v>45832.66791666667</v>
+        <v>45833.44583333333</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D309" s="2">
-        <v>45825.82710088014</v>
+        <v>45833.77618177718</v>
       </c>
       <c r="E309">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F309" s="2">
-        <v>45825.69407407408</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D328" s="2">
-        <v>45828.40527173349</v>
+        <v>45833.77620283881</v>
       </c>
       <c r="E328">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F328" s="2">
-        <v>45827.86532407408</v>
+        <v>45833.66048611111</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -8570,16 +8570,16 @@
         <v>1</v>
       </c>
       <c r="C334">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D334" s="2">
-        <v>45811.92544186871</v>
+        <v>45833.77618177437</v>
       </c>
       <c r="E334">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F334" s="2">
-        <v>45811.42236111111</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D346" s="2">
-        <v>45832.99937862861</v>
+        <v>45833.77618177954</v>
       </c>
       <c r="E346">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F346" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D351" s="2">
-        <v>45831.83461825296</v>
+        <v>45833.77618177974</v>
       </c>
       <c r="E351">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F351" s="2">
-        <v>45831.67700231481</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D358" s="2">
-        <v>45832.9993786354</v>
+        <v>45833.77618177677</v>
       </c>
       <c r="E358">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F358" s="2">
-        <v>45832.71763888889</v>
+        <v>45833.52721064815</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="D361" s="2">
-        <v>45832.99935918798</v>
+        <v>45833.77620284179</v>
       </c>
       <c r="E361">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="F361" s="2">
-        <v>45831.91774305556</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D363" s="2">
-        <v>45831.83463792886</v>
+        <v>45833.77618177994</v>
       </c>
       <c r="E363">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="F363" s="2">
-        <v>45831.81233796296</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D371" s="2">
-        <v>45832.9993591962</v>
+        <v>45833.77618177456</v>
       </c>
       <c r="E371">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F371" s="2">
-        <v>45832.42351851852</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D379" s="2">
-        <v>45831.83459785258</v>
+        <v>45833.77620283888</v>
       </c>
       <c r="E379">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F379" s="2">
-        <v>45831.4337962963</v>
+        <v>45833.66048611111</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D386" s="2">
-        <v>45828.40527173226</v>
+        <v>45833.77618178015</v>
       </c>
       <c r="E386">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F386" s="2">
-        <v>45827.60001157408</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="D390" s="2">
-        <v>45831.83463793078</v>
+        <v>45833.77618177357</v>
       </c>
       <c r="E390">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="F390" s="2">
-        <v>45831.81263888889</v>
+        <v>45833.45938657408</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D394" s="2">
-        <v>45832.99937863841</v>
+        <v>45833.77620284007</v>
       </c>
       <c r="E394">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F394" s="2">
-        <v>45832.75680555555</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10295,16 +10295,16 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D403" s="2">
-        <v>45812.78301983239</v>
+        <v>45833.77620284185</v>
       </c>
       <c r="E403">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F403" s="2">
-        <v>45812.32231481482</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="D404" s="2">
-        <v>45831.83461824765</v>
+        <v>45833.77620283926</v>
       </c>
       <c r="E404">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F404" s="2">
-        <v>45831.53259259259</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D422" s="2">
-        <v>45825.82707706292</v>
+        <v>45833.77618177052</v>
       </c>
       <c r="E422">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F422" s="2">
-        <v>45825.49319444445</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="D469" s="2">
-        <v>45831.83463792255</v>
+        <v>45833.7762028406</v>
       </c>
       <c r="E469">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="F469" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D480" s="2">
-        <v>45832.99937863564</v>
+        <v>45833.77618177747</v>
       </c>
       <c r="E480">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F480" s="2">
-        <v>45832.71763888889</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12562,16 +12562,16 @@
         <v>1</v>
       </c>
       <c r="C494">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>45811.92546678011</v>
+        <v>45833.77620284332</v>
       </c>
       <c r="E494">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F494" s="2">
-        <v>45811.50252314815</v>
+        <v>45833.769375</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D510" s="2">
-        <v>45832.99937862482</v>
+        <v>45833.77620283933</v>
       </c>
       <c r="E510">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F510" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13545,16 +13545,16 @@
         <v>1</v>
       </c>
       <c r="C534">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D534" s="2">
-        <v>45831.31672868149</v>
+        <v>45833.77620283941</v>
       </c>
       <c r="E534">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F534" s="2">
-        <v>45829.56215277778</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D535" s="2">
-        <v>45831.31672868136</v>
+        <v>45833.77620283949</v>
       </c>
       <c r="E535">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F535" s="2">
-        <v>45824.45626157407</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -13816,16 +13816,16 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D545" s="2">
-        <v>45831.83461825219</v>
+        <v>45833.77618177326</v>
       </c>
       <c r="E545">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F545" s="2">
-        <v>45831.6752662037</v>
+        <v>45833.45819444444</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -14389,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D569" s="2">
-        <v>45831.8346379229</v>
+        <v>45833.77620283781</v>
       </c>
       <c r="E569">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F569" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.63289351852</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D581" s="2">
-        <v>45828.40527173851</v>
+        <v>45833.7762028408</v>
       </c>
       <c r="E581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F581" s="2">
-        <v>45828.41831018519</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D603" s="2">
-        <v>45829.29943060602</v>
+        <v>45833.77618177637</v>
       </c>
       <c r="E603">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F603" s="2">
-        <v>45828.71103009259</v>
+        <v>45833.515625</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D631" s="2">
-        <v>45827.49773229961</v>
+        <v>45833.77618177476</v>
       </c>
       <c r="E631">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F631" s="2">
-        <v>45826.68226851852</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1887</v>
+        <v>1870</v>
       </c>
       <c r="D657" s="2">
-        <v>45831.83461824778</v>
+        <v>45833.77620284192</v>
       </c>
       <c r="E657">
-        <v>1887</v>
+        <v>1870</v>
       </c>
       <c r="F657" s="2">
-        <v>45831.53259259259</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D660" s="2">
-        <v>45832.99937862932</v>
+        <v>45833.77620284199</v>
       </c>
       <c r="E660">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F660" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17143,16 +17143,16 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D683" s="2">
-        <v>45818.80148694866</v>
+        <v>45833.77618177496</v>
       </c>
       <c r="E683">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F683" s="2">
-        <v>45818.704375</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D691" s="2">
-        <v>45831.83463791593</v>
+        <v>45833.77618177767</v>
       </c>
       <c r="E691">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F691" s="2">
-        <v>45831.68162037037</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D720" s="2">
-        <v>45832.99937863649</v>
+        <v>45833.77618177788</v>
       </c>
       <c r="E720">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F720" s="2">
-        <v>45832.71763888889</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D726" s="2">
-        <v>45832.99935919039</v>
+        <v>45833.77618178036</v>
       </c>
       <c r="E726">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F726" s="2">
-        <v>45832.385</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D732" s="2">
-        <v>45831.83463791787</v>
+        <v>45833.77618177808</v>
       </c>
       <c r="E732">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F732" s="2">
-        <v>45831.69412037037</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18560,16 +18560,16 @@
         <v>1</v>
       </c>
       <c r="C739">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D739" s="2">
-        <v>45818.30486084728</v>
+        <v>45833.77618178056</v>
       </c>
       <c r="E739">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F739" s="2">
-        <v>45817.664375</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -18739,16 +18739,16 @@
         <v>1</v>
       </c>
       <c r="C746">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D746" s="2">
-        <v>45820.9169528116</v>
+        <v>45833.77618177153</v>
       </c>
       <c r="E746">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F746" s="2">
-        <v>45820.4658449074</v>
+        <v>45833.42833333334</v>
       </c>
       <c r="G746">
         <v>0</v>
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="D763" s="2">
-        <v>45831.8346182511</v>
+        <v>45833.77618176786</v>
       </c>
       <c r="E763">
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="F763" s="2">
-        <v>45831.67092592592</v>
+        <v>45833.38887731481</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="D772" s="2">
-        <v>45831.83463792903</v>
+        <v>45833.77620284207</v>
       </c>
       <c r="E772">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="F772" s="2">
-        <v>45831.81233796296</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -20005,16 +20005,16 @@
         <v>1</v>
       </c>
       <c r="C797">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D797" s="2">
-        <v>45811.92544186871</v>
+        <v>45833.77620284354</v>
       </c>
       <c r="E797">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F797" s="2">
-        <v>45810.78280092592</v>
+        <v>45833.79240740741</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>1</v>
       </c>
       <c r="C798">
-        <v>-148</v>
+        <v>52</v>
       </c>
       <c r="D798" s="2">
-        <v>45832.99937862425</v>
+        <v>45833.77620284362</v>
       </c>
       <c r="E798">
-        <v>-148</v>
+        <v>52</v>
       </c>
       <c r="F798" s="2">
-        <v>45832.46924768519</v>
+        <v>45833.79266203703</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D810" s="2">
-        <v>45832.99937862956</v>
+        <v>45833.77620283803</v>
       </c>
       <c r="E810">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F810" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.65263888889</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="D826" s="2">
-        <v>45832.99937863479</v>
+        <v>45833.77620284015</v>
       </c>
       <c r="E826">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="F826" s="2">
-        <v>45832.69049768519</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="D844" s="2">
-        <v>45832.99935918635</v>
+        <v>45833.77620283956</v>
       </c>
       <c r="E844">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="F844" s="2">
-        <v>45831.91517361111</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D853" s="2">
-        <v>45832.99937863926</v>
+        <v>45833.77620284214</v>
       </c>
       <c r="E853">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F853" s="2">
-        <v>45832.7659375</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="D854" s="2">
-        <v>45831.83463791619</v>
+        <v>45834.28681886503</v>
       </c>
       <c r="E854">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="F854" s="2">
-        <v>45831.68162037037</v>
+        <v>45833.87168981481</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D883" s="2">
-        <v>45831.83461825337</v>
+        <v>45833.77620284105</v>
       </c>
       <c r="E883">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="F883" s="2">
-        <v>45831.67700231481</v>
+        <v>45833.69550925926</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22226,13 +22226,13 @@
         <v>0</v>
       </c>
       <c r="D886" s="2">
-        <v>45795.04177855738</v>
+        <v>45833.7762028431</v>
       </c>
       <c r="E886">
         <v>0</v>
       </c>
       <c r="F886" s="2">
-        <v>45148.66943287037</v>
+        <v>45833.76693287037</v>
       </c>
       <c r="G886">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="D888" s="2">
-        <v>45832.99937862339</v>
+        <v>45833.77620284224</v>
       </c>
       <c r="E888">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="F888" s="2">
-        <v>45832.44876157407</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22298,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="C889">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D889" s="2">
-        <v>45829.29943059556</v>
+        <v>45833.77618177516</v>
       </c>
       <c r="E889">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F889" s="2">
-        <v>45828.50344907407</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="D963" s="2">
-        <v>45831.83463792426</v>
+        <v>45833.77618176898</v>
       </c>
       <c r="E963">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="F963" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.39194444445</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>1</v>
       </c>
       <c r="C970">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D970" s="2">
-        <v>45795.04204563411</v>
+        <v>45833.77620284022</v>
       </c>
       <c r="E970">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F970" s="2">
-        <v>45749.50945601852</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G970">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1002" s="2">
-        <v>45827.49773229451</v>
+        <v>45833.77618178075</v>
       </c>
       <c r="E1002">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F1002" s="2">
-        <v>45826.55956018518</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1018" s="2">
-        <v>45821.87952450374</v>
+        <v>45834.28681886329</v>
       </c>
       <c r="E1018">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1018" s="2">
-        <v>45831.52096064815</v>
+        <v>45833.85578703704</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25712,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="C1024">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1024" s="2">
-        <v>45828.40527173024</v>
+        <v>45833.77620284279</v>
       </c>
       <c r="E1024">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F1024" s="2">
-        <v>45827.55313657408</v>
+        <v>45833.73675925926</v>
       </c>
       <c r="G1024">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D1025" s="2">
-        <v>45831.83463792459</v>
+        <v>45833.77620283711</v>
       </c>
       <c r="E1025">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F1025" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -26471,16 +26471,16 @@
         <v>1</v>
       </c>
       <c r="C1054">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="D1054" s="2">
-        <v>45832.99937863693</v>
+        <v>45833.77620283797</v>
       </c>
       <c r="E1054">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F1054" s="2">
-        <v>45832.71763888889</v>
+        <v>45833.65202546296</v>
       </c>
       <c r="G1054">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D1062" s="2">
-        <v>45832.99937862973</v>
+        <v>45833.77620284113</v>
       </c>
       <c r="E1062">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F1062" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.69792824074</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>1</v>
       </c>
       <c r="C1094">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D1094" s="2">
-        <v>45821.87952450383</v>
+        <v>45833.77618177071</v>
       </c>
       <c r="E1094">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1094" s="2">
-        <v>45821.73368055555</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G1094">
         <v>0</v>
@@ -27564,16 +27564,16 @@
         <v>1</v>
       </c>
       <c r="C1098">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1098" s="2">
-        <v>45807.78640665444</v>
+        <v>45833.7762028403</v>
       </c>
       <c r="E1098">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1098" s="2">
-        <v>45831.52096064815</v>
+        <v>45833.68471064815</v>
       </c>
       <c r="G1098">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D1110" s="2">
-        <v>45832.999359191</v>
+        <v>45833.77618177092</v>
       </c>
       <c r="E1110">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F1110" s="2">
-        <v>45832.385</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1122" s="2">
-        <v>45821.87952449879</v>
+        <v>45833.77618176814</v>
       </c>
       <c r="E1122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1122" s="2">
-        <v>45821.60837962963</v>
+        <v>45833.38887731481</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28274,16 +28274,16 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D1126" s="2">
-        <v>45832.99937861889</v>
+        <v>45833.77620284229</v>
       </c>
       <c r="E1126">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F1126" s="2">
-        <v>45832.44447916667</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1133" s="2">
-        <v>45825.82707705498</v>
+        <v>45833.77618177536</v>
       </c>
       <c r="E1133">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F1133" s="2">
-        <v>45825.41831018519</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1147" s="2">
-        <v>45831.83463792493</v>
+        <v>45833.77620284236</v>
       </c>
       <c r="E1147">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1147" s="2">
-        <v>45831.81081018518</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1149" s="2">
-        <v>45831.83463791953</v>
+        <v>45833.77618177555</v>
       </c>
       <c r="E1149">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F1149" s="2">
-        <v>45831.73116898148</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -28883,16 +28883,16 @@
         <v>1</v>
       </c>
       <c r="C1150">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D1150" s="2">
-        <v>45829.29943060463</v>
+        <v>45834.28681886363</v>
       </c>
       <c r="E1150">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F1150" s="2">
-        <v>45828.66594907407</v>
+        <v>45833.85730324074</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -29039,16 +29039,16 @@
         <v>1</v>
       </c>
       <c r="C1156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1156" s="2">
-        <v>45832.999378625</v>
+        <v>45833.77618177657</v>
       </c>
       <c r="E1156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1156" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.515625</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1174" s="2">
-        <v>45832.99935919896</v>
+        <v>45833.77618177576</v>
       </c>
       <c r="E1174">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F1174" s="2">
-        <v>45832.4250925926</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29804,16 +29804,16 @@
         <v>1</v>
       </c>
       <c r="C1186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1186" s="2">
-        <v>45811.92552606984</v>
+        <v>45833.77620284091</v>
       </c>
       <c r="E1186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1186" s="2">
-        <v>45811.75252314815</v>
+        <v>45833.68996527778</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -30896,7 +30896,7 @@
         <v>0</v>
       </c>
       <c r="F1228" s="2">
-        <v>45818.40175925926</v>
+        <v>45833.77162037037</v>
       </c>
       <c r="G1228">
         <v>0</v>
@@ -31450,16 +31450,16 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D1250" s="2">
-        <v>45828.40527173905</v>
+        <v>45834.28681886417</v>
       </c>
       <c r="E1250">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F1250" s="2">
-        <v>45828.41831018519</v>
+        <v>45833.86076388889</v>
       </c>
       <c r="G1250">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="D1253" s="2">
-        <v>45832.99937862989</v>
+        <v>45833.77620284244</v>
       </c>
       <c r="E1253">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="F1253" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31577,16 +31577,16 @@
         <v>1</v>
       </c>
       <c r="C1255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1255" s="2">
-        <v>45807.78640665444</v>
+        <v>45833.77618176919</v>
       </c>
       <c r="E1255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1255" s="2">
-        <v>45807.69802083333</v>
+        <v>45833.40459490741</v>
       </c>
       <c r="G1255">
         <v>0</v>
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>-3</v>
+        <v>253</v>
       </c>
       <c r="D1261" s="2">
-        <v>45832.99937862519</v>
+        <v>45834.28681886605</v>
       </c>
       <c r="E1261">
-        <v>-3</v>
+        <v>253</v>
       </c>
       <c r="F1261" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.91274305555</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D1324" s="2">
-        <v>45832.99937863865</v>
+        <v>45833.77620283811</v>
       </c>
       <c r="E1324">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F1324" s="2">
-        <v>45832.75680555555</v>
+        <v>45833.65372685185</v>
       </c>
       <c r="G1324">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D1342" s="2">
-        <v>45832.99937862538</v>
+        <v>45833.77620283842</v>
       </c>
       <c r="E1342">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="F1342" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.66032407407</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34885,16 +34885,16 @@
         <v>1</v>
       </c>
       <c r="C1385">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="D1385" s="2">
-        <v>45811.92549991595</v>
+        <v>45834.28681886399</v>
       </c>
       <c r="E1385">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="F1385" s="2">
-        <v>45811.72346064815</v>
+        <v>45833.85784722222</v>
       </c>
       <c r="G1385">
         <v>0</v>
@@ -35604,16 +35604,16 @@
         <v>1</v>
       </c>
       <c r="C1413">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D1413" s="2">
-        <v>45811.92544186871</v>
+        <v>45833.7762028385</v>
       </c>
       <c r="E1413">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F1413" s="2">
-        <v>45811.41633101852</v>
+        <v>45833.66032407407</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -35841,7 +35841,7 @@
         <v>13</v>
       </c>
       <c r="F1422" s="2">
-        <v>45811.50125</v>
+        <v>45833.76759259259</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -36271,16 +36271,16 @@
         <v>1</v>
       </c>
       <c r="C1439">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1439" s="2">
-        <v>45800.9319772456</v>
+        <v>45833.77618177827</v>
       </c>
       <c r="E1439">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1439" s="2">
-        <v>45800.46056712963</v>
+        <v>45833.53011574074</v>
       </c>
       <c r="G1439">
         <v>0</v>
@@ -36450,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D1446" s="2">
-        <v>45825.28849841491</v>
+        <v>45833.77618177596</v>
       </c>
       <c r="E1446">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F1446" s="2">
-        <v>45824.45626157407</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36502,16 +36502,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D1448" s="2">
-        <v>45832.99937863062</v>
+        <v>45833.77620284251</v>
       </c>
       <c r="E1448">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="F1448" s="2">
-        <v>45832.62121527778</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -37962,16 +37962,16 @@
         <v>1</v>
       </c>
       <c r="C1506">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1506" s="2">
-        <v>45812.78301983239</v>
+        <v>45833.77620284294</v>
       </c>
       <c r="E1506">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1506" s="2">
-        <v>45812.32796296296</v>
+        <v>45833.76515046296</v>
       </c>
       <c r="G1506">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>-51</v>
+        <v>242</v>
       </c>
       <c r="D1507" s="2">
-        <v>45832.99937863008</v>
+        <v>45834.28681886305</v>
       </c>
       <c r="E1507">
-        <v>-51</v>
+        <v>242</v>
       </c>
       <c r="F1507" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.85539351852</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -39701,16 +39701,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1576" s="2">
-        <v>45832.99937861426</v>
+        <v>45833.77620283971</v>
       </c>
       <c r="E1576">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1576" s="2">
-        <v>45832.43322916667</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D1594" s="2">
-        <v>45831.83463793174</v>
+        <v>45833.77620283723</v>
       </c>
       <c r="E1594">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F1594" s="2">
-        <v>45831.81263888889</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>4845</v>
+        <v>4785</v>
       </c>
       <c r="D1597" s="2">
-        <v>45832.99937863797</v>
+        <v>45833.77620284258</v>
       </c>
       <c r="E1597">
-        <v>4845</v>
+        <v>4785</v>
       </c>
       <c r="F1597" s="2">
-        <v>45832.73863425926</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40298,16 +40298,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1600" s="2">
-        <v>45832.99937863024</v>
+        <v>45833.77620283866</v>
       </c>
       <c r="E1600">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1600" s="2">
-        <v>45832.61931712963</v>
+        <v>45833.66032407407</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2657</v>
+        <v>2588</v>
       </c>
       <c r="D1635" s="2">
-        <v>45832.9993786256</v>
+        <v>45833.77620284265</v>
       </c>
       <c r="E1635">
-        <v>2657</v>
+        <v>2588</v>
       </c>
       <c r="F1635" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41576,16 +41576,16 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D1651" s="2">
-        <v>45831.83463791655</v>
+        <v>45833.77620284302</v>
       </c>
       <c r="E1651">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F1651" s="2">
-        <v>45831.68162037037</v>
+        <v>45833.76623842592</v>
       </c>
       <c r="G1651">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1656" s="2">
-        <v>45825.82707706397</v>
+        <v>45834.28681886452</v>
       </c>
       <c r="E1656">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1656" s="2">
-        <v>45825.49319444445</v>
+        <v>45833.87039351852</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -41729,16 +41729,16 @@
         <v>1</v>
       </c>
       <c r="C1657">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D1657" s="2">
-        <v>45814.82976436854</v>
+        <v>45834.28681886521</v>
       </c>
       <c r="E1657">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F1657" s="2">
-        <v>45814.70711805556</v>
+        <v>45833.87199074074</v>
       </c>
       <c r="G1657">
         <v>0</v>
@@ -42439,7 +42439,7 @@
         <v>0</v>
       </c>
       <c r="F1685" s="2">
-        <v>45708.39260416666</v>
+        <v>45833.76810185185</v>
       </c>
       <c r="G1685">
         <v>0</v>
@@ -42721,16 +42721,16 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1697" s="2">
-        <v>45820.91697502176</v>
+        <v>45833.77618177616</v>
       </c>
       <c r="E1697">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1697" s="2">
-        <v>45820.7009375</v>
+        <v>45833.48585648148</v>
       </c>
       <c r="G1697">
         <v>0</v>
@@ -44220,16 +44220,16 @@
         <v>1</v>
       </c>
       <c r="C1758">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D1758" s="2">
-        <v>45799.89545110933</v>
+        <v>45834.28681886347</v>
       </c>
       <c r="E1758">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F1758" s="2">
-        <v>45782.65509259259</v>
+        <v>45833.85653935185</v>
       </c>
       <c r="G1758">
         <v>0</v>
@@ -45533,16 +45533,16 @@
         <v>1</v>
       </c>
       <c r="C1810">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="D1810" s="2">
-        <v>45832.99937863459</v>
+        <v>45833.77618177173</v>
       </c>
       <c r="E1810">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="F1810" s="2">
-        <v>45832.66791666667</v>
+        <v>45833.43788194445</v>
       </c>
       <c r="G1810">
         <v>0</v>
@@ -45891,16 +45891,16 @@
         <v>1</v>
       </c>
       <c r="C1824">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1824" s="2">
-        <v>45831.83463791691</v>
+        <v>45833.77618176959</v>
       </c>
       <c r="E1824">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1824" s="2">
-        <v>45831.69243055556</v>
+        <v>45833.42410879629</v>
       </c>
       <c r="G1824">
         <v>0</v>
@@ -46699,16 +46699,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1856" s="2">
-        <v>45832.99937863735</v>
+        <v>45833.77620283733</v>
       </c>
       <c r="E1856">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1856" s="2">
-        <v>45832.71763888889</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -46829,16 +46829,16 @@
         <v>1</v>
       </c>
       <c r="C1861">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1861" s="2">
-        <v>45795.04190003897</v>
+        <v>45833.77620283978</v>
       </c>
       <c r="E1861">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1861" s="2">
-        <v>45659.72599537037</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G1861">
         <v>0</v>
@@ -46864,7 +46864,7 @@
         <v>0</v>
       </c>
       <c r="F1862" s="2">
-        <v>45812.32642361111</v>
+        <v>45833.77251157408</v>
       </c>
       <c r="G1862">
         <v>0</v>
@@ -47268,16 +47268,16 @@
         <v>1</v>
       </c>
       <c r="C1878">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1878" s="2">
-        <v>45806.77603763194</v>
+        <v>45833.77618177266</v>
       </c>
       <c r="E1878">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F1878" s="2">
-        <v>45806.74783564815</v>
+        <v>45833.44604166667</v>
       </c>
       <c r="G1878">
         <v>0</v>
@@ -48122,16 +48122,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="D1912" s="2">
-        <v>45828.4052717394</v>
+        <v>45834.28681886538</v>
       </c>
       <c r="E1912">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="F1912" s="2">
-        <v>45828.41831018519</v>
+        <v>45833.87310185185</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -50909,16 +50909,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D2023" s="2">
-        <v>45831.83461825165</v>
+        <v>45834.2868188647</v>
       </c>
       <c r="E2023">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F2023" s="2">
-        <v>45831.67092592592</v>
+        <v>45833.87069444444</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -50935,16 +50935,16 @@
         <v>1</v>
       </c>
       <c r="C2024">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D2024" s="2">
-        <v>45812.78303939045</v>
+        <v>45834.28681886487</v>
       </c>
       <c r="E2024">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F2024" s="2">
-        <v>45812.67899305555</v>
+        <v>45833.8713425926</v>
       </c>
       <c r="G2024">
         <v>0</v>
@@ -51160,16 +51160,16 @@
         <v>1</v>
       </c>
       <c r="C2033">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="D2033" s="2">
-        <v>45827.49773229471</v>
+        <v>45834.28681886572</v>
       </c>
       <c r="E2033">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="F2033" s="2">
-        <v>45826.55956018518</v>
+        <v>45833.87530092592</v>
       </c>
       <c r="G2033">
         <v>0</v>
@@ -51899,16 +51899,16 @@
         <v>1</v>
       </c>
       <c r="C2062">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D2062" s="2">
-        <v>45795.0420164208</v>
+        <v>45833.77620283788</v>
       </c>
       <c r="E2062">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F2062" s="2">
-        <v>45730.70069444444</v>
+        <v>45833.63289351852</v>
       </c>
       <c r="G2062">
         <v>0</v>
@@ -52958,16 +52958,16 @@
         <v>1</v>
       </c>
       <c r="C2104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2104" s="2">
-        <v>45811.92546678011</v>
+        <v>45833.77618176939</v>
       </c>
       <c r="E2104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2104" s="2">
-        <v>45811.50252314815</v>
+        <v>45833.40459490741</v>
       </c>
       <c r="G2104">
         <v>0</v>
@@ -53959,16 +53959,16 @@
         <v>1</v>
       </c>
       <c r="C2144">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D2144" s="2">
-        <v>45799.89545110933</v>
+        <v>45833.77618177286</v>
       </c>
       <c r="E2144">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2144" s="2">
-        <v>45792.48434027778</v>
+        <v>45833.44604166667</v>
       </c>
       <c r="G2144">
         <v>0</v>
@@ -55883,16 +55883,16 @@
         <v>1</v>
       </c>
       <c r="C2221">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2221" s="2">
-        <v>45795.04190003897</v>
+        <v>45833.77620283985</v>
       </c>
       <c r="E2221">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2221" s="2">
-        <v>45656.66517361111</v>
+        <v>45833.68387731481</v>
       </c>
       <c r="G2221">
         <v>0</v>
@@ -56400,16 +56400,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2241" s="2">
-        <v>45832.9993786382</v>
+        <v>45833.77620284271</v>
       </c>
       <c r="E2241">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F2241" s="2">
-        <v>45832.73863425926</v>
+        <v>45833.73585648148</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -58555,16 +58555,16 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2327" s="2">
-        <v>45831.83461825205</v>
+        <v>45833.7762028412</v>
       </c>
       <c r="E2327">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2327" s="2">
-        <v>45831.67487268519</v>
+        <v>45833.69792824074</v>
       </c>
       <c r="G2327">
         <v>0</v>
@@ -59853,10 +59853,13 @@
         <v>0</v>
       </c>
       <c r="D2379" s="2">
-        <v>45795.04193352044</v>
+        <v>45833.77620283819</v>
       </c>
       <c r="E2379">
         <v>0</v>
+      </c>
+      <c r="F2379" s="2">
+        <v>45833.6553587963</v>
       </c>
       <c r="G2379">
         <v>0</v>
@@ -60767,16 +60770,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2416" s="2">
-        <v>45831.83463791669</v>
+        <v>45833.77618177112</v>
       </c>
       <c r="E2416">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F2416" s="2">
-        <v>45831.68162037037</v>
+        <v>45833.42523148148</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -61972,16 +61975,16 @@
         <v>1</v>
       </c>
       <c r="C2465">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2465" s="2">
-        <v>45831.83463793192</v>
+        <v>45833.77618177306</v>
       </c>
       <c r="E2465">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F2465" s="2">
-        <v>45831.81263888889</v>
+        <v>45833.44604166667</v>
       </c>
       <c r="G2465">
         <v>0</v>
@@ -62361,16 +62364,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D2481" s="2">
-        <v>45832.99937862582</v>
+        <v>45833.77620283741</v>
       </c>
       <c r="E2481">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="F2481" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62387,16 +62390,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>913</v>
+        <v>834</v>
       </c>
       <c r="D2482" s="2">
-        <v>45832.99937862607</v>
+        <v>45833.77620283749</v>
       </c>
       <c r="E2482">
-        <v>913</v>
+        <v>834</v>
       </c>
       <c r="F2482" s="2">
-        <v>45832.54928240741</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62413,16 +62416,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="D2483" s="2">
-        <v>45832.99935918752</v>
+        <v>45833.77620283757</v>
       </c>
       <c r="E2483">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="F2483" s="2">
-        <v>45831.91746527778</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62439,16 +62442,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="D2484" s="2">
-        <v>45831.83461824854</v>
+        <v>45833.77620283764</v>
       </c>
       <c r="E2484">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="F2484" s="2">
-        <v>45831.53259259259</v>
+        <v>45833.54157407407</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -64830,6 +64833,9 @@
       <c r="E2582">
         <v>0</v>
       </c>
+      <c r="F2582" s="2">
+        <v>45833.65579861111</v>
+      </c>
       <c r="G2582">
         <v>0</v>
       </c>
@@ -64929,6 +64935,81 @@
         <v>0</v>
       </c>
       <c r="H2586" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:8">
+      <c r="A2587">
+        <v>43873951</v>
+      </c>
+      <c r="B2587">
+        <v>1</v>
+      </c>
+      <c r="C2587">
+        <v>-1</v>
+      </c>
+      <c r="D2587" s="2">
+        <v>45833.7762028428</v>
+      </c>
+      <c r="E2587">
+        <v>-1</v>
+      </c>
+      <c r="F2587" s="2">
+        <v>45833.68996527778</v>
+      </c>
+      <c r="G2587">
+        <v>0</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:8">
+      <c r="A2588">
+        <v>43874050</v>
+      </c>
+      <c r="B2588">
+        <v>1</v>
+      </c>
+      <c r="C2588">
+        <v>0</v>
+      </c>
+      <c r="D2588" s="2">
+        <v>45833.77620283766</v>
+      </c>
+      <c r="E2588">
+        <v>0</v>
+      </c>
+      <c r="G2588">
+        <v>0</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:8">
+      <c r="A2589">
+        <v>43883152</v>
+      </c>
+      <c r="B2589">
+        <v>1</v>
+      </c>
+      <c r="C2589">
+        <v>144</v>
+      </c>
+      <c r="D2589" s="2">
+        <v>45834.28681886436</v>
+      </c>
+      <c r="E2589">
+        <v>144</v>
+      </c>
+      <c r="F2589" s="2">
+        <v>45833.86863425926</v>
+      </c>
+      <c r="G2589">
+        <v>0</v>
+      </c>
+      <c r="H2589" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2589"/>
+  <dimension ref="A1:H2590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>45833.77620284099</v>
+        <v>45835.41886850759</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>45833.69550925926</v>
+        <v>45834.76719907407</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>45833.77620283774</v>
+        <v>45835.41886850734</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>45833.59693287037</v>
+        <v>45834.76429398148</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2">
-        <v>45832.99937863756</v>
+        <v>45835.41886850155</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2">
-        <v>45832.73863425926</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
-        <v>45833.77618177847</v>
+        <v>45835.41884527947</v>
       </c>
       <c r="E24">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2831</v>
+        <v>2817</v>
       </c>
       <c r="D33" s="2">
-        <v>45833.77620283895</v>
+        <v>45835.41886852672</v>
       </c>
       <c r="E33">
-        <v>2831</v>
+        <v>2817</v>
       </c>
       <c r="F33" s="2">
-        <v>45833.68387731481</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2">
-        <v>45831.83461824713</v>
+        <v>45835.41884527967</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="2">
-        <v>45831.53259259259</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>45818.30489301677</v>
+        <v>45835.41886851518</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D56" s="2">
-        <v>45833.77620284142</v>
+        <v>45835.41886852719</v>
       </c>
       <c r="E56">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F56" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2">
-        <v>45833.77620284149</v>
+        <v>45835.41886850197</v>
       </c>
       <c r="E58">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2">
-        <v>45833.77620283903</v>
+        <v>45835.41884527984</v>
       </c>
       <c r="E63">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2">
-        <v>45833.68387731481</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
-        <v>45799.89528858563</v>
+        <v>45835.41886850228</v>
       </c>
       <c r="E67">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F67" s="2">
-        <v>45783.66438657408</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
-        <v>45833.77618177396</v>
+        <v>45835.41884527552</v>
       </c>
       <c r="E69">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2">
-        <v>45833.47572916667</v>
+        <v>45834.47387731481</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2">
-        <v>45833.77618177376</v>
+        <v>45835.41884528002</v>
       </c>
       <c r="E70">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2">
-        <v>45833.47356481481</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" s="2">
-        <v>45825.8271008811</v>
+        <v>45835.41886852398</v>
       </c>
       <c r="E71">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2">
-        <v>45825.71496527778</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D81" s="2">
-        <v>45833.77620283993</v>
+        <v>45835.41884528021</v>
       </c>
       <c r="E81">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F81" s="2">
-        <v>45833.68471064815</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D82" s="2">
-        <v>45829.29943059525</v>
+        <v>45835.41884527701</v>
       </c>
       <c r="E82">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2">
-        <v>45828.4925</v>
+        <v>45834.49197916667</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D86" s="2">
-        <v>45832.99937862264</v>
+        <v>45835.41884529375</v>
       </c>
       <c r="E86">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F86" s="2">
-        <v>45832.44876157407</v>
+        <v>45834.72398148148</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D91" s="2">
-        <v>45833.77618176876</v>
+        <v>45835.41884528308</v>
       </c>
       <c r="E91">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2">
-        <v>45833.39194444445</v>
+        <v>45834.66114583334</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D94" s="2">
-        <v>45833.77620284</v>
+        <v>45835.41884529154</v>
       </c>
       <c r="E94">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F94" s="2">
-        <v>45833.68471064815</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="D98" s="2">
-        <v>45803.62106753104</v>
+        <v>45835.4188685198</v>
       </c>
       <c r="E98">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="F98" s="2">
-        <v>45803.48216435185</v>
+        <v>45834.8358912037</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2796</v>
+        <v>2173</v>
       </c>
       <c r="D101" s="2">
-        <v>45833.77620284156</v>
+        <v>45835.41886853563</v>
       </c>
       <c r="E101">
-        <v>2796</v>
+        <v>2179</v>
       </c>
       <c r="F101" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2921,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D103" s="2">
-        <v>45816.01481442774</v>
+        <v>45835.41884528325</v>
       </c>
       <c r="E103">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2">
-        <v>45815.95796296297</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -2999,16 +2999,16 @@
         <v>45832.99937861376</v>
       </c>
       <c r="E106">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F106" s="2">
-        <v>45832.43195601852</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3160,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D113" s="2">
-        <v>45807.78640657826</v>
+        <v>45835.41886851723</v>
       </c>
       <c r="E113">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F113" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="D117" s="2">
-        <v>45833.7761817699</v>
+        <v>45835.41884528586</v>
       </c>
       <c r="E117">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F117" s="2">
-        <v>45833.42523148148</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2">
-        <v>45832.99935919869</v>
+        <v>45835.41886852442</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F120" s="2">
-        <v>45832.4246875</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D123" s="2">
-        <v>45833.77618177892</v>
+        <v>45835.41884528039</v>
       </c>
       <c r="E123">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F123" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D124" s="2">
-        <v>45833.77618177133</v>
+        <v>45835.41886850258</v>
       </c>
       <c r="E124">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F124" s="2">
-        <v>45833.42833333334</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="D125" s="2">
-        <v>45833.77620283911</v>
+        <v>45835.41884529174</v>
       </c>
       <c r="E125">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F125" s="2">
-        <v>45833.68387731481</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D128" s="2">
-        <v>45810.72556745499</v>
+        <v>45835.41886850289</v>
       </c>
       <c r="E128">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2">
-        <v>45810.51450231481</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D141" s="2">
-        <v>45833.77620284037</v>
+        <v>45835.41884528606</v>
       </c>
       <c r="E141">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F141" s="2">
-        <v>45833.68996527778</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D145" s="2">
-        <v>45833.77620284045</v>
+        <v>45835.41884527828</v>
       </c>
       <c r="E145">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F145" s="2">
-        <v>45833.68996527778</v>
+        <v>45834.53038194445</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D185" s="2">
-        <v>45832.999378624</v>
+        <v>45835.41886853608</v>
       </c>
       <c r="E185">
         <v>127</v>
@@ -4948,10 +4948,10 @@
         <v>45832.45439814815</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5521,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D209" s="2">
-        <v>45833.77618177226</v>
+        <v>45835.41884528058</v>
       </c>
       <c r="E209">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F209" s="2">
-        <v>45833.44604166667</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D217" s="2">
-        <v>45833.77620283873</v>
+        <v>45835.41884528629</v>
       </c>
       <c r="E217">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F217" s="2">
-        <v>45833.66048611111</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5737,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D218" s="2">
-        <v>45811.92552606984</v>
+        <v>45835.41884528075</v>
       </c>
       <c r="E218">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F218" s="2">
-        <v>45811.75627314814</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D247" s="2">
-        <v>45832.99937862844</v>
+        <v>45835.41882279557</v>
       </c>
       <c r="E247">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F247" s="2">
-        <v>45832.61931712963</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D255" s="2">
-        <v>45828.40527172982</v>
+        <v>45835.41884529197</v>
       </c>
       <c r="E255">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F255" s="2">
-        <v>45827.54399305556</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D263" s="2">
-        <v>45831.31672867625</v>
+        <v>45835.41886852488</v>
       </c>
       <c r="E263">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F263" s="2">
-        <v>45829.47876157407</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D274" s="2">
-        <v>45833.77618177416</v>
+        <v>45835.41886850323</v>
       </c>
       <c r="E274">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F274" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D291" s="2">
-        <v>45833.77620284171</v>
+        <v>45835.41884528344</v>
       </c>
       <c r="E291">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F291" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D295" s="2">
-        <v>45833.77618177933</v>
+        <v>45835.41884528649</v>
       </c>
       <c r="E295">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F295" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7737,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D300" s="2">
-        <v>45831.83461824904</v>
+        <v>45835.41886850353</v>
       </c>
       <c r="E300">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F300" s="2">
-        <v>45831.63372685185</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D309" s="2">
-        <v>45833.77618177718</v>
+        <v>45835.41884528092</v>
       </c>
       <c r="E309">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F309" s="2">
-        <v>45833.53011574074</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D314" s="2">
-        <v>45825.28852326102</v>
+        <v>45835.41884528672</v>
       </c>
       <c r="E314">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F314" s="2">
-        <v>45824.64711805555</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D346" s="2">
-        <v>45833.77618177954</v>
+        <v>45835.41884528111</v>
       </c>
       <c r="E346">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F346" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1238</v>
+        <v>1188</v>
       </c>
       <c r="D351" s="2">
-        <v>45833.77618177974</v>
+        <v>45835.41884528693</v>
       </c>
       <c r="E351">
-        <v>1238</v>
+        <v>1188</v>
       </c>
       <c r="F351" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D354" s="2">
-        <v>45825.82707705993</v>
+        <v>45835.41886851647</v>
       </c>
       <c r="E354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F354" s="2">
-        <v>45825.48520833333</v>
+        <v>45834.82356481482</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D361" s="2">
-        <v>45833.77620284179</v>
+        <v>45835.41886852767</v>
       </c>
       <c r="E361">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F361" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D363" s="2">
-        <v>45833.77618177994</v>
+        <v>45835.41884528715</v>
       </c>
       <c r="E363">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F363" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D371" s="2">
-        <v>45833.77618177456</v>
+        <v>45835.41886852813</v>
       </c>
       <c r="E371">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F371" s="2">
-        <v>45833.48585648148</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>1</v>
       </c>
       <c r="C382">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D382" s="2">
-        <v>45821.87950559454</v>
+        <v>45835.41882279568</v>
       </c>
       <c r="E382">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F382" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -9813,16 +9813,16 @@
         <v>1</v>
       </c>
       <c r="C384">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D384" s="2">
-        <v>45810.31086535665</v>
+        <v>45835.41886850383</v>
       </c>
       <c r="E384">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F384" s="2">
-        <v>45809.69768518519</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G384">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D385" s="2">
-        <v>45831.83461825379</v>
+        <v>45835.41884528361</v>
       </c>
       <c r="E385">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F385" s="2">
-        <v>45831.67747685185</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D386" s="2">
-        <v>45833.77618178015</v>
+        <v>45835.41884527572</v>
       </c>
       <c r="E386">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F386" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.47387731481</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D390" s="2">
-        <v>45833.77618177357</v>
+        <v>45835.41884528737</v>
       </c>
       <c r="E390">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F390" s="2">
-        <v>45833.45938657408</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D394" s="2">
-        <v>45833.77620284007</v>
+        <v>45835.41886853651</v>
       </c>
       <c r="E394">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="F394" s="2">
-        <v>45833.68471064815</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="D402" s="2">
-        <v>45831.83461824068</v>
+        <v>45835.41886851686</v>
       </c>
       <c r="E402">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="F402" s="2">
-        <v>45831.47940972223</v>
+        <v>45834.82476851852</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>-2</v>
+        <v>478</v>
       </c>
       <c r="D404" s="2">
-        <v>45833.77620283926</v>
+        <v>45835.41886851808</v>
       </c>
       <c r="E404">
-        <v>-2</v>
+        <v>478</v>
       </c>
       <c r="F404" s="2">
-        <v>45833.68387731481</v>
+        <v>45834.82445601852</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1720</v>
+        <v>1690</v>
       </c>
       <c r="D410" s="2">
-        <v>45832.9993786288</v>
+        <v>45835.41886850415</v>
       </c>
       <c r="E410">
-        <v>1720</v>
+        <v>1690</v>
       </c>
       <c r="F410" s="2">
-        <v>45832.61931712963</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D414" s="2">
-        <v>45825.288498413</v>
+        <v>45835.4188227949</v>
       </c>
       <c r="E414">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F414" s="2">
-        <v>45824.43540509259</v>
+        <v>45834.43447916667</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="D418" s="2">
-        <v>45832.99937862897</v>
+        <v>45835.41886850446</v>
       </c>
       <c r="E418">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="F418" s="2">
-        <v>45832.61931712963</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>-19</v>
+        <v>237</v>
       </c>
       <c r="D425" s="2">
-        <v>45832.99935919274</v>
+        <v>45835.41886852021</v>
       </c>
       <c r="E425">
-        <v>-19</v>
+        <v>237</v>
       </c>
       <c r="F425" s="2">
-        <v>45832.39847222222</v>
+        <v>45834.78127314815</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>-38</v>
+        <v>22</v>
       </c>
       <c r="D441" s="2">
-        <v>45831.83459785235</v>
+        <v>45835.41886851606</v>
       </c>
       <c r="E441">
-        <v>-38</v>
+        <v>22</v>
       </c>
       <c r="F441" s="2">
-        <v>45831.43289351852</v>
+        <v>45834.82107638889</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="D469" s="2">
-        <v>45833.7762028406</v>
+        <v>45835.41886850479</v>
       </c>
       <c r="E469">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="F469" s="2">
-        <v>45833.68996527778</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,10 +12207,10 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D480" s="2">
-        <v>45833.77618177747</v>
+        <v>45835.41886853694</v>
       </c>
       <c r="E480">
         <v>183</v>
@@ -12219,10 +12219,10 @@
         <v>45833.53011574074</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12334,16 +12334,16 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D485" s="2">
-        <v>45827.49771214182</v>
+        <v>45835.41884527628</v>
       </c>
       <c r="E485">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F485" s="2">
-        <v>45826.4149537037</v>
+        <v>45834.48019675926</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D486" s="2">
-        <v>45827.49771214194</v>
+        <v>45835.41886852535</v>
       </c>
       <c r="E486">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F486" s="2">
-        <v>45826.4149537037</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -12386,16 +12386,16 @@
         <v>1</v>
       </c>
       <c r="C487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>45795.04201639877</v>
+        <v>45835.41886852581</v>
       </c>
       <c r="E487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F487" s="2">
-        <v>45601.7691550926</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D493" s="2">
-        <v>45814.82974449309</v>
+        <v>45835.41886852858</v>
       </c>
       <c r="E493">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F493" s="2">
-        <v>45814.68706018518</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D510" s="2">
-        <v>45833.77620283933</v>
+        <v>45835.41886852904</v>
       </c>
       <c r="E510">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F510" s="2">
-        <v>45833.68387731481</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -12977,16 +12977,16 @@
         <v>1</v>
       </c>
       <c r="C511">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="D511" s="2">
-        <v>45832.99937862915</v>
+        <v>45835.41886851429</v>
       </c>
       <c r="E511">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="F511" s="2">
-        <v>45832.61931712963</v>
+        <v>45834.80875</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -13545,16 +13545,16 @@
         <v>1</v>
       </c>
       <c r="C534">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D534" s="2">
-        <v>45833.77620283941</v>
+        <v>45835.4188227958</v>
       </c>
       <c r="E534">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F534" s="2">
-        <v>45833.68387731481</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D535" s="2">
-        <v>45833.77620283949</v>
+        <v>45835.41882279592</v>
       </c>
       <c r="E535">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F535" s="2">
-        <v>45833.68387731481</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -13643,16 +13643,16 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D538" s="2">
-        <v>45818.8014869473</v>
+        <v>45835.4188452876</v>
       </c>
       <c r="E538">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F538" s="2">
-        <v>45818.704375</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -13842,16 +13842,16 @@
         <v>1</v>
       </c>
       <c r="C546">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D546" s="2">
-        <v>45825.82707705627</v>
+        <v>45835.41884527467</v>
       </c>
       <c r="E546">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F546" s="2">
-        <v>45825.43016203704</v>
+        <v>45834.47268518519</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2540</v>
+        <v>2522</v>
       </c>
       <c r="D570" s="2">
-        <v>45827.49773230049</v>
+        <v>45835.41884529398</v>
       </c>
       <c r="E570">
-        <v>2540</v>
+        <v>2522</v>
       </c>
       <c r="F570" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.72398148148</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D631" s="2">
-        <v>45833.77618177476</v>
+        <v>45835.41884529043</v>
       </c>
       <c r="E631">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F631" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.68875</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -16077,16 +16077,16 @@
         <v>1</v>
       </c>
       <c r="C639">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D639" s="2">
-        <v>45832.99935919009</v>
+        <v>45835.41884528382</v>
       </c>
       <c r="E639">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F639" s="2">
-        <v>45832.385</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D657" s="2">
-        <v>45833.77620284192</v>
+        <v>45835.41882279603</v>
       </c>
       <c r="E657">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F657" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -17068,16 +17068,16 @@
         <v>1</v>
       </c>
       <c r="C680">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D680" s="2">
-        <v>45812.78301983239</v>
+        <v>45835.41884528782</v>
       </c>
       <c r="E680">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F680" s="2">
-        <v>45812.44633101852</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -17143,16 +17143,16 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D683" s="2">
-        <v>45833.77618177496</v>
+        <v>45835.41884529065</v>
       </c>
       <c r="E683">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F683" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.68875</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -17195,16 +17195,16 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="D685" s="2">
-        <v>45829.29943060628</v>
+        <v>45835.41886852949</v>
       </c>
       <c r="E685">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="F685" s="2">
-        <v>45828.71103009259</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -17290,16 +17290,16 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="D689" s="2">
-        <v>45820.91695281003</v>
+        <v>45835.41884527719</v>
       </c>
       <c r="E689">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="F689" s="2">
-        <v>45820.42355324074</v>
+        <v>45834.49197916667</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -17746,16 +17746,16 @@
         <v>1</v>
       </c>
       <c r="C707">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D707" s="2">
-        <v>45811.92552606984</v>
+        <v>45835.4188452813</v>
       </c>
       <c r="E707">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F707" s="2">
-        <v>45811.75159722222</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -17821,16 +17821,16 @@
         <v>1</v>
       </c>
       <c r="C710">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D710" s="2">
-        <v>45820.30820705828</v>
+        <v>45835.41882279613</v>
       </c>
       <c r="E710">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F710" s="2">
-        <v>45819.43508101852</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="D720" s="2">
-        <v>45833.77618177788</v>
+        <v>45835.41886852993</v>
       </c>
       <c r="E720">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="F720" s="2">
-        <v>45833.53011574074</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18098,16 +18098,16 @@
         <v>1</v>
       </c>
       <c r="C721">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="D721" s="2">
-        <v>45813.95785149008</v>
+        <v>45835.4188685304</v>
       </c>
       <c r="E721">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F721" s="2">
-        <v>45813.63019675926</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D726" s="2">
-        <v>45833.77618178036</v>
+        <v>45835.41886851384</v>
       </c>
       <c r="E726">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F726" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.79383101852</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D729" s="2">
-        <v>45831.83461825392</v>
+        <v>45835.41886852292</v>
       </c>
       <c r="E729">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F729" s="2">
-        <v>45831.67747685185</v>
+        <v>45835.39524305556</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18560,16 +18560,16 @@
         <v>1</v>
       </c>
       <c r="C739">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D739" s="2">
-        <v>45833.77618178056</v>
+        <v>45835.41882279451</v>
       </c>
       <c r="E739">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F739" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.39472222222</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -18687,16 +18687,16 @@
         <v>1</v>
       </c>
       <c r="C744">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D744" s="2">
-        <v>45820.91697502634</v>
+        <v>45835.41884528804</v>
       </c>
       <c r="E744">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F744" s="2">
-        <v>45820.70586805556</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -18739,16 +18739,16 @@
         <v>1</v>
       </c>
       <c r="C746">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D746" s="2">
-        <v>45833.77618177153</v>
+        <v>45835.41886850503</v>
       </c>
       <c r="E746">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F746" s="2">
-        <v>45833.42833333334</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G746">
         <v>0</v>
@@ -19007,16 +19007,16 @@
         <v>1</v>
       </c>
       <c r="C757">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D757" s="2">
-        <v>45831.83463792325</v>
+        <v>45835.41882279478</v>
       </c>
       <c r="E757">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F757" s="2">
-        <v>45831.81081018518</v>
+        <v>45834.40346064815</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D770" s="2">
-        <v>45832.9993786367</v>
+        <v>45835.41884529087</v>
       </c>
       <c r="E770">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F770" s="2">
-        <v>45832.71763888889</v>
+        <v>45834.68875</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D772" s="2">
-        <v>45833.77620284207</v>
+        <v>45835.41884527681</v>
       </c>
       <c r="E772">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F772" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.48739583333</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19809,16 +19809,16 @@
         <v>1</v>
       </c>
       <c r="C789">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D789" s="2">
-        <v>45795.04204563411</v>
+        <v>45835.41884527773</v>
       </c>
       <c r="E789">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F789" s="2">
-        <v>45749.61888888889</v>
+        <v>45834.50736111111</v>
       </c>
       <c r="G789">
         <v>0</v>
@@ -19858,16 +19858,16 @@
         <v>1</v>
       </c>
       <c r="C791">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D791" s="2">
-        <v>45800.9318881683</v>
+        <v>45835.41884529109</v>
       </c>
       <c r="E791">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F791" s="2">
-        <v>45800.63119212963</v>
+        <v>45834.68875</v>
       </c>
       <c r="G791">
         <v>0</v>
@@ -19979,16 +19979,16 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D796" s="2">
-        <v>45820.91697501973</v>
+        <v>45835.41886850783</v>
       </c>
       <c r="E796">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F796" s="2">
-        <v>45820.7009375</v>
+        <v>45834.77047453704</v>
       </c>
       <c r="G796">
         <v>0</v>
@@ -20132,16 +20132,16 @@
         <v>1</v>
       </c>
       <c r="C802">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D802" s="2">
-        <v>45795.04190003897</v>
+        <v>45835.41886850809</v>
       </c>
       <c r="E802">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F802" s="2">
-        <v>45653.63416666666</v>
+        <v>45834.47268518519</v>
       </c>
       <c r="G802">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D819" s="2">
-        <v>45821.87952449932</v>
+        <v>45835.41884528149</v>
       </c>
       <c r="E819">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F819" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20608,16 +20608,16 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D821" s="2">
-        <v>45828.40527173006</v>
+        <v>45835.4188452942</v>
       </c>
       <c r="E821">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F821" s="2">
-        <v>45827.55225694444</v>
+        <v>45834.72398148148</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="D826" s="2">
-        <v>45833.77620284015</v>
+        <v>45835.41886852162</v>
       </c>
       <c r="E826">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="F826" s="2">
-        <v>45833.68471064815</v>
+        <v>45835.39011574074</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="D844" s="2">
-        <v>45833.77620283956</v>
+        <v>45835.41886852205</v>
       </c>
       <c r="E844">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="F844" s="2">
-        <v>45833.68387731481</v>
+        <v>45835.39011574074</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D853" s="2">
-        <v>45833.77620284214</v>
+        <v>45835.41884528827</v>
       </c>
       <c r="E853">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F853" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D854" s="2">
-        <v>45834.28681886503</v>
+        <v>45835.41882279625</v>
       </c>
       <c r="E854">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F854" s="2">
-        <v>45833.87168981481</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21689,16 +21689,16 @@
         <v>1</v>
       </c>
       <c r="C865">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D865" s="2">
-        <v>45812.78303939045</v>
+        <v>45835.41884528167</v>
       </c>
       <c r="E865">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F865" s="2">
-        <v>45812.6909837963</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D883" s="2">
-        <v>45833.77620284105</v>
+        <v>45835.4188452922</v>
       </c>
       <c r="E883">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F883" s="2">
-        <v>45833.69550925926</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D888" s="2">
-        <v>45833.77620284224</v>
+        <v>45835.41884528404</v>
       </c>
       <c r="E888">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F888" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D898" s="2">
-        <v>45832.9993786308</v>
+        <v>45835.41886852248</v>
       </c>
       <c r="E898">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F898" s="2">
-        <v>45832.62315972222</v>
+        <v>45835.39106481482</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D924" s="2">
-        <v>45832.99937861844</v>
+        <v>45835.41882279776</v>
       </c>
       <c r="E924">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F924" s="2">
-        <v>45832.4434837963</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>1</v>
       </c>
       <c r="C944">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D944" s="2">
-        <v>45812.78301989438</v>
+        <v>45835.41886851069</v>
       </c>
       <c r="E944">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F944" s="2">
-        <v>45812.65958333333</v>
+        <v>45834.7849537037</v>
       </c>
       <c r="G944">
         <v>0</v>
@@ -24110,16 +24110,16 @@
         <v>1</v>
       </c>
       <c r="C961">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D961" s="2">
-        <v>45814.82968397064</v>
+        <v>45835.41884528185</v>
       </c>
       <c r="E961">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F961" s="2">
-        <v>45817.66995370371</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="D962" s="2">
-        <v>45831.83463792392</v>
+        <v>45835.41884528426</v>
       </c>
       <c r="E962">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F962" s="2">
-        <v>45831.81081018518</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1618</v>
+        <v>1558</v>
       </c>
       <c r="D963" s="2">
-        <v>45833.77618176898</v>
+        <v>45835.41884528448</v>
       </c>
       <c r="E963">
-        <v>1618</v>
+        <v>1558</v>
       </c>
       <c r="F963" s="2">
-        <v>45833.39194444445</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24826,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="D989" s="2">
-        <v>45795.0420164208</v>
+        <v>45835.4188452744</v>
       </c>
       <c r="E989">
         <v>0</v>
@@ -24999,16 +24999,16 @@
         <v>1</v>
       </c>
       <c r="C996">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D996" s="2">
-        <v>45814.82978481724</v>
+        <v>45835.41884528202</v>
       </c>
       <c r="E996">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F996" s="2">
-        <v>45814.74193287037</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G996">
         <v>0</v>
@@ -25181,16 +25181,16 @@
         <v>1</v>
       </c>
       <c r="C1003">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1003" s="2">
-        <v>45828.40527173869</v>
+        <v>45835.41886850942</v>
       </c>
       <c r="E1003">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F1003" s="2">
-        <v>45828.41831018519</v>
+        <v>45834.77811342593</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -25383,16 +25383,16 @@
         <v>1</v>
       </c>
       <c r="C1011">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1011" s="2">
-        <v>45827.49773229771</v>
+        <v>45835.41884527792</v>
       </c>
       <c r="E1011">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1011" s="2">
-        <v>45826.62177083334</v>
+        <v>45834.50736111111</v>
       </c>
       <c r="G1011">
         <v>0</v>
@@ -26546,16 +26546,16 @@
         <v>1</v>
       </c>
       <c r="C1057">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D1057" s="2">
-        <v>45795.04193352044</v>
+        <v>45835.41884528847</v>
       </c>
       <c r="E1057">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F1057" s="2">
-        <v>45679.66012731481</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1057">
         <v>0</v>
@@ -26598,16 +26598,16 @@
         <v>1</v>
       </c>
       <c r="C1059">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1059" s="2">
-        <v>45832.9993591907</v>
+        <v>45835.41884528868</v>
       </c>
       <c r="E1059">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1059" s="2">
-        <v>45832.385</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1059">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1061" s="2">
-        <v>45827.49771214332</v>
+        <v>45835.41884527645</v>
       </c>
       <c r="E1061">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1061" s="2">
-        <v>45826.46430555556</v>
+        <v>45834.48019675926</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -27028,16 +27028,16 @@
         <v>1</v>
       </c>
       <c r="C1076">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1076" s="2">
-        <v>45827.49771214131</v>
+        <v>45835.41882279501</v>
       </c>
       <c r="E1076">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1076" s="2">
-        <v>45826.3874074074</v>
+        <v>45834.43447916667</v>
       </c>
       <c r="G1076">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D1110" s="2">
-        <v>45833.77618177092</v>
+        <v>45835.41884528471</v>
       </c>
       <c r="E1110">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F1110" s="2">
-        <v>45833.42523148148</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>1</v>
       </c>
       <c r="C1116">
-        <v>77</v>
+        <v>-43</v>
       </c>
       <c r="D1116" s="2">
-        <v>45816.01481442774</v>
+        <v>45835.41886852118</v>
       </c>
       <c r="E1116">
-        <v>77</v>
+        <v>-43</v>
       </c>
       <c r="F1116" s="2">
-        <v>45815.959375</v>
+        <v>45835.38686342593</v>
       </c>
       <c r="G1116">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1133" s="2">
-        <v>45833.77618177536</v>
+        <v>45835.4188452889</v>
       </c>
       <c r="E1133">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F1133" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28479,16 +28479,16 @@
         <v>1</v>
       </c>
       <c r="C1134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1134" s="2">
-        <v>45812.78303939045</v>
+        <v>45835.4188685113</v>
       </c>
       <c r="E1134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1134" s="2">
-        <v>45812.68138888889</v>
+        <v>45834.78532407407</v>
       </c>
       <c r="G1134">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D1149" s="2">
-        <v>45833.77618177555</v>
+        <v>45835.41882279802</v>
       </c>
       <c r="E1149">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F1149" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -28909,16 +28909,16 @@
         <v>1</v>
       </c>
       <c r="C1151">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D1151" s="2">
-        <v>45820.30824423545</v>
+        <v>45835.4188452822</v>
       </c>
       <c r="E1151">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1151" s="2">
-        <v>45819.73233796296</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G1151">
         <v>0</v>
@@ -28987,16 +28987,16 @@
         <v>1</v>
       </c>
       <c r="C1154">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1154" s="2">
-        <v>45806.77600903736</v>
+        <v>45835.41884528493</v>
       </c>
       <c r="E1154">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1154" s="2">
-        <v>45806.44605324074</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G1154">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1155" s="2">
-        <v>45832.99937863713</v>
+        <v>45835.41886851026</v>
       </c>
       <c r="E1155">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1155" s="2">
-        <v>45832.71763888889</v>
+        <v>45834.7841550926</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29143,16 +29143,16 @@
         <v>1</v>
       </c>
       <c r="C1160">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1160" s="2">
-        <v>45810.72559945051</v>
+        <v>45835.41882279545</v>
       </c>
       <c r="E1160">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1160" s="2">
-        <v>45810.61395833334</v>
+        <v>45834.43501157407</v>
       </c>
       <c r="G1160">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="F1164" s="2">
-        <v>45797.75454861111</v>
+        <v>45834.77274305555</v>
       </c>
       <c r="G1164">
         <v>0</v>
@@ -29521,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C1175">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D1175" s="2">
-        <v>45820.91695281501</v>
+        <v>45835.41884528237</v>
       </c>
       <c r="E1175">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1175" s="2">
-        <v>45820.62943287037</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G1175">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1183" s="2">
-        <v>45831.83461824126</v>
+        <v>45835.4188452781</v>
       </c>
       <c r="E1183">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1183" s="2">
-        <v>45831.47940972223</v>
+        <v>45834.50736111111</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -29804,16 +29804,16 @@
         <v>1</v>
       </c>
       <c r="C1186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1186" s="2">
-        <v>45833.77620284091</v>
+        <v>45835.41884527906</v>
       </c>
       <c r="E1186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1186" s="2">
-        <v>45833.68996527778</v>
+        <v>45834.55</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1187" s="2">
-        <v>45827.49771214251</v>
+        <v>45835.41884528515</v>
       </c>
       <c r="E1187">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1187" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -31372,16 +31372,16 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D1247" s="2">
-        <v>45831.83463791644</v>
+        <v>45835.41884527487</v>
       </c>
       <c r="E1247">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F1247" s="2">
-        <v>45831.68162037037</v>
+        <v>45834.47268518519</v>
       </c>
       <c r="G1247">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="D1253" s="2">
-        <v>45833.77620284244</v>
+        <v>45835.41884527737</v>
       </c>
       <c r="E1253">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="F1253" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.5036574074</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31733,16 +31733,16 @@
         <v>1</v>
       </c>
       <c r="C1261">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D1261" s="2">
-        <v>45834.28681886605</v>
+        <v>45835.41884527507</v>
       </c>
       <c r="E1261">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F1261" s="2">
-        <v>45833.91274305555</v>
+        <v>45834.47268518519</v>
       </c>
       <c r="G1261">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>1</v>
       </c>
       <c r="C1262">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1262" s="2">
-        <v>45812.78301983239</v>
+        <v>45835.41884527534</v>
       </c>
       <c r="E1262">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1262" s="2">
-        <v>45812.32332175926</v>
+        <v>45834.47268518519</v>
       </c>
       <c r="G1262">
         <v>0</v>
@@ -32948,16 +32948,16 @@
         <v>1</v>
       </c>
       <c r="C1309">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D1309" s="2">
-        <v>45806.77603763194</v>
+        <v>45835.41882279822</v>
       </c>
       <c r="E1309">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F1309" s="2">
-        <v>45806.73914351852</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G1309">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D1332" s="2">
-        <v>45832.99937863045</v>
+        <v>45835.41884528255</v>
       </c>
       <c r="E1332">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F1332" s="2">
-        <v>45832.62121527778</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D1342" s="2">
-        <v>45833.77620283842</v>
+        <v>45835.41882279849</v>
       </c>
       <c r="E1342">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F1342" s="2">
-        <v>45833.66032407407</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34478,16 +34478,16 @@
         <v>1</v>
       </c>
       <c r="C1369">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D1369" s="2">
-        <v>45831.83463792026</v>
+        <v>45835.41886853085</v>
       </c>
       <c r="E1369">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F1369" s="2">
-        <v>45831.73116898148</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1369">
         <v>0</v>
@@ -34579,16 +34579,16 @@
         <v>1</v>
       </c>
       <c r="C1373">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D1373" s="2">
-        <v>45799.89536724822</v>
+        <v>45835.41884528536</v>
       </c>
       <c r="E1373">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F1373" s="2">
-        <v>45797.80143518518</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G1373">
         <v>0</v>
@@ -34885,16 +34885,16 @@
         <v>1</v>
       </c>
       <c r="C1385">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="D1385" s="2">
-        <v>45834.28681886399</v>
+        <v>45835.41884529132</v>
       </c>
       <c r="E1385">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="F1385" s="2">
-        <v>45833.85784722222</v>
+        <v>45834.68875</v>
       </c>
       <c r="G1385">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D1390" s="2">
-        <v>45828.40527173923</v>
+        <v>45835.41886850548</v>
       </c>
       <c r="E1390">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F1390" s="2">
-        <v>45828.41831018519</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35041,16 +35041,16 @@
         <v>1</v>
       </c>
       <c r="C1391">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D1391" s="2">
-        <v>45832.99935918702</v>
+        <v>45835.41884529242</v>
       </c>
       <c r="E1391">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F1391" s="2">
-        <v>45831.91627314815</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35604,16 +35604,16 @@
         <v>1</v>
       </c>
       <c r="C1413">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1413" s="2">
-        <v>45833.7762028385</v>
+        <v>45835.41882279867</v>
       </c>
       <c r="E1413">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1413" s="2">
-        <v>45833.66032407407</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -35806,16 +35806,16 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D1421" s="2">
-        <v>45820.91697502142</v>
+        <v>45835.41886853133</v>
       </c>
       <c r="E1421">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F1421" s="2">
-        <v>45820.7009375</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1421">
         <v>0</v>
@@ -35832,16 +35832,16 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1422" s="2">
-        <v>45811.92546678011</v>
+        <v>45835.41886853177</v>
       </c>
       <c r="E1422">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1422" s="2">
-        <v>45833.76759259259</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -35858,16 +35858,16 @@
         <v>1</v>
       </c>
       <c r="C1423">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1423" s="2">
-        <v>45806.77605776805</v>
+        <v>45835.4188685323</v>
       </c>
       <c r="E1423">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1423" s="2">
-        <v>45806.75375</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1423">
         <v>0</v>
@@ -36450,16 +36450,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1446" s="2">
-        <v>45833.77618177596</v>
+        <v>45835.41882279884</v>
       </c>
       <c r="E1446">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1446" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.44327546296</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36667,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="F1454" s="2">
-        <v>45180.77596064815</v>
+        <v>45834.78776620371</v>
       </c>
       <c r="G1454">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>5</v>
       </c>
       <c r="F1481" s="2">
-        <v>45811.77277777778</v>
+        <v>45834.77377314815</v>
       </c>
       <c r="G1481">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="C1483">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D1483" s="2">
-        <v>45818.30486081611</v>
+        <v>45835.41886853277</v>
       </c>
       <c r="E1483">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F1483" s="2">
-        <v>45817.41581018519</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1483">
         <v>0</v>
@@ -37962,16 +37962,16 @@
         <v>1</v>
       </c>
       <c r="C1506">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1506" s="2">
-        <v>45833.77620284294</v>
+        <v>45835.41882279512</v>
       </c>
       <c r="E1506">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1506" s="2">
-        <v>45833.76515046296</v>
+        <v>45834.43447916667</v>
       </c>
       <c r="G1506">
         <v>0</v>
@@ -37988,16 +37988,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D1507" s="2">
-        <v>45834.28681886305</v>
+        <v>45835.4188452759</v>
       </c>
       <c r="E1507">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="F1507" s="2">
-        <v>45833.85539351852</v>
+        <v>45834.47387731481</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -38040,16 +38040,16 @@
         <v>1</v>
       </c>
       <c r="C1509">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D1509" s="2">
-        <v>45831.83463791848</v>
+        <v>45835.41884528273</v>
       </c>
       <c r="E1509">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F1509" s="2">
-        <v>45831.69412037037</v>
+        <v>45834.62445601852</v>
       </c>
       <c r="G1509">
         <v>0</v>
@@ -38066,16 +38066,16 @@
         <v>1</v>
       </c>
       <c r="C1510">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="D1510" s="2">
-        <v>45806.77603763194</v>
+        <v>45835.41884528911</v>
       </c>
       <c r="E1510">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="F1510" s="2">
-        <v>45806.72811342592</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1510">
         <v>0</v>
@@ -39522,16 +39522,16 @@
         <v>1</v>
       </c>
       <c r="C1569">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D1569" s="2">
-        <v>45811.92546678011</v>
+        <v>45835.41886853323</v>
       </c>
       <c r="E1569">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1569" s="2">
-        <v>45811.50252314815</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1569">
         <v>0</v>
@@ -39701,16 +39701,16 @@
         <v>1</v>
       </c>
       <c r="C1576">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1576" s="2">
-        <v>45833.77620283971</v>
+        <v>45835.41886853368</v>
       </c>
       <c r="E1576">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F1576" s="2">
-        <v>45833.68387731481</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G1576">
         <v>0</v>
@@ -40145,16 +40145,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1594" s="2">
-        <v>45833.77620283723</v>
+        <v>45835.41886850575</v>
       </c>
       <c r="E1594">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F1594" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>4785</v>
+        <v>4736</v>
       </c>
       <c r="D1597" s="2">
-        <v>45833.77620284258</v>
+        <v>45835.41886850602</v>
       </c>
       <c r="E1597">
-        <v>4785</v>
+        <v>4736</v>
       </c>
       <c r="F1597" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40298,16 +40298,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1600" s="2">
-        <v>45833.77620283866</v>
+        <v>45835.41884528931</v>
       </c>
       <c r="E1600">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1600" s="2">
-        <v>45833.66032407407</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="F1606" s="2">
-        <v>45783.67943287037</v>
+        <v>45834.78859953704</v>
       </c>
       <c r="G1606">
         <v>0</v>
@@ -40751,16 +40751,16 @@
         <v>1</v>
       </c>
       <c r="C1618">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1618" s="2">
-        <v>45799.89536723674</v>
+        <v>45835.4188685121</v>
       </c>
       <c r="E1618">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1618" s="2">
-        <v>45797.63394675926</v>
+        <v>45834.78699074074</v>
       </c>
       <c r="G1618">
         <v>0</v>
@@ -40852,16 +40852,16 @@
         <v>1</v>
       </c>
       <c r="C1622">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D1622" s="2">
-        <v>45795.04177855738</v>
+        <v>45835.41884529463</v>
       </c>
       <c r="E1622">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F1622" s="2">
-        <v>45433.71140046296</v>
+        <v>45834.74021990741</v>
       </c>
       <c r="G1622">
         <v>0</v>
@@ -40930,16 +40930,16 @@
         <v>1</v>
       </c>
       <c r="C1625">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D1625" s="2">
-        <v>45831.83463792059</v>
+        <v>45835.41884527609</v>
       </c>
       <c r="E1625">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F1625" s="2">
-        <v>45831.73116898148</v>
+        <v>45834.47957175926</v>
       </c>
       <c r="G1625">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2588</v>
+        <v>2440</v>
       </c>
       <c r="D1635" s="2">
-        <v>45833.77620284265</v>
+        <v>45835.41886850628</v>
       </c>
       <c r="E1635">
-        <v>2588</v>
+        <v>2440</v>
       </c>
       <c r="F1635" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -42721,16 +42721,16 @@
         <v>1</v>
       </c>
       <c r="C1697">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1697" s="2">
-        <v>45833.77618177616</v>
+        <v>45835.41886851169</v>
       </c>
       <c r="E1697">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F1697" s="2">
-        <v>45833.48585648148</v>
+        <v>45834.7858449074</v>
       </c>
       <c r="G1697">
         <v>0</v>
@@ -43998,16 +43998,16 @@
         <v>1</v>
       </c>
       <c r="C1749">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1749" s="2">
-        <v>45799.89545110933</v>
+        <v>45835.41882279523</v>
       </c>
       <c r="E1749">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1749" s="2">
-        <v>45791.65957175926</v>
+        <v>45834.43447916667</v>
       </c>
       <c r="G1749">
         <v>0</v>
@@ -45455,16 +45455,16 @@
         <v>1</v>
       </c>
       <c r="C1807">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D1807" s="2">
-        <v>45825.82710087761</v>
+        <v>45835.4188452829</v>
       </c>
       <c r="E1807">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F1807" s="2">
-        <v>45825.66334490741</v>
+        <v>45834.62490740741</v>
       </c>
       <c r="G1807">
         <v>0</v>
@@ -45865,16 +45865,16 @@
         <v>1</v>
       </c>
       <c r="C1823">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D1823" s="2">
-        <v>45825.82707706427</v>
+        <v>45835.41884528953</v>
       </c>
       <c r="E1823">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F1823" s="2">
-        <v>45831.52096064815</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G1823">
         <v>0</v>
@@ -45891,16 +45891,16 @@
         <v>1</v>
       </c>
       <c r="C1824">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1824" s="2">
-        <v>45833.77618176959</v>
+        <v>45835.41882279467</v>
       </c>
       <c r="E1824">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1824" s="2">
-        <v>45833.42410879629</v>
+        <v>45834.39472222222</v>
       </c>
       <c r="G1824">
         <v>0</v>
@@ -46399,16 +46399,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D1844" s="2">
-        <v>45831.83461824803</v>
+        <v>45835.41884528564</v>
       </c>
       <c r="E1844">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F1844" s="2">
-        <v>45831.53259259259</v>
+        <v>45834.66123842593</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -47453,7 +47453,7 @@
         <v>21</v>
       </c>
       <c r="F1885" s="2">
-        <v>45813.65701388889</v>
+        <v>45834.77680555556</v>
       </c>
       <c r="G1885">
         <v>0</v>
@@ -48018,16 +48018,16 @@
         <v>1</v>
       </c>
       <c r="C1908">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1908" s="2">
-        <v>45804.91952539605</v>
+        <v>45835.41886852624</v>
       </c>
       <c r="E1908">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1908" s="2">
-        <v>45804.39973379629</v>
+        <v>45835.40229166667</v>
       </c>
       <c r="G1908">
         <v>0</v>
@@ -48275,16 +48275,16 @@
         <v>1</v>
       </c>
       <c r="C1918">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1918" s="2">
-        <v>45799.89532166889</v>
+        <v>45835.41882279535</v>
       </c>
       <c r="E1918">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F1918" s="2">
-        <v>45791.65796296296</v>
+        <v>45834.43447916667</v>
       </c>
       <c r="G1918">
         <v>0</v>
@@ -49046,7 +49046,7 @@
         <v>2</v>
       </c>
       <c r="F1948" s="2">
-        <v>45825.55291666667</v>
+        <v>45834.78324074074</v>
       </c>
       <c r="G1948">
         <v>0</v>
@@ -51160,16 +51160,16 @@
         <v>1</v>
       </c>
       <c r="C2033">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D2033" s="2">
-        <v>45834.28681886572</v>
+        <v>45835.41884529442</v>
       </c>
       <c r="E2033">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F2033" s="2">
-        <v>45833.87530092592</v>
+        <v>45834.72398148148</v>
       </c>
       <c r="G2033">
         <v>0</v>
@@ -51772,16 +51772,16 @@
         <v>1</v>
       </c>
       <c r="C2057">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2057" s="2">
-        <v>45795.0420164208</v>
+        <v>45835.41886850883</v>
       </c>
       <c r="E2057">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2057" s="2">
-        <v>45741.73041666667</v>
+        <v>45834.77559027778</v>
       </c>
       <c r="G2057">
         <v>0</v>
@@ -51899,16 +51899,16 @@
         <v>1</v>
       </c>
       <c r="C2062">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D2062" s="2">
-        <v>45833.77620283788</v>
+        <v>45835.41884527926</v>
       </c>
       <c r="E2062">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F2062" s="2">
-        <v>45833.63289351852</v>
+        <v>45834.56423611111</v>
       </c>
       <c r="G2062">
         <v>0</v>
@@ -52828,16 +52828,16 @@
         <v>1</v>
       </c>
       <c r="C2099">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2099" s="2">
-        <v>45832.99935919733</v>
+        <v>45835.41884528974</v>
       </c>
       <c r="E2099">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2099" s="2">
-        <v>45832.42351851852</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G2099">
         <v>0</v>
@@ -52958,16 +52958,16 @@
         <v>1</v>
       </c>
       <c r="C2104">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2104" s="2">
-        <v>45833.77618176939</v>
+        <v>45835.41884527662</v>
       </c>
       <c r="E2104">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2104" s="2">
-        <v>45833.40459490741</v>
+        <v>45834.48019675926</v>
       </c>
       <c r="G2104">
         <v>0</v>
@@ -53630,16 +53630,16 @@
         <v>1</v>
       </c>
       <c r="C2131">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2131" s="2">
-        <v>45832.99935919419</v>
+        <v>45835.41886853471</v>
       </c>
       <c r="E2131">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2131" s="2">
-        <v>45530.62824074074</v>
+        <v>45835.41170138889</v>
       </c>
       <c r="G2131">
         <v>0</v>
@@ -56036,16 +56036,16 @@
         <v>1</v>
       </c>
       <c r="C2227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2227" s="2">
-        <v>45795.04208095842</v>
+        <v>45835.41884527755</v>
       </c>
       <c r="E2227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2227" s="2">
-        <v>45763.60134259259</v>
+        <v>45834.50642361111</v>
       </c>
       <c r="G2227">
         <v>0</v>
@@ -56374,16 +56374,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D2240" s="2">
-        <v>45831.83461825244</v>
+        <v>45835.41884528997</v>
       </c>
       <c r="E2240">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F2240" s="2">
-        <v>45831.6752662037</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -56400,16 +56400,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D2241" s="2">
-        <v>45833.77620284271</v>
+        <v>45835.41884529021</v>
       </c>
       <c r="E2241">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F2241" s="2">
-        <v>45833.73585648148</v>
+        <v>45834.68826388889</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -56977,16 +56977,16 @@
         <v>1</v>
       </c>
       <c r="C2264">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="D2264" s="2">
-        <v>45829.29943059482</v>
+        <v>45835.41886851937</v>
       </c>
       <c r="E2264">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="F2264" s="2">
-        <v>45828.49071759259</v>
+        <v>45834.83524305555</v>
       </c>
       <c r="G2264">
         <v>0</v>
@@ -58281,16 +58281,16 @@
         <v>1</v>
       </c>
       <c r="C2316">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2316" s="2">
-        <v>45806.77600903736</v>
+        <v>45835.41886852076</v>
       </c>
       <c r="E2316">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2316" s="2">
-        <v>45806.65982638889</v>
+        <v>45835.38550925926</v>
       </c>
       <c r="G2316">
         <v>0</v>
@@ -59057,16 +59057,16 @@
         <v>1</v>
       </c>
       <c r="C2347">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2347" s="2">
-        <v>45795.04199224871</v>
+        <v>45835.41886852356</v>
       </c>
       <c r="E2347">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2347" s="2">
-        <v>45693.60271990741</v>
+        <v>45834.77478009259</v>
       </c>
       <c r="G2347">
         <v>0</v>
@@ -60542,7 +60542,7 @@
         <v>0</v>
       </c>
       <c r="D2407" s="2">
-        <v>45795.04210567895</v>
+        <v>45835.41886851475</v>
       </c>
       <c r="E2407">
         <v>0</v>
@@ -60770,10 +60770,10 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2416" s="2">
-        <v>45833.77618177112</v>
+        <v>45835.41886853738</v>
       </c>
       <c r="E2416">
         <v>96</v>
@@ -60782,10 +60782,10 @@
         <v>45833.42523148148</v>
       </c>
       <c r="G2416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61831,16 +61831,16 @@
         <v>1</v>
       </c>
       <c r="C2459">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2459" s="2">
-        <v>45813.95785146693</v>
+        <v>45835.41886850654</v>
       </c>
       <c r="E2459">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2459" s="2">
-        <v>45813.57788194445</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G2459">
         <v>0</v>
@@ -62191,16 +62191,16 @@
         <v>1</v>
       </c>
       <c r="C2474">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="D2474" s="2">
-        <v>45795.04210567895</v>
+        <v>45835.41886850681</v>
       </c>
       <c r="E2474">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F2474" s="2">
-        <v>45777.72261574074</v>
+        <v>45834.75673611111</v>
       </c>
       <c r="G2474">
         <v>0</v>
@@ -62364,16 +62364,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="D2481" s="2">
-        <v>45833.77620283741</v>
+        <v>45835.41884529264</v>
       </c>
       <c r="E2481">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F2481" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62390,16 +62390,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="D2482" s="2">
-        <v>45833.77620283749</v>
+        <v>45835.41884529286</v>
       </c>
       <c r="E2482">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="F2482" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62416,16 +62416,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1137</v>
+        <v>1103</v>
       </c>
       <c r="D2483" s="2">
-        <v>45833.77620283757</v>
+        <v>45835.41884529308</v>
       </c>
       <c r="E2483">
-        <v>1137</v>
+        <v>1103</v>
       </c>
       <c r="F2483" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62442,16 +62442,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="D2484" s="2">
-        <v>45833.77620283764</v>
+        <v>45835.4188452933</v>
       </c>
       <c r="E2484">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="F2484" s="2">
-        <v>45833.54157407407</v>
+        <v>45834.68922453704</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -63088,7 +63088,7 @@
         <v>0</v>
       </c>
       <c r="F2510" s="2">
-        <v>45798.63130787037</v>
+        <v>45834.75928240741</v>
       </c>
       <c r="G2510">
         <v>0</v>
@@ -64946,16 +64946,16 @@
         <v>1</v>
       </c>
       <c r="C2587">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2587" s="2">
-        <v>45833.7762028428</v>
+        <v>45835.41884527847</v>
       </c>
       <c r="E2587">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2587" s="2">
-        <v>45833.68996527778</v>
+        <v>45834.54884259259</v>
       </c>
       <c r="G2587">
         <v>0</v>
@@ -65010,6 +65010,29 @@
         <v>0</v>
       </c>
       <c r="H2589" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:8">
+      <c r="A2590">
+        <v>43900873</v>
+      </c>
+      <c r="B2590">
+        <v>1</v>
+      </c>
+      <c r="C2590">
+        <v>0</v>
+      </c>
+      <c r="D2590" s="2">
+        <v>45835.41886852033</v>
+      </c>
+      <c r="E2590">
+        <v>0</v>
+      </c>
+      <c r="G2590">
+        <v>0</v>
+      </c>
+      <c r="H2590" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>45835.41886850734</v>
+        <v>45836.30897486053</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>45834.76429398148</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
-        <v>45833.77620284134</v>
+        <v>45836.3089748608</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2817</v>
+        <v>2810</v>
       </c>
       <c r="D33" s="2">
-        <v>45835.41886852672</v>
+        <v>45836.30888100162</v>
       </c>
       <c r="E33">
-        <v>2817</v>
+        <v>2810</v>
       </c>
       <c r="F33" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2">
-        <v>45799.89532166889</v>
+        <v>45836.30897485641</v>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" s="2">
-        <v>45791.54950231482</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="2">
-        <v>45835.41884527984</v>
+        <v>45836.30888098727</v>
       </c>
       <c r="E63">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F63" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
-        <v>45835.41884527552</v>
+        <v>45836.30897485668</v>
       </c>
       <c r="E69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2">
-        <v>45834.47387731481</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D70" s="2">
-        <v>45835.41884528002</v>
+        <v>45836.30897486785</v>
       </c>
       <c r="E70">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.74</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D81" s="2">
-        <v>45835.41884528021</v>
+        <v>45836.30897485223</v>
       </c>
       <c r="E81">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F81" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.69004629629</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D83" s="2">
-        <v>45833.77618176836</v>
+        <v>45836.30897486107</v>
       </c>
       <c r="E83">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F83" s="2">
-        <v>45833.39194444445</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D85" s="2">
-        <v>45825.82707705093</v>
+        <v>45836.3089748616</v>
       </c>
       <c r="E85">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2">
-        <v>45831.52096064815</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="2">
-        <v>45835.41884529375</v>
+        <v>45836.30897486187</v>
       </c>
       <c r="E86">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F86" s="2">
-        <v>45834.72398148148</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D87" s="2">
-        <v>45833.77618176855</v>
+        <v>45836.30897486214</v>
       </c>
       <c r="E87">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2">
-        <v>45833.39194444445</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="F90" s="2">
-        <v>45832.61931712963</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D91" s="2">
-        <v>45835.41884528308</v>
+        <v>45836.30897485695</v>
       </c>
       <c r="E91">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2">
-        <v>45834.66114583334</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" s="2">
-        <v>45835.41884529154</v>
+        <v>45836.30888100215</v>
       </c>
       <c r="E94">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2872,22 +2872,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2173</v>
+        <v>2103</v>
       </c>
       <c r="D101" s="2">
-        <v>45835.41886853563</v>
+        <v>45836.30897486242</v>
       </c>
       <c r="E101">
-        <v>2179</v>
+        <v>2103</v>
       </c>
       <c r="F101" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2999,16 +2999,16 @@
         <v>45832.99937861376</v>
       </c>
       <c r="E106">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F106" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.4387037037</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D117" s="2">
-        <v>45835.41884528586</v>
+        <v>45836.30888099633</v>
       </c>
       <c r="E117">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F117" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.62402777778</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="D120" s="2">
-        <v>45835.41886852442</v>
+        <v>45836.30888100262</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F120" s="2">
-        <v>45835.40229166667</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D123" s="2">
-        <v>45835.41884528039</v>
+        <v>45836.30897486269</v>
       </c>
       <c r="E123">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F123" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="D125" s="2">
-        <v>45835.41884529174</v>
+        <v>45836.30897484704</v>
       </c>
       <c r="E125">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="F125" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D128" s="2">
-        <v>45835.41886850289</v>
+        <v>45836.30897485722</v>
       </c>
       <c r="E128">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D141" s="2">
-        <v>45835.41884528606</v>
+        <v>45836.30897484742</v>
       </c>
       <c r="E141">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F141" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4942,16 +4942,16 @@
         <v>45835.41886853608</v>
       </c>
       <c r="E185">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F185" s="2">
-        <v>45832.45439814815</v>
+        <v>45835.44033564815</v>
       </c>
       <c r="G185">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>-145</v>
+        <v>-147</v>
       </c>
       <c r="D191" s="2">
-        <v>45832.99937862826</v>
+        <v>45836.3089748575</v>
       </c>
       <c r="E191">
-        <v>-145</v>
+        <v>-147</v>
       </c>
       <c r="F191" s="2">
-        <v>45832.61931712963</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5253,16 +5253,16 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D198" s="2">
-        <v>45832.99935919594</v>
+        <v>45836.30897485779</v>
       </c>
       <c r="E198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F198" s="2">
-        <v>45832.42351851852</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D200" s="2">
-        <v>45827.49773229584</v>
+        <v>45836.3089748525</v>
       </c>
       <c r="E200">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F200" s="2">
-        <v>45826.57192129629</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206" s="2">
-        <v>45833.77620284163</v>
+        <v>45836.30897486812</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F206" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.74</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="D247" s="2">
-        <v>45835.41882279557</v>
+        <v>45836.30897485278</v>
       </c>
       <c r="E247">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F247" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="D255" s="2">
-        <v>45835.41884529197</v>
+        <v>45836.30897486841</v>
       </c>
       <c r="E255">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F255" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.74</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2">
-        <v>45827.4977322983</v>
+        <v>45836.30888098775</v>
       </c>
       <c r="E270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F270" s="2">
-        <v>45826.65341435185</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>284</v>
       </c>
       <c r="F274" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7123,19 +7123,19 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D275" s="2">
-        <v>45795.04193352044</v>
+        <v>45836.30897485305</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H275" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D283" s="2">
-        <v>45833.77618177031</v>
+        <v>45836.30897486296</v>
       </c>
       <c r="E283">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F283" s="2">
-        <v>45833.42523148148</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D291" s="2">
-        <v>45835.41884528344</v>
+        <v>45836.30888098824</v>
       </c>
       <c r="E291">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F291" s="2">
-        <v>45834.66123842593</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D292" s="2">
-        <v>45833.77620284052</v>
+        <v>45836.30897486322</v>
       </c>
       <c r="E292">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F292" s="2">
-        <v>45833.68996527778</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D295" s="2">
-        <v>45835.41884528649</v>
+        <v>45836.30897485331</v>
       </c>
       <c r="E295">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F295" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7688,16 +7688,16 @@
         <v>1</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D298" s="2">
-        <v>45795.04166331712</v>
+        <v>45836.30897486348</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F298" s="2">
-        <v>45356.60839120371</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="D309" s="2">
-        <v>45835.41884528092</v>
+        <v>45836.30897485807</v>
       </c>
       <c r="E309">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F309" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8077,16 +8077,16 @@
         <v>45835.41884528672</v>
       </c>
       <c r="E314">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F314" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D319" s="2">
-        <v>45832.99937863422</v>
+        <v>45836.30888098404</v>
       </c>
       <c r="E319">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F319" s="2">
-        <v>45832.66791666667</v>
+        <v>45835.47785879629</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D346" s="2">
-        <v>45835.41884528111</v>
+        <v>45836.30897486376</v>
       </c>
       <c r="E346">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F346" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1188</v>
+        <v>1162</v>
       </c>
       <c r="D351" s="2">
-        <v>45835.41884528693</v>
+        <v>45836.30888100008</v>
       </c>
       <c r="E351">
-        <v>1188</v>
+        <v>1162</v>
       </c>
       <c r="F351" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.6687962963</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D358" s="2">
-        <v>45833.77618177677</v>
+        <v>45836.30897484773</v>
       </c>
       <c r="E358">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F358" s="2">
-        <v>45833.52721064815</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D363" s="2">
-        <v>45835.41884528715</v>
+        <v>45836.30888099663</v>
       </c>
       <c r="E363">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F363" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.62402777778</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9438,16 +9438,16 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D369" s="2">
-        <v>45813.95785145537</v>
+        <v>45836.30897485356</v>
       </c>
       <c r="E369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F369" s="2">
-        <v>45813.51170138889</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D379" s="2">
-        <v>45833.77620283888</v>
+        <v>45836.30897485836</v>
       </c>
       <c r="E379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F379" s="2">
-        <v>45833.66048611111</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="D390" s="2">
-        <v>45835.41884528737</v>
+        <v>45836.30897486402</v>
       </c>
       <c r="E390">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="F390" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>1</v>
       </c>
       <c r="C392">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D392" s="2">
-        <v>45820.30820706037</v>
+        <v>45836.30897486428</v>
       </c>
       <c r="E392">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F392" s="2">
-        <v>45819.51405092593</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G392">
         <v>0</v>
@@ -10070,22 +10070,22 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D394" s="2">
-        <v>45835.41886853651</v>
+        <v>45836.30897484803</v>
       </c>
       <c r="E394">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F394" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G394">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D402" s="2">
-        <v>45835.41886851686</v>
+        <v>45836.30897485864</v>
       </c>
       <c r="E402">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F402" s="2">
-        <v>45834.82476851852</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10295,16 +10295,16 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D403" s="2">
-        <v>45833.77620284185</v>
+        <v>45836.30888098874</v>
       </c>
       <c r="E403">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F403" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D404" s="2">
-        <v>45835.41886851808</v>
+        <v>45836.30897485383</v>
       </c>
       <c r="E404">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F404" s="2">
-        <v>45834.82445601852</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="D410" s="2">
-        <v>45835.41886850415</v>
+        <v>45836.30897486457</v>
       </c>
       <c r="E410">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="F410" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D418" s="2">
-        <v>45835.41886850446</v>
+        <v>45836.30897486483</v>
       </c>
       <c r="E418">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F418" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -11114,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="C436">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D436" s="2">
-        <v>45825.82707706593</v>
+        <v>45836.30897486874</v>
       </c>
       <c r="E436">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F436" s="2">
-        <v>45825.55291666667</v>
+        <v>45835.74</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>45831.8346379186</v>
+        <v>45836.30888098924</v>
       </c>
       <c r="E472">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F472" s="2">
-        <v>45831.70024305556</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -12207,22 +12207,22 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D480" s="2">
-        <v>45835.41886853694</v>
+        <v>45836.30888099237</v>
       </c>
       <c r="E480">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F480" s="2">
-        <v>45833.53011574074</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D493" s="2">
-        <v>45835.41886852858</v>
+        <v>45836.30897484833</v>
       </c>
       <c r="E493">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F493" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D510" s="2">
-        <v>45835.41886852904</v>
+        <v>45836.30897484861</v>
       </c>
       <c r="E510">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F510" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -12986,7 +12986,7 @@
         <v>16</v>
       </c>
       <c r="F511" s="2">
-        <v>45834.80875</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D531" s="2">
-        <v>45825.82707706773</v>
+        <v>45836.30888098972</v>
       </c>
       <c r="E531">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F531" s="2">
-        <v>45825.61665509259</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="D570" s="2">
-        <v>45835.41884529398</v>
+        <v>45836.3088809976</v>
       </c>
       <c r="E570">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="F570" s="2">
-        <v>45834.72398148148</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D581" s="2">
-        <v>45833.7762028408</v>
+        <v>45836.3089748489</v>
       </c>
       <c r="E581">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F581" s="2">
-        <v>45833.68996527778</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15642,16 +15642,16 @@
         <v>1</v>
       </c>
       <c r="C621">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D621" s="2">
-        <v>45807.78640665444</v>
+        <v>45836.30897484919</v>
       </c>
       <c r="E621">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F621" s="2">
-        <v>45807.69886574074</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D631" s="2">
-        <v>45835.41884529043</v>
+        <v>45836.30897484948</v>
       </c>
       <c r="E631">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F631" s="2">
-        <v>45834.68875</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D634" s="2">
-        <v>45831.83463791761</v>
+        <v>45836.3089748589</v>
       </c>
       <c r="E634">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F634" s="2">
-        <v>45831.69412037037</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="D657" s="2">
-        <v>45835.41882279603</v>
+        <v>45836.30897486904</v>
       </c>
       <c r="E657">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="F657" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.74</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16593,7 +16593,7 @@
         <v>385</v>
       </c>
       <c r="F660" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17417,16 +17417,16 @@
         <v>1</v>
       </c>
       <c r="C694">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D694" s="2">
-        <v>45827.49773230397</v>
+        <v>45836.30888099004</v>
       </c>
       <c r="E694">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F694" s="2">
-        <v>45827.46559027778</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -17919,16 +17919,16 @@
         <v>1</v>
       </c>
       <c r="C714">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D714" s="2">
-        <v>45820.91695281032</v>
+        <v>45836.3089748651</v>
       </c>
       <c r="E714">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F714" s="2">
-        <v>45820.42355324074</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D720" s="2">
-        <v>45835.41886852993</v>
+        <v>45836.30897484976</v>
       </c>
       <c r="E720">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F720" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D726" s="2">
-        <v>45835.41886851384</v>
+        <v>45836.30897486539</v>
       </c>
       <c r="E726">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F726" s="2">
-        <v>45834.79383101852</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D732" s="2">
-        <v>45833.77618177808</v>
+        <v>45836.30888099788</v>
       </c>
       <c r="E732">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F732" s="2">
-        <v>45833.53011574074</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -19059,16 +19059,16 @@
         <v>1</v>
       </c>
       <c r="C759">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D759" s="2">
-        <v>45832.99937862662</v>
+        <v>45836.30897485425</v>
       </c>
       <c r="E759">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F759" s="2">
-        <v>45832.55858796297</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -19232,16 +19232,16 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D766" s="2">
-        <v>45831.83461824918</v>
+        <v>45836.30888099704</v>
       </c>
       <c r="E766">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F766" s="2">
-        <v>45831.63623842593</v>
+        <v>45835.62402777778</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D778" s="2">
-        <v>45832.99935919678</v>
+        <v>45836.30897486939</v>
       </c>
       <c r="E778">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F778" s="2">
-        <v>45832.42351851852</v>
+        <v>45835.74</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -19711,16 +19711,16 @@
         <v>1</v>
       </c>
       <c r="C785">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D785" s="2">
-        <v>45799.89528857399</v>
+        <v>45836.30888099821</v>
       </c>
       <c r="E785">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F785" s="2">
-        <v>45782.5897800926</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G785">
         <v>0</v>
@@ -20132,22 +20132,22 @@
         <v>1</v>
       </c>
       <c r="C802">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="D802" s="2">
-        <v>45835.41886850809</v>
+        <v>45836.30888098352</v>
       </c>
       <c r="E802">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F802" s="2">
-        <v>45834.47268518519</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G802">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H802" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="F810" s="2">
-        <v>45833.65263888889</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20608,16 +20608,16 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D821" s="2">
-        <v>45835.4188452942</v>
+        <v>45836.30897485917</v>
       </c>
       <c r="E821">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F821" s="2">
-        <v>45834.72398148148</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="D826" s="2">
-        <v>45835.41886852162</v>
+        <v>45836.30888099508</v>
       </c>
       <c r="E826">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F826" s="2">
-        <v>45835.39011574074</v>
+        <v>45835.60731481481</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D844" s="2">
-        <v>45835.41886852205</v>
+        <v>45836.30897485452</v>
       </c>
       <c r="E844">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F844" s="2">
-        <v>45835.39011574074</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21190,16 +21190,16 @@
         <v>1</v>
       </c>
       <c r="C845">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D845" s="2">
-        <v>45795.04171906877</v>
+        <v>45836.30897485005</v>
       </c>
       <c r="E845">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F845" s="2">
-        <v>45482.62408564815</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G845">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D853" s="2">
-        <v>45835.41884528827</v>
+        <v>45836.30888099033</v>
       </c>
       <c r="E853">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F853" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D872" s="2">
-        <v>45831.83463792923</v>
+        <v>45836.30897486969</v>
       </c>
       <c r="E872">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F872" s="2">
-        <v>45831.81233796296</v>
+        <v>45835.74</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D876" s="2">
-        <v>45831.83461825422</v>
+        <v>45836.30888099733</v>
       </c>
       <c r="E876">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F876" s="2">
-        <v>45831.67747685185</v>
+        <v>45835.62402777778</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="D883" s="2">
-        <v>45835.4188452922</v>
+        <v>45836.30897486569</v>
       </c>
       <c r="E883">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="F883" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22272,16 +22272,16 @@
         <v>1</v>
       </c>
       <c r="C888">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D888" s="2">
-        <v>45835.41884528404</v>
+        <v>45836.30897485479</v>
       </c>
       <c r="E888">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F888" s="2">
-        <v>45834.66123842593</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D898" s="2">
-        <v>45835.41886852248</v>
+        <v>45836.30888100039</v>
       </c>
       <c r="E898">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F898" s="2">
-        <v>45835.39106481482</v>
+        <v>45835.6687962963</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -23083,16 +23083,16 @@
         <v>1</v>
       </c>
       <c r="C920">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D920" s="2">
-        <v>45806.77605776805</v>
+        <v>45836.30888099851</v>
       </c>
       <c r="E920">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F920" s="2">
-        <v>45806.75375</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G920">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D924" s="2">
-        <v>45835.41882279776</v>
+        <v>45836.30897487089</v>
       </c>
       <c r="E924">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="F924" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.76293981481</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="D963" s="2">
-        <v>45835.41884528448</v>
+        <v>45836.30897487001</v>
       </c>
       <c r="E963">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="F963" s="2">
-        <v>45834.66123842593</v>
+        <v>45835.74</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24390,16 +24390,16 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D972" s="2">
-        <v>45831.83461824097</v>
+        <v>45836.3088810007</v>
       </c>
       <c r="E972">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F972" s="2">
-        <v>45831.47940972223</v>
+        <v>45835.6687962963</v>
       </c>
       <c r="G972">
         <v>0</v>
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1018" s="2">
-        <v>45834.28681886329</v>
+        <v>45836.30897485506</v>
       </c>
       <c r="E1018">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1018" s="2">
-        <v>45833.85578703704</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25937,16 +25937,16 @@
         <v>1</v>
       </c>
       <c r="C1033">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1033" s="2">
-        <v>45810.72559945051</v>
+        <v>45836.30897485031</v>
       </c>
       <c r="E1033">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F1033" s="2">
-        <v>45810.61577546296</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G1033">
         <v>0</v>
@@ -26116,16 +26116,16 @@
         <v>1</v>
       </c>
       <c r="C1040">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D1040" s="2">
-        <v>45810.72559943295</v>
+        <v>45836.30897485944</v>
       </c>
       <c r="E1040">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1040" s="2">
-        <v>45810.51450231481</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G1040">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D1062" s="2">
-        <v>45833.77620284113</v>
+        <v>45836.30897486595</v>
       </c>
       <c r="E1062">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F1062" s="2">
-        <v>45833.69792824074</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C1110">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1110" s="2">
-        <v>45835.41884528471</v>
+        <v>45836.30888099061</v>
       </c>
       <c r="E1110">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1110" s="2">
-        <v>45834.66123842593</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G1110">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1147" s="2">
-        <v>45833.77620284236</v>
+        <v>45836.30897487031</v>
       </c>
       <c r="E1147">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F1147" s="2">
-        <v>45833.73585648148</v>
+        <v>45835.74</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D1149" s="2">
-        <v>45835.41882279802</v>
+        <v>45836.30888098301</v>
       </c>
       <c r="E1149">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F1149" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.47430555556</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1155" s="2">
-        <v>45835.41886851026</v>
+        <v>45836.30888099883</v>
       </c>
       <c r="E1155">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1155" s="2">
-        <v>45834.7841550926</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -30734,16 +30734,16 @@
         <v>1</v>
       </c>
       <c r="C1222">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D1222" s="2">
-        <v>45832.99935919129</v>
+        <v>45836.30897487117</v>
       </c>
       <c r="E1222">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F1222" s="2">
-        <v>45832.385</v>
+        <v>45835.76293981481</v>
       </c>
       <c r="G1222">
         <v>0</v>
@@ -30913,16 +30913,16 @@
         <v>1</v>
       </c>
       <c r="C1229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1229" s="2">
-        <v>45795.04208095842</v>
+        <v>45836.30897485972</v>
       </c>
       <c r="E1229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1229" s="2">
-        <v>45764.66196759259</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G1229">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D1253" s="2">
-        <v>45835.41884527737</v>
+        <v>45836.30897487145</v>
       </c>
       <c r="E1253">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="F1253" s="2">
-        <v>45834.5036574074</v>
+        <v>45835.76293981481</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -32097,16 +32097,16 @@
         <v>1</v>
       </c>
       <c r="C1275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1275" s="2">
-        <v>45805.91875154599</v>
+        <v>45836.30888099915</v>
       </c>
       <c r="E1275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1275" s="2">
-        <v>45805.70869212963</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G1275">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D1332" s="2">
-        <v>45835.41884528255</v>
+        <v>45836.3089748706</v>
       </c>
       <c r="E1332">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F1332" s="2">
-        <v>45834.62445601852</v>
+        <v>45835.74</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D1342" s="2">
-        <v>45835.41882279849</v>
+        <v>45836.30897485059</v>
       </c>
       <c r="E1342">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F1342" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34481,7 +34481,7 @@
         <v>-1</v>
       </c>
       <c r="D1369" s="2">
-        <v>45835.41886853085</v>
+        <v>45836.30888098675</v>
       </c>
       <c r="E1369">
         <v>-1</v>
@@ -35298,7 +35298,7 @@
         <v>0</v>
       </c>
       <c r="D1401" s="2">
-        <v>45795.04177855738</v>
+        <v>45836.30888098569</v>
       </c>
       <c r="E1401">
         <v>0</v>
@@ -35604,16 +35604,16 @@
         <v>1</v>
       </c>
       <c r="C1413">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1413" s="2">
-        <v>45835.41882279867</v>
+        <v>45836.30897485532</v>
       </c>
       <c r="E1413">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F1413" s="2">
-        <v>45834.44327546296</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -35806,16 +35806,16 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1421" s="2">
-        <v>45835.41886853133</v>
+        <v>45836.30897485088</v>
       </c>
       <c r="E1421">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F1421" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G1421">
         <v>0</v>
@@ -35858,16 +35858,16 @@
         <v>1</v>
       </c>
       <c r="C1423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1423" s="2">
-        <v>45835.4188685323</v>
+        <v>45836.30888099947</v>
       </c>
       <c r="E1423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1423" s="2">
-        <v>45835.41170138889</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G1423">
         <v>0</v>
@@ -37997,7 +37997,7 @@
         <v>212</v>
       </c>
       <c r="F1507" s="2">
-        <v>45834.47387731481</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -39242,16 +39242,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1558" s="2">
-        <v>45831.83463792694</v>
+        <v>45836.30897487172</v>
       </c>
       <c r="E1558">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1558" s="2">
-        <v>45831.81170138889</v>
+        <v>45835.76293981481</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -40223,16 +40223,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>4736</v>
+        <v>4679</v>
       </c>
       <c r="D1597" s="2">
-        <v>45835.41886850602</v>
+        <v>45836.30897486622</v>
       </c>
       <c r="E1597">
-        <v>4736</v>
+        <v>4679</v>
       </c>
       <c r="F1597" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40298,16 +40298,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D1600" s="2">
-        <v>45835.41884528931</v>
+        <v>45836.30888099396</v>
       </c>
       <c r="E1600">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1600" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -40930,16 +40930,16 @@
         <v>1</v>
       </c>
       <c r="C1625">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D1625" s="2">
-        <v>45835.41884527609</v>
+        <v>45836.30888098238</v>
       </c>
       <c r="E1625">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F1625" s="2">
-        <v>45834.47957175926</v>
+        <v>45835.46144675926</v>
       </c>
       <c r="G1625">
         <v>0</v>
@@ -41008,16 +41008,16 @@
         <v>1</v>
       </c>
       <c r="C1628">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1628" s="2">
-        <v>45804.91952539605</v>
+        <v>45836.3088810011</v>
       </c>
       <c r="E1628">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1628" s="2">
-        <v>45804.39973379629</v>
+        <v>45835.6687962963</v>
       </c>
       <c r="G1628">
         <v>0</v>
@@ -41190,16 +41190,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2440</v>
+        <v>2376</v>
       </c>
       <c r="D1635" s="2">
-        <v>45835.41886850628</v>
+        <v>45836.30897486649</v>
       </c>
       <c r="E1635">
-        <v>2440</v>
+        <v>2376</v>
       </c>
       <c r="F1635" s="2">
-        <v>45834.75673611111</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41550,16 +41550,16 @@
         <v>1</v>
       </c>
       <c r="C1650">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1650" s="2">
-        <v>45831.83461824932</v>
+        <v>45836.3089748556</v>
       </c>
       <c r="E1650">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1650" s="2">
-        <v>45831.63835648148</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G1650">
         <v>0</v>
@@ -41703,16 +41703,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1656" s="2">
-        <v>45834.28681886452</v>
+        <v>45836.30888099089</v>
       </c>
       <c r="E1656">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1656" s="2">
-        <v>45833.87039351852</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -43508,13 +43508,16 @@
         <v>1</v>
       </c>
       <c r="C1729">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D1729" s="2">
-        <v>45797.7838228397</v>
+        <v>45836.30897485115</v>
       </c>
       <c r="E1729">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="F1729" s="2">
+        <v>45835.67112268518</v>
       </c>
       <c r="G1729">
         <v>0</v>
@@ -46399,16 +46402,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D1844" s="2">
-        <v>45835.41884528564</v>
+        <v>45836.30897485587</v>
       </c>
       <c r="E1844">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F1844" s="2">
-        <v>45834.66123842593</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -46451,16 +46454,16 @@
         <v>1</v>
       </c>
       <c r="C1846">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D1846" s="2">
-        <v>45810.72563721648</v>
+        <v>45836.30897486677</v>
       </c>
       <c r="E1846">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F1846" s="2">
-        <v>45810.73277777778</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G1846">
         <v>0</v>
@@ -48018,16 +48021,16 @@
         <v>1</v>
       </c>
       <c r="C1908">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1908" s="2">
-        <v>45835.41886852624</v>
+        <v>45836.3089748514</v>
       </c>
       <c r="E1908">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1908" s="2">
-        <v>45835.40229166667</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G1908">
         <v>0</v>
@@ -49357,16 +49360,16 @@
         <v>1</v>
       </c>
       <c r="C1961">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1961" s="2">
-        <v>45807.78640665444</v>
+        <v>45836.30897485166</v>
       </c>
       <c r="E1961">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1961" s="2">
-        <v>45807.69802083333</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G1961">
         <v>0</v>
@@ -50909,16 +50912,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D2023" s="2">
-        <v>45834.2868188647</v>
+        <v>45836.30897486</v>
       </c>
       <c r="E2023">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F2023" s="2">
-        <v>45833.87069444444</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -51342,16 +51345,16 @@
         <v>1</v>
       </c>
       <c r="C2040">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2040" s="2">
-        <v>45820.30820706102</v>
+        <v>45836.30888099978</v>
       </c>
       <c r="E2040">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2040" s="2">
-        <v>45819.51405092593</v>
+        <v>45835.66824074074</v>
       </c>
       <c r="G2040">
         <v>0</v>
@@ -56374,16 +56377,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D2240" s="2">
-        <v>45835.41884528997</v>
+        <v>45836.30897486704</v>
       </c>
       <c r="E2240">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F2240" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -56400,16 +56403,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2241" s="2">
-        <v>45835.41884529021</v>
+        <v>45836.3089748673</v>
       </c>
       <c r="E2241">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2241" s="2">
-        <v>45834.68826388889</v>
+        <v>45835.73791666667</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -56977,16 +56980,16 @@
         <v>1</v>
       </c>
       <c r="C2264">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="D2264" s="2">
-        <v>45835.41886851937</v>
+        <v>45836.30888098513</v>
       </c>
       <c r="E2264">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="F2264" s="2">
-        <v>45834.83524305555</v>
+        <v>45835.49207175926</v>
       </c>
       <c r="G2264">
         <v>0</v>
@@ -60692,16 +60695,16 @@
         <v>1</v>
       </c>
       <c r="C2413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2413" s="2">
-        <v>45811.92544186871</v>
+        <v>45836.30897486027</v>
       </c>
       <c r="E2413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2413" s="2">
-        <v>45811.39625</v>
+        <v>45835.73741898148</v>
       </c>
       <c r="G2413">
         <v>0</v>
@@ -60770,22 +60773,22 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2416" s="2">
-        <v>45835.41886853738</v>
+        <v>45836.30897487202</v>
       </c>
       <c r="E2416">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2416" s="2">
-        <v>45833.42523148148</v>
+        <v>45835.76293981481</v>
       </c>
       <c r="G2416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:8">
@@ -61269,16 +61272,16 @@
         <v>1</v>
       </c>
       <c r="C2436">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D2436" s="2">
-        <v>45795.04204563411</v>
+        <v>45836.30897485613</v>
       </c>
       <c r="E2436">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F2436" s="2">
-        <v>45748.54229166666</v>
+        <v>45835.72380787037</v>
       </c>
       <c r="G2436">
         <v>0</v>
@@ -62364,16 +62367,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D2481" s="2">
-        <v>45835.41884529264</v>
+        <v>45836.30888098459</v>
       </c>
       <c r="E2481">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F2481" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.47785879629</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62390,16 +62393,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="D2482" s="2">
-        <v>45835.41884529286</v>
+        <v>45836.30888099538</v>
       </c>
       <c r="E2482">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="F2482" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.61805555555</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62416,16 +62419,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1103</v>
+        <v>1023</v>
       </c>
       <c r="D2483" s="2">
-        <v>45835.41884529308</v>
+        <v>45836.30888099568</v>
       </c>
       <c r="E2483">
-        <v>1103</v>
+        <v>1023</v>
       </c>
       <c r="F2483" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.61805555555</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62442,16 +62445,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="D2484" s="2">
-        <v>45835.4188452933</v>
+        <v>45836.30888099598</v>
       </c>
       <c r="E2484">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="F2484" s="2">
-        <v>45834.68922453704</v>
+        <v>45835.61805555555</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -63698,16 +63701,16 @@
         <v>1</v>
       </c>
       <c r="C2536">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2536" s="2">
-        <v>45805.91875152234</v>
+        <v>45836.30897485194</v>
       </c>
       <c r="E2536">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2536" s="2">
-        <v>45805.67351851852</v>
+        <v>45835.67112268518</v>
       </c>
       <c r="G2536">
         <v>0</v>
@@ -63822,16 +63825,16 @@
         <v>1</v>
       </c>
       <c r="C2541">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2541" s="2">
-        <v>45805.918751534</v>
+        <v>45836.30888099117</v>
       </c>
       <c r="E2541">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2541" s="2">
-        <v>45805.67633101852</v>
+        <v>45835.52792824074</v>
       </c>
       <c r="G2541">
         <v>0</v>
@@ -64929,7 +64932,7 @@
         <v>-16</v>
       </c>
       <c r="F2586" s="2">
-        <v>45832.61931712963</v>
+        <v>45835.54003472222</v>
       </c>
       <c r="G2586">
         <v>0</v>
@@ -65021,13 +65024,16 @@
         <v>1</v>
       </c>
       <c r="C2590">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D2590" s="2">
-        <v>45835.41886852033</v>
+        <v>45836.30897486758</v>
       </c>
       <c r="E2590">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="F2590" s="2">
+        <v>45835.73791666667</v>
       </c>
       <c r="G2590">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2590"/>
+  <dimension ref="A1:H2593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>45835.41886850759</v>
+        <v>45839.33728134898</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>45834.76719907407</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D5" s="2">
-        <v>45836.30897486053</v>
+        <v>45839.33734443455</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="F5" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.80732638889</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>45814.82966409007</v>
+        <v>45839.33730491865</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>45814.39601851852</v>
+        <v>45838.51489583333</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>83</v>
       </c>
       <c r="F23" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.78107638889</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>45835.41884527947</v>
+        <v>45839.33730492559</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2810</v>
+        <v>2730</v>
       </c>
       <c r="D33" s="2">
-        <v>45836.30888100162</v>
+        <v>45839.33734443205</v>
       </c>
       <c r="E33">
-        <v>2810</v>
+        <v>2730</v>
       </c>
       <c r="F33" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2">
-        <v>45835.41884527967</v>
+        <v>45839.33734443216</v>
       </c>
       <c r="E49">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F49" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2">
-        <v>45835.41886851518</v>
+        <v>45839.33732491497</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>45817.75368055556</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="D56" s="2">
-        <v>45835.41886852719</v>
+        <v>45839.33730492817</v>
       </c>
       <c r="E56">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="F56" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D58" s="2">
-        <v>45835.41886850197</v>
+        <v>45839.33732491444</v>
       </c>
       <c r="E58">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.7697337963</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2">
-        <v>45833.77618177872</v>
+        <v>45839.33732491323</v>
       </c>
       <c r="E59">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2">
-        <v>45833.54157407407</v>
+        <v>45838.76819444444</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D63" s="2">
-        <v>45836.30888098727</v>
+        <v>45839.33730492575</v>
       </c>
       <c r="E63">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F63" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2">
-        <v>45835.41886850228</v>
+        <v>45839.33728134609</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.40947916666</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D70" s="2">
-        <v>45836.30897486785</v>
+        <v>45839.33734443226</v>
       </c>
       <c r="E70">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2">
-        <v>45835.74</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2">
-        <v>45835.41886852398</v>
+        <v>45839.33728134565</v>
       </c>
       <c r="E71">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2">
-        <v>45835.40229166667</v>
+        <v>45838.38952546296</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D81" s="2">
-        <v>45836.30897485223</v>
+        <v>45839.33732491506</v>
       </c>
       <c r="E81">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" s="2">
-        <v>45835.69004629629</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D82" s="2">
-        <v>45835.41884527701</v>
+        <v>45839.33728134768</v>
       </c>
       <c r="E82">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2">
-        <v>45834.49197916667</v>
+        <v>45838.48253472222</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D83" s="2">
-        <v>45836.30897486107</v>
+        <v>45839.33732490859</v>
       </c>
       <c r="E83">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F83" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D85" s="2">
-        <v>45836.3089748616</v>
+        <v>45839.33728134523</v>
       </c>
       <c r="E85">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.38265046296</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D86" s="2">
-        <v>45836.30897486187</v>
+        <v>45839.33730492202</v>
       </c>
       <c r="E86">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.64590277777</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D87" s="2">
-        <v>45836.30897486214</v>
+        <v>45839.33734442881</v>
       </c>
       <c r="E87">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>45832.99937862809</v>
+        <v>45839.33732490868</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F90" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2">
-        <v>45836.30897485695</v>
+        <v>45839.33730492141</v>
       </c>
       <c r="E91">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.63424768519</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2">
-        <v>45836.30888100215</v>
+        <v>45839.33734443236</v>
       </c>
       <c r="E94">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D96" s="2">
-        <v>45832.99935919507</v>
+        <v>45839.33728134917</v>
       </c>
       <c r="E96">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F96" s="2">
-        <v>45832.42351851852</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D98" s="2">
-        <v>45835.4188685198</v>
+        <v>45839.33730491879</v>
       </c>
       <c r="E98">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F98" s="2">
-        <v>45834.8358912037</v>
+        <v>45838.51489583333</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2103</v>
+        <v>1683</v>
       </c>
       <c r="D101" s="2">
-        <v>45836.30897486242</v>
+        <v>45839.33734442671</v>
       </c>
       <c r="E101">
-        <v>2103</v>
+        <v>1683</v>
       </c>
       <c r="F101" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D103" s="2">
-        <v>45835.41884528325</v>
+        <v>45839.33728134933</v>
       </c>
       <c r="E103">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2">
-        <v>45834.66123842593</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D106" s="2">
-        <v>45832.99937861376</v>
+        <v>45839.33734442891</v>
       </c>
       <c r="E106">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2">
-        <v>45835.4387037037</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D115" s="2">
-        <v>45831.83463792848</v>
+        <v>45839.33734443247</v>
       </c>
       <c r="E115">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2">
-        <v>45831.81233796296</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="D117" s="2">
-        <v>45836.30888099633</v>
+        <v>45839.33732491515</v>
       </c>
       <c r="E117">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F117" s="2">
-        <v>45835.62402777778</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
-        <v>45836.30888100262</v>
+        <v>45839.33730492832</v>
       </c>
       <c r="E120">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="F120" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D121" s="2">
-        <v>45833.7761817701</v>
+        <v>45839.33730492049</v>
       </c>
       <c r="E121">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F121" s="2">
-        <v>45833.42523148148</v>
+        <v>45838.55743055556</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D123" s="2">
-        <v>45836.30897486269</v>
+        <v>45839.33734442683</v>
       </c>
       <c r="E123">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F123" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D124" s="2">
-        <v>45835.41886850258</v>
+        <v>45839.33730492095</v>
       </c>
       <c r="E124">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F124" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.61395833334</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="D125" s="2">
-        <v>45836.30897484704</v>
+        <v>45839.33730492847</v>
       </c>
       <c r="E125">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="F125" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2">
-        <v>45834.28681886589</v>
+        <v>45839.33730491941</v>
       </c>
       <c r="E126">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F126" s="2">
-        <v>45833.8759375</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>71</v>
       </c>
       <c r="F128" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.7697337963</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D139" s="2">
-        <v>45827.49771214413</v>
+        <v>45839.3373444352</v>
       </c>
       <c r="E139">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2">
-        <v>45826.50527777777</v>
+        <v>45838.82028935185</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="D141" s="2">
-        <v>45836.30897484742</v>
+        <v>45839.33730492862</v>
       </c>
       <c r="E141">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="F141" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D150" s="2">
-        <v>45827.49773230305</v>
+        <v>45839.33730492589</v>
       </c>
       <c r="E150">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F150" s="2">
-        <v>45827.44497685185</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D162" s="2">
-        <v>45821.87952450043</v>
+        <v>45839.33734443413</v>
       </c>
       <c r="E162">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F162" s="2">
-        <v>45824.60457175926</v>
+        <v>45838.80425925926</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4740,16 +4740,16 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33732491277</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" s="2">
-        <v>45811.48847222222</v>
+        <v>45838.76719907407</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D185" s="2">
-        <v>45835.41886853608</v>
+        <v>45839.33732491286</v>
       </c>
       <c r="E185">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F185" s="2">
-        <v>45835.44033564815</v>
+        <v>45838.76719907407</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>-147</v>
+        <v>452</v>
       </c>
       <c r="D191" s="2">
-        <v>45836.3089748575</v>
+        <v>45839.33732491305</v>
       </c>
       <c r="E191">
-        <v>-147</v>
+        <v>452</v>
       </c>
       <c r="F191" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.76800925926</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D192" s="2">
-        <v>45831.83461824249</v>
+        <v>45839.33730492878</v>
       </c>
       <c r="E192">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2">
-        <v>45831.52096064815</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D195" s="2">
-        <v>45832.99937862701</v>
+        <v>45839.33734443488</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F195" s="2">
-        <v>45832.60381944444</v>
+        <v>45838.80914351852</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.49722222222</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1046</v>
+        <v>966</v>
       </c>
       <c r="D201" s="2">
-        <v>45831.83461824997</v>
+        <v>45839.33730492894</v>
       </c>
       <c r="E201">
-        <v>1046</v>
+        <v>966</v>
       </c>
       <c r="F201" s="2">
-        <v>45831.65412037037</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D217" s="2">
-        <v>45835.41884528629</v>
+        <v>45839.33732491361</v>
       </c>
       <c r="E217">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F217" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5737,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D218" s="2">
-        <v>45835.41884528075</v>
+        <v>45839.33732490877</v>
       </c>
       <c r="E218">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F218" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -5933,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D226" s="2">
-        <v>45832.99935918948</v>
+        <v>45839.33732491526</v>
       </c>
       <c r="E226">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F226" s="2">
-        <v>45832.385</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D247" s="2">
-        <v>45836.30897485278</v>
+        <v>45839.33732491463</v>
       </c>
       <c r="E247">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F247" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.7697337963</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1182</v>
+        <v>1139</v>
       </c>
       <c r="D255" s="2">
-        <v>45836.30897486841</v>
+        <v>45839.3373049294</v>
       </c>
       <c r="E255">
-        <v>1182</v>
+        <v>1139</v>
       </c>
       <c r="F255" s="2">
-        <v>45835.74</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D258" s="2">
-        <v>45821.87950559369</v>
+        <v>45839.3373249137</v>
       </c>
       <c r="E258">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F258" s="2">
-        <v>45821.42207175926</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270" s="2">
-        <v>45836.30888098775</v>
+        <v>45839.33730491664</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F270" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7045,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D272" s="2">
-        <v>45833.77618177247</v>
+        <v>45839.33734442695</v>
       </c>
       <c r="E272">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F272" s="2">
-        <v>45833.44604166667</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2">
-        <v>45833.77620283919</v>
+        <v>45839.33734443257</v>
       </c>
       <c r="E273">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F273" s="2">
-        <v>45833.68387731481</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D274" s="2">
-        <v>45835.41886850323</v>
+        <v>45839.33734442706</v>
       </c>
       <c r="E274">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F274" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7123,16 +7123,16 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D275" s="2">
-        <v>45836.30897485305</v>
+        <v>45839.33734443184</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -7261,16 +7261,16 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D281" s="2">
-        <v>45833.77618177698</v>
+        <v>45839.33730492157</v>
       </c>
       <c r="E281">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F281" s="2">
-        <v>45833.52773148148</v>
+        <v>45838.63424768519</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D283" s="2">
-        <v>45836.30897486296</v>
+        <v>45839.33732491534</v>
       </c>
       <c r="E283">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F283" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D287" s="2">
-        <v>45832.9993786352</v>
+        <v>45839.33730492032</v>
       </c>
       <c r="E287">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="F287" s="2">
-        <v>45832.71763888889</v>
+        <v>45838.54960648148</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="D291" s="2">
-        <v>45836.30888098824</v>
+        <v>45839.33734442902</v>
       </c>
       <c r="E291">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="F291" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D292" s="2">
-        <v>45836.30897486322</v>
+        <v>45839.3373249169</v>
       </c>
       <c r="E292">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F292" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77349537037</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>26</v>
+        <v>-22</v>
       </c>
       <c r="D295" s="2">
-        <v>45836.30897485331</v>
+        <v>45839.33734442912</v>
       </c>
       <c r="E295">
-        <v>26</v>
+        <v>-22</v>
       </c>
       <c r="F295" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7688,16 +7688,16 @@
         <v>1</v>
       </c>
       <c r="C298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D298" s="2">
-        <v>45836.30897486348</v>
+        <v>45839.33730492467</v>
       </c>
       <c r="E298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F298" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.68121527778</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>17</v>
       </c>
       <c r="F300" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.49439814815</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="D309" s="2">
-        <v>45836.30897485807</v>
+        <v>45839.33730492956</v>
       </c>
       <c r="E309">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F309" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D314" s="2">
-        <v>45835.41884528672</v>
+        <v>45839.33732491332</v>
       </c>
       <c r="E314">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F314" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.79065972222</v>
       </c>
       <c r="G314">
         <v>3</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D315" s="2">
-        <v>45832.99937862463</v>
+        <v>45839.33732491481</v>
       </c>
       <c r="E315">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F315" s="2">
-        <v>45832.54928240741</v>
+        <v>45838.76998842593</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="D318" s="2">
-        <v>45828.40527173437</v>
+        <v>45839.33732491235</v>
       </c>
       <c r="E318">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="F318" s="2">
-        <v>45827.87112268519</v>
+        <v>45838.76650462963</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D319" s="2">
-        <v>45836.30888098404</v>
+        <v>45839.33732490888</v>
       </c>
       <c r="E319">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F319" s="2">
-        <v>45835.47785879629</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -8247,16 +8247,16 @@
         <v>1</v>
       </c>
       <c r="C321">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D321" s="2">
-        <v>45828.40527173312</v>
+        <v>45839.33732490897</v>
       </c>
       <c r="E321">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F321" s="2">
-        <v>45814.52313657408</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="D326" s="2">
-        <v>45831.83463791567</v>
+        <v>45839.33728134785</v>
       </c>
       <c r="E326">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F326" s="2">
-        <v>45831.68162037037</v>
+        <v>45838.48253472222</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8674,16 +8674,16 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D338" s="2">
-        <v>45828.4052717369</v>
+        <v>45839.33730492982</v>
       </c>
       <c r="E338">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F338" s="2">
-        <v>45827.91435185185</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D342" s="2">
-        <v>45831.83461825283</v>
+        <v>45839.33734442924</v>
       </c>
       <c r="E342">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F342" s="2">
-        <v>45831.67700231481</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D346" s="2">
-        <v>45836.30897486376</v>
+        <v>45839.33730492996</v>
       </c>
       <c r="E346">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F346" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D350" s="2">
-        <v>45831.83461825363</v>
+        <v>45839.33734442934</v>
       </c>
       <c r="E350">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F350" s="2">
-        <v>45831.67747685185</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -9066,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D354" s="2">
-        <v>45835.41886851647</v>
+        <v>45839.33730493007</v>
       </c>
       <c r="E354">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F354" s="2">
-        <v>45834.82356481482</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D358" s="2">
-        <v>45836.30897484773</v>
+        <v>45839.33734442718</v>
       </c>
       <c r="E358">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F358" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D359" s="2">
-        <v>45825.82710087594</v>
+        <v>45839.33730492394</v>
       </c>
       <c r="E359">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F359" s="2">
-        <v>45825.65579861111</v>
+        <v>45838.66369212963</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D361" s="2">
-        <v>45835.41886852767</v>
+        <v>45839.33734443266</v>
       </c>
       <c r="E361">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F361" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9291,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="D363" s="2">
-        <v>45836.30888099663</v>
+        <v>45839.33734443277</v>
       </c>
       <c r="E363">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="F363" s="2">
-        <v>45835.62402777778</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D379" s="2">
-        <v>45836.30897485836</v>
+        <v>45839.33730492542</v>
       </c>
       <c r="E379">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F379" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.69672453704</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>60</v>
       </c>
       <c r="F384" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.61395833334</v>
       </c>
       <c r="G384">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D385" s="2">
-        <v>45835.41884528361</v>
+        <v>45839.33732491542</v>
       </c>
       <c r="E385">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F385" s="2">
-        <v>45834.66123842593</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D387" s="2">
-        <v>45821.87950559382</v>
+        <v>45839.33730493017</v>
       </c>
       <c r="E387">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F387" s="2">
-        <v>45821.42207175926</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>-10</v>
+        <v>183</v>
       </c>
       <c r="D390" s="2">
-        <v>45836.30897486402</v>
+        <v>45839.33734443288</v>
       </c>
       <c r="E390">
-        <v>-10</v>
+        <v>183</v>
       </c>
       <c r="F390" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="D394" s="2">
-        <v>45836.30897484803</v>
+        <v>45839.33734442729</v>
       </c>
       <c r="E394">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="F394" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10122,16 +10122,16 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D396" s="2">
-        <v>45831.83461825085</v>
+        <v>45839.33734443381</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F396" s="2">
-        <v>45831.67092592592</v>
+        <v>45838.79269675926</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="D402" s="2">
-        <v>45836.30897485864</v>
+        <v>45839.33730493028</v>
       </c>
       <c r="E402">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="F402" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D404" s="2">
-        <v>45836.30897485383</v>
+        <v>45839.33728134477</v>
       </c>
       <c r="E404">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="F404" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.38143518518</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D408" s="2">
-        <v>45827.49773230478</v>
+        <v>45839.33730491685</v>
       </c>
       <c r="E408">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F408" s="2">
-        <v>45831.52096064815</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D410" s="2">
-        <v>45836.30897486457</v>
+        <v>45839.33734442946</v>
       </c>
       <c r="E410">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F410" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10549,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="C413">
-        <v>678</v>
+        <v>554</v>
       </c>
       <c r="D413" s="2">
-        <v>45831.83459785218</v>
+        <v>45839.33730493038</v>
       </c>
       <c r="E413">
-        <v>678</v>
+        <v>554</v>
       </c>
       <c r="F413" s="2">
-        <v>45831.43289351852</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -10624,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="C416">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D416" s="2">
-        <v>45820.91697502282</v>
+        <v>45839.3373444274</v>
       </c>
       <c r="E416">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F416" s="2">
-        <v>45820.70375</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D418" s="2">
-        <v>45836.30897486483</v>
+        <v>45839.33734442956</v>
       </c>
       <c r="E418">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F418" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D422" s="2">
-        <v>45833.77618177052</v>
+        <v>45839.33734442751</v>
       </c>
       <c r="E422">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F422" s="2">
-        <v>45833.42523148148</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D425" s="2">
-        <v>45835.41886852021</v>
+        <v>45839.33730492604</v>
       </c>
       <c r="E425">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F425" s="2">
-        <v>45834.78127314815</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D435" s="2">
-        <v>45825.28849841982</v>
+        <v>45839.33734442967</v>
       </c>
       <c r="E435">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F435" s="2">
-        <v>45824.64493055556</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         <v>1</v>
       </c>
       <c r="C437">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D437" s="2">
-        <v>45821.87950559393</v>
+        <v>45839.33732491379</v>
       </c>
       <c r="E437">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F437" s="2">
-        <v>45821.42207175926</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -11192,16 +11192,16 @@
         <v>1</v>
       </c>
       <c r="C439">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D439" s="2">
-        <v>45820.91695281195</v>
+        <v>45839.33730492063</v>
       </c>
       <c r="E439">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F439" s="2">
-        <v>45820.47611111111</v>
+        <v>45838.55743055556</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -11244,16 +11244,16 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D441" s="2">
-        <v>45835.41886851606</v>
+        <v>45839.33734443422</v>
       </c>
       <c r="E441">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F441" s="2">
-        <v>45834.82107638889</v>
+        <v>45838.80425925926</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D443" s="2">
-        <v>45825.28852326116</v>
+        <v>45839.33732491342</v>
       </c>
       <c r="E443">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F443" s="2">
-        <v>45824.64711805555</v>
+        <v>45838.76819444444</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11728,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D461" s="2">
-        <v>45831.83463792661</v>
+        <v>45839.3373249171</v>
       </c>
       <c r="E461">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F461" s="2">
-        <v>45831.81170138889</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D465" s="2">
-        <v>45820.91695280946</v>
+        <v>45839.33732491551</v>
       </c>
       <c r="E465">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F465" s="2">
-        <v>45820.42355324074</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>3036</v>
+        <v>2966</v>
       </c>
       <c r="D469" s="2">
-        <v>45835.41886850479</v>
+        <v>45839.33734442763</v>
       </c>
       <c r="E469">
-        <v>3036</v>
+        <v>2966</v>
       </c>
       <c r="F469" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="D480" s="2">
-        <v>45836.30888099237</v>
+        <v>45839.3373444353</v>
       </c>
       <c r="E480">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="F480" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.82079861111</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D485" s="2">
-        <v>45835.41884527628</v>
+        <v>45839.3373249156</v>
       </c>
       <c r="E485">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F485" s="2">
-        <v>45834.48019675926</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D486" s="2">
-        <v>45835.41886852535</v>
+        <v>45839.33732490987</v>
       </c>
       <c r="E486">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F486" s="2">
-        <v>45835.40229166667</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D493" s="2">
-        <v>45836.30897484833</v>
+        <v>45839.33732490997</v>
       </c>
       <c r="E493">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F493" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12611,16 +12611,16 @@
         <v>1</v>
       </c>
       <c r="C496">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D496" s="2">
-        <v>45807.78640665444</v>
+        <v>45839.33732491006</v>
       </c>
       <c r="E496">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F496" s="2">
-        <v>45807.70524305556</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G496">
         <v>0</v>
@@ -12830,16 +12830,16 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D505" s="2">
-        <v>45825.82710087367</v>
+        <v>45839.33732491015</v>
       </c>
       <c r="E505">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F505" s="2">
-        <v>45825.6443287037</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>1</v>
       </c>
       <c r="C507">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D507" s="2">
-        <v>45831.3167286812</v>
+        <v>45839.33732491024</v>
       </c>
       <c r="E507">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F507" s="2">
-        <v>45829.55359953704</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D510" s="2">
-        <v>45836.30897484861</v>
+        <v>45839.33734443194</v>
       </c>
       <c r="E510">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F510" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.79065972222</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13314,16 +13314,16 @@
         <v>1</v>
       </c>
       <c r="C525">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D525" s="2">
-        <v>45820.30824423723</v>
+        <v>45839.33730493049</v>
       </c>
       <c r="E525">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F525" s="2">
-        <v>45819.76177083333</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D527" s="2">
-        <v>45829.29943059615</v>
+        <v>45839.3373049208</v>
       </c>
       <c r="E527">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F527" s="2">
-        <v>45828.52141203704</v>
+        <v>45838.55743055556</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -13392,16 +13392,16 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D528" s="2">
-        <v>45832.99937863585</v>
+        <v>45839.33730491703</v>
       </c>
       <c r="E528">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F528" s="2">
-        <v>45832.71763888889</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D531" s="2">
-        <v>45836.30888098972</v>
+        <v>45839.33730493059</v>
       </c>
       <c r="E531">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F531" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D535" s="2">
-        <v>45835.41882279592</v>
+        <v>45839.3373249172</v>
       </c>
       <c r="E535">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F535" s="2">
-        <v>45834.44327546296</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -13816,16 +13816,16 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D545" s="2">
-        <v>45833.77618177326</v>
+        <v>45839.33734442585</v>
       </c>
       <c r="E545">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F545" s="2">
-        <v>45833.45819444444</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -14245,16 +14245,16 @@
         <v>1</v>
       </c>
       <c r="C563">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D563" s="2">
-        <v>45795.04204563411</v>
+        <v>45839.33732491034</v>
       </c>
       <c r="E563">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F563" s="2">
-        <v>45747.70436342592</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2520</v>
+        <v>2502</v>
       </c>
       <c r="D570" s="2">
-        <v>45836.3088809976</v>
+        <v>45839.33732491569</v>
       </c>
       <c r="E570">
-        <v>2520</v>
+        <v>2502</v>
       </c>
       <c r="F570" s="2">
-        <v>45835.66824074074</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -14510,16 +14510,16 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D574" s="2">
-        <v>45820.91697502306</v>
+        <v>45839.33734442977</v>
       </c>
       <c r="E574">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F574" s="2">
-        <v>45820.70375</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D581" s="2">
-        <v>45836.3089748489</v>
+        <v>45839.33730493072</v>
       </c>
       <c r="E581">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F581" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -15207,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D603" s="2">
-        <v>45833.77618177637</v>
+        <v>45839.33734443507</v>
       </c>
       <c r="E603">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F603" s="2">
-        <v>45833.515625</v>
+        <v>45838.81746527777</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -15279,16 +15279,16 @@
         <v>1</v>
       </c>
       <c r="C606">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D606" s="2">
-        <v>45832.99937863608</v>
+        <v>45839.33730492218</v>
       </c>
       <c r="E606">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F606" s="2">
-        <v>45832.71763888889</v>
+        <v>45838.64590277777</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -15878,16 +15878,16 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D631" s="2">
-        <v>45836.30897484948</v>
+        <v>45839.33732491387</v>
       </c>
       <c r="E631">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F631" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -15956,16 +15956,16 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="D634" s="2">
-        <v>45836.3089748589</v>
+        <v>45839.33734442601</v>
       </c>
       <c r="E634">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="F634" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -16385,16 +16385,16 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D652" s="2">
-        <v>45831.83463791775</v>
+        <v>45839.33734442775</v>
       </c>
       <c r="E652">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F652" s="2">
-        <v>45831.69412037037</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="D657" s="2">
-        <v>45836.30897486904</v>
+        <v>45839.33734443298</v>
       </c>
       <c r="E657">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="F657" s="2">
-        <v>45835.74</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -16584,16 +16584,16 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D660" s="2">
-        <v>45833.77620284199</v>
+        <v>45839.33734442987</v>
       </c>
       <c r="E660">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F660" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -17068,16 +17068,16 @@
         <v>1</v>
       </c>
       <c r="C680">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D680" s="2">
-        <v>45835.41884528782</v>
+        <v>45839.33732491225</v>
       </c>
       <c r="E680">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F680" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.7653125</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -17094,16 +17094,16 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="D681" s="2">
-        <v>45831.83461825192</v>
+        <v>45839.33734442998</v>
       </c>
       <c r="E681">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="F681" s="2">
-        <v>45831.67487268519</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -17143,16 +17143,16 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D683" s="2">
-        <v>45835.41884529065</v>
+        <v>45839.33732491043</v>
       </c>
       <c r="E683">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F683" s="2">
-        <v>45834.68875</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -17195,16 +17195,16 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="D685" s="2">
-        <v>45835.41886852949</v>
+        <v>45839.33734442871</v>
       </c>
       <c r="E685">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="F685" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.77440972222</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D691" s="2">
-        <v>45833.77618177767</v>
+        <v>45839.33732490907</v>
       </c>
       <c r="E691">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F691" s="2">
-        <v>45833.53011574074</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17573,16 +17573,16 @@
         <v>1</v>
       </c>
       <c r="C700">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D700" s="2">
-        <v>45832.99937863628</v>
+        <v>45839.33730492234</v>
       </c>
       <c r="E700">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F700" s="2">
-        <v>45832.71763888889</v>
+        <v>45838.64590277777</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -17599,16 +17599,16 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D701" s="2">
-        <v>45827.49771214437</v>
+        <v>45839.33734442785</v>
       </c>
       <c r="E701">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F701" s="2">
-        <v>45826.50527777777</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -17746,16 +17746,16 @@
         <v>1</v>
       </c>
       <c r="C707">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D707" s="2">
-        <v>45835.4188452813</v>
+        <v>45839.33732490915</v>
       </c>
       <c r="E707">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F707" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -17968,16 +17968,16 @@
         <v>1</v>
       </c>
       <c r="C716">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="D716" s="2">
-        <v>45814.82972453323</v>
+        <v>45839.33730493084</v>
       </c>
       <c r="E716">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="F716" s="2">
-        <v>45814.49446759259</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -18072,16 +18072,16 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="D720" s="2">
-        <v>45836.30897484976</v>
+        <v>45839.33734442796</v>
       </c>
       <c r="E720">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="F720" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -18098,16 +18098,16 @@
         <v>1</v>
       </c>
       <c r="C721">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="D721" s="2">
-        <v>45835.4188685304</v>
+        <v>45839.33734442807</v>
       </c>
       <c r="E721">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="F721" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -18202,16 +18202,16 @@
         <v>1</v>
       </c>
       <c r="C725">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D725" s="2">
-        <v>45814.82972452114</v>
+        <v>45839.33732491699</v>
       </c>
       <c r="E725">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F725" s="2">
-        <v>45814.61704861111</v>
+        <v>45838.77349537037</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="D726" s="2">
-        <v>45836.30897486539</v>
+        <v>45839.337304931</v>
       </c>
       <c r="E726">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="F726" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -18303,16 +18303,16 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D729" s="2">
-        <v>45835.41886852292</v>
+        <v>45839.33734443008</v>
       </c>
       <c r="E729">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F729" s="2">
-        <v>45835.39524305556</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -18329,16 +18329,16 @@
         <v>1</v>
       </c>
       <c r="C730">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D730" s="2">
-        <v>45813.95788197009</v>
+        <v>45839.33734442817</v>
       </c>
       <c r="E730">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F730" s="2">
-        <v>45813.68012731482</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D731" s="2">
-        <v>45825.28852326224</v>
+        <v>45839.33734443018</v>
       </c>
       <c r="E731">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F731" s="2">
-        <v>45824.64774305555</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -18381,16 +18381,16 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D732" s="2">
-        <v>45836.30888099788</v>
+        <v>45839.33734443029</v>
       </c>
       <c r="E732">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F732" s="2">
-        <v>45835.66824074074</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -18456,16 +18456,16 @@
         <v>1</v>
       </c>
       <c r="C735">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D735" s="2">
-        <v>45825.28849841993</v>
+        <v>45839.33734442612</v>
       </c>
       <c r="E735">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F735" s="2">
-        <v>45824.64493055556</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -18612,16 +18612,16 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D741" s="2">
-        <v>45831.83461825324</v>
+        <v>45839.33734443589</v>
       </c>
       <c r="E741">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F741" s="2">
-        <v>45831.67700231481</v>
+        <v>45839.36425925926</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -18687,16 +18687,16 @@
         <v>1</v>
       </c>
       <c r="C744">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D744" s="2">
-        <v>45835.41884528804</v>
+        <v>45839.3373444304</v>
       </c>
       <c r="E744">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F744" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -18739,16 +18739,16 @@
         <v>1</v>
       </c>
       <c r="C746">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D746" s="2">
-        <v>45835.41886850503</v>
+        <v>45839.33728134644</v>
       </c>
       <c r="E746">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F746" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.40947916666</v>
       </c>
       <c r="G746">
         <v>0</v>
@@ -19154,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>-29</v>
+        <v>-42</v>
       </c>
       <c r="D763" s="2">
-        <v>45833.77618176786</v>
+        <v>45839.33734443433</v>
       </c>
       <c r="E763">
-        <v>-29</v>
+        <v>-42</v>
       </c>
       <c r="F763" s="2">
-        <v>45833.38887731481</v>
+        <v>45838.80425925926</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="D770" s="2">
-        <v>45835.41884529087</v>
+        <v>45839.33732491215</v>
       </c>
       <c r="E770">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="F770" s="2">
-        <v>45834.68875</v>
+        <v>45838.76248842593</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -19353,16 +19353,16 @@
         <v>1</v>
       </c>
       <c r="C771">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D771" s="2">
-        <v>45799.89534673509</v>
+        <v>45839.33730493113</v>
       </c>
       <c r="E771">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F771" s="2">
-        <v>45796.49008101852</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G771">
         <v>0</v>
@@ -19379,16 +19379,16 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D772" s="2">
-        <v>45835.41884527681</v>
+        <v>45839.33734443309</v>
       </c>
       <c r="E772">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F772" s="2">
-        <v>45834.48739583333</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -19483,16 +19483,16 @@
         <v>1</v>
       </c>
       <c r="C776">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D776" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33732491579</v>
       </c>
       <c r="E776">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F776" s="2">
-        <v>45811.4736574074</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G776">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D778" s="2">
-        <v>45836.30897486939</v>
+        <v>45839.33730492173</v>
       </c>
       <c r="E778">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F778" s="2">
-        <v>45835.74</v>
+        <v>45838.63927083334</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -19587,16 +19587,16 @@
         <v>1</v>
       </c>
       <c r="C780">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D780" s="2">
-        <v>45806.77603763194</v>
+        <v>45839.33732491054</v>
       </c>
       <c r="E780">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F780" s="2">
-        <v>45806.71055555555</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G780">
         <v>0</v>
@@ -19979,16 +19979,16 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D796" s="2">
-        <v>45835.41886850783</v>
+        <v>45839.33732491062</v>
       </c>
       <c r="E796">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F796" s="2">
-        <v>45834.77047453704</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G796">
         <v>0</v>
@@ -20005,16 +20005,16 @@
         <v>1</v>
       </c>
       <c r="C797">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D797" s="2">
-        <v>45833.77620284354</v>
+        <v>45839.33734442625</v>
       </c>
       <c r="E797">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F797" s="2">
-        <v>45833.79240740741</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>1</v>
       </c>
       <c r="C798">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D798" s="2">
-        <v>45833.77620284362</v>
+        <v>45839.33734443052</v>
       </c>
       <c r="E798">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F798" s="2">
-        <v>45833.79266203703</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -20132,22 +20132,22 @@
         <v>1</v>
       </c>
       <c r="C802">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D802" s="2">
-        <v>45836.30888098352</v>
+        <v>45839.33730492761</v>
       </c>
       <c r="E802">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F802" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.71671296296</v>
       </c>
       <c r="G802">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H802" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -20331,16 +20331,16 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D810" s="2">
-        <v>45833.77620283803</v>
+        <v>45839.33732491472</v>
       </c>
       <c r="E810">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F810" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.7697337963</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -20357,16 +20357,16 @@
         <v>1</v>
       </c>
       <c r="C811">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D811" s="2">
-        <v>45799.89542737551</v>
+        <v>45839.33732491397</v>
       </c>
       <c r="E811">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F811" s="2">
-        <v>45799.64041666667</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G811">
         <v>0</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D812" s="2">
-        <v>45825.28852326237</v>
+        <v>45839.33734443063</v>
       </c>
       <c r="E812">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F812" s="2">
-        <v>45824.64774305555</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -20409,16 +20409,16 @@
         <v>1</v>
       </c>
       <c r="C813">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D813" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33734442636</v>
       </c>
       <c r="E813">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F813" s="2">
-        <v>45811.47861111111</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -20484,16 +20484,16 @@
         <v>1</v>
       </c>
       <c r="C816">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D816" s="2">
-        <v>45813.95785146693</v>
+        <v>45839.33734442661</v>
       </c>
       <c r="E816">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F816" s="2">
-        <v>45813.57766203704</v>
+        <v>45838.77366898148</v>
       </c>
       <c r="G816">
         <v>0</v>
@@ -20556,16 +20556,16 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D819" s="2">
-        <v>45835.41884528149</v>
+        <v>45839.33728134865</v>
       </c>
       <c r="E819">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F819" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.49439814815</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -20683,16 +20683,16 @@
         <v>1</v>
       </c>
       <c r="C824">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D824" s="2">
-        <v>45831.83463791941</v>
+        <v>45839.33730492258</v>
       </c>
       <c r="E824">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F824" s="2">
-        <v>45831.73116898148</v>
+        <v>45838.64590277777</v>
       </c>
       <c r="G824">
         <v>0</v>
@@ -20732,16 +20732,16 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="D826" s="2">
-        <v>45836.30888099508</v>
+        <v>45839.33734443475</v>
       </c>
       <c r="E826">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="F826" s="2">
-        <v>45835.60731481481</v>
+        <v>45838.80820601852</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -21164,16 +21164,16 @@
         <v>1</v>
       </c>
       <c r="C844">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D844" s="2">
-        <v>45836.30897485452</v>
+        <v>45839.33734443464</v>
       </c>
       <c r="E844">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F844" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.80769675926</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -21363,16 +21363,16 @@
         <v>1</v>
       </c>
       <c r="C852">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D852" s="2">
-        <v>45832.99937863118</v>
+        <v>45839.33732491315</v>
       </c>
       <c r="E852">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F852" s="2">
-        <v>45832.62690972222</v>
+        <v>45838.76800925926</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -21389,16 +21389,16 @@
         <v>1</v>
       </c>
       <c r="C853">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D853" s="2">
-        <v>45836.30888099033</v>
+        <v>45839.33730491719</v>
       </c>
       <c r="E853">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F853" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>1</v>
       </c>
       <c r="C854">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D854" s="2">
-        <v>45835.41882279625</v>
+        <v>45839.33730493125</v>
       </c>
       <c r="E854">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F854" s="2">
-        <v>45834.44327546296</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -21868,16 +21868,16 @@
         <v>1</v>
       </c>
       <c r="C872">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D872" s="2">
-        <v>45836.30897486969</v>
+        <v>45839.33734443318</v>
       </c>
       <c r="E872">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F872" s="2">
-        <v>45835.74</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -21894,16 +21894,16 @@
         <v>1</v>
       </c>
       <c r="C873">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="D873" s="2">
-        <v>45795.04204563411</v>
+        <v>45839.3373049271</v>
       </c>
       <c r="E873">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="F873" s="2">
-        <v>45751.5671412037</v>
+        <v>45838.70236111111</v>
       </c>
       <c r="G873">
         <v>0</v>
@@ -21972,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="C876">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D876" s="2">
-        <v>45836.30888099733</v>
+        <v>45839.33734443074</v>
       </c>
       <c r="E876">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F876" s="2">
-        <v>45835.62402777778</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -22145,16 +22145,16 @@
         <v>1</v>
       </c>
       <c r="C883">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="D883" s="2">
-        <v>45836.30897486569</v>
+        <v>45839.33734442828</v>
       </c>
       <c r="E883">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="F883" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -22324,16 +22324,16 @@
         <v>1</v>
       </c>
       <c r="C890">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D890" s="2">
-        <v>45799.895451121</v>
+        <v>45839.33732491588</v>
       </c>
       <c r="E890">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F890" s="2">
-        <v>45799.39967592592</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G890">
         <v>0</v>
@@ -22350,16 +22350,16 @@
         <v>1</v>
       </c>
       <c r="C891">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D891" s="2">
-        <v>45820.30824422744</v>
+        <v>45839.33732491597</v>
       </c>
       <c r="E891">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F891" s="2">
-        <v>45819.61774305555</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -22526,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="C898">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="D898" s="2">
-        <v>45836.30888100039</v>
+        <v>45839.33730492333</v>
       </c>
       <c r="E898">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="F898" s="2">
-        <v>45835.6687962963</v>
+        <v>45838.65532407408</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -22806,16 +22806,16 @@
         <v>1</v>
       </c>
       <c r="C909">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D909" s="2">
-        <v>45814.82980240628</v>
+        <v>45839.33732491606</v>
       </c>
       <c r="E909">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F909" s="2">
-        <v>45814.75269675926</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -23083,16 +23083,16 @@
         <v>1</v>
       </c>
       <c r="C920">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D920" s="2">
-        <v>45836.30888099851</v>
+        <v>45839.3373249107</v>
       </c>
       <c r="E920">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F920" s="2">
-        <v>45835.66824074074</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G920">
         <v>0</v>
@@ -23161,16 +23161,16 @@
         <v>1</v>
       </c>
       <c r="C923">
-        <v>808</v>
+        <v>758</v>
       </c>
       <c r="D923" s="2">
-        <v>45827.49773230336</v>
+        <v>45839.33730492408</v>
       </c>
       <c r="E923">
-        <v>808</v>
+        <v>758</v>
       </c>
       <c r="F923" s="2">
-        <v>45827.44825231482</v>
+        <v>45838.66369212963</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -23187,16 +23187,16 @@
         <v>1</v>
       </c>
       <c r="C924">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D924" s="2">
-        <v>45836.30897487089</v>
+        <v>45839.33730491796</v>
       </c>
       <c r="E924">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F924" s="2">
-        <v>45835.76293981481</v>
+        <v>45838.49497685185</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -23213,16 +23213,16 @@
         <v>1</v>
       </c>
       <c r="C925">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D925" s="2">
-        <v>45832.99935919362</v>
+        <v>45839.33734443087</v>
       </c>
       <c r="E925">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F925" s="2">
-        <v>45832.40950231482</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G925">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>1</v>
       </c>
       <c r="C938">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D938" s="2">
-        <v>45810.72563721648</v>
+        <v>45839.33732491081</v>
       </c>
       <c r="E938">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F938" s="2">
-        <v>45810.75585648148</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G938">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>1</v>
       </c>
       <c r="C944">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D944" s="2">
-        <v>45835.41886851069</v>
+        <v>45839.33732491089</v>
       </c>
       <c r="E944">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F944" s="2">
-        <v>45834.7849537037</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G944">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="D962" s="2">
-        <v>45835.41884528426</v>
+        <v>45839.33730493139</v>
       </c>
       <c r="E962">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="F962" s="2">
-        <v>45834.66123842593</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>1</v>
       </c>
       <c r="C963">
-        <v>1550</v>
+        <v>1485</v>
       </c>
       <c r="D963" s="2">
-        <v>45836.30897487001</v>
+        <v>45839.33734443106</v>
       </c>
       <c r="E963">
-        <v>1550</v>
+        <v>1485</v>
       </c>
       <c r="F963" s="2">
-        <v>45835.74</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -24390,16 +24390,16 @@
         <v>1</v>
       </c>
       <c r="C972">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D972" s="2">
-        <v>45836.3088810007</v>
+        <v>45839.3373249135</v>
       </c>
       <c r="E972">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F972" s="2">
-        <v>45835.6687962963</v>
+        <v>45838.76819444444</v>
       </c>
       <c r="G972">
         <v>0</v>
@@ -24517,16 +24517,16 @@
         <v>1</v>
       </c>
       <c r="C977">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D977" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33732491246</v>
       </c>
       <c r="E977">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F977" s="2">
-        <v>45811.50664351852</v>
+        <v>45838.76650462963</v>
       </c>
       <c r="G977">
         <v>0</v>
@@ -24999,16 +24999,16 @@
         <v>1</v>
       </c>
       <c r="C996">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D996" s="2">
-        <v>45835.41884528202</v>
+        <v>45839.33730492187</v>
       </c>
       <c r="E996">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F996" s="2">
-        <v>45834.62445601852</v>
+        <v>45838.64166666667</v>
       </c>
       <c r="G996">
         <v>0</v>
@@ -25155,16 +25155,16 @@
         <v>1</v>
       </c>
       <c r="C1002">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D1002" s="2">
-        <v>45833.77618178075</v>
+        <v>45839.33732490925</v>
       </c>
       <c r="E1002">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="F1002" s="2">
-        <v>45833.54157407407</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G1002">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>1</v>
       </c>
       <c r="C1004">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1004" s="2">
-        <v>45795.04190003897</v>
+        <v>45839.33728134735</v>
       </c>
       <c r="E1004">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F1004" s="2">
-        <v>45642.73149305556</v>
+        <v>45838.44359953704</v>
       </c>
       <c r="G1004">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>-5633</v>
       </c>
       <c r="F1015" s="2">
-        <v>45831.43289351852</v>
+        <v>45838.80333333334</v>
       </c>
       <c r="G1015">
         <v>0</v>
@@ -25559,16 +25559,16 @@
         <v>1</v>
       </c>
       <c r="C1018">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1018" s="2">
-        <v>45836.30897485506</v>
+        <v>45839.33732490935</v>
       </c>
       <c r="E1018">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1018" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -25712,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="C1024">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D1024" s="2">
-        <v>45833.77620284279</v>
+        <v>45839.33730493154</v>
       </c>
       <c r="E1024">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F1024" s="2">
-        <v>45833.73675925926</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1024">
         <v>0</v>
@@ -25738,16 +25738,16 @@
         <v>1</v>
       </c>
       <c r="C1025">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D1025" s="2">
-        <v>45833.77620283711</v>
+        <v>45839.33730493169</v>
       </c>
       <c r="E1025">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F1025" s="2">
-        <v>45833.54157407407</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1025">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>1</v>
       </c>
       <c r="C1026">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D1026" s="2">
-        <v>45827.49771214321</v>
+        <v>45839.33730493184</v>
       </c>
       <c r="E1026">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F1026" s="2">
-        <v>45826.46430555556</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -25937,16 +25937,16 @@
         <v>1</v>
       </c>
       <c r="C1033">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D1033" s="2">
-        <v>45836.30897485031</v>
+        <v>45839.33734443149</v>
       </c>
       <c r="E1033">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F1033" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.77559027778</v>
       </c>
       <c r="G1033">
         <v>0</v>
@@ -26090,16 +26090,16 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D1039" s="2">
-        <v>45832.99937863906</v>
+        <v>45839.33728134534</v>
       </c>
       <c r="E1039">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1039" s="2">
-        <v>45832.75739583333</v>
+        <v>45838.38265046296</v>
       </c>
       <c r="G1039">
         <v>0</v>
@@ -26295,16 +26295,16 @@
         <v>1</v>
       </c>
       <c r="C1047">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1047" s="2">
-        <v>45795.04199234088</v>
+        <v>45839.33730491896</v>
       </c>
       <c r="E1047">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1047" s="2">
-        <v>45702.54532407408</v>
+        <v>45838.51489583333</v>
       </c>
       <c r="G1047">
         <v>0</v>
@@ -26347,16 +26347,16 @@
         <v>1</v>
       </c>
       <c r="C1049">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1049" s="2">
-        <v>45795.04204563411</v>
+        <v>45839.33732490944</v>
       </c>
       <c r="E1049">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1049" s="2">
-        <v>45756.41339120371</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G1049">
         <v>0</v>
@@ -26546,16 +26546,16 @@
         <v>1</v>
       </c>
       <c r="C1057">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="D1057" s="2">
-        <v>45835.41884528847</v>
+        <v>45839.33728134832</v>
       </c>
       <c r="E1057">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F1057" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.48658564815</v>
       </c>
       <c r="G1057">
         <v>0</v>
@@ -26650,16 +26650,16 @@
         <v>1</v>
       </c>
       <c r="C1061">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1061" s="2">
-        <v>45835.41884527645</v>
+        <v>45839.33732491111</v>
       </c>
       <c r="E1061">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1061" s="2">
-        <v>45834.48019675926</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -26676,16 +26676,16 @@
         <v>1</v>
       </c>
       <c r="C1062">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="D1062" s="2">
-        <v>45836.30897486595</v>
+        <v>45839.3373444333</v>
       </c>
       <c r="E1062">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="F1062" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -27564,16 +27564,16 @@
         <v>1</v>
       </c>
       <c r="C1098">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D1098" s="2">
-        <v>45833.7762028403</v>
+        <v>45839.33730491956</v>
       </c>
       <c r="E1098">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F1098" s="2">
-        <v>45833.68471064815</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G1098">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>1</v>
       </c>
       <c r="C1121">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1121" s="2">
-        <v>45829.29943059646</v>
+        <v>45839.33730492619</v>
       </c>
       <c r="E1121">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1121" s="2">
-        <v>45828.52141203704</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G1121">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>1</v>
       </c>
       <c r="C1122">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1122" s="2">
-        <v>45833.77618176814</v>
+        <v>45839.33732491258</v>
       </c>
       <c r="E1122">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F1122" s="2">
-        <v>45833.38887731481</v>
+        <v>45838.76650462963</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -28274,16 +28274,16 @@
         <v>1</v>
       </c>
       <c r="C1126">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="D1126" s="2">
-        <v>45833.77620284229</v>
+        <v>45839.33730493201</v>
       </c>
       <c r="E1126">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="F1126" s="2">
-        <v>45833.73585648148</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -28453,16 +28453,16 @@
         <v>1</v>
       </c>
       <c r="C1133">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1133" s="2">
-        <v>45835.4188452889</v>
+        <v>45839.3373249112</v>
       </c>
       <c r="E1133">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F1133" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1133">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>2</v>
       </c>
       <c r="F1134" s="2">
-        <v>45834.78532407407</v>
+        <v>45838.64739583333</v>
       </c>
       <c r="G1134">
         <v>0</v>
@@ -28805,16 +28805,16 @@
         <v>1</v>
       </c>
       <c r="C1147">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D1147" s="2">
-        <v>45836.30897487031</v>
+        <v>45839.33734443118</v>
       </c>
       <c r="E1147">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F1147" s="2">
-        <v>45835.74</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -28857,16 +28857,16 @@
         <v>1</v>
       </c>
       <c r="C1149">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1149" s="2">
-        <v>45836.30888098301</v>
+        <v>45839.33728134491</v>
       </c>
       <c r="E1149">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1149" s="2">
-        <v>45835.47430555556</v>
+        <v>45838.38143518518</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -28935,16 +28935,16 @@
         <v>1</v>
       </c>
       <c r="C1152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1152" s="2">
-        <v>45795.04163815061</v>
+        <v>45839.3373249113</v>
       </c>
       <c r="E1152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1152" s="2">
-        <v>45372.6758449074</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1152">
         <v>0</v>
@@ -29013,16 +29013,16 @@
         <v>1</v>
       </c>
       <c r="C1155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1155" s="2">
-        <v>45836.30888099883</v>
+        <v>45839.33732491139</v>
       </c>
       <c r="E1155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1155" s="2">
-        <v>45835.66824074074</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1155">
         <v>0</v>
@@ -29143,16 +29143,16 @@
         <v>1</v>
       </c>
       <c r="C1160">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1160" s="2">
-        <v>45835.41882279545</v>
+        <v>45839.33728134578</v>
       </c>
       <c r="E1160">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1160" s="2">
-        <v>45834.43501157407</v>
+        <v>45838.38952546296</v>
       </c>
       <c r="G1160">
         <v>0</v>
@@ -29495,16 +29495,16 @@
         <v>1</v>
       </c>
       <c r="C1174">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D1174" s="2">
-        <v>45833.77618177576</v>
+        <v>45839.33730492379</v>
       </c>
       <c r="E1174">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F1174" s="2">
-        <v>45833.48585648148</v>
+        <v>45838.66144675926</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -29573,16 +29573,16 @@
         <v>1</v>
       </c>
       <c r="C1177">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1177" s="2">
-        <v>45831.31672867704</v>
+        <v>45839.33732491148</v>
       </c>
       <c r="E1177">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1177" s="2">
-        <v>45829.48858796297</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1177">
         <v>0</v>
@@ -29726,16 +29726,16 @@
         <v>1</v>
       </c>
       <c r="C1183">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1183" s="2">
-        <v>45835.4188452781</v>
+        <v>45839.33732491158</v>
       </c>
       <c r="E1183">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F1183" s="2">
-        <v>45834.50736111111</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -29830,16 +29830,16 @@
         <v>1</v>
       </c>
       <c r="C1187">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D1187" s="2">
-        <v>45835.41884528515</v>
+        <v>45839.33730493235</v>
       </c>
       <c r="E1187">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F1187" s="2">
-        <v>45834.66123842593</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -30038,16 +30038,16 @@
         <v>1</v>
       </c>
       <c r="C1195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1195" s="2">
-        <v>45832.99935919391</v>
+        <v>45839.33730491848</v>
       </c>
       <c r="E1195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1195" s="2">
-        <v>45832.40950231482</v>
+        <v>45838.50037037037</v>
       </c>
       <c r="G1195">
         <v>0</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="C1199">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1199" s="2">
-        <v>45827.49771214693</v>
+        <v>45839.33732491425</v>
       </c>
       <c r="E1199">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1199" s="2">
-        <v>45826.54380787037</v>
+        <v>45838.7687962963</v>
       </c>
       <c r="G1199">
         <v>0</v>
@@ -30760,16 +30760,16 @@
         <v>1</v>
       </c>
       <c r="C1223">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D1223" s="2">
-        <v>45828.4052717333</v>
+        <v>45839.33732491406</v>
       </c>
       <c r="E1223">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1223" s="2">
-        <v>45827.86087962963</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G1223">
         <v>0</v>
@@ -31372,16 +31372,16 @@
         <v>1</v>
       </c>
       <c r="C1247">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D1247" s="2">
-        <v>45835.41884527487</v>
+        <v>45839.33728134801</v>
       </c>
       <c r="E1247">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F1247" s="2">
-        <v>45834.47268518519</v>
+        <v>45838.48253472222</v>
       </c>
       <c r="G1247">
         <v>0</v>
@@ -31528,16 +31528,16 @@
         <v>1</v>
       </c>
       <c r="C1253">
-        <v>158</v>
+        <v>1242</v>
       </c>
       <c r="D1253" s="2">
-        <v>45836.30897487145</v>
+        <v>45839.33734443547</v>
       </c>
       <c r="E1253">
-        <v>158</v>
+        <v>1242</v>
       </c>
       <c r="F1253" s="2">
-        <v>45835.76293981481</v>
+        <v>45838.8240625</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -31577,16 +31577,16 @@
         <v>1</v>
       </c>
       <c r="C1255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1255" s="2">
-        <v>45833.77618176919</v>
+        <v>45839.33732491167</v>
       </c>
       <c r="E1255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1255" s="2">
-        <v>45833.40459490741</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1255">
         <v>0</v>
@@ -32348,16 +32348,16 @@
         <v>1</v>
       </c>
       <c r="C1285">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="D1285" s="2">
-        <v>45806.77605776805</v>
+        <v>45839.33732491176</v>
       </c>
       <c r="E1285">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="F1285" s="2">
-        <v>45806.75375</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1285">
         <v>0</v>
@@ -32501,7 +32501,7 @@
         <v>27</v>
       </c>
       <c r="F1291" s="2">
-        <v>45832.44</v>
+        <v>45838.41636574074</v>
       </c>
       <c r="G1291">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>1</v>
       </c>
       <c r="C1324">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1324" s="2">
-        <v>45833.77620283811</v>
+        <v>45839.33728134593</v>
       </c>
       <c r="E1324">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1324" s="2">
-        <v>45833.65372685185</v>
+        <v>45838.39060185185</v>
       </c>
       <c r="G1324">
         <v>0</v>
@@ -33462,16 +33462,16 @@
         <v>1</v>
       </c>
       <c r="C1329">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1329" s="2">
-        <v>45820.91697502734</v>
+        <v>45839.33728134882</v>
       </c>
       <c r="E1329">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1329" s="2">
-        <v>45820.75637731481</v>
+        <v>45838.49439814815</v>
       </c>
       <c r="G1329">
         <v>0</v>
@@ -33540,16 +33540,16 @@
         <v>1</v>
       </c>
       <c r="C1332">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1332" s="2">
-        <v>45836.3089748706</v>
+        <v>45839.3373444334</v>
       </c>
       <c r="E1332">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1332" s="2">
-        <v>45835.74</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G1332">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>1</v>
       </c>
       <c r="C1342">
-        <v>523</v>
+        <v>1207</v>
       </c>
       <c r="D1342" s="2">
-        <v>45836.30897485059</v>
+        <v>45839.33734443558</v>
       </c>
       <c r="E1342">
-        <v>523</v>
+        <v>1207</v>
       </c>
       <c r="F1342" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.82445601852</v>
       </c>
       <c r="G1342">
         <v>0</v>
@@ -34051,13 +34051,16 @@
         <v>1</v>
       </c>
       <c r="C1352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1352" s="2">
-        <v>45795.04158668432</v>
+        <v>45839.33730492634</v>
       </c>
       <c r="E1352">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F1352" s="2">
+        <v>45838.69944444444</v>
       </c>
       <c r="G1352">
         <v>0</v>
@@ -34135,7 +34138,7 @@
         <v>1</v>
       </c>
       <c r="F1355" s="2">
-        <v>45792.68271990741</v>
+        <v>45839.36393518518</v>
       </c>
       <c r="G1355">
         <v>0</v>
@@ -34963,16 +34966,16 @@
         <v>1</v>
       </c>
       <c r="C1388">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="D1388" s="2">
-        <v>45821.87950559524</v>
+        <v>45839.33732491187</v>
       </c>
       <c r="E1388">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="F1388" s="2">
-        <v>45821.43476851852</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1388">
         <v>0</v>
@@ -35015,16 +35018,16 @@
         <v>1</v>
       </c>
       <c r="C1390">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1390" s="2">
-        <v>45835.41886850548</v>
+        <v>45839.33730492649</v>
       </c>
       <c r="E1390">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1390" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G1390">
         <v>0</v>
@@ -35067,16 +35070,16 @@
         <v>1</v>
       </c>
       <c r="C1392">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1392" s="2">
-        <v>45825.28852326855</v>
+        <v>45839.33728134503</v>
       </c>
       <c r="E1392">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1392" s="2">
-        <v>45824.74362268519</v>
+        <v>45838.38143518518</v>
       </c>
       <c r="G1392">
         <v>0</v>
@@ -35295,16 +35298,16 @@
         <v>1</v>
       </c>
       <c r="C1401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1401" s="2">
-        <v>45836.30888098569</v>
+        <v>45839.3373049325</v>
       </c>
       <c r="E1401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1401" s="2">
-        <v>45508.87366898148</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1401">
         <v>0</v>
@@ -35344,16 +35347,16 @@
         <v>1</v>
       </c>
       <c r="C1403">
-        <v>105</v>
+        <v>-45</v>
       </c>
       <c r="D1403" s="2">
-        <v>45811.92549991595</v>
+        <v>45839.33730492424</v>
       </c>
       <c r="E1403">
-        <v>105</v>
+        <v>-45</v>
       </c>
       <c r="F1403" s="2">
-        <v>45811.69771990741</v>
+        <v>45838.66369212963</v>
       </c>
       <c r="G1403">
         <v>0</v>
@@ -35552,16 +35555,16 @@
         <v>1</v>
       </c>
       <c r="C1411">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D1411" s="2">
-        <v>45832.99935919814</v>
+        <v>45839.33732491267</v>
       </c>
       <c r="E1411">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F1411" s="2">
-        <v>45832.42436342593</v>
+        <v>45838.76650462963</v>
       </c>
       <c r="G1411">
         <v>0</v>
@@ -35578,16 +35581,16 @@
         <v>1</v>
       </c>
       <c r="C1412">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D1412" s="2">
-        <v>45831.83463792966</v>
+        <v>45839.33734443351</v>
       </c>
       <c r="E1412">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F1412" s="2">
-        <v>45831.81233796296</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -35806,16 +35809,16 @@
         <v>1</v>
       </c>
       <c r="C1421">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="D1421" s="2">
-        <v>45836.30897485088</v>
+        <v>45839.33732491616</v>
       </c>
       <c r="E1421">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="F1421" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1421">
         <v>0</v>
@@ -35832,16 +35835,16 @@
         <v>1</v>
       </c>
       <c r="C1422">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1422" s="2">
-        <v>45835.41886853177</v>
+        <v>45839.33732491195</v>
       </c>
       <c r="E1422">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1422" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -36450,16 +36453,16 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1446" s="2">
-        <v>45835.41882279884</v>
+        <v>45839.33728134513</v>
       </c>
       <c r="E1446">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1446" s="2">
-        <v>45834.44327546296</v>
+        <v>45838.38143518518</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -36502,16 +36505,16 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D1448" s="2">
-        <v>45833.77620284251</v>
+        <v>45839.33732491624</v>
       </c>
       <c r="E1448">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F1448" s="2">
-        <v>45833.73585648148</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1448">
         <v>0</v>
@@ -37910,16 +37913,16 @@
         <v>1</v>
       </c>
       <c r="C1504">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1504" s="2">
-        <v>45799.895427387</v>
+        <v>45839.33734443128</v>
       </c>
       <c r="E1504">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F1504" s="2">
-        <v>45799.64056712963</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G1504">
         <v>0</v>
@@ -37988,16 +37991,16 @@
         <v>1</v>
       </c>
       <c r="C1507">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D1507" s="2">
-        <v>45835.4188452759</v>
+        <v>45839.33734442838</v>
       </c>
       <c r="E1507">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F1507" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G1507">
         <v>0</v>
@@ -38066,16 +38069,16 @@
         <v>1</v>
       </c>
       <c r="C1510">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="D1510" s="2">
-        <v>45835.41884528911</v>
+        <v>45839.33728134817</v>
       </c>
       <c r="E1510">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="F1510" s="2">
-        <v>45834.68826388889</v>
+        <v>45838.48392361111</v>
       </c>
       <c r="G1510">
         <v>0</v>
@@ -39242,16 +39245,16 @@
         <v>1</v>
       </c>
       <c r="C1558">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D1558" s="2">
-        <v>45836.30897487172</v>
+        <v>45839.33730493266</v>
       </c>
       <c r="E1558">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F1558" s="2">
-        <v>45835.76293981481</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1558">
         <v>0</v>
@@ -39479,7 +39482,7 @@
         <v>0</v>
       </c>
       <c r="F1567" s="2">
-        <v>45817.64519675926</v>
+        <v>45838.78050925926</v>
       </c>
       <c r="G1567">
         <v>0</v>
@@ -39600,16 +39603,16 @@
         <v>1</v>
       </c>
       <c r="C1572">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1572" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33732491206</v>
       </c>
       <c r="E1572">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1572" s="2">
-        <v>45811.50252314815</v>
+        <v>45838.73396990741</v>
       </c>
       <c r="G1572">
         <v>0</v>
@@ -40145,16 +40148,16 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D1594" s="2">
-        <v>45835.41886850575</v>
+        <v>45839.33730492786</v>
       </c>
       <c r="E1594">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F1594" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.7171875</v>
       </c>
       <c r="G1594">
         <v>0</v>
@@ -40223,16 +40226,16 @@
         <v>1</v>
       </c>
       <c r="C1597">
-        <v>4679</v>
+        <v>4451</v>
       </c>
       <c r="D1597" s="2">
-        <v>45836.30897486622</v>
+        <v>45839.33734442848</v>
       </c>
       <c r="E1597">
-        <v>4679</v>
+        <v>4451</v>
       </c>
       <c r="F1597" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G1597">
         <v>0</v>
@@ -40298,16 +40301,16 @@
         <v>1</v>
       </c>
       <c r="C1600">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1600" s="2">
-        <v>45836.30888099396</v>
+        <v>45839.33730493284</v>
       </c>
       <c r="E1600">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1600" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1600">
         <v>0</v>
@@ -40445,16 +40448,16 @@
         <v>1</v>
       </c>
       <c r="C1606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1606" s="2">
-        <v>45799.89528858563</v>
+        <v>45839.33732491633</v>
       </c>
       <c r="E1606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1606" s="2">
-        <v>45834.78859953704</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1606">
         <v>0</v>
@@ -40852,16 +40855,16 @@
         <v>1</v>
       </c>
       <c r="C1622">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D1622" s="2">
-        <v>45835.41884529463</v>
+        <v>45839.33728134701</v>
       </c>
       <c r="E1622">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F1622" s="2">
-        <v>45834.74021990741</v>
+        <v>45838.41483796296</v>
       </c>
       <c r="G1622">
         <v>0</v>
@@ -41086,16 +41089,16 @@
         <v>1</v>
       </c>
       <c r="C1631">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1631" s="2">
-        <v>45818.30486084249</v>
+        <v>45839.33732491642</v>
       </c>
       <c r="E1631">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1631" s="2">
-        <v>45817.6315625</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1631">
         <v>0</v>
@@ -41190,16 +41193,16 @@
         <v>1</v>
       </c>
       <c r="C1635">
-        <v>2376</v>
+        <v>2358</v>
       </c>
       <c r="D1635" s="2">
-        <v>45836.30897486649</v>
+        <v>45839.33732491652</v>
       </c>
       <c r="E1635">
-        <v>2376</v>
+        <v>2358</v>
       </c>
       <c r="F1635" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1635">
         <v>0</v>
@@ -41576,16 +41579,16 @@
         <v>1</v>
       </c>
       <c r="C1651">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1651" s="2">
-        <v>45833.77620284302</v>
+        <v>45839.3373444337</v>
       </c>
       <c r="E1651">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1651" s="2">
-        <v>45833.76623842592</v>
+        <v>45838.79201388889</v>
       </c>
       <c r="G1651">
         <v>0</v>
@@ -41703,16 +41706,16 @@
         <v>1</v>
       </c>
       <c r="C1656">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D1656" s="2">
-        <v>45836.30888099089</v>
+        <v>45839.33734443568</v>
       </c>
       <c r="E1656">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F1656" s="2">
-        <v>45835.52792824074</v>
+        <v>45838.8253125</v>
       </c>
       <c r="G1656">
         <v>0</v>
@@ -41755,16 +41758,16 @@
         <v>1</v>
       </c>
       <c r="C1658">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D1658" s="2">
-        <v>45799.89528858563</v>
+        <v>45839.33732490954</v>
       </c>
       <c r="E1658">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F1658" s="2">
-        <v>45782.49061342593</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G1658">
         <v>0</v>
@@ -42240,7 +42243,7 @@
         <v>0</v>
       </c>
       <c r="F1677" s="2">
-        <v>45299.55751157407</v>
+        <v>45838.68362268519</v>
       </c>
       <c r="G1677">
         <v>0</v>
@@ -43508,16 +43511,16 @@
         <v>1</v>
       </c>
       <c r="C1729">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D1729" s="2">
-        <v>45836.30897485115</v>
+        <v>45839.33730492512</v>
       </c>
       <c r="E1729">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1729" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.69246527777</v>
       </c>
       <c r="G1729">
         <v>0</v>
@@ -43756,16 +43759,16 @@
         <v>1</v>
       </c>
       <c r="C1739">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1739" s="2">
-        <v>45831.83461823994</v>
+        <v>45839.33730491971</v>
       </c>
       <c r="E1739">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1739" s="2">
-        <v>45831.44920138889</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G1739">
         <v>0</v>
@@ -43782,16 +43785,16 @@
         <v>1</v>
       </c>
       <c r="C1740">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1740" s="2">
-        <v>45828.40527173207</v>
+        <v>45839.33730493295</v>
       </c>
       <c r="E1740">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F1740" s="2">
-        <v>45827.5978587963</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G1740">
         <v>0</v>
@@ -44105,7 +44108,7 @@
         <v>3</v>
       </c>
       <c r="F1753" s="2">
-        <v>45806.74983796296</v>
+        <v>45838.79361111111</v>
       </c>
       <c r="G1753">
         <v>0</v>
@@ -44301,16 +44304,16 @@
         <v>1</v>
       </c>
       <c r="C1761">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1761" s="2">
-        <v>45832.99935919245</v>
+        <v>45839.33730492663</v>
       </c>
       <c r="E1761">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1761" s="2">
-        <v>45331.64280092593</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G1761">
         <v>0</v>
@@ -45536,16 +45539,16 @@
         <v>1</v>
       </c>
       <c r="C1810">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1810" s="2">
-        <v>45833.77618177173</v>
+        <v>45839.33732491434</v>
       </c>
       <c r="E1810">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1810" s="2">
-        <v>45833.43788194445</v>
+        <v>45838.7687962963</v>
       </c>
       <c r="G1810">
         <v>0</v>
@@ -46402,16 +46405,16 @@
         <v>1</v>
       </c>
       <c r="C1844">
-        <v>66</v>
+        <v>412</v>
       </c>
       <c r="D1844" s="2">
-        <v>45836.30897485587</v>
+        <v>45839.337344436</v>
       </c>
       <c r="E1844">
-        <v>66</v>
+        <v>412</v>
       </c>
       <c r="F1844" s="2">
-        <v>45835.72380787037</v>
+        <v>45839.36480324074</v>
       </c>
       <c r="G1844">
         <v>0</v>
@@ -46454,16 +46457,16 @@
         <v>1</v>
       </c>
       <c r="C1846">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D1846" s="2">
-        <v>45836.30897486677</v>
+        <v>45839.33730492729</v>
       </c>
       <c r="E1846">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F1846" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.70473379629</v>
       </c>
       <c r="G1846">
         <v>0</v>
@@ -46702,16 +46705,16 @@
         <v>1</v>
       </c>
       <c r="C1856">
-        <v>3</v>
+        <v>-47</v>
       </c>
       <c r="D1856" s="2">
-        <v>45833.77620283733</v>
+        <v>45839.33730492439</v>
       </c>
       <c r="E1856">
-        <v>3</v>
+        <v>-47</v>
       </c>
       <c r="F1856" s="2">
-        <v>45833.54157407407</v>
+        <v>45838.66369212963</v>
       </c>
       <c r="G1856">
         <v>0</v>
@@ -47421,16 +47424,16 @@
         <v>1</v>
       </c>
       <c r="C1884">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D1884" s="2">
-        <v>45795.04177855738</v>
+        <v>45839.3373049268</v>
       </c>
       <c r="E1884">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F1884" s="2">
-        <v>45404.73696759259</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G1884">
         <v>0</v>
@@ -48125,16 +48128,16 @@
         <v>1</v>
       </c>
       <c r="C1912">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D1912" s="2">
-        <v>45834.28681886538</v>
+        <v>45839.33730491986</v>
       </c>
       <c r="E1912">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F1912" s="2">
-        <v>45833.87310185185</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G1912">
         <v>0</v>
@@ -48861,16 +48864,16 @@
         <v>1</v>
       </c>
       <c r="C1941">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1941" s="2">
-        <v>45829.29943059885</v>
+        <v>45839.33732491661</v>
       </c>
       <c r="E1941">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1941" s="2">
-        <v>45828.54484953704</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G1941">
         <v>0</v>
@@ -49259,16 +49262,16 @@
         <v>1</v>
       </c>
       <c r="C1957">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D1957" s="2">
-        <v>45799.8954032937</v>
+        <v>45839.33728134685</v>
       </c>
       <c r="E1957">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F1957" s="2">
-        <v>45799.40561342592</v>
+        <v>45838.41318287037</v>
       </c>
       <c r="G1957">
         <v>0</v>
@@ -49845,7 +49848,7 @@
         <v>0</v>
       </c>
       <c r="F1980" s="2">
-        <v>45812.32672453704</v>
+        <v>45838.65465277778</v>
       </c>
       <c r="G1980">
         <v>0</v>
@@ -50912,16 +50915,16 @@
         <v>1</v>
       </c>
       <c r="C2023">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D2023" s="2">
-        <v>45836.30897486</v>
+        <v>45839.33734443361</v>
       </c>
       <c r="E2023">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F2023" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.79094907407</v>
       </c>
       <c r="G2023">
         <v>0</v>
@@ -50938,16 +50941,16 @@
         <v>1</v>
       </c>
       <c r="C2024">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D2024" s="2">
-        <v>45834.28681886487</v>
+        <v>45839.3373249077</v>
       </c>
       <c r="E2024">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F2024" s="2">
-        <v>45833.8713425926</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2024">
         <v>0</v>
@@ -51062,16 +51065,16 @@
         <v>1</v>
       </c>
       <c r="C2029">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D2029" s="2">
-        <v>45813.95785147848</v>
+        <v>45839.33732491671</v>
       </c>
       <c r="E2029">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F2029" s="2">
-        <v>45813.58085648148</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G2029">
         <v>0</v>
@@ -51397,16 +51400,16 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2042" s="2">
-        <v>45825.82707706529</v>
+        <v>45839.33732490787</v>
       </c>
       <c r="E2042">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2042" s="2">
-        <v>45825.50549768518</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2042">
         <v>0</v>
@@ -51596,16 +51599,16 @@
         <v>1</v>
       </c>
       <c r="C2050">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2050" s="2">
-        <v>45803.62106753104</v>
+        <v>45839.33734443498</v>
       </c>
       <c r="E2050">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2050" s="2">
-        <v>45803.38153935185</v>
+        <v>45838.81163194445</v>
       </c>
       <c r="G2050">
         <v>0</v>
@@ -52029,16 +52032,16 @@
         <v>1</v>
       </c>
       <c r="C2067">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="D2067" s="2">
-        <v>45820.91695281426</v>
+        <v>45839.33730492453</v>
       </c>
       <c r="E2067">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="F2067" s="2">
-        <v>45831.52096064815</v>
+        <v>45838.66369212963</v>
       </c>
       <c r="G2067">
         <v>0</v>
@@ -53183,16 +53186,16 @@
         <v>1</v>
       </c>
       <c r="C2113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2113" s="2">
-        <v>45795.04208095842</v>
+        <v>45839.33732490797</v>
       </c>
       <c r="E2113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2113" s="2">
-        <v>45757.62432870371</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2113">
         <v>0</v>
@@ -53457,16 +53460,16 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D2124" s="2">
-        <v>45820.91695281444</v>
+        <v>45839.33732491681</v>
       </c>
       <c r="E2124">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F2124" s="2">
-        <v>45820.60888888889</v>
+        <v>45838.77019675926</v>
       </c>
       <c r="G2124">
         <v>0</v>
@@ -53633,16 +53636,16 @@
         <v>1</v>
       </c>
       <c r="C2131">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2131" s="2">
-        <v>45835.41886853471</v>
+        <v>45839.33730491926</v>
       </c>
       <c r="E2131">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F2131" s="2">
-        <v>45835.41170138889</v>
+        <v>45838.52751157407</v>
       </c>
       <c r="G2131">
         <v>0</v>
@@ -54092,16 +54095,16 @@
         <v>1</v>
       </c>
       <c r="C2149">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2149" s="2">
-        <v>45806.77600903736</v>
+        <v>45839.33730491832</v>
       </c>
       <c r="E2149">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2149" s="2">
-        <v>45806.44605324074</v>
+        <v>45838.49722222222</v>
       </c>
       <c r="G2149">
         <v>0</v>
@@ -56377,16 +56380,16 @@
         <v>1</v>
       </c>
       <c r="C2240">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D2240" s="2">
-        <v>45836.30897486704</v>
+        <v>45839.33728134544</v>
       </c>
       <c r="E2240">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F2240" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.38265046296</v>
       </c>
       <c r="G2240">
         <v>0</v>
@@ -56403,16 +56406,16 @@
         <v>1</v>
       </c>
       <c r="C2241">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2241" s="2">
-        <v>45836.3089748673</v>
+        <v>45839.33728134554</v>
       </c>
       <c r="E2241">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2241" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.38265046296</v>
       </c>
       <c r="G2241">
         <v>0</v>
@@ -56429,16 +56432,16 @@
         <v>1</v>
       </c>
       <c r="C2242">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2242" s="2">
-        <v>45820.91697501732</v>
+        <v>45839.33730492694</v>
       </c>
       <c r="E2242">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2242" s="2">
-        <v>45820.67057870371</v>
+        <v>45838.69944444444</v>
       </c>
       <c r="G2242">
         <v>0</v>
@@ -57817,16 +57820,16 @@
         <v>1</v>
       </c>
       <c r="C2297">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D2297" s="2">
-        <v>45799.89532165734</v>
+        <v>45839.33734443445</v>
       </c>
       <c r="E2297">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F2297" s="2">
-        <v>45786.67027777778</v>
+        <v>45838.80425925926</v>
       </c>
       <c r="G2297">
         <v>0</v>
@@ -58558,16 +58561,16 @@
         <v>1</v>
       </c>
       <c r="C2327">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2327" s="2">
-        <v>45833.7762028412</v>
+        <v>45839.3373444286</v>
       </c>
       <c r="E2327">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2327" s="2">
-        <v>45833.69792824074</v>
+        <v>45838.77438657408</v>
       </c>
       <c r="G2327">
         <v>0</v>
@@ -58688,16 +58691,16 @@
         <v>1</v>
       </c>
       <c r="C2332">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2332" s="2">
-        <v>45828.40527173594</v>
+        <v>45839.33730491911</v>
       </c>
       <c r="E2332">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2332" s="2">
-        <v>45827.9083912037</v>
+        <v>45838.52734953703</v>
       </c>
       <c r="G2332">
         <v>0</v>
@@ -59628,16 +59631,16 @@
         <v>1</v>
       </c>
       <c r="C2370">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2370" s="2">
-        <v>45811.92546678011</v>
+        <v>45839.33732490808</v>
       </c>
       <c r="E2370">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2370" s="2">
-        <v>45811.50252314815</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2370">
         <v>0</v>
@@ -59933,6 +59936,9 @@
       <c r="E2382">
         <v>0</v>
       </c>
+      <c r="F2382" s="2">
+        <v>45838.68303240741</v>
+      </c>
       <c r="G2382">
         <v>0</v>
       </c>
@@ -60017,16 +60023,16 @@
         <v>1</v>
       </c>
       <c r="C2386">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2386" s="2">
-        <v>45832.99937862774</v>
+        <v>45839.33732491416</v>
       </c>
       <c r="E2386">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2386" s="2">
-        <v>45832.61487268518</v>
+        <v>45838.7684375</v>
       </c>
       <c r="G2386">
         <v>0</v>
@@ -60398,16 +60404,16 @@
         <v>1</v>
       </c>
       <c r="C2401">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2401" s="2">
-        <v>45831.83463792092</v>
+        <v>45839.33732490817</v>
       </c>
       <c r="E2401">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2401" s="2">
-        <v>45831.73116898148</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2401">
         <v>0</v>
@@ -60516,16 +60522,16 @@
         <v>1</v>
       </c>
       <c r="C2406">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2406" s="2">
-        <v>45813.95785146693</v>
+        <v>45839.33732491295</v>
       </c>
       <c r="E2406">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2406" s="2">
-        <v>45813.57788194445</v>
+        <v>45838.76719907407</v>
       </c>
       <c r="G2406">
         <v>0</v>
@@ -60695,16 +60701,16 @@
         <v>1</v>
       </c>
       <c r="C2413">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2413" s="2">
-        <v>45836.30897486027</v>
+        <v>45839.33732490963</v>
       </c>
       <c r="E2413">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2413" s="2">
-        <v>45835.73741898148</v>
+        <v>45838.72313657407</v>
       </c>
       <c r="G2413">
         <v>0</v>
@@ -60773,16 +60779,16 @@
         <v>1</v>
       </c>
       <c r="C2416">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D2416" s="2">
-        <v>45836.30897487202</v>
+        <v>45839.33734443139</v>
       </c>
       <c r="E2416">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F2416" s="2">
-        <v>45835.76293981481</v>
+        <v>45838.77478009259</v>
       </c>
       <c r="G2416">
         <v>0</v>
@@ -60857,7 +60863,7 @@
         <v>0</v>
       </c>
       <c r="F2419" s="2">
-        <v>45705.74207175926</v>
+        <v>45838.46579861111</v>
       </c>
       <c r="G2419">
         <v>0</v>
@@ -60874,16 +60880,16 @@
         <v>1</v>
       </c>
       <c r="C2420">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D2420" s="2">
-        <v>45795.04199234088</v>
+        <v>45839.33730492745</v>
       </c>
       <c r="E2420">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2420" s="2">
-        <v>45705.74207175926</v>
+        <v>45838.71241898148</v>
       </c>
       <c r="G2420">
         <v>0</v>
@@ -61079,7 +61085,7 @@
         <v>0</v>
       </c>
       <c r="D2428" s="2">
-        <v>45795.04199234088</v>
+        <v>45839.33732490978</v>
       </c>
       <c r="E2428">
         <v>0</v>
@@ -61272,16 +61278,16 @@
         <v>1</v>
       </c>
       <c r="C2436">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2436" s="2">
-        <v>45836.30897485613</v>
+        <v>45839.33730492349</v>
       </c>
       <c r="E2436">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F2436" s="2">
-        <v>45835.72380787037</v>
+        <v>45838.65634259259</v>
       </c>
       <c r="G2436">
         <v>0</v>
@@ -61834,16 +61840,16 @@
         <v>1</v>
       </c>
       <c r="C2459">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2459" s="2">
-        <v>45835.41886850654</v>
+        <v>45839.33728134669</v>
       </c>
       <c r="E2459">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2459" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.40947916666</v>
       </c>
       <c r="G2459">
         <v>0</v>
@@ -62203,7 +62209,7 @@
         <v>-15</v>
       </c>
       <c r="F2474" s="2">
-        <v>45834.75673611111</v>
+        <v>45838.61395833334</v>
       </c>
       <c r="G2474">
         <v>0</v>
@@ -62367,16 +62373,16 @@
         <v>1</v>
       </c>
       <c r="C2481">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D2481" s="2">
-        <v>45836.30888098459</v>
+        <v>45839.33730492</v>
       </c>
       <c r="E2481">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F2481" s="2">
-        <v>45835.47785879629</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G2481">
         <v>0</v>
@@ -62393,16 +62399,16 @@
         <v>1</v>
       </c>
       <c r="C2482">
-        <v>761</v>
+        <v>601</v>
       </c>
       <c r="D2482" s="2">
-        <v>45836.30888099538</v>
+        <v>45839.3373249083</v>
       </c>
       <c r="E2482">
-        <v>761</v>
+        <v>601</v>
       </c>
       <c r="F2482" s="2">
-        <v>45835.61805555555</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2482">
         <v>0</v>
@@ -62419,16 +62425,16 @@
         <v>1</v>
       </c>
       <c r="C2483">
-        <v>1023</v>
+        <v>883</v>
       </c>
       <c r="D2483" s="2">
-        <v>45836.30888099568</v>
+        <v>45839.33732490839</v>
       </c>
       <c r="E2483">
-        <v>1023</v>
+        <v>883</v>
       </c>
       <c r="F2483" s="2">
-        <v>45835.61805555555</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2483">
         <v>0</v>
@@ -62445,16 +62451,16 @@
         <v>1</v>
       </c>
       <c r="C2484">
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="D2484" s="2">
-        <v>45836.30888099598</v>
+        <v>45839.33730492018</v>
       </c>
       <c r="E2484">
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="F2484" s="2">
-        <v>45835.61805555555</v>
+        <v>45838.53253472222</v>
       </c>
       <c r="G2484">
         <v>0</v>
@@ -62532,7 +62538,7 @@
         <v>0</v>
       </c>
       <c r="F2487" s="2">
-        <v>45831.47940972223</v>
+        <v>45838.64957175926</v>
       </c>
       <c r="G2487">
         <v>0</v>
@@ -63701,16 +63707,16 @@
         <v>1</v>
       </c>
       <c r="C2536">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2536" s="2">
-        <v>45836.30897485194</v>
+        <v>45839.33730492527</v>
       </c>
       <c r="E2536">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F2536" s="2">
-        <v>45835.67112268518</v>
+        <v>45838.69280092593</v>
       </c>
       <c r="G2536">
         <v>0</v>
@@ -63727,16 +63733,16 @@
         <v>1</v>
       </c>
       <c r="C2537">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D2537" s="2">
-        <v>45832.99937863499</v>
+        <v>45839.33732490848</v>
       </c>
       <c r="E2537">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2537" s="2">
-        <v>45832.70378472222</v>
+        <v>45838.72134259259</v>
       </c>
       <c r="G2537">
         <v>0</v>
@@ -64923,16 +64929,16 @@
         <v>1</v>
       </c>
       <c r="C2586">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="D2586" s="2">
-        <v>45832.99937863028</v>
+        <v>45839.33730492801</v>
       </c>
       <c r="E2586">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="F2586" s="2">
-        <v>45835.54003472222</v>
+        <v>45838.71450231481</v>
       </c>
       <c r="G2586">
         <v>0</v>
@@ -65024,21 +65030,90 @@
         <v>1</v>
       </c>
       <c r="C2590">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="D2590" s="2">
-        <v>45836.30897486758</v>
+        <v>45839.33730492304</v>
       </c>
       <c r="E2590">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F2590" s="2">
-        <v>45835.73791666667</v>
+        <v>45838.65412037037</v>
       </c>
       <c r="G2590">
         <v>0</v>
       </c>
       <c r="H2590" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:8">
+      <c r="A2591">
+        <v>43954464</v>
+      </c>
+      <c r="B2591">
+        <v>1</v>
+      </c>
+      <c r="C2591">
+        <v>0</v>
+      </c>
+      <c r="D2591" s="2">
+        <v>45839.33730492545</v>
+      </c>
+      <c r="E2591">
+        <v>0</v>
+      </c>
+      <c r="G2591">
+        <v>0</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:8">
+      <c r="A2592">
+        <v>43954775</v>
+      </c>
+      <c r="B2592">
+        <v>1</v>
+      </c>
+      <c r="C2592">
+        <v>0</v>
+      </c>
+      <c r="D2592" s="2">
+        <v>45839.33732490964</v>
+      </c>
+      <c r="E2592">
+        <v>0</v>
+      </c>
+      <c r="G2592">
+        <v>0</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:8">
+      <c r="A2593">
+        <v>43954779</v>
+      </c>
+      <c r="B2593">
+        <v>1</v>
+      </c>
+      <c r="C2593">
+        <v>0</v>
+      </c>
+      <c r="D2593" s="2">
+        <v>45839.33732490966</v>
+      </c>
+      <c r="E2593">
+        <v>0</v>
+      </c>
+      <c r="G2593">
+        <v>0</v>
+      </c>
+      <c r="H2593" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/analise_consistencia_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="10">
   <si>
     <t>id_produto</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2593"/>
+  <dimension ref="A1:H2599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>45839.33728134898</v>
+        <v>45839.88101717283</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>45838.49497685185</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>45839.33734443455</v>
+        <v>45839.88099823055</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>45838.80732638889</v>
+        <v>45839.6671412037</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2">
-        <v>45835.41886850155</v>
+        <v>45839.88101716927</v>
       </c>
       <c r="E23">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2">
-        <v>45838.78107638889</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
-        <v>45839.33730492559</v>
+        <v>45839.88099823343</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2">
-        <v>45838.69944444444</v>
+        <v>45839.68621527778</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2730</v>
+        <v>2634</v>
       </c>
       <c r="D33" s="2">
-        <v>45839.33734443205</v>
+        <v>45839.88099821127</v>
       </c>
       <c r="E33">
-        <v>2730</v>
+        <v>2634</v>
       </c>
       <c r="F33" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.53225694445</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2">
-        <v>45839.33734443216</v>
+        <v>45839.88099823488</v>
       </c>
       <c r="E49">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2">
-        <v>45839.33730492817</v>
+        <v>45839.88101716644</v>
       </c>
       <c r="E56">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F56" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.69537037037</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2">
-        <v>45839.33730492575</v>
+        <v>45839.8810171666</v>
       </c>
       <c r="E63">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F63" s="2">
-        <v>45838.69944444444</v>
+        <v>45839.69537037037</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2">
-        <v>45836.30897485668</v>
+        <v>45839.8810171694</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2">
-        <v>45835.73741898148</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2">
-        <v>45839.33734443226</v>
+        <v>45839.88101717587</v>
       </c>
       <c r="E70">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.78440972222</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D81" s="2">
-        <v>45839.33732491506</v>
+        <v>45839.88099822195</v>
       </c>
       <c r="E81">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F81" s="2">
-        <v>45838.77019675926</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2">
-        <v>45839.33728134768</v>
+        <v>45839.88097972267</v>
       </c>
       <c r="E82">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2">
-        <v>45838.48253472222</v>
+        <v>45839.42005787037</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D83" s="2">
-        <v>45839.33732490859</v>
+        <v>45839.88099823508</v>
       </c>
       <c r="E83">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F83" s="2">
-        <v>45838.72313657407</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2">
-        <v>45839.33728134523</v>
+        <v>45839.88099823522</v>
       </c>
       <c r="E85">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2">
-        <v>45838.38265046296</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2503,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D86" s="2">
-        <v>45839.33730492202</v>
+        <v>45839.88099822219</v>
       </c>
       <c r="E86">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2">
-        <v>45838.64590277777</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2">
-        <v>45839.33734442881</v>
+        <v>45839.88101716954</v>
       </c>
       <c r="E87">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2">
-        <v>45839.33730492141</v>
+        <v>45839.88099821146</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2">
-        <v>45838.63424768519</v>
+        <v>45839.53225694445</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D94" s="2">
-        <v>45839.33734443236</v>
+        <v>45839.88101717598</v>
       </c>
       <c r="E94">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.78440972222</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D96" s="2">
-        <v>45839.33728134917</v>
+        <v>45839.88097972295</v>
       </c>
       <c r="E96">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2">
-        <v>45838.49497685185</v>
+        <v>45839.42005787037</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1683</v>
+        <v>1358</v>
       </c>
       <c r="D101" s="2">
-        <v>45839.33734442671</v>
+        <v>45839.88101717301</v>
       </c>
       <c r="E101">
-        <v>1683</v>
+        <v>1358</v>
       </c>
       <c r="F101" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2993,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D106" s="2">
-        <v>45839.33734442891</v>
+        <v>45839.88101717314</v>
       </c>
       <c r="E106">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D117" s="2">
-        <v>45839.33732491515</v>
+        <v>45839.88099822243</v>
       </c>
       <c r="E117">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F117" s="2">
-        <v>45838.77019675926</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D123" s="2">
-        <v>45839.33734442683</v>
+        <v>45839.88099822574</v>
       </c>
       <c r="E123">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F123" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.63565972223</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D124" s="2">
-        <v>45839.33730492095</v>
+        <v>45839.88101717326</v>
       </c>
       <c r="E124">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F124" s="2">
-        <v>45838.61395833334</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D125" s="2">
-        <v>45839.33730492847</v>
+        <v>45839.88099821493</v>
       </c>
       <c r="E125">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F125" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.54896990741</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2">
-        <v>45839.33730491941</v>
+        <v>45839.88099822757</v>
       </c>
       <c r="E126">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F126" s="2">
-        <v>45838.53253472222</v>
+        <v>45839.6484837963</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" s="2">
-        <v>45836.30897485722</v>
+        <v>45839.88101717339</v>
       </c>
       <c r="E128">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2">
-        <v>45838.7697337963</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3846,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D141" s="2">
-        <v>45839.33730492862</v>
+        <v>45839.88099822783</v>
       </c>
       <c r="E141">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F141" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.6484837963</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2">
-        <v>45835.41884527828</v>
+        <v>45839.88099823544</v>
       </c>
       <c r="E145">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F145" s="2">
-        <v>45834.53038194445</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4002,16 +4002,16 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D147" s="2">
-        <v>45795.04193352044</v>
+        <v>45839.88101716628</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F147" s="2">
-        <v>45686.69041666666</v>
+        <v>45839.69314814815</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" s="2">
-        <v>45829.29943059936</v>
+        <v>45839.88099821805</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="2">
-        <v>45828.54791666667</v>
+        <v>45839.55863425926</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="D175" s="2">
-        <v>45825.82707705538</v>
+        <v>45839.88099823565</v>
       </c>
       <c r="E175">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F175" s="2">
-        <v>45825.43016203704</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
-        <v>45839.33730492878</v>
+        <v>45839.88099822274</v>
       </c>
       <c r="E192">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F192" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5129,16 +5129,16 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D193" s="2">
-        <v>45827.49773230519</v>
+        <v>45839.88097972488</v>
       </c>
       <c r="E193">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F193" s="2">
-        <v>45827.53342592593</v>
+        <v>45839.4359375</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="D195" s="2">
-        <v>45839.33734443488</v>
+        <v>45839.88099823108</v>
       </c>
       <c r="E195">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="F195" s="2">
-        <v>45838.80914351852</v>
+        <v>45839.6756712963</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D200" s="2">
-        <v>45836.3089748525</v>
+        <v>45839.88099821163</v>
       </c>
       <c r="E200">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F200" s="2">
-        <v>45835.72380787037</v>
+        <v>45839.53225694445</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D217" s="2">
-        <v>45839.33732491361</v>
+        <v>45839.88101717353</v>
       </c>
       <c r="E217">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F217" s="2">
-        <v>45838.7684375</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5737,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D218" s="2">
-        <v>45839.33732490877</v>
+        <v>45839.88099822136</v>
       </c>
       <c r="E218">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F218" s="2">
-        <v>45838.72313657407</v>
+        <v>45839.63506944444</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6149,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D235" s="2">
-        <v>45831.83463791679</v>
+        <v>45839.88101716808</v>
       </c>
       <c r="E235">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F235" s="2">
-        <v>45831.68363425926</v>
+        <v>45839.74771990741</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>828</v>
+        <v>783</v>
       </c>
       <c r="D247" s="2">
-        <v>45839.33732491463</v>
+        <v>45839.88101716968</v>
       </c>
       <c r="E247">
-        <v>828</v>
+        <v>783</v>
       </c>
       <c r="F247" s="2">
-        <v>45838.7697337963</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D255" s="2">
-        <v>45839.3373049294</v>
+        <v>45839.88099821231</v>
       </c>
       <c r="E255">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="F255" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.53225694445</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D270" s="2">
-        <v>45839.33730491664</v>
+        <v>45839.88099823588</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F270" s="2">
-        <v>45838.49497685185</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7097,16 +7097,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="D274" s="2">
-        <v>45839.33734442706</v>
+        <v>45839.88101717365</v>
       </c>
       <c r="E274">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="F274" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7123,16 +7123,16 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D275" s="2">
-        <v>45839.33734443184</v>
+        <v>45839.88101716697</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -7310,16 +7310,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D283" s="2">
-        <v>45839.33732491534</v>
+        <v>45839.88099821831</v>
       </c>
       <c r="E283">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F283" s="2">
-        <v>45838.77019675926</v>
+        <v>45839.55863425926</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7408,16 +7408,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D287" s="2">
-        <v>45839.33730492032</v>
+        <v>45839.88099822295</v>
       </c>
       <c r="E287">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F287" s="2">
-        <v>45838.54960648148</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7509,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="D291" s="2">
-        <v>45839.33734442902</v>
+        <v>45839.88101717612</v>
       </c>
       <c r="E291">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="F291" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78440972222</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>-22</v>
+        <v>-49</v>
       </c>
       <c r="D295" s="2">
-        <v>45839.33734442912</v>
+        <v>45839.88101717379</v>
       </c>
       <c r="E295">
-        <v>-22</v>
+        <v>-49</v>
       </c>
       <c r="F295" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="F296" s="2">
-        <v>45797.41270833334</v>
+        <v>45839.65189814815</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -7737,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D300" s="2">
-        <v>45835.41886850353</v>
+        <v>45839.88099823612</v>
       </c>
       <c r="E300">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F300" s="2">
-        <v>45838.49439814815</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -7953,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D309" s="2">
-        <v>45839.33730492956</v>
+        <v>45839.88099822318</v>
       </c>
       <c r="E309">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="F309" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.63525462963</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -8071,22 +8071,22 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="D314" s="2">
-        <v>45839.33732491332</v>
+        <v>45839.88101716712</v>
       </c>
       <c r="E314">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="F314" s="2">
-        <v>45838.79065972222</v>
+        <v>45839.71052083333</v>
       </c>
       <c r="G314">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8169,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="C318">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="D318" s="2">
-        <v>45839.33732491235</v>
+        <v>45839.88099822066</v>
       </c>
       <c r="E318">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="F318" s="2">
-        <v>45838.76650462963</v>
+        <v>45839.63486111111</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="D326" s="2">
-        <v>45839.33728134785</v>
+        <v>45839.88099823656</v>
       </c>
       <c r="E326">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="F326" s="2">
-        <v>45838.48253472222</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="C342">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D342" s="2">
-        <v>45839.33734442924</v>
+        <v>45839.88101717391</v>
       </c>
       <c r="E342">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F342" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -8870,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D346" s="2">
-        <v>45839.33730492996</v>
+        <v>45839.88097972143</v>
       </c>
       <c r="E346">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F346" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.41645833333</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -8965,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D350" s="2">
-        <v>45839.33734442934</v>
+        <v>45839.88101716992</v>
       </c>
       <c r="E350">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F350" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>1162</v>
+        <v>1085</v>
       </c>
       <c r="D351" s="2">
-        <v>45836.30888100008</v>
+        <v>45839.88101717404</v>
       </c>
       <c r="E351">
-        <v>1162</v>
+        <v>1085</v>
       </c>
       <c r="F351" s="2">
-        <v>45835.6687962963</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9115,16 +9115,16 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D356" s="2">
-        <v>45831.83461824054</v>
+        <v>45839.88099823803</v>
       </c>
       <c r="E356">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F356" s="2">
-        <v>45831.47940972223</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D358" s="2">
-        <v>45839.33734442718</v>
+        <v>45839.88099822167</v>
       </c>
       <c r="E358">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F358" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.63506944444</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="D359" s="2">
-        <v>45839.33730492394</v>
+        <v>45839.88099823437</v>
       </c>
       <c r="E359">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="F359" s="2">
-        <v>45838.66369212963</v>
+        <v>45839.68684027778</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="D361" s="2">
-        <v>45839.33734443266</v>
+        <v>45839.88099822809</v>
       </c>
       <c r="E361">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F361" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.6484837963</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D371" s="2">
-        <v>45835.41886852813</v>
+        <v>45839.88099822834</v>
       </c>
       <c r="E371">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F371" s="2">
-        <v>45835.41170138889</v>
+        <v>45839.6484837963</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -9614,16 +9614,16 @@
         <v>1</v>
       </c>
       <c r="C376">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D376" s="2">
-        <v>45807.78640657826</v>
+        <v>45839.88099820774</v>
       </c>
       <c r="E376">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F376" s="2">
-        <v>45807.43640046296</v>
+        <v>45839.48964120371</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D379" s="2">
-        <v>45839.33730492542</v>
+        <v>45839.88099823161</v>
       </c>
       <c r="E379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F379" s="2">
-        <v>45838.69672453704</v>
+        <v>45839.67738425926</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D385" s="2">
-        <v>45839.33732491542</v>
+        <v>45839.88101717416</v>
       </c>
       <c r="E385">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="F385" s="2">
-        <v>45838.77019675926</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="C390">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D390" s="2">
-        <v>45839.33734443288</v>
+        <v>45839.88099822598</v>
       </c>
       <c r="E390">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F390" s="2">
-        <v>45838.79094907407</v>
+        <v>45839.63565972223</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -10070,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D394" s="2">
-        <v>45839.33734442729</v>
+        <v>45839.8810171743</v>
       </c>
       <c r="E394">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F394" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -10096,16 +10096,16 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="D395" s="2">
-        <v>45827.49771214562</v>
+        <v>45839.88101717006</v>
       </c>
       <c r="E395">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="F395" s="2">
-        <v>45826.54380787037</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D402" s="2">
-        <v>45839.33730493028</v>
+        <v>45839.88099821527</v>
       </c>
       <c r="E402">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F402" s="2">
-        <v>45838.72134259259</v>
+        <v>45839.54896990741</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>1</v>
       </c>
       <c r="C408">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D408" s="2">
-        <v>45839.33730491685</v>
+        <v>45839.88099822109</v>
       </c>
       <c r="E408">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F408" s="2">
-        <v>45838.49497685185</v>
+        <v>45839.63486111111</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>1680</v>
+        <v>1657</v>
       </c>
       <c r="D410" s="2">
-        <v>45839.33734442946</v>
+        <v>45839.88101717443</v>
       </c>
       <c r="E410">
-        <v>1680</v>
+        <v>1657</v>
       </c>
       <c r="F410" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -10624,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="C416">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D416" s="2">
-        <v>45839.3373444274</v>
+        <v>45839.88101717455</v>
       </c>
       <c r="E416">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F416" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>747</v>
+        <v>708</v>
       </c>
       <c r="D418" s="2">
-        <v>45839.33734442956</v>
+        <v>45839.88101717467</v>
       </c>
       <c r="E418">
-        <v>747</v>
+        <v>708</v>
       </c>
       <c r="F418" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.78400462963</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>1</v>
       </c>
       <c r="C422">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D422" s="2">
-        <v>45839.33734442751</v>
+        <v>45839.88099821327</v>
       </c>
       <c r="E422">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F422" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.53225694445</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -10843,16 +10843,16 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D425" s="2">
-        <v>45839.33730492604</v>
+        <v>45839.8809797232</v>
       </c>
       <c r="E425">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F425" s="2">
-        <v>45838.69944444444</v>
+        <v>45839.42005787037</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -11013,16 +11013,16 @@
         <v>1</v>
       </c>
       <c r="C432">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D432" s="2">
-        <v>45804.91952554927</v>
+        <v>45839.88097972368</v>
       </c>
       <c r="E432">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F432" s="2">
-        <v>45804.42633101852</v>
+        <v>45839.42005787037</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D435" s="2">
-        <v>45839.33734442967</v>
+        <v>45839.88099822861</v>
       </c>
       <c r="E435">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F435" s="2">
-        <v>45838.77478009259</v>
+        <v>45839.6484837963</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D443" s="2">
-        <v>45839.33732491342</v>
+        <v>45839.88099823827</v>
       </c>
       <c r="E443">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F443" s="2">
-        <v>45838.76819444444</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -11832,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="D465" s="2">
-        <v>45839.33732491551</v>
+        <v>45839.88097972397</v>
       </c>
       <c r="E465">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="F465" s="2">
-        <v>45838.77019675926</v>
+        <v>45839.42005787037</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>2966</v>
+        <v>2926</v>
       </c>
       <c r="D469" s="2">
-        <v>45839.33734442763</v>
+        <v>45839.88101717018</v>
       </c>
       <c r="E469">
-        <v>2966</v>
+        <v>2926</v>
       </c>
       <c r="F469" s="2">
-        <v>45838.77438657408</v>
+        <v>45839.78326388889</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -12207,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D480" s="2">
-        <v>45839.3373444353</v>
+        <v>45839.88099821862</v>
       </c>
       <c r="E480">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F480" s="2">
-        <v>45838.82079861111</v>
+        <v>45839.55863425926</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D493" s="2">
-        <v>45839.33732490997</v>
+        <v>45839.88101716272</v>
       </c>
       <c r="E493">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F493" s="2">
-        <v>45838.73396990741</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -12611,16 +12611,16 @@
         <v>1</v>
       </c>
       <c r="C496">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D496" s="2">
-        <v>45839.33732491006</v>
+        <v>45839.88101716297</v>
       </c>
       <c r="E496">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F496" s="2">
-        <v>45838.73396990741</v>
+        <v>45839.68895833333</v>
       </c>
       <c r="G496">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D510" s="2">
-        <v>45839.33734443194</v>
+        <v>45839.88101716859</v>
       </c>
       <c r="E510">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F510" s="2">
-        <v>45838.79065972222</v>
+        <v>45839.77019675926</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -13744,16 +13744,16 @@
         <v>1</v>
       </c>
       <c r="C5